--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\digital-ojt-development-cause-DroneInventorySystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697515F6-BA23-4B21-90DD-F75576B042C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A7EEA3-3079-4EEF-9011-CCE0C0BC23E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,34 +970,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="11" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1005,15 +997,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,21 +1012,31 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="56" fontId="11" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1650,120 +1650,120 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="J3" s="81">
+      <c r="J3" s="79">
         <v>2024</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="82"/>
-      <c r="BD3" s="82"/>
-      <c r="BE3" s="82"/>
-      <c r="BF3" s="82"/>
-      <c r="BG3" s="82"/>
-      <c r="BH3" s="82"/>
-      <c r="BI3" s="82"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="82"/>
-      <c r="BM3" s="82"/>
-      <c r="BN3" s="82"/>
-      <c r="BO3" s="82"/>
-      <c r="BP3" s="82"/>
-      <c r="BQ3" s="82"/>
-      <c r="BR3" s="82"/>
-      <c r="BS3" s="82"/>
-      <c r="BT3" s="82"/>
-      <c r="BU3" s="82"/>
-      <c r="BV3" s="82"/>
-      <c r="BW3" s="82"/>
-      <c r="BX3" s="82"/>
-      <c r="BY3" s="82"/>
-      <c r="BZ3" s="82"/>
-      <c r="CA3" s="82"/>
-      <c r="CB3" s="82"/>
-      <c r="CC3" s="82"/>
-      <c r="CD3" s="82"/>
-      <c r="CE3" s="82"/>
-      <c r="CF3" s="82"/>
-      <c r="CG3" s="82"/>
-      <c r="CH3" s="82"/>
-      <c r="CI3" s="82"/>
-      <c r="CJ3" s="83"/>
-      <c r="CK3" s="81">
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80"/>
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80"/>
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="80"/>
+      <c r="BR3" s="80"/>
+      <c r="BS3" s="80"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="80"/>
+      <c r="BV3" s="80"/>
+      <c r="BW3" s="80"/>
+      <c r="BX3" s="80"/>
+      <c r="BY3" s="80"/>
+      <c r="BZ3" s="80"/>
+      <c r="CA3" s="80"/>
+      <c r="CB3" s="80"/>
+      <c r="CC3" s="80"/>
+      <c r="CD3" s="80"/>
+      <c r="CE3" s="80"/>
+      <c r="CF3" s="80"/>
+      <c r="CG3" s="80"/>
+      <c r="CH3" s="80"/>
+      <c r="CI3" s="80"/>
+      <c r="CJ3" s="81"/>
+      <c r="CK3" s="79">
         <v>2025</v>
       </c>
-      <c r="CL3" s="82"/>
-      <c r="CM3" s="82"/>
-      <c r="CN3" s="82"/>
-      <c r="CO3" s="82"/>
-      <c r="CP3" s="82"/>
-      <c r="CQ3" s="82"/>
-      <c r="CR3" s="82"/>
-      <c r="CS3" s="82"/>
-      <c r="CT3" s="82"/>
-      <c r="CU3" s="82"/>
-      <c r="CV3" s="82"/>
-      <c r="CW3" s="82"/>
-      <c r="CX3" s="82"/>
-      <c r="CY3" s="82"/>
-      <c r="CZ3" s="82"/>
-      <c r="DA3" s="82"/>
-      <c r="DB3" s="82"/>
-      <c r="DC3" s="82"/>
-      <c r="DD3" s="82"/>
-      <c r="DE3" s="82"/>
-      <c r="DF3" s="82"/>
-      <c r="DG3" s="82"/>
-      <c r="DH3" s="82"/>
-      <c r="DI3" s="82"/>
-      <c r="DJ3" s="82"/>
-      <c r="DK3" s="82"/>
-      <c r="DL3" s="82"/>
-      <c r="DM3" s="82"/>
-      <c r="DN3" s="82"/>
-      <c r="DO3" s="83"/>
+      <c r="CL3" s="80"/>
+      <c r="CM3" s="80"/>
+      <c r="CN3" s="80"/>
+      <c r="CO3" s="80"/>
+      <c r="CP3" s="80"/>
+      <c r="CQ3" s="80"/>
+      <c r="CR3" s="80"/>
+      <c r="CS3" s="80"/>
+      <c r="CT3" s="80"/>
+      <c r="CU3" s="80"/>
+      <c r="CV3" s="80"/>
+      <c r="CW3" s="80"/>
+      <c r="CX3" s="80"/>
+      <c r="CY3" s="80"/>
+      <c r="CZ3" s="80"/>
+      <c r="DA3" s="80"/>
+      <c r="DB3" s="80"/>
+      <c r="DC3" s="80"/>
+      <c r="DD3" s="80"/>
+      <c r="DE3" s="80"/>
+      <c r="DF3" s="80"/>
+      <c r="DG3" s="80"/>
+      <c r="DH3" s="80"/>
+      <c r="DI3" s="80"/>
+      <c r="DJ3" s="80"/>
+      <c r="DK3" s="80"/>
+      <c r="DL3" s="80"/>
+      <c r="DM3" s="80"/>
+      <c r="DN3" s="80"/>
+      <c r="DO3" s="81"/>
       <c r="DP3" s="1"/>
     </row>
     <row r="4" spans="1:120" ht="18" customHeight="1">
@@ -1778,124 +1778,124 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="81">
+      <c r="J4" s="79">
         <v>10</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="81">
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="79">
         <v>11</v>
       </c>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="81">
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="79">
         <v>12</v>
       </c>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="82"/>
-      <c r="BM4" s="82"/>
-      <c r="BN4" s="82"/>
-      <c r="BO4" s="82"/>
-      <c r="BP4" s="82"/>
-      <c r="BQ4" s="82"/>
-      <c r="BR4" s="82"/>
-      <c r="BS4" s="82"/>
-      <c r="BT4" s="82"/>
-      <c r="BU4" s="82"/>
-      <c r="BV4" s="82"/>
-      <c r="BW4" s="82"/>
-      <c r="BX4" s="82"/>
-      <c r="BY4" s="82"/>
-      <c r="BZ4" s="82"/>
-      <c r="CA4" s="82"/>
-      <c r="CB4" s="82"/>
-      <c r="CC4" s="82"/>
-      <c r="CD4" s="82"/>
-      <c r="CE4" s="82"/>
-      <c r="CF4" s="82"/>
-      <c r="CG4" s="82"/>
-      <c r="CH4" s="82"/>
-      <c r="CI4" s="82"/>
-      <c r="CJ4" s="83"/>
-      <c r="CK4" s="81">
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="80"/>
+      <c r="BN4" s="80"/>
+      <c r="BO4" s="80"/>
+      <c r="BP4" s="80"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="80"/>
+      <c r="BS4" s="80"/>
+      <c r="BT4" s="80"/>
+      <c r="BU4" s="80"/>
+      <c r="BV4" s="80"/>
+      <c r="BW4" s="80"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="80"/>
+      <c r="BZ4" s="80"/>
+      <c r="CA4" s="80"/>
+      <c r="CB4" s="80"/>
+      <c r="CC4" s="80"/>
+      <c r="CD4" s="80"/>
+      <c r="CE4" s="80"/>
+      <c r="CF4" s="80"/>
+      <c r="CG4" s="80"/>
+      <c r="CH4" s="80"/>
+      <c r="CI4" s="80"/>
+      <c r="CJ4" s="81"/>
+      <c r="CK4" s="79">
         <v>1</v>
       </c>
-      <c r="CL4" s="82"/>
-      <c r="CM4" s="82"/>
-      <c r="CN4" s="82"/>
-      <c r="CO4" s="82"/>
-      <c r="CP4" s="82"/>
-      <c r="CQ4" s="82"/>
-      <c r="CR4" s="82"/>
-      <c r="CS4" s="82"/>
-      <c r="CT4" s="82"/>
-      <c r="CU4" s="82"/>
-      <c r="CV4" s="82"/>
-      <c r="CW4" s="82"/>
-      <c r="CX4" s="82"/>
-      <c r="CY4" s="82"/>
-      <c r="CZ4" s="82"/>
-      <c r="DA4" s="82"/>
-      <c r="DB4" s="82"/>
-      <c r="DC4" s="82"/>
-      <c r="DD4" s="82"/>
-      <c r="DE4" s="82"/>
-      <c r="DF4" s="82"/>
-      <c r="DG4" s="82"/>
-      <c r="DH4" s="82"/>
-      <c r="DI4" s="82"/>
-      <c r="DJ4" s="82"/>
-      <c r="DK4" s="82"/>
-      <c r="DL4" s="82"/>
-      <c r="DM4" s="82"/>
-      <c r="DN4" s="82"/>
-      <c r="DO4" s="83"/>
+      <c r="CL4" s="80"/>
+      <c r="CM4" s="80"/>
+      <c r="CN4" s="80"/>
+      <c r="CO4" s="80"/>
+      <c r="CP4" s="80"/>
+      <c r="CQ4" s="80"/>
+      <c r="CR4" s="80"/>
+      <c r="CS4" s="80"/>
+      <c r="CT4" s="80"/>
+      <c r="CU4" s="80"/>
+      <c r="CV4" s="80"/>
+      <c r="CW4" s="80"/>
+      <c r="CX4" s="80"/>
+      <c r="CY4" s="80"/>
+      <c r="CZ4" s="80"/>
+      <c r="DA4" s="80"/>
+      <c r="DB4" s="80"/>
+      <c r="DC4" s="80"/>
+      <c r="DD4" s="80"/>
+      <c r="DE4" s="80"/>
+      <c r="DF4" s="80"/>
+      <c r="DG4" s="80"/>
+      <c r="DH4" s="80"/>
+      <c r="DI4" s="80"/>
+      <c r="DJ4" s="80"/>
+      <c r="DK4" s="80"/>
+      <c r="DL4" s="80"/>
+      <c r="DM4" s="80"/>
+      <c r="DN4" s="80"/>
+      <c r="DO4" s="81"/>
       <c r="DP4" s="6"/>
     </row>
     <row r="5" spans="1:120" ht="18" customHeight="1">
@@ -2690,18 +2690,18 @@
     </row>
     <row r="7" spans="1:120" ht="9.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="60" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="84" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="38"/>
@@ -2818,14 +2818,14 @@
     </row>
     <row r="8" spans="1:120" ht="9.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="39"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -2941,15 +2941,15 @@
     <row r="9" spans="1:120" ht="9.75" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
       <c r="L9" s="44"/>
@@ -3065,13 +3065,13 @@
     <row r="10" spans="1:120" ht="9.75" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="46"/>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
@@ -3187,15 +3187,15 @@
     <row r="11" spans="1:120" ht="9.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="44"/>
@@ -3311,13 +3311,13 @@
     <row r="12" spans="1:120" ht="9.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
       <c r="J12" s="46"/>
       <c r="K12" s="47"/>
       <c r="L12" s="47"/>
@@ -3434,16 +3434,16 @@
       <c r="A13" s="1"/>
       <c r="B13" s="18"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="57" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="88">
         <v>100</v>
       </c>
       <c r="J13" s="39"/>
@@ -3562,12 +3562,12 @@
       <c r="A14" s="1"/>
       <c r="B14" s="18"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="39"/>
       <c r="K14" s="53"/>
       <c r="L14" s="15"/>
@@ -3684,16 +3684,16 @@
       <c r="A15" s="1"/>
       <c r="B15" s="18"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="57" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="88">
         <v>100</v>
       </c>
       <c r="J15" s="14"/>
@@ -3812,12 +3812,12 @@
       <c r="A16" s="1"/>
       <c r="B16" s="18"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="14"/>
       <c r="K16" s="53"/>
       <c r="L16" s="15"/>
@@ -3934,16 +3934,16 @@
       <c r="A17" s="1"/>
       <c r="B17" s="18"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="57" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="88">
         <v>100</v>
       </c>
       <c r="J17" s="14"/>
@@ -4062,12 +4062,12 @@
       <c r="A18" s="1"/>
       <c r="B18" s="18"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
       <c r="J18" s="14"/>
       <c r="K18" s="53"/>
       <c r="L18" s="15"/>
@@ -4184,16 +4184,16 @@
       <c r="A19" s="1"/>
       <c r="B19" s="18"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="57" t="s">
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="88">
         <v>100</v>
       </c>
       <c r="J19" s="14"/>
@@ -4312,12 +4312,12 @@
       <c r="A20" s="1"/>
       <c r="B20" s="18"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
       <c r="J20" s="26"/>
       <c r="K20" s="54"/>
       <c r="L20" s="27"/>
@@ -4433,15 +4433,15 @@
     <row r="21" spans="1:120" ht="9.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="42"/>
       <c r="K21" s="43"/>
       <c r="L21" s="44"/>
@@ -4557,13 +4557,13 @@
     <row r="22" spans="1:120" ht="9.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
@@ -4680,16 +4680,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="57" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="88">
         <v>100</v>
       </c>
       <c r="J23" s="14"/>
@@ -4808,12 +4808,12 @@
       <c r="A24" s="1"/>
       <c r="B24" s="18"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
       <c r="L24" s="53"/>
@@ -4929,15 +4929,15 @@
     <row r="25" spans="1:120" ht="9.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
       <c r="L25" s="44"/>
@@ -5053,13 +5053,13 @@
     <row r="26" spans="1:120" ht="9.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="46"/>
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
@@ -5176,16 +5176,16 @@
       <c r="A27" s="1"/>
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="57" t="s">
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="88">
         <v>100</v>
       </c>
       <c r="J27" s="14"/>
@@ -5304,12 +5304,12 @@
       <c r="A28" s="1"/>
       <c r="B28" s="28"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -5426,16 +5426,16 @@
       <c r="A29" s="1"/>
       <c r="B29" s="28"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="57" t="s">
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="88">
         <v>100</v>
       </c>
       <c r="J29" s="14"/>
@@ -5554,12 +5554,12 @@
       <c r="A30" s="1"/>
       <c r="B30" s="28"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
       <c r="J30" s="26"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
@@ -5675,15 +5675,15 @@
     <row r="31" spans="1:120" ht="9.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
       <c r="J31" s="42"/>
       <c r="K31" s="43"/>
       <c r="L31" s="44"/>
@@ -5799,13 +5799,13 @@
     <row r="32" spans="1:120" ht="9.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
       <c r="J32" s="46"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
@@ -5922,14 +5922,14 @@
       <c r="A33" s="1"/>
       <c r="B33" s="18"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
       <c r="J33" s="50"/>
       <c r="K33" s="51"/>
       <c r="L33" s="51"/>
@@ -6046,12 +6046,12 @@
       <c r="A34" s="1"/>
       <c r="B34" s="18"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
       <c r="J34" s="52"/>
       <c r="K34" s="49"/>
       <c r="L34" s="49"/>
@@ -6169,15 +6169,15 @@
       <c r="B35" s="18"/>
       <c r="C35" s="1"/>
       <c r="D35" s="33"/>
-      <c r="E35" s="79" t="s">
+      <c r="E35" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="57" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="I35" s="58">
+      <c r="I35" s="88">
         <v>100</v>
       </c>
       <c r="J35" s="14"/>
@@ -6297,11 +6297,11 @@
       <c r="B36" s="18"/>
       <c r="C36" s="1"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
@@ -6419,15 +6419,15 @@
       <c r="B37" s="18"/>
       <c r="C37" s="1"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="79" t="s">
+      <c r="E37" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="62"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="57" t="s">
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="58">
+      <c r="I37" s="88">
         <v>100</v>
       </c>
       <c r="J37" s="14"/>
@@ -6547,11 +6547,11 @@
       <c r="B38" s="18"/>
       <c r="C38" s="1"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
       <c r="J38" s="26"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
@@ -6668,14 +6668,14 @@
       <c r="A39" s="1"/>
       <c r="B39" s="18"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
       <c r="J39" s="50"/>
       <c r="K39" s="51"/>
       <c r="L39" s="51"/>
@@ -6792,12 +6792,12 @@
       <c r="A40" s="1"/>
       <c r="B40" s="18"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
       <c r="J40" s="52"/>
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
@@ -6915,15 +6915,15 @@
       <c r="B41" s="18"/>
       <c r="C41" s="1"/>
       <c r="D41" s="33"/>
-      <c r="E41" s="79" t="s">
+      <c r="E41" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="62"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="57" t="s">
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="58">
+      <c r="I41" s="88">
         <v>100</v>
       </c>
       <c r="J41" s="14"/>
@@ -7043,11 +7043,11 @@
       <c r="B42" s="18"/>
       <c r="C42" s="1"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -7165,15 +7165,15 @@
       <c r="B43" s="18"/>
       <c r="C43" s="1"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="57" t="s">
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="58">
+      <c r="I43" s="88">
         <v>100</v>
       </c>
       <c r="J43" s="14"/>
@@ -7293,11 +7293,11 @@
       <c r="B44" s="18"/>
       <c r="C44" s="1"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -7415,15 +7415,15 @@
       <c r="B45" s="18"/>
       <c r="C45" s="1"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="79" t="s">
+      <c r="E45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="57" t="s">
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="58">
+      <c r="I45" s="88">
         <v>100</v>
       </c>
       <c r="J45" s="14"/>
@@ -7543,11 +7543,11 @@
       <c r="B46" s="18"/>
       <c r="C46" s="1"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
@@ -7665,15 +7665,15 @@
       <c r="B47" s="18"/>
       <c r="C47" s="1"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="79" t="s">
+      <c r="E47" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="62"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="57" t="s">
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="58">
+      <c r="I47" s="88">
         <v>100</v>
       </c>
       <c r="J47" s="14"/>
@@ -7793,11 +7793,11 @@
       <c r="B48" s="18"/>
       <c r="C48" s="1"/>
       <c r="D48" s="34"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
@@ -7915,15 +7915,15 @@
       <c r="B49" s="18"/>
       <c r="C49" s="1"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="79" t="s">
+      <c r="E49" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="62"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="57" t="s">
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="I49" s="58">
+      <c r="I49" s="88">
         <v>100</v>
       </c>
       <c r="J49" s="14"/>
@@ -8043,11 +8043,11 @@
       <c r="B50" s="18"/>
       <c r="C50" s="1"/>
       <c r="D50" s="34"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
@@ -8165,15 +8165,15 @@
       <c r="B51" s="18"/>
       <c r="C51" s="1"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="79" t="s">
+      <c r="E51" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="62"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="57" t="s">
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I51" s="58">
+      <c r="I51" s="88">
         <v>100</v>
       </c>
       <c r="J51" s="14"/>
@@ -8293,11 +8293,11 @@
       <c r="B52" s="18"/>
       <c r="C52" s="1"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
       <c r="J52" s="26"/>
       <c r="K52" s="27"/>
       <c r="L52" s="27"/>
@@ -8414,14 +8414,14 @@
       <c r="A53" s="1"/>
       <c r="B53" s="18"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="78" t="s">
+      <c r="D53" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
       <c r="J53" s="50"/>
       <c r="K53" s="51"/>
       <c r="L53" s="51"/>
@@ -8538,12 +8538,12 @@
       <c r="A54" s="1"/>
       <c r="B54" s="18"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
       <c r="J54" s="52"/>
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
@@ -8661,15 +8661,15 @@
       <c r="B55" s="18"/>
       <c r="C55" s="1"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="79" t="s">
+      <c r="E55" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="57" t="s">
+      <c r="F55" s="58"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="58">
+      <c r="I55" s="88">
         <v>100</v>
       </c>
       <c r="J55" s="14"/>
@@ -8789,11 +8789,11 @@
       <c r="B56" s="18"/>
       <c r="C56" s="1"/>
       <c r="D56" s="34"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
@@ -8911,15 +8911,15 @@
       <c r="B57" s="18"/>
       <c r="C57" s="1"/>
       <c r="D57" s="34"/>
-      <c r="E57" s="79" t="s">
+      <c r="E57" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="62"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="57" t="s">
+      <c r="F57" s="58"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="I57" s="58">
+      <c r="I57" s="88">
         <v>100</v>
       </c>
       <c r="J57" s="14"/>
@@ -9039,11 +9039,11 @@
       <c r="B58" s="18"/>
       <c r="C58" s="1"/>
       <c r="D58" s="34"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
@@ -9161,15 +9161,15 @@
       <c r="B59" s="18"/>
       <c r="C59" s="1"/>
       <c r="D59" s="34"/>
-      <c r="E59" s="79" t="s">
+      <c r="E59" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="62"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="57" t="s">
+      <c r="F59" s="58"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="I59" s="58">
+      <c r="I59" s="88">
         <v>100</v>
       </c>
       <c r="J59" s="14"/>
@@ -9289,11 +9289,11 @@
       <c r="B60" s="18"/>
       <c r="C60" s="1"/>
       <c r="D60" s="34"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
@@ -9411,15 +9411,15 @@
       <c r="B61" s="18"/>
       <c r="C61" s="1"/>
       <c r="D61" s="34"/>
-      <c r="E61" s="79" t="s">
+      <c r="E61" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="62"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="57" t="s">
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="I61" s="58">
+      <c r="I61" s="88">
         <v>100</v>
       </c>
       <c r="J61" s="14"/>
@@ -9539,11 +9539,11 @@
       <c r="B62" s="18"/>
       <c r="C62" s="1"/>
       <c r="D62" s="34"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
       <c r="J62" s="26"/>
       <c r="K62" s="27"/>
       <c r="L62" s="27"/>
@@ -9660,14 +9660,14 @@
       <c r="A63" s="1"/>
       <c r="B63" s="18"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="78" t="s">
+      <c r="D63" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
       <c r="J63" s="50"/>
       <c r="K63" s="51"/>
       <c r="L63" s="51"/>
@@ -9784,12 +9784,12 @@
       <c r="A64" s="1"/>
       <c r="B64" s="18"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
       <c r="J64" s="52"/>
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
@@ -9907,15 +9907,15 @@
       <c r="B65" s="18"/>
       <c r="C65" s="1"/>
       <c r="D65" s="34"/>
-      <c r="E65" s="79" t="s">
+      <c r="E65" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="62"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="57" t="s">
+      <c r="F65" s="58"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="I65" s="58">
+      <c r="I65" s="88">
         <v>100</v>
       </c>
       <c r="J65" s="14"/>
@@ -10035,11 +10035,11 @@
       <c r="B66" s="18"/>
       <c r="C66" s="1"/>
       <c r="D66" s="34"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
@@ -10157,15 +10157,15 @@
       <c r="B67" s="18"/>
       <c r="C67" s="1"/>
       <c r="D67" s="34"/>
-      <c r="E67" s="79" t="s">
+      <c r="E67" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="62"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="57" t="s">
+      <c r="F67" s="58"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="I67" s="58">
+      <c r="I67" s="88">
         <v>100</v>
       </c>
       <c r="J67" s="14"/>
@@ -10285,11 +10285,11 @@
       <c r="B68" s="18"/>
       <c r="C68" s="1"/>
       <c r="D68" s="34"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
@@ -10407,15 +10407,15 @@
       <c r="B69" s="18"/>
       <c r="C69" s="1"/>
       <c r="D69" s="34"/>
-      <c r="E69" s="79" t="s">
+      <c r="E69" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F69" s="62"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="57" t="s">
+      <c r="F69" s="58"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="I69" s="58"/>
+      <c r="I69" s="88"/>
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
@@ -10533,11 +10533,11 @@
       <c r="B70" s="18"/>
       <c r="C70" s="1"/>
       <c r="D70" s="34"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
@@ -10655,15 +10655,17 @@
       <c r="B71" s="18"/>
       <c r="C71" s="1"/>
       <c r="D71" s="34"/>
-      <c r="E71" s="79" t="s">
+      <c r="E71" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="62"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="57" t="s">
+      <c r="F71" s="58"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="I71" s="58"/>
+      <c r="I71" s="88">
+        <v>100</v>
+      </c>
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
@@ -10781,11 +10783,11 @@
       <c r="B72" s="18"/>
       <c r="C72" s="1"/>
       <c r="D72" s="35"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
       <c r="J72" s="26"/>
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
@@ -10901,17 +10903,19 @@
     <row r="73" spans="1:120" ht="9.75" customHeight="1">
       <c r="A73" s="16"/>
       <c r="B73" s="36"/>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="57" t="s">
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="I73" s="58"/>
+      <c r="I73" s="88">
+        <v>100</v>
+      </c>
       <c r="J73" s="19"/>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
@@ -11027,13 +11031,13 @@
     <row r="74" spans="1:120" ht="9.75" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="36"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
       <c r="J74" s="19"/>
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
@@ -11149,17 +11153,17 @@
     <row r="75" spans="1:120" ht="9.75" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="36"/>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="57" t="s">
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="I75" s="58"/>
+      <c r="I75" s="88"/>
       <c r="J75" s="19"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
@@ -11275,13 +11279,13 @@
     <row r="76" spans="1:120" ht="9.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="36"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
       <c r="J76" s="19"/>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
@@ -11397,17 +11401,17 @@
     <row r="77" spans="1:120" ht="9.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="57" t="s">
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="I77" s="58"/>
+      <c r="I77" s="88"/>
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
@@ -11523,13 +11527,13 @@
     <row r="78" spans="1:120" ht="9.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
@@ -11644,16 +11648,16 @@
     </row>
     <row r="79" spans="1:120" ht="9.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="88"/>
       <c r="J79" s="12"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
@@ -11768,14 +11772,14 @@
     </row>
     <row r="80" spans="1:120" ht="9.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
@@ -11891,17 +11895,17 @@
     <row r="81" spans="1:120" ht="9.75" customHeight="1">
       <c r="A81" s="16"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="57" t="s">
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="I81" s="58"/>
+      <c r="I81" s="88"/>
       <c r="J81" s="19"/>
       <c r="K81" s="20"/>
       <c r="L81" s="20"/>
@@ -12017,13 +12021,13 @@
     <row r="82" spans="1:120" ht="9.75" customHeight="1">
       <c r="A82" s="16"/>
       <c r="B82" s="37"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
       <c r="J82" s="19"/>
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
@@ -25566,36 +25570,72 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="C73:G74"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="J3:CJ3"/>
-    <mergeCell ref="CK3:DO3"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="AB4:BE4"/>
-    <mergeCell ref="BF4:CJ4"/>
-    <mergeCell ref="CK4:DO4"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="C81:G82"/>
     <mergeCell ref="B79:G80"/>
     <mergeCell ref="C77:G78"/>
@@ -25620,72 +25660,36 @@
     <mergeCell ref="E55:G56"/>
     <mergeCell ref="E57:G58"/>
     <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="J3:CJ3"/>
+    <mergeCell ref="CK3:DO3"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="AB4:BE4"/>
+    <mergeCell ref="BF4:CJ4"/>
+    <mergeCell ref="CK4:DO4"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="C73:G74"/>
+    <mergeCell ref="C75:G76"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <conditionalFormatting sqref="J7">

--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctcg-my.sharepoint.com/personal/z2240246_intra_ctc-g_co_jp/Documents/デスクトップ/AIP-解除/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\digital-ojt-development-cause-DroneInventorySystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_94828D60B24D35E99AC36EDB01F58B7208B6A9AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6412E0EF-69DC-412C-A2F6-5F22A56B5B92}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3134B86-B791-47F9-8FF5-71E55D966185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14055" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="3" r:id="rId1"/>
@@ -883,7 +883,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,6 +989,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1"/>
@@ -1794,10 +1800,129 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1810,52 +1935,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,87 +1956,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2497,7 +2504,7 @@
   <dimension ref="A1:DS276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="8" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="8" topLeftCell="M60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight"/>
@@ -2509,7 +2516,7 @@
     <col min="6" max="6" width="8" style="3" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" customWidth="1"/>
     <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="91" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="90" customWidth="1"/>
     <col min="11" max="12" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="122" width="3.44140625" style="3" customWidth="1"/>
     <col min="123" max="123" width="5" style="3" customWidth="1"/>
@@ -2771,120 +2778,120 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="79"/>
-      <c r="M3" s="142">
+      <c r="M3" s="104">
         <v>2024</v>
       </c>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143"/>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143"/>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143"/>
-      <c r="BA3" s="143"/>
-      <c r="BB3" s="143"/>
-      <c r="BC3" s="143"/>
-      <c r="BD3" s="143"/>
-      <c r="BE3" s="143"/>
-      <c r="BF3" s="143"/>
-      <c r="BG3" s="143"/>
-      <c r="BH3" s="143"/>
-      <c r="BI3" s="143"/>
-      <c r="BJ3" s="143"/>
-      <c r="BK3" s="143"/>
-      <c r="BL3" s="143"/>
-      <c r="BM3" s="143"/>
-      <c r="BN3" s="143"/>
-      <c r="BO3" s="143"/>
-      <c r="BP3" s="143"/>
-      <c r="BQ3" s="143"/>
-      <c r="BR3" s="143"/>
-      <c r="BS3" s="143"/>
-      <c r="BT3" s="143"/>
-      <c r="BU3" s="143"/>
-      <c r="BV3" s="143"/>
-      <c r="BW3" s="143"/>
-      <c r="BX3" s="143"/>
-      <c r="BY3" s="143"/>
-      <c r="BZ3" s="143"/>
-      <c r="CA3" s="143"/>
-      <c r="CB3" s="143"/>
-      <c r="CC3" s="143"/>
-      <c r="CD3" s="143"/>
-      <c r="CE3" s="143"/>
-      <c r="CF3" s="143"/>
-      <c r="CG3" s="143"/>
-      <c r="CH3" s="143"/>
-      <c r="CI3" s="143"/>
-      <c r="CJ3" s="143"/>
-      <c r="CK3" s="143"/>
-      <c r="CL3" s="143"/>
-      <c r="CM3" s="144"/>
-      <c r="CN3" s="142">
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="105"/>
+      <c r="AT3" s="105"/>
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="105"/>
+      <c r="BC3" s="105"/>
+      <c r="BD3" s="105"/>
+      <c r="BE3" s="105"/>
+      <c r="BF3" s="105"/>
+      <c r="BG3" s="105"/>
+      <c r="BH3" s="105"/>
+      <c r="BI3" s="105"/>
+      <c r="BJ3" s="105"/>
+      <c r="BK3" s="105"/>
+      <c r="BL3" s="105"/>
+      <c r="BM3" s="105"/>
+      <c r="BN3" s="105"/>
+      <c r="BO3" s="105"/>
+      <c r="BP3" s="105"/>
+      <c r="BQ3" s="105"/>
+      <c r="BR3" s="105"/>
+      <c r="BS3" s="105"/>
+      <c r="BT3" s="105"/>
+      <c r="BU3" s="105"/>
+      <c r="BV3" s="105"/>
+      <c r="BW3" s="105"/>
+      <c r="BX3" s="105"/>
+      <c r="BY3" s="105"/>
+      <c r="BZ3" s="105"/>
+      <c r="CA3" s="105"/>
+      <c r="CB3" s="105"/>
+      <c r="CC3" s="105"/>
+      <c r="CD3" s="105"/>
+      <c r="CE3" s="105"/>
+      <c r="CF3" s="105"/>
+      <c r="CG3" s="105"/>
+      <c r="CH3" s="105"/>
+      <c r="CI3" s="105"/>
+      <c r="CJ3" s="105"/>
+      <c r="CK3" s="105"/>
+      <c r="CL3" s="105"/>
+      <c r="CM3" s="106"/>
+      <c r="CN3" s="104">
         <v>2025</v>
       </c>
-      <c r="CO3" s="143"/>
-      <c r="CP3" s="143"/>
-      <c r="CQ3" s="143"/>
-      <c r="CR3" s="143"/>
-      <c r="CS3" s="143"/>
-      <c r="CT3" s="143"/>
-      <c r="CU3" s="143"/>
-      <c r="CV3" s="143"/>
-      <c r="CW3" s="143"/>
-      <c r="CX3" s="143"/>
-      <c r="CY3" s="143"/>
-      <c r="CZ3" s="143"/>
-      <c r="DA3" s="143"/>
-      <c r="DB3" s="143"/>
-      <c r="DC3" s="143"/>
-      <c r="DD3" s="143"/>
-      <c r="DE3" s="143"/>
-      <c r="DF3" s="143"/>
-      <c r="DG3" s="143"/>
-      <c r="DH3" s="143"/>
-      <c r="DI3" s="143"/>
-      <c r="DJ3" s="143"/>
-      <c r="DK3" s="143"/>
-      <c r="DL3" s="143"/>
-      <c r="DM3" s="143"/>
-      <c r="DN3" s="143"/>
-      <c r="DO3" s="143"/>
-      <c r="DP3" s="143"/>
-      <c r="DQ3" s="143"/>
-      <c r="DR3" s="144"/>
+      <c r="CO3" s="105"/>
+      <c r="CP3" s="105"/>
+      <c r="CQ3" s="105"/>
+      <c r="CR3" s="105"/>
+      <c r="CS3" s="105"/>
+      <c r="CT3" s="105"/>
+      <c r="CU3" s="105"/>
+      <c r="CV3" s="105"/>
+      <c r="CW3" s="105"/>
+      <c r="CX3" s="105"/>
+      <c r="CY3" s="105"/>
+      <c r="CZ3" s="105"/>
+      <c r="DA3" s="105"/>
+      <c r="DB3" s="105"/>
+      <c r="DC3" s="105"/>
+      <c r="DD3" s="105"/>
+      <c r="DE3" s="105"/>
+      <c r="DF3" s="105"/>
+      <c r="DG3" s="105"/>
+      <c r="DH3" s="105"/>
+      <c r="DI3" s="105"/>
+      <c r="DJ3" s="105"/>
+      <c r="DK3" s="105"/>
+      <c r="DL3" s="105"/>
+      <c r="DM3" s="105"/>
+      <c r="DN3" s="105"/>
+      <c r="DO3" s="105"/>
+      <c r="DP3" s="105"/>
+      <c r="DQ3" s="105"/>
+      <c r="DR3" s="106"/>
       <c r="DS3" s="2"/>
     </row>
     <row r="4" spans="1:123" ht="18" customHeight="1">
@@ -2899,124 +2906,124 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="M4" s="142">
+      <c r="M4" s="104">
         <v>10</v>
       </c>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="142">
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="104">
         <v>11</v>
       </c>
-      <c r="AF4" s="143"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="143"/>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143"/>
-      <c r="AP4" s="143"/>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="143"/>
-      <c r="AS4" s="143"/>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="143"/>
-      <c r="AV4" s="143"/>
-      <c r="AW4" s="143"/>
-      <c r="AX4" s="143"/>
-      <c r="AY4" s="143"/>
-      <c r="AZ4" s="143"/>
-      <c r="BA4" s="143"/>
-      <c r="BB4" s="143"/>
-      <c r="BC4" s="143"/>
-      <c r="BD4" s="143"/>
-      <c r="BE4" s="143"/>
-      <c r="BF4" s="143"/>
-      <c r="BG4" s="143"/>
-      <c r="BH4" s="144"/>
-      <c r="BI4" s="142">
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="105"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="105"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="104">
         <v>12</v>
       </c>
-      <c r="BJ4" s="143"/>
-      <c r="BK4" s="143"/>
-      <c r="BL4" s="143"/>
-      <c r="BM4" s="143"/>
-      <c r="BN4" s="143"/>
-      <c r="BO4" s="143"/>
-      <c r="BP4" s="143"/>
-      <c r="BQ4" s="143"/>
-      <c r="BR4" s="143"/>
-      <c r="BS4" s="143"/>
-      <c r="BT4" s="143"/>
-      <c r="BU4" s="143"/>
-      <c r="BV4" s="143"/>
-      <c r="BW4" s="143"/>
-      <c r="BX4" s="143"/>
-      <c r="BY4" s="143"/>
-      <c r="BZ4" s="143"/>
-      <c r="CA4" s="143"/>
-      <c r="CB4" s="143"/>
-      <c r="CC4" s="143"/>
-      <c r="CD4" s="143"/>
-      <c r="CE4" s="143"/>
-      <c r="CF4" s="143"/>
-      <c r="CG4" s="143"/>
-      <c r="CH4" s="143"/>
-      <c r="CI4" s="143"/>
-      <c r="CJ4" s="143"/>
-      <c r="CK4" s="143"/>
-      <c r="CL4" s="143"/>
-      <c r="CM4" s="144"/>
-      <c r="CN4" s="142">
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="105"/>
+      <c r="BL4" s="105"/>
+      <c r="BM4" s="105"/>
+      <c r="BN4" s="105"/>
+      <c r="BO4" s="105"/>
+      <c r="BP4" s="105"/>
+      <c r="BQ4" s="105"/>
+      <c r="BR4" s="105"/>
+      <c r="BS4" s="105"/>
+      <c r="BT4" s="105"/>
+      <c r="BU4" s="105"/>
+      <c r="BV4" s="105"/>
+      <c r="BW4" s="105"/>
+      <c r="BX4" s="105"/>
+      <c r="BY4" s="105"/>
+      <c r="BZ4" s="105"/>
+      <c r="CA4" s="105"/>
+      <c r="CB4" s="105"/>
+      <c r="CC4" s="105"/>
+      <c r="CD4" s="105"/>
+      <c r="CE4" s="105"/>
+      <c r="CF4" s="105"/>
+      <c r="CG4" s="105"/>
+      <c r="CH4" s="105"/>
+      <c r="CI4" s="105"/>
+      <c r="CJ4" s="105"/>
+      <c r="CK4" s="105"/>
+      <c r="CL4" s="105"/>
+      <c r="CM4" s="106"/>
+      <c r="CN4" s="104">
         <v>1</v>
       </c>
-      <c r="CO4" s="143"/>
-      <c r="CP4" s="143"/>
-      <c r="CQ4" s="143"/>
-      <c r="CR4" s="143"/>
-      <c r="CS4" s="143"/>
-      <c r="CT4" s="143"/>
-      <c r="CU4" s="143"/>
-      <c r="CV4" s="143"/>
-      <c r="CW4" s="143"/>
-      <c r="CX4" s="143"/>
-      <c r="CY4" s="143"/>
-      <c r="CZ4" s="143"/>
-      <c r="DA4" s="143"/>
-      <c r="DB4" s="143"/>
-      <c r="DC4" s="143"/>
-      <c r="DD4" s="143"/>
-      <c r="DE4" s="143"/>
-      <c r="DF4" s="143"/>
-      <c r="DG4" s="143"/>
-      <c r="DH4" s="143"/>
-      <c r="DI4" s="143"/>
-      <c r="DJ4" s="143"/>
-      <c r="DK4" s="143"/>
-      <c r="DL4" s="143"/>
-      <c r="DM4" s="143"/>
-      <c r="DN4" s="143"/>
-      <c r="DO4" s="143"/>
-      <c r="DP4" s="143"/>
-      <c r="DQ4" s="143"/>
-      <c r="DR4" s="144"/>
+      <c r="CO4" s="105"/>
+      <c r="CP4" s="105"/>
+      <c r="CQ4" s="105"/>
+      <c r="CR4" s="105"/>
+      <c r="CS4" s="105"/>
+      <c r="CT4" s="105"/>
+      <c r="CU4" s="105"/>
+      <c r="CV4" s="105"/>
+      <c r="CW4" s="105"/>
+      <c r="CX4" s="105"/>
+      <c r="CY4" s="105"/>
+      <c r="CZ4" s="105"/>
+      <c r="DA4" s="105"/>
+      <c r="DB4" s="105"/>
+      <c r="DC4" s="105"/>
+      <c r="DD4" s="105"/>
+      <c r="DE4" s="105"/>
+      <c r="DF4" s="105"/>
+      <c r="DG4" s="105"/>
+      <c r="DH4" s="105"/>
+      <c r="DI4" s="105"/>
+      <c r="DJ4" s="105"/>
+      <c r="DK4" s="105"/>
+      <c r="DL4" s="105"/>
+      <c r="DM4" s="105"/>
+      <c r="DN4" s="105"/>
+      <c r="DO4" s="105"/>
+      <c r="DP4" s="105"/>
+      <c r="DQ4" s="105"/>
+      <c r="DR4" s="106"/>
       <c r="DS4" s="8"/>
     </row>
     <row r="5" spans="1:123" ht="18" customHeight="1">
@@ -3811,27 +3818,27 @@
     </row>
     <row r="7" spans="1:123" ht="9.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="146" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="146" t="s">
+      <c r="I7" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="147" t="s">
+      <c r="J7" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="147" t="s">
+      <c r="K7" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="147" t="s">
+      <c r="L7" s="103" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="15"/>
@@ -3948,17 +3955,17 @@
     </row>
     <row r="8" spans="1:123" ht="9.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="17"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -4074,18 +4081,18 @@
     <row r="9" spans="1:123" ht="9.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
@@ -4201,16 +4208,16 @@
     <row r="10" spans="1:123" ht="9.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -4326,18 +4333,18 @@
     <row r="11" spans="1:123" ht="9.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
@@ -4453,16 +4460,16 @@
     <row r="12" spans="1:123" ht="9.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
@@ -4579,21 +4586,21 @@
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="140" t="s">
+      <c r="D13" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="96">
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="117">
         <v>0.5</v>
       </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97" t="s">
+      <c r="I13" s="118"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="98">
+      <c r="L13" s="102">
         <v>100</v>
       </c>
       <c r="M13" s="17"/>
@@ -4712,15 +4719,15 @@
       <c r="A14" s="2"/>
       <c r="B14" s="24"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="17"/>
       <c r="O14" s="82"/>
       <c r="P14" s="18"/>
@@ -4836,21 +4843,21 @@
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="140" t="s">
+      <c r="D15" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="96">
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="117">
         <v>0.5</v>
       </c>
-      <c r="I15" s="133"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97" t="s">
+      <c r="I15" s="118"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="98">
+      <c r="L15" s="102">
         <v>100</v>
       </c>
       <c r="M15" s="32"/>
@@ -4969,15 +4976,15 @@
       <c r="A16" s="2"/>
       <c r="B16" s="24"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="32"/>
       <c r="O16" s="82"/>
       <c r="P16" s="18"/>
@@ -5093,21 +5100,21 @@
       <c r="A17" s="2"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="96">
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="117">
         <v>0.5</v>
       </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97" t="s">
+      <c r="I17" s="118"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="98">
+      <c r="L17" s="102">
         <v>100</v>
       </c>
       <c r="M17" s="32"/>
@@ -5226,15 +5233,15 @@
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
       <c r="M18" s="32"/>
       <c r="O18" s="82"/>
       <c r="P18" s="18"/>
@@ -5350,21 +5357,21 @@
       <c r="A19" s="2"/>
       <c r="B19" s="24"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="96">
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="117">
         <v>0.5</v>
       </c>
-      <c r="I19" s="133"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97" t="s">
+      <c r="I19" s="118"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="98">
+      <c r="L19" s="102">
         <v>100</v>
       </c>
       <c r="M19" s="32"/>
@@ -5483,15 +5490,15 @@
       <c r="A20" s="2"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
       <c r="M20" s="34"/>
       <c r="O20" s="87"/>
       <c r="P20" s="35"/>
@@ -5606,18 +5613,18 @@
     <row r="21" spans="1:123" ht="9.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="21"/>
       <c r="N21" s="36"/>
       <c r="O21" s="22"/>
@@ -5733,16 +5740,16 @@
     <row r="22" spans="1:123" ht="9.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
@@ -5859,21 +5866,21 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="139" t="s">
+      <c r="D23" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="96">
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="117">
         <v>2</v>
       </c>
-      <c r="I23" s="133"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97" t="s">
+      <c r="I23" s="118"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="98">
+      <c r="L23" s="102">
         <v>100</v>
       </c>
       <c r="M23" s="32"/>
@@ -5992,15 +5999,15 @@
       <c r="A24" s="2"/>
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
       <c r="M24" s="32"/>
       <c r="N24" s="18"/>
       <c r="P24" s="82"/>
@@ -6115,18 +6122,18 @@
     <row r="25" spans="1:123" ht="9.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="138" t="s">
+      <c r="C25" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
@@ -6242,16 +6249,16 @@
     <row r="26" spans="1:123" ht="9.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
       <c r="M26" s="25"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
@@ -6368,21 +6375,21 @@
       <c r="A27" s="2"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="96">
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="117">
         <v>1</v>
       </c>
-      <c r="I27" s="133"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97" t="s">
+      <c r="I27" s="118"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="98">
+      <c r="L27" s="102">
         <v>100</v>
       </c>
       <c r="M27" s="32"/>
@@ -6501,15 +6508,15 @@
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
       <c r="M28" s="32"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
@@ -6626,21 +6633,21 @@
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="136" t="s">
+      <c r="D29" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="96">
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="117">
         <v>1</v>
       </c>
-      <c r="I29" s="133"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97" t="s">
+      <c r="I29" s="118"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="98">
+      <c r="L29" s="102">
         <v>100</v>
       </c>
       <c r="M29" s="32"/>
@@ -6759,15 +6766,15 @@
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
       <c r="M30" s="34"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
@@ -6882,18 +6889,18 @@
     <row r="31" spans="1:123" ht="9.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="138" t="s">
+      <c r="C31" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
       <c r="M31" s="21"/>
       <c r="N31" s="36"/>
       <c r="O31" s="22"/>
@@ -7009,16 +7016,16 @@
     <row r="32" spans="1:123" ht="9.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
       <c r="M32" s="25"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
@@ -7135,17 +7142,17 @@
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="121" t="s">
+      <c r="D33" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
       <c r="M33" s="42"/>
       <c r="N33" s="43"/>
       <c r="O33" s="43"/>
@@ -7262,15 +7269,15 @@
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
       <c r="M34" s="44"/>
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
@@ -7388,20 +7395,20 @@
       <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="118" t="s">
+      <c r="E35" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="122"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="96">
+      <c r="F35" s="108"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="117">
         <v>1</v>
       </c>
-      <c r="I35" s="133"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97" t="s">
+      <c r="I35" s="118"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="98">
+      <c r="L35" s="102">
         <v>100</v>
       </c>
       <c r="M35" s="32"/>
@@ -7521,14 +7528,14 @@
       <c r="B36" s="24"/>
       <c r="C36" s="2"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="98"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
       <c r="M36" s="32"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -7646,18 +7653,18 @@
       <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="118" t="s">
+      <c r="E37" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="122"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97" t="s">
+      <c r="F37" s="108"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="98">
+      <c r="L37" s="102">
         <v>100</v>
       </c>
       <c r="M37" s="32"/>
@@ -7777,14 +7784,14 @@
       <c r="B38" s="24"/>
       <c r="C38" s="2"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
       <c r="M38" s="34"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
@@ -7901,17 +7908,17 @@
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="135" t="s">
+      <c r="D39" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
       <c r="M39" s="42"/>
       <c r="N39" s="43"/>
       <c r="O39" s="43"/>
@@ -8028,15 +8035,15 @@
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
       <c r="M40" s="44"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
@@ -8154,20 +8161,20 @@
       <c r="B41" s="24"/>
       <c r="C41" s="2"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="118" t="s">
+      <c r="E41" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="122"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="96">
+      <c r="F41" s="108"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="117">
         <v>1</v>
       </c>
-      <c r="I41" s="133"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97" t="s">
+      <c r="I41" s="118"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="L41" s="98">
+      <c r="L41" s="102">
         <v>100</v>
       </c>
       <c r="M41" s="32"/>
@@ -8287,14 +8294,14 @@
       <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
       <c r="M42" s="32"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
@@ -8411,20 +8418,20 @@
       <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="118" t="s">
+      <c r="E43" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="122"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="96">
+      <c r="F43" s="108"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="117">
         <v>4</v>
       </c>
-      <c r="I43" s="133"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97" t="s">
+      <c r="I43" s="118"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="L43" s="98">
+      <c r="L43" s="102">
         <v>100</v>
       </c>
       <c r="M43" s="32"/>
@@ -8544,14 +8551,14 @@
       <c r="B44" s="24"/>
       <c r="C44" s="2"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
       <c r="M44" s="32"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -8668,20 +8675,20 @@
       <c r="B45" s="24"/>
       <c r="C45" s="2"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="118" t="s">
+      <c r="E45" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="122"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="96">
+      <c r="F45" s="108"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="117">
         <v>0.5</v>
       </c>
-      <c r="I45" s="133"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97" t="s">
+      <c r="I45" s="118"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="98">
+      <c r="L45" s="102">
         <v>100</v>
       </c>
       <c r="M45" s="32"/>
@@ -8801,14 +8808,14 @@
       <c r="B46" s="24"/>
       <c r="C46" s="2"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
       <c r="M46" s="32"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -8926,20 +8933,20 @@
       <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="118" t="s">
+      <c r="E47" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="122"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="96">
+      <c r="F47" s="108"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="117">
         <v>4</v>
       </c>
-      <c r="I47" s="133"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97" t="s">
+      <c r="I47" s="118"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="L47" s="98">
+      <c r="L47" s="102">
         <v>100</v>
       </c>
       <c r="M47" s="32"/>
@@ -9059,14 +9066,14 @@
       <c r="B48" s="24"/>
       <c r="C48" s="2"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
       <c r="M48" s="32"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
@@ -9184,20 +9191,20 @@
       <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="118" t="s">
+      <c r="E49" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="122"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="96">
+      <c r="F49" s="108"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="117">
         <v>4</v>
       </c>
-      <c r="I49" s="133"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97" t="s">
+      <c r="I49" s="118"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="98">
+      <c r="L49" s="102">
         <v>100</v>
       </c>
       <c r="M49" s="32"/>
@@ -9317,14 +9324,14 @@
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
       <c r="M50" s="32"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
@@ -9442,20 +9449,20 @@
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="118" t="s">
+      <c r="E51" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="122"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="96">
+      <c r="F51" s="108"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="117">
         <v>0.5</v>
       </c>
-      <c r="I51" s="133"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97" t="s">
+      <c r="I51" s="118"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="L51" s="98">
+      <c r="L51" s="102">
         <v>100</v>
       </c>
       <c r="M51" s="32"/>
@@ -9575,14 +9582,14 @@
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98"/>
-      <c r="L52" s="98"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
       <c r="M52" s="34"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
@@ -9699,17 +9706,17 @@
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="121" t="s">
+      <c r="D53" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
       <c r="M53" s="42"/>
       <c r="N53" s="43"/>
       <c r="O53" s="43"/>
@@ -9826,15 +9833,15 @@
       <c r="A54" s="2"/>
       <c r="B54" s="24"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="104"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="98"/>
       <c r="M54" s="44"/>
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
@@ -9952,20 +9959,20 @@
       <c r="B55" s="24"/>
       <c r="C55" s="2"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="118" t="s">
+      <c r="E55" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="122"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="96">
+      <c r="F55" s="108"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="117">
         <v>4</v>
       </c>
-      <c r="I55" s="133"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97" t="s">
+      <c r="I55" s="118"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L55" s="98">
+      <c r="L55" s="102">
         <v>100</v>
       </c>
       <c r="M55" s="32"/>
@@ -10084,14 +10091,14 @@
       <c r="B56" s="24"/>
       <c r="C56" s="2"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="98"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="102"/>
       <c r="M56" s="32"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
@@ -10209,20 +10216,20 @@
       <c r="B57" s="24"/>
       <c r="C57" s="2"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="118" t="s">
+      <c r="E57" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="122"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="96">
+      <c r="F57" s="108"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="117">
         <v>4</v>
       </c>
-      <c r="I57" s="133"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97" t="s">
+      <c r="I57" s="118"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="98">
+      <c r="L57" s="102">
         <v>100</v>
       </c>
       <c r="M57" s="32"/>
@@ -10342,14 +10349,14 @@
       <c r="B58" s="24"/>
       <c r="C58" s="2"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="96"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="98"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="102"/>
+      <c r="L58" s="102"/>
       <c r="M58" s="32"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
@@ -10467,20 +10474,20 @@
       <c r="B59" s="24"/>
       <c r="C59" s="2"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="118" t="s">
+      <c r="E59" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="122"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="96">
+      <c r="F59" s="108"/>
+      <c r="G59" s="119"/>
+      <c r="H59" s="117">
         <v>4</v>
       </c>
-      <c r="I59" s="133"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97" t="s">
+      <c r="I59" s="118"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="98">
+      <c r="L59" s="102">
         <v>100</v>
       </c>
       <c r="M59" s="32"/>
@@ -10600,14 +10607,14 @@
       <c r="B60" s="24"/>
       <c r="C60" s="2"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="98"/>
-      <c r="L60" s="98"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="102"/>
+      <c r="L60" s="102"/>
       <c r="M60" s="32"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
@@ -10725,20 +10732,20 @@
       <c r="B61" s="24"/>
       <c r="C61" s="2"/>
       <c r="D61" s="46"/>
-      <c r="E61" s="118" t="s">
+      <c r="E61" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="122"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="96">
+      <c r="F61" s="108"/>
+      <c r="G61" s="119"/>
+      <c r="H61" s="117">
         <v>0.5</v>
       </c>
-      <c r="I61" s="133"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97" t="s">
+      <c r="I61" s="118"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="L61" s="98">
+      <c r="L61" s="102">
         <v>100</v>
       </c>
       <c r="M61" s="32"/>
@@ -10858,14 +10865,14 @@
       <c r="B62" s="24"/>
       <c r="C62" s="2"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="98"/>
-      <c r="K62" s="98"/>
-      <c r="L62" s="98"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="117"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
       <c r="M62" s="34"/>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
@@ -10982,17 +10989,17 @@
       <c r="A63" s="2"/>
       <c r="B63" s="24"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="121" t="s">
+      <c r="D63" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="122"/>
-      <c r="F63" s="122"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="102"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="102"/>
-      <c r="K63" s="102"/>
-      <c r="L63" s="104"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="98"/>
       <c r="M63" s="42"/>
       <c r="N63" s="43"/>
       <c r="O63" s="43"/>
@@ -11109,15 +11116,15 @@
       <c r="A64" s="2"/>
       <c r="B64" s="24"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="104"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="98"/>
       <c r="M64" s="44"/>
       <c r="N64" s="31"/>
       <c r="O64" s="31"/>
@@ -11235,18 +11242,18 @@
       <c r="B65" s="24"/>
       <c r="C65" s="2"/>
       <c r="D65" s="46"/>
-      <c r="E65" s="118" t="s">
+      <c r="E65" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="122"/>
-      <c r="G65" s="131"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="97"/>
-      <c r="K65" s="97" t="s">
+      <c r="F65" s="108"/>
+      <c r="G65" s="119"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="L65" s="98">
+      <c r="L65" s="102">
         <v>100</v>
       </c>
       <c r="M65" s="32"/>
@@ -11366,14 +11373,14 @@
       <c r="B66" s="24"/>
       <c r="C66" s="2"/>
       <c r="D66" s="46"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98"/>
-      <c r="L66" s="98"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="102"/>
       <c r="M66" s="32"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
@@ -11491,18 +11498,18 @@
       <c r="B67" s="24"/>
       <c r="C67" s="2"/>
       <c r="D67" s="46"/>
-      <c r="E67" s="118" t="s">
+      <c r="E67" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="122"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="97"/>
-      <c r="K67" s="97" t="s">
+      <c r="F67" s="108"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="117"/>
+      <c r="J67" s="101"/>
+      <c r="K67" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="L67" s="98">
+      <c r="L67" s="102">
         <v>100</v>
       </c>
       <c r="M67" s="32"/>
@@ -11620,14 +11627,14 @@
       <c r="B68" s="24"/>
       <c r="C68" s="2"/>
       <c r="D68" s="46"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="98"/>
-      <c r="K68" s="98"/>
-      <c r="L68" s="98"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="102"/>
+      <c r="K68" s="102"/>
+      <c r="L68" s="102"/>
       <c r="M68" s="32"/>
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
@@ -11745,18 +11752,18 @@
       <c r="B69" s="24"/>
       <c r="C69" s="2"/>
       <c r="D69" s="46"/>
-      <c r="E69" s="118" t="s">
+      <c r="E69" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="122"/>
-      <c r="G69" s="131"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="97"/>
-      <c r="K69" s="97" t="s">
+      <c r="F69" s="108"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="101"/>
+      <c r="K69" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="L69" s="98">
+      <c r="L69" s="102">
         <v>100</v>
       </c>
       <c r="M69" s="32"/>
@@ -11876,14 +11883,14 @@
       <c r="B70" s="24"/>
       <c r="C70" s="2"/>
       <c r="D70" s="46"/>
-      <c r="E70" s="123"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="96"/>
-      <c r="J70" s="98"/>
-      <c r="K70" s="98"/>
-      <c r="L70" s="98"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="120"/>
+      <c r="H70" s="117"/>
+      <c r="I70" s="117"/>
+      <c r="J70" s="102"/>
+      <c r="K70" s="102"/>
+      <c r="L70" s="102"/>
       <c r="M70" s="32"/>
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
@@ -12001,18 +12008,18 @@
       <c r="B71" s="24"/>
       <c r="C71" s="2"/>
       <c r="D71" s="46"/>
-      <c r="E71" s="118" t="s">
+      <c r="E71" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="122"/>
-      <c r="G71" s="131"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="97"/>
-      <c r="K71" s="97" t="s">
+      <c r="F71" s="108"/>
+      <c r="G71" s="119"/>
+      <c r="H71" s="117"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="101"/>
+      <c r="K71" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="L71" s="98">
+      <c r="L71" s="102">
         <v>100</v>
       </c>
       <c r="M71" s="32"/>
@@ -12132,14 +12139,14 @@
       <c r="B72" s="24"/>
       <c r="C72" s="2"/>
       <c r="D72" s="46"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="132"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="98"/>
-      <c r="K72" s="98"/>
-      <c r="L72" s="98"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="120"/>
+      <c r="H72" s="117"/>
+      <c r="I72" s="117"/>
+      <c r="J72" s="102"/>
+      <c r="K72" s="102"/>
+      <c r="L72" s="102"/>
       <c r="M72" s="32"/>
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
@@ -12257,18 +12264,18 @@
       <c r="B73" s="24"/>
       <c r="C73" s="2"/>
       <c r="D73" s="46"/>
-      <c r="E73" s="118" t="s">
+      <c r="E73" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="122"/>
-      <c r="G73" s="131"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="97"/>
-      <c r="K73" s="97" t="s">
+      <c r="F73" s="108"/>
+      <c r="G73" s="119"/>
+      <c r="H73" s="117"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="L73" s="98">
+      <c r="L73" s="102">
         <v>100</v>
       </c>
       <c r="M73" s="32"/>
@@ -12388,14 +12395,14 @@
       <c r="B74" s="24"/>
       <c r="C74" s="2"/>
       <c r="D74" s="47"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="132"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="98"/>
-      <c r="L74" s="98"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="120"/>
+      <c r="H74" s="117"/>
+      <c r="I74" s="117"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="102"/>
+      <c r="L74" s="102"/>
       <c r="M74" s="34"/>
       <c r="N74" s="35"/>
       <c r="O74" s="35"/>
@@ -12511,18 +12518,18 @@
     <row r="75" spans="1:123" ht="9.75" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="51"/>
-      <c r="C75" s="125" t="s">
+      <c r="C75" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="102"/>
-      <c r="I75" s="102"/>
-      <c r="J75" s="102"/>
-      <c r="K75" s="102"/>
-      <c r="L75" s="104"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="98"/>
       <c r="M75" s="42"/>
       <c r="N75" s="43"/>
       <c r="O75" s="43"/>
@@ -12638,16 +12645,16 @@
     <row r="76" spans="1:123" ht="9.75" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="51"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
-      <c r="L76" s="104"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="110"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="98"/>
       <c r="M76" s="44"/>
       <c r="N76" s="31"/>
       <c r="O76" s="31"/>
@@ -12763,18 +12770,18 @@
     <row r="77" spans="1:123" ht="9.75" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="51"/>
-      <c r="C77" s="125" t="s">
+      <c r="C77" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="102"/>
-      <c r="I77" s="102"/>
-      <c r="J77" s="102"/>
-      <c r="K77" s="102"/>
-      <c r="L77" s="104"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="99"/>
+      <c r="L77" s="98"/>
       <c r="M77" s="42"/>
       <c r="N77" s="43"/>
       <c r="O77" s="43"/>
@@ -12890,16 +12897,16 @@
     <row r="78" spans="1:123" ht="9.75" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="104"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="100"/>
+      <c r="J78" s="100"/>
+      <c r="K78" s="100"/>
+      <c r="L78" s="98"/>
       <c r="M78" s="44"/>
       <c r="N78" s="31"/>
       <c r="O78" s="31"/>
@@ -13016,17 +13023,17 @@
       <c r="A79" s="2"/>
       <c r="B79" s="24"/>
       <c r="C79" s="41"/>
-      <c r="D79" s="121" t="s">
+      <c r="D79" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="122"/>
-      <c r="F79" s="122"/>
-      <c r="G79" s="122"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="104"/>
-      <c r="J79" s="104"/>
-      <c r="K79" s="104"/>
-      <c r="L79" s="104"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="108"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="98"/>
+      <c r="I79" s="98"/>
+      <c r="J79" s="98"/>
+      <c r="K79" s="98"/>
+      <c r="L79" s="98"/>
       <c r="M79" s="42"/>
       <c r="N79" s="43"/>
       <c r="O79" s="43"/>
@@ -13143,15 +13150,15 @@
       <c r="A80" s="2"/>
       <c r="B80" s="24"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="123"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="124"/>
-      <c r="H80" s="104"/>
-      <c r="I80" s="104"/>
-      <c r="J80" s="104"/>
-      <c r="K80" s="104"/>
-      <c r="L80" s="104"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="98"/>
+      <c r="I80" s="98"/>
+      <c r="J80" s="98"/>
+      <c r="K80" s="98"/>
+      <c r="L80" s="98"/>
       <c r="M80" s="44"/>
       <c r="N80" s="31"/>
       <c r="O80" s="31"/>
@@ -13269,18 +13276,18 @@
       <c r="B81" s="24"/>
       <c r="C81" s="2"/>
       <c r="D81" s="46"/>
-      <c r="E81" s="118" t="s">
+      <c r="E81" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="F81" s="122"/>
-      <c r="G81" s="131"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="97"/>
-      <c r="K81" s="97" t="s">
+      <c r="F81" s="108"/>
+      <c r="G81" s="119"/>
+      <c r="H81" s="117"/>
+      <c r="I81" s="117"/>
+      <c r="J81" s="101"/>
+      <c r="K81" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="L81" s="98"/>
+      <c r="L81" s="102"/>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
       <c r="O81" s="18"/>
@@ -13398,14 +13405,14 @@
       <c r="B82" s="24"/>
       <c r="C82" s="2"/>
       <c r="D82" s="46"/>
-      <c r="E82" s="123"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="132"/>
-      <c r="H82" s="96"/>
-      <c r="I82" s="96"/>
-      <c r="J82" s="98"/>
-      <c r="K82" s="98"/>
-      <c r="L82" s="98"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="120"/>
+      <c r="H82" s="117"/>
+      <c r="I82" s="117"/>
+      <c r="J82" s="102"/>
+      <c r="K82" s="102"/>
+      <c r="L82" s="102"/>
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
       <c r="O82" s="18"/>
@@ -13523,18 +13530,18 @@
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
       <c r="D83" s="46"/>
-      <c r="E83" s="118" t="s">
+      <c r="E83" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="F83" s="122"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="96"/>
-      <c r="I83" s="96"/>
-      <c r="J83" s="97"/>
-      <c r="K83" s="97" t="s">
+      <c r="F83" s="108"/>
+      <c r="G83" s="119"/>
+      <c r="H83" s="117"/>
+      <c r="I83" s="117"/>
+      <c r="J83" s="101"/>
+      <c r="K83" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="L83" s="98"/>
+      <c r="L83" s="102"/>
       <c r="M83" s="18"/>
       <c r="N83" s="18"/>
       <c r="O83" s="18"/>
@@ -13652,14 +13659,14 @@
       <c r="B84" s="24"/>
       <c r="C84" s="2"/>
       <c r="D84" s="46"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="132"/>
-      <c r="H84" s="96"/>
-      <c r="I84" s="96"/>
-      <c r="J84" s="98"/>
-      <c r="K84" s="98"/>
-      <c r="L84" s="98"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="110"/>
+      <c r="G84" s="120"/>
+      <c r="H84" s="117"/>
+      <c r="I84" s="117"/>
+      <c r="J84" s="102"/>
+      <c r="K84" s="102"/>
+      <c r="L84" s="102"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
       <c r="O84" s="18"/>
@@ -13697,7 +13704,7 @@
       <c r="AU84" s="18"/>
       <c r="AV84" s="18"/>
       <c r="AW84" s="18"/>
-      <c r="AX84" s="18"/>
+      <c r="AX84" s="156"/>
       <c r="AY84" s="18"/>
       <c r="AZ84" s="18"/>
       <c r="BA84" s="18"/>
@@ -13777,18 +13784,18 @@
       <c r="B85" s="24"/>
       <c r="C85" s="2"/>
       <c r="D85" s="46"/>
-      <c r="E85" s="118" t="s">
+      <c r="E85" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="122"/>
-      <c r="G85" s="131"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="96"/>
-      <c r="J85" s="97"/>
-      <c r="K85" s="97" t="s">
+      <c r="F85" s="108"/>
+      <c r="G85" s="119"/>
+      <c r="H85" s="117"/>
+      <c r="I85" s="117"/>
+      <c r="J85" s="101"/>
+      <c r="K85" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="L85" s="98"/>
+      <c r="L85" s="102"/>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
       <c r="O85" s="18"/>
@@ -13906,14 +13913,14 @@
       <c r="B86" s="24"/>
       <c r="C86" s="2"/>
       <c r="D86" s="46"/>
-      <c r="E86" s="123"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="132"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="96"/>
-      <c r="J86" s="98"/>
-      <c r="K86" s="98"/>
-      <c r="L86" s="98"/>
+      <c r="E86" s="109"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="117"/>
+      <c r="J86" s="102"/>
+      <c r="K86" s="102"/>
+      <c r="L86" s="102"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
       <c r="O86" s="18"/>
@@ -14030,17 +14037,17 @@
       <c r="A87" s="19"/>
       <c r="B87" s="51"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="121" t="s">
+      <c r="D87" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="E87" s="122"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="122"/>
-      <c r="H87" s="102"/>
-      <c r="I87" s="102"/>
-      <c r="J87" s="102"/>
-      <c r="K87" s="102"/>
-      <c r="L87" s="104"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="108"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="99"/>
+      <c r="I87" s="99"/>
+      <c r="J87" s="99"/>
+      <c r="K87" s="99"/>
+      <c r="L87" s="98"/>
       <c r="M87" s="42"/>
       <c r="N87" s="43"/>
       <c r="O87" s="43"/>
@@ -14157,15 +14164,15 @@
       <c r="A88" s="19"/>
       <c r="B88" s="51"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="124"/>
-      <c r="F88" s="124"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="103"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="104"/>
+      <c r="D88" s="109"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="110"/>
+      <c r="H88" s="100"/>
+      <c r="I88" s="100"/>
+      <c r="J88" s="100"/>
+      <c r="K88" s="100"/>
+      <c r="L88" s="98"/>
       <c r="M88" s="44"/>
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
@@ -14283,16 +14290,16 @@
       <c r="B89" s="24"/>
       <c r="C89" s="2"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="105" t="s">
+      <c r="E89" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="105"/>
-      <c r="G89" s="106"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="102"/>
-      <c r="J89" s="102"/>
-      <c r="K89" s="102"/>
-      <c r="L89" s="104"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="131"/>
+      <c r="H89" s="99"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="99"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="98"/>
       <c r="M89" s="42"/>
       <c r="N89" s="43"/>
       <c r="O89" s="43"/>
@@ -14410,14 +14417,14 @@
       <c r="B90" s="24"/>
       <c r="C90" s="2"/>
       <c r="D90" s="56"/>
-      <c r="E90" s="100"/>
-      <c r="F90" s="126"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="103"/>
-      <c r="I90" s="103"/>
-      <c r="J90" s="103"/>
-      <c r="K90" s="103"/>
-      <c r="L90" s="104"/>
+      <c r="E90" s="132"/>
+      <c r="F90" s="133"/>
+      <c r="G90" s="134"/>
+      <c r="H90" s="100"/>
+      <c r="I90" s="100"/>
+      <c r="J90" s="100"/>
+      <c r="K90" s="100"/>
+      <c r="L90" s="98"/>
       <c r="M90" s="44"/>
       <c r="N90" s="31"/>
       <c r="O90" s="31"/>
@@ -14536,19 +14543,21 @@
       <c r="C91" s="2"/>
       <c r="D91" s="46"/>
       <c r="E91" s="59"/>
-      <c r="F91" s="107" t="s">
+      <c r="F91" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="108"/>
-      <c r="H91" s="96">
-        <v>3</v>
-      </c>
-      <c r="I91" s="96"/>
-      <c r="J91" s="97"/>
-      <c r="K91" s="97" t="s">
+      <c r="G91" s="136"/>
+      <c r="H91" s="117">
+        <v>4</v>
+      </c>
+      <c r="I91" s="117"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="L91" s="148"/>
+      <c r="L91" s="128">
+        <v>50</v>
+      </c>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
       <c r="O91" s="18"/>
@@ -14667,13 +14676,13 @@
       <c r="C92" s="2"/>
       <c r="D92" s="46"/>
       <c r="E92" s="60"/>
-      <c r="F92" s="110"/>
-      <c r="G92" s="111"/>
-      <c r="H92" s="96"/>
-      <c r="I92" s="96"/>
-      <c r="J92" s="98"/>
-      <c r="K92" s="98"/>
-      <c r="L92" s="149"/>
+      <c r="F92" s="137"/>
+      <c r="G92" s="138"/>
+      <c r="H92" s="117"/>
+      <c r="I92" s="117"/>
+      <c r="J92" s="102"/>
+      <c r="K92" s="102"/>
+      <c r="L92" s="129"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18"/>
       <c r="O92" s="18"/>
@@ -14711,7 +14720,7 @@
       <c r="AU92" s="18"/>
       <c r="AV92" s="18"/>
       <c r="AW92" s="18"/>
-      <c r="AX92" s="88"/>
+      <c r="AX92" s="157"/>
       <c r="AY92" s="18"/>
       <c r="AZ92" s="18"/>
       <c r="BA92" s="18"/>
@@ -14792,21 +14801,21 @@
       <c r="C93" s="2"/>
       <c r="D93" s="46"/>
       <c r="E93" s="61"/>
-      <c r="F93" s="107" t="s">
+      <c r="F93" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="G93" s="108"/>
-      <c r="H93" s="96">
+      <c r="G93" s="136"/>
+      <c r="H93" s="117">
         <v>4</v>
       </c>
-      <c r="I93" s="96"/>
-      <c r="J93" s="97" t="s">
+      <c r="I93" s="117"/>
+      <c r="J93" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="K93" s="97" t="s">
+      <c r="K93" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="L93" s="98"/>
+      <c r="L93" s="102"/>
       <c r="M93" s="18"/>
       <c r="N93" s="18"/>
       <c r="O93" s="18"/>
@@ -14925,13 +14934,13 @@
       <c r="C94" s="2"/>
       <c r="D94" s="46"/>
       <c r="E94" s="60"/>
-      <c r="F94" s="110"/>
-      <c r="G94" s="111"/>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="98"/>
-      <c r="K94" s="98"/>
-      <c r="L94" s="98"/>
+      <c r="F94" s="137"/>
+      <c r="G94" s="138"/>
+      <c r="H94" s="117"/>
+      <c r="I94" s="117"/>
+      <c r="J94" s="102"/>
+      <c r="K94" s="102"/>
+      <c r="L94" s="102"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
       <c r="O94" s="18"/>
@@ -15050,17 +15059,17 @@
       <c r="C95" s="2"/>
       <c r="D95" s="46"/>
       <c r="E95" s="61"/>
-      <c r="F95" s="107" t="s">
+      <c r="F95" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="G95" s="108"/>
-      <c r="H95" s="96"/>
-      <c r="I95" s="96"/>
-      <c r="J95" s="97"/>
-      <c r="K95" s="97" t="s">
+      <c r="G95" s="136"/>
+      <c r="H95" s="117"/>
+      <c r="I95" s="117"/>
+      <c r="J95" s="101"/>
+      <c r="K95" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="L95" s="98"/>
+      <c r="L95" s="102"/>
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
       <c r="O95" s="18"/>
@@ -15179,13 +15188,13 @@
       <c r="C96" s="2"/>
       <c r="D96" s="46"/>
       <c r="E96" s="62"/>
-      <c r="F96" s="109"/>
-      <c r="G96" s="95"/>
-      <c r="H96" s="96"/>
-      <c r="I96" s="96"/>
-      <c r="J96" s="98"/>
-      <c r="K96" s="98"/>
-      <c r="L96" s="98"/>
+      <c r="F96" s="147"/>
+      <c r="G96" s="146"/>
+      <c r="H96" s="117"/>
+      <c r="I96" s="117"/>
+      <c r="J96" s="102"/>
+      <c r="K96" s="102"/>
+      <c r="L96" s="102"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
       <c r="O96" s="18"/>
@@ -15303,16 +15312,16 @@
       <c r="B97" s="24"/>
       <c r="C97" s="2"/>
       <c r="D97" s="46"/>
-      <c r="E97" s="112" t="s">
+      <c r="E97" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="F97" s="113"/>
-      <c r="G97" s="114"/>
-      <c r="H97" s="102"/>
-      <c r="I97" s="104"/>
-      <c r="J97" s="104"/>
-      <c r="K97" s="104"/>
-      <c r="L97" s="104"/>
+      <c r="F97" s="149"/>
+      <c r="G97" s="150"/>
+      <c r="H97" s="99"/>
+      <c r="I97" s="98"/>
+      <c r="J97" s="98"/>
+      <c r="K97" s="98"/>
+      <c r="L97" s="98"/>
       <c r="M97" s="43"/>
       <c r="N97" s="43"/>
       <c r="O97" s="43"/>
@@ -15430,14 +15439,14 @@
       <c r="B98" s="24"/>
       <c r="C98" s="2"/>
       <c r="D98" s="46"/>
-      <c r="E98" s="115"/>
-      <c r="F98" s="116"/>
-      <c r="G98" s="117"/>
-      <c r="H98" s="103"/>
-      <c r="I98" s="104"/>
-      <c r="J98" s="104"/>
-      <c r="K98" s="104"/>
-      <c r="L98" s="104"/>
+      <c r="E98" s="151"/>
+      <c r="F98" s="152"/>
+      <c r="G98" s="153"/>
+      <c r="H98" s="100"/>
+      <c r="I98" s="98"/>
+      <c r="J98" s="98"/>
+      <c r="K98" s="98"/>
+      <c r="L98" s="98"/>
       <c r="M98" s="31"/>
       <c r="N98" s="31"/>
       <c r="O98" s="31"/>
@@ -15556,19 +15565,19 @@
       <c r="C99" s="2"/>
       <c r="D99" s="46"/>
       <c r="E99" s="61"/>
-      <c r="F99" s="120" t="s">
+      <c r="F99" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="G99" s="93"/>
-      <c r="H99" s="96">
+      <c r="G99" s="144"/>
+      <c r="H99" s="117">
         <v>4</v>
       </c>
-      <c r="I99" s="96"/>
-      <c r="J99" s="97"/>
-      <c r="K99" s="97" t="s">
+      <c r="I99" s="117"/>
+      <c r="J99" s="101"/>
+      <c r="K99" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="L99" s="97"/>
+      <c r="L99" s="101"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
       <c r="O99" s="18"/>
@@ -15687,13 +15696,13 @@
       <c r="C100" s="2"/>
       <c r="D100" s="46"/>
       <c r="E100" s="60"/>
-      <c r="F100" s="119"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="96"/>
-      <c r="I100" s="96"/>
-      <c r="J100" s="98"/>
-      <c r="K100" s="98"/>
-      <c r="L100" s="98"/>
+      <c r="F100" s="154"/>
+      <c r="G100" s="138"/>
+      <c r="H100" s="117"/>
+      <c r="I100" s="117"/>
+      <c r="J100" s="102"/>
+      <c r="K100" s="102"/>
+      <c r="L100" s="102"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
       <c r="O100" s="18"/>
@@ -15812,19 +15821,19 @@
       <c r="C101" s="2"/>
       <c r="D101" s="46"/>
       <c r="E101" s="61"/>
-      <c r="F101" s="118" t="s">
+      <c r="F101" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="G101" s="108"/>
-      <c r="H101" s="96">
+      <c r="G101" s="136"/>
+      <c r="H101" s="117">
         <v>4</v>
       </c>
-      <c r="I101" s="96"/>
-      <c r="J101" s="97"/>
-      <c r="K101" s="97" t="s">
+      <c r="I101" s="117"/>
+      <c r="J101" s="101"/>
+      <c r="K101" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="L101" s="97"/>
+      <c r="L101" s="101"/>
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
       <c r="O101" s="18"/>
@@ -15943,13 +15952,13 @@
       <c r="C102" s="2"/>
       <c r="D102" s="46"/>
       <c r="E102" s="60"/>
-      <c r="F102" s="119"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="96"/>
-      <c r="I102" s="96"/>
-      <c r="J102" s="98"/>
-      <c r="K102" s="98"/>
-      <c r="L102" s="98"/>
+      <c r="F102" s="154"/>
+      <c r="G102" s="138"/>
+      <c r="H102" s="117"/>
+      <c r="I102" s="117"/>
+      <c r="J102" s="102"/>
+      <c r="K102" s="102"/>
+      <c r="L102" s="102"/>
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
       <c r="O102" s="18"/>
@@ -16068,19 +16077,19 @@
       <c r="C103" s="2"/>
       <c r="D103" s="46"/>
       <c r="E103" s="61"/>
-      <c r="F103" s="118" t="s">
+      <c r="F103" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="G103" s="108"/>
-      <c r="H103" s="96">
+      <c r="G103" s="136"/>
+      <c r="H103" s="117">
         <v>5</v>
       </c>
-      <c r="I103" s="96"/>
-      <c r="J103" s="97"/>
-      <c r="K103" s="97" t="s">
+      <c r="I103" s="117"/>
+      <c r="J103" s="101"/>
+      <c r="K103" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="L103" s="97"/>
+      <c r="L103" s="101"/>
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
       <c r="O103" s="18"/>
@@ -16199,13 +16208,13 @@
       <c r="C104" s="2"/>
       <c r="D104" s="46"/>
       <c r="E104" s="60"/>
-      <c r="F104" s="119"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="96"/>
-      <c r="I104" s="96"/>
-      <c r="J104" s="98"/>
-      <c r="K104" s="98"/>
-      <c r="L104" s="98"/>
+      <c r="F104" s="154"/>
+      <c r="G104" s="138"/>
+      <c r="H104" s="117"/>
+      <c r="I104" s="117"/>
+      <c r="J104" s="102"/>
+      <c r="K104" s="102"/>
+      <c r="L104" s="102"/>
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
       <c r="O104" s="18"/>
@@ -16324,19 +16333,19 @@
       <c r="C105" s="2"/>
       <c r="D105" s="46"/>
       <c r="E105" s="61"/>
-      <c r="F105" s="118" t="s">
+      <c r="F105" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="108"/>
-      <c r="H105" s="96">
+      <c r="G105" s="136"/>
+      <c r="H105" s="117">
         <v>4</v>
       </c>
-      <c r="I105" s="96"/>
-      <c r="J105" s="97"/>
-      <c r="K105" s="97" t="s">
+      <c r="I105" s="117"/>
+      <c r="J105" s="101"/>
+      <c r="K105" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="L105" s="97"/>
+      <c r="L105" s="101"/>
       <c r="M105" s="18"/>
       <c r="N105" s="18"/>
       <c r="O105" s="18"/>
@@ -16455,13 +16464,13 @@
       <c r="C106" s="2"/>
       <c r="D106" s="46"/>
       <c r="E106" s="60"/>
-      <c r="F106" s="119"/>
-      <c r="G106" s="111"/>
-      <c r="H106" s="96"/>
-      <c r="I106" s="96"/>
-      <c r="J106" s="98"/>
-      <c r="K106" s="98"/>
-      <c r="L106" s="98"/>
+      <c r="F106" s="154"/>
+      <c r="G106" s="138"/>
+      <c r="H106" s="117"/>
+      <c r="I106" s="117"/>
+      <c r="J106" s="102"/>
+      <c r="K106" s="102"/>
+      <c r="L106" s="102"/>
       <c r="M106" s="18"/>
       <c r="N106" s="18"/>
       <c r="O106" s="18"/>
@@ -16580,21 +16589,21 @@
       <c r="C107" s="2"/>
       <c r="D107" s="46"/>
       <c r="E107" s="61"/>
-      <c r="F107" s="118" t="s">
+      <c r="F107" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="G107" s="108"/>
-      <c r="H107" s="96">
+      <c r="G107" s="136"/>
+      <c r="H107" s="117">
         <v>4</v>
       </c>
-      <c r="I107" s="96"/>
-      <c r="J107" s="97" t="s">
+      <c r="I107" s="117"/>
+      <c r="J107" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="K107" s="97" t="s">
+      <c r="K107" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="L107" s="97"/>
+      <c r="L107" s="101"/>
       <c r="M107" s="18"/>
       <c r="N107" s="18"/>
       <c r="O107" s="18"/>
@@ -16713,13 +16722,13 @@
       <c r="C108" s="2"/>
       <c r="D108" s="46"/>
       <c r="E108" s="60"/>
-      <c r="F108" s="119"/>
-      <c r="G108" s="111"/>
-      <c r="H108" s="96"/>
-      <c r="I108" s="96"/>
-      <c r="J108" s="98"/>
-      <c r="K108" s="98"/>
-      <c r="L108" s="98"/>
+      <c r="F108" s="154"/>
+      <c r="G108" s="138"/>
+      <c r="H108" s="117"/>
+      <c r="I108" s="117"/>
+      <c r="J108" s="102"/>
+      <c r="K108" s="102"/>
+      <c r="L108" s="102"/>
       <c r="M108" s="18"/>
       <c r="N108" s="18"/>
       <c r="O108" s="18"/>
@@ -16838,17 +16847,17 @@
       <c r="C109" s="2"/>
       <c r="D109" s="46"/>
       <c r="E109" s="61"/>
-      <c r="F109" s="118" t="s">
+      <c r="F109" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="G109" s="108"/>
-      <c r="H109" s="96"/>
-      <c r="I109" s="96"/>
-      <c r="J109" s="97"/>
-      <c r="K109" s="97" t="s">
+      <c r="G109" s="136"/>
+      <c r="H109" s="117"/>
+      <c r="I109" s="117"/>
+      <c r="J109" s="101"/>
+      <c r="K109" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="L109" s="98"/>
+      <c r="L109" s="102"/>
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
       <c r="O109" s="18"/>
@@ -16967,13 +16976,13 @@
       <c r="C110" s="2"/>
       <c r="D110" s="46"/>
       <c r="E110" s="60"/>
-      <c r="F110" s="119"/>
-      <c r="G110" s="111"/>
-      <c r="H110" s="96"/>
-      <c r="I110" s="96"/>
-      <c r="J110" s="98"/>
-      <c r="K110" s="98"/>
-      <c r="L110" s="98"/>
+      <c r="F110" s="154"/>
+      <c r="G110" s="138"/>
+      <c r="H110" s="117"/>
+      <c r="I110" s="117"/>
+      <c r="J110" s="102"/>
+      <c r="K110" s="102"/>
+      <c r="L110" s="102"/>
       <c r="M110" s="18"/>
       <c r="N110" s="18"/>
       <c r="O110" s="18"/>
@@ -17090,17 +17099,17 @@
       <c r="A111" s="19"/>
       <c r="B111" s="51"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="121" t="s">
+      <c r="D111" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="E111" s="122"/>
-      <c r="F111" s="122"/>
-      <c r="G111" s="122"/>
-      <c r="H111" s="102"/>
-      <c r="I111" s="104"/>
-      <c r="J111" s="102"/>
-      <c r="K111" s="102"/>
-      <c r="L111" s="104"/>
+      <c r="E111" s="108"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="99"/>
+      <c r="I111" s="98"/>
+      <c r="J111" s="99"/>
+      <c r="K111" s="99"/>
+      <c r="L111" s="98"/>
       <c r="M111" s="42"/>
       <c r="N111" s="43"/>
       <c r="O111" s="43"/>
@@ -17217,15 +17226,15 @@
       <c r="A112" s="19"/>
       <c r="B112" s="51"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="123"/>
-      <c r="E112" s="124"/>
-      <c r="F112" s="124"/>
-      <c r="G112" s="124"/>
-      <c r="H112" s="103"/>
-      <c r="I112" s="104"/>
-      <c r="J112" s="103"/>
-      <c r="K112" s="103"/>
-      <c r="L112" s="104"/>
+      <c r="D112" s="109"/>
+      <c r="E112" s="110"/>
+      <c r="F112" s="110"/>
+      <c r="G112" s="110"/>
+      <c r="H112" s="100"/>
+      <c r="I112" s="98"/>
+      <c r="J112" s="100"/>
+      <c r="K112" s="100"/>
+      <c r="L112" s="98"/>
       <c r="M112" s="44"/>
       <c r="N112" s="31"/>
       <c r="O112" s="31"/>
@@ -17343,16 +17352,16 @@
       <c r="B113" s="24"/>
       <c r="C113" s="2"/>
       <c r="D113" s="55"/>
-      <c r="E113" s="105" t="s">
+      <c r="E113" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="F113" s="105"/>
-      <c r="G113" s="106"/>
-      <c r="H113" s="102"/>
-      <c r="I113" s="104"/>
-      <c r="J113" s="102"/>
-      <c r="K113" s="102"/>
-      <c r="L113" s="104"/>
+      <c r="F113" s="130"/>
+      <c r="G113" s="131"/>
+      <c r="H113" s="99"/>
+      <c r="I113" s="98"/>
+      <c r="J113" s="99"/>
+      <c r="K113" s="99"/>
+      <c r="L113" s="98"/>
       <c r="M113" s="42"/>
       <c r="N113" s="43"/>
       <c r="O113" s="43"/>
@@ -17470,14 +17479,14 @@
       <c r="B114" s="24"/>
       <c r="C114" s="2"/>
       <c r="D114" s="56"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="100"/>
-      <c r="G114" s="101"/>
-      <c r="H114" s="103"/>
-      <c r="I114" s="104"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="104"/>
+      <c r="E114" s="132"/>
+      <c r="F114" s="132"/>
+      <c r="G114" s="142"/>
+      <c r="H114" s="100"/>
+      <c r="I114" s="98"/>
+      <c r="J114" s="100"/>
+      <c r="K114" s="100"/>
+      <c r="L114" s="98"/>
       <c r="M114" s="44"/>
       <c r="N114" s="31"/>
       <c r="O114" s="31"/>
@@ -17596,19 +17605,19 @@
       <c r="C115" s="2"/>
       <c r="D115" s="46"/>
       <c r="E115" s="59"/>
-      <c r="F115" s="92" t="s">
+      <c r="F115" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="93"/>
-      <c r="H115" s="96">
+      <c r="G115" s="144"/>
+      <c r="H115" s="117">
         <v>3</v>
       </c>
-      <c r="I115" s="96"/>
-      <c r="J115" s="97"/>
-      <c r="K115" s="97" t="s">
+      <c r="I115" s="117"/>
+      <c r="J115" s="101"/>
+      <c r="K115" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="L115" s="98"/>
+      <c r="L115" s="102"/>
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
       <c r="O115" s="18"/>
@@ -17727,13 +17736,13 @@
       <c r="C116" s="2"/>
       <c r="D116" s="46"/>
       <c r="E116" s="60"/>
-      <c r="F116" s="94"/>
-      <c r="G116" s="95"/>
-      <c r="H116" s="96"/>
-      <c r="I116" s="96"/>
-      <c r="J116" s="98"/>
-      <c r="K116" s="98"/>
-      <c r="L116" s="98"/>
+      <c r="F116" s="145"/>
+      <c r="G116" s="146"/>
+      <c r="H116" s="117"/>
+      <c r="I116" s="117"/>
+      <c r="J116" s="102"/>
+      <c r="K116" s="102"/>
+      <c r="L116" s="102"/>
       <c r="M116" s="18"/>
       <c r="N116" s="18"/>
       <c r="O116" s="18"/>
@@ -17852,21 +17861,21 @@
       <c r="C117" s="2"/>
       <c r="D117" s="46"/>
       <c r="E117" s="61"/>
-      <c r="F117" s="92" t="s">
+      <c r="F117" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="G117" s="93"/>
-      <c r="H117" s="96">
+      <c r="G117" s="144"/>
+      <c r="H117" s="117">
         <v>3</v>
       </c>
-      <c r="I117" s="96"/>
-      <c r="J117" s="97" t="s">
+      <c r="I117" s="117"/>
+      <c r="J117" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="K117" s="97" t="s">
+      <c r="K117" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="L117" s="98"/>
+      <c r="L117" s="102"/>
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
       <c r="O117" s="18"/>
@@ -17985,13 +17994,13 @@
       <c r="C118" s="2"/>
       <c r="D118" s="46"/>
       <c r="E118" s="58"/>
-      <c r="F118" s="94"/>
-      <c r="G118" s="95"/>
-      <c r="H118" s="96"/>
-      <c r="I118" s="96"/>
-      <c r="J118" s="98"/>
-      <c r="K118" s="98"/>
-      <c r="L118" s="98"/>
+      <c r="F118" s="145"/>
+      <c r="G118" s="146"/>
+      <c r="H118" s="117"/>
+      <c r="I118" s="117"/>
+      <c r="J118" s="102"/>
+      <c r="K118" s="102"/>
+      <c r="L118" s="102"/>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
       <c r="O118" s="18"/>
@@ -18110,17 +18119,17 @@
       <c r="C119" s="2"/>
       <c r="D119" s="46"/>
       <c r="E119" s="58"/>
-      <c r="F119" s="92" t="s">
+      <c r="F119" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="G119" s="93"/>
-      <c r="H119" s="96"/>
-      <c r="I119" s="96"/>
-      <c r="J119" s="97"/>
-      <c r="K119" s="97" t="s">
+      <c r="G119" s="144"/>
+      <c r="H119" s="117"/>
+      <c r="I119" s="117"/>
+      <c r="J119" s="101"/>
+      <c r="K119" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="L119" s="98"/>
+      <c r="L119" s="102"/>
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
       <c r="O119" s="18"/>
@@ -18239,13 +18248,13 @@
       <c r="C120" s="2"/>
       <c r="D120" s="46"/>
       <c r="E120" s="63"/>
-      <c r="F120" s="94"/>
-      <c r="G120" s="95"/>
-      <c r="H120" s="96"/>
-      <c r="I120" s="96"/>
-      <c r="J120" s="98"/>
-      <c r="K120" s="98"/>
-      <c r="L120" s="98"/>
+      <c r="F120" s="145"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="117"/>
+      <c r="I120" s="117"/>
+      <c r="J120" s="102"/>
+      <c r="K120" s="102"/>
+      <c r="L120" s="102"/>
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
       <c r="O120" s="18"/>
@@ -18363,16 +18372,16 @@
       <c r="B121" s="24"/>
       <c r="C121" s="2"/>
       <c r="D121" s="46"/>
-      <c r="E121" s="99" t="s">
+      <c r="E121" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="F121" s="100"/>
-      <c r="G121" s="101"/>
-      <c r="H121" s="102"/>
-      <c r="I121" s="104"/>
-      <c r="J121" s="104"/>
-      <c r="K121" s="104"/>
-      <c r="L121" s="104"/>
+      <c r="F121" s="132"/>
+      <c r="G121" s="142"/>
+      <c r="H121" s="99"/>
+      <c r="I121" s="98"/>
+      <c r="J121" s="98"/>
+      <c r="K121" s="98"/>
+      <c r="L121" s="98"/>
       <c r="M121" s="43"/>
       <c r="N121" s="43"/>
       <c r="O121" s="43"/>
@@ -18490,14 +18499,14 @@
       <c r="B122" s="24"/>
       <c r="C122" s="2"/>
       <c r="D122" s="46"/>
-      <c r="E122" s="99"/>
-      <c r="F122" s="100"/>
-      <c r="G122" s="101"/>
-      <c r="H122" s="103"/>
-      <c r="I122" s="104"/>
-      <c r="J122" s="104"/>
-      <c r="K122" s="104"/>
-      <c r="L122" s="104"/>
+      <c r="E122" s="141"/>
+      <c r="F122" s="132"/>
+      <c r="G122" s="142"/>
+      <c r="H122" s="100"/>
+      <c r="I122" s="98"/>
+      <c r="J122" s="98"/>
+      <c r="K122" s="98"/>
+      <c r="L122" s="98"/>
       <c r="M122" s="31"/>
       <c r="N122" s="31"/>
       <c r="O122" s="31"/>
@@ -18616,19 +18625,19 @@
       <c r="C123" s="2"/>
       <c r="D123" s="46"/>
       <c r="E123" s="57"/>
-      <c r="F123" s="92" t="s">
+      <c r="F123" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="G123" s="93"/>
-      <c r="H123" s="96">
+      <c r="G123" s="144"/>
+      <c r="H123" s="117">
         <v>3</v>
       </c>
-      <c r="I123" s="96"/>
-      <c r="J123" s="97"/>
-      <c r="K123" s="97" t="s">
+      <c r="I123" s="117"/>
+      <c r="J123" s="101"/>
+      <c r="K123" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="L123" s="97"/>
+      <c r="L123" s="101"/>
       <c r="M123" s="18"/>
       <c r="N123" s="18"/>
       <c r="O123" s="18"/>
@@ -18747,13 +18756,13 @@
       <c r="C124" s="2"/>
       <c r="D124" s="46"/>
       <c r="E124" s="58"/>
-      <c r="F124" s="94"/>
-      <c r="G124" s="95"/>
-      <c r="H124" s="96"/>
-      <c r="I124" s="96"/>
-      <c r="J124" s="98"/>
-      <c r="K124" s="98"/>
-      <c r="L124" s="98"/>
+      <c r="F124" s="145"/>
+      <c r="G124" s="146"/>
+      <c r="H124" s="117"/>
+      <c r="I124" s="117"/>
+      <c r="J124" s="102"/>
+      <c r="K124" s="102"/>
+      <c r="L124" s="102"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
       <c r="O124" s="18"/>
@@ -18872,19 +18881,19 @@
       <c r="C125" s="2"/>
       <c r="D125" s="46"/>
       <c r="E125" s="58"/>
-      <c r="F125" s="92" t="s">
+      <c r="F125" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="G125" s="93"/>
-      <c r="H125" s="96">
+      <c r="G125" s="144"/>
+      <c r="H125" s="117">
         <v>2</v>
       </c>
-      <c r="I125" s="96"/>
-      <c r="J125" s="97"/>
-      <c r="K125" s="97" t="s">
+      <c r="I125" s="117"/>
+      <c r="J125" s="101"/>
+      <c r="K125" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="L125" s="97"/>
+      <c r="L125" s="101"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
       <c r="O125" s="18"/>
@@ -19003,13 +19012,13 @@
       <c r="C126" s="2"/>
       <c r="D126" s="46"/>
       <c r="E126" s="58"/>
-      <c r="F126" s="94"/>
-      <c r="G126" s="95"/>
-      <c r="H126" s="96"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="98"/>
-      <c r="K126" s="98"/>
-      <c r="L126" s="98"/>
+      <c r="F126" s="145"/>
+      <c r="G126" s="146"/>
+      <c r="H126" s="117"/>
+      <c r="I126" s="117"/>
+      <c r="J126" s="102"/>
+      <c r="K126" s="102"/>
+      <c r="L126" s="102"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
       <c r="O126" s="18"/>
@@ -19128,19 +19137,19 @@
       <c r="C127" s="2"/>
       <c r="D127" s="46"/>
       <c r="E127" s="58"/>
-      <c r="F127" s="92" t="s">
+      <c r="F127" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="G127" s="93"/>
-      <c r="H127" s="96">
+      <c r="G127" s="144"/>
+      <c r="H127" s="117">
         <v>8</v>
       </c>
-      <c r="I127" s="96"/>
-      <c r="J127" s="97"/>
-      <c r="K127" s="97" t="s">
+      <c r="I127" s="117"/>
+      <c r="J127" s="101"/>
+      <c r="K127" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="L127" s="97"/>
+      <c r="L127" s="101"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
       <c r="O127" s="18"/>
@@ -19259,13 +19268,13 @@
       <c r="C128" s="2"/>
       <c r="D128" s="46"/>
       <c r="E128" s="58"/>
-      <c r="F128" s="94"/>
-      <c r="G128" s="95"/>
-      <c r="H128" s="96"/>
-      <c r="I128" s="96"/>
-      <c r="J128" s="98"/>
-      <c r="K128" s="98"/>
-      <c r="L128" s="98"/>
+      <c r="F128" s="145"/>
+      <c r="G128" s="146"/>
+      <c r="H128" s="117"/>
+      <c r="I128" s="117"/>
+      <c r="J128" s="102"/>
+      <c r="K128" s="102"/>
+      <c r="L128" s="102"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
       <c r="O128" s="18"/>
@@ -19384,19 +19393,19 @@
       <c r="C129" s="2"/>
       <c r="D129" s="46"/>
       <c r="E129" s="58"/>
-      <c r="F129" s="92" t="s">
+      <c r="F129" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="G129" s="93"/>
-      <c r="H129" s="96">
+      <c r="G129" s="144"/>
+      <c r="H129" s="117">
         <v>7</v>
       </c>
-      <c r="I129" s="96"/>
-      <c r="J129" s="97"/>
-      <c r="K129" s="97" t="s">
+      <c r="I129" s="117"/>
+      <c r="J129" s="101"/>
+      <c r="K129" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="L129" s="97"/>
+      <c r="L129" s="101"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
       <c r="O129" s="18"/>
@@ -19515,13 +19524,13 @@
       <c r="C130" s="2"/>
       <c r="D130" s="46"/>
       <c r="E130" s="58"/>
-      <c r="F130" s="94"/>
-      <c r="G130" s="95"/>
-      <c r="H130" s="96"/>
-      <c r="I130" s="96"/>
-      <c r="J130" s="98"/>
-      <c r="K130" s="98"/>
-      <c r="L130" s="98"/>
+      <c r="F130" s="145"/>
+      <c r="G130" s="146"/>
+      <c r="H130" s="117"/>
+      <c r="I130" s="117"/>
+      <c r="J130" s="102"/>
+      <c r="K130" s="102"/>
+      <c r="L130" s="102"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
       <c r="O130" s="18"/>
@@ -19640,21 +19649,21 @@
       <c r="C131" s="2"/>
       <c r="D131" s="46"/>
       <c r="E131" s="58"/>
-      <c r="F131" s="92" t="s">
+      <c r="F131" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="G131" s="93"/>
-      <c r="H131" s="96">
+      <c r="G131" s="144"/>
+      <c r="H131" s="117">
         <v>5</v>
       </c>
-      <c r="I131" s="96"/>
-      <c r="J131" s="97" t="s">
+      <c r="I131" s="117"/>
+      <c r="J131" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="K131" s="97" t="s">
+      <c r="K131" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="L131" s="97"/>
+      <c r="L131" s="101"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
       <c r="O131" s="18"/>
@@ -19773,13 +19782,13 @@
       <c r="C132" s="2"/>
       <c r="D132" s="46"/>
       <c r="E132" s="58"/>
-      <c r="F132" s="94"/>
-      <c r="G132" s="95"/>
-      <c r="H132" s="96"/>
-      <c r="I132" s="96"/>
-      <c r="J132" s="98"/>
-      <c r="K132" s="98"/>
-      <c r="L132" s="98"/>
+      <c r="F132" s="145"/>
+      <c r="G132" s="146"/>
+      <c r="H132" s="117"/>
+      <c r="I132" s="117"/>
+      <c r="J132" s="102"/>
+      <c r="K132" s="102"/>
+      <c r="L132" s="102"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
       <c r="O132" s="18"/>
@@ -19898,17 +19907,17 @@
       <c r="C133" s="2"/>
       <c r="D133" s="46"/>
       <c r="E133" s="58"/>
-      <c r="F133" s="92" t="s">
+      <c r="F133" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="G133" s="93"/>
-      <c r="H133" s="96"/>
-      <c r="I133" s="96"/>
-      <c r="J133" s="97"/>
-      <c r="K133" s="97" t="s">
+      <c r="G133" s="144"/>
+      <c r="H133" s="117"/>
+      <c r="I133" s="117"/>
+      <c r="J133" s="101"/>
+      <c r="K133" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="L133" s="98"/>
+      <c r="L133" s="102"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
       <c r="O133" s="18"/>
@@ -20027,13 +20036,13 @@
       <c r="C134" s="2"/>
       <c r="D134" s="46"/>
       <c r="E134" s="63"/>
-      <c r="F134" s="94"/>
-      <c r="G134" s="95"/>
-      <c r="H134" s="96"/>
-      <c r="I134" s="96"/>
-      <c r="J134" s="98"/>
-      <c r="K134" s="98"/>
-      <c r="L134" s="98"/>
+      <c r="F134" s="145"/>
+      <c r="G134" s="146"/>
+      <c r="H134" s="117"/>
+      <c r="I134" s="117"/>
+      <c r="J134" s="102"/>
+      <c r="K134" s="102"/>
+      <c r="L134" s="102"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
       <c r="O134" s="18"/>
@@ -20150,17 +20159,17 @@
       <c r="A135" s="19"/>
       <c r="B135" s="51"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="121" t="s">
+      <c r="D135" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E135" s="122"/>
-      <c r="F135" s="122"/>
-      <c r="G135" s="122"/>
-      <c r="H135" s="102"/>
-      <c r="I135" s="104"/>
-      <c r="J135" s="102"/>
-      <c r="K135" s="102"/>
-      <c r="L135" s="104"/>
+      <c r="E135" s="108"/>
+      <c r="F135" s="108"/>
+      <c r="G135" s="108"/>
+      <c r="H135" s="99"/>
+      <c r="I135" s="98"/>
+      <c r="J135" s="99"/>
+      <c r="K135" s="99"/>
+      <c r="L135" s="98"/>
       <c r="M135" s="42"/>
       <c r="N135" s="43"/>
       <c r="O135" s="43"/>
@@ -20277,15 +20286,15 @@
       <c r="A136" s="19"/>
       <c r="B136" s="51"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="123"/>
-      <c r="E136" s="124"/>
-      <c r="F136" s="124"/>
-      <c r="G136" s="124"/>
-      <c r="H136" s="103"/>
-      <c r="I136" s="104"/>
-      <c r="J136" s="103"/>
-      <c r="K136" s="103"/>
-      <c r="L136" s="104"/>
+      <c r="D136" s="109"/>
+      <c r="E136" s="110"/>
+      <c r="F136" s="110"/>
+      <c r="G136" s="110"/>
+      <c r="H136" s="100"/>
+      <c r="I136" s="98"/>
+      <c r="J136" s="100"/>
+      <c r="K136" s="100"/>
+      <c r="L136" s="98"/>
       <c r="M136" s="44"/>
       <c r="N136" s="31"/>
       <c r="O136" s="31"/>
@@ -20403,16 +20412,16 @@
       <c r="B137" s="24"/>
       <c r="C137" s="2"/>
       <c r="D137" s="55"/>
-      <c r="E137" s="105" t="s">
+      <c r="E137" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="F137" s="105"/>
-      <c r="G137" s="106"/>
-      <c r="H137" s="102"/>
-      <c r="I137" s="104"/>
-      <c r="J137" s="102"/>
-      <c r="K137" s="102"/>
-      <c r="L137" s="104"/>
+      <c r="F137" s="130"/>
+      <c r="G137" s="131"/>
+      <c r="H137" s="99"/>
+      <c r="I137" s="98"/>
+      <c r="J137" s="99"/>
+      <c r="K137" s="99"/>
+      <c r="L137" s="98"/>
       <c r="M137" s="42"/>
       <c r="N137" s="43"/>
       <c r="O137" s="43"/>
@@ -20530,14 +20539,14 @@
       <c r="B138" s="24"/>
       <c r="C138" s="2"/>
       <c r="D138" s="56"/>
-      <c r="E138" s="100"/>
-      <c r="F138" s="100"/>
-      <c r="G138" s="101"/>
-      <c r="H138" s="103"/>
-      <c r="I138" s="104"/>
-      <c r="J138" s="103"/>
-      <c r="K138" s="103"/>
-      <c r="L138" s="104"/>
+      <c r="E138" s="132"/>
+      <c r="F138" s="132"/>
+      <c r="G138" s="142"/>
+      <c r="H138" s="100"/>
+      <c r="I138" s="98"/>
+      <c r="J138" s="100"/>
+      <c r="K138" s="100"/>
+      <c r="L138" s="98"/>
       <c r="M138" s="44"/>
       <c r="N138" s="31"/>
       <c r="O138" s="31"/>
@@ -20656,19 +20665,19 @@
       <c r="C139" s="2"/>
       <c r="D139" s="46"/>
       <c r="E139" s="59"/>
-      <c r="F139" s="92" t="s">
+      <c r="F139" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="G139" s="93"/>
-      <c r="H139" s="96">
+      <c r="G139" s="144"/>
+      <c r="H139" s="117">
         <v>3</v>
       </c>
-      <c r="I139" s="96"/>
-      <c r="J139" s="97"/>
-      <c r="K139" s="97" t="s">
+      <c r="I139" s="117"/>
+      <c r="J139" s="101"/>
+      <c r="K139" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="L139" s="98"/>
+      <c r="L139" s="102"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
       <c r="O139" s="18"/>
@@ -20787,13 +20796,13 @@
       <c r="C140" s="2"/>
       <c r="D140" s="46"/>
       <c r="E140" s="60"/>
-      <c r="F140" s="94"/>
-      <c r="G140" s="95"/>
-      <c r="H140" s="96"/>
-      <c r="I140" s="96"/>
-      <c r="J140" s="98"/>
-      <c r="K140" s="98"/>
-      <c r="L140" s="98"/>
+      <c r="F140" s="145"/>
+      <c r="G140" s="146"/>
+      <c r="H140" s="117"/>
+      <c r="I140" s="117"/>
+      <c r="J140" s="102"/>
+      <c r="K140" s="102"/>
+      <c r="L140" s="102"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
       <c r="O140" s="18"/>
@@ -20912,21 +20921,21 @@
       <c r="C141" s="2"/>
       <c r="D141" s="46"/>
       <c r="E141" s="61"/>
-      <c r="F141" s="92" t="s">
+      <c r="F141" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="G141" s="93"/>
-      <c r="H141" s="96">
+      <c r="G141" s="144"/>
+      <c r="H141" s="117">
         <v>3</v>
       </c>
-      <c r="I141" s="96"/>
-      <c r="J141" s="97" t="s">
+      <c r="I141" s="117"/>
+      <c r="J141" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="K141" s="97" t="s">
+      <c r="K141" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="L141" s="98"/>
+      <c r="L141" s="102"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
       <c r="O141" s="18"/>
@@ -21045,13 +21054,13 @@
       <c r="C142" s="2"/>
       <c r="D142" s="46"/>
       <c r="E142" s="58"/>
-      <c r="F142" s="94"/>
-      <c r="G142" s="95"/>
-      <c r="H142" s="96"/>
-      <c r="I142" s="96"/>
-      <c r="J142" s="98"/>
-      <c r="K142" s="98"/>
-      <c r="L142" s="98"/>
+      <c r="F142" s="145"/>
+      <c r="G142" s="146"/>
+      <c r="H142" s="117"/>
+      <c r="I142" s="117"/>
+      <c r="J142" s="102"/>
+      <c r="K142" s="102"/>
+      <c r="L142" s="102"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
       <c r="O142" s="18"/>
@@ -21170,19 +21179,19 @@
       <c r="C143" s="2"/>
       <c r="D143" s="46"/>
       <c r="E143" s="58"/>
-      <c r="F143" s="92" t="s">
+      <c r="F143" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="G143" s="93"/>
-      <c r="H143" s="96">
+      <c r="G143" s="144"/>
+      <c r="H143" s="117">
         <v>2</v>
       </c>
-      <c r="I143" s="96"/>
-      <c r="J143" s="97"/>
-      <c r="K143" s="97" t="s">
+      <c r="I143" s="117"/>
+      <c r="J143" s="101"/>
+      <c r="K143" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="L143" s="98"/>
+      <c r="L143" s="102"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
       <c r="O143" s="18"/>
@@ -21301,13 +21310,13 @@
       <c r="C144" s="2"/>
       <c r="D144" s="46"/>
       <c r="E144" s="58"/>
-      <c r="F144" s="94"/>
-      <c r="G144" s="95"/>
-      <c r="H144" s="96"/>
-      <c r="I144" s="96"/>
-      <c r="J144" s="98"/>
-      <c r="K144" s="98"/>
-      <c r="L144" s="98"/>
+      <c r="F144" s="145"/>
+      <c r="G144" s="146"/>
+      <c r="H144" s="117"/>
+      <c r="I144" s="117"/>
+      <c r="J144" s="102"/>
+      <c r="K144" s="102"/>
+      <c r="L144" s="102"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
       <c r="O144" s="18"/>
@@ -21426,21 +21435,21 @@
       <c r="C145" s="2"/>
       <c r="D145" s="46"/>
       <c r="E145" s="58"/>
-      <c r="F145" s="92" t="s">
+      <c r="F145" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="G145" s="93"/>
-      <c r="H145" s="96">
+      <c r="G145" s="144"/>
+      <c r="H145" s="117">
         <v>2.5</v>
       </c>
-      <c r="I145" s="96"/>
-      <c r="J145" s="97" t="s">
+      <c r="I145" s="117"/>
+      <c r="J145" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="K145" s="97" t="s">
+      <c r="K145" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="L145" s="98"/>
+      <c r="L145" s="102"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
       <c r="O145" s="18"/>
@@ -21559,13 +21568,13 @@
       <c r="C146" s="2"/>
       <c r="D146" s="46"/>
       <c r="E146" s="58"/>
-      <c r="F146" s="94"/>
-      <c r="G146" s="95"/>
-      <c r="H146" s="96"/>
-      <c r="I146" s="96"/>
-      <c r="J146" s="98"/>
-      <c r="K146" s="98"/>
-      <c r="L146" s="98"/>
+      <c r="F146" s="145"/>
+      <c r="G146" s="146"/>
+      <c r="H146" s="117"/>
+      <c r="I146" s="117"/>
+      <c r="J146" s="102"/>
+      <c r="K146" s="102"/>
+      <c r="L146" s="102"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
       <c r="O146" s="18"/>
@@ -21684,17 +21693,17 @@
       <c r="C147" s="2"/>
       <c r="D147" s="46"/>
       <c r="E147" s="58"/>
-      <c r="F147" s="92" t="s">
+      <c r="F147" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="G147" s="93"/>
-      <c r="H147" s="96"/>
-      <c r="I147" s="96"/>
-      <c r="J147" s="97"/>
-      <c r="K147" s="97" t="s">
+      <c r="G147" s="144"/>
+      <c r="H147" s="117"/>
+      <c r="I147" s="117"/>
+      <c r="J147" s="101"/>
+      <c r="K147" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="L147" s="98"/>
+      <c r="L147" s="102"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
       <c r="O147" s="18"/>
@@ -21813,13 +21822,13 @@
       <c r="C148" s="2"/>
       <c r="D148" s="46"/>
       <c r="E148" s="63"/>
-      <c r="F148" s="94"/>
-      <c r="G148" s="95"/>
-      <c r="H148" s="96"/>
-      <c r="I148" s="96"/>
-      <c r="J148" s="98"/>
-      <c r="K148" s="98"/>
-      <c r="L148" s="98"/>
+      <c r="F148" s="145"/>
+      <c r="G148" s="146"/>
+      <c r="H148" s="117"/>
+      <c r="I148" s="117"/>
+      <c r="J148" s="102"/>
+      <c r="K148" s="102"/>
+      <c r="L148" s="102"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
       <c r="O148" s="18"/>
@@ -21937,16 +21946,16 @@
       <c r="B149" s="24"/>
       <c r="C149" s="2"/>
       <c r="D149" s="46"/>
-      <c r="E149" s="99" t="s">
+      <c r="E149" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="F149" s="100"/>
-      <c r="G149" s="101"/>
-      <c r="H149" s="102"/>
-      <c r="I149" s="104"/>
-      <c r="J149" s="104"/>
-      <c r="K149" s="104"/>
-      <c r="L149" s="104"/>
+      <c r="F149" s="132"/>
+      <c r="G149" s="142"/>
+      <c r="H149" s="99"/>
+      <c r="I149" s="98"/>
+      <c r="J149" s="98"/>
+      <c r="K149" s="98"/>
+      <c r="L149" s="98"/>
       <c r="M149" s="43"/>
       <c r="N149" s="43"/>
       <c r="O149" s="43"/>
@@ -22064,14 +22073,14 @@
       <c r="B150" s="24"/>
       <c r="C150" s="2"/>
       <c r="D150" s="46"/>
-      <c r="E150" s="99"/>
-      <c r="F150" s="100"/>
-      <c r="G150" s="101"/>
-      <c r="H150" s="103"/>
-      <c r="I150" s="104"/>
-      <c r="J150" s="104"/>
-      <c r="K150" s="104"/>
-      <c r="L150" s="104"/>
+      <c r="E150" s="141"/>
+      <c r="F150" s="132"/>
+      <c r="G150" s="142"/>
+      <c r="H150" s="100"/>
+      <c r="I150" s="98"/>
+      <c r="J150" s="98"/>
+      <c r="K150" s="98"/>
+      <c r="L150" s="98"/>
       <c r="M150" s="31"/>
       <c r="N150" s="31"/>
       <c r="O150" s="31"/>
@@ -22190,19 +22199,19 @@
       <c r="C151" s="2"/>
       <c r="D151" s="46"/>
       <c r="E151" s="59"/>
-      <c r="F151" s="92" t="s">
+      <c r="F151" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="G151" s="93"/>
-      <c r="H151" s="96">
+      <c r="G151" s="144"/>
+      <c r="H151" s="117">
         <v>4</v>
       </c>
-      <c r="I151" s="96"/>
-      <c r="J151" s="97"/>
-      <c r="K151" s="97" t="s">
+      <c r="I151" s="117"/>
+      <c r="J151" s="101"/>
+      <c r="K151" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="L151" s="98"/>
+      <c r="L151" s="102"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
       <c r="O151" s="18"/>
@@ -22321,13 +22330,13 @@
       <c r="C152" s="2"/>
       <c r="D152" s="46"/>
       <c r="E152" s="60"/>
-      <c r="F152" s="94"/>
-      <c r="G152" s="95"/>
-      <c r="H152" s="96"/>
-      <c r="I152" s="96"/>
-      <c r="J152" s="98"/>
-      <c r="K152" s="98"/>
-      <c r="L152" s="98"/>
+      <c r="F152" s="145"/>
+      <c r="G152" s="146"/>
+      <c r="H152" s="117"/>
+      <c r="I152" s="117"/>
+      <c r="J152" s="102"/>
+      <c r="K152" s="102"/>
+      <c r="L152" s="102"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
       <c r="O152" s="18"/>
@@ -22446,21 +22455,21 @@
       <c r="C153" s="2"/>
       <c r="D153" s="46"/>
       <c r="E153" s="61"/>
-      <c r="F153" s="92" t="s">
+      <c r="F153" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="G153" s="93"/>
-      <c r="H153" s="96">
+      <c r="G153" s="144"/>
+      <c r="H153" s="117">
         <v>4</v>
       </c>
-      <c r="I153" s="96"/>
-      <c r="J153" s="97" t="s">
+      <c r="I153" s="117"/>
+      <c r="J153" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="K153" s="97" t="s">
+      <c r="K153" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="L153" s="98"/>
+      <c r="L153" s="102"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
       <c r="O153" s="18"/>
@@ -22579,13 +22588,13 @@
       <c r="C154" s="2"/>
       <c r="D154" s="46"/>
       <c r="E154" s="58"/>
-      <c r="F154" s="94"/>
-      <c r="G154" s="95"/>
-      <c r="H154" s="96"/>
-      <c r="I154" s="96"/>
-      <c r="J154" s="98"/>
-      <c r="K154" s="98"/>
-      <c r="L154" s="98"/>
+      <c r="F154" s="145"/>
+      <c r="G154" s="146"/>
+      <c r="H154" s="117"/>
+      <c r="I154" s="117"/>
+      <c r="J154" s="102"/>
+      <c r="K154" s="102"/>
+      <c r="L154" s="102"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
       <c r="O154" s="18"/>
@@ -22704,19 +22713,19 @@
       <c r="C155" s="2"/>
       <c r="D155" s="46"/>
       <c r="E155" s="58"/>
-      <c r="F155" s="92" t="s">
+      <c r="F155" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="G155" s="93"/>
-      <c r="H155" s="96">
+      <c r="G155" s="144"/>
+      <c r="H155" s="117">
         <v>3</v>
       </c>
-      <c r="I155" s="96"/>
-      <c r="J155" s="97"/>
-      <c r="K155" s="97" t="s">
+      <c r="I155" s="117"/>
+      <c r="J155" s="101"/>
+      <c r="K155" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="L155" s="98"/>
+      <c r="L155" s="102"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
       <c r="O155" s="18"/>
@@ -22835,13 +22844,13 @@
       <c r="C156" s="2"/>
       <c r="D156" s="46"/>
       <c r="E156" s="58"/>
-      <c r="F156" s="94"/>
-      <c r="G156" s="95"/>
-      <c r="H156" s="96"/>
-      <c r="I156" s="96"/>
-      <c r="J156" s="98"/>
-      <c r="K156" s="98"/>
-      <c r="L156" s="98"/>
+      <c r="F156" s="145"/>
+      <c r="G156" s="146"/>
+      <c r="H156" s="117"/>
+      <c r="I156" s="117"/>
+      <c r="J156" s="102"/>
+      <c r="K156" s="102"/>
+      <c r="L156" s="102"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
       <c r="O156" s="18"/>
@@ -22960,21 +22969,21 @@
       <c r="C157" s="2"/>
       <c r="D157" s="46"/>
       <c r="E157" s="58"/>
-      <c r="F157" s="92" t="s">
+      <c r="F157" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="G157" s="93"/>
-      <c r="H157" s="96">
+      <c r="G157" s="144"/>
+      <c r="H157" s="117">
         <v>4</v>
       </c>
-      <c r="I157" s="96"/>
-      <c r="J157" s="97" t="s">
+      <c r="I157" s="117"/>
+      <c r="J157" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="K157" s="97" t="s">
+      <c r="K157" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="L157" s="98"/>
+      <c r="L157" s="102"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
       <c r="O157" s="18"/>
@@ -23093,13 +23102,13 @@
       <c r="C158" s="2"/>
       <c r="D158" s="46"/>
       <c r="E158" s="58"/>
-      <c r="F158" s="94"/>
-      <c r="G158" s="95"/>
-      <c r="H158" s="96"/>
-      <c r="I158" s="96"/>
-      <c r="J158" s="98"/>
-      <c r="K158" s="98"/>
-      <c r="L158" s="98"/>
+      <c r="F158" s="145"/>
+      <c r="G158" s="146"/>
+      <c r="H158" s="117"/>
+      <c r="I158" s="117"/>
+      <c r="J158" s="102"/>
+      <c r="K158" s="102"/>
+      <c r="L158" s="102"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
       <c r="O158" s="18"/>
@@ -23218,17 +23227,17 @@
       <c r="C159" s="2"/>
       <c r="D159" s="46"/>
       <c r="E159" s="58"/>
-      <c r="F159" s="92" t="s">
+      <c r="F159" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="G159" s="93"/>
-      <c r="H159" s="96"/>
-      <c r="I159" s="96"/>
-      <c r="J159" s="97"/>
-      <c r="K159" s="97" t="s">
+      <c r="G159" s="144"/>
+      <c r="H159" s="117"/>
+      <c r="I159" s="117"/>
+      <c r="J159" s="101"/>
+      <c r="K159" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="L159" s="98"/>
+      <c r="L159" s="102"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
       <c r="O159" s="18"/>
@@ -23347,13 +23356,13 @@
       <c r="C160" s="2"/>
       <c r="D160" s="46"/>
       <c r="E160" s="63"/>
-      <c r="F160" s="94"/>
-      <c r="G160" s="95"/>
-      <c r="H160" s="96"/>
-      <c r="I160" s="96"/>
-      <c r="J160" s="98"/>
-      <c r="K160" s="98"/>
-      <c r="L160" s="98"/>
+      <c r="F160" s="145"/>
+      <c r="G160" s="146"/>
+      <c r="H160" s="117"/>
+      <c r="I160" s="117"/>
+      <c r="J160" s="102"/>
+      <c r="K160" s="102"/>
+      <c r="L160" s="102"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
       <c r="O160" s="18"/>
@@ -23469,18 +23478,18 @@
     <row r="161" spans="1:123" ht="9.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="24"/>
-      <c r="C161" s="128" t="s">
+      <c r="C161" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="D161" s="122"/>
-      <c r="E161" s="129"/>
-      <c r="F161" s="129"/>
-      <c r="G161" s="129"/>
-      <c r="H161" s="102"/>
-      <c r="I161" s="104"/>
-      <c r="J161" s="104"/>
-      <c r="K161" s="104"/>
-      <c r="L161" s="104"/>
+      <c r="D161" s="108"/>
+      <c r="E161" s="113"/>
+      <c r="F161" s="113"/>
+      <c r="G161" s="113"/>
+      <c r="H161" s="99"/>
+      <c r="I161" s="98"/>
+      <c r="J161" s="98"/>
+      <c r="K161" s="98"/>
+      <c r="L161" s="98"/>
       <c r="M161" s="43"/>
       <c r="N161" s="43"/>
       <c r="O161" s="43"/>
@@ -23596,16 +23605,16 @@
     <row r="162" spans="1:123" ht="9.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="24"/>
-      <c r="C162" s="124"/>
-      <c r="D162" s="124"/>
-      <c r="E162" s="124"/>
-      <c r="F162" s="124"/>
-      <c r="G162" s="124"/>
-      <c r="H162" s="103"/>
-      <c r="I162" s="104"/>
-      <c r="J162" s="104"/>
-      <c r="K162" s="104"/>
-      <c r="L162" s="104"/>
+      <c r="C162" s="110"/>
+      <c r="D162" s="110"/>
+      <c r="E162" s="110"/>
+      <c r="F162" s="110"/>
+      <c r="G162" s="110"/>
+      <c r="H162" s="100"/>
+      <c r="I162" s="98"/>
+      <c r="J162" s="98"/>
+      <c r="K162" s="98"/>
+      <c r="L162" s="98"/>
       <c r="M162" s="31"/>
       <c r="N162" s="31"/>
       <c r="O162" s="31"/>
@@ -23720,19 +23729,19 @@
     </row>
     <row r="163" spans="1:123" ht="9.75" customHeight="1">
       <c r="A163" s="2"/>
-      <c r="B163" s="130" t="s">
+      <c r="B163" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="C163" s="122"/>
-      <c r="D163" s="122"/>
-      <c r="E163" s="122"/>
-      <c r="F163" s="122"/>
-      <c r="G163" s="131"/>
-      <c r="H163" s="102"/>
-      <c r="I163" s="104"/>
-      <c r="J163" s="104"/>
-      <c r="K163" s="104"/>
-      <c r="L163" s="104"/>
+      <c r="C163" s="108"/>
+      <c r="D163" s="108"/>
+      <c r="E163" s="108"/>
+      <c r="F163" s="108"/>
+      <c r="G163" s="119"/>
+      <c r="H163" s="99"/>
+      <c r="I163" s="98"/>
+      <c r="J163" s="98"/>
+      <c r="K163" s="98"/>
+      <c r="L163" s="98"/>
       <c r="M163" s="43"/>
       <c r="N163" s="43"/>
       <c r="O163" s="43"/>
@@ -23847,17 +23856,17 @@
     </row>
     <row r="164" spans="1:123" ht="9.75" customHeight="1">
       <c r="A164" s="2"/>
-      <c r="B164" s="123"/>
-      <c r="C164" s="124"/>
-      <c r="D164" s="124"/>
-      <c r="E164" s="124"/>
-      <c r="F164" s="124"/>
-      <c r="G164" s="132"/>
-      <c r="H164" s="103"/>
-      <c r="I164" s="104"/>
-      <c r="J164" s="104"/>
-      <c r="K164" s="104"/>
-      <c r="L164" s="104"/>
+      <c r="B164" s="109"/>
+      <c r="C164" s="110"/>
+      <c r="D164" s="110"/>
+      <c r="E164" s="110"/>
+      <c r="F164" s="110"/>
+      <c r="G164" s="120"/>
+      <c r="H164" s="100"/>
+      <c r="I164" s="98"/>
+      <c r="J164" s="98"/>
+      <c r="K164" s="98"/>
+      <c r="L164" s="98"/>
       <c r="M164" s="31"/>
       <c r="N164" s="31"/>
       <c r="O164" s="31"/>
@@ -23973,18 +23982,18 @@
     <row r="165" spans="1:123" ht="9.75" customHeight="1">
       <c r="A165" s="19"/>
       <c r="B165" s="24"/>
-      <c r="C165" s="125" t="s">
+      <c r="C165" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="D165" s="122"/>
-      <c r="E165" s="122"/>
-      <c r="F165" s="122"/>
-      <c r="G165" s="122"/>
-      <c r="H165" s="102"/>
-      <c r="I165" s="104"/>
-      <c r="J165" s="104"/>
-      <c r="K165" s="104"/>
-      <c r="L165" s="104"/>
+      <c r="D165" s="108"/>
+      <c r="E165" s="108"/>
+      <c r="F165" s="108"/>
+      <c r="G165" s="108"/>
+      <c r="H165" s="99"/>
+      <c r="I165" s="98"/>
+      <c r="J165" s="98"/>
+      <c r="K165" s="98"/>
+      <c r="L165" s="98"/>
       <c r="M165" s="43"/>
       <c r="N165" s="43"/>
       <c r="O165" s="43"/>
@@ -24100,16 +24109,16 @@
     <row r="166" spans="1:123" ht="9.75" customHeight="1">
       <c r="A166" s="19"/>
       <c r="B166" s="54"/>
-      <c r="C166" s="124"/>
-      <c r="D166" s="124"/>
-      <c r="E166" s="124"/>
-      <c r="F166" s="124"/>
-      <c r="G166" s="124"/>
-      <c r="H166" s="103"/>
-      <c r="I166" s="104"/>
-      <c r="J166" s="104"/>
-      <c r="K166" s="104"/>
-      <c r="L166" s="104"/>
+      <c r="C166" s="110"/>
+      <c r="D166" s="110"/>
+      <c r="E166" s="110"/>
+      <c r="F166" s="110"/>
+      <c r="G166" s="110"/>
+      <c r="H166" s="100"/>
+      <c r="I166" s="98"/>
+      <c r="J166" s="98"/>
+      <c r="K166" s="98"/>
+      <c r="L166" s="98"/>
       <c r="M166" s="31"/>
       <c r="N166" s="31"/>
       <c r="O166" s="31"/>
@@ -37532,386 +37541,86 @@
     </row>
   </sheetData>
   <mergeCells count="486">
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="M3:CM3"/>
-    <mergeCell ref="CN3:DR3"/>
-    <mergeCell ref="M4:AD4"/>
-    <mergeCell ref="AE4:BH4"/>
-    <mergeCell ref="BI4:CM4"/>
-    <mergeCell ref="CN4:DR4"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="C77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="E81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="E83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="F133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="F131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="F127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="F129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="F123:G124"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="F117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="F119:G120"/>
+    <mergeCell ref="E121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="E113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="E149:G150"/>
+    <mergeCell ref="F159:G160"/>
+    <mergeCell ref="F157:G158"/>
+    <mergeCell ref="F155:G156"/>
+    <mergeCell ref="F153:G154"/>
+    <mergeCell ref="F151:G152"/>
+    <mergeCell ref="F95:G96"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="E97:G98"/>
+    <mergeCell ref="F109:G110"/>
+    <mergeCell ref="F107:G108"/>
+    <mergeCell ref="F105:G106"/>
+    <mergeCell ref="F103:G104"/>
+    <mergeCell ref="F101:G102"/>
+    <mergeCell ref="F99:G100"/>
+    <mergeCell ref="F147:G148"/>
+    <mergeCell ref="F141:G142"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="F145:G146"/>
+    <mergeCell ref="F139:G140"/>
+    <mergeCell ref="D111:G112"/>
+    <mergeCell ref="F115:G116"/>
+    <mergeCell ref="D135:G136"/>
+    <mergeCell ref="E137:G138"/>
     <mergeCell ref="C165:G166"/>
     <mergeCell ref="H165:H166"/>
     <mergeCell ref="I165:I166"/>
@@ -37936,88 +37645,388 @@
     <mergeCell ref="L157:L158"/>
     <mergeCell ref="H159:H160"/>
     <mergeCell ref="I159:I160"/>
-    <mergeCell ref="E149:G150"/>
-    <mergeCell ref="F159:G160"/>
-    <mergeCell ref="F157:G158"/>
-    <mergeCell ref="F155:G156"/>
-    <mergeCell ref="F153:G154"/>
-    <mergeCell ref="F151:G152"/>
-    <mergeCell ref="F95:G96"/>
-    <mergeCell ref="F93:G94"/>
-    <mergeCell ref="E97:G98"/>
-    <mergeCell ref="F109:G110"/>
-    <mergeCell ref="F107:G108"/>
-    <mergeCell ref="F105:G106"/>
-    <mergeCell ref="F103:G104"/>
-    <mergeCell ref="F101:G102"/>
-    <mergeCell ref="F99:G100"/>
-    <mergeCell ref="F147:G148"/>
-    <mergeCell ref="F141:G142"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="F145:G146"/>
-    <mergeCell ref="F139:G140"/>
-    <mergeCell ref="D111:G112"/>
-    <mergeCell ref="F115:G116"/>
-    <mergeCell ref="D135:G136"/>
-    <mergeCell ref="E137:G138"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
     <mergeCell ref="K111:K112"/>
     <mergeCell ref="L111:L112"/>
-    <mergeCell ref="E113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="F117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="F119:G120"/>
-    <mergeCell ref="E121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="F123:G124"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="F127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="F129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="F133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="F131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="E83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="C77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="M3:CM3"/>
+    <mergeCell ref="CN3:DR3"/>
+    <mergeCell ref="M4:AD4"/>
+    <mergeCell ref="AE4:BH4"/>
+    <mergeCell ref="BI4:CM4"/>
+    <mergeCell ref="CN4:DR4"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J151:J152"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="M7">
@@ -38260,7 +38269,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="150">
+      <c r="A2" s="91">
         <v>1</v>
       </c>
       <c r="B2" s="69"/>
@@ -38282,10 +38291,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="151">
+      <c r="A3" s="92">
         <v>2</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="96" t="s">
         <v>113</v>
       </c>
       <c r="C3" s="67"/>
@@ -38304,7 +38313,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="151"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="70"/>
       <c r="C4" s="68"/>
       <c r="D4" s="71" t="s">
@@ -38315,7 +38324,7 @@
       <c r="G4" s="70"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="151">
+      <c r="A5" s="92">
         <v>3</v>
       </c>
       <c r="B5" s="70"/>
@@ -38337,7 +38346,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="151">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
       <c r="B6" s="70"/>
@@ -38357,7 +38366,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="151">
+      <c r="A7" s="92">
         <v>5</v>
       </c>
       <c r="B7" s="70"/>
@@ -38377,7 +38386,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="151">
+      <c r="A8" s="92">
         <v>6</v>
       </c>
       <c r="B8" s="70"/>
@@ -38397,10 +38406,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="151">
+      <c r="A9" s="92">
         <v>7</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="96" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="67"/>
@@ -38419,7 +38428,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="152"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="70"/>
       <c r="C10" s="68"/>
       <c r="D10" s="71" t="s">
@@ -38435,10 +38444,10 @@
       <c r="C11" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="90"/>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="153">
+      <c r="A12" s="94">
         <v>8</v>
       </c>
       <c r="B12" s="70"/>
@@ -38460,10 +38469,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="151">
+      <c r="A13" s="92">
         <v>9</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="96" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="67"/>
@@ -38482,7 +38491,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="151">
+      <c r="A14" s="92">
         <v>10</v>
       </c>
       <c r="B14" s="70"/>
@@ -38504,10 +38513,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="151">
+      <c r="A15" s="92">
         <v>11</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="96" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="73"/>
@@ -38526,7 +38535,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="151">
+      <c r="A16" s="92">
         <v>12</v>
       </c>
       <c r="B16" s="70"/>
@@ -38546,10 +38555,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="151">
+      <c r="A17" s="92">
         <v>13</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="96" t="s">
         <v>118</v>
       </c>
       <c r="C17" s="73"/>
@@ -38568,7 +38577,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="151"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="70"/>
       <c r="C18" s="68"/>
       <c r="D18" s="71" t="s">
@@ -38579,7 +38588,7 @@
       <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="151">
+      <c r="A19" s="92">
         <v>14</v>
       </c>
       <c r="B19" s="70"/>
@@ -38601,7 +38610,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="151">
+      <c r="A20" s="92">
         <v>15</v>
       </c>
       <c r="B20" s="70"/>
@@ -38621,7 +38630,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="151">
+      <c r="A21" s="92">
         <v>16</v>
       </c>
       <c r="B21" s="70"/>
@@ -38641,7 +38650,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="151">
+      <c r="A22" s="92">
         <v>17</v>
       </c>
       <c r="B22" s="70"/>
@@ -38661,10 +38670,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="151">
+      <c r="A23" s="92">
         <v>18</v>
       </c>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="97" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="67"/>
@@ -38683,7 +38692,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="151">
+      <c r="A24" s="92">
         <v>19</v>
       </c>
       <c r="B24" s="70"/>
@@ -38705,10 +38714,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="151">
+      <c r="A25" s="92">
         <v>20</v>
       </c>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="96" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="75"/>
@@ -38727,7 +38736,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="151">
+      <c r="A26" s="92">
         <v>21</v>
       </c>
       <c r="B26" s="70"/>
@@ -38747,10 +38756,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="151">
+      <c r="A27" s="92">
         <v>22</v>
       </c>
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="96" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="75"/>
@@ -38769,7 +38778,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="151">
+      <c r="A28" s="92">
         <v>23</v>
       </c>
       <c r="B28" s="70"/>
@@ -38782,7 +38791,7 @@
       <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="151"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="70"/>
       <c r="C29" s="80" t="s">
         <v>112</v>
@@ -38802,7 +38811,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="151"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="70"/>
       <c r="C30" s="80" t="s">
         <v>111</v>
@@ -38816,7 +38825,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="154"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="71"/>
       <c r="C31" s="76" t="s">
         <v>101</v>
@@ -38833,7 +38842,7 @@
     </row>
     <row r="33" spans="4:7">
       <c r="D33" s="78"/>
-      <c r="G33" s="89"/>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="4:7">
       <c r="G34" s="1"/>

--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\digital-ojt-development-cause-DroneInventorySystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3134B86-B791-47F9-8FF5-71E55D966185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CAEBA1-D84D-497B-B3BE-A83AB137B771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="124">
   <si>
     <t>予定</t>
   </si>
@@ -721,6 +721,47 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>カンセイビ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>設計書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ログ共通仕様</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1671,7 +1712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1"/>
@@ -1810,119 +1851,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1935,7 +1865,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,14 +1931,81 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2504,7 +2546,7 @@
   <dimension ref="A1:DS276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="8" topLeftCell="M60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="8" topLeftCell="M85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight"/>
@@ -2778,120 +2820,120 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="79"/>
-      <c r="M3" s="104">
+      <c r="M3" s="155">
         <v>2024</v>
       </c>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="105"/>
-      <c r="AP3" s="105"/>
-      <c r="AQ3" s="105"/>
-      <c r="AR3" s="105"/>
-      <c r="AS3" s="105"/>
-      <c r="AT3" s="105"/>
-      <c r="AU3" s="105"/>
-      <c r="AV3" s="105"/>
-      <c r="AW3" s="105"/>
-      <c r="AX3" s="105"/>
-      <c r="AY3" s="105"/>
-      <c r="AZ3" s="105"/>
-      <c r="BA3" s="105"/>
-      <c r="BB3" s="105"/>
-      <c r="BC3" s="105"/>
-      <c r="BD3" s="105"/>
-      <c r="BE3" s="105"/>
-      <c r="BF3" s="105"/>
-      <c r="BG3" s="105"/>
-      <c r="BH3" s="105"/>
-      <c r="BI3" s="105"/>
-      <c r="BJ3" s="105"/>
-      <c r="BK3" s="105"/>
-      <c r="BL3" s="105"/>
-      <c r="BM3" s="105"/>
-      <c r="BN3" s="105"/>
-      <c r="BO3" s="105"/>
-      <c r="BP3" s="105"/>
-      <c r="BQ3" s="105"/>
-      <c r="BR3" s="105"/>
-      <c r="BS3" s="105"/>
-      <c r="BT3" s="105"/>
-      <c r="BU3" s="105"/>
-      <c r="BV3" s="105"/>
-      <c r="BW3" s="105"/>
-      <c r="BX3" s="105"/>
-      <c r="BY3" s="105"/>
-      <c r="BZ3" s="105"/>
-      <c r="CA3" s="105"/>
-      <c r="CB3" s="105"/>
-      <c r="CC3" s="105"/>
-      <c r="CD3" s="105"/>
-      <c r="CE3" s="105"/>
-      <c r="CF3" s="105"/>
-      <c r="CG3" s="105"/>
-      <c r="CH3" s="105"/>
-      <c r="CI3" s="105"/>
-      <c r="CJ3" s="105"/>
-      <c r="CK3" s="105"/>
-      <c r="CL3" s="105"/>
-      <c r="CM3" s="106"/>
-      <c r="CN3" s="104">
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="156"/>
+      <c r="AL3" s="156"/>
+      <c r="AM3" s="156"/>
+      <c r="AN3" s="156"/>
+      <c r="AO3" s="156"/>
+      <c r="AP3" s="156"/>
+      <c r="AQ3" s="156"/>
+      <c r="AR3" s="156"/>
+      <c r="AS3" s="156"/>
+      <c r="AT3" s="156"/>
+      <c r="AU3" s="156"/>
+      <c r="AV3" s="156"/>
+      <c r="AW3" s="156"/>
+      <c r="AX3" s="156"/>
+      <c r="AY3" s="156"/>
+      <c r="AZ3" s="156"/>
+      <c r="BA3" s="156"/>
+      <c r="BB3" s="156"/>
+      <c r="BC3" s="156"/>
+      <c r="BD3" s="156"/>
+      <c r="BE3" s="156"/>
+      <c r="BF3" s="156"/>
+      <c r="BG3" s="156"/>
+      <c r="BH3" s="156"/>
+      <c r="BI3" s="156"/>
+      <c r="BJ3" s="156"/>
+      <c r="BK3" s="156"/>
+      <c r="BL3" s="156"/>
+      <c r="BM3" s="156"/>
+      <c r="BN3" s="156"/>
+      <c r="BO3" s="156"/>
+      <c r="BP3" s="156"/>
+      <c r="BQ3" s="156"/>
+      <c r="BR3" s="156"/>
+      <c r="BS3" s="156"/>
+      <c r="BT3" s="156"/>
+      <c r="BU3" s="156"/>
+      <c r="BV3" s="156"/>
+      <c r="BW3" s="156"/>
+      <c r="BX3" s="156"/>
+      <c r="BY3" s="156"/>
+      <c r="BZ3" s="156"/>
+      <c r="CA3" s="156"/>
+      <c r="CB3" s="156"/>
+      <c r="CC3" s="156"/>
+      <c r="CD3" s="156"/>
+      <c r="CE3" s="156"/>
+      <c r="CF3" s="156"/>
+      <c r="CG3" s="156"/>
+      <c r="CH3" s="156"/>
+      <c r="CI3" s="156"/>
+      <c r="CJ3" s="156"/>
+      <c r="CK3" s="156"/>
+      <c r="CL3" s="156"/>
+      <c r="CM3" s="157"/>
+      <c r="CN3" s="155">
         <v>2025</v>
       </c>
-      <c r="CO3" s="105"/>
-      <c r="CP3" s="105"/>
-      <c r="CQ3" s="105"/>
-      <c r="CR3" s="105"/>
-      <c r="CS3" s="105"/>
-      <c r="CT3" s="105"/>
-      <c r="CU3" s="105"/>
-      <c r="CV3" s="105"/>
-      <c r="CW3" s="105"/>
-      <c r="CX3" s="105"/>
-      <c r="CY3" s="105"/>
-      <c r="CZ3" s="105"/>
-      <c r="DA3" s="105"/>
-      <c r="DB3" s="105"/>
-      <c r="DC3" s="105"/>
-      <c r="DD3" s="105"/>
-      <c r="DE3" s="105"/>
-      <c r="DF3" s="105"/>
-      <c r="DG3" s="105"/>
-      <c r="DH3" s="105"/>
-      <c r="DI3" s="105"/>
-      <c r="DJ3" s="105"/>
-      <c r="DK3" s="105"/>
-      <c r="DL3" s="105"/>
-      <c r="DM3" s="105"/>
-      <c r="DN3" s="105"/>
-      <c r="DO3" s="105"/>
-      <c r="DP3" s="105"/>
-      <c r="DQ3" s="105"/>
-      <c r="DR3" s="106"/>
+      <c r="CO3" s="156"/>
+      <c r="CP3" s="156"/>
+      <c r="CQ3" s="156"/>
+      <c r="CR3" s="156"/>
+      <c r="CS3" s="156"/>
+      <c r="CT3" s="156"/>
+      <c r="CU3" s="156"/>
+      <c r="CV3" s="156"/>
+      <c r="CW3" s="156"/>
+      <c r="CX3" s="156"/>
+      <c r="CY3" s="156"/>
+      <c r="CZ3" s="156"/>
+      <c r="DA3" s="156"/>
+      <c r="DB3" s="156"/>
+      <c r="DC3" s="156"/>
+      <c r="DD3" s="156"/>
+      <c r="DE3" s="156"/>
+      <c r="DF3" s="156"/>
+      <c r="DG3" s="156"/>
+      <c r="DH3" s="156"/>
+      <c r="DI3" s="156"/>
+      <c r="DJ3" s="156"/>
+      <c r="DK3" s="156"/>
+      <c r="DL3" s="156"/>
+      <c r="DM3" s="156"/>
+      <c r="DN3" s="156"/>
+      <c r="DO3" s="156"/>
+      <c r="DP3" s="156"/>
+      <c r="DQ3" s="156"/>
+      <c r="DR3" s="157"/>
       <c r="DS3" s="2"/>
     </row>
     <row r="4" spans="1:123" ht="18" customHeight="1">
@@ -2906,124 +2948,124 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="M4" s="104">
+      <c r="M4" s="155">
         <v>10</v>
       </c>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="104">
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="156"/>
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="156"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="155">
         <v>11</v>
       </c>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="105"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="105"/>
-      <c r="BE4" s="105"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="105"/>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="104">
+      <c r="AF4" s="156"/>
+      <c r="AG4" s="156"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="156"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="156"/>
+      <c r="AM4" s="156"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="156"/>
+      <c r="AR4" s="156"/>
+      <c r="AS4" s="156"/>
+      <c r="AT4" s="156"/>
+      <c r="AU4" s="156"/>
+      <c r="AV4" s="156"/>
+      <c r="AW4" s="156"/>
+      <c r="AX4" s="156"/>
+      <c r="AY4" s="156"/>
+      <c r="AZ4" s="156"/>
+      <c r="BA4" s="156"/>
+      <c r="BB4" s="156"/>
+      <c r="BC4" s="156"/>
+      <c r="BD4" s="156"/>
+      <c r="BE4" s="156"/>
+      <c r="BF4" s="156"/>
+      <c r="BG4" s="156"/>
+      <c r="BH4" s="157"/>
+      <c r="BI4" s="155">
         <v>12</v>
       </c>
-      <c r="BJ4" s="105"/>
-      <c r="BK4" s="105"/>
-      <c r="BL4" s="105"/>
-      <c r="BM4" s="105"/>
-      <c r="BN4" s="105"/>
-      <c r="BO4" s="105"/>
-      <c r="BP4" s="105"/>
-      <c r="BQ4" s="105"/>
-      <c r="BR4" s="105"/>
-      <c r="BS4" s="105"/>
-      <c r="BT4" s="105"/>
-      <c r="BU4" s="105"/>
-      <c r="BV4" s="105"/>
-      <c r="BW4" s="105"/>
-      <c r="BX4" s="105"/>
-      <c r="BY4" s="105"/>
-      <c r="BZ4" s="105"/>
-      <c r="CA4" s="105"/>
-      <c r="CB4" s="105"/>
-      <c r="CC4" s="105"/>
-      <c r="CD4" s="105"/>
-      <c r="CE4" s="105"/>
-      <c r="CF4" s="105"/>
-      <c r="CG4" s="105"/>
-      <c r="CH4" s="105"/>
-      <c r="CI4" s="105"/>
-      <c r="CJ4" s="105"/>
-      <c r="CK4" s="105"/>
-      <c r="CL4" s="105"/>
-      <c r="CM4" s="106"/>
-      <c r="CN4" s="104">
+      <c r="BJ4" s="156"/>
+      <c r="BK4" s="156"/>
+      <c r="BL4" s="156"/>
+      <c r="BM4" s="156"/>
+      <c r="BN4" s="156"/>
+      <c r="BO4" s="156"/>
+      <c r="BP4" s="156"/>
+      <c r="BQ4" s="156"/>
+      <c r="BR4" s="156"/>
+      <c r="BS4" s="156"/>
+      <c r="BT4" s="156"/>
+      <c r="BU4" s="156"/>
+      <c r="BV4" s="156"/>
+      <c r="BW4" s="156"/>
+      <c r="BX4" s="156"/>
+      <c r="BY4" s="156"/>
+      <c r="BZ4" s="156"/>
+      <c r="CA4" s="156"/>
+      <c r="CB4" s="156"/>
+      <c r="CC4" s="156"/>
+      <c r="CD4" s="156"/>
+      <c r="CE4" s="156"/>
+      <c r="CF4" s="156"/>
+      <c r="CG4" s="156"/>
+      <c r="CH4" s="156"/>
+      <c r="CI4" s="156"/>
+      <c r="CJ4" s="156"/>
+      <c r="CK4" s="156"/>
+      <c r="CL4" s="156"/>
+      <c r="CM4" s="157"/>
+      <c r="CN4" s="155">
         <v>1</v>
       </c>
-      <c r="CO4" s="105"/>
-      <c r="CP4" s="105"/>
-      <c r="CQ4" s="105"/>
-      <c r="CR4" s="105"/>
-      <c r="CS4" s="105"/>
-      <c r="CT4" s="105"/>
-      <c r="CU4" s="105"/>
-      <c r="CV4" s="105"/>
-      <c r="CW4" s="105"/>
-      <c r="CX4" s="105"/>
-      <c r="CY4" s="105"/>
-      <c r="CZ4" s="105"/>
-      <c r="DA4" s="105"/>
-      <c r="DB4" s="105"/>
-      <c r="DC4" s="105"/>
-      <c r="DD4" s="105"/>
-      <c r="DE4" s="105"/>
-      <c r="DF4" s="105"/>
-      <c r="DG4" s="105"/>
-      <c r="DH4" s="105"/>
-      <c r="DI4" s="105"/>
-      <c r="DJ4" s="105"/>
-      <c r="DK4" s="105"/>
-      <c r="DL4" s="105"/>
-      <c r="DM4" s="105"/>
-      <c r="DN4" s="105"/>
-      <c r="DO4" s="105"/>
-      <c r="DP4" s="105"/>
-      <c r="DQ4" s="105"/>
-      <c r="DR4" s="106"/>
+      <c r="CO4" s="156"/>
+      <c r="CP4" s="156"/>
+      <c r="CQ4" s="156"/>
+      <c r="CR4" s="156"/>
+      <c r="CS4" s="156"/>
+      <c r="CT4" s="156"/>
+      <c r="CU4" s="156"/>
+      <c r="CV4" s="156"/>
+      <c r="CW4" s="156"/>
+      <c r="CX4" s="156"/>
+      <c r="CY4" s="156"/>
+      <c r="CZ4" s="156"/>
+      <c r="DA4" s="156"/>
+      <c r="DB4" s="156"/>
+      <c r="DC4" s="156"/>
+      <c r="DD4" s="156"/>
+      <c r="DE4" s="156"/>
+      <c r="DF4" s="156"/>
+      <c r="DG4" s="156"/>
+      <c r="DH4" s="156"/>
+      <c r="DI4" s="156"/>
+      <c r="DJ4" s="156"/>
+      <c r="DK4" s="156"/>
+      <c r="DL4" s="156"/>
+      <c r="DM4" s="156"/>
+      <c r="DN4" s="156"/>
+      <c r="DO4" s="156"/>
+      <c r="DP4" s="156"/>
+      <c r="DQ4" s="156"/>
+      <c r="DR4" s="157"/>
       <c r="DS4" s="8"/>
     </row>
     <row r="5" spans="1:123" ht="18" customHeight="1">
@@ -3818,27 +3860,27 @@
     </row>
     <row r="7" spans="1:123" ht="9.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="111" t="s">
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="103" t="s">
+      <c r="J7" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="103" t="s">
+      <c r="K7" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="153" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="15"/>
@@ -3955,17 +3997,17 @@
     </row>
     <row r="8" spans="1:123" ht="9.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
       <c r="M8" s="17"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -4081,18 +4123,18 @@
     <row r="9" spans="1:123" ht="9.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
@@ -4208,16 +4250,16 @@
     <row r="10" spans="1:123" ht="9.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -4333,18 +4375,18 @@
     <row r="11" spans="1:123" ht="9.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
@@ -4460,16 +4502,16 @@
     <row r="12" spans="1:123" ht="9.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
@@ -4586,21 +4628,21 @@
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="117">
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="104">
         <v>0.5</v>
       </c>
-      <c r="I13" s="118"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101" t="s">
+      <c r="I13" s="143"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="102">
+      <c r="L13" s="106">
         <v>100</v>
       </c>
       <c r="M13" s="17"/>
@@ -4719,15 +4761,15 @@
       <c r="A14" s="2"/>
       <c r="B14" s="24"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
       <c r="M14" s="17"/>
       <c r="O14" s="82"/>
       <c r="P14" s="18"/>
@@ -4843,21 +4885,21 @@
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="117">
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="104">
         <v>0.5</v>
       </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101" t="s">
+      <c r="I15" s="143"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="106">
         <v>100</v>
       </c>
       <c r="M15" s="32"/>
@@ -4976,15 +5018,15 @@
       <c r="A16" s="2"/>
       <c r="B16" s="24"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
       <c r="M16" s="32"/>
       <c r="O16" s="82"/>
       <c r="P16" s="18"/>
@@ -5100,21 +5142,21 @@
       <c r="A17" s="2"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="117">
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="104">
         <v>0.5</v>
       </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101" t="s">
+      <c r="I17" s="143"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="102">
+      <c r="L17" s="106">
         <v>100</v>
       </c>
       <c r="M17" s="32"/>
@@ -5233,15 +5275,15 @@
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
       <c r="M18" s="32"/>
       <c r="O18" s="82"/>
       <c r="P18" s="18"/>
@@ -5357,21 +5399,21 @@
       <c r="A19" s="2"/>
       <c r="B19" s="24"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="117">
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="104">
         <v>0.5</v>
       </c>
-      <c r="I19" s="118"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101" t="s">
+      <c r="I19" s="143"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="102">
+      <c r="L19" s="106">
         <v>100</v>
       </c>
       <c r="M19" s="32"/>
@@ -5490,15 +5532,15 @@
       <c r="A20" s="2"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
       <c r="M20" s="34"/>
       <c r="O20" s="87"/>
       <c r="P20" s="35"/>
@@ -5613,18 +5655,18 @@
     <row r="21" spans="1:123" ht="9.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
       <c r="M21" s="21"/>
       <c r="N21" s="36"/>
       <c r="O21" s="22"/>
@@ -5740,16 +5782,16 @@
     <row r="22" spans="1:123" ht="9.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
@@ -5866,21 +5908,21 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="117">
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="104">
         <v>2</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101" t="s">
+      <c r="I23" s="143"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="102">
+      <c r="L23" s="106">
         <v>100</v>
       </c>
       <c r="M23" s="32"/>
@@ -5999,15 +6041,15 @@
       <c r="A24" s="2"/>
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
       <c r="M24" s="32"/>
       <c r="N24" s="18"/>
       <c r="P24" s="82"/>
@@ -6122,18 +6164,18 @@
     <row r="25" spans="1:123" ht="9.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
@@ -6249,16 +6291,16 @@
     <row r="26" spans="1:123" ht="9.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
       <c r="M26" s="25"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
@@ -6375,21 +6417,21 @@
       <c r="A27" s="2"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="121" t="s">
+      <c r="D27" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="117">
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="104">
         <v>1</v>
       </c>
-      <c r="I27" s="118"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101" t="s">
+      <c r="I27" s="143"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="102">
+      <c r="L27" s="106">
         <v>100</v>
       </c>
       <c r="M27" s="32"/>
@@ -6508,15 +6550,15 @@
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="32"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
@@ -6633,21 +6675,21 @@
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="117">
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="104">
         <v>1</v>
       </c>
-      <c r="I29" s="118"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101" t="s">
+      <c r="I29" s="143"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="102">
+      <c r="L29" s="106">
         <v>100</v>
       </c>
       <c r="M29" s="32"/>
@@ -6766,15 +6808,15 @@
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
       <c r="M30" s="34"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
@@ -6889,18 +6931,18 @@
     <row r="31" spans="1:123" ht="9.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
       <c r="M31" s="21"/>
       <c r="N31" s="36"/>
       <c r="O31" s="22"/>
@@ -7016,16 +7058,16 @@
     <row r="32" spans="1:123" ht="9.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
       <c r="M32" s="25"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
@@ -7142,17 +7184,17 @@
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
       <c r="M33" s="42"/>
       <c r="N33" s="43"/>
       <c r="O33" s="43"/>
@@ -7269,15 +7311,15 @@
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
       <c r="M34" s="44"/>
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
@@ -7395,20 +7437,20 @@
       <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="125" t="s">
+      <c r="E35" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="108"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="117">
+      <c r="F35" s="130"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="104">
         <v>1</v>
       </c>
-      <c r="I35" s="118"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101" t="s">
+      <c r="I35" s="143"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="102">
+      <c r="L35" s="106">
         <v>100</v>
       </c>
       <c r="M35" s="32"/>
@@ -7528,14 +7570,14 @@
       <c r="B36" s="24"/>
       <c r="C36" s="2"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
       <c r="M36" s="32"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -7653,18 +7695,18 @@
       <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="125" t="s">
+      <c r="E37" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="108"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101" t="s">
+      <c r="F37" s="130"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="102">
+      <c r="L37" s="106">
         <v>100</v>
       </c>
       <c r="M37" s="32"/>
@@ -7784,14 +7826,14 @@
       <c r="B38" s="24"/>
       <c r="C38" s="2"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
       <c r="M38" s="34"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
@@ -7908,17 +7950,17 @@
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="126" t="s">
+      <c r="D39" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
       <c r="M39" s="42"/>
       <c r="N39" s="43"/>
       <c r="O39" s="43"/>
@@ -8035,15 +8077,15 @@
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
       <c r="M40" s="44"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
@@ -8161,20 +8203,20 @@
       <c r="B41" s="24"/>
       <c r="C41" s="2"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="125" t="s">
+      <c r="E41" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="108"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="117">
+      <c r="F41" s="130"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="104">
         <v>1</v>
       </c>
-      <c r="I41" s="118"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101" t="s">
+      <c r="I41" s="143"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="L41" s="102">
+      <c r="L41" s="106">
         <v>100</v>
       </c>
       <c r="M41" s="32"/>
@@ -8294,14 +8336,14 @@
       <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="102"/>
-      <c r="L42" s="102"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
       <c r="M42" s="32"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
@@ -8418,20 +8460,20 @@
       <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="125" t="s">
+      <c r="E43" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="117">
+      <c r="F43" s="130"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="104">
         <v>4</v>
       </c>
-      <c r="I43" s="118"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101" t="s">
+      <c r="I43" s="143"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="L43" s="102">
+      <c r="L43" s="106">
         <v>100</v>
       </c>
       <c r="M43" s="32"/>
@@ -8551,14 +8593,14 @@
       <c r="B44" s="24"/>
       <c r="C44" s="2"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="143"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
       <c r="M44" s="32"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -8675,20 +8717,20 @@
       <c r="B45" s="24"/>
       <c r="C45" s="2"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="125" t="s">
+      <c r="E45" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="117">
+      <c r="F45" s="130"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="104">
         <v>0.5</v>
       </c>
-      <c r="I45" s="118"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101" t="s">
+      <c r="I45" s="143"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="102">
+      <c r="L45" s="106">
         <v>100</v>
       </c>
       <c r="M45" s="32"/>
@@ -8808,14 +8850,14 @@
       <c r="B46" s="24"/>
       <c r="C46" s="2"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="102"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="106"/>
       <c r="M46" s="32"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -8933,20 +8975,20 @@
       <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="125" t="s">
+      <c r="E47" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="108"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="117">
+      <c r="F47" s="130"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="104">
         <v>4</v>
       </c>
-      <c r="I47" s="118"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101" t="s">
+      <c r="I47" s="143"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="L47" s="102">
+      <c r="L47" s="106">
         <v>100</v>
       </c>
       <c r="M47" s="32"/>
@@ -9066,14 +9108,14 @@
       <c r="B48" s="24"/>
       <c r="C48" s="2"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="106"/>
+      <c r="L48" s="106"/>
       <c r="M48" s="32"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
@@ -9191,20 +9233,20 @@
       <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="125" t="s">
+      <c r="E49" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="108"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="117">
+      <c r="F49" s="130"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="104">
         <v>4</v>
       </c>
-      <c r="I49" s="118"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="101" t="s">
+      <c r="I49" s="143"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="102">
+      <c r="L49" s="106">
         <v>100</v>
       </c>
       <c r="M49" s="32"/>
@@ -9324,14 +9366,14 @@
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="106"/>
       <c r="M50" s="32"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
@@ -9449,20 +9491,20 @@
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="125" t="s">
+      <c r="E51" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="108"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="117">
+      <c r="F51" s="130"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="104">
         <v>0.5</v>
       </c>
-      <c r="I51" s="118"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="101" t="s">
+      <c r="I51" s="143"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="L51" s="102">
+      <c r="L51" s="106">
         <v>100</v>
       </c>
       <c r="M51" s="32"/>
@@ -9582,14 +9624,14 @@
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
       <c r="M52" s="34"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
@@ -9706,17 +9748,17 @@
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="124" t="s">
+      <c r="D53" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="98"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="112"/>
       <c r="M53" s="42"/>
       <c r="N53" s="43"/>
       <c r="O53" s="43"/>
@@ -9833,15 +9875,15 @@
       <c r="A54" s="2"/>
       <c r="B54" s="24"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
-      <c r="L54" s="98"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="112"/>
       <c r="M54" s="44"/>
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
@@ -9959,20 +10001,20 @@
       <c r="B55" s="24"/>
       <c r="C55" s="2"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="125" t="s">
+      <c r="E55" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="108"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="117">
+      <c r="F55" s="130"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="104">
         <v>4</v>
       </c>
-      <c r="I55" s="118"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101" t="s">
+      <c r="I55" s="143"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="L55" s="102">
+      <c r="L55" s="106">
         <v>100</v>
       </c>
       <c r="M55" s="32"/>
@@ -10091,14 +10133,14 @@
       <c r="B56" s="24"/>
       <c r="C56" s="2"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="102"/>
-      <c r="L56" s="102"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="106"/>
       <c r="M56" s="32"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
@@ -10216,20 +10258,20 @@
       <c r="B57" s="24"/>
       <c r="C57" s="2"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="125" t="s">
+      <c r="E57" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="108"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="117">
+      <c r="F57" s="130"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="104">
         <v>4</v>
       </c>
-      <c r="I57" s="118"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101" t="s">
+      <c r="I57" s="143"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="102">
+      <c r="L57" s="106">
         <v>100</v>
       </c>
       <c r="M57" s="32"/>
@@ -10349,14 +10391,14 @@
       <c r="B58" s="24"/>
       <c r="C58" s="2"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="102"/>
-      <c r="L58" s="102"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
       <c r="M58" s="32"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
@@ -10474,20 +10516,20 @@
       <c r="B59" s="24"/>
       <c r="C59" s="2"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="125" t="s">
+      <c r="E59" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="108"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="117">
+      <c r="F59" s="130"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="104">
         <v>4</v>
       </c>
-      <c r="I59" s="118"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101" t="s">
+      <c r="I59" s="143"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="102">
+      <c r="L59" s="106">
         <v>100</v>
       </c>
       <c r="M59" s="32"/>
@@ -10607,14 +10649,14 @@
       <c r="B60" s="24"/>
       <c r="C60" s="2"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="102"/>
-      <c r="K60" s="102"/>
-      <c r="L60" s="102"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="143"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
       <c r="M60" s="32"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
@@ -10732,20 +10774,20 @@
       <c r="B61" s="24"/>
       <c r="C61" s="2"/>
       <c r="D61" s="46"/>
-      <c r="E61" s="125" t="s">
+      <c r="E61" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="108"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="117">
+      <c r="F61" s="130"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="104">
         <v>0.5</v>
       </c>
-      <c r="I61" s="118"/>
-      <c r="J61" s="101"/>
-      <c r="K61" s="101" t="s">
+      <c r="I61" s="143"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="L61" s="102">
+      <c r="L61" s="106">
         <v>100</v>
       </c>
       <c r="M61" s="32"/>
@@ -10865,14 +10907,14 @@
       <c r="B62" s="24"/>
       <c r="C62" s="2"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="117"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="102"/>
+      <c r="E62" s="131"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="143"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
       <c r="M62" s="34"/>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
@@ -10989,17 +11031,17 @@
       <c r="A63" s="2"/>
       <c r="B63" s="24"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="124" t="s">
+      <c r="D63" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="98"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="110"/>
+      <c r="L63" s="112"/>
       <c r="M63" s="42"/>
       <c r="N63" s="43"/>
       <c r="O63" s="43"/>
@@ -11116,15 +11158,15 @@
       <c r="A64" s="2"/>
       <c r="B64" s="24"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="100"/>
-      <c r="I64" s="100"/>
-      <c r="J64" s="100"/>
-      <c r="K64" s="100"/>
-      <c r="L64" s="98"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="111"/>
+      <c r="K64" s="111"/>
+      <c r="L64" s="112"/>
       <c r="M64" s="44"/>
       <c r="N64" s="31"/>
       <c r="O64" s="31"/>
@@ -11242,18 +11284,18 @@
       <c r="B65" s="24"/>
       <c r="C65" s="2"/>
       <c r="D65" s="46"/>
-      <c r="E65" s="125" t="s">
+      <c r="E65" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="108"/>
-      <c r="G65" s="119"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="101"/>
-      <c r="K65" s="101" t="s">
+      <c r="F65" s="130"/>
+      <c r="G65" s="139"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="L65" s="102">
+      <c r="L65" s="106">
         <v>100</v>
       </c>
       <c r="M65" s="32"/>
@@ -11373,14 +11415,14 @@
       <c r="B66" s="24"/>
       <c r="C66" s="2"/>
       <c r="D66" s="46"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="102"/>
-      <c r="K66" s="102"/>
-      <c r="L66" s="102"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="132"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
       <c r="M66" s="32"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
@@ -11498,18 +11540,18 @@
       <c r="B67" s="24"/>
       <c r="C67" s="2"/>
       <c r="D67" s="46"/>
-      <c r="E67" s="125" t="s">
+      <c r="E67" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="108"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="117"/>
-      <c r="J67" s="101"/>
-      <c r="K67" s="101" t="s">
+      <c r="F67" s="130"/>
+      <c r="G67" s="139"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="L67" s="102">
+      <c r="L67" s="106">
         <v>100</v>
       </c>
       <c r="M67" s="32"/>
@@ -11627,14 +11669,14 @@
       <c r="B68" s="24"/>
       <c r="C68" s="2"/>
       <c r="D68" s="46"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="102"/>
-      <c r="K68" s="102"/>
-      <c r="L68" s="102"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="140"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="106"/>
+      <c r="K68" s="106"/>
+      <c r="L68" s="106"/>
       <c r="M68" s="32"/>
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
@@ -11752,18 +11794,18 @@
       <c r="B69" s="24"/>
       <c r="C69" s="2"/>
       <c r="D69" s="46"/>
-      <c r="E69" s="125" t="s">
+      <c r="E69" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="108"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="117"/>
-      <c r="I69" s="117"/>
-      <c r="J69" s="101"/>
-      <c r="K69" s="101" t="s">
+      <c r="F69" s="130"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L69" s="102">
+      <c r="L69" s="106">
         <v>100</v>
       </c>
       <c r="M69" s="32"/>
@@ -11883,14 +11925,14 @@
       <c r="B70" s="24"/>
       <c r="C70" s="2"/>
       <c r="D70" s="46"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="110"/>
-      <c r="G70" s="120"/>
-      <c r="H70" s="117"/>
-      <c r="I70" s="117"/>
-      <c r="J70" s="102"/>
-      <c r="K70" s="102"/>
-      <c r="L70" s="102"/>
+      <c r="E70" s="131"/>
+      <c r="F70" s="132"/>
+      <c r="G70" s="140"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="106"/>
       <c r="M70" s="32"/>
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
@@ -12008,18 +12050,18 @@
       <c r="B71" s="24"/>
       <c r="C71" s="2"/>
       <c r="D71" s="46"/>
-      <c r="E71" s="125" t="s">
+      <c r="E71" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="108"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="117"/>
-      <c r="J71" s="101"/>
-      <c r="K71" s="101" t="s">
+      <c r="F71" s="130"/>
+      <c r="G71" s="139"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="104"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="L71" s="102">
+      <c r="L71" s="106">
         <v>100</v>
       </c>
       <c r="M71" s="32"/>
@@ -12139,14 +12181,14 @@
       <c r="B72" s="24"/>
       <c r="C72" s="2"/>
       <c r="D72" s="46"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="110"/>
-      <c r="G72" s="120"/>
-      <c r="H72" s="117"/>
-      <c r="I72" s="117"/>
-      <c r="J72" s="102"/>
-      <c r="K72" s="102"/>
-      <c r="L72" s="102"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="132"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="106"/>
+      <c r="K72" s="106"/>
+      <c r="L72" s="106"/>
       <c r="M72" s="32"/>
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
@@ -12264,18 +12306,18 @@
       <c r="B73" s="24"/>
       <c r="C73" s="2"/>
       <c r="D73" s="46"/>
-      <c r="E73" s="125" t="s">
+      <c r="E73" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="108"/>
-      <c r="G73" s="119"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="101"/>
-      <c r="K73" s="101" t="s">
+      <c r="F73" s="130"/>
+      <c r="G73" s="139"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="104"/>
+      <c r="J73" s="105"/>
+      <c r="K73" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L73" s="102">
+      <c r="L73" s="106">
         <v>100</v>
       </c>
       <c r="M73" s="32"/>
@@ -12395,14 +12437,14 @@
       <c r="B74" s="24"/>
       <c r="C74" s="2"/>
       <c r="D74" s="47"/>
-      <c r="E74" s="109"/>
-      <c r="F74" s="110"/>
-      <c r="G74" s="120"/>
-      <c r="H74" s="117"/>
-      <c r="I74" s="117"/>
-      <c r="J74" s="102"/>
-      <c r="K74" s="102"/>
-      <c r="L74" s="102"/>
+      <c r="E74" s="131"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="104"/>
+      <c r="J74" s="106"/>
+      <c r="K74" s="106"/>
+      <c r="L74" s="106"/>
       <c r="M74" s="34"/>
       <c r="N74" s="35"/>
       <c r="O74" s="35"/>
@@ -12518,18 +12560,18 @@
     <row r="75" spans="1:123" ht="9.75" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="51"/>
-      <c r="C75" s="127" t="s">
+      <c r="C75" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="108"/>
-      <c r="E75" s="108"/>
-      <c r="F75" s="108"/>
-      <c r="G75" s="108"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="98"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="130"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="110"/>
+      <c r="K75" s="110"/>
+      <c r="L75" s="112"/>
       <c r="M75" s="42"/>
       <c r="N75" s="43"/>
       <c r="O75" s="43"/>
@@ -12645,16 +12687,16 @@
     <row r="76" spans="1:123" ht="9.75" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="51"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="110"/>
-      <c r="F76" s="110"/>
-      <c r="G76" s="110"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="100"/>
-      <c r="L76" s="98"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="132"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="132"/>
+      <c r="G76" s="132"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="111"/>
+      <c r="K76" s="111"/>
+      <c r="L76" s="112"/>
       <c r="M76" s="44"/>
       <c r="N76" s="31"/>
       <c r="O76" s="31"/>
@@ -12770,18 +12812,18 @@
     <row r="77" spans="1:123" ht="9.75" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="51"/>
-      <c r="C77" s="127" t="s">
+      <c r="C77" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="108"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="108"/>
-      <c r="G77" s="108"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="99"/>
-      <c r="K77" s="99"/>
-      <c r="L77" s="98"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="130"/>
+      <c r="G77" s="130"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="110"/>
+      <c r="K77" s="110"/>
+      <c r="L77" s="112"/>
       <c r="M77" s="42"/>
       <c r="N77" s="43"/>
       <c r="O77" s="43"/>
@@ -12897,16 +12939,16 @@
     <row r="78" spans="1:123" ht="9.75" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="110"/>
-      <c r="D78" s="110"/>
-      <c r="E78" s="110"/>
-      <c r="F78" s="110"/>
-      <c r="G78" s="110"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="100"/>
-      <c r="J78" s="100"/>
-      <c r="K78" s="100"/>
-      <c r="L78" s="98"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="132"/>
+      <c r="E78" s="132"/>
+      <c r="F78" s="132"/>
+      <c r="G78" s="132"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="111"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="112"/>
       <c r="M78" s="44"/>
       <c r="N78" s="31"/>
       <c r="O78" s="31"/>
@@ -13023,17 +13065,17 @@
       <c r="A79" s="2"/>
       <c r="B79" s="24"/>
       <c r="C79" s="41"/>
-      <c r="D79" s="124" t="s">
+      <c r="D79" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="108"/>
-      <c r="F79" s="108"/>
-      <c r="G79" s="108"/>
-      <c r="H79" s="98"/>
-      <c r="I79" s="98"/>
-      <c r="J79" s="98"/>
-      <c r="K79" s="98"/>
-      <c r="L79" s="98"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="130"/>
+      <c r="G79" s="130"/>
+      <c r="H79" s="112"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="112"/>
+      <c r="K79" s="112"/>
+      <c r="L79" s="112"/>
       <c r="M79" s="42"/>
       <c r="N79" s="43"/>
       <c r="O79" s="43"/>
@@ -13150,15 +13192,15 @@
       <c r="A80" s="2"/>
       <c r="B80" s="24"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="110"/>
-      <c r="F80" s="110"/>
-      <c r="G80" s="110"/>
-      <c r="H80" s="98"/>
-      <c r="I80" s="98"/>
-      <c r="J80" s="98"/>
-      <c r="K80" s="98"/>
-      <c r="L80" s="98"/>
+      <c r="D80" s="131"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="132"/>
+      <c r="G80" s="132"/>
+      <c r="H80" s="112"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="112"/>
+      <c r="K80" s="112"/>
+      <c r="L80" s="112"/>
       <c r="M80" s="44"/>
       <c r="N80" s="31"/>
       <c r="O80" s="31"/>
@@ -13276,18 +13318,18 @@
       <c r="B81" s="24"/>
       <c r="C81" s="2"/>
       <c r="D81" s="46"/>
-      <c r="E81" s="125" t="s">
+      <c r="E81" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="F81" s="108"/>
-      <c r="G81" s="119"/>
-      <c r="H81" s="117"/>
-      <c r="I81" s="117"/>
-      <c r="J81" s="101"/>
-      <c r="K81" s="101" t="s">
+      <c r="F81" s="130"/>
+      <c r="G81" s="139"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="105"/>
+      <c r="K81" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="L81" s="102"/>
+      <c r="L81" s="106"/>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
       <c r="O81" s="18"/>
@@ -13405,14 +13447,14 @@
       <c r="B82" s="24"/>
       <c r="C82" s="2"/>
       <c r="D82" s="46"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="110"/>
-      <c r="G82" s="120"/>
-      <c r="H82" s="117"/>
-      <c r="I82" s="117"/>
-      <c r="J82" s="102"/>
-      <c r="K82" s="102"/>
-      <c r="L82" s="102"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="132"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="106"/>
+      <c r="K82" s="106"/>
+      <c r="L82" s="106"/>
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
       <c r="O82" s="18"/>
@@ -13530,18 +13572,18 @@
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
       <c r="D83" s="46"/>
-      <c r="E83" s="125" t="s">
+      <c r="E83" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="F83" s="108"/>
-      <c r="G83" s="119"/>
-      <c r="H83" s="117"/>
-      <c r="I83" s="117"/>
-      <c r="J83" s="101"/>
-      <c r="K83" s="101" t="s">
+      <c r="F83" s="130"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="104"/>
+      <c r="J83" s="105"/>
+      <c r="K83" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="L83" s="102"/>
+      <c r="L83" s="106"/>
       <c r="M83" s="18"/>
       <c r="N83" s="18"/>
       <c r="O83" s="18"/>
@@ -13659,14 +13701,14 @@
       <c r="B84" s="24"/>
       <c r="C84" s="2"/>
       <c r="D84" s="46"/>
-      <c r="E84" s="109"/>
-      <c r="F84" s="110"/>
-      <c r="G84" s="120"/>
-      <c r="H84" s="117"/>
-      <c r="I84" s="117"/>
-      <c r="J84" s="102"/>
-      <c r="K84" s="102"/>
-      <c r="L84" s="102"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="132"/>
+      <c r="G84" s="140"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="106"/>
+      <c r="K84" s="106"/>
+      <c r="L84" s="106"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
       <c r="O84" s="18"/>
@@ -13704,7 +13746,7 @@
       <c r="AU84" s="18"/>
       <c r="AV84" s="18"/>
       <c r="AW84" s="18"/>
-      <c r="AX84" s="156"/>
+      <c r="AX84" s="98"/>
       <c r="AY84" s="18"/>
       <c r="AZ84" s="18"/>
       <c r="BA84" s="18"/>
@@ -13784,18 +13826,18 @@
       <c r="B85" s="24"/>
       <c r="C85" s="2"/>
       <c r="D85" s="46"/>
-      <c r="E85" s="125" t="s">
+      <c r="E85" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="108"/>
-      <c r="G85" s="119"/>
-      <c r="H85" s="117"/>
-      <c r="I85" s="117"/>
-      <c r="J85" s="101"/>
-      <c r="K85" s="101" t="s">
+      <c r="F85" s="130"/>
+      <c r="G85" s="139"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="105"/>
+      <c r="K85" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="L85" s="102"/>
+      <c r="L85" s="106"/>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
       <c r="O85" s="18"/>
@@ -13913,14 +13955,14 @@
       <c r="B86" s="24"/>
       <c r="C86" s="2"/>
       <c r="D86" s="46"/>
-      <c r="E86" s="109"/>
-      <c r="F86" s="110"/>
-      <c r="G86" s="120"/>
-      <c r="H86" s="117"/>
-      <c r="I86" s="117"/>
-      <c r="J86" s="102"/>
-      <c r="K86" s="102"/>
-      <c r="L86" s="102"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="132"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="104"/>
+      <c r="J86" s="106"/>
+      <c r="K86" s="106"/>
+      <c r="L86" s="106"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
       <c r="O86" s="18"/>
@@ -14037,17 +14079,17 @@
       <c r="A87" s="19"/>
       <c r="B87" s="51"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="124" t="s">
+      <c r="D87" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="108"/>
-      <c r="H87" s="99"/>
-      <c r="I87" s="99"/>
-      <c r="J87" s="99"/>
-      <c r="K87" s="99"/>
-      <c r="L87" s="98"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="130"/>
+      <c r="G87" s="130"/>
+      <c r="H87" s="110"/>
+      <c r="I87" s="110"/>
+      <c r="J87" s="110"/>
+      <c r="K87" s="110"/>
+      <c r="L87" s="112"/>
       <c r="M87" s="42"/>
       <c r="N87" s="43"/>
       <c r="O87" s="43"/>
@@ -14164,15 +14206,15 @@
       <c r="A88" s="19"/>
       <c r="B88" s="51"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="110"/>
-      <c r="F88" s="110"/>
-      <c r="G88" s="110"/>
-      <c r="H88" s="100"/>
-      <c r="I88" s="100"/>
-      <c r="J88" s="100"/>
-      <c r="K88" s="100"/>
-      <c r="L88" s="98"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="132"/>
+      <c r="F88" s="132"/>
+      <c r="G88" s="132"/>
+      <c r="H88" s="111"/>
+      <c r="I88" s="111"/>
+      <c r="J88" s="111"/>
+      <c r="K88" s="111"/>
+      <c r="L88" s="112"/>
       <c r="M88" s="44"/>
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
@@ -14290,16 +14332,16 @@
       <c r="B89" s="24"/>
       <c r="C89" s="2"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="130" t="s">
+      <c r="E89" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="130"/>
-      <c r="G89" s="131"/>
-      <c r="H89" s="99"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="99"/>
-      <c r="K89" s="99"/>
-      <c r="L89" s="98"/>
+      <c r="F89" s="113"/>
+      <c r="G89" s="114"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="110"/>
+      <c r="J89" s="110"/>
+      <c r="K89" s="110"/>
+      <c r="L89" s="112"/>
       <c r="M89" s="42"/>
       <c r="N89" s="43"/>
       <c r="O89" s="43"/>
@@ -14417,14 +14459,14 @@
       <c r="B90" s="24"/>
       <c r="C90" s="2"/>
       <c r="D90" s="56"/>
-      <c r="E90" s="132"/>
-      <c r="F90" s="133"/>
-      <c r="G90" s="134"/>
-      <c r="H90" s="100"/>
-      <c r="I90" s="100"/>
-      <c r="J90" s="100"/>
-      <c r="K90" s="100"/>
-      <c r="L90" s="98"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="135"/>
+      <c r="H90" s="111"/>
+      <c r="I90" s="111"/>
+      <c r="J90" s="111"/>
+      <c r="K90" s="111"/>
+      <c r="L90" s="112"/>
       <c r="M90" s="44"/>
       <c r="N90" s="31"/>
       <c r="O90" s="31"/>
@@ -14543,20 +14585,22 @@
       <c r="C91" s="2"/>
       <c r="D91" s="46"/>
       <c r="E91" s="59"/>
-      <c r="F91" s="135" t="s">
+      <c r="F91" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="136"/>
-      <c r="H91" s="117">
+      <c r="G91" s="116"/>
+      <c r="H91" s="104">
         <v>4</v>
       </c>
-      <c r="I91" s="117"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101" t="s">
+      <c r="I91" s="104">
+        <v>5</v>
+      </c>
+      <c r="J91" s="105"/>
+      <c r="K91" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="L91" s="128">
-        <v>50</v>
+      <c r="L91" s="141">
+        <v>100</v>
       </c>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
@@ -14676,13 +14720,13 @@
       <c r="C92" s="2"/>
       <c r="D92" s="46"/>
       <c r="E92" s="60"/>
-      <c r="F92" s="137"/>
-      <c r="G92" s="138"/>
-      <c r="H92" s="117"/>
-      <c r="I92" s="117"/>
-      <c r="J92" s="102"/>
-      <c r="K92" s="102"/>
-      <c r="L92" s="129"/>
+      <c r="F92" s="118"/>
+      <c r="G92" s="119"/>
+      <c r="H92" s="104"/>
+      <c r="I92" s="104"/>
+      <c r="J92" s="106"/>
+      <c r="K92" s="106"/>
+      <c r="L92" s="142"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18"/>
       <c r="O92" s="18"/>
@@ -14720,8 +14764,8 @@
       <c r="AU92" s="18"/>
       <c r="AV92" s="18"/>
       <c r="AW92" s="18"/>
-      <c r="AX92" s="157"/>
-      <c r="AY92" s="18"/>
+      <c r="AX92" s="99"/>
+      <c r="AY92" s="98"/>
       <c r="AZ92" s="18"/>
       <c r="BA92" s="18"/>
       <c r="BB92" s="18"/>
@@ -14801,21 +14845,21 @@
       <c r="C93" s="2"/>
       <c r="D93" s="46"/>
       <c r="E93" s="61"/>
-      <c r="F93" s="135" t="s">
+      <c r="F93" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="G93" s="136"/>
-      <c r="H93" s="117">
+      <c r="G93" s="116"/>
+      <c r="H93" s="104">
         <v>4</v>
       </c>
-      <c r="I93" s="117"/>
-      <c r="J93" s="101" t="s">
+      <c r="I93" s="104"/>
+      <c r="J93" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="K93" s="101" t="s">
+      <c r="K93" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="L93" s="102"/>
+      <c r="L93" s="106"/>
       <c r="M93" s="18"/>
       <c r="N93" s="18"/>
       <c r="O93" s="18"/>
@@ -14934,13 +14978,13 @@
       <c r="C94" s="2"/>
       <c r="D94" s="46"/>
       <c r="E94" s="60"/>
-      <c r="F94" s="137"/>
-      <c r="G94" s="138"/>
-      <c r="H94" s="117"/>
-      <c r="I94" s="117"/>
-      <c r="J94" s="102"/>
-      <c r="K94" s="102"/>
-      <c r="L94" s="102"/>
+      <c r="F94" s="118"/>
+      <c r="G94" s="119"/>
+      <c r="H94" s="104"/>
+      <c r="I94" s="104"/>
+      <c r="J94" s="106"/>
+      <c r="K94" s="106"/>
+      <c r="L94" s="106"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
       <c r="O94" s="18"/>
@@ -15059,17 +15103,17 @@
       <c r="C95" s="2"/>
       <c r="D95" s="46"/>
       <c r="E95" s="61"/>
-      <c r="F95" s="135" t="s">
+      <c r="F95" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="G95" s="136"/>
-      <c r="H95" s="117"/>
-      <c r="I95" s="117"/>
-      <c r="J95" s="101"/>
-      <c r="K95" s="101" t="s">
+      <c r="G95" s="116"/>
+      <c r="H95" s="104"/>
+      <c r="I95" s="104"/>
+      <c r="J95" s="105"/>
+      <c r="K95" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="L95" s="102"/>
+      <c r="L95" s="106"/>
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
       <c r="O95" s="18"/>
@@ -15188,13 +15232,13 @@
       <c r="C96" s="2"/>
       <c r="D96" s="46"/>
       <c r="E96" s="62"/>
-      <c r="F96" s="147"/>
-      <c r="G96" s="146"/>
-      <c r="H96" s="117"/>
-      <c r="I96" s="117"/>
-      <c r="J96" s="102"/>
-      <c r="K96" s="102"/>
-      <c r="L96" s="102"/>
+      <c r="F96" s="117"/>
+      <c r="G96" s="103"/>
+      <c r="H96" s="104"/>
+      <c r="I96" s="104"/>
+      <c r="J96" s="106"/>
+      <c r="K96" s="106"/>
+      <c r="L96" s="106"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
       <c r="O96" s="18"/>
@@ -15312,16 +15356,16 @@
       <c r="B97" s="24"/>
       <c r="C97" s="2"/>
       <c r="D97" s="46"/>
-      <c r="E97" s="148" t="s">
+      <c r="E97" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="F97" s="149"/>
-      <c r="G97" s="150"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="98"/>
-      <c r="J97" s="98"/>
-      <c r="K97" s="98"/>
-      <c r="L97" s="98"/>
+      <c r="F97" s="121"/>
+      <c r="G97" s="122"/>
+      <c r="H97" s="110"/>
+      <c r="I97" s="112"/>
+      <c r="J97" s="112"/>
+      <c r="K97" s="112"/>
+      <c r="L97" s="112"/>
       <c r="M97" s="43"/>
       <c r="N97" s="43"/>
       <c r="O97" s="43"/>
@@ -15439,14 +15483,14 @@
       <c r="B98" s="24"/>
       <c r="C98" s="2"/>
       <c r="D98" s="46"/>
-      <c r="E98" s="151"/>
-      <c r="F98" s="152"/>
-      <c r="G98" s="153"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="98"/>
-      <c r="J98" s="98"/>
-      <c r="K98" s="98"/>
-      <c r="L98" s="98"/>
+      <c r="E98" s="123"/>
+      <c r="F98" s="124"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="111"/>
+      <c r="I98" s="112"/>
+      <c r="J98" s="112"/>
+      <c r="K98" s="112"/>
+      <c r="L98" s="112"/>
       <c r="M98" s="31"/>
       <c r="N98" s="31"/>
       <c r="O98" s="31"/>
@@ -15565,19 +15609,19 @@
       <c r="C99" s="2"/>
       <c r="D99" s="46"/>
       <c r="E99" s="61"/>
-      <c r="F99" s="155" t="s">
+      <c r="F99" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="G99" s="144"/>
-      <c r="H99" s="117">
+      <c r="G99" s="101"/>
+      <c r="H99" s="104">
         <v>4</v>
       </c>
-      <c r="I99" s="117"/>
-      <c r="J99" s="101"/>
-      <c r="K99" s="101" t="s">
+      <c r="I99" s="104"/>
+      <c r="J99" s="105"/>
+      <c r="K99" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="L99" s="101"/>
+      <c r="L99" s="105"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
       <c r="O99" s="18"/>
@@ -15696,13 +15740,13 @@
       <c r="C100" s="2"/>
       <c r="D100" s="46"/>
       <c r="E100" s="60"/>
-      <c r="F100" s="154"/>
-      <c r="G100" s="138"/>
-      <c r="H100" s="117"/>
-      <c r="I100" s="117"/>
-      <c r="J100" s="102"/>
-      <c r="K100" s="102"/>
-      <c r="L100" s="102"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="119"/>
+      <c r="H100" s="104"/>
+      <c r="I100" s="104"/>
+      <c r="J100" s="106"/>
+      <c r="K100" s="106"/>
+      <c r="L100" s="106"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
       <c r="O100" s="18"/>
@@ -15821,19 +15865,19 @@
       <c r="C101" s="2"/>
       <c r="D101" s="46"/>
       <c r="E101" s="61"/>
-      <c r="F101" s="125" t="s">
+      <c r="F101" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="G101" s="136"/>
-      <c r="H101" s="117">
+      <c r="G101" s="116"/>
+      <c r="H101" s="104">
         <v>4</v>
       </c>
-      <c r="I101" s="117"/>
-      <c r="J101" s="101"/>
-      <c r="K101" s="101" t="s">
+      <c r="I101" s="104"/>
+      <c r="J101" s="105"/>
+      <c r="K101" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="L101" s="101"/>
+      <c r="L101" s="105"/>
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
       <c r="O101" s="18"/>
@@ -15952,13 +15996,13 @@
       <c r="C102" s="2"/>
       <c r="D102" s="46"/>
       <c r="E102" s="60"/>
-      <c r="F102" s="154"/>
-      <c r="G102" s="138"/>
-      <c r="H102" s="117"/>
-      <c r="I102" s="117"/>
-      <c r="J102" s="102"/>
-      <c r="K102" s="102"/>
-      <c r="L102" s="102"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="119"/>
+      <c r="H102" s="104"/>
+      <c r="I102" s="104"/>
+      <c r="J102" s="106"/>
+      <c r="K102" s="106"/>
+      <c r="L102" s="106"/>
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
       <c r="O102" s="18"/>
@@ -16077,19 +16121,19 @@
       <c r="C103" s="2"/>
       <c r="D103" s="46"/>
       <c r="E103" s="61"/>
-      <c r="F103" s="125" t="s">
+      <c r="F103" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="G103" s="136"/>
-      <c r="H103" s="117">
+      <c r="G103" s="116"/>
+      <c r="H103" s="104">
         <v>5</v>
       </c>
-      <c r="I103" s="117"/>
-      <c r="J103" s="101"/>
-      <c r="K103" s="101" t="s">
+      <c r="I103" s="104"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="L103" s="101"/>
+      <c r="L103" s="105"/>
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
       <c r="O103" s="18"/>
@@ -16208,13 +16252,13 @@
       <c r="C104" s="2"/>
       <c r="D104" s="46"/>
       <c r="E104" s="60"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="138"/>
-      <c r="H104" s="117"/>
-      <c r="I104" s="117"/>
-      <c r="J104" s="102"/>
-      <c r="K104" s="102"/>
-      <c r="L104" s="102"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="119"/>
+      <c r="H104" s="104"/>
+      <c r="I104" s="104"/>
+      <c r="J104" s="106"/>
+      <c r="K104" s="106"/>
+      <c r="L104" s="106"/>
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
       <c r="O104" s="18"/>
@@ -16333,19 +16377,19 @@
       <c r="C105" s="2"/>
       <c r="D105" s="46"/>
       <c r="E105" s="61"/>
-      <c r="F105" s="125" t="s">
+      <c r="F105" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="136"/>
-      <c r="H105" s="117">
+      <c r="G105" s="116"/>
+      <c r="H105" s="104">
         <v>4</v>
       </c>
-      <c r="I105" s="117"/>
-      <c r="J105" s="101"/>
-      <c r="K105" s="101" t="s">
+      <c r="I105" s="104"/>
+      <c r="J105" s="105"/>
+      <c r="K105" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="L105" s="101"/>
+      <c r="L105" s="105"/>
       <c r="M105" s="18"/>
       <c r="N105" s="18"/>
       <c r="O105" s="18"/>
@@ -16464,13 +16508,13 @@
       <c r="C106" s="2"/>
       <c r="D106" s="46"/>
       <c r="E106" s="60"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="138"/>
-      <c r="H106" s="117"/>
-      <c r="I106" s="117"/>
-      <c r="J106" s="102"/>
-      <c r="K106" s="102"/>
-      <c r="L106" s="102"/>
+      <c r="F106" s="127"/>
+      <c r="G106" s="119"/>
+      <c r="H106" s="104"/>
+      <c r="I106" s="104"/>
+      <c r="J106" s="106"/>
+      <c r="K106" s="106"/>
+      <c r="L106" s="106"/>
       <c r="M106" s="18"/>
       <c r="N106" s="18"/>
       <c r="O106" s="18"/>
@@ -16589,21 +16633,21 @@
       <c r="C107" s="2"/>
       <c r="D107" s="46"/>
       <c r="E107" s="61"/>
-      <c r="F107" s="125" t="s">
+      <c r="F107" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="G107" s="136"/>
-      <c r="H107" s="117">
+      <c r="G107" s="116"/>
+      <c r="H107" s="104">
         <v>4</v>
       </c>
-      <c r="I107" s="117"/>
-      <c r="J107" s="101" t="s">
+      <c r="I107" s="104"/>
+      <c r="J107" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="K107" s="101" t="s">
+      <c r="K107" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="L107" s="101"/>
+      <c r="L107" s="105"/>
       <c r="M107" s="18"/>
       <c r="N107" s="18"/>
       <c r="O107" s="18"/>
@@ -16722,13 +16766,13 @@
       <c r="C108" s="2"/>
       <c r="D108" s="46"/>
       <c r="E108" s="60"/>
-      <c r="F108" s="154"/>
-      <c r="G108" s="138"/>
-      <c r="H108" s="117"/>
-      <c r="I108" s="117"/>
-      <c r="J108" s="102"/>
-      <c r="K108" s="102"/>
-      <c r="L108" s="102"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="119"/>
+      <c r="H108" s="104"/>
+      <c r="I108" s="104"/>
+      <c r="J108" s="106"/>
+      <c r="K108" s="106"/>
+      <c r="L108" s="106"/>
       <c r="M108" s="18"/>
       <c r="N108" s="18"/>
       <c r="O108" s="18"/>
@@ -16847,17 +16891,17 @@
       <c r="C109" s="2"/>
       <c r="D109" s="46"/>
       <c r="E109" s="61"/>
-      <c r="F109" s="125" t="s">
+      <c r="F109" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="G109" s="136"/>
-      <c r="H109" s="117"/>
-      <c r="I109" s="117"/>
-      <c r="J109" s="101"/>
-      <c r="K109" s="101" t="s">
+      <c r="G109" s="116"/>
+      <c r="H109" s="104"/>
+      <c r="I109" s="104"/>
+      <c r="J109" s="105"/>
+      <c r="K109" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="L109" s="102"/>
+      <c r="L109" s="106"/>
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
       <c r="O109" s="18"/>
@@ -16976,13 +17020,13 @@
       <c r="C110" s="2"/>
       <c r="D110" s="46"/>
       <c r="E110" s="60"/>
-      <c r="F110" s="154"/>
-      <c r="G110" s="138"/>
-      <c r="H110" s="117"/>
-      <c r="I110" s="117"/>
-      <c r="J110" s="102"/>
-      <c r="K110" s="102"/>
-      <c r="L110" s="102"/>
+      <c r="F110" s="127"/>
+      <c r="G110" s="119"/>
+      <c r="H110" s="104"/>
+      <c r="I110" s="104"/>
+      <c r="J110" s="106"/>
+      <c r="K110" s="106"/>
+      <c r="L110" s="106"/>
       <c r="M110" s="18"/>
       <c r="N110" s="18"/>
       <c r="O110" s="18"/>
@@ -17099,17 +17143,17 @@
       <c r="A111" s="19"/>
       <c r="B111" s="51"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="124" t="s">
+      <c r="D111" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="E111" s="108"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="108"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="98"/>
-      <c r="J111" s="99"/>
-      <c r="K111" s="99"/>
-      <c r="L111" s="98"/>
+      <c r="E111" s="130"/>
+      <c r="F111" s="130"/>
+      <c r="G111" s="130"/>
+      <c r="H111" s="110"/>
+      <c r="I111" s="112"/>
+      <c r="J111" s="110"/>
+      <c r="K111" s="110"/>
+      <c r="L111" s="112"/>
       <c r="M111" s="42"/>
       <c r="N111" s="43"/>
       <c r="O111" s="43"/>
@@ -17226,15 +17270,15 @@
       <c r="A112" s="19"/>
       <c r="B112" s="51"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="109"/>
-      <c r="E112" s="110"/>
-      <c r="F112" s="110"/>
-      <c r="G112" s="110"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="98"/>
-      <c r="J112" s="100"/>
-      <c r="K112" s="100"/>
-      <c r="L112" s="98"/>
+      <c r="D112" s="131"/>
+      <c r="E112" s="132"/>
+      <c r="F112" s="132"/>
+      <c r="G112" s="132"/>
+      <c r="H112" s="111"/>
+      <c r="I112" s="112"/>
+      <c r="J112" s="111"/>
+      <c r="K112" s="111"/>
+      <c r="L112" s="112"/>
       <c r="M112" s="44"/>
       <c r="N112" s="31"/>
       <c r="O112" s="31"/>
@@ -17352,16 +17396,16 @@
       <c r="B113" s="24"/>
       <c r="C113" s="2"/>
       <c r="D113" s="55"/>
-      <c r="E113" s="130" t="s">
+      <c r="E113" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="F113" s="130"/>
-      <c r="G113" s="131"/>
-      <c r="H113" s="99"/>
-      <c r="I113" s="98"/>
-      <c r="J113" s="99"/>
-      <c r="K113" s="99"/>
-      <c r="L113" s="98"/>
+      <c r="F113" s="113"/>
+      <c r="G113" s="114"/>
+      <c r="H113" s="110"/>
+      <c r="I113" s="112"/>
+      <c r="J113" s="110"/>
+      <c r="K113" s="110"/>
+      <c r="L113" s="112"/>
       <c r="M113" s="42"/>
       <c r="N113" s="43"/>
       <c r="O113" s="43"/>
@@ -17479,14 +17523,14 @@
       <c r="B114" s="24"/>
       <c r="C114" s="2"/>
       <c r="D114" s="56"/>
-      <c r="E114" s="132"/>
-      <c r="F114" s="132"/>
-      <c r="G114" s="142"/>
-      <c r="H114" s="100"/>
-      <c r="I114" s="98"/>
-      <c r="J114" s="100"/>
-      <c r="K114" s="100"/>
-      <c r="L114" s="98"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="108"/>
+      <c r="G114" s="109"/>
+      <c r="H114" s="111"/>
+      <c r="I114" s="112"/>
+      <c r="J114" s="111"/>
+      <c r="K114" s="111"/>
+      <c r="L114" s="112"/>
       <c r="M114" s="44"/>
       <c r="N114" s="31"/>
       <c r="O114" s="31"/>
@@ -17605,19 +17649,19 @@
       <c r="C115" s="2"/>
       <c r="D115" s="46"/>
       <c r="E115" s="59"/>
-      <c r="F115" s="143" t="s">
+      <c r="F115" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="144"/>
-      <c r="H115" s="117">
+      <c r="G115" s="101"/>
+      <c r="H115" s="104">
         <v>3</v>
       </c>
-      <c r="I115" s="117"/>
-      <c r="J115" s="101"/>
-      <c r="K115" s="101" t="s">
+      <c r="I115" s="104"/>
+      <c r="J115" s="105"/>
+      <c r="K115" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="L115" s="102"/>
+      <c r="L115" s="106"/>
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
       <c r="O115" s="18"/>
@@ -17736,13 +17780,13 @@
       <c r="C116" s="2"/>
       <c r="D116" s="46"/>
       <c r="E116" s="60"/>
-      <c r="F116" s="145"/>
-      <c r="G116" s="146"/>
-      <c r="H116" s="117"/>
-      <c r="I116" s="117"/>
-      <c r="J116" s="102"/>
-      <c r="K116" s="102"/>
-      <c r="L116" s="102"/>
+      <c r="F116" s="102"/>
+      <c r="G116" s="103"/>
+      <c r="H116" s="104"/>
+      <c r="I116" s="104"/>
+      <c r="J116" s="106"/>
+      <c r="K116" s="106"/>
+      <c r="L116" s="106"/>
       <c r="M116" s="18"/>
       <c r="N116" s="18"/>
       <c r="O116" s="18"/>
@@ -17861,21 +17905,21 @@
       <c r="C117" s="2"/>
       <c r="D117" s="46"/>
       <c r="E117" s="61"/>
-      <c r="F117" s="143" t="s">
+      <c r="F117" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="G117" s="144"/>
-      <c r="H117" s="117">
+      <c r="G117" s="101"/>
+      <c r="H117" s="104">
         <v>3</v>
       </c>
-      <c r="I117" s="117"/>
-      <c r="J117" s="101" t="s">
+      <c r="I117" s="104"/>
+      <c r="J117" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="K117" s="101" t="s">
+      <c r="K117" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="L117" s="102"/>
+      <c r="L117" s="106"/>
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
       <c r="O117" s="18"/>
@@ -17994,13 +18038,13 @@
       <c r="C118" s="2"/>
       <c r="D118" s="46"/>
       <c r="E118" s="58"/>
-      <c r="F118" s="145"/>
-      <c r="G118" s="146"/>
-      <c r="H118" s="117"/>
-      <c r="I118" s="117"/>
-      <c r="J118" s="102"/>
-      <c r="K118" s="102"/>
-      <c r="L118" s="102"/>
+      <c r="F118" s="102"/>
+      <c r="G118" s="103"/>
+      <c r="H118" s="104"/>
+      <c r="I118" s="104"/>
+      <c r="J118" s="106"/>
+      <c r="K118" s="106"/>
+      <c r="L118" s="106"/>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
       <c r="O118" s="18"/>
@@ -18119,17 +18163,17 @@
       <c r="C119" s="2"/>
       <c r="D119" s="46"/>
       <c r="E119" s="58"/>
-      <c r="F119" s="143" t="s">
+      <c r="F119" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G119" s="144"/>
-      <c r="H119" s="117"/>
-      <c r="I119" s="117"/>
-      <c r="J119" s="101"/>
-      <c r="K119" s="101" t="s">
+      <c r="G119" s="101"/>
+      <c r="H119" s="104"/>
+      <c r="I119" s="104"/>
+      <c r="J119" s="105"/>
+      <c r="K119" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="L119" s="102"/>
+      <c r="L119" s="106"/>
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
       <c r="O119" s="18"/>
@@ -18248,13 +18292,13 @@
       <c r="C120" s="2"/>
       <c r="D120" s="46"/>
       <c r="E120" s="63"/>
-      <c r="F120" s="145"/>
-      <c r="G120" s="146"/>
-      <c r="H120" s="117"/>
-      <c r="I120" s="117"/>
-      <c r="J120" s="102"/>
-      <c r="K120" s="102"/>
-      <c r="L120" s="102"/>
+      <c r="F120" s="102"/>
+      <c r="G120" s="103"/>
+      <c r="H120" s="104"/>
+      <c r="I120" s="104"/>
+      <c r="J120" s="106"/>
+      <c r="K120" s="106"/>
+      <c r="L120" s="106"/>
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
       <c r="O120" s="18"/>
@@ -18372,16 +18416,16 @@
       <c r="B121" s="24"/>
       <c r="C121" s="2"/>
       <c r="D121" s="46"/>
-      <c r="E121" s="141" t="s">
+      <c r="E121" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="F121" s="132"/>
-      <c r="G121" s="142"/>
-      <c r="H121" s="99"/>
-      <c r="I121" s="98"/>
-      <c r="J121" s="98"/>
-      <c r="K121" s="98"/>
-      <c r="L121" s="98"/>
+      <c r="F121" s="108"/>
+      <c r="G121" s="109"/>
+      <c r="H121" s="110"/>
+      <c r="I121" s="112"/>
+      <c r="J121" s="112"/>
+      <c r="K121" s="112"/>
+      <c r="L121" s="112"/>
       <c r="M121" s="43"/>
       <c r="N121" s="43"/>
       <c r="O121" s="43"/>
@@ -18499,14 +18543,14 @@
       <c r="B122" s="24"/>
       <c r="C122" s="2"/>
       <c r="D122" s="46"/>
-      <c r="E122" s="141"/>
-      <c r="F122" s="132"/>
-      <c r="G122" s="142"/>
-      <c r="H122" s="100"/>
-      <c r="I122" s="98"/>
-      <c r="J122" s="98"/>
-      <c r="K122" s="98"/>
-      <c r="L122" s="98"/>
+      <c r="E122" s="107"/>
+      <c r="F122" s="108"/>
+      <c r="G122" s="109"/>
+      <c r="H122" s="111"/>
+      <c r="I122" s="112"/>
+      <c r="J122" s="112"/>
+      <c r="K122" s="112"/>
+      <c r="L122" s="112"/>
       <c r="M122" s="31"/>
       <c r="N122" s="31"/>
       <c r="O122" s="31"/>
@@ -18625,19 +18669,19 @@
       <c r="C123" s="2"/>
       <c r="D123" s="46"/>
       <c r="E123" s="57"/>
-      <c r="F123" s="143" t="s">
+      <c r="F123" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="G123" s="144"/>
-      <c r="H123" s="117">
+      <c r="G123" s="101"/>
+      <c r="H123" s="104">
         <v>3</v>
       </c>
-      <c r="I123" s="117"/>
-      <c r="J123" s="101"/>
-      <c r="K123" s="101" t="s">
+      <c r="I123" s="104"/>
+      <c r="J123" s="105"/>
+      <c r="K123" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="L123" s="101"/>
+      <c r="L123" s="105"/>
       <c r="M123" s="18"/>
       <c r="N123" s="18"/>
       <c r="O123" s="18"/>
@@ -18756,13 +18800,13 @@
       <c r="C124" s="2"/>
       <c r="D124" s="46"/>
       <c r="E124" s="58"/>
-      <c r="F124" s="145"/>
-      <c r="G124" s="146"/>
-      <c r="H124" s="117"/>
-      <c r="I124" s="117"/>
-      <c r="J124" s="102"/>
-      <c r="K124" s="102"/>
-      <c r="L124" s="102"/>
+      <c r="F124" s="102"/>
+      <c r="G124" s="103"/>
+      <c r="H124" s="104"/>
+      <c r="I124" s="104"/>
+      <c r="J124" s="106"/>
+      <c r="K124" s="106"/>
+      <c r="L124" s="106"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
       <c r="O124" s="18"/>
@@ -18881,19 +18925,19 @@
       <c r="C125" s="2"/>
       <c r="D125" s="46"/>
       <c r="E125" s="58"/>
-      <c r="F125" s="143" t="s">
+      <c r="F125" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="G125" s="144"/>
-      <c r="H125" s="117">
+      <c r="G125" s="101"/>
+      <c r="H125" s="104">
         <v>2</v>
       </c>
-      <c r="I125" s="117"/>
-      <c r="J125" s="101"/>
-      <c r="K125" s="101" t="s">
+      <c r="I125" s="104"/>
+      <c r="J125" s="105"/>
+      <c r="K125" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="L125" s="101"/>
+      <c r="L125" s="105"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
       <c r="O125" s="18"/>
@@ -19012,13 +19056,13 @@
       <c r="C126" s="2"/>
       <c r="D126" s="46"/>
       <c r="E126" s="58"/>
-      <c r="F126" s="145"/>
-      <c r="G126" s="146"/>
-      <c r="H126" s="117"/>
-      <c r="I126" s="117"/>
-      <c r="J126" s="102"/>
-      <c r="K126" s="102"/>
-      <c r="L126" s="102"/>
+      <c r="F126" s="102"/>
+      <c r="G126" s="103"/>
+      <c r="H126" s="104"/>
+      <c r="I126" s="104"/>
+      <c r="J126" s="106"/>
+      <c r="K126" s="106"/>
+      <c r="L126" s="106"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
       <c r="O126" s="18"/>
@@ -19137,19 +19181,19 @@
       <c r="C127" s="2"/>
       <c r="D127" s="46"/>
       <c r="E127" s="58"/>
-      <c r="F127" s="143" t="s">
+      <c r="F127" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="G127" s="144"/>
-      <c r="H127" s="117">
+      <c r="G127" s="101"/>
+      <c r="H127" s="104">
         <v>8</v>
       </c>
-      <c r="I127" s="117"/>
-      <c r="J127" s="101"/>
-      <c r="K127" s="101" t="s">
+      <c r="I127" s="104"/>
+      <c r="J127" s="105"/>
+      <c r="K127" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="L127" s="101"/>
+      <c r="L127" s="105"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
       <c r="O127" s="18"/>
@@ -19268,13 +19312,13 @@
       <c r="C128" s="2"/>
       <c r="D128" s="46"/>
       <c r="E128" s="58"/>
-      <c r="F128" s="145"/>
-      <c r="G128" s="146"/>
-      <c r="H128" s="117"/>
-      <c r="I128" s="117"/>
-      <c r="J128" s="102"/>
-      <c r="K128" s="102"/>
-      <c r="L128" s="102"/>
+      <c r="F128" s="102"/>
+      <c r="G128" s="103"/>
+      <c r="H128" s="104"/>
+      <c r="I128" s="104"/>
+      <c r="J128" s="106"/>
+      <c r="K128" s="106"/>
+      <c r="L128" s="106"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
       <c r="O128" s="18"/>
@@ -19393,19 +19437,19 @@
       <c r="C129" s="2"/>
       <c r="D129" s="46"/>
       <c r="E129" s="58"/>
-      <c r="F129" s="143" t="s">
+      <c r="F129" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="G129" s="144"/>
-      <c r="H129" s="117">
+      <c r="G129" s="101"/>
+      <c r="H129" s="104">
         <v>7</v>
       </c>
-      <c r="I129" s="117"/>
-      <c r="J129" s="101"/>
-      <c r="K129" s="101" t="s">
+      <c r="I129" s="104"/>
+      <c r="J129" s="105"/>
+      <c r="K129" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="L129" s="101"/>
+      <c r="L129" s="105"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
       <c r="O129" s="18"/>
@@ -19524,13 +19568,13 @@
       <c r="C130" s="2"/>
       <c r="D130" s="46"/>
       <c r="E130" s="58"/>
-      <c r="F130" s="145"/>
-      <c r="G130" s="146"/>
-      <c r="H130" s="117"/>
-      <c r="I130" s="117"/>
-      <c r="J130" s="102"/>
-      <c r="K130" s="102"/>
-      <c r="L130" s="102"/>
+      <c r="F130" s="102"/>
+      <c r="G130" s="103"/>
+      <c r="H130" s="104"/>
+      <c r="I130" s="104"/>
+      <c r="J130" s="106"/>
+      <c r="K130" s="106"/>
+      <c r="L130" s="106"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
       <c r="O130" s="18"/>
@@ -19649,21 +19693,21 @@
       <c r="C131" s="2"/>
       <c r="D131" s="46"/>
       <c r="E131" s="58"/>
-      <c r="F131" s="143" t="s">
+      <c r="F131" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="G131" s="144"/>
-      <c r="H131" s="117">
+      <c r="G131" s="101"/>
+      <c r="H131" s="104">
         <v>5</v>
       </c>
-      <c r="I131" s="117"/>
-      <c r="J131" s="101" t="s">
+      <c r="I131" s="104"/>
+      <c r="J131" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="K131" s="101" t="s">
+      <c r="K131" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="L131" s="101"/>
+      <c r="L131" s="105"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
       <c r="O131" s="18"/>
@@ -19782,13 +19826,13 @@
       <c r="C132" s="2"/>
       <c r="D132" s="46"/>
       <c r="E132" s="58"/>
-      <c r="F132" s="145"/>
-      <c r="G132" s="146"/>
-      <c r="H132" s="117"/>
-      <c r="I132" s="117"/>
-      <c r="J132" s="102"/>
-      <c r="K132" s="102"/>
-      <c r="L132" s="102"/>
+      <c r="F132" s="102"/>
+      <c r="G132" s="103"/>
+      <c r="H132" s="104"/>
+      <c r="I132" s="104"/>
+      <c r="J132" s="106"/>
+      <c r="K132" s="106"/>
+      <c r="L132" s="106"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
       <c r="O132" s="18"/>
@@ -19907,17 +19951,17 @@
       <c r="C133" s="2"/>
       <c r="D133" s="46"/>
       <c r="E133" s="58"/>
-      <c r="F133" s="143" t="s">
+      <c r="F133" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G133" s="144"/>
-      <c r="H133" s="117"/>
-      <c r="I133" s="117"/>
-      <c r="J133" s="101"/>
-      <c r="K133" s="101" t="s">
+      <c r="G133" s="101"/>
+      <c r="H133" s="104"/>
+      <c r="I133" s="104"/>
+      <c r="J133" s="105"/>
+      <c r="K133" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="L133" s="102"/>
+      <c r="L133" s="106"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
       <c r="O133" s="18"/>
@@ -20036,13 +20080,13 @@
       <c r="C134" s="2"/>
       <c r="D134" s="46"/>
       <c r="E134" s="63"/>
-      <c r="F134" s="145"/>
-      <c r="G134" s="146"/>
-      <c r="H134" s="117"/>
-      <c r="I134" s="117"/>
-      <c r="J134" s="102"/>
-      <c r="K134" s="102"/>
-      <c r="L134" s="102"/>
+      <c r="F134" s="102"/>
+      <c r="G134" s="103"/>
+      <c r="H134" s="104"/>
+      <c r="I134" s="104"/>
+      <c r="J134" s="106"/>
+      <c r="K134" s="106"/>
+      <c r="L134" s="106"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
       <c r="O134" s="18"/>
@@ -20159,17 +20203,17 @@
       <c r="A135" s="19"/>
       <c r="B135" s="51"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="124" t="s">
+      <c r="D135" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="E135" s="108"/>
-      <c r="F135" s="108"/>
-      <c r="G135" s="108"/>
-      <c r="H135" s="99"/>
-      <c r="I135" s="98"/>
-      <c r="J135" s="99"/>
-      <c r="K135" s="99"/>
-      <c r="L135" s="98"/>
+      <c r="E135" s="130"/>
+      <c r="F135" s="130"/>
+      <c r="G135" s="130"/>
+      <c r="H135" s="110"/>
+      <c r="I135" s="112"/>
+      <c r="J135" s="110"/>
+      <c r="K135" s="110"/>
+      <c r="L135" s="112"/>
       <c r="M135" s="42"/>
       <c r="N135" s="43"/>
       <c r="O135" s="43"/>
@@ -20286,15 +20330,15 @@
       <c r="A136" s="19"/>
       <c r="B136" s="51"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="109"/>
-      <c r="E136" s="110"/>
-      <c r="F136" s="110"/>
-      <c r="G136" s="110"/>
-      <c r="H136" s="100"/>
-      <c r="I136" s="98"/>
-      <c r="J136" s="100"/>
-      <c r="K136" s="100"/>
-      <c r="L136" s="98"/>
+      <c r="D136" s="131"/>
+      <c r="E136" s="132"/>
+      <c r="F136" s="132"/>
+      <c r="G136" s="132"/>
+      <c r="H136" s="111"/>
+      <c r="I136" s="112"/>
+      <c r="J136" s="111"/>
+      <c r="K136" s="111"/>
+      <c r="L136" s="112"/>
       <c r="M136" s="44"/>
       <c r="N136" s="31"/>
       <c r="O136" s="31"/>
@@ -20412,16 +20456,16 @@
       <c r="B137" s="24"/>
       <c r="C137" s="2"/>
       <c r="D137" s="55"/>
-      <c r="E137" s="130" t="s">
+      <c r="E137" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="F137" s="130"/>
-      <c r="G137" s="131"/>
-      <c r="H137" s="99"/>
-      <c r="I137" s="98"/>
-      <c r="J137" s="99"/>
-      <c r="K137" s="99"/>
-      <c r="L137" s="98"/>
+      <c r="F137" s="113"/>
+      <c r="G137" s="114"/>
+      <c r="H137" s="110"/>
+      <c r="I137" s="112"/>
+      <c r="J137" s="110"/>
+      <c r="K137" s="110"/>
+      <c r="L137" s="112"/>
       <c r="M137" s="42"/>
       <c r="N137" s="43"/>
       <c r="O137" s="43"/>
@@ -20539,14 +20583,14 @@
       <c r="B138" s="24"/>
       <c r="C138" s="2"/>
       <c r="D138" s="56"/>
-      <c r="E138" s="132"/>
-      <c r="F138" s="132"/>
-      <c r="G138" s="142"/>
-      <c r="H138" s="100"/>
-      <c r="I138" s="98"/>
-      <c r="J138" s="100"/>
-      <c r="K138" s="100"/>
-      <c r="L138" s="98"/>
+      <c r="E138" s="108"/>
+      <c r="F138" s="108"/>
+      <c r="G138" s="109"/>
+      <c r="H138" s="111"/>
+      <c r="I138" s="112"/>
+      <c r="J138" s="111"/>
+      <c r="K138" s="111"/>
+      <c r="L138" s="112"/>
       <c r="M138" s="44"/>
       <c r="N138" s="31"/>
       <c r="O138" s="31"/>
@@ -20665,19 +20709,19 @@
       <c r="C139" s="2"/>
       <c r="D139" s="46"/>
       <c r="E139" s="59"/>
-      <c r="F139" s="143" t="s">
+      <c r="F139" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="G139" s="144"/>
-      <c r="H139" s="117">
+      <c r="G139" s="101"/>
+      <c r="H139" s="104">
         <v>3</v>
       </c>
-      <c r="I139" s="117"/>
-      <c r="J139" s="101"/>
-      <c r="K139" s="101" t="s">
+      <c r="I139" s="104"/>
+      <c r="J139" s="105"/>
+      <c r="K139" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="L139" s="102"/>
+      <c r="L139" s="106"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
       <c r="O139" s="18"/>
@@ -20796,13 +20840,13 @@
       <c r="C140" s="2"/>
       <c r="D140" s="46"/>
       <c r="E140" s="60"/>
-      <c r="F140" s="145"/>
-      <c r="G140" s="146"/>
-      <c r="H140" s="117"/>
-      <c r="I140" s="117"/>
-      <c r="J140" s="102"/>
-      <c r="K140" s="102"/>
-      <c r="L140" s="102"/>
+      <c r="F140" s="102"/>
+      <c r="G140" s="103"/>
+      <c r="H140" s="104"/>
+      <c r="I140" s="104"/>
+      <c r="J140" s="106"/>
+      <c r="K140" s="106"/>
+      <c r="L140" s="106"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
       <c r="O140" s="18"/>
@@ -20921,21 +20965,21 @@
       <c r="C141" s="2"/>
       <c r="D141" s="46"/>
       <c r="E141" s="61"/>
-      <c r="F141" s="143" t="s">
+      <c r="F141" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="G141" s="144"/>
-      <c r="H141" s="117">
+      <c r="G141" s="101"/>
+      <c r="H141" s="104">
         <v>3</v>
       </c>
-      <c r="I141" s="117"/>
-      <c r="J141" s="101" t="s">
+      <c r="I141" s="104"/>
+      <c r="J141" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="K141" s="101" t="s">
+      <c r="K141" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="L141" s="102"/>
+      <c r="L141" s="106"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
       <c r="O141" s="18"/>
@@ -21054,13 +21098,13 @@
       <c r="C142" s="2"/>
       <c r="D142" s="46"/>
       <c r="E142" s="58"/>
-      <c r="F142" s="145"/>
-      <c r="G142" s="146"/>
-      <c r="H142" s="117"/>
-      <c r="I142" s="117"/>
-      <c r="J142" s="102"/>
-      <c r="K142" s="102"/>
-      <c r="L142" s="102"/>
+      <c r="F142" s="102"/>
+      <c r="G142" s="103"/>
+      <c r="H142" s="104"/>
+      <c r="I142" s="104"/>
+      <c r="J142" s="106"/>
+      <c r="K142" s="106"/>
+      <c r="L142" s="106"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
       <c r="O142" s="18"/>
@@ -21179,19 +21223,19 @@
       <c r="C143" s="2"/>
       <c r="D143" s="46"/>
       <c r="E143" s="58"/>
-      <c r="F143" s="143" t="s">
+      <c r="F143" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="G143" s="144"/>
-      <c r="H143" s="117">
+      <c r="G143" s="101"/>
+      <c r="H143" s="104">
         <v>2</v>
       </c>
-      <c r="I143" s="117"/>
-      <c r="J143" s="101"/>
-      <c r="K143" s="101" t="s">
+      <c r="I143" s="104"/>
+      <c r="J143" s="105"/>
+      <c r="K143" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="L143" s="102"/>
+      <c r="L143" s="106"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
       <c r="O143" s="18"/>
@@ -21310,13 +21354,13 @@
       <c r="C144" s="2"/>
       <c r="D144" s="46"/>
       <c r="E144" s="58"/>
-      <c r="F144" s="145"/>
-      <c r="G144" s="146"/>
-      <c r="H144" s="117"/>
-      <c r="I144" s="117"/>
-      <c r="J144" s="102"/>
-      <c r="K144" s="102"/>
-      <c r="L144" s="102"/>
+      <c r="F144" s="102"/>
+      <c r="G144" s="103"/>
+      <c r="H144" s="104"/>
+      <c r="I144" s="104"/>
+      <c r="J144" s="106"/>
+      <c r="K144" s="106"/>
+      <c r="L144" s="106"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
       <c r="O144" s="18"/>
@@ -21435,21 +21479,21 @@
       <c r="C145" s="2"/>
       <c r="D145" s="46"/>
       <c r="E145" s="58"/>
-      <c r="F145" s="143" t="s">
+      <c r="F145" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="G145" s="144"/>
-      <c r="H145" s="117">
+      <c r="G145" s="101"/>
+      <c r="H145" s="104">
         <v>2.5</v>
       </c>
-      <c r="I145" s="117"/>
-      <c r="J145" s="101" t="s">
+      <c r="I145" s="104"/>
+      <c r="J145" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="K145" s="101" t="s">
+      <c r="K145" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="L145" s="102"/>
+      <c r="L145" s="106"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
       <c r="O145" s="18"/>
@@ -21568,13 +21612,13 @@
       <c r="C146" s="2"/>
       <c r="D146" s="46"/>
       <c r="E146" s="58"/>
-      <c r="F146" s="145"/>
-      <c r="G146" s="146"/>
-      <c r="H146" s="117"/>
-      <c r="I146" s="117"/>
-      <c r="J146" s="102"/>
-      <c r="K146" s="102"/>
-      <c r="L146" s="102"/>
+      <c r="F146" s="102"/>
+      <c r="G146" s="103"/>
+      <c r="H146" s="104"/>
+      <c r="I146" s="104"/>
+      <c r="J146" s="106"/>
+      <c r="K146" s="106"/>
+      <c r="L146" s="106"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
       <c r="O146" s="18"/>
@@ -21693,17 +21737,17 @@
       <c r="C147" s="2"/>
       <c r="D147" s="46"/>
       <c r="E147" s="58"/>
-      <c r="F147" s="143" t="s">
+      <c r="F147" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G147" s="144"/>
-      <c r="H147" s="117"/>
-      <c r="I147" s="117"/>
-      <c r="J147" s="101"/>
-      <c r="K147" s="101" t="s">
+      <c r="G147" s="101"/>
+      <c r="H147" s="104"/>
+      <c r="I147" s="104"/>
+      <c r="J147" s="105"/>
+      <c r="K147" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="L147" s="102"/>
+      <c r="L147" s="106"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
       <c r="O147" s="18"/>
@@ -21822,13 +21866,13 @@
       <c r="C148" s="2"/>
       <c r="D148" s="46"/>
       <c r="E148" s="63"/>
-      <c r="F148" s="145"/>
-      <c r="G148" s="146"/>
-      <c r="H148" s="117"/>
-      <c r="I148" s="117"/>
-      <c r="J148" s="102"/>
-      <c r="K148" s="102"/>
-      <c r="L148" s="102"/>
+      <c r="F148" s="102"/>
+      <c r="G148" s="103"/>
+      <c r="H148" s="104"/>
+      <c r="I148" s="104"/>
+      <c r="J148" s="106"/>
+      <c r="K148" s="106"/>
+      <c r="L148" s="106"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
       <c r="O148" s="18"/>
@@ -21946,16 +21990,16 @@
       <c r="B149" s="24"/>
       <c r="C149" s="2"/>
       <c r="D149" s="46"/>
-      <c r="E149" s="141" t="s">
+      <c r="E149" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="F149" s="132"/>
-      <c r="G149" s="142"/>
-      <c r="H149" s="99"/>
-      <c r="I149" s="98"/>
-      <c r="J149" s="98"/>
-      <c r="K149" s="98"/>
-      <c r="L149" s="98"/>
+      <c r="F149" s="108"/>
+      <c r="G149" s="109"/>
+      <c r="H149" s="110"/>
+      <c r="I149" s="112"/>
+      <c r="J149" s="112"/>
+      <c r="K149" s="112"/>
+      <c r="L149" s="112"/>
       <c r="M149" s="43"/>
       <c r="N149" s="43"/>
       <c r="O149" s="43"/>
@@ -22073,14 +22117,14 @@
       <c r="B150" s="24"/>
       <c r="C150" s="2"/>
       <c r="D150" s="46"/>
-      <c r="E150" s="141"/>
-      <c r="F150" s="132"/>
-      <c r="G150" s="142"/>
-      <c r="H150" s="100"/>
-      <c r="I150" s="98"/>
-      <c r="J150" s="98"/>
-      <c r="K150" s="98"/>
-      <c r="L150" s="98"/>
+      <c r="E150" s="107"/>
+      <c r="F150" s="108"/>
+      <c r="G150" s="109"/>
+      <c r="H150" s="111"/>
+      <c r="I150" s="112"/>
+      <c r="J150" s="112"/>
+      <c r="K150" s="112"/>
+      <c r="L150" s="112"/>
       <c r="M150" s="31"/>
       <c r="N150" s="31"/>
       <c r="O150" s="31"/>
@@ -22199,19 +22243,19 @@
       <c r="C151" s="2"/>
       <c r="D151" s="46"/>
       <c r="E151" s="59"/>
-      <c r="F151" s="143" t="s">
+      <c r="F151" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="G151" s="144"/>
-      <c r="H151" s="117">
+      <c r="G151" s="101"/>
+      <c r="H151" s="104">
         <v>4</v>
       </c>
-      <c r="I151" s="117"/>
-      <c r="J151" s="101"/>
-      <c r="K151" s="101" t="s">
+      <c r="I151" s="104"/>
+      <c r="J151" s="105"/>
+      <c r="K151" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="L151" s="102"/>
+      <c r="L151" s="106"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
       <c r="O151" s="18"/>
@@ -22330,13 +22374,13 @@
       <c r="C152" s="2"/>
       <c r="D152" s="46"/>
       <c r="E152" s="60"/>
-      <c r="F152" s="145"/>
-      <c r="G152" s="146"/>
-      <c r="H152" s="117"/>
-      <c r="I152" s="117"/>
-      <c r="J152" s="102"/>
-      <c r="K152" s="102"/>
-      <c r="L152" s="102"/>
+      <c r="F152" s="102"/>
+      <c r="G152" s="103"/>
+      <c r="H152" s="104"/>
+      <c r="I152" s="104"/>
+      <c r="J152" s="106"/>
+      <c r="K152" s="106"/>
+      <c r="L152" s="106"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
       <c r="O152" s="18"/>
@@ -22455,21 +22499,21 @@
       <c r="C153" s="2"/>
       <c r="D153" s="46"/>
       <c r="E153" s="61"/>
-      <c r="F153" s="143" t="s">
+      <c r="F153" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="G153" s="144"/>
-      <c r="H153" s="117">
+      <c r="G153" s="101"/>
+      <c r="H153" s="104">
         <v>4</v>
       </c>
-      <c r="I153" s="117"/>
-      <c r="J153" s="101" t="s">
+      <c r="I153" s="104"/>
+      <c r="J153" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="K153" s="101" t="s">
+      <c r="K153" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="L153" s="102"/>
+      <c r="L153" s="106"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
       <c r="O153" s="18"/>
@@ -22588,13 +22632,13 @@
       <c r="C154" s="2"/>
       <c r="D154" s="46"/>
       <c r="E154" s="58"/>
-      <c r="F154" s="145"/>
-      <c r="G154" s="146"/>
-      <c r="H154" s="117"/>
-      <c r="I154" s="117"/>
-      <c r="J154" s="102"/>
-      <c r="K154" s="102"/>
-      <c r="L154" s="102"/>
+      <c r="F154" s="102"/>
+      <c r="G154" s="103"/>
+      <c r="H154" s="104"/>
+      <c r="I154" s="104"/>
+      <c r="J154" s="106"/>
+      <c r="K154" s="106"/>
+      <c r="L154" s="106"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
       <c r="O154" s="18"/>
@@ -22713,19 +22757,19 @@
       <c r="C155" s="2"/>
       <c r="D155" s="46"/>
       <c r="E155" s="58"/>
-      <c r="F155" s="143" t="s">
+      <c r="F155" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="G155" s="144"/>
-      <c r="H155" s="117">
+      <c r="G155" s="101"/>
+      <c r="H155" s="104">
         <v>3</v>
       </c>
-      <c r="I155" s="117"/>
-      <c r="J155" s="101"/>
-      <c r="K155" s="101" t="s">
+      <c r="I155" s="104"/>
+      <c r="J155" s="105"/>
+      <c r="K155" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="L155" s="102"/>
+      <c r="L155" s="106"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
       <c r="O155" s="18"/>
@@ -22844,13 +22888,13 @@
       <c r="C156" s="2"/>
       <c r="D156" s="46"/>
       <c r="E156" s="58"/>
-      <c r="F156" s="145"/>
-      <c r="G156" s="146"/>
-      <c r="H156" s="117"/>
-      <c r="I156" s="117"/>
-      <c r="J156" s="102"/>
-      <c r="K156" s="102"/>
-      <c r="L156" s="102"/>
+      <c r="F156" s="102"/>
+      <c r="G156" s="103"/>
+      <c r="H156" s="104"/>
+      <c r="I156" s="104"/>
+      <c r="J156" s="106"/>
+      <c r="K156" s="106"/>
+      <c r="L156" s="106"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
       <c r="O156" s="18"/>
@@ -22969,21 +23013,21 @@
       <c r="C157" s="2"/>
       <c r="D157" s="46"/>
       <c r="E157" s="58"/>
-      <c r="F157" s="143" t="s">
+      <c r="F157" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="G157" s="144"/>
-      <c r="H157" s="117">
+      <c r="G157" s="101"/>
+      <c r="H157" s="104">
         <v>4</v>
       </c>
-      <c r="I157" s="117"/>
-      <c r="J157" s="101" t="s">
+      <c r="I157" s="104"/>
+      <c r="J157" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="K157" s="101" t="s">
+      <c r="K157" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="L157" s="102"/>
+      <c r="L157" s="106"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
       <c r="O157" s="18"/>
@@ -23102,13 +23146,13 @@
       <c r="C158" s="2"/>
       <c r="D158" s="46"/>
       <c r="E158" s="58"/>
-      <c r="F158" s="145"/>
-      <c r="G158" s="146"/>
-      <c r="H158" s="117"/>
-      <c r="I158" s="117"/>
-      <c r="J158" s="102"/>
-      <c r="K158" s="102"/>
-      <c r="L158" s="102"/>
+      <c r="F158" s="102"/>
+      <c r="G158" s="103"/>
+      <c r="H158" s="104"/>
+      <c r="I158" s="104"/>
+      <c r="J158" s="106"/>
+      <c r="K158" s="106"/>
+      <c r="L158" s="106"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
       <c r="O158" s="18"/>
@@ -23227,17 +23271,17 @@
       <c r="C159" s="2"/>
       <c r="D159" s="46"/>
       <c r="E159" s="58"/>
-      <c r="F159" s="143" t="s">
+      <c r="F159" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="G159" s="144"/>
-      <c r="H159" s="117"/>
-      <c r="I159" s="117"/>
-      <c r="J159" s="101"/>
-      <c r="K159" s="101" t="s">
+      <c r="G159" s="101"/>
+      <c r="H159" s="104"/>
+      <c r="I159" s="104"/>
+      <c r="J159" s="105"/>
+      <c r="K159" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="L159" s="102"/>
+      <c r="L159" s="106"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
       <c r="O159" s="18"/>
@@ -23356,13 +23400,13 @@
       <c r="C160" s="2"/>
       <c r="D160" s="46"/>
       <c r="E160" s="63"/>
-      <c r="F160" s="145"/>
-      <c r="G160" s="146"/>
-      <c r="H160" s="117"/>
-      <c r="I160" s="117"/>
-      <c r="J160" s="102"/>
-      <c r="K160" s="102"/>
-      <c r="L160" s="102"/>
+      <c r="F160" s="102"/>
+      <c r="G160" s="103"/>
+      <c r="H160" s="104"/>
+      <c r="I160" s="104"/>
+      <c r="J160" s="106"/>
+      <c r="K160" s="106"/>
+      <c r="L160" s="106"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
       <c r="O160" s="18"/>
@@ -23478,18 +23522,18 @@
     <row r="161" spans="1:123" ht="9.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="24"/>
-      <c r="C161" s="139" t="s">
+      <c r="C161" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D161" s="108"/>
-      <c r="E161" s="113"/>
-      <c r="F161" s="113"/>
-      <c r="G161" s="113"/>
-      <c r="H161" s="99"/>
-      <c r="I161" s="98"/>
-      <c r="J161" s="98"/>
-      <c r="K161" s="98"/>
-      <c r="L161" s="98"/>
+      <c r="D161" s="130"/>
+      <c r="E161" s="137"/>
+      <c r="F161" s="137"/>
+      <c r="G161" s="137"/>
+      <c r="H161" s="110"/>
+      <c r="I161" s="112"/>
+      <c r="J161" s="112"/>
+      <c r="K161" s="112"/>
+      <c r="L161" s="112"/>
       <c r="M161" s="43"/>
       <c r="N161" s="43"/>
       <c r="O161" s="43"/>
@@ -23605,16 +23649,16 @@
     <row r="162" spans="1:123" ht="9.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="24"/>
-      <c r="C162" s="110"/>
-      <c r="D162" s="110"/>
-      <c r="E162" s="110"/>
-      <c r="F162" s="110"/>
-      <c r="G162" s="110"/>
-      <c r="H162" s="100"/>
-      <c r="I162" s="98"/>
-      <c r="J162" s="98"/>
-      <c r="K162" s="98"/>
-      <c r="L162" s="98"/>
+      <c r="C162" s="132"/>
+      <c r="D162" s="132"/>
+      <c r="E162" s="132"/>
+      <c r="F162" s="132"/>
+      <c r="G162" s="132"/>
+      <c r="H162" s="111"/>
+      <c r="I162" s="112"/>
+      <c r="J162" s="112"/>
+      <c r="K162" s="112"/>
+      <c r="L162" s="112"/>
       <c r="M162" s="31"/>
       <c r="N162" s="31"/>
       <c r="O162" s="31"/>
@@ -23729,19 +23773,19 @@
     </row>
     <row r="163" spans="1:123" ht="9.75" customHeight="1">
       <c r="A163" s="2"/>
-      <c r="B163" s="140" t="s">
+      <c r="B163" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="C163" s="108"/>
-      <c r="D163" s="108"/>
-      <c r="E163" s="108"/>
-      <c r="F163" s="108"/>
-      <c r="G163" s="119"/>
-      <c r="H163" s="99"/>
-      <c r="I163" s="98"/>
-      <c r="J163" s="98"/>
-      <c r="K163" s="98"/>
-      <c r="L163" s="98"/>
+      <c r="C163" s="130"/>
+      <c r="D163" s="130"/>
+      <c r="E163" s="130"/>
+      <c r="F163" s="130"/>
+      <c r="G163" s="139"/>
+      <c r="H163" s="110"/>
+      <c r="I163" s="112"/>
+      <c r="J163" s="112"/>
+      <c r="K163" s="112"/>
+      <c r="L163" s="112"/>
       <c r="M163" s="43"/>
       <c r="N163" s="43"/>
       <c r="O163" s="43"/>
@@ -23856,17 +23900,17 @@
     </row>
     <row r="164" spans="1:123" ht="9.75" customHeight="1">
       <c r="A164" s="2"/>
-      <c r="B164" s="109"/>
-      <c r="C164" s="110"/>
-      <c r="D164" s="110"/>
-      <c r="E164" s="110"/>
-      <c r="F164" s="110"/>
-      <c r="G164" s="120"/>
-      <c r="H164" s="100"/>
-      <c r="I164" s="98"/>
-      <c r="J164" s="98"/>
-      <c r="K164" s="98"/>
-      <c r="L164" s="98"/>
+      <c r="B164" s="131"/>
+      <c r="C164" s="132"/>
+      <c r="D164" s="132"/>
+      <c r="E164" s="132"/>
+      <c r="F164" s="132"/>
+      <c r="G164" s="140"/>
+      <c r="H164" s="111"/>
+      <c r="I164" s="112"/>
+      <c r="J164" s="112"/>
+      <c r="K164" s="112"/>
+      <c r="L164" s="112"/>
       <c r="M164" s="31"/>
       <c r="N164" s="31"/>
       <c r="O164" s="31"/>
@@ -23982,18 +24026,18 @@
     <row r="165" spans="1:123" ht="9.75" customHeight="1">
       <c r="A165" s="19"/>
       <c r="B165" s="24"/>
-      <c r="C165" s="127" t="s">
+      <c r="C165" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="D165" s="108"/>
-      <c r="E165" s="108"/>
-      <c r="F165" s="108"/>
-      <c r="G165" s="108"/>
-      <c r="H165" s="99"/>
-      <c r="I165" s="98"/>
-      <c r="J165" s="98"/>
-      <c r="K165" s="98"/>
-      <c r="L165" s="98"/>
+      <c r="D165" s="130"/>
+      <c r="E165" s="130"/>
+      <c r="F165" s="130"/>
+      <c r="G165" s="130"/>
+      <c r="H165" s="110"/>
+      <c r="I165" s="112"/>
+      <c r="J165" s="112"/>
+      <c r="K165" s="112"/>
+      <c r="L165" s="112"/>
       <c r="M165" s="43"/>
       <c r="N165" s="43"/>
       <c r="O165" s="43"/>
@@ -24109,16 +24153,16 @@
     <row r="166" spans="1:123" ht="9.75" customHeight="1">
       <c r="A166" s="19"/>
       <c r="B166" s="54"/>
-      <c r="C166" s="110"/>
-      <c r="D166" s="110"/>
-      <c r="E166" s="110"/>
-      <c r="F166" s="110"/>
-      <c r="G166" s="110"/>
-      <c r="H166" s="100"/>
-      <c r="I166" s="98"/>
-      <c r="J166" s="98"/>
-      <c r="K166" s="98"/>
-      <c r="L166" s="98"/>
+      <c r="C166" s="132"/>
+      <c r="D166" s="132"/>
+      <c r="E166" s="132"/>
+      <c r="F166" s="132"/>
+      <c r="G166" s="132"/>
+      <c r="H166" s="111"/>
+      <c r="I166" s="112"/>
+      <c r="J166" s="112"/>
+      <c r="K166" s="112"/>
+      <c r="L166" s="112"/>
       <c r="M166" s="31"/>
       <c r="N166" s="31"/>
       <c r="O166" s="31"/>
@@ -37541,62 +37585,412 @@
     </row>
   </sheetData>
   <mergeCells count="486">
-    <mergeCell ref="F133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="F131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="F127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="F129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="F123:G124"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="F117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="F119:G120"/>
-    <mergeCell ref="E121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="E113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="M3:CM3"/>
+    <mergeCell ref="CN3:DR3"/>
+    <mergeCell ref="M4:AD4"/>
+    <mergeCell ref="AE4:BH4"/>
+    <mergeCell ref="BI4:CM4"/>
+    <mergeCell ref="CN4:DR4"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="C77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="E83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="C165:G166"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="C161:G162"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="L161:L162"/>
+    <mergeCell ref="B163:G164"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="I159:I160"/>
     <mergeCell ref="E149:G150"/>
     <mergeCell ref="F159:G160"/>
     <mergeCell ref="F157:G158"/>
@@ -37621,412 +38015,62 @@
     <mergeCell ref="F115:G116"/>
     <mergeCell ref="D135:G136"/>
     <mergeCell ref="E137:G138"/>
-    <mergeCell ref="C165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="C161:G162"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="L161:L162"/>
-    <mergeCell ref="B163:G164"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="E83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="E81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="C77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="M3:CM3"/>
-    <mergeCell ref="CN3:DR3"/>
-    <mergeCell ref="M4:AD4"/>
-    <mergeCell ref="AE4:BH4"/>
-    <mergeCell ref="BI4:CM4"/>
-    <mergeCell ref="CN4:DR4"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="E113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="F117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="F119:G120"/>
+    <mergeCell ref="E121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="F123:G124"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="F127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="F129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="F133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="F131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J131:J132"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="M7">
@@ -38272,7 +38316,9 @@
       <c r="A2" s="91">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="158" t="s">
+        <v>123</v>
+      </c>
       <c r="C2" s="66" t="s">
         <v>69</v>
       </c>

--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\digital-ojt-development-cause-DroneInventorySystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CAEBA1-D84D-497B-B3BE-A83AB137B771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E6E640-F2F0-4D39-A0BE-8D447573F747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1853,6 +1853,120 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1865,52 +1979,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,81 +2000,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2546,7 +2546,7 @@
   <dimension ref="A1:DS276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="8" topLeftCell="M85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="8" topLeftCell="M81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight"/>
@@ -2820,120 +2820,120 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="79"/>
-      <c r="M3" s="155">
+      <c r="M3" s="106">
         <v>2024</v>
       </c>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="156"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="156"/>
-      <c r="AM3" s="156"/>
-      <c r="AN3" s="156"/>
-      <c r="AO3" s="156"/>
-      <c r="AP3" s="156"/>
-      <c r="AQ3" s="156"/>
-      <c r="AR3" s="156"/>
-      <c r="AS3" s="156"/>
-      <c r="AT3" s="156"/>
-      <c r="AU3" s="156"/>
-      <c r="AV3" s="156"/>
-      <c r="AW3" s="156"/>
-      <c r="AX3" s="156"/>
-      <c r="AY3" s="156"/>
-      <c r="AZ3" s="156"/>
-      <c r="BA3" s="156"/>
-      <c r="BB3" s="156"/>
-      <c r="BC3" s="156"/>
-      <c r="BD3" s="156"/>
-      <c r="BE3" s="156"/>
-      <c r="BF3" s="156"/>
-      <c r="BG3" s="156"/>
-      <c r="BH3" s="156"/>
-      <c r="BI3" s="156"/>
-      <c r="BJ3" s="156"/>
-      <c r="BK3" s="156"/>
-      <c r="BL3" s="156"/>
-      <c r="BM3" s="156"/>
-      <c r="BN3" s="156"/>
-      <c r="BO3" s="156"/>
-      <c r="BP3" s="156"/>
-      <c r="BQ3" s="156"/>
-      <c r="BR3" s="156"/>
-      <c r="BS3" s="156"/>
-      <c r="BT3" s="156"/>
-      <c r="BU3" s="156"/>
-      <c r="BV3" s="156"/>
-      <c r="BW3" s="156"/>
-      <c r="BX3" s="156"/>
-      <c r="BY3" s="156"/>
-      <c r="BZ3" s="156"/>
-      <c r="CA3" s="156"/>
-      <c r="CB3" s="156"/>
-      <c r="CC3" s="156"/>
-      <c r="CD3" s="156"/>
-      <c r="CE3" s="156"/>
-      <c r="CF3" s="156"/>
-      <c r="CG3" s="156"/>
-      <c r="CH3" s="156"/>
-      <c r="CI3" s="156"/>
-      <c r="CJ3" s="156"/>
-      <c r="CK3" s="156"/>
-      <c r="CL3" s="156"/>
-      <c r="CM3" s="157"/>
-      <c r="CN3" s="155">
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="107"/>
+      <c r="BF3" s="107"/>
+      <c r="BG3" s="107"/>
+      <c r="BH3" s="107"/>
+      <c r="BI3" s="107"/>
+      <c r="BJ3" s="107"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="107"/>
+      <c r="BM3" s="107"/>
+      <c r="BN3" s="107"/>
+      <c r="BO3" s="107"/>
+      <c r="BP3" s="107"/>
+      <c r="BQ3" s="107"/>
+      <c r="BR3" s="107"/>
+      <c r="BS3" s="107"/>
+      <c r="BT3" s="107"/>
+      <c r="BU3" s="107"/>
+      <c r="BV3" s="107"/>
+      <c r="BW3" s="107"/>
+      <c r="BX3" s="107"/>
+      <c r="BY3" s="107"/>
+      <c r="BZ3" s="107"/>
+      <c r="CA3" s="107"/>
+      <c r="CB3" s="107"/>
+      <c r="CC3" s="107"/>
+      <c r="CD3" s="107"/>
+      <c r="CE3" s="107"/>
+      <c r="CF3" s="107"/>
+      <c r="CG3" s="107"/>
+      <c r="CH3" s="107"/>
+      <c r="CI3" s="107"/>
+      <c r="CJ3" s="107"/>
+      <c r="CK3" s="107"/>
+      <c r="CL3" s="107"/>
+      <c r="CM3" s="108"/>
+      <c r="CN3" s="106">
         <v>2025</v>
       </c>
-      <c r="CO3" s="156"/>
-      <c r="CP3" s="156"/>
-      <c r="CQ3" s="156"/>
-      <c r="CR3" s="156"/>
-      <c r="CS3" s="156"/>
-      <c r="CT3" s="156"/>
-      <c r="CU3" s="156"/>
-      <c r="CV3" s="156"/>
-      <c r="CW3" s="156"/>
-      <c r="CX3" s="156"/>
-      <c r="CY3" s="156"/>
-      <c r="CZ3" s="156"/>
-      <c r="DA3" s="156"/>
-      <c r="DB3" s="156"/>
-      <c r="DC3" s="156"/>
-      <c r="DD3" s="156"/>
-      <c r="DE3" s="156"/>
-      <c r="DF3" s="156"/>
-      <c r="DG3" s="156"/>
-      <c r="DH3" s="156"/>
-      <c r="DI3" s="156"/>
-      <c r="DJ3" s="156"/>
-      <c r="DK3" s="156"/>
-      <c r="DL3" s="156"/>
-      <c r="DM3" s="156"/>
-      <c r="DN3" s="156"/>
-      <c r="DO3" s="156"/>
-      <c r="DP3" s="156"/>
-      <c r="DQ3" s="156"/>
-      <c r="DR3" s="157"/>
+      <c r="CO3" s="107"/>
+      <c r="CP3" s="107"/>
+      <c r="CQ3" s="107"/>
+      <c r="CR3" s="107"/>
+      <c r="CS3" s="107"/>
+      <c r="CT3" s="107"/>
+      <c r="CU3" s="107"/>
+      <c r="CV3" s="107"/>
+      <c r="CW3" s="107"/>
+      <c r="CX3" s="107"/>
+      <c r="CY3" s="107"/>
+      <c r="CZ3" s="107"/>
+      <c r="DA3" s="107"/>
+      <c r="DB3" s="107"/>
+      <c r="DC3" s="107"/>
+      <c r="DD3" s="107"/>
+      <c r="DE3" s="107"/>
+      <c r="DF3" s="107"/>
+      <c r="DG3" s="107"/>
+      <c r="DH3" s="107"/>
+      <c r="DI3" s="107"/>
+      <c r="DJ3" s="107"/>
+      <c r="DK3" s="107"/>
+      <c r="DL3" s="107"/>
+      <c r="DM3" s="107"/>
+      <c r="DN3" s="107"/>
+      <c r="DO3" s="107"/>
+      <c r="DP3" s="107"/>
+      <c r="DQ3" s="107"/>
+      <c r="DR3" s="108"/>
       <c r="DS3" s="2"/>
     </row>
     <row r="4" spans="1:123" ht="18" customHeight="1">
@@ -2948,124 +2948,124 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="M4" s="155">
+      <c r="M4" s="106">
         <v>10</v>
       </c>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="156"/>
-      <c r="U4" s="156"/>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="156"/>
-      <c r="AC4" s="156"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="155">
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="106">
         <v>11</v>
       </c>
-      <c r="AF4" s="156"/>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
-      <c r="AR4" s="156"/>
-      <c r="AS4" s="156"/>
-      <c r="AT4" s="156"/>
-      <c r="AU4" s="156"/>
-      <c r="AV4" s="156"/>
-      <c r="AW4" s="156"/>
-      <c r="AX4" s="156"/>
-      <c r="AY4" s="156"/>
-      <c r="AZ4" s="156"/>
-      <c r="BA4" s="156"/>
-      <c r="BB4" s="156"/>
-      <c r="BC4" s="156"/>
-      <c r="BD4" s="156"/>
-      <c r="BE4" s="156"/>
-      <c r="BF4" s="156"/>
-      <c r="BG4" s="156"/>
-      <c r="BH4" s="157"/>
-      <c r="BI4" s="155">
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="106">
         <v>12</v>
       </c>
-      <c r="BJ4" s="156"/>
-      <c r="BK4" s="156"/>
-      <c r="BL4" s="156"/>
-      <c r="BM4" s="156"/>
-      <c r="BN4" s="156"/>
-      <c r="BO4" s="156"/>
-      <c r="BP4" s="156"/>
-      <c r="BQ4" s="156"/>
-      <c r="BR4" s="156"/>
-      <c r="BS4" s="156"/>
-      <c r="BT4" s="156"/>
-      <c r="BU4" s="156"/>
-      <c r="BV4" s="156"/>
-      <c r="BW4" s="156"/>
-      <c r="BX4" s="156"/>
-      <c r="BY4" s="156"/>
-      <c r="BZ4" s="156"/>
-      <c r="CA4" s="156"/>
-      <c r="CB4" s="156"/>
-      <c r="CC4" s="156"/>
-      <c r="CD4" s="156"/>
-      <c r="CE4" s="156"/>
-      <c r="CF4" s="156"/>
-      <c r="CG4" s="156"/>
-      <c r="CH4" s="156"/>
-      <c r="CI4" s="156"/>
-      <c r="CJ4" s="156"/>
-      <c r="CK4" s="156"/>
-      <c r="CL4" s="156"/>
-      <c r="CM4" s="157"/>
-      <c r="CN4" s="155">
+      <c r="BJ4" s="107"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="107"/>
+      <c r="BM4" s="107"/>
+      <c r="BN4" s="107"/>
+      <c r="BO4" s="107"/>
+      <c r="BP4" s="107"/>
+      <c r="BQ4" s="107"/>
+      <c r="BR4" s="107"/>
+      <c r="BS4" s="107"/>
+      <c r="BT4" s="107"/>
+      <c r="BU4" s="107"/>
+      <c r="BV4" s="107"/>
+      <c r="BW4" s="107"/>
+      <c r="BX4" s="107"/>
+      <c r="BY4" s="107"/>
+      <c r="BZ4" s="107"/>
+      <c r="CA4" s="107"/>
+      <c r="CB4" s="107"/>
+      <c r="CC4" s="107"/>
+      <c r="CD4" s="107"/>
+      <c r="CE4" s="107"/>
+      <c r="CF4" s="107"/>
+      <c r="CG4" s="107"/>
+      <c r="CH4" s="107"/>
+      <c r="CI4" s="107"/>
+      <c r="CJ4" s="107"/>
+      <c r="CK4" s="107"/>
+      <c r="CL4" s="107"/>
+      <c r="CM4" s="108"/>
+      <c r="CN4" s="106">
         <v>1</v>
       </c>
-      <c r="CO4" s="156"/>
-      <c r="CP4" s="156"/>
-      <c r="CQ4" s="156"/>
-      <c r="CR4" s="156"/>
-      <c r="CS4" s="156"/>
-      <c r="CT4" s="156"/>
-      <c r="CU4" s="156"/>
-      <c r="CV4" s="156"/>
-      <c r="CW4" s="156"/>
-      <c r="CX4" s="156"/>
-      <c r="CY4" s="156"/>
-      <c r="CZ4" s="156"/>
-      <c r="DA4" s="156"/>
-      <c r="DB4" s="156"/>
-      <c r="DC4" s="156"/>
-      <c r="DD4" s="156"/>
-      <c r="DE4" s="156"/>
-      <c r="DF4" s="156"/>
-      <c r="DG4" s="156"/>
-      <c r="DH4" s="156"/>
-      <c r="DI4" s="156"/>
-      <c r="DJ4" s="156"/>
-      <c r="DK4" s="156"/>
-      <c r="DL4" s="156"/>
-      <c r="DM4" s="156"/>
-      <c r="DN4" s="156"/>
-      <c r="DO4" s="156"/>
-      <c r="DP4" s="156"/>
-      <c r="DQ4" s="156"/>
-      <c r="DR4" s="157"/>
+      <c r="CO4" s="107"/>
+      <c r="CP4" s="107"/>
+      <c r="CQ4" s="107"/>
+      <c r="CR4" s="107"/>
+      <c r="CS4" s="107"/>
+      <c r="CT4" s="107"/>
+      <c r="CU4" s="107"/>
+      <c r="CV4" s="107"/>
+      <c r="CW4" s="107"/>
+      <c r="CX4" s="107"/>
+      <c r="CY4" s="107"/>
+      <c r="CZ4" s="107"/>
+      <c r="DA4" s="107"/>
+      <c r="DB4" s="107"/>
+      <c r="DC4" s="107"/>
+      <c r="DD4" s="107"/>
+      <c r="DE4" s="107"/>
+      <c r="DF4" s="107"/>
+      <c r="DG4" s="107"/>
+      <c r="DH4" s="107"/>
+      <c r="DI4" s="107"/>
+      <c r="DJ4" s="107"/>
+      <c r="DK4" s="107"/>
+      <c r="DL4" s="107"/>
+      <c r="DM4" s="107"/>
+      <c r="DN4" s="107"/>
+      <c r="DO4" s="107"/>
+      <c r="DP4" s="107"/>
+      <c r="DQ4" s="107"/>
+      <c r="DR4" s="108"/>
       <c r="DS4" s="8"/>
     </row>
     <row r="5" spans="1:123" ht="18" customHeight="1">
@@ -3860,27 +3860,27 @@
     </row>
     <row r="7" spans="1:123" ht="9.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="152" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="153" t="s">
+      <c r="J7" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="153" t="s">
+      <c r="K7" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="153" t="s">
+      <c r="L7" s="109" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="15"/>
@@ -3997,17 +3997,17 @@
     </row>
     <row r="8" spans="1:123" ht="9.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="17"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -4123,18 +4123,18 @@
     <row r="9" spans="1:123" ht="9.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
@@ -4250,16 +4250,16 @@
     <row r="10" spans="1:123" ht="9.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -4375,18 +4375,18 @@
     <row r="11" spans="1:123" ht="9.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
@@ -4502,16 +4502,16 @@
     <row r="12" spans="1:123" ht="9.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
@@ -4628,21 +4628,21 @@
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="104">
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="120">
         <v>0.5</v>
       </c>
-      <c r="I13" s="143"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105" t="s">
+      <c r="I13" s="121"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="106">
+      <c r="L13" s="105">
         <v>100</v>
       </c>
       <c r="M13" s="17"/>
@@ -4761,15 +4761,15 @@
       <c r="A14" s="2"/>
       <c r="B14" s="24"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="17"/>
       <c r="O14" s="82"/>
       <c r="P14" s="18"/>
@@ -4885,21 +4885,21 @@
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="104">
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="120">
         <v>0.5</v>
       </c>
-      <c r="I15" s="143"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105" t="s">
+      <c r="I15" s="121"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="106">
+      <c r="L15" s="105">
         <v>100</v>
       </c>
       <c r="M15" s="32"/>
@@ -5018,15 +5018,15 @@
       <c r="A16" s="2"/>
       <c r="B16" s="24"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="32"/>
       <c r="O16" s="82"/>
       <c r="P16" s="18"/>
@@ -5142,21 +5142,21 @@
       <c r="A17" s="2"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="150" t="s">
+      <c r="D17" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="104">
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="120">
         <v>0.5</v>
       </c>
-      <c r="I17" s="143"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105" t="s">
+      <c r="I17" s="121"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="106">
+      <c r="L17" s="105">
         <v>100</v>
       </c>
       <c r="M17" s="32"/>
@@ -5275,15 +5275,15 @@
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
       <c r="M18" s="32"/>
       <c r="O18" s="82"/>
       <c r="P18" s="18"/>
@@ -5399,21 +5399,21 @@
       <c r="A19" s="2"/>
       <c r="B19" s="24"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="104">
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="120">
         <v>0.5</v>
       </c>
-      <c r="I19" s="143"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105" t="s">
+      <c r="I19" s="121"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="106">
+      <c r="L19" s="105">
         <v>100</v>
       </c>
       <c r="M19" s="32"/>
@@ -5532,15 +5532,15 @@
       <c r="A20" s="2"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
       <c r="M20" s="34"/>
       <c r="O20" s="87"/>
       <c r="P20" s="35"/>
@@ -5655,18 +5655,18 @@
     <row r="21" spans="1:123" ht="9.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="21"/>
       <c r="N21" s="36"/>
       <c r="O21" s="22"/>
@@ -5782,16 +5782,16 @@
     <row r="22" spans="1:123" ht="9.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
@@ -5908,21 +5908,21 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="147" t="s">
+      <c r="D23" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="104">
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="120">
         <v>2</v>
       </c>
-      <c r="I23" s="143"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105" t="s">
+      <c r="I23" s="121"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="106">
+      <c r="L23" s="105">
         <v>100</v>
       </c>
       <c r="M23" s="32"/>
@@ -6041,15 +6041,15 @@
       <c r="A24" s="2"/>
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
       <c r="M24" s="32"/>
       <c r="N24" s="18"/>
       <c r="P24" s="82"/>
@@ -6164,18 +6164,18 @@
     <row r="25" spans="1:123" ht="9.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="146" t="s">
+      <c r="C25" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
@@ -6291,16 +6291,16 @@
     <row r="26" spans="1:123" ht="9.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="25"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
@@ -6417,21 +6417,21 @@
       <c r="A27" s="2"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="147" t="s">
+      <c r="D27" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="104">
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="120">
         <v>1</v>
       </c>
-      <c r="I27" s="143"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105" t="s">
+      <c r="I27" s="121"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="106">
+      <c r="L27" s="105">
         <v>100</v>
       </c>
       <c r="M27" s="32"/>
@@ -6550,15 +6550,15 @@
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
       <c r="M28" s="32"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
@@ -6675,21 +6675,21 @@
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="148" t="s">
+      <c r="D29" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="104">
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="120">
         <v>1</v>
       </c>
-      <c r="I29" s="143"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105" t="s">
+      <c r="I29" s="121"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="106">
+      <c r="L29" s="105">
         <v>100</v>
       </c>
       <c r="M29" s="32"/>
@@ -6808,15 +6808,15 @@
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
       <c r="M30" s="34"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
@@ -6931,18 +6931,18 @@
     <row r="31" spans="1:123" ht="9.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
       <c r="M31" s="21"/>
       <c r="N31" s="36"/>
       <c r="O31" s="22"/>
@@ -7058,16 +7058,16 @@
     <row r="32" spans="1:123" ht="9.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
       <c r="M32" s="25"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
@@ -7184,17 +7184,17 @@
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="129" t="s">
+      <c r="D33" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
       <c r="M33" s="42"/>
       <c r="N33" s="43"/>
       <c r="O33" s="43"/>
@@ -7311,15 +7311,15 @@
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
       <c r="M34" s="44"/>
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
@@ -7437,20 +7437,20 @@
       <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="126" t="s">
+      <c r="E35" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="130"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="104">
+      <c r="F35" s="111"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="120">
         <v>1</v>
       </c>
-      <c r="I35" s="143"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105" t="s">
+      <c r="I35" s="121"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="106">
+      <c r="L35" s="105">
         <v>100</v>
       </c>
       <c r="M35" s="32"/>
@@ -7570,14 +7570,14 @@
       <c r="B36" s="24"/>
       <c r="C36" s="2"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
       <c r="M36" s="32"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -7695,18 +7695,18 @@
       <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="126" t="s">
+      <c r="E37" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="130"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105" t="s">
+      <c r="F37" s="111"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="106">
+      <c r="L37" s="105">
         <v>100</v>
       </c>
       <c r="M37" s="32"/>
@@ -7826,14 +7826,14 @@
       <c r="B38" s="24"/>
       <c r="C38" s="2"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
       <c r="M38" s="34"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
@@ -7950,17 +7950,17 @@
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="145" t="s">
+      <c r="D39" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
       <c r="M39" s="42"/>
       <c r="N39" s="43"/>
       <c r="O39" s="43"/>
@@ -8077,15 +8077,15 @@
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
       <c r="M40" s="44"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
@@ -8203,20 +8203,20 @@
       <c r="B41" s="24"/>
       <c r="C41" s="2"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="126" t="s">
+      <c r="E41" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="130"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="104">
+      <c r="F41" s="111"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="120">
         <v>1</v>
       </c>
-      <c r="I41" s="143"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105" t="s">
+      <c r="I41" s="121"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="L41" s="106">
+      <c r="L41" s="105">
         <v>100</v>
       </c>
       <c r="M41" s="32"/>
@@ -8336,14 +8336,14 @@
       <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
       <c r="M42" s="32"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
@@ -8460,20 +8460,20 @@
       <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="126" t="s">
+      <c r="E43" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="130"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="104">
+      <c r="F43" s="111"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="120">
         <v>4</v>
       </c>
-      <c r="I43" s="143"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105" t="s">
+      <c r="I43" s="121"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="L43" s="106">
+      <c r="L43" s="105">
         <v>100</v>
       </c>
       <c r="M43" s="32"/>
@@ -8593,14 +8593,14 @@
       <c r="B44" s="24"/>
       <c r="C44" s="2"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
       <c r="M44" s="32"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -8717,20 +8717,20 @@
       <c r="B45" s="24"/>
       <c r="C45" s="2"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="126" t="s">
+      <c r="E45" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="130"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="104">
+      <c r="F45" s="111"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="120">
         <v>0.5</v>
       </c>
-      <c r="I45" s="143"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105" t="s">
+      <c r="I45" s="121"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="106">
+      <c r="L45" s="105">
         <v>100</v>
       </c>
       <c r="M45" s="32"/>
@@ -8850,14 +8850,14 @@
       <c r="B46" s="24"/>
       <c r="C46" s="2"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
       <c r="M46" s="32"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -8975,20 +8975,20 @@
       <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="126" t="s">
+      <c r="E47" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="130"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="104">
+      <c r="F47" s="111"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="120">
         <v>4</v>
       </c>
-      <c r="I47" s="143"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105" t="s">
+      <c r="I47" s="121"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="L47" s="106">
+      <c r="L47" s="105">
         <v>100</v>
       </c>
       <c r="M47" s="32"/>
@@ -9108,14 +9108,14 @@
       <c r="B48" s="24"/>
       <c r="C48" s="2"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
       <c r="M48" s="32"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
@@ -9233,20 +9233,20 @@
       <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="126" t="s">
+      <c r="E49" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="130"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="104">
+      <c r="F49" s="111"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="120">
         <v>4</v>
       </c>
-      <c r="I49" s="143"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105" t="s">
+      <c r="I49" s="121"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="106">
+      <c r="L49" s="105">
         <v>100</v>
       </c>
       <c r="M49" s="32"/>
@@ -9366,14 +9366,14 @@
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
       <c r="M50" s="32"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
@@ -9491,20 +9491,20 @@
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="126" t="s">
+      <c r="E51" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="130"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="104">
+      <c r="F51" s="111"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="120">
         <v>0.5</v>
       </c>
-      <c r="I51" s="143"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105" t="s">
+      <c r="I51" s="121"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="L51" s="106">
+      <c r="L51" s="105">
         <v>100</v>
       </c>
       <c r="M51" s="32"/>
@@ -9624,14 +9624,14 @@
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="106"/>
-      <c r="L52" s="106"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
       <c r="M52" s="34"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
@@ -9748,17 +9748,17 @@
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="129" t="s">
+      <c r="D53" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="112"/>
-      <c r="L53" s="112"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="101"/>
+      <c r="L53" s="101"/>
       <c r="M53" s="42"/>
       <c r="N53" s="43"/>
       <c r="O53" s="43"/>
@@ -9875,15 +9875,15 @@
       <c r="A54" s="2"/>
       <c r="B54" s="24"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="112"/>
-      <c r="L54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="101"/>
       <c r="M54" s="44"/>
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
@@ -10001,20 +10001,20 @@
       <c r="B55" s="24"/>
       <c r="C55" s="2"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="126" t="s">
+      <c r="E55" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="130"/>
-      <c r="G55" s="139"/>
-      <c r="H55" s="104">
+      <c r="F55" s="111"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="120">
         <v>4</v>
       </c>
-      <c r="I55" s="143"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="105" t="s">
+      <c r="I55" s="121"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="L55" s="106">
+      <c r="L55" s="105">
         <v>100</v>
       </c>
       <c r="M55" s="32"/>
@@ -10133,14 +10133,14 @@
       <c r="B56" s="24"/>
       <c r="C56" s="2"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
       <c r="M56" s="32"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
@@ -10258,20 +10258,20 @@
       <c r="B57" s="24"/>
       <c r="C57" s="2"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="126" t="s">
+      <c r="E57" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="130"/>
-      <c r="G57" s="139"/>
-      <c r="H57" s="104">
+      <c r="F57" s="111"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="120">
         <v>4</v>
       </c>
-      <c r="I57" s="143"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="105" t="s">
+      <c r="I57" s="121"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="106">
+      <c r="L57" s="105">
         <v>100</v>
       </c>
       <c r="M57" s="32"/>
@@ -10391,14 +10391,14 @@
       <c r="B58" s="24"/>
       <c r="C58" s="2"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
       <c r="M58" s="32"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
@@ -10516,20 +10516,20 @@
       <c r="B59" s="24"/>
       <c r="C59" s="2"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="126" t="s">
+      <c r="E59" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="130"/>
-      <c r="G59" s="139"/>
-      <c r="H59" s="104">
+      <c r="F59" s="111"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="120">
         <v>4</v>
       </c>
-      <c r="I59" s="143"/>
-      <c r="J59" s="105"/>
-      <c r="K59" s="105" t="s">
+      <c r="I59" s="121"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="106">
+      <c r="L59" s="105">
         <v>100</v>
       </c>
       <c r="M59" s="32"/>
@@ -10649,14 +10649,14 @@
       <c r="B60" s="24"/>
       <c r="C60" s="2"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="143"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="123"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
       <c r="M60" s="32"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
@@ -10774,20 +10774,20 @@
       <c r="B61" s="24"/>
       <c r="C61" s="2"/>
       <c r="D61" s="46"/>
-      <c r="E61" s="126" t="s">
+      <c r="E61" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="130"/>
-      <c r="G61" s="139"/>
-      <c r="H61" s="104">
+      <c r="F61" s="111"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="120">
         <v>0.5</v>
       </c>
-      <c r="I61" s="143"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="105" t="s">
+      <c r="I61" s="121"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="L61" s="106">
+      <c r="L61" s="105">
         <v>100</v>
       </c>
       <c r="M61" s="32"/>
@@ -10907,14 +10907,14 @@
       <c r="B62" s="24"/>
       <c r="C62" s="2"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="143"/>
-      <c r="J62" s="106"/>
-      <c r="K62" s="106"/>
-      <c r="L62" s="106"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
       <c r="M62" s="34"/>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
@@ -11031,17 +11031,17 @@
       <c r="A63" s="2"/>
       <c r="B63" s="24"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="129" t="s">
+      <c r="D63" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="110"/>
-      <c r="I63" s="110"/>
-      <c r="J63" s="110"/>
-      <c r="K63" s="110"/>
-      <c r="L63" s="112"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="101"/>
       <c r="M63" s="42"/>
       <c r="N63" s="43"/>
       <c r="O63" s="43"/>
@@ -11158,15 +11158,15 @@
       <c r="A64" s="2"/>
       <c r="B64" s="24"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="111"/>
-      <c r="J64" s="111"/>
-      <c r="K64" s="111"/>
-      <c r="L64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="103"/>
+      <c r="L64" s="101"/>
       <c r="M64" s="44"/>
       <c r="N64" s="31"/>
       <c r="O64" s="31"/>
@@ -11284,18 +11284,18 @@
       <c r="B65" s="24"/>
       <c r="C65" s="2"/>
       <c r="D65" s="46"/>
-      <c r="E65" s="126" t="s">
+      <c r="E65" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="130"/>
-      <c r="G65" s="139"/>
-      <c r="H65" s="104"/>
-      <c r="I65" s="104"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105" t="s">
+      <c r="F65" s="111"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="120"/>
+      <c r="I65" s="120"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="L65" s="106">
+      <c r="L65" s="105">
         <v>100</v>
       </c>
       <c r="M65" s="32"/>
@@ -11415,14 +11415,14 @@
       <c r="B66" s="24"/>
       <c r="C66" s="2"/>
       <c r="D66" s="46"/>
-      <c r="E66" s="131"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="104"/>
-      <c r="J66" s="106"/>
-      <c r="K66" s="106"/>
-      <c r="L66" s="106"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="105"/>
+      <c r="K66" s="105"/>
+      <c r="L66" s="105"/>
       <c r="M66" s="32"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
@@ -11540,18 +11540,18 @@
       <c r="B67" s="24"/>
       <c r="C67" s="2"/>
       <c r="D67" s="46"/>
-      <c r="E67" s="126" t="s">
+      <c r="E67" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="130"/>
-      <c r="G67" s="139"/>
-      <c r="H67" s="104"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="105"/>
-      <c r="K67" s="105" t="s">
+      <c r="F67" s="111"/>
+      <c r="G67" s="122"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="L67" s="106">
+      <c r="L67" s="105">
         <v>100</v>
       </c>
       <c r="M67" s="32"/>
@@ -11669,14 +11669,14 @@
       <c r="B68" s="24"/>
       <c r="C68" s="2"/>
       <c r="D68" s="46"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="132"/>
-      <c r="G68" s="140"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="106"/>
-      <c r="L68" s="106"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="113"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="105"/>
+      <c r="K68" s="105"/>
+      <c r="L68" s="105"/>
       <c r="M68" s="32"/>
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
@@ -11794,18 +11794,18 @@
       <c r="B69" s="24"/>
       <c r="C69" s="2"/>
       <c r="D69" s="46"/>
-      <c r="E69" s="126" t="s">
+      <c r="E69" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="130"/>
-      <c r="G69" s="139"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="105" t="s">
+      <c r="F69" s="111"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="L69" s="106">
+      <c r="L69" s="105">
         <v>100</v>
       </c>
       <c r="M69" s="32"/>
@@ -11925,14 +11925,14 @@
       <c r="B70" s="24"/>
       <c r="C70" s="2"/>
       <c r="D70" s="46"/>
-      <c r="E70" s="131"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="140"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="104"/>
-      <c r="J70" s="106"/>
-      <c r="K70" s="106"/>
-      <c r="L70" s="106"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="123"/>
+      <c r="H70" s="120"/>
+      <c r="I70" s="120"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="105"/>
       <c r="M70" s="32"/>
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
@@ -12050,18 +12050,18 @@
       <c r="B71" s="24"/>
       <c r="C71" s="2"/>
       <c r="D71" s="46"/>
-      <c r="E71" s="126" t="s">
+      <c r="E71" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="130"/>
-      <c r="G71" s="139"/>
-      <c r="H71" s="104"/>
-      <c r="I71" s="104"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="105" t="s">
+      <c r="F71" s="111"/>
+      <c r="G71" s="122"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="120"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="L71" s="106">
+      <c r="L71" s="105">
         <v>100</v>
       </c>
       <c r="M71" s="32"/>
@@ -12181,14 +12181,14 @@
       <c r="B72" s="24"/>
       <c r="C72" s="2"/>
       <c r="D72" s="46"/>
-      <c r="E72" s="131"/>
-      <c r="F72" s="132"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="104"/>
-      <c r="I72" s="104"/>
-      <c r="J72" s="106"/>
-      <c r="K72" s="106"/>
-      <c r="L72" s="106"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="113"/>
+      <c r="G72" s="123"/>
+      <c r="H72" s="120"/>
+      <c r="I72" s="120"/>
+      <c r="J72" s="105"/>
+      <c r="K72" s="105"/>
+      <c r="L72" s="105"/>
       <c r="M72" s="32"/>
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
@@ -12306,18 +12306,18 @@
       <c r="B73" s="24"/>
       <c r="C73" s="2"/>
       <c r="D73" s="46"/>
-      <c r="E73" s="126" t="s">
+      <c r="E73" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="130"/>
-      <c r="G73" s="139"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="104"/>
-      <c r="J73" s="105"/>
-      <c r="K73" s="105" t="s">
+      <c r="F73" s="111"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="120"/>
+      <c r="I73" s="120"/>
+      <c r="J73" s="104"/>
+      <c r="K73" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="L73" s="106">
+      <c r="L73" s="105">
         <v>100</v>
       </c>
       <c r="M73" s="32"/>
@@ -12437,14 +12437,14 @@
       <c r="B74" s="24"/>
       <c r="C74" s="2"/>
       <c r="D74" s="47"/>
-      <c r="E74" s="131"/>
-      <c r="F74" s="132"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="104"/>
-      <c r="J74" s="106"/>
-      <c r="K74" s="106"/>
-      <c r="L74" s="106"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="123"/>
+      <c r="H74" s="120"/>
+      <c r="I74" s="120"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
       <c r="M74" s="34"/>
       <c r="N74" s="35"/>
       <c r="O74" s="35"/>
@@ -12560,18 +12560,18 @@
     <row r="75" spans="1:123" ht="9.75" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="51"/>
-      <c r="C75" s="133" t="s">
+      <c r="C75" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="130"/>
-      <c r="E75" s="130"/>
-      <c r="F75" s="130"/>
-      <c r="G75" s="130"/>
-      <c r="H75" s="110"/>
-      <c r="I75" s="110"/>
-      <c r="J75" s="110"/>
-      <c r="K75" s="110"/>
-      <c r="L75" s="112"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
+      <c r="G75" s="111"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="102"/>
+      <c r="J75" s="102"/>
+      <c r="K75" s="102"/>
+      <c r="L75" s="101"/>
       <c r="M75" s="42"/>
       <c r="N75" s="43"/>
       <c r="O75" s="43"/>
@@ -12687,16 +12687,16 @@
     <row r="76" spans="1:123" ht="9.75" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="51"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="132"/>
-      <c r="E76" s="132"/>
-      <c r="F76" s="132"/>
-      <c r="G76" s="132"/>
-      <c r="H76" s="111"/>
-      <c r="I76" s="111"/>
-      <c r="J76" s="111"/>
-      <c r="K76" s="111"/>
-      <c r="L76" s="112"/>
+      <c r="C76" s="113"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103"/>
+      <c r="J76" s="103"/>
+      <c r="K76" s="103"/>
+      <c r="L76" s="101"/>
       <c r="M76" s="44"/>
       <c r="N76" s="31"/>
       <c r="O76" s="31"/>
@@ -12812,18 +12812,18 @@
     <row r="77" spans="1:123" ht="9.75" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="51"/>
-      <c r="C77" s="133" t="s">
+      <c r="C77" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="130"/>
-      <c r="E77" s="130"/>
-      <c r="F77" s="130"/>
-      <c r="G77" s="130"/>
-      <c r="H77" s="110"/>
-      <c r="I77" s="110"/>
-      <c r="J77" s="110"/>
-      <c r="K77" s="110"/>
-      <c r="L77" s="112"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="102"/>
+      <c r="J77" s="102"/>
+      <c r="K77" s="102"/>
+      <c r="L77" s="101"/>
       <c r="M77" s="42"/>
       <c r="N77" s="43"/>
       <c r="O77" s="43"/>
@@ -12939,16 +12939,16 @@
     <row r="78" spans="1:123" ht="9.75" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="132"/>
-      <c r="D78" s="132"/>
-      <c r="E78" s="132"/>
-      <c r="F78" s="132"/>
-      <c r="G78" s="132"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
-      <c r="K78" s="111"/>
-      <c r="L78" s="112"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="113"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="113"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="103"/>
+      <c r="J78" s="103"/>
+      <c r="K78" s="103"/>
+      <c r="L78" s="101"/>
       <c r="M78" s="44"/>
       <c r="N78" s="31"/>
       <c r="O78" s="31"/>
@@ -13065,17 +13065,17 @@
       <c r="A79" s="2"/>
       <c r="B79" s="24"/>
       <c r="C79" s="41"/>
-      <c r="D79" s="129" t="s">
+      <c r="D79" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="130"/>
-      <c r="F79" s="130"/>
-      <c r="G79" s="130"/>
-      <c r="H79" s="112"/>
-      <c r="I79" s="112"/>
-      <c r="J79" s="112"/>
-      <c r="K79" s="112"/>
-      <c r="L79" s="112"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="111"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="101"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
       <c r="M79" s="42"/>
       <c r="N79" s="43"/>
       <c r="O79" s="43"/>
@@ -13192,15 +13192,15 @@
       <c r="A80" s="2"/>
       <c r="B80" s="24"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="132"/>
-      <c r="H80" s="112"/>
-      <c r="I80" s="112"/>
-      <c r="J80" s="112"/>
-      <c r="K80" s="112"/>
-      <c r="L80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="113"/>
+      <c r="F80" s="113"/>
+      <c r="G80" s="113"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="101"/>
+      <c r="L80" s="101"/>
       <c r="M80" s="44"/>
       <c r="N80" s="31"/>
       <c r="O80" s="31"/>
@@ -13318,18 +13318,18 @@
       <c r="B81" s="24"/>
       <c r="C81" s="2"/>
       <c r="D81" s="46"/>
-      <c r="E81" s="126" t="s">
+      <c r="E81" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="F81" s="130"/>
-      <c r="G81" s="139"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="105"/>
-      <c r="K81" s="105" t="s">
+      <c r="F81" s="111"/>
+      <c r="G81" s="122"/>
+      <c r="H81" s="120"/>
+      <c r="I81" s="120"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="L81" s="106"/>
+      <c r="L81" s="105"/>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
       <c r="O81" s="18"/>
@@ -13447,14 +13447,14 @@
       <c r="B82" s="24"/>
       <c r="C82" s="2"/>
       <c r="D82" s="46"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="132"/>
-      <c r="G82" s="140"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="106"/>
-      <c r="K82" s="106"/>
-      <c r="L82" s="106"/>
+      <c r="E82" s="112"/>
+      <c r="F82" s="113"/>
+      <c r="G82" s="123"/>
+      <c r="H82" s="120"/>
+      <c r="I82" s="120"/>
+      <c r="J82" s="105"/>
+      <c r="K82" s="105"/>
+      <c r="L82" s="105"/>
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
       <c r="O82" s="18"/>
@@ -13572,18 +13572,18 @@
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
       <c r="D83" s="46"/>
-      <c r="E83" s="126" t="s">
+      <c r="E83" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="F83" s="130"/>
-      <c r="G83" s="139"/>
-      <c r="H83" s="104"/>
-      <c r="I83" s="104"/>
-      <c r="J83" s="105"/>
-      <c r="K83" s="105" t="s">
+      <c r="F83" s="111"/>
+      <c r="G83" s="122"/>
+      <c r="H83" s="120"/>
+      <c r="I83" s="120"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="L83" s="106"/>
+      <c r="L83" s="105"/>
       <c r="M83" s="18"/>
       <c r="N83" s="18"/>
       <c r="O83" s="18"/>
@@ -13701,14 +13701,14 @@
       <c r="B84" s="24"/>
       <c r="C84" s="2"/>
       <c r="D84" s="46"/>
-      <c r="E84" s="131"/>
-      <c r="F84" s="132"/>
-      <c r="G84" s="140"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="104"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="106"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="113"/>
+      <c r="G84" s="123"/>
+      <c r="H84" s="120"/>
+      <c r="I84" s="120"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
       <c r="O84" s="18"/>
@@ -13826,18 +13826,18 @@
       <c r="B85" s="24"/>
       <c r="C85" s="2"/>
       <c r="D85" s="46"/>
-      <c r="E85" s="126" t="s">
+      <c r="E85" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="130"/>
-      <c r="G85" s="139"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="105"/>
-      <c r="K85" s="105" t="s">
+      <c r="F85" s="111"/>
+      <c r="G85" s="122"/>
+      <c r="H85" s="120"/>
+      <c r="I85" s="120"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="L85" s="106"/>
+      <c r="L85" s="105"/>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
       <c r="O85" s="18"/>
@@ -13955,14 +13955,14 @@
       <c r="B86" s="24"/>
       <c r="C86" s="2"/>
       <c r="D86" s="46"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="132"/>
-      <c r="G86" s="140"/>
-      <c r="H86" s="104"/>
-      <c r="I86" s="104"/>
-      <c r="J86" s="106"/>
-      <c r="K86" s="106"/>
-      <c r="L86" s="106"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="113"/>
+      <c r="G86" s="123"/>
+      <c r="H86" s="120"/>
+      <c r="I86" s="120"/>
+      <c r="J86" s="105"/>
+      <c r="K86" s="105"/>
+      <c r="L86" s="105"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
       <c r="O86" s="18"/>
@@ -14079,17 +14079,17 @@
       <c r="A87" s="19"/>
       <c r="B87" s="51"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="129" t="s">
+      <c r="D87" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="E87" s="130"/>
-      <c r="F87" s="130"/>
-      <c r="G87" s="130"/>
-      <c r="H87" s="110"/>
-      <c r="I87" s="110"/>
-      <c r="J87" s="110"/>
-      <c r="K87" s="110"/>
-      <c r="L87" s="112"/>
+      <c r="E87" s="111"/>
+      <c r="F87" s="111"/>
+      <c r="G87" s="111"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="102"/>
+      <c r="J87" s="102"/>
+      <c r="K87" s="102"/>
+      <c r="L87" s="101"/>
       <c r="M87" s="42"/>
       <c r="N87" s="43"/>
       <c r="O87" s="43"/>
@@ -14206,15 +14206,15 @@
       <c r="A88" s="19"/>
       <c r="B88" s="51"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="131"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
-      <c r="G88" s="132"/>
-      <c r="H88" s="111"/>
-      <c r="I88" s="111"/>
-      <c r="J88" s="111"/>
-      <c r="K88" s="111"/>
-      <c r="L88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="113"/>
+      <c r="F88" s="113"/>
+      <c r="G88" s="113"/>
+      <c r="H88" s="103"/>
+      <c r="I88" s="103"/>
+      <c r="J88" s="103"/>
+      <c r="K88" s="103"/>
+      <c r="L88" s="101"/>
       <c r="M88" s="44"/>
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
@@ -14332,16 +14332,16 @@
       <c r="B89" s="24"/>
       <c r="C89" s="2"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="113" t="s">
+      <c r="E89" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="113"/>
-      <c r="G89" s="114"/>
-      <c r="H89" s="110"/>
-      <c r="I89" s="110"/>
-      <c r="J89" s="110"/>
-      <c r="K89" s="110"/>
-      <c r="L89" s="112"/>
+      <c r="F89" s="133"/>
+      <c r="G89" s="134"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="102"/>
+      <c r="J89" s="102"/>
+      <c r="K89" s="102"/>
+      <c r="L89" s="101"/>
       <c r="M89" s="42"/>
       <c r="N89" s="43"/>
       <c r="O89" s="43"/>
@@ -14459,14 +14459,14 @@
       <c r="B90" s="24"/>
       <c r="C90" s="2"/>
       <c r="D90" s="56"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="134"/>
-      <c r="G90" s="135"/>
-      <c r="H90" s="111"/>
-      <c r="I90" s="111"/>
-      <c r="J90" s="111"/>
-      <c r="K90" s="111"/>
-      <c r="L90" s="112"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="136"/>
+      <c r="G90" s="137"/>
+      <c r="H90" s="103"/>
+      <c r="I90" s="103"/>
+      <c r="J90" s="103"/>
+      <c r="K90" s="103"/>
+      <c r="L90" s="101"/>
       <c r="M90" s="44"/>
       <c r="N90" s="31"/>
       <c r="O90" s="31"/>
@@ -14585,22 +14585,22 @@
       <c r="C91" s="2"/>
       <c r="D91" s="46"/>
       <c r="E91" s="59"/>
-      <c r="F91" s="115" t="s">
+      <c r="F91" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="116"/>
-      <c r="H91" s="104">
+      <c r="G91" s="139"/>
+      <c r="H91" s="120">
         <v>4</v>
       </c>
-      <c r="I91" s="104">
+      <c r="I91" s="120">
         <v>5</v>
       </c>
-      <c r="J91" s="105"/>
-      <c r="K91" s="105" t="s">
+      <c r="J91" s="104"/>
+      <c r="K91" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="L91" s="141">
-        <v>100</v>
+      <c r="L91" s="131">
+        <v>95</v>
       </c>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
@@ -14720,13 +14720,13 @@
       <c r="C92" s="2"/>
       <c r="D92" s="46"/>
       <c r="E92" s="60"/>
-      <c r="F92" s="118"/>
-      <c r="G92" s="119"/>
-      <c r="H92" s="104"/>
-      <c r="I92" s="104"/>
-      <c r="J92" s="106"/>
-      <c r="K92" s="106"/>
-      <c r="L92" s="142"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="141"/>
+      <c r="H92" s="120"/>
+      <c r="I92" s="120"/>
+      <c r="J92" s="105"/>
+      <c r="K92" s="105"/>
+      <c r="L92" s="132"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18"/>
       <c r="O92" s="18"/>
@@ -14845,21 +14845,23 @@
       <c r="C93" s="2"/>
       <c r="D93" s="46"/>
       <c r="E93" s="61"/>
-      <c r="F93" s="115" t="s">
+      <c r="F93" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="G93" s="116"/>
-      <c r="H93" s="104">
+      <c r="G93" s="139"/>
+      <c r="H93" s="120">
         <v>4</v>
       </c>
-      <c r="I93" s="104"/>
-      <c r="J93" s="105" t="s">
+      <c r="I93" s="120"/>
+      <c r="J93" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="K93" s="105" t="s">
+      <c r="K93" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="L93" s="106"/>
+      <c r="L93" s="105">
+        <v>50</v>
+      </c>
       <c r="M93" s="18"/>
       <c r="N93" s="18"/>
       <c r="O93" s="18"/>
@@ -14978,13 +14980,13 @@
       <c r="C94" s="2"/>
       <c r="D94" s="46"/>
       <c r="E94" s="60"/>
-      <c r="F94" s="118"/>
-      <c r="G94" s="119"/>
-      <c r="H94" s="104"/>
-      <c r="I94" s="104"/>
-      <c r="J94" s="106"/>
-      <c r="K94" s="106"/>
-      <c r="L94" s="106"/>
+      <c r="F94" s="140"/>
+      <c r="G94" s="141"/>
+      <c r="H94" s="120"/>
+      <c r="I94" s="120"/>
+      <c r="J94" s="105"/>
+      <c r="K94" s="105"/>
+      <c r="L94" s="105"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
       <c r="O94" s="18"/>
@@ -15023,7 +15025,7 @@
       <c r="AV94" s="18"/>
       <c r="AW94" s="18"/>
       <c r="AX94" s="18"/>
-      <c r="AY94" s="18"/>
+      <c r="AY94" s="98"/>
       <c r="AZ94" s="18"/>
       <c r="BA94" s="18"/>
       <c r="BB94" s="18"/>
@@ -15103,17 +15105,17 @@
       <c r="C95" s="2"/>
       <c r="D95" s="46"/>
       <c r="E95" s="61"/>
-      <c r="F95" s="115" t="s">
+      <c r="F95" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="G95" s="116"/>
-      <c r="H95" s="104"/>
-      <c r="I95" s="104"/>
-      <c r="J95" s="105"/>
-      <c r="K95" s="105" t="s">
+      <c r="G95" s="139"/>
+      <c r="H95" s="120"/>
+      <c r="I95" s="120"/>
+      <c r="J95" s="104"/>
+      <c r="K95" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="L95" s="106"/>
+      <c r="L95" s="105"/>
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
       <c r="O95" s="18"/>
@@ -15232,13 +15234,13 @@
       <c r="C96" s="2"/>
       <c r="D96" s="46"/>
       <c r="E96" s="62"/>
-      <c r="F96" s="117"/>
-      <c r="G96" s="103"/>
-      <c r="H96" s="104"/>
-      <c r="I96" s="104"/>
-      <c r="J96" s="106"/>
-      <c r="K96" s="106"/>
-      <c r="L96" s="106"/>
+      <c r="F96" s="150"/>
+      <c r="G96" s="149"/>
+      <c r="H96" s="120"/>
+      <c r="I96" s="120"/>
+      <c r="J96" s="105"/>
+      <c r="K96" s="105"/>
+      <c r="L96" s="105"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
       <c r="O96" s="18"/>
@@ -15356,16 +15358,16 @@
       <c r="B97" s="24"/>
       <c r="C97" s="2"/>
       <c r="D97" s="46"/>
-      <c r="E97" s="120" t="s">
+      <c r="E97" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="F97" s="121"/>
-      <c r="G97" s="122"/>
-      <c r="H97" s="110"/>
-      <c r="I97" s="112"/>
-      <c r="J97" s="112"/>
-      <c r="K97" s="112"/>
-      <c r="L97" s="112"/>
+      <c r="F97" s="152"/>
+      <c r="G97" s="153"/>
+      <c r="H97" s="102"/>
+      <c r="I97" s="101"/>
+      <c r="J97" s="101"/>
+      <c r="K97" s="101"/>
+      <c r="L97" s="101"/>
       <c r="M97" s="43"/>
       <c r="N97" s="43"/>
       <c r="O97" s="43"/>
@@ -15483,14 +15485,14 @@
       <c r="B98" s="24"/>
       <c r="C98" s="2"/>
       <c r="D98" s="46"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="124"/>
-      <c r="G98" s="125"/>
-      <c r="H98" s="111"/>
-      <c r="I98" s="112"/>
-      <c r="J98" s="112"/>
-      <c r="K98" s="112"/>
-      <c r="L98" s="112"/>
+      <c r="E98" s="154"/>
+      <c r="F98" s="155"/>
+      <c r="G98" s="156"/>
+      <c r="H98" s="103"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="101"/>
       <c r="M98" s="31"/>
       <c r="N98" s="31"/>
       <c r="O98" s="31"/>
@@ -15609,19 +15611,19 @@
       <c r="C99" s="2"/>
       <c r="D99" s="46"/>
       <c r="E99" s="61"/>
-      <c r="F99" s="128" t="s">
+      <c r="F99" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="G99" s="101"/>
-      <c r="H99" s="104">
+      <c r="G99" s="147"/>
+      <c r="H99" s="120">
         <v>4</v>
       </c>
-      <c r="I99" s="104"/>
-      <c r="J99" s="105"/>
-      <c r="K99" s="105" t="s">
+      <c r="I99" s="120"/>
+      <c r="J99" s="104"/>
+      <c r="K99" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="L99" s="105"/>
+      <c r="L99" s="104"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
       <c r="O99" s="18"/>
@@ -15740,13 +15742,13 @@
       <c r="C100" s="2"/>
       <c r="D100" s="46"/>
       <c r="E100" s="60"/>
-      <c r="F100" s="127"/>
-      <c r="G100" s="119"/>
-      <c r="H100" s="104"/>
-      <c r="I100" s="104"/>
-      <c r="J100" s="106"/>
-      <c r="K100" s="106"/>
-      <c r="L100" s="106"/>
+      <c r="F100" s="157"/>
+      <c r="G100" s="141"/>
+      <c r="H100" s="120"/>
+      <c r="I100" s="120"/>
+      <c r="J100" s="105"/>
+      <c r="K100" s="105"/>
+      <c r="L100" s="105"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
       <c r="O100" s="18"/>
@@ -15865,19 +15867,19 @@
       <c r="C101" s="2"/>
       <c r="D101" s="46"/>
       <c r="E101" s="61"/>
-      <c r="F101" s="126" t="s">
+      <c r="F101" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="G101" s="116"/>
-      <c r="H101" s="104">
+      <c r="G101" s="139"/>
+      <c r="H101" s="120">
         <v>4</v>
       </c>
-      <c r="I101" s="104"/>
-      <c r="J101" s="105"/>
-      <c r="K101" s="105" t="s">
+      <c r="I101" s="120"/>
+      <c r="J101" s="104"/>
+      <c r="K101" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="L101" s="105"/>
+      <c r="L101" s="104"/>
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
       <c r="O101" s="18"/>
@@ -15996,13 +15998,13 @@
       <c r="C102" s="2"/>
       <c r="D102" s="46"/>
       <c r="E102" s="60"/>
-      <c r="F102" s="127"/>
-      <c r="G102" s="119"/>
-      <c r="H102" s="104"/>
-      <c r="I102" s="104"/>
-      <c r="J102" s="106"/>
-      <c r="K102" s="106"/>
-      <c r="L102" s="106"/>
+      <c r="F102" s="157"/>
+      <c r="G102" s="141"/>
+      <c r="H102" s="120"/>
+      <c r="I102" s="120"/>
+      <c r="J102" s="105"/>
+      <c r="K102" s="105"/>
+      <c r="L102" s="105"/>
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
       <c r="O102" s="18"/>
@@ -16121,19 +16123,19 @@
       <c r="C103" s="2"/>
       <c r="D103" s="46"/>
       <c r="E103" s="61"/>
-      <c r="F103" s="126" t="s">
+      <c r="F103" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G103" s="116"/>
-      <c r="H103" s="104">
+      <c r="G103" s="139"/>
+      <c r="H103" s="120">
         <v>5</v>
       </c>
-      <c r="I103" s="104"/>
-      <c r="J103" s="105"/>
-      <c r="K103" s="105" t="s">
+      <c r="I103" s="120"/>
+      <c r="J103" s="104"/>
+      <c r="K103" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="L103" s="105"/>
+      <c r="L103" s="104"/>
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
       <c r="O103" s="18"/>
@@ -16252,13 +16254,13 @@
       <c r="C104" s="2"/>
       <c r="D104" s="46"/>
       <c r="E104" s="60"/>
-      <c r="F104" s="127"/>
-      <c r="G104" s="119"/>
-      <c r="H104" s="104"/>
-      <c r="I104" s="104"/>
-      <c r="J104" s="106"/>
-      <c r="K104" s="106"/>
-      <c r="L104" s="106"/>
+      <c r="F104" s="157"/>
+      <c r="G104" s="141"/>
+      <c r="H104" s="120"/>
+      <c r="I104" s="120"/>
+      <c r="J104" s="105"/>
+      <c r="K104" s="105"/>
+      <c r="L104" s="105"/>
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
       <c r="O104" s="18"/>
@@ -16377,19 +16379,19 @@
       <c r="C105" s="2"/>
       <c r="D105" s="46"/>
       <c r="E105" s="61"/>
-      <c r="F105" s="126" t="s">
+      <c r="F105" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="116"/>
-      <c r="H105" s="104">
+      <c r="G105" s="139"/>
+      <c r="H105" s="120">
         <v>4</v>
       </c>
-      <c r="I105" s="104"/>
-      <c r="J105" s="105"/>
-      <c r="K105" s="105" t="s">
+      <c r="I105" s="120"/>
+      <c r="J105" s="104"/>
+      <c r="K105" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="L105" s="105"/>
+      <c r="L105" s="104"/>
       <c r="M105" s="18"/>
       <c r="N105" s="18"/>
       <c r="O105" s="18"/>
@@ -16508,13 +16510,13 @@
       <c r="C106" s="2"/>
       <c r="D106" s="46"/>
       <c r="E106" s="60"/>
-      <c r="F106" s="127"/>
-      <c r="G106" s="119"/>
-      <c r="H106" s="104"/>
-      <c r="I106" s="104"/>
-      <c r="J106" s="106"/>
-      <c r="K106" s="106"/>
-      <c r="L106" s="106"/>
+      <c r="F106" s="157"/>
+      <c r="G106" s="141"/>
+      <c r="H106" s="120"/>
+      <c r="I106" s="120"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="105"/>
       <c r="M106" s="18"/>
       <c r="N106" s="18"/>
       <c r="O106" s="18"/>
@@ -16633,21 +16635,21 @@
       <c r="C107" s="2"/>
       <c r="D107" s="46"/>
       <c r="E107" s="61"/>
-      <c r="F107" s="126" t="s">
+      <c r="F107" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="G107" s="116"/>
-      <c r="H107" s="104">
+      <c r="G107" s="139"/>
+      <c r="H107" s="120">
         <v>4</v>
       </c>
-      <c r="I107" s="104"/>
-      <c r="J107" s="105" t="s">
+      <c r="I107" s="120"/>
+      <c r="J107" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="K107" s="105" t="s">
+      <c r="K107" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="L107" s="105"/>
+      <c r="L107" s="104"/>
       <c r="M107" s="18"/>
       <c r="N107" s="18"/>
       <c r="O107" s="18"/>
@@ -16766,13 +16768,13 @@
       <c r="C108" s="2"/>
       <c r="D108" s="46"/>
       <c r="E108" s="60"/>
-      <c r="F108" s="127"/>
-      <c r="G108" s="119"/>
-      <c r="H108" s="104"/>
-      <c r="I108" s="104"/>
-      <c r="J108" s="106"/>
-      <c r="K108" s="106"/>
-      <c r="L108" s="106"/>
+      <c r="F108" s="157"/>
+      <c r="G108" s="141"/>
+      <c r="H108" s="120"/>
+      <c r="I108" s="120"/>
+      <c r="J108" s="105"/>
+      <c r="K108" s="105"/>
+      <c r="L108" s="105"/>
       <c r="M108" s="18"/>
       <c r="N108" s="18"/>
       <c r="O108" s="18"/>
@@ -16891,17 +16893,17 @@
       <c r="C109" s="2"/>
       <c r="D109" s="46"/>
       <c r="E109" s="61"/>
-      <c r="F109" s="126" t="s">
+      <c r="F109" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="G109" s="116"/>
-      <c r="H109" s="104"/>
-      <c r="I109" s="104"/>
-      <c r="J109" s="105"/>
-      <c r="K109" s="105" t="s">
+      <c r="G109" s="139"/>
+      <c r="H109" s="120"/>
+      <c r="I109" s="120"/>
+      <c r="J109" s="104"/>
+      <c r="K109" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="L109" s="106"/>
+      <c r="L109" s="105"/>
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
       <c r="O109" s="18"/>
@@ -17020,13 +17022,13 @@
       <c r="C110" s="2"/>
       <c r="D110" s="46"/>
       <c r="E110" s="60"/>
-      <c r="F110" s="127"/>
-      <c r="G110" s="119"/>
-      <c r="H110" s="104"/>
-      <c r="I110" s="104"/>
-      <c r="J110" s="106"/>
-      <c r="K110" s="106"/>
-      <c r="L110" s="106"/>
+      <c r="F110" s="157"/>
+      <c r="G110" s="141"/>
+      <c r="H110" s="120"/>
+      <c r="I110" s="120"/>
+      <c r="J110" s="105"/>
+      <c r="K110" s="105"/>
+      <c r="L110" s="105"/>
       <c r="M110" s="18"/>
       <c r="N110" s="18"/>
       <c r="O110" s="18"/>
@@ -17143,17 +17145,17 @@
       <c r="A111" s="19"/>
       <c r="B111" s="51"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="129" t="s">
+      <c r="D111" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="E111" s="130"/>
-      <c r="F111" s="130"/>
-      <c r="G111" s="130"/>
-      <c r="H111" s="110"/>
-      <c r="I111" s="112"/>
-      <c r="J111" s="110"/>
-      <c r="K111" s="110"/>
-      <c r="L111" s="112"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="111"/>
+      <c r="G111" s="111"/>
+      <c r="H111" s="102"/>
+      <c r="I111" s="101"/>
+      <c r="J111" s="102"/>
+      <c r="K111" s="102"/>
+      <c r="L111" s="101"/>
       <c r="M111" s="42"/>
       <c r="N111" s="43"/>
       <c r="O111" s="43"/>
@@ -17270,15 +17272,15 @@
       <c r="A112" s="19"/>
       <c r="B112" s="51"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="131"/>
-      <c r="E112" s="132"/>
-      <c r="F112" s="132"/>
-      <c r="G112" s="132"/>
-      <c r="H112" s="111"/>
-      <c r="I112" s="112"/>
-      <c r="J112" s="111"/>
-      <c r="K112" s="111"/>
-      <c r="L112" s="112"/>
+      <c r="D112" s="112"/>
+      <c r="E112" s="113"/>
+      <c r="F112" s="113"/>
+      <c r="G112" s="113"/>
+      <c r="H112" s="103"/>
+      <c r="I112" s="101"/>
+      <c r="J112" s="103"/>
+      <c r="K112" s="103"/>
+      <c r="L112" s="101"/>
       <c r="M112" s="44"/>
       <c r="N112" s="31"/>
       <c r="O112" s="31"/>
@@ -17396,16 +17398,16 @@
       <c r="B113" s="24"/>
       <c r="C113" s="2"/>
       <c r="D113" s="55"/>
-      <c r="E113" s="113" t="s">
+      <c r="E113" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F113" s="113"/>
-      <c r="G113" s="114"/>
-      <c r="H113" s="110"/>
-      <c r="I113" s="112"/>
-      <c r="J113" s="110"/>
-      <c r="K113" s="110"/>
-      <c r="L113" s="112"/>
+      <c r="F113" s="133"/>
+      <c r="G113" s="134"/>
+      <c r="H113" s="102"/>
+      <c r="I113" s="101"/>
+      <c r="J113" s="102"/>
+      <c r="K113" s="102"/>
+      <c r="L113" s="101"/>
       <c r="M113" s="42"/>
       <c r="N113" s="43"/>
       <c r="O113" s="43"/>
@@ -17523,14 +17525,14 @@
       <c r="B114" s="24"/>
       <c r="C114" s="2"/>
       <c r="D114" s="56"/>
-      <c r="E114" s="108"/>
-      <c r="F114" s="108"/>
-      <c r="G114" s="109"/>
-      <c r="H114" s="111"/>
-      <c r="I114" s="112"/>
-      <c r="J114" s="111"/>
-      <c r="K114" s="111"/>
-      <c r="L114" s="112"/>
+      <c r="E114" s="135"/>
+      <c r="F114" s="135"/>
+      <c r="G114" s="145"/>
+      <c r="H114" s="103"/>
+      <c r="I114" s="101"/>
+      <c r="J114" s="103"/>
+      <c r="K114" s="103"/>
+      <c r="L114" s="101"/>
       <c r="M114" s="44"/>
       <c r="N114" s="31"/>
       <c r="O114" s="31"/>
@@ -17649,19 +17651,19 @@
       <c r="C115" s="2"/>
       <c r="D115" s="46"/>
       <c r="E115" s="59"/>
-      <c r="F115" s="100" t="s">
+      <c r="F115" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="101"/>
-      <c r="H115" s="104">
+      <c r="G115" s="147"/>
+      <c r="H115" s="120">
         <v>3</v>
       </c>
-      <c r="I115" s="104"/>
-      <c r="J115" s="105"/>
-      <c r="K115" s="105" t="s">
+      <c r="I115" s="120"/>
+      <c r="J115" s="104"/>
+      <c r="K115" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="L115" s="106"/>
+      <c r="L115" s="105"/>
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
       <c r="O115" s="18"/>
@@ -17780,13 +17782,13 @@
       <c r="C116" s="2"/>
       <c r="D116" s="46"/>
       <c r="E116" s="60"/>
-      <c r="F116" s="102"/>
-      <c r="G116" s="103"/>
-      <c r="H116" s="104"/>
-      <c r="I116" s="104"/>
-      <c r="J116" s="106"/>
-      <c r="K116" s="106"/>
-      <c r="L116" s="106"/>
+      <c r="F116" s="148"/>
+      <c r="G116" s="149"/>
+      <c r="H116" s="120"/>
+      <c r="I116" s="120"/>
+      <c r="J116" s="105"/>
+      <c r="K116" s="105"/>
+      <c r="L116" s="105"/>
       <c r="M116" s="18"/>
       <c r="N116" s="18"/>
       <c r="O116" s="18"/>
@@ -17905,21 +17907,21 @@
       <c r="C117" s="2"/>
       <c r="D117" s="46"/>
       <c r="E117" s="61"/>
-      <c r="F117" s="100" t="s">
+      <c r="F117" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="G117" s="101"/>
-      <c r="H117" s="104">
+      <c r="G117" s="147"/>
+      <c r="H117" s="120">
         <v>3</v>
       </c>
-      <c r="I117" s="104"/>
-      <c r="J117" s="105" t="s">
+      <c r="I117" s="120"/>
+      <c r="J117" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="K117" s="105" t="s">
+      <c r="K117" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="L117" s="106"/>
+      <c r="L117" s="105"/>
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
       <c r="O117" s="18"/>
@@ -18038,13 +18040,13 @@
       <c r="C118" s="2"/>
       <c r="D118" s="46"/>
       <c r="E118" s="58"/>
-      <c r="F118" s="102"/>
-      <c r="G118" s="103"/>
-      <c r="H118" s="104"/>
-      <c r="I118" s="104"/>
-      <c r="J118" s="106"/>
-      <c r="K118" s="106"/>
-      <c r="L118" s="106"/>
+      <c r="F118" s="148"/>
+      <c r="G118" s="149"/>
+      <c r="H118" s="120"/>
+      <c r="I118" s="120"/>
+      <c r="J118" s="105"/>
+      <c r="K118" s="105"/>
+      <c r="L118" s="105"/>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
       <c r="O118" s="18"/>
@@ -18163,17 +18165,17 @@
       <c r="C119" s="2"/>
       <c r="D119" s="46"/>
       <c r="E119" s="58"/>
-      <c r="F119" s="100" t="s">
+      <c r="F119" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="G119" s="101"/>
-      <c r="H119" s="104"/>
-      <c r="I119" s="104"/>
-      <c r="J119" s="105"/>
-      <c r="K119" s="105" t="s">
+      <c r="G119" s="147"/>
+      <c r="H119" s="120"/>
+      <c r="I119" s="120"/>
+      <c r="J119" s="104"/>
+      <c r="K119" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="L119" s="106"/>
+      <c r="L119" s="105"/>
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
       <c r="O119" s="18"/>
@@ -18292,13 +18294,13 @@
       <c r="C120" s="2"/>
       <c r="D120" s="46"/>
       <c r="E120" s="63"/>
-      <c r="F120" s="102"/>
-      <c r="G120" s="103"/>
-      <c r="H120" s="104"/>
-      <c r="I120" s="104"/>
-      <c r="J120" s="106"/>
-      <c r="K120" s="106"/>
-      <c r="L120" s="106"/>
+      <c r="F120" s="148"/>
+      <c r="G120" s="149"/>
+      <c r="H120" s="120"/>
+      <c r="I120" s="120"/>
+      <c r="J120" s="105"/>
+      <c r="K120" s="105"/>
+      <c r="L120" s="105"/>
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
       <c r="O120" s="18"/>
@@ -18416,16 +18418,16 @@
       <c r="B121" s="24"/>
       <c r="C121" s="2"/>
       <c r="D121" s="46"/>
-      <c r="E121" s="107" t="s">
+      <c r="E121" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="F121" s="108"/>
-      <c r="G121" s="109"/>
-      <c r="H121" s="110"/>
-      <c r="I121" s="112"/>
-      <c r="J121" s="112"/>
-      <c r="K121" s="112"/>
-      <c r="L121" s="112"/>
+      <c r="F121" s="135"/>
+      <c r="G121" s="145"/>
+      <c r="H121" s="102"/>
+      <c r="I121" s="101"/>
+      <c r="J121" s="101"/>
+      <c r="K121" s="101"/>
+      <c r="L121" s="101"/>
       <c r="M121" s="43"/>
       <c r="N121" s="43"/>
       <c r="O121" s="43"/>
@@ -18543,14 +18545,14 @@
       <c r="B122" s="24"/>
       <c r="C122" s="2"/>
       <c r="D122" s="46"/>
-      <c r="E122" s="107"/>
-      <c r="F122" s="108"/>
-      <c r="G122" s="109"/>
-      <c r="H122" s="111"/>
-      <c r="I122" s="112"/>
-      <c r="J122" s="112"/>
-      <c r="K122" s="112"/>
-      <c r="L122" s="112"/>
+      <c r="E122" s="144"/>
+      <c r="F122" s="135"/>
+      <c r="G122" s="145"/>
+      <c r="H122" s="103"/>
+      <c r="I122" s="101"/>
+      <c r="J122" s="101"/>
+      <c r="K122" s="101"/>
+      <c r="L122" s="101"/>
       <c r="M122" s="31"/>
       <c r="N122" s="31"/>
       <c r="O122" s="31"/>
@@ -18669,19 +18671,19 @@
       <c r="C123" s="2"/>
       <c r="D123" s="46"/>
       <c r="E123" s="57"/>
-      <c r="F123" s="100" t="s">
+      <c r="F123" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="G123" s="101"/>
-      <c r="H123" s="104">
+      <c r="G123" s="147"/>
+      <c r="H123" s="120">
         <v>3</v>
       </c>
-      <c r="I123" s="104"/>
-      <c r="J123" s="105"/>
-      <c r="K123" s="105" t="s">
+      <c r="I123" s="120"/>
+      <c r="J123" s="104"/>
+      <c r="K123" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="L123" s="105"/>
+      <c r="L123" s="104"/>
       <c r="M123" s="18"/>
       <c r="N123" s="18"/>
       <c r="O123" s="18"/>
@@ -18800,13 +18802,13 @@
       <c r="C124" s="2"/>
       <c r="D124" s="46"/>
       <c r="E124" s="58"/>
-      <c r="F124" s="102"/>
-      <c r="G124" s="103"/>
-      <c r="H124" s="104"/>
-      <c r="I124" s="104"/>
-      <c r="J124" s="106"/>
-      <c r="K124" s="106"/>
-      <c r="L124" s="106"/>
+      <c r="F124" s="148"/>
+      <c r="G124" s="149"/>
+      <c r="H124" s="120"/>
+      <c r="I124" s="120"/>
+      <c r="J124" s="105"/>
+      <c r="K124" s="105"/>
+      <c r="L124" s="105"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
       <c r="O124" s="18"/>
@@ -18925,19 +18927,19 @@
       <c r="C125" s="2"/>
       <c r="D125" s="46"/>
       <c r="E125" s="58"/>
-      <c r="F125" s="100" t="s">
+      <c r="F125" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="G125" s="101"/>
-      <c r="H125" s="104">
+      <c r="G125" s="147"/>
+      <c r="H125" s="120">
         <v>2</v>
       </c>
-      <c r="I125" s="104"/>
-      <c r="J125" s="105"/>
-      <c r="K125" s="105" t="s">
+      <c r="I125" s="120"/>
+      <c r="J125" s="104"/>
+      <c r="K125" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="L125" s="105"/>
+      <c r="L125" s="104"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
       <c r="O125" s="18"/>
@@ -19056,13 +19058,13 @@
       <c r="C126" s="2"/>
       <c r="D126" s="46"/>
       <c r="E126" s="58"/>
-      <c r="F126" s="102"/>
-      <c r="G126" s="103"/>
-      <c r="H126" s="104"/>
-      <c r="I126" s="104"/>
-      <c r="J126" s="106"/>
-      <c r="K126" s="106"/>
-      <c r="L126" s="106"/>
+      <c r="F126" s="148"/>
+      <c r="G126" s="149"/>
+      <c r="H126" s="120"/>
+      <c r="I126" s="120"/>
+      <c r="J126" s="105"/>
+      <c r="K126" s="105"/>
+      <c r="L126" s="105"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
       <c r="O126" s="18"/>
@@ -19181,19 +19183,19 @@
       <c r="C127" s="2"/>
       <c r="D127" s="46"/>
       <c r="E127" s="58"/>
-      <c r="F127" s="100" t="s">
+      <c r="F127" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="G127" s="101"/>
-      <c r="H127" s="104">
+      <c r="G127" s="147"/>
+      <c r="H127" s="120">
         <v>8</v>
       </c>
-      <c r="I127" s="104"/>
-      <c r="J127" s="105"/>
-      <c r="K127" s="105" t="s">
+      <c r="I127" s="120"/>
+      <c r="J127" s="104"/>
+      <c r="K127" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="L127" s="105"/>
+      <c r="L127" s="104"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
       <c r="O127" s="18"/>
@@ -19312,13 +19314,13 @@
       <c r="C128" s="2"/>
       <c r="D128" s="46"/>
       <c r="E128" s="58"/>
-      <c r="F128" s="102"/>
-      <c r="G128" s="103"/>
-      <c r="H128" s="104"/>
-      <c r="I128" s="104"/>
-      <c r="J128" s="106"/>
-      <c r="K128" s="106"/>
-      <c r="L128" s="106"/>
+      <c r="F128" s="148"/>
+      <c r="G128" s="149"/>
+      <c r="H128" s="120"/>
+      <c r="I128" s="120"/>
+      <c r="J128" s="105"/>
+      <c r="K128" s="105"/>
+      <c r="L128" s="105"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
       <c r="O128" s="18"/>
@@ -19437,19 +19439,19 @@
       <c r="C129" s="2"/>
       <c r="D129" s="46"/>
       <c r="E129" s="58"/>
-      <c r="F129" s="100" t="s">
+      <c r="F129" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="G129" s="101"/>
-      <c r="H129" s="104">
+      <c r="G129" s="147"/>
+      <c r="H129" s="120">
         <v>7</v>
       </c>
-      <c r="I129" s="104"/>
-      <c r="J129" s="105"/>
-      <c r="K129" s="105" t="s">
+      <c r="I129" s="120"/>
+      <c r="J129" s="104"/>
+      <c r="K129" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="L129" s="105"/>
+      <c r="L129" s="104"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
       <c r="O129" s="18"/>
@@ -19568,13 +19570,13 @@
       <c r="C130" s="2"/>
       <c r="D130" s="46"/>
       <c r="E130" s="58"/>
-      <c r="F130" s="102"/>
-      <c r="G130" s="103"/>
-      <c r="H130" s="104"/>
-      <c r="I130" s="104"/>
-      <c r="J130" s="106"/>
-      <c r="K130" s="106"/>
-      <c r="L130" s="106"/>
+      <c r="F130" s="148"/>
+      <c r="G130" s="149"/>
+      <c r="H130" s="120"/>
+      <c r="I130" s="120"/>
+      <c r="J130" s="105"/>
+      <c r="K130" s="105"/>
+      <c r="L130" s="105"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
       <c r="O130" s="18"/>
@@ -19693,21 +19695,21 @@
       <c r="C131" s="2"/>
       <c r="D131" s="46"/>
       <c r="E131" s="58"/>
-      <c r="F131" s="100" t="s">
+      <c r="F131" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="G131" s="101"/>
-      <c r="H131" s="104">
+      <c r="G131" s="147"/>
+      <c r="H131" s="120">
         <v>5</v>
       </c>
-      <c r="I131" s="104"/>
-      <c r="J131" s="105" t="s">
+      <c r="I131" s="120"/>
+      <c r="J131" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="K131" s="105" t="s">
+      <c r="K131" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="L131" s="105"/>
+      <c r="L131" s="104"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
       <c r="O131" s="18"/>
@@ -19826,13 +19828,13 @@
       <c r="C132" s="2"/>
       <c r="D132" s="46"/>
       <c r="E132" s="58"/>
-      <c r="F132" s="102"/>
-      <c r="G132" s="103"/>
-      <c r="H132" s="104"/>
-      <c r="I132" s="104"/>
-      <c r="J132" s="106"/>
-      <c r="K132" s="106"/>
-      <c r="L132" s="106"/>
+      <c r="F132" s="148"/>
+      <c r="G132" s="149"/>
+      <c r="H132" s="120"/>
+      <c r="I132" s="120"/>
+      <c r="J132" s="105"/>
+      <c r="K132" s="105"/>
+      <c r="L132" s="105"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
       <c r="O132" s="18"/>
@@ -19951,17 +19953,17 @@
       <c r="C133" s="2"/>
       <c r="D133" s="46"/>
       <c r="E133" s="58"/>
-      <c r="F133" s="100" t="s">
+      <c r="F133" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="G133" s="101"/>
-      <c r="H133" s="104"/>
-      <c r="I133" s="104"/>
-      <c r="J133" s="105"/>
-      <c r="K133" s="105" t="s">
+      <c r="G133" s="147"/>
+      <c r="H133" s="120"/>
+      <c r="I133" s="120"/>
+      <c r="J133" s="104"/>
+      <c r="K133" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="L133" s="106"/>
+      <c r="L133" s="105"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
       <c r="O133" s="18"/>
@@ -20080,13 +20082,13 @@
       <c r="C134" s="2"/>
       <c r="D134" s="46"/>
       <c r="E134" s="63"/>
-      <c r="F134" s="102"/>
-      <c r="G134" s="103"/>
-      <c r="H134" s="104"/>
-      <c r="I134" s="104"/>
-      <c r="J134" s="106"/>
-      <c r="K134" s="106"/>
-      <c r="L134" s="106"/>
+      <c r="F134" s="148"/>
+      <c r="G134" s="149"/>
+      <c r="H134" s="120"/>
+      <c r="I134" s="120"/>
+      <c r="J134" s="105"/>
+      <c r="K134" s="105"/>
+      <c r="L134" s="105"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
       <c r="O134" s="18"/>
@@ -20203,17 +20205,17 @@
       <c r="A135" s="19"/>
       <c r="B135" s="51"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="129" t="s">
+      <c r="D135" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="E135" s="130"/>
-      <c r="F135" s="130"/>
-      <c r="G135" s="130"/>
-      <c r="H135" s="110"/>
-      <c r="I135" s="112"/>
-      <c r="J135" s="110"/>
-      <c r="K135" s="110"/>
-      <c r="L135" s="112"/>
+      <c r="E135" s="111"/>
+      <c r="F135" s="111"/>
+      <c r="G135" s="111"/>
+      <c r="H135" s="102"/>
+      <c r="I135" s="101"/>
+      <c r="J135" s="102"/>
+      <c r="K135" s="102"/>
+      <c r="L135" s="101"/>
       <c r="M135" s="42"/>
       <c r="N135" s="43"/>
       <c r="O135" s="43"/>
@@ -20330,15 +20332,15 @@
       <c r="A136" s="19"/>
       <c r="B136" s="51"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="131"/>
-      <c r="E136" s="132"/>
-      <c r="F136" s="132"/>
-      <c r="G136" s="132"/>
-      <c r="H136" s="111"/>
-      <c r="I136" s="112"/>
-      <c r="J136" s="111"/>
-      <c r="K136" s="111"/>
-      <c r="L136" s="112"/>
+      <c r="D136" s="112"/>
+      <c r="E136" s="113"/>
+      <c r="F136" s="113"/>
+      <c r="G136" s="113"/>
+      <c r="H136" s="103"/>
+      <c r="I136" s="101"/>
+      <c r="J136" s="103"/>
+      <c r="K136" s="103"/>
+      <c r="L136" s="101"/>
       <c r="M136" s="44"/>
       <c r="N136" s="31"/>
       <c r="O136" s="31"/>
@@ -20456,16 +20458,16 @@
       <c r="B137" s="24"/>
       <c r="C137" s="2"/>
       <c r="D137" s="55"/>
-      <c r="E137" s="113" t="s">
+      <c r="E137" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F137" s="113"/>
-      <c r="G137" s="114"/>
-      <c r="H137" s="110"/>
-      <c r="I137" s="112"/>
-      <c r="J137" s="110"/>
-      <c r="K137" s="110"/>
-      <c r="L137" s="112"/>
+      <c r="F137" s="133"/>
+      <c r="G137" s="134"/>
+      <c r="H137" s="102"/>
+      <c r="I137" s="101"/>
+      <c r="J137" s="102"/>
+      <c r="K137" s="102"/>
+      <c r="L137" s="101"/>
       <c r="M137" s="42"/>
       <c r="N137" s="43"/>
       <c r="O137" s="43"/>
@@ -20583,14 +20585,14 @@
       <c r="B138" s="24"/>
       <c r="C138" s="2"/>
       <c r="D138" s="56"/>
-      <c r="E138" s="108"/>
-      <c r="F138" s="108"/>
-      <c r="G138" s="109"/>
-      <c r="H138" s="111"/>
-      <c r="I138" s="112"/>
-      <c r="J138" s="111"/>
-      <c r="K138" s="111"/>
-      <c r="L138" s="112"/>
+      <c r="E138" s="135"/>
+      <c r="F138" s="135"/>
+      <c r="G138" s="145"/>
+      <c r="H138" s="103"/>
+      <c r="I138" s="101"/>
+      <c r="J138" s="103"/>
+      <c r="K138" s="103"/>
+      <c r="L138" s="101"/>
       <c r="M138" s="44"/>
       <c r="N138" s="31"/>
       <c r="O138" s="31"/>
@@ -20709,19 +20711,19 @@
       <c r="C139" s="2"/>
       <c r="D139" s="46"/>
       <c r="E139" s="59"/>
-      <c r="F139" s="100" t="s">
+      <c r="F139" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="G139" s="101"/>
-      <c r="H139" s="104">
+      <c r="G139" s="147"/>
+      <c r="H139" s="120">
         <v>3</v>
       </c>
-      <c r="I139" s="104"/>
-      <c r="J139" s="105"/>
-      <c r="K139" s="105" t="s">
+      <c r="I139" s="120"/>
+      <c r="J139" s="104"/>
+      <c r="K139" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="L139" s="106"/>
+      <c r="L139" s="105"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
       <c r="O139" s="18"/>
@@ -20840,13 +20842,13 @@
       <c r="C140" s="2"/>
       <c r="D140" s="46"/>
       <c r="E140" s="60"/>
-      <c r="F140" s="102"/>
-      <c r="G140" s="103"/>
-      <c r="H140" s="104"/>
-      <c r="I140" s="104"/>
-      <c r="J140" s="106"/>
-      <c r="K140" s="106"/>
-      <c r="L140" s="106"/>
+      <c r="F140" s="148"/>
+      <c r="G140" s="149"/>
+      <c r="H140" s="120"/>
+      <c r="I140" s="120"/>
+      <c r="J140" s="105"/>
+      <c r="K140" s="105"/>
+      <c r="L140" s="105"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
       <c r="O140" s="18"/>
@@ -20965,21 +20967,21 @@
       <c r="C141" s="2"/>
       <c r="D141" s="46"/>
       <c r="E141" s="61"/>
-      <c r="F141" s="100" t="s">
+      <c r="F141" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="G141" s="101"/>
-      <c r="H141" s="104">
+      <c r="G141" s="147"/>
+      <c r="H141" s="120">
         <v>3</v>
       </c>
-      <c r="I141" s="104"/>
-      <c r="J141" s="105" t="s">
+      <c r="I141" s="120"/>
+      <c r="J141" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="K141" s="105" t="s">
+      <c r="K141" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="L141" s="106"/>
+      <c r="L141" s="105"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
       <c r="O141" s="18"/>
@@ -21098,13 +21100,13 @@
       <c r="C142" s="2"/>
       <c r="D142" s="46"/>
       <c r="E142" s="58"/>
-      <c r="F142" s="102"/>
-      <c r="G142" s="103"/>
-      <c r="H142" s="104"/>
-      <c r="I142" s="104"/>
-      <c r="J142" s="106"/>
-      <c r="K142" s="106"/>
-      <c r="L142" s="106"/>
+      <c r="F142" s="148"/>
+      <c r="G142" s="149"/>
+      <c r="H142" s="120"/>
+      <c r="I142" s="120"/>
+      <c r="J142" s="105"/>
+      <c r="K142" s="105"/>
+      <c r="L142" s="105"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
       <c r="O142" s="18"/>
@@ -21223,19 +21225,19 @@
       <c r="C143" s="2"/>
       <c r="D143" s="46"/>
       <c r="E143" s="58"/>
-      <c r="F143" s="100" t="s">
+      <c r="F143" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="G143" s="101"/>
-      <c r="H143" s="104">
+      <c r="G143" s="147"/>
+      <c r="H143" s="120">
         <v>2</v>
       </c>
-      <c r="I143" s="104"/>
-      <c r="J143" s="105"/>
-      <c r="K143" s="105" t="s">
+      <c r="I143" s="120"/>
+      <c r="J143" s="104"/>
+      <c r="K143" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="L143" s="106"/>
+      <c r="L143" s="105"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
       <c r="O143" s="18"/>
@@ -21354,13 +21356,13 @@
       <c r="C144" s="2"/>
       <c r="D144" s="46"/>
       <c r="E144" s="58"/>
-      <c r="F144" s="102"/>
-      <c r="G144" s="103"/>
-      <c r="H144" s="104"/>
-      <c r="I144" s="104"/>
-      <c r="J144" s="106"/>
-      <c r="K144" s="106"/>
-      <c r="L144" s="106"/>
+      <c r="F144" s="148"/>
+      <c r="G144" s="149"/>
+      <c r="H144" s="120"/>
+      <c r="I144" s="120"/>
+      <c r="J144" s="105"/>
+      <c r="K144" s="105"/>
+      <c r="L144" s="105"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
       <c r="O144" s="18"/>
@@ -21479,21 +21481,21 @@
       <c r="C145" s="2"/>
       <c r="D145" s="46"/>
       <c r="E145" s="58"/>
-      <c r="F145" s="100" t="s">
+      <c r="F145" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="G145" s="101"/>
-      <c r="H145" s="104">
+      <c r="G145" s="147"/>
+      <c r="H145" s="120">
         <v>2.5</v>
       </c>
-      <c r="I145" s="104"/>
-      <c r="J145" s="105" t="s">
+      <c r="I145" s="120"/>
+      <c r="J145" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="K145" s="105" t="s">
+      <c r="K145" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="L145" s="106"/>
+      <c r="L145" s="105"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
       <c r="O145" s="18"/>
@@ -21612,13 +21614,13 @@
       <c r="C146" s="2"/>
       <c r="D146" s="46"/>
       <c r="E146" s="58"/>
-      <c r="F146" s="102"/>
-      <c r="G146" s="103"/>
-      <c r="H146" s="104"/>
-      <c r="I146" s="104"/>
-      <c r="J146" s="106"/>
-      <c r="K146" s="106"/>
-      <c r="L146" s="106"/>
+      <c r="F146" s="148"/>
+      <c r="G146" s="149"/>
+      <c r="H146" s="120"/>
+      <c r="I146" s="120"/>
+      <c r="J146" s="105"/>
+      <c r="K146" s="105"/>
+      <c r="L146" s="105"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
       <c r="O146" s="18"/>
@@ -21737,17 +21739,17 @@
       <c r="C147" s="2"/>
       <c r="D147" s="46"/>
       <c r="E147" s="58"/>
-      <c r="F147" s="100" t="s">
+      <c r="F147" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="G147" s="101"/>
-      <c r="H147" s="104"/>
-      <c r="I147" s="104"/>
-      <c r="J147" s="105"/>
-      <c r="K147" s="105" t="s">
+      <c r="G147" s="147"/>
+      <c r="H147" s="120"/>
+      <c r="I147" s="120"/>
+      <c r="J147" s="104"/>
+      <c r="K147" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="L147" s="106"/>
+      <c r="L147" s="105"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
       <c r="O147" s="18"/>
@@ -21866,13 +21868,13 @@
       <c r="C148" s="2"/>
       <c r="D148" s="46"/>
       <c r="E148" s="63"/>
-      <c r="F148" s="102"/>
-      <c r="G148" s="103"/>
-      <c r="H148" s="104"/>
-      <c r="I148" s="104"/>
-      <c r="J148" s="106"/>
-      <c r="K148" s="106"/>
-      <c r="L148" s="106"/>
+      <c r="F148" s="148"/>
+      <c r="G148" s="149"/>
+      <c r="H148" s="120"/>
+      <c r="I148" s="120"/>
+      <c r="J148" s="105"/>
+      <c r="K148" s="105"/>
+      <c r="L148" s="105"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
       <c r="O148" s="18"/>
@@ -21990,16 +21992,16 @@
       <c r="B149" s="24"/>
       <c r="C149" s="2"/>
       <c r="D149" s="46"/>
-      <c r="E149" s="107" t="s">
+      <c r="E149" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="F149" s="108"/>
-      <c r="G149" s="109"/>
-      <c r="H149" s="110"/>
-      <c r="I149" s="112"/>
-      <c r="J149" s="112"/>
-      <c r="K149" s="112"/>
-      <c r="L149" s="112"/>
+      <c r="F149" s="135"/>
+      <c r="G149" s="145"/>
+      <c r="H149" s="102"/>
+      <c r="I149" s="101"/>
+      <c r="J149" s="101"/>
+      <c r="K149" s="101"/>
+      <c r="L149" s="101"/>
       <c r="M149" s="43"/>
       <c r="N149" s="43"/>
       <c r="O149" s="43"/>
@@ -22117,14 +22119,14 @@
       <c r="B150" s="24"/>
       <c r="C150" s="2"/>
       <c r="D150" s="46"/>
-      <c r="E150" s="107"/>
-      <c r="F150" s="108"/>
-      <c r="G150" s="109"/>
-      <c r="H150" s="111"/>
-      <c r="I150" s="112"/>
-      <c r="J150" s="112"/>
-      <c r="K150" s="112"/>
-      <c r="L150" s="112"/>
+      <c r="E150" s="144"/>
+      <c r="F150" s="135"/>
+      <c r="G150" s="145"/>
+      <c r="H150" s="103"/>
+      <c r="I150" s="101"/>
+      <c r="J150" s="101"/>
+      <c r="K150" s="101"/>
+      <c r="L150" s="101"/>
       <c r="M150" s="31"/>
       <c r="N150" s="31"/>
       <c r="O150" s="31"/>
@@ -22243,19 +22245,19 @@
       <c r="C151" s="2"/>
       <c r="D151" s="46"/>
       <c r="E151" s="59"/>
-      <c r="F151" s="100" t="s">
+      <c r="F151" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="G151" s="101"/>
-      <c r="H151" s="104">
+      <c r="G151" s="147"/>
+      <c r="H151" s="120">
         <v>4</v>
       </c>
-      <c r="I151" s="104"/>
-      <c r="J151" s="105"/>
-      <c r="K151" s="105" t="s">
+      <c r="I151" s="120"/>
+      <c r="J151" s="104"/>
+      <c r="K151" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="L151" s="106"/>
+      <c r="L151" s="105"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
       <c r="O151" s="18"/>
@@ -22374,13 +22376,13 @@
       <c r="C152" s="2"/>
       <c r="D152" s="46"/>
       <c r="E152" s="60"/>
-      <c r="F152" s="102"/>
-      <c r="G152" s="103"/>
-      <c r="H152" s="104"/>
-      <c r="I152" s="104"/>
-      <c r="J152" s="106"/>
-      <c r="K152" s="106"/>
-      <c r="L152" s="106"/>
+      <c r="F152" s="148"/>
+      <c r="G152" s="149"/>
+      <c r="H152" s="120"/>
+      <c r="I152" s="120"/>
+      <c r="J152" s="105"/>
+      <c r="K152" s="105"/>
+      <c r="L152" s="105"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
       <c r="O152" s="18"/>
@@ -22499,21 +22501,21 @@
       <c r="C153" s="2"/>
       <c r="D153" s="46"/>
       <c r="E153" s="61"/>
-      <c r="F153" s="100" t="s">
+      <c r="F153" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="G153" s="101"/>
-      <c r="H153" s="104">
+      <c r="G153" s="147"/>
+      <c r="H153" s="120">
         <v>4</v>
       </c>
-      <c r="I153" s="104"/>
-      <c r="J153" s="105" t="s">
+      <c r="I153" s="120"/>
+      <c r="J153" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="K153" s="105" t="s">
+      <c r="K153" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="L153" s="106"/>
+      <c r="L153" s="105"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
       <c r="O153" s="18"/>
@@ -22632,13 +22634,13 @@
       <c r="C154" s="2"/>
       <c r="D154" s="46"/>
       <c r="E154" s="58"/>
-      <c r="F154" s="102"/>
-      <c r="G154" s="103"/>
-      <c r="H154" s="104"/>
-      <c r="I154" s="104"/>
-      <c r="J154" s="106"/>
-      <c r="K154" s="106"/>
-      <c r="L154" s="106"/>
+      <c r="F154" s="148"/>
+      <c r="G154" s="149"/>
+      <c r="H154" s="120"/>
+      <c r="I154" s="120"/>
+      <c r="J154" s="105"/>
+      <c r="K154" s="105"/>
+      <c r="L154" s="105"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
       <c r="O154" s="18"/>
@@ -22757,19 +22759,19 @@
       <c r="C155" s="2"/>
       <c r="D155" s="46"/>
       <c r="E155" s="58"/>
-      <c r="F155" s="100" t="s">
+      <c r="F155" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="G155" s="101"/>
-      <c r="H155" s="104">
+      <c r="G155" s="147"/>
+      <c r="H155" s="120">
         <v>3</v>
       </c>
-      <c r="I155" s="104"/>
-      <c r="J155" s="105"/>
-      <c r="K155" s="105" t="s">
+      <c r="I155" s="120"/>
+      <c r="J155" s="104"/>
+      <c r="K155" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="L155" s="106"/>
+      <c r="L155" s="105"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
       <c r="O155" s="18"/>
@@ -22888,13 +22890,13 @@
       <c r="C156" s="2"/>
       <c r="D156" s="46"/>
       <c r="E156" s="58"/>
-      <c r="F156" s="102"/>
-      <c r="G156" s="103"/>
-      <c r="H156" s="104"/>
-      <c r="I156" s="104"/>
-      <c r="J156" s="106"/>
-      <c r="K156" s="106"/>
-      <c r="L156" s="106"/>
+      <c r="F156" s="148"/>
+      <c r="G156" s="149"/>
+      <c r="H156" s="120"/>
+      <c r="I156" s="120"/>
+      <c r="J156" s="105"/>
+      <c r="K156" s="105"/>
+      <c r="L156" s="105"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
       <c r="O156" s="18"/>
@@ -23013,21 +23015,21 @@
       <c r="C157" s="2"/>
       <c r="D157" s="46"/>
       <c r="E157" s="58"/>
-      <c r="F157" s="100" t="s">
+      <c r="F157" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="G157" s="101"/>
-      <c r="H157" s="104">
+      <c r="G157" s="147"/>
+      <c r="H157" s="120">
         <v>4</v>
       </c>
-      <c r="I157" s="104"/>
-      <c r="J157" s="105" t="s">
+      <c r="I157" s="120"/>
+      <c r="J157" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="K157" s="105" t="s">
+      <c r="K157" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="L157" s="106"/>
+      <c r="L157" s="105"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
       <c r="O157" s="18"/>
@@ -23146,13 +23148,13 @@
       <c r="C158" s="2"/>
       <c r="D158" s="46"/>
       <c r="E158" s="58"/>
-      <c r="F158" s="102"/>
-      <c r="G158" s="103"/>
-      <c r="H158" s="104"/>
-      <c r="I158" s="104"/>
-      <c r="J158" s="106"/>
-      <c r="K158" s="106"/>
-      <c r="L158" s="106"/>
+      <c r="F158" s="148"/>
+      <c r="G158" s="149"/>
+      <c r="H158" s="120"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="105"/>
+      <c r="K158" s="105"/>
+      <c r="L158" s="105"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
       <c r="O158" s="18"/>
@@ -23271,17 +23273,17 @@
       <c r="C159" s="2"/>
       <c r="D159" s="46"/>
       <c r="E159" s="58"/>
-      <c r="F159" s="100" t="s">
+      <c r="F159" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="G159" s="101"/>
-      <c r="H159" s="104"/>
-      <c r="I159" s="104"/>
-      <c r="J159" s="105"/>
-      <c r="K159" s="105" t="s">
+      <c r="G159" s="147"/>
+      <c r="H159" s="120"/>
+      <c r="I159" s="120"/>
+      <c r="J159" s="104"/>
+      <c r="K159" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="L159" s="106"/>
+      <c r="L159" s="105"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
       <c r="O159" s="18"/>
@@ -23400,13 +23402,13 @@
       <c r="C160" s="2"/>
       <c r="D160" s="46"/>
       <c r="E160" s="63"/>
-      <c r="F160" s="102"/>
-      <c r="G160" s="103"/>
-      <c r="H160" s="104"/>
-      <c r="I160" s="104"/>
-      <c r="J160" s="106"/>
-      <c r="K160" s="106"/>
-      <c r="L160" s="106"/>
+      <c r="F160" s="148"/>
+      <c r="G160" s="149"/>
+      <c r="H160" s="120"/>
+      <c r="I160" s="120"/>
+      <c r="J160" s="105"/>
+      <c r="K160" s="105"/>
+      <c r="L160" s="105"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
       <c r="O160" s="18"/>
@@ -23522,18 +23524,18 @@
     <row r="161" spans="1:123" ht="9.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="24"/>
-      <c r="C161" s="136" t="s">
+      <c r="C161" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="D161" s="130"/>
-      <c r="E161" s="137"/>
-      <c r="F161" s="137"/>
-      <c r="G161" s="137"/>
-      <c r="H161" s="110"/>
-      <c r="I161" s="112"/>
-      <c r="J161" s="112"/>
-      <c r="K161" s="112"/>
-      <c r="L161" s="112"/>
+      <c r="D161" s="111"/>
+      <c r="E161" s="116"/>
+      <c r="F161" s="116"/>
+      <c r="G161" s="116"/>
+      <c r="H161" s="102"/>
+      <c r="I161" s="101"/>
+      <c r="J161" s="101"/>
+      <c r="K161" s="101"/>
+      <c r="L161" s="101"/>
       <c r="M161" s="43"/>
       <c r="N161" s="43"/>
       <c r="O161" s="43"/>
@@ -23649,16 +23651,16 @@
     <row r="162" spans="1:123" ht="9.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="24"/>
-      <c r="C162" s="132"/>
-      <c r="D162" s="132"/>
-      <c r="E162" s="132"/>
-      <c r="F162" s="132"/>
-      <c r="G162" s="132"/>
-      <c r="H162" s="111"/>
-      <c r="I162" s="112"/>
-      <c r="J162" s="112"/>
-      <c r="K162" s="112"/>
-      <c r="L162" s="112"/>
+      <c r="C162" s="113"/>
+      <c r="D162" s="113"/>
+      <c r="E162" s="113"/>
+      <c r="F162" s="113"/>
+      <c r="G162" s="113"/>
+      <c r="H162" s="103"/>
+      <c r="I162" s="101"/>
+      <c r="J162" s="101"/>
+      <c r="K162" s="101"/>
+      <c r="L162" s="101"/>
       <c r="M162" s="31"/>
       <c r="N162" s="31"/>
       <c r="O162" s="31"/>
@@ -23773,19 +23775,19 @@
     </row>
     <row r="163" spans="1:123" ht="9.75" customHeight="1">
       <c r="A163" s="2"/>
-      <c r="B163" s="138" t="s">
+      <c r="B163" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C163" s="130"/>
-      <c r="D163" s="130"/>
-      <c r="E163" s="130"/>
-      <c r="F163" s="130"/>
-      <c r="G163" s="139"/>
-      <c r="H163" s="110"/>
-      <c r="I163" s="112"/>
-      <c r="J163" s="112"/>
-      <c r="K163" s="112"/>
-      <c r="L163" s="112"/>
+      <c r="C163" s="111"/>
+      <c r="D163" s="111"/>
+      <c r="E163" s="111"/>
+      <c r="F163" s="111"/>
+      <c r="G163" s="122"/>
+      <c r="H163" s="102"/>
+      <c r="I163" s="101"/>
+      <c r="J163" s="101"/>
+      <c r="K163" s="101"/>
+      <c r="L163" s="101"/>
       <c r="M163" s="43"/>
       <c r="N163" s="43"/>
       <c r="O163" s="43"/>
@@ -23900,17 +23902,17 @@
     </row>
     <row r="164" spans="1:123" ht="9.75" customHeight="1">
       <c r="A164" s="2"/>
-      <c r="B164" s="131"/>
-      <c r="C164" s="132"/>
-      <c r="D164" s="132"/>
-      <c r="E164" s="132"/>
-      <c r="F164" s="132"/>
-      <c r="G164" s="140"/>
-      <c r="H164" s="111"/>
-      <c r="I164" s="112"/>
-      <c r="J164" s="112"/>
-      <c r="K164" s="112"/>
-      <c r="L164" s="112"/>
+      <c r="B164" s="112"/>
+      <c r="C164" s="113"/>
+      <c r="D164" s="113"/>
+      <c r="E164" s="113"/>
+      <c r="F164" s="113"/>
+      <c r="G164" s="123"/>
+      <c r="H164" s="103"/>
+      <c r="I164" s="101"/>
+      <c r="J164" s="101"/>
+      <c r="K164" s="101"/>
+      <c r="L164" s="101"/>
       <c r="M164" s="31"/>
       <c r="N164" s="31"/>
       <c r="O164" s="31"/>
@@ -24026,18 +24028,18 @@
     <row r="165" spans="1:123" ht="9.75" customHeight="1">
       <c r="A165" s="19"/>
       <c r="B165" s="24"/>
-      <c r="C165" s="133" t="s">
+      <c r="C165" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="D165" s="130"/>
-      <c r="E165" s="130"/>
-      <c r="F165" s="130"/>
-      <c r="G165" s="130"/>
-      <c r="H165" s="110"/>
-      <c r="I165" s="112"/>
-      <c r="J165" s="112"/>
-      <c r="K165" s="112"/>
-      <c r="L165" s="112"/>
+      <c r="D165" s="111"/>
+      <c r="E165" s="111"/>
+      <c r="F165" s="111"/>
+      <c r="G165" s="111"/>
+      <c r="H165" s="102"/>
+      <c r="I165" s="101"/>
+      <c r="J165" s="101"/>
+      <c r="K165" s="101"/>
+      <c r="L165" s="101"/>
       <c r="M165" s="43"/>
       <c r="N165" s="43"/>
       <c r="O165" s="43"/>
@@ -24153,16 +24155,16 @@
     <row r="166" spans="1:123" ht="9.75" customHeight="1">
       <c r="A166" s="19"/>
       <c r="B166" s="54"/>
-      <c r="C166" s="132"/>
-      <c r="D166" s="132"/>
-      <c r="E166" s="132"/>
-      <c r="F166" s="132"/>
-      <c r="G166" s="132"/>
-      <c r="H166" s="111"/>
-      <c r="I166" s="112"/>
-      <c r="J166" s="112"/>
-      <c r="K166" s="112"/>
-      <c r="L166" s="112"/>
+      <c r="C166" s="113"/>
+      <c r="D166" s="113"/>
+      <c r="E166" s="113"/>
+      <c r="F166" s="113"/>
+      <c r="G166" s="113"/>
+      <c r="H166" s="103"/>
+      <c r="I166" s="101"/>
+      <c r="J166" s="101"/>
+      <c r="K166" s="101"/>
+      <c r="L166" s="101"/>
       <c r="M166" s="31"/>
       <c r="N166" s="31"/>
       <c r="O166" s="31"/>
@@ -37585,318 +37587,156 @@
     </row>
   </sheetData>
   <mergeCells count="486">
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="M3:CM3"/>
-    <mergeCell ref="CN3:DR3"/>
-    <mergeCell ref="M4:AD4"/>
-    <mergeCell ref="AE4:BH4"/>
-    <mergeCell ref="BI4:CM4"/>
-    <mergeCell ref="CN4:DR4"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="C77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="E81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="E83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="F133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="F131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="F127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="F129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="F123:G124"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="F117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="F119:G120"/>
+    <mergeCell ref="E121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="E113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="E149:G150"/>
+    <mergeCell ref="F159:G160"/>
+    <mergeCell ref="F157:G158"/>
+    <mergeCell ref="F155:G156"/>
+    <mergeCell ref="F153:G154"/>
+    <mergeCell ref="F151:G152"/>
+    <mergeCell ref="F95:G96"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="E97:G98"/>
+    <mergeCell ref="F109:G110"/>
+    <mergeCell ref="F107:G108"/>
+    <mergeCell ref="F105:G106"/>
+    <mergeCell ref="F103:G104"/>
+    <mergeCell ref="F101:G102"/>
+    <mergeCell ref="F99:G100"/>
+    <mergeCell ref="F147:G148"/>
+    <mergeCell ref="F141:G142"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="F145:G146"/>
+    <mergeCell ref="F139:G140"/>
+    <mergeCell ref="D111:G112"/>
+    <mergeCell ref="F115:G116"/>
+    <mergeCell ref="D135:G136"/>
+    <mergeCell ref="E137:G138"/>
+    <mergeCell ref="C165:G166"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="C161:G162"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="L161:L162"/>
+    <mergeCell ref="B163:G164"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:L140"/>
     <mergeCell ref="H109:H110"/>
     <mergeCell ref="I109:I110"/>
     <mergeCell ref="K109:K110"/>
@@ -37921,156 +37761,318 @@
     <mergeCell ref="I111:I112"/>
     <mergeCell ref="K111:K112"/>
     <mergeCell ref="L111:L112"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="C165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="C161:G162"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="L161:L162"/>
-    <mergeCell ref="B163:G164"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="E149:G150"/>
-    <mergeCell ref="F159:G160"/>
-    <mergeCell ref="F157:G158"/>
-    <mergeCell ref="F155:G156"/>
-    <mergeCell ref="F153:G154"/>
-    <mergeCell ref="F151:G152"/>
-    <mergeCell ref="F95:G96"/>
-    <mergeCell ref="F93:G94"/>
-    <mergeCell ref="E97:G98"/>
-    <mergeCell ref="F109:G110"/>
-    <mergeCell ref="F107:G108"/>
-    <mergeCell ref="F105:G106"/>
-    <mergeCell ref="F103:G104"/>
-    <mergeCell ref="F101:G102"/>
-    <mergeCell ref="F99:G100"/>
-    <mergeCell ref="F147:G148"/>
-    <mergeCell ref="F141:G142"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="F145:G146"/>
-    <mergeCell ref="F139:G140"/>
-    <mergeCell ref="D111:G112"/>
-    <mergeCell ref="F115:G116"/>
-    <mergeCell ref="D135:G136"/>
-    <mergeCell ref="E137:G138"/>
-    <mergeCell ref="E113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="F117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="F119:G120"/>
-    <mergeCell ref="E121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="F123:G124"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="F127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="F129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="F133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="F131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="E83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="C77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M3:CM3"/>
+    <mergeCell ref="CN3:DR3"/>
+    <mergeCell ref="M4:AD4"/>
+    <mergeCell ref="AE4:BH4"/>
+    <mergeCell ref="BI4:CM4"/>
+    <mergeCell ref="CN4:DR4"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J151:J152"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="M7">
@@ -38316,7 +38318,7 @@
       <c r="A2" s="91">
         <v>1</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="100" t="s">
         <v>123</v>
       </c>
       <c r="C2" s="66" t="s">

--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\digital-ojt-development-cause-DroneInventorySystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E6E640-F2F0-4D39-A0BE-8D447573F747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3466CF-A6C0-4D28-9546-7B12C47F826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1854,119 +1854,6 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1979,7 +1866,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2000,12 +1932,80 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2546,7 +2546,7 @@
   <dimension ref="A1:DS276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12" ySplit="8" topLeftCell="M81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="8" topLeftCell="AB88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight"/>
@@ -2820,120 +2820,120 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="79"/>
-      <c r="M3" s="106">
+      <c r="M3" s="156">
         <v>2024</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="107"/>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="107"/>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="107"/>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="107"/>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107"/>
-      <c r="AY3" s="107"/>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107"/>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="107"/>
-      <c r="BF3" s="107"/>
-      <c r="BG3" s="107"/>
-      <c r="BH3" s="107"/>
-      <c r="BI3" s="107"/>
-      <c r="BJ3" s="107"/>
-      <c r="BK3" s="107"/>
-      <c r="BL3" s="107"/>
-      <c r="BM3" s="107"/>
-      <c r="BN3" s="107"/>
-      <c r="BO3" s="107"/>
-      <c r="BP3" s="107"/>
-      <c r="BQ3" s="107"/>
-      <c r="BR3" s="107"/>
-      <c r="BS3" s="107"/>
-      <c r="BT3" s="107"/>
-      <c r="BU3" s="107"/>
-      <c r="BV3" s="107"/>
-      <c r="BW3" s="107"/>
-      <c r="BX3" s="107"/>
-      <c r="BY3" s="107"/>
-      <c r="BZ3" s="107"/>
-      <c r="CA3" s="107"/>
-      <c r="CB3" s="107"/>
-      <c r="CC3" s="107"/>
-      <c r="CD3" s="107"/>
-      <c r="CE3" s="107"/>
-      <c r="CF3" s="107"/>
-      <c r="CG3" s="107"/>
-      <c r="CH3" s="107"/>
-      <c r="CI3" s="107"/>
-      <c r="CJ3" s="107"/>
-      <c r="CK3" s="107"/>
-      <c r="CL3" s="107"/>
-      <c r="CM3" s="108"/>
-      <c r="CN3" s="106">
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="157"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="157"/>
+      <c r="AK3" s="157"/>
+      <c r="AL3" s="157"/>
+      <c r="AM3" s="157"/>
+      <c r="AN3" s="157"/>
+      <c r="AO3" s="157"/>
+      <c r="AP3" s="157"/>
+      <c r="AQ3" s="157"/>
+      <c r="AR3" s="157"/>
+      <c r="AS3" s="157"/>
+      <c r="AT3" s="157"/>
+      <c r="AU3" s="157"/>
+      <c r="AV3" s="157"/>
+      <c r="AW3" s="157"/>
+      <c r="AX3" s="157"/>
+      <c r="AY3" s="157"/>
+      <c r="AZ3" s="157"/>
+      <c r="BA3" s="157"/>
+      <c r="BB3" s="157"/>
+      <c r="BC3" s="157"/>
+      <c r="BD3" s="157"/>
+      <c r="BE3" s="157"/>
+      <c r="BF3" s="157"/>
+      <c r="BG3" s="157"/>
+      <c r="BH3" s="157"/>
+      <c r="BI3" s="157"/>
+      <c r="BJ3" s="157"/>
+      <c r="BK3" s="157"/>
+      <c r="BL3" s="157"/>
+      <c r="BM3" s="157"/>
+      <c r="BN3" s="157"/>
+      <c r="BO3" s="157"/>
+      <c r="BP3" s="157"/>
+      <c r="BQ3" s="157"/>
+      <c r="BR3" s="157"/>
+      <c r="BS3" s="157"/>
+      <c r="BT3" s="157"/>
+      <c r="BU3" s="157"/>
+      <c r="BV3" s="157"/>
+      <c r="BW3" s="157"/>
+      <c r="BX3" s="157"/>
+      <c r="BY3" s="157"/>
+      <c r="BZ3" s="157"/>
+      <c r="CA3" s="157"/>
+      <c r="CB3" s="157"/>
+      <c r="CC3" s="157"/>
+      <c r="CD3" s="157"/>
+      <c r="CE3" s="157"/>
+      <c r="CF3" s="157"/>
+      <c r="CG3" s="157"/>
+      <c r="CH3" s="157"/>
+      <c r="CI3" s="157"/>
+      <c r="CJ3" s="157"/>
+      <c r="CK3" s="157"/>
+      <c r="CL3" s="157"/>
+      <c r="CM3" s="158"/>
+      <c r="CN3" s="156">
         <v>2025</v>
       </c>
-      <c r="CO3" s="107"/>
-      <c r="CP3" s="107"/>
-      <c r="CQ3" s="107"/>
-      <c r="CR3" s="107"/>
-      <c r="CS3" s="107"/>
-      <c r="CT3" s="107"/>
-      <c r="CU3" s="107"/>
-      <c r="CV3" s="107"/>
-      <c r="CW3" s="107"/>
-      <c r="CX3" s="107"/>
-      <c r="CY3" s="107"/>
-      <c r="CZ3" s="107"/>
-      <c r="DA3" s="107"/>
-      <c r="DB3" s="107"/>
-      <c r="DC3" s="107"/>
-      <c r="DD3" s="107"/>
-      <c r="DE3" s="107"/>
-      <c r="DF3" s="107"/>
-      <c r="DG3" s="107"/>
-      <c r="DH3" s="107"/>
-      <c r="DI3" s="107"/>
-      <c r="DJ3" s="107"/>
-      <c r="DK3" s="107"/>
-      <c r="DL3" s="107"/>
-      <c r="DM3" s="107"/>
-      <c r="DN3" s="107"/>
-      <c r="DO3" s="107"/>
-      <c r="DP3" s="107"/>
-      <c r="DQ3" s="107"/>
-      <c r="DR3" s="108"/>
+      <c r="CO3" s="157"/>
+      <c r="CP3" s="157"/>
+      <c r="CQ3" s="157"/>
+      <c r="CR3" s="157"/>
+      <c r="CS3" s="157"/>
+      <c r="CT3" s="157"/>
+      <c r="CU3" s="157"/>
+      <c r="CV3" s="157"/>
+      <c r="CW3" s="157"/>
+      <c r="CX3" s="157"/>
+      <c r="CY3" s="157"/>
+      <c r="CZ3" s="157"/>
+      <c r="DA3" s="157"/>
+      <c r="DB3" s="157"/>
+      <c r="DC3" s="157"/>
+      <c r="DD3" s="157"/>
+      <c r="DE3" s="157"/>
+      <c r="DF3" s="157"/>
+      <c r="DG3" s="157"/>
+      <c r="DH3" s="157"/>
+      <c r="DI3" s="157"/>
+      <c r="DJ3" s="157"/>
+      <c r="DK3" s="157"/>
+      <c r="DL3" s="157"/>
+      <c r="DM3" s="157"/>
+      <c r="DN3" s="157"/>
+      <c r="DO3" s="157"/>
+      <c r="DP3" s="157"/>
+      <c r="DQ3" s="157"/>
+      <c r="DR3" s="158"/>
       <c r="DS3" s="2"/>
     </row>
     <row r="4" spans="1:123" ht="18" customHeight="1">
@@ -2948,124 +2948,124 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="M4" s="106">
+      <c r="M4" s="156">
         <v>10</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="106">
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="156">
         <v>11</v>
       </c>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="107"/>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="107"/>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="107"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="107"/>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="106">
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="157"/>
+      <c r="AM4" s="157"/>
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="157"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="157"/>
+      <c r="AT4" s="157"/>
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="157"/>
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="157"/>
+      <c r="BA4" s="157"/>
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="157"/>
+      <c r="BH4" s="158"/>
+      <c r="BI4" s="156">
         <v>12</v>
       </c>
-      <c r="BJ4" s="107"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="107"/>
-      <c r="BM4" s="107"/>
-      <c r="BN4" s="107"/>
-      <c r="BO4" s="107"/>
-      <c r="BP4" s="107"/>
-      <c r="BQ4" s="107"/>
-      <c r="BR4" s="107"/>
-      <c r="BS4" s="107"/>
-      <c r="BT4" s="107"/>
-      <c r="BU4" s="107"/>
-      <c r="BV4" s="107"/>
-      <c r="BW4" s="107"/>
-      <c r="BX4" s="107"/>
-      <c r="BY4" s="107"/>
-      <c r="BZ4" s="107"/>
-      <c r="CA4" s="107"/>
-      <c r="CB4" s="107"/>
-      <c r="CC4" s="107"/>
-      <c r="CD4" s="107"/>
-      <c r="CE4" s="107"/>
-      <c r="CF4" s="107"/>
-      <c r="CG4" s="107"/>
-      <c r="CH4" s="107"/>
-      <c r="CI4" s="107"/>
-      <c r="CJ4" s="107"/>
-      <c r="CK4" s="107"/>
-      <c r="CL4" s="107"/>
-      <c r="CM4" s="108"/>
-      <c r="CN4" s="106">
+      <c r="BJ4" s="157"/>
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="157"/>
+      <c r="BO4" s="157"/>
+      <c r="BP4" s="157"/>
+      <c r="BQ4" s="157"/>
+      <c r="BR4" s="157"/>
+      <c r="BS4" s="157"/>
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="157"/>
+      <c r="BV4" s="157"/>
+      <c r="BW4" s="157"/>
+      <c r="BX4" s="157"/>
+      <c r="BY4" s="157"/>
+      <c r="BZ4" s="157"/>
+      <c r="CA4" s="157"/>
+      <c r="CB4" s="157"/>
+      <c r="CC4" s="157"/>
+      <c r="CD4" s="157"/>
+      <c r="CE4" s="157"/>
+      <c r="CF4" s="157"/>
+      <c r="CG4" s="157"/>
+      <c r="CH4" s="157"/>
+      <c r="CI4" s="157"/>
+      <c r="CJ4" s="157"/>
+      <c r="CK4" s="157"/>
+      <c r="CL4" s="157"/>
+      <c r="CM4" s="158"/>
+      <c r="CN4" s="156">
         <v>1</v>
       </c>
-      <c r="CO4" s="107"/>
-      <c r="CP4" s="107"/>
-      <c r="CQ4" s="107"/>
-      <c r="CR4" s="107"/>
-      <c r="CS4" s="107"/>
-      <c r="CT4" s="107"/>
-      <c r="CU4" s="107"/>
-      <c r="CV4" s="107"/>
-      <c r="CW4" s="107"/>
-      <c r="CX4" s="107"/>
-      <c r="CY4" s="107"/>
-      <c r="CZ4" s="107"/>
-      <c r="DA4" s="107"/>
-      <c r="DB4" s="107"/>
-      <c r="DC4" s="107"/>
-      <c r="DD4" s="107"/>
-      <c r="DE4" s="107"/>
-      <c r="DF4" s="107"/>
-      <c r="DG4" s="107"/>
-      <c r="DH4" s="107"/>
-      <c r="DI4" s="107"/>
-      <c r="DJ4" s="107"/>
-      <c r="DK4" s="107"/>
-      <c r="DL4" s="107"/>
-      <c r="DM4" s="107"/>
-      <c r="DN4" s="107"/>
-      <c r="DO4" s="107"/>
-      <c r="DP4" s="107"/>
-      <c r="DQ4" s="107"/>
-      <c r="DR4" s="108"/>
+      <c r="CO4" s="157"/>
+      <c r="CP4" s="157"/>
+      <c r="CQ4" s="157"/>
+      <c r="CR4" s="157"/>
+      <c r="CS4" s="157"/>
+      <c r="CT4" s="157"/>
+      <c r="CU4" s="157"/>
+      <c r="CV4" s="157"/>
+      <c r="CW4" s="157"/>
+      <c r="CX4" s="157"/>
+      <c r="CY4" s="157"/>
+      <c r="CZ4" s="157"/>
+      <c r="DA4" s="157"/>
+      <c r="DB4" s="157"/>
+      <c r="DC4" s="157"/>
+      <c r="DD4" s="157"/>
+      <c r="DE4" s="157"/>
+      <c r="DF4" s="157"/>
+      <c r="DG4" s="157"/>
+      <c r="DH4" s="157"/>
+      <c r="DI4" s="157"/>
+      <c r="DJ4" s="157"/>
+      <c r="DK4" s="157"/>
+      <c r="DL4" s="157"/>
+      <c r="DM4" s="157"/>
+      <c r="DN4" s="157"/>
+      <c r="DO4" s="157"/>
+      <c r="DP4" s="157"/>
+      <c r="DQ4" s="157"/>
+      <c r="DR4" s="158"/>
       <c r="DS4" s="8"/>
     </row>
     <row r="5" spans="1:123" ht="18" customHeight="1">
@@ -3860,27 +3860,27 @@
     </row>
     <row r="7" spans="1:123" ht="9.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="114" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="109" t="s">
+      <c r="J7" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="109" t="s">
+      <c r="K7" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="109" t="s">
+      <c r="L7" s="154" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="15"/>
@@ -3997,17 +3997,17 @@
     </row>
     <row r="8" spans="1:123" ht="9.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
       <c r="M8" s="17"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -4123,18 +4123,18 @@
     <row r="9" spans="1:123" ht="9.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
@@ -4250,16 +4250,16 @@
     <row r="10" spans="1:123" ht="9.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -4375,18 +4375,18 @@
     <row r="11" spans="1:123" ht="9.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
@@ -4502,16 +4502,16 @@
     <row r="12" spans="1:123" ht="9.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
@@ -4628,21 +4628,21 @@
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="120">
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="105">
         <v>0.5</v>
       </c>
-      <c r="I13" s="121"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104" t="s">
+      <c r="I13" s="144"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="105">
+      <c r="L13" s="107">
         <v>100</v>
       </c>
       <c r="M13" s="17"/>
@@ -4761,15 +4761,15 @@
       <c r="A14" s="2"/>
       <c r="B14" s="24"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
       <c r="M14" s="17"/>
       <c r="O14" s="82"/>
       <c r="P14" s="18"/>
@@ -4885,21 +4885,21 @@
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="120">
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="105">
         <v>0.5</v>
       </c>
-      <c r="I15" s="121"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104" t="s">
+      <c r="I15" s="144"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="105">
+      <c r="L15" s="107">
         <v>100</v>
       </c>
       <c r="M15" s="32"/>
@@ -5018,15 +5018,15 @@
       <c r="A16" s="2"/>
       <c r="B16" s="24"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
       <c r="M16" s="32"/>
       <c r="O16" s="82"/>
       <c r="P16" s="18"/>
@@ -5142,21 +5142,21 @@
       <c r="A17" s="2"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="120">
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="105">
         <v>0.5</v>
       </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104" t="s">
+      <c r="I17" s="144"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="105">
+      <c r="L17" s="107">
         <v>100</v>
       </c>
       <c r="M17" s="32"/>
@@ -5275,15 +5275,15 @@
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
       <c r="M18" s="32"/>
       <c r="O18" s="82"/>
       <c r="P18" s="18"/>
@@ -5399,21 +5399,21 @@
       <c r="A19" s="2"/>
       <c r="B19" s="24"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="120">
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="105">
         <v>0.5</v>
       </c>
-      <c r="I19" s="121"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104" t="s">
+      <c r="I19" s="144"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="105">
+      <c r="L19" s="107">
         <v>100</v>
       </c>
       <c r="M19" s="32"/>
@@ -5532,15 +5532,15 @@
       <c r="A20" s="2"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
       <c r="M20" s="34"/>
       <c r="O20" s="87"/>
       <c r="P20" s="35"/>
@@ -5655,18 +5655,18 @@
     <row r="21" spans="1:123" ht="9.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
       <c r="M21" s="21"/>
       <c r="N21" s="36"/>
       <c r="O21" s="22"/>
@@ -5782,16 +5782,16 @@
     <row r="22" spans="1:123" ht="9.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
@@ -5908,21 +5908,21 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="124" t="s">
+      <c r="D23" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="120">
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="105">
         <v>2</v>
       </c>
-      <c r="I23" s="121"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104" t="s">
+      <c r="I23" s="144"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="105">
+      <c r="L23" s="107">
         <v>100</v>
       </c>
       <c r="M23" s="32"/>
@@ -6041,15 +6041,15 @@
       <c r="A24" s="2"/>
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
       <c r="M24" s="32"/>
       <c r="N24" s="18"/>
       <c r="P24" s="82"/>
@@ -6164,18 +6164,18 @@
     <row r="25" spans="1:123" ht="9.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
@@ -6291,16 +6291,16 @@
     <row r="26" spans="1:123" ht="9.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
       <c r="M26" s="25"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
@@ -6417,21 +6417,21 @@
       <c r="A27" s="2"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="120">
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="105">
         <v>1</v>
       </c>
-      <c r="I27" s="121"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104" t="s">
+      <c r="I27" s="144"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="105">
+      <c r="L27" s="107">
         <v>100</v>
       </c>
       <c r="M27" s="32"/>
@@ -6550,15 +6550,15 @@
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
       <c r="M28" s="32"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
@@ -6675,21 +6675,21 @@
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="120">
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="105">
         <v>1</v>
       </c>
-      <c r="I29" s="121"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104" t="s">
+      <c r="I29" s="144"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="105">
+      <c r="L29" s="107">
         <v>100</v>
       </c>
       <c r="M29" s="32"/>
@@ -6808,15 +6808,15 @@
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
       <c r="M30" s="34"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
@@ -6931,18 +6931,18 @@
     <row r="31" spans="1:123" ht="9.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="117" t="s">
+      <c r="C31" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
       <c r="M31" s="21"/>
       <c r="N31" s="36"/>
       <c r="O31" s="22"/>
@@ -7058,16 +7058,16 @@
     <row r="32" spans="1:123" ht="9.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
       <c r="M32" s="25"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
@@ -7184,17 +7184,17 @@
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="127" t="s">
+      <c r="D33" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
       <c r="M33" s="42"/>
       <c r="N33" s="43"/>
       <c r="O33" s="43"/>
@@ -7311,15 +7311,15 @@
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
       <c r="M34" s="44"/>
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
@@ -7437,20 +7437,20 @@
       <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="128" t="s">
+      <c r="E35" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="111"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="120">
+      <c r="F35" s="131"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="105">
         <v>1</v>
       </c>
-      <c r="I35" s="121"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104" t="s">
+      <c r="I35" s="144"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="105">
+      <c r="L35" s="107">
         <v>100</v>
       </c>
       <c r="M35" s="32"/>
@@ -7570,14 +7570,14 @@
       <c r="B36" s="24"/>
       <c r="C36" s="2"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
       <c r="M36" s="32"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -7695,18 +7695,18 @@
       <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="128" t="s">
+      <c r="E37" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="111"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104" t="s">
+      <c r="F37" s="131"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="105">
+      <c r="L37" s="107">
         <v>100</v>
       </c>
       <c r="M37" s="32"/>
@@ -7826,14 +7826,14 @@
       <c r="B38" s="24"/>
       <c r="C38" s="2"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
       <c r="M38" s="34"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
@@ -7950,17 +7950,17 @@
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="129" t="s">
+      <c r="D39" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
       <c r="M39" s="42"/>
       <c r="N39" s="43"/>
       <c r="O39" s="43"/>
@@ -8077,15 +8077,15 @@
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
       <c r="M40" s="44"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
@@ -8203,20 +8203,20 @@
       <c r="B41" s="24"/>
       <c r="C41" s="2"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="128" t="s">
+      <c r="E41" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="111"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="120">
+      <c r="F41" s="131"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="105">
         <v>1</v>
       </c>
-      <c r="I41" s="121"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104" t="s">
+      <c r="I41" s="144"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="L41" s="105">
+      <c r="L41" s="107">
         <v>100</v>
       </c>
       <c r="M41" s="32"/>
@@ -8336,14 +8336,14 @@
       <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
       <c r="M42" s="32"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
@@ -8460,20 +8460,20 @@
       <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="128" t="s">
+      <c r="E43" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="111"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="120">
+      <c r="F43" s="131"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="105">
         <v>4</v>
       </c>
-      <c r="I43" s="121"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104" t="s">
+      <c r="I43" s="144"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="L43" s="105">
+      <c r="L43" s="107">
         <v>100</v>
       </c>
       <c r="M43" s="32"/>
@@ -8593,14 +8593,14 @@
       <c r="B44" s="24"/>
       <c r="C44" s="2"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
       <c r="M44" s="32"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -8717,20 +8717,20 @@
       <c r="B45" s="24"/>
       <c r="C45" s="2"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="128" t="s">
+      <c r="E45" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="111"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="120">
+      <c r="F45" s="131"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="105">
         <v>0.5</v>
       </c>
-      <c r="I45" s="121"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104" t="s">
+      <c r="I45" s="144"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="105">
+      <c r="L45" s="107">
         <v>100</v>
       </c>
       <c r="M45" s="32"/>
@@ -8850,14 +8850,14 @@
       <c r="B46" s="24"/>
       <c r="C46" s="2"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
       <c r="M46" s="32"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -8975,20 +8975,20 @@
       <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="128" t="s">
+      <c r="E47" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="111"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="120">
+      <c r="F47" s="131"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="105">
         <v>4</v>
       </c>
-      <c r="I47" s="121"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104" t="s">
+      <c r="I47" s="144"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="L47" s="105">
+      <c r="L47" s="107">
         <v>100</v>
       </c>
       <c r="M47" s="32"/>
@@ -9108,14 +9108,14 @@
       <c r="B48" s="24"/>
       <c r="C48" s="2"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
       <c r="M48" s="32"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
@@ -9233,20 +9233,20 @@
       <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="128" t="s">
+      <c r="E49" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="111"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="120">
+      <c r="F49" s="131"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="105">
         <v>4</v>
       </c>
-      <c r="I49" s="121"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="104" t="s">
+      <c r="I49" s="144"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="105">
+      <c r="L49" s="107">
         <v>100</v>
       </c>
       <c r="M49" s="32"/>
@@ -9366,14 +9366,14 @@
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
       <c r="M50" s="32"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
@@ -9491,20 +9491,20 @@
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="128" t="s">
+      <c r="E51" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="111"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="120">
+      <c r="F51" s="131"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="105">
         <v>0.5</v>
       </c>
-      <c r="I51" s="121"/>
-      <c r="J51" s="104"/>
-      <c r="K51" s="104" t="s">
+      <c r="I51" s="144"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="L51" s="105">
+      <c r="L51" s="107">
         <v>100</v>
       </c>
       <c r="M51" s="32"/>
@@ -9624,14 +9624,14 @@
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="107"/>
       <c r="M52" s="34"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
@@ -9748,17 +9748,17 @@
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="127" t="s">
+      <c r="D53" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="101"/>
-      <c r="L53" s="101"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
       <c r="M53" s="42"/>
       <c r="N53" s="43"/>
       <c r="O53" s="43"/>
@@ -9875,15 +9875,15 @@
       <c r="A54" s="2"/>
       <c r="B54" s="24"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="113"/>
       <c r="M54" s="44"/>
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
@@ -10001,20 +10001,20 @@
       <c r="B55" s="24"/>
       <c r="C55" s="2"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="128" t="s">
+      <c r="E55" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="111"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="120">
+      <c r="F55" s="131"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="105">
         <v>4</v>
       </c>
-      <c r="I55" s="121"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104" t="s">
+      <c r="I55" s="144"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="L55" s="105">
+      <c r="L55" s="107">
         <v>100</v>
       </c>
       <c r="M55" s="32"/>
@@ -10133,14 +10133,14 @@
       <c r="B56" s="24"/>
       <c r="C56" s="2"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="107"/>
+      <c r="L56" s="107"/>
       <c r="M56" s="32"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
@@ -10258,20 +10258,20 @@
       <c r="B57" s="24"/>
       <c r="C57" s="2"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="128" t="s">
+      <c r="E57" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="111"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="120">
+      <c r="F57" s="131"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="105">
         <v>4</v>
       </c>
-      <c r="I57" s="121"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104" t="s">
+      <c r="I57" s="144"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="105">
+      <c r="L57" s="107">
         <v>100</v>
       </c>
       <c r="M57" s="32"/>
@@ -10391,14 +10391,14 @@
       <c r="B58" s="24"/>
       <c r="C58" s="2"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="123"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="141"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="107"/>
+      <c r="L58" s="107"/>
       <c r="M58" s="32"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
@@ -10516,20 +10516,20 @@
       <c r="B59" s="24"/>
       <c r="C59" s="2"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="128" t="s">
+      <c r="E59" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="111"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="120">
+      <c r="F59" s="131"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="105">
         <v>4</v>
       </c>
-      <c r="I59" s="121"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="104" t="s">
+      <c r="I59" s="144"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="105">
+      <c r="L59" s="107">
         <v>100</v>
       </c>
       <c r="M59" s="32"/>
@@ -10649,14 +10649,14 @@
       <c r="B60" s="24"/>
       <c r="C60" s="2"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="123"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="141"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="107"/>
       <c r="M60" s="32"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
@@ -10774,20 +10774,20 @@
       <c r="B61" s="24"/>
       <c r="C61" s="2"/>
       <c r="D61" s="46"/>
-      <c r="E61" s="128" t="s">
+      <c r="E61" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="111"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="120">
+      <c r="F61" s="131"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="105">
         <v>0.5</v>
       </c>
-      <c r="I61" s="121"/>
-      <c r="J61" s="104"/>
-      <c r="K61" s="104" t="s">
+      <c r="I61" s="144"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="L61" s="105">
+      <c r="L61" s="107">
         <v>100</v>
       </c>
       <c r="M61" s="32"/>
@@ -10907,14 +10907,14 @@
       <c r="B62" s="24"/>
       <c r="C62" s="2"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="121"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="107"/>
       <c r="M62" s="34"/>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
@@ -11031,17 +11031,17 @@
       <c r="A63" s="2"/>
       <c r="B63" s="24"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="127" t="s">
+      <c r="D63" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="111"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="102"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="102"/>
-      <c r="K63" s="102"/>
-      <c r="L63" s="101"/>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="111"/>
+      <c r="I63" s="111"/>
+      <c r="J63" s="111"/>
+      <c r="K63" s="111"/>
+      <c r="L63" s="113"/>
       <c r="M63" s="42"/>
       <c r="N63" s="43"/>
       <c r="O63" s="43"/>
@@ -11158,15 +11158,15 @@
       <c r="A64" s="2"/>
       <c r="B64" s="24"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="101"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="112"/>
+      <c r="I64" s="112"/>
+      <c r="J64" s="112"/>
+      <c r="K64" s="112"/>
+      <c r="L64" s="113"/>
       <c r="M64" s="44"/>
       <c r="N64" s="31"/>
       <c r="O64" s="31"/>
@@ -11284,18 +11284,18 @@
       <c r="B65" s="24"/>
       <c r="C65" s="2"/>
       <c r="D65" s="46"/>
-      <c r="E65" s="128" t="s">
+      <c r="E65" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="111"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="120"/>
-      <c r="I65" s="120"/>
-      <c r="J65" s="104"/>
-      <c r="K65" s="104" t="s">
+      <c r="F65" s="131"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="L65" s="105">
+      <c r="L65" s="107">
         <v>100</v>
       </c>
       <c r="M65" s="32"/>
@@ -11415,14 +11415,14 @@
       <c r="B66" s="24"/>
       <c r="C66" s="2"/>
       <c r="D66" s="46"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="105"/>
-      <c r="K66" s="105"/>
-      <c r="L66" s="105"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="133"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="107"/>
+      <c r="L66" s="107"/>
       <c r="M66" s="32"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
@@ -11540,18 +11540,18 @@
       <c r="B67" s="24"/>
       <c r="C67" s="2"/>
       <c r="D67" s="46"/>
-      <c r="E67" s="128" t="s">
+      <c r="E67" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="111"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104" t="s">
+      <c r="F67" s="131"/>
+      <c r="G67" s="140"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="106"/>
+      <c r="K67" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="L67" s="105">
+      <c r="L67" s="107">
         <v>100</v>
       </c>
       <c r="M67" s="32"/>
@@ -11669,14 +11669,14 @@
       <c r="B68" s="24"/>
       <c r="C68" s="2"/>
       <c r="D68" s="46"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="105"/>
-      <c r="K68" s="105"/>
-      <c r="L68" s="105"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="133"/>
+      <c r="G68" s="141"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
       <c r="M68" s="32"/>
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
@@ -11794,18 +11794,18 @@
       <c r="B69" s="24"/>
       <c r="C69" s="2"/>
       <c r="D69" s="46"/>
-      <c r="E69" s="128" t="s">
+      <c r="E69" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="111"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="104"/>
-      <c r="K69" s="104" t="s">
+      <c r="F69" s="131"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="106"/>
+      <c r="K69" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="L69" s="105">
+      <c r="L69" s="107">
         <v>100</v>
       </c>
       <c r="M69" s="32"/>
@@ -11925,14 +11925,14 @@
       <c r="B70" s="24"/>
       <c r="C70" s="2"/>
       <c r="D70" s="46"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="123"/>
-      <c r="H70" s="120"/>
-      <c r="I70" s="120"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="105"/>
+      <c r="E70" s="132"/>
+      <c r="F70" s="133"/>
+      <c r="G70" s="141"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="107"/>
+      <c r="L70" s="107"/>
       <c r="M70" s="32"/>
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
@@ -12050,18 +12050,18 @@
       <c r="B71" s="24"/>
       <c r="C71" s="2"/>
       <c r="D71" s="46"/>
-      <c r="E71" s="128" t="s">
+      <c r="E71" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="111"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="120"/>
-      <c r="I71" s="120"/>
-      <c r="J71" s="104"/>
-      <c r="K71" s="104" t="s">
+      <c r="F71" s="131"/>
+      <c r="G71" s="140"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="106"/>
+      <c r="K71" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="L71" s="105">
+      <c r="L71" s="107">
         <v>100</v>
       </c>
       <c r="M71" s="32"/>
@@ -12181,14 +12181,14 @@
       <c r="B72" s="24"/>
       <c r="C72" s="2"/>
       <c r="D72" s="46"/>
-      <c r="E72" s="112"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="123"/>
-      <c r="H72" s="120"/>
-      <c r="I72" s="120"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="105"/>
-      <c r="L72" s="105"/>
+      <c r="E72" s="132"/>
+      <c r="F72" s="133"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="107"/>
+      <c r="K72" s="107"/>
+      <c r="L72" s="107"/>
       <c r="M72" s="32"/>
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
@@ -12306,18 +12306,18 @@
       <c r="B73" s="24"/>
       <c r="C73" s="2"/>
       <c r="D73" s="46"/>
-      <c r="E73" s="128" t="s">
+      <c r="E73" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="111"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="120"/>
-      <c r="I73" s="120"/>
-      <c r="J73" s="104"/>
-      <c r="K73" s="104" t="s">
+      <c r="F73" s="131"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="105"/>
+      <c r="J73" s="106"/>
+      <c r="K73" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="L73" s="105">
+      <c r="L73" s="107">
         <v>100</v>
       </c>
       <c r="M73" s="32"/>
@@ -12437,14 +12437,14 @@
       <c r="B74" s="24"/>
       <c r="C74" s="2"/>
       <c r="D74" s="47"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="123"/>
-      <c r="H74" s="120"/>
-      <c r="I74" s="120"/>
-      <c r="J74" s="105"/>
-      <c r="K74" s="105"/>
-      <c r="L74" s="105"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="133"/>
+      <c r="G74" s="141"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="107"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="107"/>
       <c r="M74" s="34"/>
       <c r="N74" s="35"/>
       <c r="O74" s="35"/>
@@ -12560,18 +12560,18 @@
     <row r="75" spans="1:123" ht="9.75" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="51"/>
-      <c r="C75" s="130" t="s">
+      <c r="C75" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="111"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="111"/>
-      <c r="G75" s="111"/>
-      <c r="H75" s="102"/>
-      <c r="I75" s="102"/>
-      <c r="J75" s="102"/>
-      <c r="K75" s="102"/>
-      <c r="L75" s="101"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="131"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="111"/>
+      <c r="J75" s="111"/>
+      <c r="K75" s="111"/>
+      <c r="L75" s="113"/>
       <c r="M75" s="42"/>
       <c r="N75" s="43"/>
       <c r="O75" s="43"/>
@@ -12687,16 +12687,16 @@
     <row r="76" spans="1:123" ht="9.75" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="51"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="113"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
-      <c r="L76" s="101"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="133"/>
+      <c r="F76" s="133"/>
+      <c r="G76" s="133"/>
+      <c r="H76" s="112"/>
+      <c r="I76" s="112"/>
+      <c r="J76" s="112"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="113"/>
       <c r="M76" s="44"/>
       <c r="N76" s="31"/>
       <c r="O76" s="31"/>
@@ -12812,18 +12812,18 @@
     <row r="77" spans="1:123" ht="9.75" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="51"/>
-      <c r="C77" s="130" t="s">
+      <c r="C77" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="111"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="111"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="102"/>
-      <c r="I77" s="102"/>
-      <c r="J77" s="102"/>
-      <c r="K77" s="102"/>
-      <c r="L77" s="101"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="131"/>
+      <c r="G77" s="131"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="113"/>
       <c r="M77" s="42"/>
       <c r="N77" s="43"/>
       <c r="O77" s="43"/>
@@ -12939,16 +12939,16 @@
     <row r="78" spans="1:123" ht="9.75" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="113"/>
-      <c r="E78" s="113"/>
-      <c r="F78" s="113"/>
-      <c r="G78" s="113"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="101"/>
+      <c r="C78" s="133"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="112"/>
+      <c r="I78" s="112"/>
+      <c r="J78" s="112"/>
+      <c r="K78" s="112"/>
+      <c r="L78" s="113"/>
       <c r="M78" s="44"/>
       <c r="N78" s="31"/>
       <c r="O78" s="31"/>
@@ -13065,17 +13065,17 @@
       <c r="A79" s="2"/>
       <c r="B79" s="24"/>
       <c r="C79" s="41"/>
-      <c r="D79" s="127" t="s">
+      <c r="D79" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="111"/>
-      <c r="F79" s="111"/>
-      <c r="G79" s="111"/>
-      <c r="H79" s="101"/>
-      <c r="I79" s="101"/>
-      <c r="J79" s="101"/>
-      <c r="K79" s="101"/>
-      <c r="L79" s="101"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="131"/>
+      <c r="G79" s="131"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="113"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
       <c r="M79" s="42"/>
       <c r="N79" s="43"/>
       <c r="O79" s="43"/>
@@ -13192,15 +13192,15 @@
       <c r="A80" s="2"/>
       <c r="B80" s="24"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="113"/>
-      <c r="F80" s="113"/>
-      <c r="G80" s="113"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="101"/>
-      <c r="J80" s="101"/>
-      <c r="K80" s="101"/>
-      <c r="L80" s="101"/>
+      <c r="D80" s="132"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="133"/>
+      <c r="G80" s="133"/>
+      <c r="H80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="113"/>
+      <c r="K80" s="113"/>
+      <c r="L80" s="113"/>
       <c r="M80" s="44"/>
       <c r="N80" s="31"/>
       <c r="O80" s="31"/>
@@ -13318,18 +13318,18 @@
       <c r="B81" s="24"/>
       <c r="C81" s="2"/>
       <c r="D81" s="46"/>
-      <c r="E81" s="128" t="s">
+      <c r="E81" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="F81" s="111"/>
-      <c r="G81" s="122"/>
-      <c r="H81" s="120"/>
-      <c r="I81" s="120"/>
-      <c r="J81" s="104"/>
-      <c r="K81" s="104" t="s">
+      <c r="F81" s="131"/>
+      <c r="G81" s="140"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="106"/>
+      <c r="K81" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="L81" s="105"/>
+      <c r="L81" s="107"/>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
       <c r="O81" s="18"/>
@@ -13447,14 +13447,14 @@
       <c r="B82" s="24"/>
       <c r="C82" s="2"/>
       <c r="D82" s="46"/>
-      <c r="E82" s="112"/>
-      <c r="F82" s="113"/>
-      <c r="G82" s="123"/>
-      <c r="H82" s="120"/>
-      <c r="I82" s="120"/>
-      <c r="J82" s="105"/>
-      <c r="K82" s="105"/>
-      <c r="L82" s="105"/>
+      <c r="E82" s="132"/>
+      <c r="F82" s="133"/>
+      <c r="G82" s="141"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
+      <c r="J82" s="107"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="107"/>
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
       <c r="O82" s="18"/>
@@ -13572,18 +13572,18 @@
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
       <c r="D83" s="46"/>
-      <c r="E83" s="128" t="s">
+      <c r="E83" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="F83" s="111"/>
-      <c r="G83" s="122"/>
-      <c r="H83" s="120"/>
-      <c r="I83" s="120"/>
-      <c r="J83" s="104"/>
-      <c r="K83" s="104" t="s">
+      <c r="F83" s="131"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="106"/>
+      <c r="K83" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="L83" s="105"/>
+      <c r="L83" s="107"/>
       <c r="M83" s="18"/>
       <c r="N83" s="18"/>
       <c r="O83" s="18"/>
@@ -13701,14 +13701,14 @@
       <c r="B84" s="24"/>
       <c r="C84" s="2"/>
       <c r="D84" s="46"/>
-      <c r="E84" s="112"/>
-      <c r="F84" s="113"/>
-      <c r="G84" s="123"/>
-      <c r="H84" s="120"/>
-      <c r="I84" s="120"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="105"/>
-      <c r="L84" s="105"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="133"/>
+      <c r="G84" s="141"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="107"/>
+      <c r="K84" s="107"/>
+      <c r="L84" s="107"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
       <c r="O84" s="18"/>
@@ -13826,18 +13826,18 @@
       <c r="B85" s="24"/>
       <c r="C85" s="2"/>
       <c r="D85" s="46"/>
-      <c r="E85" s="128" t="s">
+      <c r="E85" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="111"/>
-      <c r="G85" s="122"/>
-      <c r="H85" s="120"/>
-      <c r="I85" s="120"/>
-      <c r="J85" s="104"/>
-      <c r="K85" s="104" t="s">
+      <c r="F85" s="131"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="106"/>
+      <c r="K85" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="L85" s="105"/>
+      <c r="L85" s="107"/>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
       <c r="O85" s="18"/>
@@ -13955,14 +13955,14 @@
       <c r="B86" s="24"/>
       <c r="C86" s="2"/>
       <c r="D86" s="46"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="113"/>
-      <c r="G86" s="123"/>
-      <c r="H86" s="120"/>
-      <c r="I86" s="120"/>
-      <c r="J86" s="105"/>
-      <c r="K86" s="105"/>
-      <c r="L86" s="105"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="133"/>
+      <c r="G86" s="141"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="107"/>
+      <c r="L86" s="107"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
       <c r="O86" s="18"/>
@@ -14001,7 +14001,7 @@
       <c r="AV86" s="18"/>
       <c r="AW86" s="18"/>
       <c r="AX86" s="18"/>
-      <c r="AY86" s="18"/>
+      <c r="AY86" s="98"/>
       <c r="AZ86" s="18"/>
       <c r="BA86" s="18"/>
       <c r="BB86" s="18"/>
@@ -14079,17 +14079,17 @@
       <c r="A87" s="19"/>
       <c r="B87" s="51"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="127" t="s">
+      <c r="D87" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="E87" s="111"/>
-      <c r="F87" s="111"/>
-      <c r="G87" s="111"/>
-      <c r="H87" s="102"/>
-      <c r="I87" s="102"/>
-      <c r="J87" s="102"/>
-      <c r="K87" s="102"/>
-      <c r="L87" s="101"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="111"/>
+      <c r="I87" s="111"/>
+      <c r="J87" s="111"/>
+      <c r="K87" s="111"/>
+      <c r="L87" s="113"/>
       <c r="M87" s="42"/>
       <c r="N87" s="43"/>
       <c r="O87" s="43"/>
@@ -14206,15 +14206,15 @@
       <c r="A88" s="19"/>
       <c r="B88" s="51"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
-      <c r="G88" s="113"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="103"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="101"/>
+      <c r="D88" s="132"/>
+      <c r="E88" s="133"/>
+      <c r="F88" s="133"/>
+      <c r="G88" s="133"/>
+      <c r="H88" s="112"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="112"/>
+      <c r="K88" s="112"/>
+      <c r="L88" s="113"/>
       <c r="M88" s="44"/>
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
@@ -14332,16 +14332,16 @@
       <c r="B89" s="24"/>
       <c r="C89" s="2"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="133" t="s">
+      <c r="E89" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="133"/>
-      <c r="G89" s="134"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="102"/>
-      <c r="J89" s="102"/>
-      <c r="K89" s="102"/>
-      <c r="L89" s="101"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="115"/>
+      <c r="H89" s="111"/>
+      <c r="I89" s="111"/>
+      <c r="J89" s="111"/>
+      <c r="K89" s="111"/>
+      <c r="L89" s="113"/>
       <c r="M89" s="42"/>
       <c r="N89" s="43"/>
       <c r="O89" s="43"/>
@@ -14459,14 +14459,14 @@
       <c r="B90" s="24"/>
       <c r="C90" s="2"/>
       <c r="D90" s="56"/>
-      <c r="E90" s="135"/>
-      <c r="F90" s="136"/>
-      <c r="G90" s="137"/>
-      <c r="H90" s="103"/>
-      <c r="I90" s="103"/>
-      <c r="J90" s="103"/>
-      <c r="K90" s="103"/>
-      <c r="L90" s="101"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="135"/>
+      <c r="G90" s="136"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="113"/>
       <c r="M90" s="44"/>
       <c r="N90" s="31"/>
       <c r="O90" s="31"/>
@@ -14585,22 +14585,22 @@
       <c r="C91" s="2"/>
       <c r="D91" s="46"/>
       <c r="E91" s="59"/>
-      <c r="F91" s="138" t="s">
+      <c r="F91" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="139"/>
-      <c r="H91" s="120">
+      <c r="G91" s="117"/>
+      <c r="H91" s="105">
         <v>4</v>
       </c>
-      <c r="I91" s="120">
+      <c r="I91" s="105">
         <v>5</v>
       </c>
-      <c r="J91" s="104"/>
-      <c r="K91" s="104" t="s">
+      <c r="J91" s="106"/>
+      <c r="K91" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="L91" s="131">
-        <v>95</v>
+      <c r="L91" s="142">
+        <v>100</v>
       </c>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
@@ -14720,13 +14720,13 @@
       <c r="C92" s="2"/>
       <c r="D92" s="46"/>
       <c r="E92" s="60"/>
-      <c r="F92" s="140"/>
-      <c r="G92" s="141"/>
-      <c r="H92" s="120"/>
-      <c r="I92" s="120"/>
-      <c r="J92" s="105"/>
-      <c r="K92" s="105"/>
-      <c r="L92" s="132"/>
+      <c r="F92" s="119"/>
+      <c r="G92" s="120"/>
+      <c r="H92" s="105"/>
+      <c r="I92" s="105"/>
+      <c r="J92" s="107"/>
+      <c r="K92" s="107"/>
+      <c r="L92" s="143"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18"/>
       <c r="O92" s="18"/>
@@ -14845,21 +14845,21 @@
       <c r="C93" s="2"/>
       <c r="D93" s="46"/>
       <c r="E93" s="61"/>
-      <c r="F93" s="138" t="s">
+      <c r="F93" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="G93" s="139"/>
-      <c r="H93" s="120">
+      <c r="G93" s="117"/>
+      <c r="H93" s="105">
         <v>4</v>
       </c>
-      <c r="I93" s="120"/>
-      <c r="J93" s="104" t="s">
+      <c r="I93" s="105"/>
+      <c r="J93" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="K93" s="104" t="s">
+      <c r="K93" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="L93" s="105">
+      <c r="L93" s="107">
         <v>50</v>
       </c>
       <c r="M93" s="18"/>
@@ -14980,13 +14980,13 @@
       <c r="C94" s="2"/>
       <c r="D94" s="46"/>
       <c r="E94" s="60"/>
-      <c r="F94" s="140"/>
-      <c r="G94" s="141"/>
-      <c r="H94" s="120"/>
-      <c r="I94" s="120"/>
-      <c r="J94" s="105"/>
-      <c r="K94" s="105"/>
-      <c r="L94" s="105"/>
+      <c r="F94" s="119"/>
+      <c r="G94" s="120"/>
+      <c r="H94" s="105"/>
+      <c r="I94" s="105"/>
+      <c r="J94" s="107"/>
+      <c r="K94" s="107"/>
+      <c r="L94" s="107"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
       <c r="O94" s="18"/>
@@ -15026,7 +15026,7 @@
       <c r="AW94" s="18"/>
       <c r="AX94" s="18"/>
       <c r="AY94" s="98"/>
-      <c r="AZ94" s="18"/>
+      <c r="AZ94" s="82"/>
       <c r="BA94" s="18"/>
       <c r="BB94" s="18"/>
       <c r="BC94" s="18"/>
@@ -15105,17 +15105,17 @@
       <c r="C95" s="2"/>
       <c r="D95" s="46"/>
       <c r="E95" s="61"/>
-      <c r="F95" s="138" t="s">
+      <c r="F95" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="G95" s="139"/>
-      <c r="H95" s="120"/>
-      <c r="I95" s="120"/>
-      <c r="J95" s="104"/>
-      <c r="K95" s="104" t="s">
+      <c r="G95" s="117"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="105"/>
+      <c r="J95" s="106"/>
+      <c r="K95" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="L95" s="105"/>
+      <c r="L95" s="107"/>
       <c r="M95" s="18"/>
       <c r="N95" s="18"/>
       <c r="O95" s="18"/>
@@ -15234,13 +15234,13 @@
       <c r="C96" s="2"/>
       <c r="D96" s="46"/>
       <c r="E96" s="62"/>
-      <c r="F96" s="150"/>
-      <c r="G96" s="149"/>
-      <c r="H96" s="120"/>
-      <c r="I96" s="120"/>
-      <c r="J96" s="105"/>
-      <c r="K96" s="105"/>
-      <c r="L96" s="105"/>
+      <c r="F96" s="118"/>
+      <c r="G96" s="104"/>
+      <c r="H96" s="105"/>
+      <c r="I96" s="105"/>
+      <c r="J96" s="107"/>
+      <c r="K96" s="107"/>
+      <c r="L96" s="107"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
       <c r="O96" s="18"/>
@@ -15358,16 +15358,16 @@
       <c r="B97" s="24"/>
       <c r="C97" s="2"/>
       <c r="D97" s="46"/>
-      <c r="E97" s="151" t="s">
+      <c r="E97" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="F97" s="152"/>
-      <c r="G97" s="153"/>
-      <c r="H97" s="102"/>
-      <c r="I97" s="101"/>
-      <c r="J97" s="101"/>
-      <c r="K97" s="101"/>
-      <c r="L97" s="101"/>
+      <c r="F97" s="122"/>
+      <c r="G97" s="123"/>
+      <c r="H97" s="111"/>
+      <c r="I97" s="113"/>
+      <c r="J97" s="113"/>
+      <c r="K97" s="113"/>
+      <c r="L97" s="113"/>
       <c r="M97" s="43"/>
       <c r="N97" s="43"/>
       <c r="O97" s="43"/>
@@ -15485,14 +15485,14 @@
       <c r="B98" s="24"/>
       <c r="C98" s="2"/>
       <c r="D98" s="46"/>
-      <c r="E98" s="154"/>
-      <c r="F98" s="155"/>
-      <c r="G98" s="156"/>
-      <c r="H98" s="103"/>
-      <c r="I98" s="101"/>
-      <c r="J98" s="101"/>
-      <c r="K98" s="101"/>
-      <c r="L98" s="101"/>
+      <c r="E98" s="124"/>
+      <c r="F98" s="125"/>
+      <c r="G98" s="126"/>
+      <c r="H98" s="112"/>
+      <c r="I98" s="113"/>
+      <c r="J98" s="113"/>
+      <c r="K98" s="113"/>
+      <c r="L98" s="113"/>
       <c r="M98" s="31"/>
       <c r="N98" s="31"/>
       <c r="O98" s="31"/>
@@ -15611,19 +15611,19 @@
       <c r="C99" s="2"/>
       <c r="D99" s="46"/>
       <c r="E99" s="61"/>
-      <c r="F99" s="158" t="s">
+      <c r="F99" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="G99" s="147"/>
-      <c r="H99" s="120">
+      <c r="G99" s="102"/>
+      <c r="H99" s="105">
         <v>4</v>
       </c>
-      <c r="I99" s="120"/>
-      <c r="J99" s="104"/>
-      <c r="K99" s="104" t="s">
+      <c r="I99" s="105"/>
+      <c r="J99" s="106"/>
+      <c r="K99" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="L99" s="104"/>
+      <c r="L99" s="106"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
       <c r="O99" s="18"/>
@@ -15742,13 +15742,13 @@
       <c r="C100" s="2"/>
       <c r="D100" s="46"/>
       <c r="E100" s="60"/>
-      <c r="F100" s="157"/>
-      <c r="G100" s="141"/>
-      <c r="H100" s="120"/>
-      <c r="I100" s="120"/>
-      <c r="J100" s="105"/>
-      <c r="K100" s="105"/>
-      <c r="L100" s="105"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="120"/>
+      <c r="H100" s="105"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="107"/>
+      <c r="K100" s="107"/>
+      <c r="L100" s="107"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
       <c r="O100" s="18"/>
@@ -15867,19 +15867,19 @@
       <c r="C101" s="2"/>
       <c r="D101" s="46"/>
       <c r="E101" s="61"/>
-      <c r="F101" s="128" t="s">
+      <c r="F101" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="G101" s="139"/>
-      <c r="H101" s="120">
+      <c r="G101" s="117"/>
+      <c r="H101" s="105">
         <v>4</v>
       </c>
-      <c r="I101" s="120"/>
-      <c r="J101" s="104"/>
-      <c r="K101" s="104" t="s">
+      <c r="I101" s="105"/>
+      <c r="J101" s="106"/>
+      <c r="K101" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="L101" s="104"/>
+      <c r="L101" s="106"/>
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
       <c r="O101" s="18"/>
@@ -15998,13 +15998,13 @@
       <c r="C102" s="2"/>
       <c r="D102" s="46"/>
       <c r="E102" s="60"/>
-      <c r="F102" s="157"/>
-      <c r="G102" s="141"/>
-      <c r="H102" s="120"/>
-      <c r="I102" s="120"/>
-      <c r="J102" s="105"/>
-      <c r="K102" s="105"/>
-      <c r="L102" s="105"/>
+      <c r="F102" s="128"/>
+      <c r="G102" s="120"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="105"/>
+      <c r="J102" s="107"/>
+      <c r="K102" s="107"/>
+      <c r="L102" s="107"/>
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
       <c r="O102" s="18"/>
@@ -16123,19 +16123,19 @@
       <c r="C103" s="2"/>
       <c r="D103" s="46"/>
       <c r="E103" s="61"/>
-      <c r="F103" s="128" t="s">
+      <c r="F103" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="G103" s="139"/>
-      <c r="H103" s="120">
+      <c r="G103" s="117"/>
+      <c r="H103" s="105">
         <v>5</v>
       </c>
-      <c r="I103" s="120"/>
-      <c r="J103" s="104"/>
-      <c r="K103" s="104" t="s">
+      <c r="I103" s="105"/>
+      <c r="J103" s="106"/>
+      <c r="K103" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="L103" s="104"/>
+      <c r="L103" s="106"/>
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
       <c r="O103" s="18"/>
@@ -16254,13 +16254,13 @@
       <c r="C104" s="2"/>
       <c r="D104" s="46"/>
       <c r="E104" s="60"/>
-      <c r="F104" s="157"/>
-      <c r="G104" s="141"/>
-      <c r="H104" s="120"/>
-      <c r="I104" s="120"/>
-      <c r="J104" s="105"/>
-      <c r="K104" s="105"/>
-      <c r="L104" s="105"/>
+      <c r="F104" s="128"/>
+      <c r="G104" s="120"/>
+      <c r="H104" s="105"/>
+      <c r="I104" s="105"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
+      <c r="L104" s="107"/>
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
       <c r="O104" s="18"/>
@@ -16379,19 +16379,19 @@
       <c r="C105" s="2"/>
       <c r="D105" s="46"/>
       <c r="E105" s="61"/>
-      <c r="F105" s="128" t="s">
+      <c r="F105" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="139"/>
-      <c r="H105" s="120">
+      <c r="G105" s="117"/>
+      <c r="H105" s="105">
         <v>4</v>
       </c>
-      <c r="I105" s="120"/>
-      <c r="J105" s="104"/>
-      <c r="K105" s="104" t="s">
+      <c r="I105" s="105"/>
+      <c r="J105" s="106"/>
+      <c r="K105" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="L105" s="104"/>
+      <c r="L105" s="106"/>
       <c r="M105" s="18"/>
       <c r="N105" s="18"/>
       <c r="O105" s="18"/>
@@ -16510,13 +16510,13 @@
       <c r="C106" s="2"/>
       <c r="D106" s="46"/>
       <c r="E106" s="60"/>
-      <c r="F106" s="157"/>
-      <c r="G106" s="141"/>
-      <c r="H106" s="120"/>
-      <c r="I106" s="120"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
-      <c r="L106" s="105"/>
+      <c r="F106" s="128"/>
+      <c r="G106" s="120"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="107"/>
+      <c r="K106" s="107"/>
+      <c r="L106" s="107"/>
       <c r="M106" s="18"/>
       <c r="N106" s="18"/>
       <c r="O106" s="18"/>
@@ -16635,21 +16635,21 @@
       <c r="C107" s="2"/>
       <c r="D107" s="46"/>
       <c r="E107" s="61"/>
-      <c r="F107" s="128" t="s">
+      <c r="F107" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="G107" s="139"/>
-      <c r="H107" s="120">
+      <c r="G107" s="117"/>
+      <c r="H107" s="105">
         <v>4</v>
       </c>
-      <c r="I107" s="120"/>
-      <c r="J107" s="104" t="s">
+      <c r="I107" s="105"/>
+      <c r="J107" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="K107" s="104" t="s">
+      <c r="K107" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="L107" s="104"/>
+      <c r="L107" s="106"/>
       <c r="M107" s="18"/>
       <c r="N107" s="18"/>
       <c r="O107" s="18"/>
@@ -16768,13 +16768,13 @@
       <c r="C108" s="2"/>
       <c r="D108" s="46"/>
       <c r="E108" s="60"/>
-      <c r="F108" s="157"/>
-      <c r="G108" s="141"/>
-      <c r="H108" s="120"/>
-      <c r="I108" s="120"/>
-      <c r="J108" s="105"/>
-      <c r="K108" s="105"/>
-      <c r="L108" s="105"/>
+      <c r="F108" s="128"/>
+      <c r="G108" s="120"/>
+      <c r="H108" s="105"/>
+      <c r="I108" s="105"/>
+      <c r="J108" s="107"/>
+      <c r="K108" s="107"/>
+      <c r="L108" s="107"/>
       <c r="M108" s="18"/>
       <c r="N108" s="18"/>
       <c r="O108" s="18"/>
@@ -16893,17 +16893,17 @@
       <c r="C109" s="2"/>
       <c r="D109" s="46"/>
       <c r="E109" s="61"/>
-      <c r="F109" s="128" t="s">
+      <c r="F109" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="G109" s="139"/>
-      <c r="H109" s="120"/>
-      <c r="I109" s="120"/>
-      <c r="J109" s="104"/>
-      <c r="K109" s="104" t="s">
+      <c r="G109" s="117"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="106"/>
+      <c r="K109" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="L109" s="105"/>
+      <c r="L109" s="107"/>
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
       <c r="O109" s="18"/>
@@ -17022,13 +17022,13 @@
       <c r="C110" s="2"/>
       <c r="D110" s="46"/>
       <c r="E110" s="60"/>
-      <c r="F110" s="157"/>
-      <c r="G110" s="141"/>
-      <c r="H110" s="120"/>
-      <c r="I110" s="120"/>
-      <c r="J110" s="105"/>
-      <c r="K110" s="105"/>
-      <c r="L110" s="105"/>
+      <c r="F110" s="128"/>
+      <c r="G110" s="120"/>
+      <c r="H110" s="105"/>
+      <c r="I110" s="105"/>
+      <c r="J110" s="107"/>
+      <c r="K110" s="107"/>
+      <c r="L110" s="107"/>
       <c r="M110" s="18"/>
       <c r="N110" s="18"/>
       <c r="O110" s="18"/>
@@ -17145,17 +17145,17 @@
       <c r="A111" s="19"/>
       <c r="B111" s="51"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="127" t="s">
+      <c r="D111" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="E111" s="111"/>
-      <c r="F111" s="111"/>
-      <c r="G111" s="111"/>
-      <c r="H111" s="102"/>
-      <c r="I111" s="101"/>
-      <c r="J111" s="102"/>
-      <c r="K111" s="102"/>
-      <c r="L111" s="101"/>
+      <c r="E111" s="131"/>
+      <c r="F111" s="131"/>
+      <c r="G111" s="131"/>
+      <c r="H111" s="111"/>
+      <c r="I111" s="113"/>
+      <c r="J111" s="111"/>
+      <c r="K111" s="111"/>
+      <c r="L111" s="113"/>
       <c r="M111" s="42"/>
       <c r="N111" s="43"/>
       <c r="O111" s="43"/>
@@ -17272,15 +17272,15 @@
       <c r="A112" s="19"/>
       <c r="B112" s="51"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="112"/>
-      <c r="E112" s="113"/>
-      <c r="F112" s="113"/>
-      <c r="G112" s="113"/>
-      <c r="H112" s="103"/>
-      <c r="I112" s="101"/>
-      <c r="J112" s="103"/>
-      <c r="K112" s="103"/>
-      <c r="L112" s="101"/>
+      <c r="D112" s="132"/>
+      <c r="E112" s="133"/>
+      <c r="F112" s="133"/>
+      <c r="G112" s="133"/>
+      <c r="H112" s="112"/>
+      <c r="I112" s="113"/>
+      <c r="J112" s="112"/>
+      <c r="K112" s="112"/>
+      <c r="L112" s="113"/>
       <c r="M112" s="44"/>
       <c r="N112" s="31"/>
       <c r="O112" s="31"/>
@@ -17398,16 +17398,16 @@
       <c r="B113" s="24"/>
       <c r="C113" s="2"/>
       <c r="D113" s="55"/>
-      <c r="E113" s="133" t="s">
+      <c r="E113" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="F113" s="133"/>
-      <c r="G113" s="134"/>
-      <c r="H113" s="102"/>
-      <c r="I113" s="101"/>
-      <c r="J113" s="102"/>
-      <c r="K113" s="102"/>
-      <c r="L113" s="101"/>
+      <c r="F113" s="114"/>
+      <c r="G113" s="115"/>
+      <c r="H113" s="111"/>
+      <c r="I113" s="113"/>
+      <c r="J113" s="111"/>
+      <c r="K113" s="111"/>
+      <c r="L113" s="113"/>
       <c r="M113" s="42"/>
       <c r="N113" s="43"/>
       <c r="O113" s="43"/>
@@ -17525,14 +17525,14 @@
       <c r="B114" s="24"/>
       <c r="C114" s="2"/>
       <c r="D114" s="56"/>
-      <c r="E114" s="135"/>
-      <c r="F114" s="135"/>
-      <c r="G114" s="145"/>
-      <c r="H114" s="103"/>
-      <c r="I114" s="101"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="101"/>
+      <c r="E114" s="109"/>
+      <c r="F114" s="109"/>
+      <c r="G114" s="110"/>
+      <c r="H114" s="112"/>
+      <c r="I114" s="113"/>
+      <c r="J114" s="112"/>
+      <c r="K114" s="112"/>
+      <c r="L114" s="113"/>
       <c r="M114" s="44"/>
       <c r="N114" s="31"/>
       <c r="O114" s="31"/>
@@ -17651,19 +17651,19 @@
       <c r="C115" s="2"/>
       <c r="D115" s="46"/>
       <c r="E115" s="59"/>
-      <c r="F115" s="146" t="s">
+      <c r="F115" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="G115" s="147"/>
-      <c r="H115" s="120">
+      <c r="G115" s="102"/>
+      <c r="H115" s="105">
         <v>3</v>
       </c>
-      <c r="I115" s="120"/>
-      <c r="J115" s="104"/>
-      <c r="K115" s="104" t="s">
+      <c r="I115" s="105"/>
+      <c r="J115" s="106"/>
+      <c r="K115" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="L115" s="105"/>
+      <c r="L115" s="107"/>
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
       <c r="O115" s="18"/>
@@ -17782,13 +17782,13 @@
       <c r="C116" s="2"/>
       <c r="D116" s="46"/>
       <c r="E116" s="60"/>
-      <c r="F116" s="148"/>
-      <c r="G116" s="149"/>
-      <c r="H116" s="120"/>
-      <c r="I116" s="120"/>
-      <c r="J116" s="105"/>
-      <c r="K116" s="105"/>
-      <c r="L116" s="105"/>
+      <c r="F116" s="103"/>
+      <c r="G116" s="104"/>
+      <c r="H116" s="105"/>
+      <c r="I116" s="105"/>
+      <c r="J116" s="107"/>
+      <c r="K116" s="107"/>
+      <c r="L116" s="107"/>
       <c r="M116" s="18"/>
       <c r="N116" s="18"/>
       <c r="O116" s="18"/>
@@ -17907,21 +17907,21 @@
       <c r="C117" s="2"/>
       <c r="D117" s="46"/>
       <c r="E117" s="61"/>
-      <c r="F117" s="146" t="s">
+      <c r="F117" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="G117" s="147"/>
-      <c r="H117" s="120">
+      <c r="G117" s="102"/>
+      <c r="H117" s="105">
         <v>3</v>
       </c>
-      <c r="I117" s="120"/>
-      <c r="J117" s="104" t="s">
+      <c r="I117" s="105"/>
+      <c r="J117" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="K117" s="104" t="s">
+      <c r="K117" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="L117" s="105"/>
+      <c r="L117" s="107"/>
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
       <c r="O117" s="18"/>
@@ -18040,13 +18040,13 @@
       <c r="C118" s="2"/>
       <c r="D118" s="46"/>
       <c r="E118" s="58"/>
-      <c r="F118" s="148"/>
-      <c r="G118" s="149"/>
-      <c r="H118" s="120"/>
-      <c r="I118" s="120"/>
-      <c r="J118" s="105"/>
-      <c r="K118" s="105"/>
-      <c r="L118" s="105"/>
+      <c r="F118" s="103"/>
+      <c r="G118" s="104"/>
+      <c r="H118" s="105"/>
+      <c r="I118" s="105"/>
+      <c r="J118" s="107"/>
+      <c r="K118" s="107"/>
+      <c r="L118" s="107"/>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
       <c r="O118" s="18"/>
@@ -18165,17 +18165,17 @@
       <c r="C119" s="2"/>
       <c r="D119" s="46"/>
       <c r="E119" s="58"/>
-      <c r="F119" s="146" t="s">
+      <c r="F119" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="G119" s="147"/>
-      <c r="H119" s="120"/>
-      <c r="I119" s="120"/>
-      <c r="J119" s="104"/>
-      <c r="K119" s="104" t="s">
+      <c r="G119" s="102"/>
+      <c r="H119" s="105"/>
+      <c r="I119" s="105"/>
+      <c r="J119" s="106"/>
+      <c r="K119" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="L119" s="105"/>
+      <c r="L119" s="107"/>
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
       <c r="O119" s="18"/>
@@ -18294,13 +18294,13 @@
       <c r="C120" s="2"/>
       <c r="D120" s="46"/>
       <c r="E120" s="63"/>
-      <c r="F120" s="148"/>
-      <c r="G120" s="149"/>
-      <c r="H120" s="120"/>
-      <c r="I120" s="120"/>
-      <c r="J120" s="105"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="105"/>
+      <c r="F120" s="103"/>
+      <c r="G120" s="104"/>
+      <c r="H120" s="105"/>
+      <c r="I120" s="105"/>
+      <c r="J120" s="107"/>
+      <c r="K120" s="107"/>
+      <c r="L120" s="107"/>
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
       <c r="O120" s="18"/>
@@ -18418,16 +18418,16 @@
       <c r="B121" s="24"/>
       <c r="C121" s="2"/>
       <c r="D121" s="46"/>
-      <c r="E121" s="144" t="s">
+      <c r="E121" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="F121" s="135"/>
-      <c r="G121" s="145"/>
-      <c r="H121" s="102"/>
-      <c r="I121" s="101"/>
-      <c r="J121" s="101"/>
-      <c r="K121" s="101"/>
-      <c r="L121" s="101"/>
+      <c r="F121" s="109"/>
+      <c r="G121" s="110"/>
+      <c r="H121" s="111"/>
+      <c r="I121" s="113"/>
+      <c r="J121" s="113"/>
+      <c r="K121" s="113"/>
+      <c r="L121" s="113"/>
       <c r="M121" s="43"/>
       <c r="N121" s="43"/>
       <c r="O121" s="43"/>
@@ -18545,14 +18545,14 @@
       <c r="B122" s="24"/>
       <c r="C122" s="2"/>
       <c r="D122" s="46"/>
-      <c r="E122" s="144"/>
-      <c r="F122" s="135"/>
-      <c r="G122" s="145"/>
-      <c r="H122" s="103"/>
-      <c r="I122" s="101"/>
-      <c r="J122" s="101"/>
-      <c r="K122" s="101"/>
-      <c r="L122" s="101"/>
+      <c r="E122" s="108"/>
+      <c r="F122" s="109"/>
+      <c r="G122" s="110"/>
+      <c r="H122" s="112"/>
+      <c r="I122" s="113"/>
+      <c r="J122" s="113"/>
+      <c r="K122" s="113"/>
+      <c r="L122" s="113"/>
       <c r="M122" s="31"/>
       <c r="N122" s="31"/>
       <c r="O122" s="31"/>
@@ -18671,19 +18671,19 @@
       <c r="C123" s="2"/>
       <c r="D123" s="46"/>
       <c r="E123" s="57"/>
-      <c r="F123" s="146" t="s">
+      <c r="F123" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="G123" s="147"/>
-      <c r="H123" s="120">
+      <c r="G123" s="102"/>
+      <c r="H123" s="105">
         <v>3</v>
       </c>
-      <c r="I123" s="120"/>
-      <c r="J123" s="104"/>
-      <c r="K123" s="104" t="s">
+      <c r="I123" s="105"/>
+      <c r="J123" s="106"/>
+      <c r="K123" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="L123" s="104"/>
+      <c r="L123" s="106"/>
       <c r="M123" s="18"/>
       <c r="N123" s="18"/>
       <c r="O123" s="18"/>
@@ -18802,13 +18802,13 @@
       <c r="C124" s="2"/>
       <c r="D124" s="46"/>
       <c r="E124" s="58"/>
-      <c r="F124" s="148"/>
-      <c r="G124" s="149"/>
-      <c r="H124" s="120"/>
-      <c r="I124" s="120"/>
-      <c r="J124" s="105"/>
-      <c r="K124" s="105"/>
-      <c r="L124" s="105"/>
+      <c r="F124" s="103"/>
+      <c r="G124" s="104"/>
+      <c r="H124" s="105"/>
+      <c r="I124" s="105"/>
+      <c r="J124" s="107"/>
+      <c r="K124" s="107"/>
+      <c r="L124" s="107"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
       <c r="O124" s="18"/>
@@ -18927,19 +18927,19 @@
       <c r="C125" s="2"/>
       <c r="D125" s="46"/>
       <c r="E125" s="58"/>
-      <c r="F125" s="146" t="s">
+      <c r="F125" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="G125" s="147"/>
-      <c r="H125" s="120">
+      <c r="G125" s="102"/>
+      <c r="H125" s="105">
         <v>2</v>
       </c>
-      <c r="I125" s="120"/>
-      <c r="J125" s="104"/>
-      <c r="K125" s="104" t="s">
+      <c r="I125" s="105"/>
+      <c r="J125" s="106"/>
+      <c r="K125" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="L125" s="104"/>
+      <c r="L125" s="106"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
       <c r="O125" s="18"/>
@@ -19058,13 +19058,13 @@
       <c r="C126" s="2"/>
       <c r="D126" s="46"/>
       <c r="E126" s="58"/>
-      <c r="F126" s="148"/>
-      <c r="G126" s="149"/>
-      <c r="H126" s="120"/>
-      <c r="I126" s="120"/>
-      <c r="J126" s="105"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="105"/>
+      <c r="F126" s="103"/>
+      <c r="G126" s="104"/>
+      <c r="H126" s="105"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="107"/>
+      <c r="K126" s="107"/>
+      <c r="L126" s="107"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
       <c r="O126" s="18"/>
@@ -19183,19 +19183,19 @@
       <c r="C127" s="2"/>
       <c r="D127" s="46"/>
       <c r="E127" s="58"/>
-      <c r="F127" s="146" t="s">
+      <c r="F127" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="G127" s="147"/>
-      <c r="H127" s="120">
+      <c r="G127" s="102"/>
+      <c r="H127" s="105">
         <v>8</v>
       </c>
-      <c r="I127" s="120"/>
-      <c r="J127" s="104"/>
-      <c r="K127" s="104" t="s">
+      <c r="I127" s="105"/>
+      <c r="J127" s="106"/>
+      <c r="K127" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="L127" s="104"/>
+      <c r="L127" s="106"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
       <c r="O127" s="18"/>
@@ -19314,13 +19314,13 @@
       <c r="C128" s="2"/>
       <c r="D128" s="46"/>
       <c r="E128" s="58"/>
-      <c r="F128" s="148"/>
-      <c r="G128" s="149"/>
-      <c r="H128" s="120"/>
-      <c r="I128" s="120"/>
-      <c r="J128" s="105"/>
-      <c r="K128" s="105"/>
-      <c r="L128" s="105"/>
+      <c r="F128" s="103"/>
+      <c r="G128" s="104"/>
+      <c r="H128" s="105"/>
+      <c r="I128" s="105"/>
+      <c r="J128" s="107"/>
+      <c r="K128" s="107"/>
+      <c r="L128" s="107"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
       <c r="O128" s="18"/>
@@ -19439,19 +19439,19 @@
       <c r="C129" s="2"/>
       <c r="D129" s="46"/>
       <c r="E129" s="58"/>
-      <c r="F129" s="146" t="s">
+      <c r="F129" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="G129" s="147"/>
-      <c r="H129" s="120">
+      <c r="G129" s="102"/>
+      <c r="H129" s="105">
         <v>7</v>
       </c>
-      <c r="I129" s="120"/>
-      <c r="J129" s="104"/>
-      <c r="K129" s="104" t="s">
+      <c r="I129" s="105"/>
+      <c r="J129" s="106"/>
+      <c r="K129" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="L129" s="104"/>
+      <c r="L129" s="106"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
       <c r="O129" s="18"/>
@@ -19570,13 +19570,13 @@
       <c r="C130" s="2"/>
       <c r="D130" s="46"/>
       <c r="E130" s="58"/>
-      <c r="F130" s="148"/>
-      <c r="G130" s="149"/>
-      <c r="H130" s="120"/>
-      <c r="I130" s="120"/>
-      <c r="J130" s="105"/>
-      <c r="K130" s="105"/>
-      <c r="L130" s="105"/>
+      <c r="F130" s="103"/>
+      <c r="G130" s="104"/>
+      <c r="H130" s="105"/>
+      <c r="I130" s="105"/>
+      <c r="J130" s="107"/>
+      <c r="K130" s="107"/>
+      <c r="L130" s="107"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
       <c r="O130" s="18"/>
@@ -19695,21 +19695,21 @@
       <c r="C131" s="2"/>
       <c r="D131" s="46"/>
       <c r="E131" s="58"/>
-      <c r="F131" s="146" t="s">
+      <c r="F131" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="G131" s="147"/>
-      <c r="H131" s="120">
+      <c r="G131" s="102"/>
+      <c r="H131" s="105">
         <v>5</v>
       </c>
-      <c r="I131" s="120"/>
-      <c r="J131" s="104" t="s">
+      <c r="I131" s="105"/>
+      <c r="J131" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="K131" s="104" t="s">
+      <c r="K131" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="L131" s="104"/>
+      <c r="L131" s="106"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
       <c r="O131" s="18"/>
@@ -19828,13 +19828,13 @@
       <c r="C132" s="2"/>
       <c r="D132" s="46"/>
       <c r="E132" s="58"/>
-      <c r="F132" s="148"/>
-      <c r="G132" s="149"/>
-      <c r="H132" s="120"/>
-      <c r="I132" s="120"/>
-      <c r="J132" s="105"/>
-      <c r="K132" s="105"/>
-      <c r="L132" s="105"/>
+      <c r="F132" s="103"/>
+      <c r="G132" s="104"/>
+      <c r="H132" s="105"/>
+      <c r="I132" s="105"/>
+      <c r="J132" s="107"/>
+      <c r="K132" s="107"/>
+      <c r="L132" s="107"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
       <c r="O132" s="18"/>
@@ -19953,17 +19953,17 @@
       <c r="C133" s="2"/>
       <c r="D133" s="46"/>
       <c r="E133" s="58"/>
-      <c r="F133" s="146" t="s">
+      <c r="F133" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="G133" s="147"/>
-      <c r="H133" s="120"/>
-      <c r="I133" s="120"/>
-      <c r="J133" s="104"/>
-      <c r="K133" s="104" t="s">
+      <c r="G133" s="102"/>
+      <c r="H133" s="105"/>
+      <c r="I133" s="105"/>
+      <c r="J133" s="106"/>
+      <c r="K133" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="L133" s="105"/>
+      <c r="L133" s="107"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
       <c r="O133" s="18"/>
@@ -20082,13 +20082,13 @@
       <c r="C134" s="2"/>
       <c r="D134" s="46"/>
       <c r="E134" s="63"/>
-      <c r="F134" s="148"/>
-      <c r="G134" s="149"/>
-      <c r="H134" s="120"/>
-      <c r="I134" s="120"/>
-      <c r="J134" s="105"/>
-      <c r="K134" s="105"/>
-      <c r="L134" s="105"/>
+      <c r="F134" s="103"/>
+      <c r="G134" s="104"/>
+      <c r="H134" s="105"/>
+      <c r="I134" s="105"/>
+      <c r="J134" s="107"/>
+      <c r="K134" s="107"/>
+      <c r="L134" s="107"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
       <c r="O134" s="18"/>
@@ -20205,17 +20205,17 @@
       <c r="A135" s="19"/>
       <c r="B135" s="51"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="127" t="s">
+      <c r="D135" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="E135" s="111"/>
-      <c r="F135" s="111"/>
-      <c r="G135" s="111"/>
-      <c r="H135" s="102"/>
-      <c r="I135" s="101"/>
-      <c r="J135" s="102"/>
-      <c r="K135" s="102"/>
-      <c r="L135" s="101"/>
+      <c r="E135" s="131"/>
+      <c r="F135" s="131"/>
+      <c r="G135" s="131"/>
+      <c r="H135" s="111"/>
+      <c r="I135" s="113"/>
+      <c r="J135" s="111"/>
+      <c r="K135" s="111"/>
+      <c r="L135" s="113"/>
       <c r="M135" s="42"/>
       <c r="N135" s="43"/>
       <c r="O135" s="43"/>
@@ -20332,15 +20332,15 @@
       <c r="A136" s="19"/>
       <c r="B136" s="51"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="112"/>
-      <c r="E136" s="113"/>
-      <c r="F136" s="113"/>
-      <c r="G136" s="113"/>
-      <c r="H136" s="103"/>
-      <c r="I136" s="101"/>
-      <c r="J136" s="103"/>
-      <c r="K136" s="103"/>
-      <c r="L136" s="101"/>
+      <c r="D136" s="132"/>
+      <c r="E136" s="133"/>
+      <c r="F136" s="133"/>
+      <c r="G136" s="133"/>
+      <c r="H136" s="112"/>
+      <c r="I136" s="113"/>
+      <c r="J136" s="112"/>
+      <c r="K136" s="112"/>
+      <c r="L136" s="113"/>
       <c r="M136" s="44"/>
       <c r="N136" s="31"/>
       <c r="O136" s="31"/>
@@ -20458,16 +20458,16 @@
       <c r="B137" s="24"/>
       <c r="C137" s="2"/>
       <c r="D137" s="55"/>
-      <c r="E137" s="133" t="s">
+      <c r="E137" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="F137" s="133"/>
-      <c r="G137" s="134"/>
-      <c r="H137" s="102"/>
-      <c r="I137" s="101"/>
-      <c r="J137" s="102"/>
-      <c r="K137" s="102"/>
-      <c r="L137" s="101"/>
+      <c r="F137" s="114"/>
+      <c r="G137" s="115"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="113"/>
+      <c r="J137" s="111"/>
+      <c r="K137" s="111"/>
+      <c r="L137" s="113"/>
       <c r="M137" s="42"/>
       <c r="N137" s="43"/>
       <c r="O137" s="43"/>
@@ -20585,14 +20585,14 @@
       <c r="B138" s="24"/>
       <c r="C138" s="2"/>
       <c r="D138" s="56"/>
-      <c r="E138" s="135"/>
-      <c r="F138" s="135"/>
-      <c r="G138" s="145"/>
-      <c r="H138" s="103"/>
-      <c r="I138" s="101"/>
-      <c r="J138" s="103"/>
-      <c r="K138" s="103"/>
-      <c r="L138" s="101"/>
+      <c r="E138" s="109"/>
+      <c r="F138" s="109"/>
+      <c r="G138" s="110"/>
+      <c r="H138" s="112"/>
+      <c r="I138" s="113"/>
+      <c r="J138" s="112"/>
+      <c r="K138" s="112"/>
+      <c r="L138" s="113"/>
       <c r="M138" s="44"/>
       <c r="N138" s="31"/>
       <c r="O138" s="31"/>
@@ -20711,19 +20711,19 @@
       <c r="C139" s="2"/>
       <c r="D139" s="46"/>
       <c r="E139" s="59"/>
-      <c r="F139" s="146" t="s">
+      <c r="F139" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="G139" s="147"/>
-      <c r="H139" s="120">
+      <c r="G139" s="102"/>
+      <c r="H139" s="105">
         <v>3</v>
       </c>
-      <c r="I139" s="120"/>
-      <c r="J139" s="104"/>
-      <c r="K139" s="104" t="s">
+      <c r="I139" s="105"/>
+      <c r="J139" s="106"/>
+      <c r="K139" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="L139" s="105"/>
+      <c r="L139" s="107"/>
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
       <c r="O139" s="18"/>
@@ -20842,13 +20842,13 @@
       <c r="C140" s="2"/>
       <c r="D140" s="46"/>
       <c r="E140" s="60"/>
-      <c r="F140" s="148"/>
-      <c r="G140" s="149"/>
-      <c r="H140" s="120"/>
-      <c r="I140" s="120"/>
-      <c r="J140" s="105"/>
-      <c r="K140" s="105"/>
-      <c r="L140" s="105"/>
+      <c r="F140" s="103"/>
+      <c r="G140" s="104"/>
+      <c r="H140" s="105"/>
+      <c r="I140" s="105"/>
+      <c r="J140" s="107"/>
+      <c r="K140" s="107"/>
+      <c r="L140" s="107"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
       <c r="O140" s="18"/>
@@ -20967,21 +20967,21 @@
       <c r="C141" s="2"/>
       <c r="D141" s="46"/>
       <c r="E141" s="61"/>
-      <c r="F141" s="146" t="s">
+      <c r="F141" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="G141" s="147"/>
-      <c r="H141" s="120">
+      <c r="G141" s="102"/>
+      <c r="H141" s="105">
         <v>3</v>
       </c>
-      <c r="I141" s="120"/>
-      <c r="J141" s="104" t="s">
+      <c r="I141" s="105"/>
+      <c r="J141" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="K141" s="104" t="s">
+      <c r="K141" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="L141" s="105"/>
+      <c r="L141" s="107"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
       <c r="O141" s="18"/>
@@ -21100,13 +21100,13 @@
       <c r="C142" s="2"/>
       <c r="D142" s="46"/>
       <c r="E142" s="58"/>
-      <c r="F142" s="148"/>
-      <c r="G142" s="149"/>
-      <c r="H142" s="120"/>
-      <c r="I142" s="120"/>
-      <c r="J142" s="105"/>
-      <c r="K142" s="105"/>
-      <c r="L142" s="105"/>
+      <c r="F142" s="103"/>
+      <c r="G142" s="104"/>
+      <c r="H142" s="105"/>
+      <c r="I142" s="105"/>
+      <c r="J142" s="107"/>
+      <c r="K142" s="107"/>
+      <c r="L142" s="107"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
       <c r="O142" s="18"/>
@@ -21225,19 +21225,19 @@
       <c r="C143" s="2"/>
       <c r="D143" s="46"/>
       <c r="E143" s="58"/>
-      <c r="F143" s="146" t="s">
+      <c r="F143" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="G143" s="147"/>
-      <c r="H143" s="120">
+      <c r="G143" s="102"/>
+      <c r="H143" s="105">
         <v>2</v>
       </c>
-      <c r="I143" s="120"/>
-      <c r="J143" s="104"/>
-      <c r="K143" s="104" t="s">
+      <c r="I143" s="105"/>
+      <c r="J143" s="106"/>
+      <c r="K143" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="L143" s="105"/>
+      <c r="L143" s="107"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
       <c r="O143" s="18"/>
@@ -21356,13 +21356,13 @@
       <c r="C144" s="2"/>
       <c r="D144" s="46"/>
       <c r="E144" s="58"/>
-      <c r="F144" s="148"/>
-      <c r="G144" s="149"/>
-      <c r="H144" s="120"/>
-      <c r="I144" s="120"/>
-      <c r="J144" s="105"/>
-      <c r="K144" s="105"/>
-      <c r="L144" s="105"/>
+      <c r="F144" s="103"/>
+      <c r="G144" s="104"/>
+      <c r="H144" s="105"/>
+      <c r="I144" s="105"/>
+      <c r="J144" s="107"/>
+      <c r="K144" s="107"/>
+      <c r="L144" s="107"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
       <c r="O144" s="18"/>
@@ -21481,21 +21481,21 @@
       <c r="C145" s="2"/>
       <c r="D145" s="46"/>
       <c r="E145" s="58"/>
-      <c r="F145" s="146" t="s">
+      <c r="F145" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="G145" s="147"/>
-      <c r="H145" s="120">
+      <c r="G145" s="102"/>
+      <c r="H145" s="105">
         <v>2.5</v>
       </c>
-      <c r="I145" s="120"/>
-      <c r="J145" s="104" t="s">
+      <c r="I145" s="105"/>
+      <c r="J145" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="K145" s="104" t="s">
+      <c r="K145" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="L145" s="105"/>
+      <c r="L145" s="107"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
       <c r="O145" s="18"/>
@@ -21614,13 +21614,13 @@
       <c r="C146" s="2"/>
       <c r="D146" s="46"/>
       <c r="E146" s="58"/>
-      <c r="F146" s="148"/>
-      <c r="G146" s="149"/>
-      <c r="H146" s="120"/>
-      <c r="I146" s="120"/>
-      <c r="J146" s="105"/>
-      <c r="K146" s="105"/>
-      <c r="L146" s="105"/>
+      <c r="F146" s="103"/>
+      <c r="G146" s="104"/>
+      <c r="H146" s="105"/>
+      <c r="I146" s="105"/>
+      <c r="J146" s="107"/>
+      <c r="K146" s="107"/>
+      <c r="L146" s="107"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
       <c r="O146" s="18"/>
@@ -21739,17 +21739,17 @@
       <c r="C147" s="2"/>
       <c r="D147" s="46"/>
       <c r="E147" s="58"/>
-      <c r="F147" s="146" t="s">
+      <c r="F147" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="G147" s="147"/>
-      <c r="H147" s="120"/>
-      <c r="I147" s="120"/>
-      <c r="J147" s="104"/>
-      <c r="K147" s="104" t="s">
+      <c r="G147" s="102"/>
+      <c r="H147" s="105"/>
+      <c r="I147" s="105"/>
+      <c r="J147" s="106"/>
+      <c r="K147" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="L147" s="105"/>
+      <c r="L147" s="107"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
       <c r="O147" s="18"/>
@@ -21868,13 +21868,13 @@
       <c r="C148" s="2"/>
       <c r="D148" s="46"/>
       <c r="E148" s="63"/>
-      <c r="F148" s="148"/>
-      <c r="G148" s="149"/>
-      <c r="H148" s="120"/>
-      <c r="I148" s="120"/>
-      <c r="J148" s="105"/>
-      <c r="K148" s="105"/>
-      <c r="L148" s="105"/>
+      <c r="F148" s="103"/>
+      <c r="G148" s="104"/>
+      <c r="H148" s="105"/>
+      <c r="I148" s="105"/>
+      <c r="J148" s="107"/>
+      <c r="K148" s="107"/>
+      <c r="L148" s="107"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
       <c r="O148" s="18"/>
@@ -21992,16 +21992,16 @@
       <c r="B149" s="24"/>
       <c r="C149" s="2"/>
       <c r="D149" s="46"/>
-      <c r="E149" s="144" t="s">
+      <c r="E149" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="F149" s="135"/>
-      <c r="G149" s="145"/>
-      <c r="H149" s="102"/>
-      <c r="I149" s="101"/>
-      <c r="J149" s="101"/>
-      <c r="K149" s="101"/>
-      <c r="L149" s="101"/>
+      <c r="F149" s="109"/>
+      <c r="G149" s="110"/>
+      <c r="H149" s="111"/>
+      <c r="I149" s="113"/>
+      <c r="J149" s="113"/>
+      <c r="K149" s="113"/>
+      <c r="L149" s="113"/>
       <c r="M149" s="43"/>
       <c r="N149" s="43"/>
       <c r="O149" s="43"/>
@@ -22119,14 +22119,14 @@
       <c r="B150" s="24"/>
       <c r="C150" s="2"/>
       <c r="D150" s="46"/>
-      <c r="E150" s="144"/>
-      <c r="F150" s="135"/>
-      <c r="G150" s="145"/>
-      <c r="H150" s="103"/>
-      <c r="I150" s="101"/>
-      <c r="J150" s="101"/>
-      <c r="K150" s="101"/>
-      <c r="L150" s="101"/>
+      <c r="E150" s="108"/>
+      <c r="F150" s="109"/>
+      <c r="G150" s="110"/>
+      <c r="H150" s="112"/>
+      <c r="I150" s="113"/>
+      <c r="J150" s="113"/>
+      <c r="K150" s="113"/>
+      <c r="L150" s="113"/>
       <c r="M150" s="31"/>
       <c r="N150" s="31"/>
       <c r="O150" s="31"/>
@@ -22245,19 +22245,19 @@
       <c r="C151" s="2"/>
       <c r="D151" s="46"/>
       <c r="E151" s="59"/>
-      <c r="F151" s="146" t="s">
+      <c r="F151" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="G151" s="147"/>
-      <c r="H151" s="120">
+      <c r="G151" s="102"/>
+      <c r="H151" s="105">
         <v>4</v>
       </c>
-      <c r="I151" s="120"/>
-      <c r="J151" s="104"/>
-      <c r="K151" s="104" t="s">
+      <c r="I151" s="105"/>
+      <c r="J151" s="106"/>
+      <c r="K151" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="L151" s="105"/>
+      <c r="L151" s="107"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
       <c r="O151" s="18"/>
@@ -22376,13 +22376,13 @@
       <c r="C152" s="2"/>
       <c r="D152" s="46"/>
       <c r="E152" s="60"/>
-      <c r="F152" s="148"/>
-      <c r="G152" s="149"/>
-      <c r="H152" s="120"/>
-      <c r="I152" s="120"/>
-      <c r="J152" s="105"/>
-      <c r="K152" s="105"/>
-      <c r="L152" s="105"/>
+      <c r="F152" s="103"/>
+      <c r="G152" s="104"/>
+      <c r="H152" s="105"/>
+      <c r="I152" s="105"/>
+      <c r="J152" s="107"/>
+      <c r="K152" s="107"/>
+      <c r="L152" s="107"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
       <c r="O152" s="18"/>
@@ -22501,21 +22501,21 @@
       <c r="C153" s="2"/>
       <c r="D153" s="46"/>
       <c r="E153" s="61"/>
-      <c r="F153" s="146" t="s">
+      <c r="F153" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="G153" s="147"/>
-      <c r="H153" s="120">
+      <c r="G153" s="102"/>
+      <c r="H153" s="105">
         <v>4</v>
       </c>
-      <c r="I153" s="120"/>
-      <c r="J153" s="104" t="s">
+      <c r="I153" s="105"/>
+      <c r="J153" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="K153" s="104" t="s">
+      <c r="K153" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="L153" s="105"/>
+      <c r="L153" s="107"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
       <c r="O153" s="18"/>
@@ -22634,13 +22634,13 @@
       <c r="C154" s="2"/>
       <c r="D154" s="46"/>
       <c r="E154" s="58"/>
-      <c r="F154" s="148"/>
-      <c r="G154" s="149"/>
-      <c r="H154" s="120"/>
-      <c r="I154" s="120"/>
-      <c r="J154" s="105"/>
-      <c r="K154" s="105"/>
-      <c r="L154" s="105"/>
+      <c r="F154" s="103"/>
+      <c r="G154" s="104"/>
+      <c r="H154" s="105"/>
+      <c r="I154" s="105"/>
+      <c r="J154" s="107"/>
+      <c r="K154" s="107"/>
+      <c r="L154" s="107"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
       <c r="O154" s="18"/>
@@ -22759,19 +22759,19 @@
       <c r="C155" s="2"/>
       <c r="D155" s="46"/>
       <c r="E155" s="58"/>
-      <c r="F155" s="146" t="s">
+      <c r="F155" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="G155" s="147"/>
-      <c r="H155" s="120">
+      <c r="G155" s="102"/>
+      <c r="H155" s="105">
         <v>3</v>
       </c>
-      <c r="I155" s="120"/>
-      <c r="J155" s="104"/>
-      <c r="K155" s="104" t="s">
+      <c r="I155" s="105"/>
+      <c r="J155" s="106"/>
+      <c r="K155" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="L155" s="105"/>
+      <c r="L155" s="107"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
       <c r="O155" s="18"/>
@@ -22890,13 +22890,13 @@
       <c r="C156" s="2"/>
       <c r="D156" s="46"/>
       <c r="E156" s="58"/>
-      <c r="F156" s="148"/>
-      <c r="G156" s="149"/>
-      <c r="H156" s="120"/>
-      <c r="I156" s="120"/>
-      <c r="J156" s="105"/>
-      <c r="K156" s="105"/>
-      <c r="L156" s="105"/>
+      <c r="F156" s="103"/>
+      <c r="G156" s="104"/>
+      <c r="H156" s="105"/>
+      <c r="I156" s="105"/>
+      <c r="J156" s="107"/>
+      <c r="K156" s="107"/>
+      <c r="L156" s="107"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
       <c r="O156" s="18"/>
@@ -23015,21 +23015,21 @@
       <c r="C157" s="2"/>
       <c r="D157" s="46"/>
       <c r="E157" s="58"/>
-      <c r="F157" s="146" t="s">
+      <c r="F157" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="G157" s="147"/>
-      <c r="H157" s="120">
+      <c r="G157" s="102"/>
+      <c r="H157" s="105">
         <v>4</v>
       </c>
-      <c r="I157" s="120"/>
-      <c r="J157" s="104" t="s">
+      <c r="I157" s="105"/>
+      <c r="J157" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="K157" s="104" t="s">
+      <c r="K157" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="L157" s="105"/>
+      <c r="L157" s="107"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
       <c r="O157" s="18"/>
@@ -23148,13 +23148,13 @@
       <c r="C158" s="2"/>
       <c r="D158" s="46"/>
       <c r="E158" s="58"/>
-      <c r="F158" s="148"/>
-      <c r="G158" s="149"/>
-      <c r="H158" s="120"/>
-      <c r="I158" s="120"/>
-      <c r="J158" s="105"/>
-      <c r="K158" s="105"/>
-      <c r="L158" s="105"/>
+      <c r="F158" s="103"/>
+      <c r="G158" s="104"/>
+      <c r="H158" s="105"/>
+      <c r="I158" s="105"/>
+      <c r="J158" s="107"/>
+      <c r="K158" s="107"/>
+      <c r="L158" s="107"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
       <c r="O158" s="18"/>
@@ -23273,17 +23273,17 @@
       <c r="C159" s="2"/>
       <c r="D159" s="46"/>
       <c r="E159" s="58"/>
-      <c r="F159" s="146" t="s">
+      <c r="F159" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="G159" s="147"/>
-      <c r="H159" s="120"/>
-      <c r="I159" s="120"/>
-      <c r="J159" s="104"/>
-      <c r="K159" s="104" t="s">
+      <c r="G159" s="102"/>
+      <c r="H159" s="105"/>
+      <c r="I159" s="105"/>
+      <c r="J159" s="106"/>
+      <c r="K159" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="L159" s="105"/>
+      <c r="L159" s="107"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
       <c r="O159" s="18"/>
@@ -23402,13 +23402,13 @@
       <c r="C160" s="2"/>
       <c r="D160" s="46"/>
       <c r="E160" s="63"/>
-      <c r="F160" s="148"/>
-      <c r="G160" s="149"/>
-      <c r="H160" s="120"/>
-      <c r="I160" s="120"/>
-      <c r="J160" s="105"/>
-      <c r="K160" s="105"/>
-      <c r="L160" s="105"/>
+      <c r="F160" s="103"/>
+      <c r="G160" s="104"/>
+      <c r="H160" s="105"/>
+      <c r="I160" s="105"/>
+      <c r="J160" s="107"/>
+      <c r="K160" s="107"/>
+      <c r="L160" s="107"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
       <c r="O160" s="18"/>
@@ -23524,18 +23524,18 @@
     <row r="161" spans="1:123" ht="9.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="24"/>
-      <c r="C161" s="142" t="s">
+      <c r="C161" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="D161" s="111"/>
-      <c r="E161" s="116"/>
-      <c r="F161" s="116"/>
-      <c r="G161" s="116"/>
-      <c r="H161" s="102"/>
-      <c r="I161" s="101"/>
-      <c r="J161" s="101"/>
-      <c r="K161" s="101"/>
-      <c r="L161" s="101"/>
+      <c r="D161" s="131"/>
+      <c r="E161" s="138"/>
+      <c r="F161" s="138"/>
+      <c r="G161" s="138"/>
+      <c r="H161" s="111"/>
+      <c r="I161" s="113"/>
+      <c r="J161" s="113"/>
+      <c r="K161" s="113"/>
+      <c r="L161" s="113"/>
       <c r="M161" s="43"/>
       <c r="N161" s="43"/>
       <c r="O161" s="43"/>
@@ -23651,16 +23651,16 @@
     <row r="162" spans="1:123" ht="9.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="24"/>
-      <c r="C162" s="113"/>
-      <c r="D162" s="113"/>
-      <c r="E162" s="113"/>
-      <c r="F162" s="113"/>
-      <c r="G162" s="113"/>
-      <c r="H162" s="103"/>
-      <c r="I162" s="101"/>
-      <c r="J162" s="101"/>
-      <c r="K162" s="101"/>
-      <c r="L162" s="101"/>
+      <c r="C162" s="133"/>
+      <c r="D162" s="133"/>
+      <c r="E162" s="133"/>
+      <c r="F162" s="133"/>
+      <c r="G162" s="133"/>
+      <c r="H162" s="112"/>
+      <c r="I162" s="113"/>
+      <c r="J162" s="113"/>
+      <c r="K162" s="113"/>
+      <c r="L162" s="113"/>
       <c r="M162" s="31"/>
       <c r="N162" s="31"/>
       <c r="O162" s="31"/>
@@ -23775,19 +23775,19 @@
     </row>
     <row r="163" spans="1:123" ht="9.75" customHeight="1">
       <c r="A163" s="2"/>
-      <c r="B163" s="143" t="s">
+      <c r="B163" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C163" s="111"/>
-      <c r="D163" s="111"/>
-      <c r="E163" s="111"/>
-      <c r="F163" s="111"/>
-      <c r="G163" s="122"/>
-      <c r="H163" s="102"/>
-      <c r="I163" s="101"/>
-      <c r="J163" s="101"/>
-      <c r="K163" s="101"/>
-      <c r="L163" s="101"/>
+      <c r="C163" s="131"/>
+      <c r="D163" s="131"/>
+      <c r="E163" s="131"/>
+      <c r="F163" s="131"/>
+      <c r="G163" s="140"/>
+      <c r="H163" s="111"/>
+      <c r="I163" s="113"/>
+      <c r="J163" s="113"/>
+      <c r="K163" s="113"/>
+      <c r="L163" s="113"/>
       <c r="M163" s="43"/>
       <c r="N163" s="43"/>
       <c r="O163" s="43"/>
@@ -23902,17 +23902,17 @@
     </row>
     <row r="164" spans="1:123" ht="9.75" customHeight="1">
       <c r="A164" s="2"/>
-      <c r="B164" s="112"/>
-      <c r="C164" s="113"/>
-      <c r="D164" s="113"/>
-      <c r="E164" s="113"/>
-      <c r="F164" s="113"/>
-      <c r="G164" s="123"/>
-      <c r="H164" s="103"/>
-      <c r="I164" s="101"/>
-      <c r="J164" s="101"/>
-      <c r="K164" s="101"/>
-      <c r="L164" s="101"/>
+      <c r="B164" s="132"/>
+      <c r="C164" s="133"/>
+      <c r="D164" s="133"/>
+      <c r="E164" s="133"/>
+      <c r="F164" s="133"/>
+      <c r="G164" s="141"/>
+      <c r="H164" s="112"/>
+      <c r="I164" s="113"/>
+      <c r="J164" s="113"/>
+      <c r="K164" s="113"/>
+      <c r="L164" s="113"/>
       <c r="M164" s="31"/>
       <c r="N164" s="31"/>
       <c r="O164" s="31"/>
@@ -24028,18 +24028,18 @@
     <row r="165" spans="1:123" ht="9.75" customHeight="1">
       <c r="A165" s="19"/>
       <c r="B165" s="24"/>
-      <c r="C165" s="130" t="s">
+      <c r="C165" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="D165" s="111"/>
-      <c r="E165" s="111"/>
-      <c r="F165" s="111"/>
-      <c r="G165" s="111"/>
-      <c r="H165" s="102"/>
-      <c r="I165" s="101"/>
-      <c r="J165" s="101"/>
-      <c r="K165" s="101"/>
-      <c r="L165" s="101"/>
+      <c r="D165" s="131"/>
+      <c r="E165" s="131"/>
+      <c r="F165" s="131"/>
+      <c r="G165" s="131"/>
+      <c r="H165" s="111"/>
+      <c r="I165" s="113"/>
+      <c r="J165" s="113"/>
+      <c r="K165" s="113"/>
+      <c r="L165" s="113"/>
       <c r="M165" s="43"/>
       <c r="N165" s="43"/>
       <c r="O165" s="43"/>
@@ -24155,16 +24155,16 @@
     <row r="166" spans="1:123" ht="9.75" customHeight="1">
       <c r="A166" s="19"/>
       <c r="B166" s="54"/>
-      <c r="C166" s="113"/>
-      <c r="D166" s="113"/>
-      <c r="E166" s="113"/>
-      <c r="F166" s="113"/>
-      <c r="G166" s="113"/>
-      <c r="H166" s="103"/>
-      <c r="I166" s="101"/>
-      <c r="J166" s="101"/>
-      <c r="K166" s="101"/>
-      <c r="L166" s="101"/>
+      <c r="C166" s="133"/>
+      <c r="D166" s="133"/>
+      <c r="E166" s="133"/>
+      <c r="F166" s="133"/>
+      <c r="G166" s="133"/>
+      <c r="H166" s="112"/>
+      <c r="I166" s="113"/>
+      <c r="J166" s="113"/>
+      <c r="K166" s="113"/>
+      <c r="L166" s="113"/>
       <c r="M166" s="31"/>
       <c r="N166" s="31"/>
       <c r="O166" s="31"/>
@@ -37587,62 +37587,412 @@
     </row>
   </sheetData>
   <mergeCells count="486">
-    <mergeCell ref="F133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="F131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="F127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="F129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="F123:G124"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="F117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="F119:G120"/>
-    <mergeCell ref="E121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="E113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="M3:CM3"/>
+    <mergeCell ref="CN3:DR3"/>
+    <mergeCell ref="M4:AD4"/>
+    <mergeCell ref="AE4:BH4"/>
+    <mergeCell ref="BI4:CM4"/>
+    <mergeCell ref="CN4:DR4"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="C77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="E83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="C165:G166"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="C161:G162"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="L161:L162"/>
+    <mergeCell ref="B163:G164"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="I159:I160"/>
     <mergeCell ref="E149:G150"/>
     <mergeCell ref="F159:G160"/>
     <mergeCell ref="F157:G158"/>
@@ -37667,412 +38017,62 @@
     <mergeCell ref="F115:G116"/>
     <mergeCell ref="D135:G136"/>
     <mergeCell ref="E137:G138"/>
-    <mergeCell ref="C165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="C161:G162"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="L161:L162"/>
-    <mergeCell ref="B163:G164"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="E83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="E81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="C77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M3:CM3"/>
-    <mergeCell ref="CN3:DR3"/>
-    <mergeCell ref="M4:AD4"/>
-    <mergeCell ref="AE4:BH4"/>
-    <mergeCell ref="BI4:CM4"/>
-    <mergeCell ref="CN4:DR4"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="E113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="F117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="F119:G120"/>
+    <mergeCell ref="E121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="F123:G124"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="F127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="F129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="F133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="F131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J131:J132"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="M7">

--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\中日本営業第2部(全員)_FY24\20.　個人フォルダ\溝口\研修\DIGITAL-OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A3751B-1C7F-449D-A97B-144284BBE36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB7DC1-36BD-466F-99AD-81C1AF142B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="133">
   <si>
     <t>予定</t>
   </si>
@@ -2007,10 +2007,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2022,6 +2026,95 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2031,41 +2124,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2079,43 +2175,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2136,87 +2196,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2757,7 +2757,7 @@
   <dimension ref="A1:DU364"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AX94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="O110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight"/>
@@ -2781,8 +2781,8 @@
   <sheetData>
     <row r="1" spans="1:125" ht="18" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="2" t="s">
         <v>132</v>
       </c>
@@ -3034,120 +3034,120 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="79"/>
-      <c r="O3" s="178">
+      <c r="O3" s="123">
         <v>2024</v>
       </c>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="179"/>
-      <c r="AJ3" s="179"/>
-      <c r="AK3" s="179"/>
-      <c r="AL3" s="179"/>
-      <c r="AM3" s="179"/>
-      <c r="AN3" s="179"/>
-      <c r="AO3" s="179"/>
-      <c r="AP3" s="179"/>
-      <c r="AQ3" s="179"/>
-      <c r="AR3" s="179"/>
-      <c r="AS3" s="179"/>
-      <c r="AT3" s="179"/>
-      <c r="AU3" s="179"/>
-      <c r="AV3" s="179"/>
-      <c r="AW3" s="179"/>
-      <c r="AX3" s="179"/>
-      <c r="AY3" s="179"/>
-      <c r="AZ3" s="179"/>
-      <c r="BA3" s="179"/>
-      <c r="BB3" s="179"/>
-      <c r="BC3" s="179"/>
-      <c r="BD3" s="179"/>
-      <c r="BE3" s="179"/>
-      <c r="BF3" s="179"/>
-      <c r="BG3" s="179"/>
-      <c r="BH3" s="179"/>
-      <c r="BI3" s="179"/>
-      <c r="BJ3" s="179"/>
-      <c r="BK3" s="179"/>
-      <c r="BL3" s="179"/>
-      <c r="BM3" s="179"/>
-      <c r="BN3" s="179"/>
-      <c r="BO3" s="179"/>
-      <c r="BP3" s="179"/>
-      <c r="BQ3" s="179"/>
-      <c r="BR3" s="179"/>
-      <c r="BS3" s="179"/>
-      <c r="BT3" s="179"/>
-      <c r="BU3" s="179"/>
-      <c r="BV3" s="179"/>
-      <c r="BW3" s="179"/>
-      <c r="BX3" s="179"/>
-      <c r="BY3" s="179"/>
-      <c r="BZ3" s="179"/>
-      <c r="CA3" s="179"/>
-      <c r="CB3" s="179"/>
-      <c r="CC3" s="179"/>
-      <c r="CD3" s="179"/>
-      <c r="CE3" s="179"/>
-      <c r="CF3" s="179"/>
-      <c r="CG3" s="179"/>
-      <c r="CH3" s="179"/>
-      <c r="CI3" s="179"/>
-      <c r="CJ3" s="179"/>
-      <c r="CK3" s="179"/>
-      <c r="CL3" s="179"/>
-      <c r="CM3" s="179"/>
-      <c r="CN3" s="179"/>
-      <c r="CO3" s="180"/>
-      <c r="CP3" s="178">
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124"/>
+      <c r="AO3" s="124"/>
+      <c r="AP3" s="124"/>
+      <c r="AQ3" s="124"/>
+      <c r="AR3" s="124"/>
+      <c r="AS3" s="124"/>
+      <c r="AT3" s="124"/>
+      <c r="AU3" s="124"/>
+      <c r="AV3" s="124"/>
+      <c r="AW3" s="124"/>
+      <c r="AX3" s="124"/>
+      <c r="AY3" s="124"/>
+      <c r="AZ3" s="124"/>
+      <c r="BA3" s="124"/>
+      <c r="BB3" s="124"/>
+      <c r="BC3" s="124"/>
+      <c r="BD3" s="124"/>
+      <c r="BE3" s="124"/>
+      <c r="BF3" s="124"/>
+      <c r="BG3" s="124"/>
+      <c r="BH3" s="124"/>
+      <c r="BI3" s="124"/>
+      <c r="BJ3" s="124"/>
+      <c r="BK3" s="124"/>
+      <c r="BL3" s="124"/>
+      <c r="BM3" s="124"/>
+      <c r="BN3" s="124"/>
+      <c r="BO3" s="124"/>
+      <c r="BP3" s="124"/>
+      <c r="BQ3" s="124"/>
+      <c r="BR3" s="124"/>
+      <c r="BS3" s="124"/>
+      <c r="BT3" s="124"/>
+      <c r="BU3" s="124"/>
+      <c r="BV3" s="124"/>
+      <c r="BW3" s="124"/>
+      <c r="BX3" s="124"/>
+      <c r="BY3" s="124"/>
+      <c r="BZ3" s="124"/>
+      <c r="CA3" s="124"/>
+      <c r="CB3" s="124"/>
+      <c r="CC3" s="124"/>
+      <c r="CD3" s="124"/>
+      <c r="CE3" s="124"/>
+      <c r="CF3" s="124"/>
+      <c r="CG3" s="124"/>
+      <c r="CH3" s="124"/>
+      <c r="CI3" s="124"/>
+      <c r="CJ3" s="124"/>
+      <c r="CK3" s="124"/>
+      <c r="CL3" s="124"/>
+      <c r="CM3" s="124"/>
+      <c r="CN3" s="124"/>
+      <c r="CO3" s="125"/>
+      <c r="CP3" s="123">
         <v>2025</v>
       </c>
-      <c r="CQ3" s="179"/>
-      <c r="CR3" s="179"/>
-      <c r="CS3" s="179"/>
-      <c r="CT3" s="179"/>
-      <c r="CU3" s="179"/>
-      <c r="CV3" s="179"/>
-      <c r="CW3" s="179"/>
-      <c r="CX3" s="179"/>
-      <c r="CY3" s="179"/>
-      <c r="CZ3" s="179"/>
-      <c r="DA3" s="179"/>
-      <c r="DB3" s="179"/>
-      <c r="DC3" s="179"/>
-      <c r="DD3" s="179"/>
-      <c r="DE3" s="179"/>
-      <c r="DF3" s="179"/>
-      <c r="DG3" s="179"/>
-      <c r="DH3" s="179"/>
-      <c r="DI3" s="179"/>
-      <c r="DJ3" s="179"/>
-      <c r="DK3" s="179"/>
-      <c r="DL3" s="179"/>
-      <c r="DM3" s="179"/>
-      <c r="DN3" s="179"/>
-      <c r="DO3" s="179"/>
-      <c r="DP3" s="179"/>
-      <c r="DQ3" s="179"/>
-      <c r="DR3" s="179"/>
-      <c r="DS3" s="179"/>
-      <c r="DT3" s="180"/>
+      <c r="CQ3" s="124"/>
+      <c r="CR3" s="124"/>
+      <c r="CS3" s="124"/>
+      <c r="CT3" s="124"/>
+      <c r="CU3" s="124"/>
+      <c r="CV3" s="124"/>
+      <c r="CW3" s="124"/>
+      <c r="CX3" s="124"/>
+      <c r="CY3" s="124"/>
+      <c r="CZ3" s="124"/>
+      <c r="DA3" s="124"/>
+      <c r="DB3" s="124"/>
+      <c r="DC3" s="124"/>
+      <c r="DD3" s="124"/>
+      <c r="DE3" s="124"/>
+      <c r="DF3" s="124"/>
+      <c r="DG3" s="124"/>
+      <c r="DH3" s="124"/>
+      <c r="DI3" s="124"/>
+      <c r="DJ3" s="124"/>
+      <c r="DK3" s="124"/>
+      <c r="DL3" s="124"/>
+      <c r="DM3" s="124"/>
+      <c r="DN3" s="124"/>
+      <c r="DO3" s="124"/>
+      <c r="DP3" s="124"/>
+      <c r="DQ3" s="124"/>
+      <c r="DR3" s="124"/>
+      <c r="DS3" s="124"/>
+      <c r="DT3" s="125"/>
       <c r="DU3" s="2"/>
     </row>
     <row r="4" spans="1:125" ht="18" customHeight="1">
@@ -3162,124 +3162,124 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="O4" s="178">
+      <c r="O4" s="123">
         <v>10</v>
       </c>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="179"/>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
-      <c r="AC4" s="179"/>
-      <c r="AD4" s="179"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="180"/>
-      <c r="AG4" s="178">
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="123">
         <v>11</v>
       </c>
-      <c r="AH4" s="179"/>
-      <c r="AI4" s="179"/>
-      <c r="AJ4" s="179"/>
-      <c r="AK4" s="179"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="179"/>
-      <c r="AN4" s="179"/>
-      <c r="AO4" s="179"/>
-      <c r="AP4" s="179"/>
-      <c r="AQ4" s="179"/>
-      <c r="AR4" s="179"/>
-      <c r="AS4" s="179"/>
-      <c r="AT4" s="179"/>
-      <c r="AU4" s="179"/>
-      <c r="AV4" s="179"/>
-      <c r="AW4" s="179"/>
-      <c r="AX4" s="179"/>
-      <c r="AY4" s="179"/>
-      <c r="AZ4" s="179"/>
-      <c r="BA4" s="179"/>
-      <c r="BB4" s="179"/>
-      <c r="BC4" s="179"/>
-      <c r="BD4" s="179"/>
-      <c r="BE4" s="179"/>
-      <c r="BF4" s="179"/>
-      <c r="BG4" s="179"/>
-      <c r="BH4" s="179"/>
-      <c r="BI4" s="179"/>
-      <c r="BJ4" s="180"/>
-      <c r="BK4" s="178">
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="124"/>
+      <c r="BD4" s="124"/>
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="124"/>
+      <c r="BG4" s="124"/>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="124"/>
+      <c r="BJ4" s="125"/>
+      <c r="BK4" s="123">
         <v>12</v>
       </c>
-      <c r="BL4" s="179"/>
-      <c r="BM4" s="179"/>
-      <c r="BN4" s="179"/>
-      <c r="BO4" s="179"/>
-      <c r="BP4" s="179"/>
-      <c r="BQ4" s="179"/>
-      <c r="BR4" s="179"/>
-      <c r="BS4" s="179"/>
-      <c r="BT4" s="179"/>
-      <c r="BU4" s="179"/>
-      <c r="BV4" s="179"/>
-      <c r="BW4" s="179"/>
-      <c r="BX4" s="179"/>
-      <c r="BY4" s="179"/>
-      <c r="BZ4" s="179"/>
-      <c r="CA4" s="179"/>
-      <c r="CB4" s="179"/>
-      <c r="CC4" s="179"/>
-      <c r="CD4" s="179"/>
-      <c r="CE4" s="179"/>
-      <c r="CF4" s="179"/>
-      <c r="CG4" s="179"/>
-      <c r="CH4" s="179"/>
-      <c r="CI4" s="179"/>
-      <c r="CJ4" s="179"/>
-      <c r="CK4" s="179"/>
-      <c r="CL4" s="179"/>
-      <c r="CM4" s="179"/>
-      <c r="CN4" s="179"/>
-      <c r="CO4" s="180"/>
-      <c r="CP4" s="178">
+      <c r="BL4" s="124"/>
+      <c r="BM4" s="124"/>
+      <c r="BN4" s="124"/>
+      <c r="BO4" s="124"/>
+      <c r="BP4" s="124"/>
+      <c r="BQ4" s="124"/>
+      <c r="BR4" s="124"/>
+      <c r="BS4" s="124"/>
+      <c r="BT4" s="124"/>
+      <c r="BU4" s="124"/>
+      <c r="BV4" s="124"/>
+      <c r="BW4" s="124"/>
+      <c r="BX4" s="124"/>
+      <c r="BY4" s="124"/>
+      <c r="BZ4" s="124"/>
+      <c r="CA4" s="124"/>
+      <c r="CB4" s="124"/>
+      <c r="CC4" s="124"/>
+      <c r="CD4" s="124"/>
+      <c r="CE4" s="124"/>
+      <c r="CF4" s="124"/>
+      <c r="CG4" s="124"/>
+      <c r="CH4" s="124"/>
+      <c r="CI4" s="124"/>
+      <c r="CJ4" s="124"/>
+      <c r="CK4" s="124"/>
+      <c r="CL4" s="124"/>
+      <c r="CM4" s="124"/>
+      <c r="CN4" s="124"/>
+      <c r="CO4" s="125"/>
+      <c r="CP4" s="123">
         <v>1</v>
       </c>
-      <c r="CQ4" s="179"/>
-      <c r="CR4" s="179"/>
-      <c r="CS4" s="179"/>
-      <c r="CT4" s="179"/>
-      <c r="CU4" s="179"/>
-      <c r="CV4" s="179"/>
-      <c r="CW4" s="179"/>
-      <c r="CX4" s="179"/>
-      <c r="CY4" s="179"/>
-      <c r="CZ4" s="179"/>
-      <c r="DA4" s="179"/>
-      <c r="DB4" s="179"/>
-      <c r="DC4" s="179"/>
-      <c r="DD4" s="179"/>
-      <c r="DE4" s="179"/>
-      <c r="DF4" s="179"/>
-      <c r="DG4" s="179"/>
-      <c r="DH4" s="179"/>
-      <c r="DI4" s="179"/>
-      <c r="DJ4" s="179"/>
-      <c r="DK4" s="179"/>
-      <c r="DL4" s="179"/>
-      <c r="DM4" s="179"/>
-      <c r="DN4" s="179"/>
-      <c r="DO4" s="179"/>
-      <c r="DP4" s="179"/>
-      <c r="DQ4" s="179"/>
-      <c r="DR4" s="179"/>
-      <c r="DS4" s="179"/>
-      <c r="DT4" s="180"/>
+      <c r="CQ4" s="124"/>
+      <c r="CR4" s="124"/>
+      <c r="CS4" s="124"/>
+      <c r="CT4" s="124"/>
+      <c r="CU4" s="124"/>
+      <c r="CV4" s="124"/>
+      <c r="CW4" s="124"/>
+      <c r="CX4" s="124"/>
+      <c r="CY4" s="124"/>
+      <c r="CZ4" s="124"/>
+      <c r="DA4" s="124"/>
+      <c r="DB4" s="124"/>
+      <c r="DC4" s="124"/>
+      <c r="DD4" s="124"/>
+      <c r="DE4" s="124"/>
+      <c r="DF4" s="124"/>
+      <c r="DG4" s="124"/>
+      <c r="DH4" s="124"/>
+      <c r="DI4" s="124"/>
+      <c r="DJ4" s="124"/>
+      <c r="DK4" s="124"/>
+      <c r="DL4" s="124"/>
+      <c r="DM4" s="124"/>
+      <c r="DN4" s="124"/>
+      <c r="DO4" s="124"/>
+      <c r="DP4" s="124"/>
+      <c r="DQ4" s="124"/>
+      <c r="DR4" s="124"/>
+      <c r="DS4" s="124"/>
+      <c r="DT4" s="125"/>
       <c r="DU4" s="8"/>
     </row>
     <row r="5" spans="1:125" ht="18" customHeight="1">
@@ -4077,33 +4077,33 @@
     </row>
     <row r="7" spans="1:125" ht="9.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="174" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="174" t="s">
+      <c r="I7" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="175" t="s">
+      <c r="J7" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="175" t="s">
+      <c r="K7" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="175" t="s">
+      <c r="L7" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="175" t="s">
+      <c r="M7" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="N7" s="176" t="s">
+      <c r="N7" s="132" t="s">
         <v>37</v>
       </c>
       <c r="O7" s="15"/>
@@ -4220,19 +4220,19 @@
     </row>
     <row r="8" spans="1:125" ht="9.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="176"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="132"/>
       <c r="O8" s="17"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -4348,20 +4348,20 @@
     <row r="9" spans="1:125" ht="9.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="136"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="135"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
@@ -4477,18 +4477,18 @@
     <row r="10" spans="1:125" ht="9.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="136"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="135"/>
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
@@ -4604,20 +4604,20 @@
     <row r="11" spans="1:125" ht="9.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="168" t="s">
+      <c r="C11" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="136"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="135"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
@@ -4733,18 +4733,18 @@
     <row r="12" spans="1:125" ht="9.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="136"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="135"/>
       <c r="O12" s="25"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
@@ -4861,23 +4861,23 @@
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="172" t="s">
+      <c r="D13" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="131">
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="139">
         <v>0.5</v>
       </c>
-      <c r="I13" s="165"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107" t="s">
+      <c r="I13" s="140"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="107"/>
-      <c r="N13" s="132">
+      <c r="M13" s="119"/>
+      <c r="N13" s="141">
         <v>100</v>
       </c>
       <c r="O13" s="17"/>
@@ -4996,17 +4996,17 @@
       <c r="A14" s="2"/>
       <c r="B14" s="24"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="132"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="141"/>
       <c r="O14" s="17"/>
       <c r="Q14" s="82"/>
       <c r="R14" s="18"/>
@@ -5122,23 +5122,23 @@
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="172" t="s">
+      <c r="D15" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="131">
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="139">
         <v>0.5</v>
       </c>
-      <c r="I15" s="165"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107" t="s">
+      <c r="I15" s="140"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="107"/>
-      <c r="N15" s="132">
+      <c r="M15" s="119"/>
+      <c r="N15" s="141">
         <v>100</v>
       </c>
       <c r="O15" s="32"/>
@@ -5257,17 +5257,17 @@
       <c r="A16" s="2"/>
       <c r="B16" s="24"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="132"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="141"/>
       <c r="O16" s="32"/>
       <c r="Q16" s="82"/>
       <c r="R16" s="18"/>
@@ -5383,23 +5383,23 @@
       <c r="A17" s="2"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="172" t="s">
+      <c r="D17" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="131">
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="139">
         <v>0.5</v>
       </c>
-      <c r="I17" s="165"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107" t="s">
+      <c r="I17" s="140"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="107"/>
-      <c r="N17" s="132">
+      <c r="M17" s="119"/>
+      <c r="N17" s="141">
         <v>100</v>
       </c>
       <c r="O17" s="32"/>
@@ -5518,17 +5518,17 @@
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="132"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="141"/>
       <c r="O18" s="32"/>
       <c r="Q18" s="82"/>
       <c r="R18" s="18"/>
@@ -5644,23 +5644,23 @@
       <c r="A19" s="2"/>
       <c r="B19" s="24"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="172" t="s">
+      <c r="D19" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="131">
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="139">
         <v>0.5</v>
       </c>
-      <c r="I19" s="165"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107" t="s">
+      <c r="I19" s="140"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="107"/>
-      <c r="N19" s="132">
+      <c r="M19" s="119"/>
+      <c r="N19" s="141">
         <v>100</v>
       </c>
       <c r="O19" s="32"/>
@@ -5779,17 +5779,17 @@
       <c r="A20" s="2"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="132"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="141"/>
       <c r="O20" s="34"/>
       <c r="Q20" s="86"/>
       <c r="R20" s="35"/>
@@ -5904,20 +5904,20 @@
     <row r="21" spans="1:125" ht="9.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="168" t="s">
+      <c r="C21" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="136"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="135"/>
       <c r="O21" s="21"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="22"/>
@@ -6033,18 +6033,18 @@
     <row r="22" spans="1:125" ht="9.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="136"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="135"/>
       <c r="O22" s="25"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
@@ -6161,23 +6161,23 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="169" t="s">
+      <c r="D23" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="131">
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="139">
         <v>2</v>
       </c>
-      <c r="I23" s="165"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107" t="s">
+      <c r="I23" s="140"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="107"/>
-      <c r="N23" s="132">
+      <c r="M23" s="119"/>
+      <c r="N23" s="141">
         <v>100</v>
       </c>
       <c r="O23" s="32"/>
@@ -6296,17 +6296,17 @@
       <c r="A24" s="2"/>
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="132"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="141"/>
       <c r="O24" s="32"/>
       <c r="P24" s="18"/>
       <c r="R24" s="82"/>
@@ -6421,20 +6421,20 @@
     <row r="25" spans="1:125" ht="9.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="168" t="s">
+      <c r="C25" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="136"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="135"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="22"/>
@@ -6550,18 +6550,18 @@
     <row r="26" spans="1:125" ht="9.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="136"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="135"/>
       <c r="O26" s="25"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -6678,23 +6678,23 @@
       <c r="A27" s="2"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="169" t="s">
+      <c r="D27" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="131">
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="139">
         <v>1</v>
       </c>
-      <c r="I27" s="165"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107" t="s">
+      <c r="I27" s="140"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="107"/>
-      <c r="N27" s="132">
+      <c r="M27" s="119"/>
+      <c r="N27" s="141">
         <v>100</v>
       </c>
       <c r="O27" s="32"/>
@@ -6813,17 +6813,17 @@
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="132"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="141"/>
       <c r="O28" s="32"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -6940,23 +6940,23 @@
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="170" t="s">
+      <c r="D29" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="131">
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="139">
         <v>1</v>
       </c>
-      <c r="I29" s="165"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107" t="s">
+      <c r="I29" s="140"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="132">
+      <c r="M29" s="119"/>
+      <c r="N29" s="141">
         <v>100</v>
       </c>
       <c r="O29" s="32"/>
@@ -7075,17 +7075,17 @@
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="132"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="141"/>
       <c r="O30" s="34"/>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
@@ -7200,20 +7200,20 @@
     <row r="31" spans="1:125" ht="9.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="168" t="s">
+      <c r="C31" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="136"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="135"/>
       <c r="O31" s="21"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="22"/>
@@ -7329,18 +7329,18 @@
     <row r="32" spans="1:125" ht="9.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="136"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="135"/>
       <c r="O32" s="25"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
@@ -7457,19 +7457,19 @@
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="153" t="s">
+      <c r="D33" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="136"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="135"/>
       <c r="O33" s="42"/>
       <c r="P33" s="43"/>
       <c r="Q33" s="43"/>
@@ -7586,17 +7586,17 @@
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
-      <c r="N34" s="136"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="135"/>
       <c r="O34" s="44"/>
       <c r="P34" s="31"/>
       <c r="Q34" s="31"/>
@@ -7714,22 +7714,22 @@
       <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="150" t="s">
+      <c r="E35" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="154"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="131">
+      <c r="F35" s="128"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="139">
         <v>1</v>
       </c>
-      <c r="I35" s="165"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107" t="s">
+      <c r="I35" s="140"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="107"/>
-      <c r="N35" s="132">
+      <c r="M35" s="119"/>
+      <c r="N35" s="141">
         <v>100</v>
       </c>
       <c r="O35" s="32"/>
@@ -7849,16 +7849,16 @@
       <c r="B36" s="24"/>
       <c r="C36" s="2"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="132"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="141"/>
       <c r="O36" s="32"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -7976,20 +7976,20 @@
       <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="150" t="s">
+      <c r="E37" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="154"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107" t="s">
+      <c r="F37" s="128"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="107"/>
-      <c r="N37" s="132">
+      <c r="M37" s="119"/>
+      <c r="N37" s="141">
         <v>100</v>
       </c>
       <c r="O37" s="32"/>
@@ -8109,16 +8109,16 @@
       <c r="B38" s="24"/>
       <c r="C38" s="2"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="132"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="141"/>
       <c r="O38" s="34"/>
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
@@ -8235,19 +8235,19 @@
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="167" t="s">
+      <c r="D39" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="136"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="135"/>
       <c r="O39" s="42"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
@@ -8364,17 +8364,17 @@
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="136"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="135"/>
       <c r="O40" s="44"/>
       <c r="P40" s="31"/>
       <c r="Q40" s="31"/>
@@ -8492,22 +8492,22 @@
       <c r="B41" s="24"/>
       <c r="C41" s="2"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="150" t="s">
+      <c r="E41" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="154"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="131">
+      <c r="F41" s="128"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="139">
         <v>1</v>
       </c>
-      <c r="I41" s="165"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107" t="s">
+      <c r="I41" s="140"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="107"/>
-      <c r="N41" s="132">
+      <c r="M41" s="119"/>
+      <c r="N41" s="141">
         <v>100</v>
       </c>
       <c r="O41" s="32"/>
@@ -8627,16 +8627,16 @@
       <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="165"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="132"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="141"/>
       <c r="O42" s="32"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
@@ -8753,22 +8753,22 @@
       <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="150" t="s">
+      <c r="E43" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="154"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="131">
+      <c r="F43" s="128"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="139">
         <v>4</v>
       </c>
-      <c r="I43" s="165"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107" t="s">
+      <c r="I43" s="140"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="107"/>
-      <c r="N43" s="132">
+      <c r="M43" s="119"/>
+      <c r="N43" s="141">
         <v>100</v>
       </c>
       <c r="O43" s="32"/>
@@ -8888,16 +8888,16 @@
       <c r="B44" s="24"/>
       <c r="C44" s="2"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="132"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="141"/>
       <c r="O44" s="32"/>
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
@@ -9014,22 +9014,22 @@
       <c r="B45" s="24"/>
       <c r="C45" s="2"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="150" t="s">
+      <c r="E45" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="154"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="131">
+      <c r="F45" s="128"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="139">
         <v>0.5</v>
       </c>
-      <c r="I45" s="165"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107" t="s">
+      <c r="I45" s="140"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="107"/>
-      <c r="N45" s="132">
+      <c r="M45" s="119"/>
+      <c r="N45" s="141">
         <v>100</v>
       </c>
       <c r="O45" s="32"/>
@@ -9149,16 +9149,16 @@
       <c r="B46" s="24"/>
       <c r="C46" s="2"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="165"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="132"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="141"/>
       <c r="O46" s="32"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
@@ -9276,22 +9276,22 @@
       <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="150" t="s">
+      <c r="E47" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="154"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="131">
+      <c r="F47" s="128"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="139">
         <v>4</v>
       </c>
-      <c r="I47" s="165"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107" t="s">
+      <c r="I47" s="140"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="107"/>
-      <c r="N47" s="132">
+      <c r="M47" s="119"/>
+      <c r="N47" s="141">
         <v>100</v>
       </c>
       <c r="O47" s="32"/>
@@ -9411,16 +9411,16 @@
       <c r="B48" s="24"/>
       <c r="C48" s="2"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="108"/>
-      <c r="M48" s="108"/>
-      <c r="N48" s="132"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="141"/>
       <c r="O48" s="32"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
@@ -9538,22 +9538,22 @@
       <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="150" t="s">
+      <c r="E49" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="154"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="131">
+      <c r="F49" s="128"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="139">
         <v>4</v>
       </c>
-      <c r="I49" s="165"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107" t="s">
+      <c r="I49" s="140"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="107"/>
-      <c r="N49" s="132">
+      <c r="M49" s="119"/>
+      <c r="N49" s="141">
         <v>100</v>
       </c>
       <c r="O49" s="32"/>
@@ -9673,16 +9673,16 @@
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="108"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="108"/>
-      <c r="M50" s="108"/>
-      <c r="N50" s="132"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="141"/>
       <c r="O50" s="32"/>
       <c r="P50" s="18"/>
       <c r="Q50" s="18"/>
@@ -9800,22 +9800,22 @@
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="150" t="s">
+      <c r="E51" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="154"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="131">
+      <c r="F51" s="128"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="139">
         <v>0.5</v>
       </c>
-      <c r="I51" s="165"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
-      <c r="L51" s="107" t="s">
+      <c r="I51" s="140"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="107"/>
-      <c r="N51" s="132">
+      <c r="M51" s="119"/>
+      <c r="N51" s="141">
         <v>100</v>
       </c>
       <c r="O51" s="32"/>
@@ -9935,16 +9935,16 @@
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="108"/>
-      <c r="N52" s="132"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="120"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="141"/>
       <c r="O52" s="34"/>
       <c r="P52" s="35"/>
       <c r="Q52" s="35"/>
@@ -10061,19 +10061,19 @@
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="153" t="s">
+      <c r="D53" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="154"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="166"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="124"/>
-      <c r="L53" s="124"/>
-      <c r="M53" s="124"/>
-      <c r="N53" s="136"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="118"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="118"/>
+      <c r="N53" s="135"/>
       <c r="O53" s="42"/>
       <c r="P53" s="43"/>
       <c r="Q53" s="43"/>
@@ -10190,17 +10190,17 @@
       <c r="A54" s="2"/>
       <c r="B54" s="24"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="155"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="166"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="124"/>
-      <c r="N54" s="136"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="118"/>
+      <c r="N54" s="135"/>
       <c r="O54" s="44"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="31"/>
@@ -10318,22 +10318,22 @@
       <c r="B55" s="24"/>
       <c r="C55" s="2"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="150" t="s">
+      <c r="E55" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="154"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="131">
+      <c r="F55" s="128"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="139">
         <v>4</v>
       </c>
-      <c r="I55" s="165"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="107"/>
-      <c r="L55" s="107" t="s">
+      <c r="I55" s="140"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="M55" s="107"/>
-      <c r="N55" s="132">
+      <c r="M55" s="119"/>
+      <c r="N55" s="141">
         <v>100</v>
       </c>
       <c r="O55" s="32"/>
@@ -10452,16 +10452,16 @@
       <c r="B56" s="24"/>
       <c r="C56" s="2"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="132"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="120"/>
+      <c r="L56" s="120"/>
+      <c r="M56" s="120"/>
+      <c r="N56" s="141"/>
       <c r="O56" s="32"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
@@ -10579,22 +10579,22 @@
       <c r="B57" s="24"/>
       <c r="C57" s="2"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="150" t="s">
+      <c r="E57" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="154"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="131">
+      <c r="F57" s="128"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="139">
         <v>4</v>
       </c>
-      <c r="I57" s="165"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="107"/>
-      <c r="L57" s="107" t="s">
+      <c r="I57" s="140"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="119"/>
+      <c r="L57" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="M57" s="107"/>
-      <c r="N57" s="132">
+      <c r="M57" s="119"/>
+      <c r="N57" s="141">
         <v>100</v>
       </c>
       <c r="O57" s="32"/>
@@ -10714,16 +10714,16 @@
       <c r="B58" s="24"/>
       <c r="C58" s="2"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="108"/>
-      <c r="K58" s="108"/>
-      <c r="L58" s="108"/>
-      <c r="M58" s="108"/>
-      <c r="N58" s="132"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="141"/>
       <c r="O58" s="32"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="18"/>
@@ -10841,22 +10841,22 @@
       <c r="B59" s="24"/>
       <c r="C59" s="2"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="150" t="s">
+      <c r="E59" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="154"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="131">
+      <c r="F59" s="128"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="139">
         <v>4</v>
       </c>
-      <c r="I59" s="165"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="107"/>
-      <c r="L59" s="107" t="s">
+      <c r="I59" s="140"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="M59" s="107"/>
-      <c r="N59" s="132">
+      <c r="M59" s="119"/>
+      <c r="N59" s="141">
         <v>100</v>
       </c>
       <c r="O59" s="32"/>
@@ -10976,16 +10976,16 @@
       <c r="B60" s="24"/>
       <c r="C60" s="2"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="108"/>
-      <c r="N60" s="132"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="120"/>
+      <c r="L60" s="120"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="141"/>
       <c r="O60" s="32"/>
       <c r="P60" s="18"/>
       <c r="Q60" s="18"/>
@@ -11103,22 +11103,22 @@
       <c r="B61" s="24"/>
       <c r="C61" s="2"/>
       <c r="D61" s="46"/>
-      <c r="E61" s="150" t="s">
+      <c r="E61" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="154"/>
-      <c r="G61" s="163"/>
-      <c r="H61" s="131">
+      <c r="F61" s="128"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="139">
         <v>0.5</v>
       </c>
-      <c r="I61" s="165"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107" t="s">
+      <c r="I61" s="140"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="119"/>
+      <c r="L61" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="M61" s="107"/>
-      <c r="N61" s="132">
+      <c r="M61" s="119"/>
+      <c r="N61" s="141">
         <v>100</v>
       </c>
       <c r="O61" s="32"/>
@@ -11238,16 +11238,16 @@
       <c r="B62" s="24"/>
       <c r="C62" s="2"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="155"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="108"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="108"/>
-      <c r="N62" s="132"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="143"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="141"/>
       <c r="O62" s="34"/>
       <c r="P62" s="35"/>
       <c r="Q62" s="35"/>
@@ -11364,19 +11364,19 @@
       <c r="A63" s="2"/>
       <c r="B63" s="24"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="153" t="s">
+      <c r="D63" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="154"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="154"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="125"/>
-      <c r="K63" s="125"/>
-      <c r="L63" s="125"/>
-      <c r="M63" s="125"/>
-      <c r="N63" s="136"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="114"/>
+      <c r="M63" s="114"/>
+      <c r="N63" s="135"/>
       <c r="O63" s="42"/>
       <c r="P63" s="43"/>
       <c r="Q63" s="43"/>
@@ -11493,17 +11493,17 @@
       <c r="A64" s="2"/>
       <c r="B64" s="24"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="126"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="126"/>
-      <c r="M64" s="126"/>
-      <c r="N64" s="136"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="115"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="115"/>
+      <c r="L64" s="115"/>
+      <c r="M64" s="115"/>
+      <c r="N64" s="135"/>
       <c r="O64" s="44"/>
       <c r="P64" s="31"/>
       <c r="Q64" s="31"/>
@@ -11621,20 +11621,20 @@
       <c r="B65" s="24"/>
       <c r="C65" s="2"/>
       <c r="D65" s="46"/>
-      <c r="E65" s="150" t="s">
+      <c r="E65" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="154"/>
-      <c r="G65" s="163"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="131"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107" t="s">
+      <c r="F65" s="128"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="139"/>
+      <c r="J65" s="119"/>
+      <c r="K65" s="119"/>
+      <c r="L65" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="M65" s="107"/>
-      <c r="N65" s="132">
+      <c r="M65" s="119"/>
+      <c r="N65" s="141">
         <v>100</v>
       </c>
       <c r="O65" s="32"/>
@@ -11754,16 +11754,16 @@
       <c r="B66" s="24"/>
       <c r="C66" s="2"/>
       <c r="D66" s="46"/>
-      <c r="E66" s="155"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="164"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="131"/>
-      <c r="J66" s="108"/>
-      <c r="K66" s="108"/>
-      <c r="L66" s="108"/>
-      <c r="M66" s="108"/>
-      <c r="N66" s="132"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="139"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="120"/>
+      <c r="L66" s="120"/>
+      <c r="M66" s="120"/>
+      <c r="N66" s="141"/>
       <c r="O66" s="32"/>
       <c r="P66" s="18"/>
       <c r="Q66" s="18"/>
@@ -11881,20 +11881,20 @@
       <c r="B67" s="24"/>
       <c r="C67" s="2"/>
       <c r="D67" s="46"/>
-      <c r="E67" s="150" t="s">
+      <c r="E67" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="154"/>
-      <c r="G67" s="163"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="131"/>
-      <c r="J67" s="107"/>
-      <c r="K67" s="107"/>
-      <c r="L67" s="107" t="s">
+      <c r="F67" s="128"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="139"/>
+      <c r="I67" s="139"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="119"/>
+      <c r="L67" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="M67" s="107"/>
-      <c r="N67" s="132">
+      <c r="M67" s="119"/>
+      <c r="N67" s="141">
         <v>100</v>
       </c>
       <c r="O67" s="32"/>
@@ -12012,16 +12012,16 @@
       <c r="B68" s="24"/>
       <c r="C68" s="2"/>
       <c r="D68" s="46"/>
-      <c r="E68" s="155"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="164"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="108"/>
-      <c r="K68" s="108"/>
-      <c r="L68" s="108"/>
-      <c r="M68" s="108"/>
-      <c r="N68" s="132"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="143"/>
+      <c r="H68" s="139"/>
+      <c r="I68" s="139"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="141"/>
       <c r="O68" s="32"/>
       <c r="P68" s="18"/>
       <c r="Q68" s="18"/>
@@ -12139,20 +12139,20 @@
       <c r="B69" s="24"/>
       <c r="C69" s="2"/>
       <c r="D69" s="46"/>
-      <c r="E69" s="150" t="s">
+      <c r="E69" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="F69" s="154"/>
-      <c r="G69" s="163"/>
-      <c r="H69" s="131"/>
-      <c r="I69" s="131"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="107"/>
-      <c r="L69" s="107" t="s">
+      <c r="F69" s="128"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="139"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="M69" s="107"/>
-      <c r="N69" s="132">
+      <c r="M69" s="119"/>
+      <c r="N69" s="141">
         <v>100</v>
       </c>
       <c r="O69" s="32"/>
@@ -12272,16 +12272,16 @@
       <c r="B70" s="24"/>
       <c r="C70" s="2"/>
       <c r="D70" s="46"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="156"/>
-      <c r="G70" s="164"/>
-      <c r="H70" s="131"/>
-      <c r="I70" s="131"/>
-      <c r="J70" s="108"/>
-      <c r="K70" s="108"/>
-      <c r="L70" s="108"/>
-      <c r="M70" s="108"/>
-      <c r="N70" s="132"/>
+      <c r="E70" s="129"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="143"/>
+      <c r="H70" s="139"/>
+      <c r="I70" s="139"/>
+      <c r="J70" s="120"/>
+      <c r="K70" s="120"/>
+      <c r="L70" s="120"/>
+      <c r="M70" s="120"/>
+      <c r="N70" s="141"/>
       <c r="O70" s="32"/>
       <c r="P70" s="18"/>
       <c r="Q70" s="18"/>
@@ -12399,20 +12399,20 @@
       <c r="B71" s="24"/>
       <c r="C71" s="2"/>
       <c r="D71" s="46"/>
-      <c r="E71" s="150" t="s">
+      <c r="E71" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="154"/>
-      <c r="G71" s="163"/>
-      <c r="H71" s="131"/>
-      <c r="I71" s="131"/>
-      <c r="J71" s="107"/>
-      <c r="K71" s="107"/>
-      <c r="L71" s="107" t="s">
+      <c r="F71" s="128"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="139"/>
+      <c r="I71" s="139"/>
+      <c r="J71" s="119"/>
+      <c r="K71" s="119"/>
+      <c r="L71" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="M71" s="107"/>
-      <c r="N71" s="132">
+      <c r="M71" s="119"/>
+      <c r="N71" s="141">
         <v>100</v>
       </c>
       <c r="O71" s="32"/>
@@ -12532,16 +12532,16 @@
       <c r="B72" s="24"/>
       <c r="C72" s="2"/>
       <c r="D72" s="46"/>
-      <c r="E72" s="155"/>
-      <c r="F72" s="156"/>
-      <c r="G72" s="164"/>
-      <c r="H72" s="131"/>
-      <c r="I72" s="131"/>
-      <c r="J72" s="108"/>
-      <c r="K72" s="108"/>
-      <c r="L72" s="108"/>
-      <c r="M72" s="108"/>
-      <c r="N72" s="132"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="130"/>
+      <c r="G72" s="143"/>
+      <c r="H72" s="139"/>
+      <c r="I72" s="139"/>
+      <c r="J72" s="120"/>
+      <c r="K72" s="120"/>
+      <c r="L72" s="120"/>
+      <c r="M72" s="120"/>
+      <c r="N72" s="141"/>
       <c r="O72" s="32"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="18"/>
@@ -12659,20 +12659,20 @@
       <c r="B73" s="24"/>
       <c r="C73" s="2"/>
       <c r="D73" s="46"/>
-      <c r="E73" s="150" t="s">
+      <c r="E73" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="154"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="131"/>
-      <c r="I73" s="131"/>
-      <c r="J73" s="107"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="107" t="s">
+      <c r="F73" s="128"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="139"/>
+      <c r="I73" s="139"/>
+      <c r="J73" s="119"/>
+      <c r="K73" s="119"/>
+      <c r="L73" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="M73" s="107"/>
-      <c r="N73" s="132">
+      <c r="M73" s="119"/>
+      <c r="N73" s="141">
         <v>100</v>
       </c>
       <c r="O73" s="32"/>
@@ -12792,16 +12792,16 @@
       <c r="B74" s="24"/>
       <c r="C74" s="2"/>
       <c r="D74" s="47"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="164"/>
-      <c r="H74" s="131"/>
-      <c r="I74" s="131"/>
-      <c r="J74" s="108"/>
-      <c r="K74" s="108"/>
-      <c r="L74" s="108"/>
-      <c r="M74" s="108"/>
-      <c r="N74" s="132"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="130"/>
+      <c r="G74" s="143"/>
+      <c r="H74" s="139"/>
+      <c r="I74" s="139"/>
+      <c r="J74" s="120"/>
+      <c r="K74" s="120"/>
+      <c r="L74" s="120"/>
+      <c r="M74" s="120"/>
+      <c r="N74" s="141"/>
       <c r="O74" s="34"/>
       <c r="P74" s="35"/>
       <c r="Q74" s="35"/>
@@ -12917,20 +12917,20 @@
     <row r="75" spans="1:125" ht="9.75" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="51"/>
-      <c r="C75" s="157" t="s">
+      <c r="C75" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="154"/>
-      <c r="E75" s="154"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="154"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
-      <c r="K75" s="125"/>
-      <c r="L75" s="125"/>
-      <c r="M75" s="125"/>
-      <c r="N75" s="136"/>
+      <c r="D75" s="128"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="128"/>
+      <c r="G75" s="128"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="114"/>
+      <c r="J75" s="114"/>
+      <c r="K75" s="114"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="114"/>
+      <c r="N75" s="135"/>
       <c r="O75" s="42"/>
       <c r="P75" s="43"/>
       <c r="Q75" s="43"/>
@@ -13046,18 +13046,18 @@
     <row r="76" spans="1:125" ht="9.75" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="51"/>
-      <c r="C76" s="156"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="126"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="126"/>
-      <c r="M76" s="126"/>
-      <c r="N76" s="136"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="130"/>
+      <c r="G76" s="130"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="115"/>
+      <c r="L76" s="115"/>
+      <c r="M76" s="115"/>
+      <c r="N76" s="135"/>
       <c r="O76" s="44"/>
       <c r="P76" s="31"/>
       <c r="Q76" s="31"/>
@@ -13173,20 +13173,20 @@
     <row r="77" spans="1:125" ht="9.75" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="51"/>
-      <c r="C77" s="157" t="s">
+      <c r="C77" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="154"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="154"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="125"/>
-      <c r="J77" s="125"/>
-      <c r="K77" s="125"/>
-      <c r="L77" s="125"/>
-      <c r="M77" s="125"/>
-      <c r="N77" s="136"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="128"/>
+      <c r="F77" s="128"/>
+      <c r="G77" s="128"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="114"/>
+      <c r="K77" s="114"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="135"/>
       <c r="O77" s="42"/>
       <c r="P77" s="43"/>
       <c r="Q77" s="43"/>
@@ -13302,18 +13302,18 @@
     <row r="78" spans="1:125" ht="9.75" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="156"/>
-      <c r="D78" s="156"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="156"/>
-      <c r="G78" s="156"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="126"/>
-      <c r="M78" s="126"/>
-      <c r="N78" s="136"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="130"/>
+      <c r="G78" s="130"/>
+      <c r="H78" s="115"/>
+      <c r="I78" s="115"/>
+      <c r="J78" s="115"/>
+      <c r="K78" s="115"/>
+      <c r="L78" s="115"/>
+      <c r="M78" s="115"/>
+      <c r="N78" s="135"/>
       <c r="O78" s="44"/>
       <c r="P78" s="31"/>
       <c r="Q78" s="31"/>
@@ -13430,19 +13430,19 @@
       <c r="A79" s="2"/>
       <c r="B79" s="24"/>
       <c r="C79" s="41"/>
-      <c r="D79" s="153" t="s">
+      <c r="D79" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="154"/>
-      <c r="F79" s="154"/>
-      <c r="G79" s="154"/>
-      <c r="H79" s="124"/>
-      <c r="I79" s="124"/>
-      <c r="J79" s="124"/>
-      <c r="K79" s="124"/>
-      <c r="L79" s="124"/>
-      <c r="M79" s="124"/>
-      <c r="N79" s="136"/>
+      <c r="E79" s="128"/>
+      <c r="F79" s="128"/>
+      <c r="G79" s="128"/>
+      <c r="H79" s="118"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="118"/>
+      <c r="K79" s="118"/>
+      <c r="L79" s="118"/>
+      <c r="M79" s="118"/>
+      <c r="N79" s="135"/>
       <c r="O79" s="42"/>
       <c r="P79" s="43"/>
       <c r="Q79" s="43"/>
@@ -13559,17 +13559,17 @@
       <c r="A80" s="2"/>
       <c r="B80" s="24"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="155"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="156"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="124"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="124"/>
-      <c r="K80" s="124"/>
-      <c r="L80" s="124"/>
-      <c r="M80" s="124"/>
-      <c r="N80" s="136"/>
+      <c r="D80" s="129"/>
+      <c r="E80" s="130"/>
+      <c r="F80" s="130"/>
+      <c r="G80" s="130"/>
+      <c r="H80" s="118"/>
+      <c r="I80" s="118"/>
+      <c r="J80" s="118"/>
+      <c r="K80" s="118"/>
+      <c r="L80" s="118"/>
+      <c r="M80" s="118"/>
+      <c r="N80" s="135"/>
       <c r="O80" s="44"/>
       <c r="P80" s="31"/>
       <c r="Q80" s="31"/>
@@ -13687,20 +13687,20 @@
       <c r="B81" s="24"/>
       <c r="C81" s="2"/>
       <c r="D81" s="46"/>
-      <c r="E81" s="150" t="s">
+      <c r="E81" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="F81" s="154"/>
-      <c r="G81" s="163"/>
-      <c r="H81" s="131"/>
-      <c r="I81" s="131"/>
-      <c r="J81" s="107"/>
-      <c r="K81" s="107"/>
-      <c r="L81" s="107" t="s">
+      <c r="F81" s="128"/>
+      <c r="G81" s="142"/>
+      <c r="H81" s="139"/>
+      <c r="I81" s="139"/>
+      <c r="J81" s="119"/>
+      <c r="K81" s="119"/>
+      <c r="L81" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="M81" s="107"/>
-      <c r="N81" s="132"/>
+      <c r="M81" s="119"/>
+      <c r="N81" s="141"/>
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
       <c r="Q81" s="18"/>
@@ -13818,16 +13818,16 @@
       <c r="B82" s="24"/>
       <c r="C82" s="2"/>
       <c r="D82" s="46"/>
-      <c r="E82" s="155"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="164"/>
-      <c r="H82" s="131"/>
-      <c r="I82" s="131"/>
-      <c r="J82" s="108"/>
-      <c r="K82" s="108"/>
-      <c r="L82" s="108"/>
-      <c r="M82" s="108"/>
-      <c r="N82" s="132"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="130"/>
+      <c r="G82" s="143"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="139"/>
+      <c r="J82" s="120"/>
+      <c r="K82" s="120"/>
+      <c r="L82" s="120"/>
+      <c r="M82" s="120"/>
+      <c r="N82" s="141"/>
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
       <c r="Q82" s="18"/>
@@ -13945,20 +13945,20 @@
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
       <c r="D83" s="46"/>
-      <c r="E83" s="150" t="s">
+      <c r="E83" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="F83" s="154"/>
-      <c r="G83" s="163"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107" t="s">
+      <c r="F83" s="128"/>
+      <c r="G83" s="142"/>
+      <c r="H83" s="139"/>
+      <c r="I83" s="139"/>
+      <c r="J83" s="119"/>
+      <c r="K83" s="119"/>
+      <c r="L83" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="M83" s="107"/>
-      <c r="N83" s="132"/>
+      <c r="M83" s="119"/>
+      <c r="N83" s="141"/>
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="18"/>
@@ -14076,16 +14076,16 @@
       <c r="B84" s="24"/>
       <c r="C84" s="2"/>
       <c r="D84" s="46"/>
-      <c r="E84" s="155"/>
-      <c r="F84" s="156"/>
-      <c r="G84" s="164"/>
-      <c r="H84" s="131"/>
-      <c r="I84" s="131"/>
-      <c r="J84" s="108"/>
-      <c r="K84" s="108"/>
-      <c r="L84" s="108"/>
-      <c r="M84" s="108"/>
-      <c r="N84" s="132"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="130"/>
+      <c r="G84" s="143"/>
+      <c r="H84" s="139"/>
+      <c r="I84" s="139"/>
+      <c r="J84" s="120"/>
+      <c r="K84" s="120"/>
+      <c r="L84" s="120"/>
+      <c r="M84" s="120"/>
+      <c r="N84" s="141"/>
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
       <c r="Q84" s="18"/>
@@ -14203,20 +14203,20 @@
       <c r="B85" s="24"/>
       <c r="C85" s="2"/>
       <c r="D85" s="46"/>
-      <c r="E85" s="150" t="s">
+      <c r="E85" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="154"/>
-      <c r="G85" s="163"/>
-      <c r="H85" s="131"/>
-      <c r="I85" s="131"/>
-      <c r="J85" s="107"/>
-      <c r="K85" s="107"/>
-      <c r="L85" s="107" t="s">
+      <c r="F85" s="128"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="139"/>
+      <c r="I85" s="139"/>
+      <c r="J85" s="119"/>
+      <c r="K85" s="119"/>
+      <c r="L85" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="M85" s="107"/>
-      <c r="N85" s="132"/>
+      <c r="M85" s="119"/>
+      <c r="N85" s="141"/>
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
       <c r="Q85" s="18"/>
@@ -14334,16 +14334,16 @@
       <c r="B86" s="24"/>
       <c r="C86" s="2"/>
       <c r="D86" s="46"/>
-      <c r="E86" s="155"/>
-      <c r="F86" s="156"/>
-      <c r="G86" s="164"/>
-      <c r="H86" s="131"/>
-      <c r="I86" s="131"/>
-      <c r="J86" s="108"/>
-      <c r="K86" s="108"/>
-      <c r="L86" s="108"/>
-      <c r="M86" s="108"/>
-      <c r="N86" s="132"/>
+      <c r="E86" s="129"/>
+      <c r="F86" s="130"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="139"/>
+      <c r="J86" s="120"/>
+      <c r="K86" s="120"/>
+      <c r="L86" s="120"/>
+      <c r="M86" s="120"/>
+      <c r="N86" s="141"/>
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
       <c r="Q86" s="18"/>
@@ -14460,19 +14460,19 @@
       <c r="A87" s="19"/>
       <c r="B87" s="51"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="153" t="s">
+      <c r="D87" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="125"/>
-      <c r="J87" s="125"/>
-      <c r="K87" s="125"/>
-      <c r="L87" s="125"/>
-      <c r="M87" s="125"/>
-      <c r="N87" s="136"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="114"/>
+      <c r="N87" s="135"/>
       <c r="O87" s="42"/>
       <c r="P87" s="43"/>
       <c r="Q87" s="43"/>
@@ -14589,17 +14589,17 @@
       <c r="A88" s="19"/>
       <c r="B88" s="51"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="155"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="126"/>
-      <c r="I88" s="126"/>
-      <c r="J88" s="126"/>
-      <c r="K88" s="126"/>
-      <c r="L88" s="126"/>
-      <c r="M88" s="126"/>
-      <c r="N88" s="136"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
+      <c r="G88" s="130"/>
+      <c r="H88" s="115"/>
+      <c r="I88" s="115"/>
+      <c r="J88" s="115"/>
+      <c r="K88" s="115"/>
+      <c r="L88" s="115"/>
+      <c r="M88" s="115"/>
+      <c r="N88" s="135"/>
       <c r="O88" s="44"/>
       <c r="P88" s="31"/>
       <c r="Q88" s="31"/>
@@ -14717,18 +14717,18 @@
       <c r="B89" s="24"/>
       <c r="C89" s="2"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="137" t="s">
+      <c r="E89" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="F89" s="137"/>
-      <c r="G89" s="138"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="125"/>
-      <c r="J89" s="125"/>
-      <c r="K89" s="125"/>
-      <c r="L89" s="125"/>
-      <c r="M89" s="125"/>
-      <c r="N89" s="136"/>
+      <c r="F89" s="154"/>
+      <c r="G89" s="155"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="114"/>
+      <c r="J89" s="114"/>
+      <c r="K89" s="114"/>
+      <c r="L89" s="114"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="135"/>
       <c r="O89" s="42"/>
       <c r="P89" s="43"/>
       <c r="Q89" s="43"/>
@@ -14846,16 +14846,16 @@
       <c r="B90" s="24"/>
       <c r="C90" s="2"/>
       <c r="D90" s="56"/>
-      <c r="E90" s="134"/>
-      <c r="F90" s="158"/>
-      <c r="G90" s="159"/>
-      <c r="H90" s="126"/>
-      <c r="I90" s="126"/>
-      <c r="J90" s="126"/>
-      <c r="K90" s="126"/>
-      <c r="L90" s="126"/>
-      <c r="M90" s="126"/>
-      <c r="N90" s="136"/>
+      <c r="E90" s="156"/>
+      <c r="F90" s="157"/>
+      <c r="G90" s="158"/>
+      <c r="H90" s="115"/>
+      <c r="I90" s="115"/>
+      <c r="J90" s="115"/>
+      <c r="K90" s="115"/>
+      <c r="L90" s="115"/>
+      <c r="M90" s="115"/>
+      <c r="N90" s="135"/>
       <c r="O90" s="44"/>
       <c r="P90" s="31"/>
       <c r="Q90" s="31"/>
@@ -14974,21 +14974,21 @@
       <c r="C91" s="2"/>
       <c r="D91" s="46"/>
       <c r="E91" s="59"/>
-      <c r="F91" s="139" t="s">
+      <c r="F91" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="G91" s="140"/>
-      <c r="H91" s="112">
+      <c r="G91" s="160"/>
+      <c r="H91" s="151">
         <v>4</v>
       </c>
-      <c r="I91" s="112">
+      <c r="I91" s="151">
         <v>5</v>
       </c>
-      <c r="J91" s="107"/>
-      <c r="K91" s="107"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="107"/>
-      <c r="N91" s="109">
+      <c r="J91" s="119"/>
+      <c r="K91" s="119"/>
+      <c r="L91" s="119"/>
+      <c r="M91" s="119"/>
+      <c r="N91" s="111">
         <v>100</v>
       </c>
       <c r="O91" s="18"/>
@@ -15109,15 +15109,15 @@
       <c r="C92" s="2"/>
       <c r="D92" s="46"/>
       <c r="E92" s="60"/>
-      <c r="F92" s="142"/>
-      <c r="G92" s="143"/>
-      <c r="H92" s="113"/>
-      <c r="I92" s="113"/>
-      <c r="J92" s="108"/>
-      <c r="K92" s="108"/>
-      <c r="L92" s="108"/>
-      <c r="M92" s="108"/>
-      <c r="N92" s="110"/>
+      <c r="F92" s="161"/>
+      <c r="G92" s="162"/>
+      <c r="H92" s="152"/>
+      <c r="I92" s="152"/>
+      <c r="J92" s="120"/>
+      <c r="K92" s="120"/>
+      <c r="L92" s="120"/>
+      <c r="M92" s="120"/>
+      <c r="N92" s="112"/>
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
       <c r="Q92" s="18"/>
@@ -15237,24 +15237,24 @@
       <c r="D93" s="46"/>
       <c r="E93" s="60"/>
       <c r="F93" s="105"/>
-      <c r="G93" s="115" t="s">
+      <c r="G93" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H93" s="113"/>
-      <c r="I93" s="113"/>
-      <c r="J93" s="123" t="s">
+      <c r="H93" s="152"/>
+      <c r="I93" s="152"/>
+      <c r="J93" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="K93" s="123" t="s">
+      <c r="K93" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="L93" s="123" t="s">
+      <c r="L93" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="M93" s="107" t="s">
+      <c r="M93" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="N93" s="110"/>
+      <c r="N93" s="112"/>
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
       <c r="Q93" s="18"/>
@@ -15374,14 +15374,14 @@
       <c r="D94" s="46"/>
       <c r="E94" s="60"/>
       <c r="F94" s="105"/>
-      <c r="G94" s="116"/>
-      <c r="H94" s="113"/>
-      <c r="I94" s="113"/>
-      <c r="J94" s="118"/>
-      <c r="K94" s="118"/>
-      <c r="L94" s="118"/>
-      <c r="M94" s="108"/>
-      <c r="N94" s="110"/>
+      <c r="G94" s="181"/>
+      <c r="H94" s="152"/>
+      <c r="I94" s="152"/>
+      <c r="J94" s="117"/>
+      <c r="K94" s="117"/>
+      <c r="L94" s="117"/>
+      <c r="M94" s="120"/>
+      <c r="N94" s="112"/>
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
       <c r="Q94" s="18"/>
@@ -15501,24 +15501,24 @@
       <c r="D95" s="46"/>
       <c r="E95" s="60"/>
       <c r="F95" s="105"/>
-      <c r="G95" s="119" t="s">
+      <c r="G95" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H95" s="113"/>
-      <c r="I95" s="113"/>
-      <c r="J95" s="107" t="s">
+      <c r="H95" s="152"/>
+      <c r="I95" s="152"/>
+      <c r="J95" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="K95" s="107" t="s">
+      <c r="K95" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="L95" s="107" t="s">
+      <c r="L95" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="M95" s="107" t="s">
+      <c r="M95" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="110"/>
+      <c r="N95" s="112"/>
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
       <c r="Q95" s="18"/>
@@ -15638,14 +15638,14 @@
       <c r="D96" s="46"/>
       <c r="E96" s="60"/>
       <c r="F96" s="105"/>
-      <c r="G96" s="120"/>
-      <c r="H96" s="114"/>
-      <c r="I96" s="114"/>
-      <c r="J96" s="108"/>
-      <c r="K96" s="108"/>
-      <c r="L96" s="108"/>
-      <c r="M96" s="108"/>
-      <c r="N96" s="111"/>
+      <c r="G96" s="184"/>
+      <c r="H96" s="153"/>
+      <c r="I96" s="153"/>
+      <c r="J96" s="120"/>
+      <c r="K96" s="120"/>
+      <c r="L96" s="120"/>
+      <c r="M96" s="120"/>
+      <c r="N96" s="113"/>
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
       <c r="Q96" s="18"/>
@@ -15764,20 +15764,20 @@
       <c r="C97" s="2"/>
       <c r="D97" s="46"/>
       <c r="E97" s="61"/>
-      <c r="F97" s="139" t="s">
+      <c r="F97" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="140"/>
-      <c r="H97" s="112">
+      <c r="G97" s="160"/>
+      <c r="H97" s="151">
         <v>4</v>
       </c>
-      <c r="I97" s="112"/>
-      <c r="J97" s="107"/>
-      <c r="K97" s="107"/>
-      <c r="L97" s="107"/>
-      <c r="M97" s="107"/>
-      <c r="N97" s="109">
-        <v>50</v>
+      <c r="I97" s="151"/>
+      <c r="J97" s="119"/>
+      <c r="K97" s="119"/>
+      <c r="L97" s="119"/>
+      <c r="M97" s="119"/>
+      <c r="N97" s="111">
+        <v>100</v>
       </c>
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
@@ -15897,15 +15897,15 @@
       <c r="C98" s="2"/>
       <c r="D98" s="46"/>
       <c r="E98" s="60"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="143"/>
-      <c r="H98" s="113"/>
-      <c r="I98" s="113"/>
-      <c r="J98" s="108"/>
-      <c r="K98" s="108"/>
-      <c r="L98" s="108"/>
-      <c r="M98" s="108"/>
-      <c r="N98" s="110"/>
+      <c r="F98" s="161"/>
+      <c r="G98" s="162"/>
+      <c r="H98" s="152"/>
+      <c r="I98" s="152"/>
+      <c r="J98" s="120"/>
+      <c r="K98" s="120"/>
+      <c r="L98" s="120"/>
+      <c r="M98" s="120"/>
+      <c r="N98" s="112"/>
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
       <c r="Q98" s="18"/>
@@ -15948,8 +15948,8 @@
       <c r="BB98" s="97"/>
       <c r="BC98" s="18"/>
       <c r="BD98" s="18"/>
-      <c r="BE98" s="18"/>
-      <c r="BF98" s="18"/>
+      <c r="BE98" s="97"/>
+      <c r="BF98" s="97"/>
       <c r="BG98" s="18"/>
       <c r="BH98" s="18"/>
       <c r="BI98" s="18"/>
@@ -16025,24 +16025,24 @@
       <c r="D99" s="46"/>
       <c r="E99" s="60"/>
       <c r="F99" s="105"/>
-      <c r="G99" s="115" t="s">
+      <c r="G99" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H99" s="113"/>
-      <c r="I99" s="113"/>
-      <c r="J99" s="107" t="s">
+      <c r="H99" s="152"/>
+      <c r="I99" s="152"/>
+      <c r="J99" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="K99" s="107" t="s">
+      <c r="K99" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="L99" s="107" t="s">
+      <c r="L99" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="M99" s="107" t="s">
+      <c r="M99" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="N99" s="110"/>
+      <c r="N99" s="112"/>
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
       <c r="Q99" s="18"/>
@@ -16162,14 +16162,14 @@
       <c r="D100" s="46"/>
       <c r="E100" s="60"/>
       <c r="F100" s="105"/>
-      <c r="G100" s="116"/>
-      <c r="H100" s="113"/>
-      <c r="I100" s="113"/>
-      <c r="J100" s="108"/>
-      <c r="K100" s="108"/>
-      <c r="L100" s="108"/>
-      <c r="M100" s="108"/>
-      <c r="N100" s="110"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="152"/>
+      <c r="I100" s="152"/>
+      <c r="J100" s="120"/>
+      <c r="K100" s="120"/>
+      <c r="L100" s="120"/>
+      <c r="M100" s="120"/>
+      <c r="N100" s="112"/>
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
       <c r="Q100" s="18"/>
@@ -16289,22 +16289,24 @@
       <c r="D101" s="46"/>
       <c r="E101" s="60"/>
       <c r="F101" s="105"/>
-      <c r="G101" s="119" t="s">
+      <c r="G101" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H101" s="113"/>
-      <c r="I101" s="113"/>
-      <c r="J101" s="107" t="s">
+      <c r="H101" s="152"/>
+      <c r="I101" s="152"/>
+      <c r="J101" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="K101" s="107"/>
-      <c r="L101" s="107" t="s">
+      <c r="K101" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="L101" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="M101" s="107" t="s">
+      <c r="M101" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="110"/>
+      <c r="N101" s="112"/>
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
@@ -16424,14 +16426,14 @@
       <c r="D102" s="46"/>
       <c r="E102" s="60"/>
       <c r="F102" s="105"/>
-      <c r="G102" s="120"/>
-      <c r="H102" s="114"/>
-      <c r="I102" s="114"/>
-      <c r="J102" s="108"/>
-      <c r="K102" s="108"/>
-      <c r="L102" s="108"/>
-      <c r="M102" s="108"/>
-      <c r="N102" s="111"/>
+      <c r="G102" s="184"/>
+      <c r="H102" s="153"/>
+      <c r="I102" s="153"/>
+      <c r="J102" s="120"/>
+      <c r="K102" s="120"/>
+      <c r="L102" s="120"/>
+      <c r="M102" s="120"/>
+      <c r="N102" s="113"/>
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
       <c r="Q102" s="18"/>
@@ -16550,19 +16552,19 @@
       <c r="C103" s="2"/>
       <c r="D103" s="46"/>
       <c r="E103" s="61"/>
-      <c r="F103" s="139" t="s">
+      <c r="F103" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="G103" s="140"/>
-      <c r="H103" s="131"/>
-      <c r="I103" s="131"/>
-      <c r="J103" s="107"/>
+      <c r="G103" s="160"/>
+      <c r="H103" s="139"/>
+      <c r="I103" s="139"/>
+      <c r="J103" s="119"/>
       <c r="K103" s="121"/>
-      <c r="L103" s="107" t="s">
+      <c r="L103" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="M103" s="107"/>
-      <c r="N103" s="132"/>
+      <c r="M103" s="119"/>
+      <c r="N103" s="141"/>
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
       <c r="Q103" s="18"/>
@@ -16681,15 +16683,15 @@
       <c r="C104" s="2"/>
       <c r="D104" s="46"/>
       <c r="E104" s="62"/>
-      <c r="F104" s="141"/>
-      <c r="G104" s="130"/>
-      <c r="H104" s="131"/>
-      <c r="I104" s="131"/>
-      <c r="J104" s="108"/>
+      <c r="F104" s="171"/>
+      <c r="G104" s="170"/>
+      <c r="H104" s="139"/>
+      <c r="I104" s="139"/>
+      <c r="J104" s="120"/>
       <c r="K104" s="122"/>
-      <c r="L104" s="108"/>
-      <c r="M104" s="108"/>
-      <c r="N104" s="132"/>
+      <c r="L104" s="120"/>
+      <c r="M104" s="120"/>
+      <c r="N104" s="141"/>
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
       <c r="Q104" s="18"/>
@@ -16807,18 +16809,18 @@
       <c r="B105" s="24"/>
       <c r="C105" s="2"/>
       <c r="D105" s="46"/>
-      <c r="E105" s="144" t="s">
+      <c r="E105" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="F105" s="145"/>
-      <c r="G105" s="146"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="124"/>
-      <c r="J105" s="124"/>
-      <c r="K105" s="124"/>
-      <c r="L105" s="124"/>
-      <c r="M105" s="124"/>
-      <c r="N105" s="136"/>
+      <c r="F105" s="173"/>
+      <c r="G105" s="174"/>
+      <c r="H105" s="114"/>
+      <c r="I105" s="118"/>
+      <c r="J105" s="118"/>
+      <c r="K105" s="118"/>
+      <c r="L105" s="118"/>
+      <c r="M105" s="118"/>
+      <c r="N105" s="135"/>
       <c r="O105" s="43"/>
       <c r="P105" s="43"/>
       <c r="Q105" s="43"/>
@@ -16936,16 +16938,16 @@
       <c r="B106" s="24"/>
       <c r="C106" s="2"/>
       <c r="D106" s="46"/>
-      <c r="E106" s="147"/>
-      <c r="F106" s="148"/>
-      <c r="G106" s="149"/>
-      <c r="H106" s="126"/>
-      <c r="I106" s="124"/>
-      <c r="J106" s="124"/>
-      <c r="K106" s="124"/>
-      <c r="L106" s="124"/>
-      <c r="M106" s="124"/>
-      <c r="N106" s="136"/>
+      <c r="E106" s="175"/>
+      <c r="F106" s="176"/>
+      <c r="G106" s="177"/>
+      <c r="H106" s="115"/>
+      <c r="I106" s="118"/>
+      <c r="J106" s="118"/>
+      <c r="K106" s="118"/>
+      <c r="L106" s="118"/>
+      <c r="M106" s="118"/>
+      <c r="N106" s="135"/>
       <c r="O106" s="31"/>
       <c r="P106" s="31"/>
       <c r="Q106" s="31"/>
@@ -17064,22 +17066,22 @@
       <c r="C107" s="2"/>
       <c r="D107" s="46"/>
       <c r="E107" s="61"/>
-      <c r="F107" s="152" t="s">
+      <c r="F107" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="G107" s="128"/>
-      <c r="H107" s="112">
+      <c r="G107" s="168"/>
+      <c r="H107" s="151">
         <v>4</v>
       </c>
-      <c r="I107" s="112"/>
-      <c r="J107" s="107" t="s">
+      <c r="I107" s="151"/>
+      <c r="J107" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="K107" s="107"/>
-      <c r="L107" s="107"/>
-      <c r="M107" s="107"/>
-      <c r="N107" s="181">
-        <v>50</v>
+      <c r="K107" s="119"/>
+      <c r="L107" s="119"/>
+      <c r="M107" s="119"/>
+      <c r="N107" s="108">
+        <v>100</v>
       </c>
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
@@ -17199,15 +17201,15 @@
       <c r="C108" s="2"/>
       <c r="D108" s="46"/>
       <c r="E108" s="60"/>
-      <c r="F108" s="151"/>
-      <c r="G108" s="143"/>
-      <c r="H108" s="113"/>
-      <c r="I108" s="113"/>
-      <c r="J108" s="108"/>
-      <c r="K108" s="108"/>
-      <c r="L108" s="108"/>
-      <c r="M108" s="108"/>
-      <c r="N108" s="182"/>
+      <c r="F108" s="178"/>
+      <c r="G108" s="162"/>
+      <c r="H108" s="152"/>
+      <c r="I108" s="152"/>
+      <c r="J108" s="120"/>
+      <c r="K108" s="120"/>
+      <c r="L108" s="120"/>
+      <c r="M108" s="120"/>
+      <c r="N108" s="109"/>
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
       <c r="Q108" s="18"/>
@@ -17250,8 +17252,8 @@
       <c r="BB108" s="103"/>
       <c r="BC108" s="18"/>
       <c r="BD108" s="18"/>
-      <c r="BE108" s="18"/>
-      <c r="BF108" s="18"/>
+      <c r="BE108" s="103"/>
+      <c r="BF108" s="103"/>
       <c r="BG108" s="18"/>
       <c r="BH108" s="18"/>
       <c r="BI108" s="18"/>
@@ -17327,24 +17329,24 @@
       <c r="D109" s="46"/>
       <c r="E109" s="60"/>
       <c r="F109" s="105"/>
-      <c r="G109" s="115" t="s">
+      <c r="G109" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H109" s="113"/>
-      <c r="I109" s="113"/>
-      <c r="J109" s="107" t="s">
+      <c r="H109" s="152"/>
+      <c r="I109" s="152"/>
+      <c r="J109" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="K109" s="107" t="s">
+      <c r="K109" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="L109" s="107" t="s">
+      <c r="L109" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="M109" s="123" t="s">
+      <c r="M109" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="N109" s="182"/>
+      <c r="N109" s="109"/>
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
       <c r="Q109" s="18"/>
@@ -17464,14 +17466,14 @@
       <c r="D110" s="46"/>
       <c r="E110" s="60"/>
       <c r="F110" s="105"/>
-      <c r="G110" s="116"/>
-      <c r="H110" s="113"/>
-      <c r="I110" s="113"/>
-      <c r="J110" s="108"/>
-      <c r="K110" s="108"/>
-      <c r="L110" s="108"/>
-      <c r="M110" s="118"/>
-      <c r="N110" s="182"/>
+      <c r="G110" s="181"/>
+      <c r="H110" s="152"/>
+      <c r="I110" s="152"/>
+      <c r="J110" s="120"/>
+      <c r="K110" s="120"/>
+      <c r="L110" s="120"/>
+      <c r="M110" s="117"/>
+      <c r="N110" s="109"/>
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
       <c r="Q110" s="18"/>
@@ -17591,22 +17593,24 @@
       <c r="D111" s="46"/>
       <c r="E111" s="60"/>
       <c r="F111" s="105"/>
-      <c r="G111" s="119" t="s">
+      <c r="G111" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H111" s="113"/>
-      <c r="I111" s="113"/>
-      <c r="J111" s="107" t="s">
+      <c r="H111" s="152"/>
+      <c r="I111" s="152"/>
+      <c r="J111" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="K111" s="107"/>
-      <c r="L111" s="107" t="s">
+      <c r="K111" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="L111" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="M111" s="123" t="s">
+      <c r="M111" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="N111" s="182"/>
+      <c r="N111" s="109"/>
       <c r="O111" s="18"/>
       <c r="P111" s="18"/>
       <c r="Q111" s="18"/>
@@ -17726,14 +17730,14 @@
       <c r="D112" s="46"/>
       <c r="E112" s="60"/>
       <c r="F112" s="105"/>
-      <c r="G112" s="120"/>
-      <c r="H112" s="114"/>
-      <c r="I112" s="114"/>
-      <c r="J112" s="108"/>
-      <c r="K112" s="108"/>
-      <c r="L112" s="108"/>
-      <c r="M112" s="118"/>
-      <c r="N112" s="183"/>
+      <c r="G112" s="184"/>
+      <c r="H112" s="153"/>
+      <c r="I112" s="153"/>
+      <c r="J112" s="120"/>
+      <c r="K112" s="120"/>
+      <c r="L112" s="120"/>
+      <c r="M112" s="117"/>
+      <c r="N112" s="110"/>
       <c r="O112" s="18"/>
       <c r="P112" s="18"/>
       <c r="Q112" s="18"/>
@@ -17852,20 +17856,20 @@
       <c r="C113" s="2"/>
       <c r="D113" s="46"/>
       <c r="E113" s="61"/>
-      <c r="F113" s="150" t="s">
+      <c r="F113" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="G113" s="140"/>
-      <c r="H113" s="112">
+      <c r="G113" s="160"/>
+      <c r="H113" s="151">
         <v>4</v>
       </c>
-      <c r="I113" s="112"/>
-      <c r="J113" s="107"/>
-      <c r="K113" s="107"/>
-      <c r="L113" s="107"/>
+      <c r="I113" s="151"/>
+      <c r="J113" s="119"/>
+      <c r="K113" s="119"/>
+      <c r="L113" s="119"/>
       <c r="M113" s="121"/>
-      <c r="N113" s="181">
-        <v>50</v>
+      <c r="N113" s="108">
+        <v>100</v>
       </c>
       <c r="O113" s="18"/>
       <c r="P113" s="18"/>
@@ -17985,15 +17989,15 @@
       <c r="C114" s="2"/>
       <c r="D114" s="46"/>
       <c r="E114" s="60"/>
-      <c r="F114" s="151"/>
-      <c r="G114" s="143"/>
-      <c r="H114" s="113"/>
-      <c r="I114" s="113"/>
-      <c r="J114" s="108"/>
-      <c r="K114" s="108"/>
-      <c r="L114" s="108"/>
+      <c r="F114" s="178"/>
+      <c r="G114" s="162"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="152"/>
+      <c r="J114" s="120"/>
+      <c r="K114" s="120"/>
+      <c r="L114" s="120"/>
       <c r="M114" s="122"/>
-      <c r="N114" s="182"/>
+      <c r="N114" s="109"/>
       <c r="O114" s="18"/>
       <c r="P114" s="18"/>
       <c r="Q114" s="18"/>
@@ -18036,8 +18040,8 @@
       <c r="BB114" s="97"/>
       <c r="BC114" s="18"/>
       <c r="BD114" s="18"/>
-      <c r="BE114" s="18"/>
-      <c r="BF114" s="18"/>
+      <c r="BE114" s="103"/>
+      <c r="BF114" s="103"/>
       <c r="BG114" s="18"/>
       <c r="BH114" s="18"/>
       <c r="BI114" s="18"/>
@@ -18113,24 +18117,24 @@
       <c r="D115" s="46"/>
       <c r="E115" s="60"/>
       <c r="F115" s="105"/>
-      <c r="G115" s="115" t="s">
+      <c r="G115" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H115" s="113"/>
-      <c r="I115" s="113"/>
-      <c r="J115" s="107" t="s">
+      <c r="H115" s="152"/>
+      <c r="I115" s="152"/>
+      <c r="J115" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="K115" s="107" t="s">
+      <c r="K115" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="L115" s="107" t="s">
+      <c r="L115" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="M115" s="123" t="s">
+      <c r="M115" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="N115" s="182"/>
+      <c r="N115" s="109"/>
       <c r="O115" s="18"/>
       <c r="P115" s="18"/>
       <c r="Q115" s="18"/>
@@ -18250,14 +18254,14 @@
       <c r="D116" s="46"/>
       <c r="E116" s="60"/>
       <c r="F116" s="105"/>
-      <c r="G116" s="116"/>
-      <c r="H116" s="113"/>
-      <c r="I116" s="113"/>
-      <c r="J116" s="108"/>
-      <c r="K116" s="108"/>
-      <c r="L116" s="108"/>
-      <c r="M116" s="118"/>
-      <c r="N116" s="182"/>
+      <c r="G116" s="181"/>
+      <c r="H116" s="152"/>
+      <c r="I116" s="152"/>
+      <c r="J116" s="120"/>
+      <c r="K116" s="120"/>
+      <c r="L116" s="120"/>
+      <c r="M116" s="117"/>
+      <c r="N116" s="109"/>
       <c r="O116" s="18"/>
       <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
@@ -18377,22 +18381,24 @@
       <c r="D117" s="46"/>
       <c r="E117" s="60"/>
       <c r="F117" s="105"/>
-      <c r="G117" s="119" t="s">
+      <c r="G117" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H117" s="113"/>
-      <c r="I117" s="113"/>
-      <c r="J117" s="107" t="s">
+      <c r="H117" s="152"/>
+      <c r="I117" s="152"/>
+      <c r="J117" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="K117" s="107"/>
-      <c r="L117" s="107" t="s">
+      <c r="K117" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="M117" s="123" t="s">
+      <c r="L117" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="M117" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="N117" s="182"/>
+      <c r="N117" s="109"/>
       <c r="O117" s="18"/>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
@@ -18512,14 +18518,14 @@
       <c r="D118" s="46"/>
       <c r="E118" s="60"/>
       <c r="F118" s="105"/>
-      <c r="G118" s="120"/>
-      <c r="H118" s="114"/>
-      <c r="I118" s="114"/>
-      <c r="J118" s="108"/>
-      <c r="K118" s="108"/>
-      <c r="L118" s="108"/>
-      <c r="M118" s="118"/>
-      <c r="N118" s="183"/>
+      <c r="G118" s="184"/>
+      <c r="H118" s="153"/>
+      <c r="I118" s="153"/>
+      <c r="J118" s="120"/>
+      <c r="K118" s="120"/>
+      <c r="L118" s="120"/>
+      <c r="M118" s="117"/>
+      <c r="N118" s="110"/>
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
@@ -18638,21 +18644,23 @@
       <c r="C119" s="2"/>
       <c r="D119" s="46"/>
       <c r="E119" s="61"/>
-      <c r="F119" s="150" t="s">
+      <c r="F119" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="G119" s="140"/>
-      <c r="H119" s="112">
+      <c r="G119" s="160"/>
+      <c r="H119" s="151">
         <v>5</v>
       </c>
-      <c r="I119" s="112"/>
-      <c r="J119" s="107" t="s">
+      <c r="I119" s="151"/>
+      <c r="J119" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="K119" s="107"/>
-      <c r="L119" s="107"/>
-      <c r="M119" s="107"/>
-      <c r="N119" s="181"/>
+      <c r="K119" s="119"/>
+      <c r="L119" s="119"/>
+      <c r="M119" s="119"/>
+      <c r="N119" s="108">
+        <v>50</v>
+      </c>
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
       <c r="Q119" s="18"/>
@@ -18696,9 +18704,8 @@
       <c r="BC119" s="18"/>
       <c r="BD119" s="18"/>
       <c r="BE119" s="83"/>
-      <c r="BF119" s="83"/>
+      <c r="BF119" s="84"/>
       <c r="BG119" s="84"/>
-      <c r="BH119" s="84"/>
       <c r="BI119" s="82"/>
       <c r="BJ119" s="18"/>
       <c r="BK119" s="18"/>
@@ -18771,15 +18778,15 @@
       <c r="C120" s="2"/>
       <c r="D120" s="46"/>
       <c r="E120" s="60"/>
-      <c r="F120" s="151"/>
-      <c r="G120" s="143"/>
-      <c r="H120" s="113"/>
-      <c r="I120" s="113"/>
-      <c r="J120" s="108"/>
-      <c r="K120" s="108"/>
-      <c r="L120" s="108"/>
-      <c r="M120" s="108"/>
-      <c r="N120" s="182"/>
+      <c r="F120" s="178"/>
+      <c r="G120" s="162"/>
+      <c r="H120" s="152"/>
+      <c r="I120" s="152"/>
+      <c r="J120" s="120"/>
+      <c r="K120" s="120"/>
+      <c r="L120" s="120"/>
+      <c r="M120" s="120"/>
+      <c r="N120" s="109"/>
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
       <c r="Q120" s="18"/>
@@ -18823,7 +18830,7 @@
       <c r="BC120" s="18"/>
       <c r="BD120" s="18"/>
       <c r="BE120" s="82"/>
-      <c r="BF120" s="82"/>
+      <c r="BF120" s="103"/>
       <c r="BG120" s="82"/>
       <c r="BH120" s="82"/>
       <c r="BI120" s="82"/>
@@ -18899,22 +18906,24 @@
       <c r="D121" s="46"/>
       <c r="E121" s="60"/>
       <c r="F121" s="105"/>
-      <c r="G121" s="115" t="s">
+      <c r="G121" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H121" s="113"/>
-      <c r="I121" s="113"/>
-      <c r="J121" s="123" t="s">
+      <c r="H121" s="152"/>
+      <c r="I121" s="152"/>
+      <c r="J121" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="K121" s="117"/>
-      <c r="L121" s="123" t="s">
+      <c r="K121" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="M121" s="123" t="s">
+      <c r="L121" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="M121" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="N121" s="182"/>
+      <c r="N121" s="109"/>
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
       <c r="Q121" s="18"/>
@@ -19034,14 +19043,14 @@
       <c r="D122" s="46"/>
       <c r="E122" s="60"/>
       <c r="F122" s="105"/>
-      <c r="G122" s="116"/>
-      <c r="H122" s="113"/>
-      <c r="I122" s="113"/>
-      <c r="J122" s="118"/>
-      <c r="K122" s="118"/>
-      <c r="L122" s="118"/>
-      <c r="M122" s="118"/>
-      <c r="N122" s="182"/>
+      <c r="G122" s="181"/>
+      <c r="H122" s="152"/>
+      <c r="I122" s="152"/>
+      <c r="J122" s="117"/>
+      <c r="K122" s="117"/>
+      <c r="L122" s="117"/>
+      <c r="M122" s="117"/>
+      <c r="N122" s="109"/>
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
       <c r="Q122" s="18"/>
@@ -19161,22 +19170,22 @@
       <c r="D123" s="46"/>
       <c r="E123" s="60"/>
       <c r="F123" s="105"/>
-      <c r="G123" s="119" t="s">
+      <c r="G123" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H123" s="113"/>
-      <c r="I123" s="113"/>
-      <c r="J123" s="123" t="s">
+      <c r="H123" s="152"/>
+      <c r="I123" s="152"/>
+      <c r="J123" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="K123" s="117"/>
-      <c r="L123" s="123" t="s">
+      <c r="K123" s="182"/>
+      <c r="L123" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="M123" s="123" t="s">
+      <c r="M123" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="N123" s="182"/>
+      <c r="N123" s="109"/>
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
       <c r="Q123" s="18"/>
@@ -19296,14 +19305,14 @@
       <c r="D124" s="46"/>
       <c r="E124" s="60"/>
       <c r="F124" s="105"/>
-      <c r="G124" s="120"/>
-      <c r="H124" s="114"/>
-      <c r="I124" s="114"/>
-      <c r="J124" s="118"/>
-      <c r="K124" s="118"/>
-      <c r="L124" s="118"/>
-      <c r="M124" s="118"/>
-      <c r="N124" s="183"/>
+      <c r="G124" s="184"/>
+      <c r="H124" s="153"/>
+      <c r="I124" s="153"/>
+      <c r="J124" s="117"/>
+      <c r="K124" s="117"/>
+      <c r="L124" s="117"/>
+      <c r="M124" s="117"/>
+      <c r="N124" s="110"/>
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
       <c r="Q124" s="18"/>
@@ -19422,19 +19431,19 @@
       <c r="C125" s="2"/>
       <c r="D125" s="46"/>
       <c r="E125" s="61"/>
-      <c r="F125" s="150" t="s">
+      <c r="F125" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="G125" s="140"/>
-      <c r="H125" s="112">
+      <c r="G125" s="160"/>
+      <c r="H125" s="151">
         <v>4</v>
       </c>
-      <c r="I125" s="112"/>
-      <c r="J125" s="107"/>
-      <c r="K125" s="107"/>
-      <c r="L125" s="107"/>
-      <c r="M125" s="107"/>
-      <c r="N125" s="181"/>
+      <c r="I125" s="151"/>
+      <c r="J125" s="119"/>
+      <c r="K125" s="119"/>
+      <c r="L125" s="119"/>
+      <c r="M125" s="119"/>
+      <c r="N125" s="108"/>
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
       <c r="Q125" s="18"/>
@@ -19479,7 +19488,7 @@
       <c r="BD125" s="18"/>
       <c r="BE125" s="82"/>
       <c r="BF125" s="82"/>
-      <c r="BG125" s="83"/>
+      <c r="BG125" s="85"/>
       <c r="BH125" s="85"/>
       <c r="BI125" s="84"/>
       <c r="BJ125" s="18"/>
@@ -19553,15 +19562,15 @@
       <c r="C126" s="2"/>
       <c r="D126" s="46"/>
       <c r="E126" s="60"/>
-      <c r="F126" s="151"/>
-      <c r="G126" s="143"/>
-      <c r="H126" s="113"/>
-      <c r="I126" s="113"/>
-      <c r="J126" s="108"/>
-      <c r="K126" s="108"/>
-      <c r="L126" s="108"/>
-      <c r="M126" s="108"/>
-      <c r="N126" s="182"/>
+      <c r="F126" s="178"/>
+      <c r="G126" s="162"/>
+      <c r="H126" s="152"/>
+      <c r="I126" s="152"/>
+      <c r="J126" s="120"/>
+      <c r="K126" s="120"/>
+      <c r="L126" s="120"/>
+      <c r="M126" s="120"/>
+      <c r="N126" s="109"/>
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
       <c r="Q126" s="18"/>
@@ -19681,22 +19690,22 @@
       <c r="D127" s="46"/>
       <c r="E127" s="60"/>
       <c r="F127" s="105"/>
-      <c r="G127" s="115" t="s">
+      <c r="G127" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H127" s="113"/>
-      <c r="I127" s="113"/>
-      <c r="J127" s="123" t="s">
+      <c r="H127" s="152"/>
+      <c r="I127" s="152"/>
+      <c r="J127" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="K127" s="117"/>
-      <c r="L127" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="M127" s="123" t="s">
+      <c r="K127" s="182"/>
+      <c r="L127" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="M127" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="N127" s="182"/>
+      <c r="N127" s="109"/>
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
       <c r="Q127" s="18"/>
@@ -19816,14 +19825,14 @@
       <c r="D128" s="46"/>
       <c r="E128" s="60"/>
       <c r="F128" s="105"/>
-      <c r="G128" s="116"/>
-      <c r="H128" s="113"/>
-      <c r="I128" s="113"/>
-      <c r="J128" s="118"/>
-      <c r="K128" s="118"/>
-      <c r="L128" s="108"/>
-      <c r="M128" s="118"/>
-      <c r="N128" s="182"/>
+      <c r="G128" s="181"/>
+      <c r="H128" s="152"/>
+      <c r="I128" s="152"/>
+      <c r="J128" s="117"/>
+      <c r="K128" s="117"/>
+      <c r="L128" s="117"/>
+      <c r="M128" s="117"/>
+      <c r="N128" s="109"/>
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
       <c r="Q128" s="18"/>
@@ -19943,22 +19952,22 @@
       <c r="D129" s="46"/>
       <c r="E129" s="60"/>
       <c r="F129" s="105"/>
-      <c r="G129" s="119" t="s">
+      <c r="G129" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H129" s="113"/>
-      <c r="I129" s="113"/>
-      <c r="J129" s="123" t="s">
+      <c r="H129" s="152"/>
+      <c r="I129" s="152"/>
+      <c r="J129" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="K129" s="117"/>
-      <c r="L129" s="107" t="s">
+      <c r="K129" s="182"/>
+      <c r="L129" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="M129" s="123" t="s">
+      <c r="M129" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="N129" s="182"/>
+      <c r="N129" s="109"/>
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
       <c r="Q129" s="18"/>
@@ -20078,14 +20087,14 @@
       <c r="D130" s="46"/>
       <c r="E130" s="60"/>
       <c r="F130" s="105"/>
-      <c r="G130" s="120"/>
-      <c r="H130" s="114"/>
-      <c r="I130" s="114"/>
-      <c r="J130" s="118"/>
-      <c r="K130" s="118"/>
-      <c r="L130" s="108"/>
-      <c r="M130" s="118"/>
-      <c r="N130" s="183"/>
+      <c r="G130" s="184"/>
+      <c r="H130" s="153"/>
+      <c r="I130" s="153"/>
+      <c r="J130" s="117"/>
+      <c r="K130" s="117"/>
+      <c r="L130" s="120"/>
+      <c r="M130" s="117"/>
+      <c r="N130" s="110"/>
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
       <c r="Q130" s="18"/>
@@ -20204,19 +20213,19 @@
       <c r="C131" s="2"/>
       <c r="D131" s="46"/>
       <c r="E131" s="61"/>
-      <c r="F131" s="150" t="s">
+      <c r="F131" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="G131" s="140"/>
-      <c r="H131" s="112">
+      <c r="G131" s="160"/>
+      <c r="H131" s="151">
         <v>4</v>
       </c>
-      <c r="I131" s="112"/>
-      <c r="J131" s="107"/>
-      <c r="K131" s="107"/>
-      <c r="L131" s="107"/>
+      <c r="I131" s="151"/>
+      <c r="J131" s="119"/>
+      <c r="K131" s="119"/>
+      <c r="L131" s="119"/>
       <c r="M131" s="121"/>
-      <c r="N131" s="181"/>
+      <c r="N131" s="108"/>
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
       <c r="Q131" s="18"/>
@@ -20262,7 +20271,7 @@
       <c r="BE131" s="82"/>
       <c r="BF131" s="82"/>
       <c r="BG131" s="82"/>
-      <c r="BH131" s="83"/>
+      <c r="BH131" s="84"/>
       <c r="BI131" s="84"/>
       <c r="BJ131" s="18"/>
       <c r="BK131" s="18"/>
@@ -20335,15 +20344,15 @@
       <c r="C132" s="2"/>
       <c r="D132" s="46"/>
       <c r="E132" s="60"/>
-      <c r="F132" s="151"/>
-      <c r="G132" s="143"/>
-      <c r="H132" s="113"/>
-      <c r="I132" s="113"/>
-      <c r="J132" s="108"/>
-      <c r="K132" s="108"/>
-      <c r="L132" s="108"/>
+      <c r="F132" s="178"/>
+      <c r="G132" s="162"/>
+      <c r="H132" s="152"/>
+      <c r="I132" s="152"/>
+      <c r="J132" s="120"/>
+      <c r="K132" s="120"/>
+      <c r="L132" s="120"/>
       <c r="M132" s="122"/>
-      <c r="N132" s="182"/>
+      <c r="N132" s="109"/>
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
       <c r="Q132" s="18"/>
@@ -20463,22 +20472,22 @@
       <c r="D133" s="46"/>
       <c r="E133" s="60"/>
       <c r="F133" s="105"/>
-      <c r="G133" s="115" t="s">
+      <c r="G133" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H133" s="113"/>
-      <c r="I133" s="113"/>
-      <c r="J133" s="123" t="s">
+      <c r="H133" s="152"/>
+      <c r="I133" s="152"/>
+      <c r="J133" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="K133" s="117"/>
-      <c r="L133" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="M133" s="123" t="s">
+      <c r="K133" s="182"/>
+      <c r="L133" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="M133" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="N133" s="182"/>
+      <c r="N133" s="109"/>
       <c r="O133" s="18"/>
       <c r="P133" s="18"/>
       <c r="Q133" s="18"/>
@@ -20598,14 +20607,14 @@
       <c r="D134" s="46"/>
       <c r="E134" s="60"/>
       <c r="F134" s="105"/>
-      <c r="G134" s="116"/>
-      <c r="H134" s="113"/>
-      <c r="I134" s="113"/>
-      <c r="J134" s="118"/>
-      <c r="K134" s="118"/>
-      <c r="L134" s="108"/>
-      <c r="M134" s="118"/>
-      <c r="N134" s="182"/>
+      <c r="G134" s="181"/>
+      <c r="H134" s="152"/>
+      <c r="I134" s="152"/>
+      <c r="J134" s="117"/>
+      <c r="K134" s="117"/>
+      <c r="L134" s="120"/>
+      <c r="M134" s="117"/>
+      <c r="N134" s="109"/>
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
       <c r="Q134" s="18"/>
@@ -20725,22 +20734,22 @@
       <c r="D135" s="46"/>
       <c r="E135" s="60"/>
       <c r="F135" s="105"/>
-      <c r="G135" s="119" t="s">
+      <c r="G135" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H135" s="113"/>
-      <c r="I135" s="113"/>
-      <c r="J135" s="107" t="s">
+      <c r="H135" s="152"/>
+      <c r="I135" s="152"/>
+      <c r="J135" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="K135" s="117"/>
-      <c r="L135" s="107" t="s">
+      <c r="K135" s="182"/>
+      <c r="L135" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="M135" s="123" t="s">
+      <c r="M135" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="N135" s="182"/>
+      <c r="N135" s="109"/>
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
       <c r="Q135" s="18"/>
@@ -20860,14 +20869,14 @@
       <c r="D136" s="46"/>
       <c r="E136" s="60"/>
       <c r="F136" s="105"/>
-      <c r="G136" s="120"/>
-      <c r="H136" s="114"/>
-      <c r="I136" s="114"/>
-      <c r="J136" s="108"/>
-      <c r="K136" s="118"/>
-      <c r="L136" s="108"/>
-      <c r="M136" s="118"/>
-      <c r="N136" s="183"/>
+      <c r="G136" s="184"/>
+      <c r="H136" s="153"/>
+      <c r="I136" s="153"/>
+      <c r="J136" s="120"/>
+      <c r="K136" s="117"/>
+      <c r="L136" s="120"/>
+      <c r="M136" s="117"/>
+      <c r="N136" s="110"/>
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
       <c r="Q136" s="18"/>
@@ -20986,19 +20995,19 @@
       <c r="C137" s="2"/>
       <c r="D137" s="46"/>
       <c r="E137" s="61"/>
-      <c r="F137" s="150" t="s">
+      <c r="F137" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="G137" s="140"/>
-      <c r="H137" s="131"/>
-      <c r="I137" s="131"/>
-      <c r="J137" s="107"/>
-      <c r="K137" s="107"/>
-      <c r="L137" s="107" t="s">
+      <c r="G137" s="160"/>
+      <c r="H137" s="139"/>
+      <c r="I137" s="139"/>
+      <c r="J137" s="119"/>
+      <c r="K137" s="119"/>
+      <c r="L137" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="M137" s="107"/>
-      <c r="N137" s="132"/>
+      <c r="M137" s="119"/>
+      <c r="N137" s="141"/>
       <c r="O137" s="18"/>
       <c r="P137" s="18"/>
       <c r="Q137" s="18"/>
@@ -21117,15 +21126,15 @@
       <c r="C138" s="2"/>
       <c r="D138" s="46"/>
       <c r="E138" s="60"/>
-      <c r="F138" s="151"/>
-      <c r="G138" s="143"/>
-      <c r="H138" s="131"/>
-      <c r="I138" s="131"/>
-      <c r="J138" s="108"/>
-      <c r="K138" s="108"/>
-      <c r="L138" s="108"/>
-      <c r="M138" s="108"/>
-      <c r="N138" s="132"/>
+      <c r="F138" s="178"/>
+      <c r="G138" s="162"/>
+      <c r="H138" s="139"/>
+      <c r="I138" s="139"/>
+      <c r="J138" s="120"/>
+      <c r="K138" s="120"/>
+      <c r="L138" s="120"/>
+      <c r="M138" s="120"/>
+      <c r="N138" s="141"/>
       <c r="O138" s="18"/>
       <c r="P138" s="18"/>
       <c r="Q138" s="18"/>
@@ -21242,19 +21251,19 @@
       <c r="A139" s="19"/>
       <c r="B139" s="51"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="153" t="s">
+      <c r="D139" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="E139" s="154"/>
-      <c r="F139" s="154"/>
-      <c r="G139" s="154"/>
-      <c r="H139" s="125"/>
-      <c r="I139" s="124"/>
-      <c r="J139" s="125"/>
-      <c r="K139" s="125"/>
-      <c r="L139" s="125"/>
-      <c r="M139" s="125"/>
-      <c r="N139" s="136"/>
+      <c r="E139" s="128"/>
+      <c r="F139" s="128"/>
+      <c r="G139" s="128"/>
+      <c r="H139" s="114"/>
+      <c r="I139" s="118"/>
+      <c r="J139" s="114"/>
+      <c r="K139" s="114"/>
+      <c r="L139" s="114"/>
+      <c r="M139" s="114"/>
+      <c r="N139" s="135"/>
       <c r="O139" s="42"/>
       <c r="P139" s="43"/>
       <c r="Q139" s="43"/>
@@ -21371,17 +21380,17 @@
       <c r="A140" s="19"/>
       <c r="B140" s="51"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="155"/>
-      <c r="E140" s="156"/>
-      <c r="F140" s="156"/>
-      <c r="G140" s="156"/>
-      <c r="H140" s="126"/>
-      <c r="I140" s="124"/>
-      <c r="J140" s="126"/>
-      <c r="K140" s="126"/>
-      <c r="L140" s="126"/>
-      <c r="M140" s="126"/>
-      <c r="N140" s="136"/>
+      <c r="D140" s="129"/>
+      <c r="E140" s="130"/>
+      <c r="F140" s="130"/>
+      <c r="G140" s="130"/>
+      <c r="H140" s="115"/>
+      <c r="I140" s="118"/>
+      <c r="J140" s="115"/>
+      <c r="K140" s="115"/>
+      <c r="L140" s="115"/>
+      <c r="M140" s="115"/>
+      <c r="N140" s="135"/>
       <c r="O140" s="44"/>
       <c r="P140" s="31"/>
       <c r="Q140" s="31"/>
@@ -21499,18 +21508,18 @@
       <c r="B141" s="24"/>
       <c r="C141" s="2"/>
       <c r="D141" s="55"/>
-      <c r="E141" s="137" t="s">
+      <c r="E141" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="F141" s="137"/>
-      <c r="G141" s="138"/>
-      <c r="H141" s="125"/>
-      <c r="I141" s="124"/>
-      <c r="J141" s="125"/>
-      <c r="K141" s="125"/>
-      <c r="L141" s="125"/>
-      <c r="M141" s="125"/>
-      <c r="N141" s="136"/>
+      <c r="F141" s="154"/>
+      <c r="G141" s="155"/>
+      <c r="H141" s="114"/>
+      <c r="I141" s="118"/>
+      <c r="J141" s="114"/>
+      <c r="K141" s="114"/>
+      <c r="L141" s="114"/>
+      <c r="M141" s="114"/>
+      <c r="N141" s="135"/>
       <c r="O141" s="42"/>
       <c r="P141" s="43"/>
       <c r="Q141" s="43"/>
@@ -21628,16 +21637,16 @@
       <c r="B142" s="24"/>
       <c r="C142" s="2"/>
       <c r="D142" s="56"/>
-      <c r="E142" s="134"/>
-      <c r="F142" s="134"/>
-      <c r="G142" s="135"/>
-      <c r="H142" s="126"/>
-      <c r="I142" s="124"/>
-      <c r="J142" s="126"/>
-      <c r="K142" s="126"/>
-      <c r="L142" s="126"/>
-      <c r="M142" s="126"/>
-      <c r="N142" s="136"/>
+      <c r="E142" s="156"/>
+      <c r="F142" s="156"/>
+      <c r="G142" s="166"/>
+      <c r="H142" s="115"/>
+      <c r="I142" s="118"/>
+      <c r="J142" s="115"/>
+      <c r="K142" s="115"/>
+      <c r="L142" s="115"/>
+      <c r="M142" s="115"/>
+      <c r="N142" s="135"/>
       <c r="O142" s="44"/>
       <c r="P142" s="31"/>
       <c r="Q142" s="31"/>
@@ -21756,19 +21765,19 @@
       <c r="C143" s="2"/>
       <c r="D143" s="46"/>
       <c r="E143" s="59"/>
-      <c r="F143" s="127" t="s">
+      <c r="F143" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="G143" s="128"/>
-      <c r="H143" s="112">
+      <c r="G143" s="168"/>
+      <c r="H143" s="151">
         <v>3</v>
       </c>
-      <c r="I143" s="112"/>
-      <c r="J143" s="107"/>
-      <c r="K143" s="107"/>
-      <c r="L143" s="107"/>
-      <c r="M143" s="107"/>
-      <c r="N143" s="109"/>
+      <c r="I143" s="151"/>
+      <c r="J143" s="119"/>
+      <c r="K143" s="119"/>
+      <c r="L143" s="119"/>
+      <c r="M143" s="119"/>
+      <c r="N143" s="111"/>
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
       <c r="Q143" s="18"/>
@@ -21887,15 +21896,15 @@
       <c r="C144" s="2"/>
       <c r="D144" s="46"/>
       <c r="E144" s="60"/>
-      <c r="F144" s="129"/>
-      <c r="G144" s="130"/>
-      <c r="H144" s="113"/>
-      <c r="I144" s="113"/>
-      <c r="J144" s="108"/>
-      <c r="K144" s="108"/>
-      <c r="L144" s="108"/>
-      <c r="M144" s="108"/>
-      <c r="N144" s="110"/>
+      <c r="F144" s="169"/>
+      <c r="G144" s="170"/>
+      <c r="H144" s="152"/>
+      <c r="I144" s="152"/>
+      <c r="J144" s="120"/>
+      <c r="K144" s="120"/>
+      <c r="L144" s="120"/>
+      <c r="M144" s="120"/>
+      <c r="N144" s="112"/>
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
       <c r="Q144" s="18"/>
@@ -22015,22 +22024,22 @@
       <c r="D145" s="46"/>
       <c r="E145" s="60"/>
       <c r="F145" s="105"/>
-      <c r="G145" s="115" t="s">
+      <c r="G145" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H145" s="113"/>
-      <c r="I145" s="113"/>
-      <c r="J145" s="107" t="s">
+      <c r="H145" s="152"/>
+      <c r="I145" s="152"/>
+      <c r="J145" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="K145" s="117"/>
-      <c r="L145" s="107" t="s">
+      <c r="K145" s="182"/>
+      <c r="L145" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="M145" s="123" t="s">
+      <c r="M145" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="N145" s="110"/>
+      <c r="N145" s="112"/>
       <c r="O145" s="18"/>
       <c r="P145" s="18"/>
       <c r="Q145" s="18"/>
@@ -22150,14 +22159,14 @@
       <c r="D146" s="46"/>
       <c r="E146" s="60"/>
       <c r="F146" s="105"/>
-      <c r="G146" s="116"/>
-      <c r="H146" s="113"/>
-      <c r="I146" s="113"/>
-      <c r="J146" s="108"/>
-      <c r="K146" s="118"/>
-      <c r="L146" s="108"/>
-      <c r="M146" s="118"/>
-      <c r="N146" s="110"/>
+      <c r="G146" s="181"/>
+      <c r="H146" s="152"/>
+      <c r="I146" s="152"/>
+      <c r="J146" s="120"/>
+      <c r="K146" s="117"/>
+      <c r="L146" s="120"/>
+      <c r="M146" s="117"/>
+      <c r="N146" s="112"/>
       <c r="O146" s="18"/>
       <c r="P146" s="18"/>
       <c r="Q146" s="18"/>
@@ -22277,22 +22286,22 @@
       <c r="D147" s="46"/>
       <c r="E147" s="60"/>
       <c r="F147" s="105"/>
-      <c r="G147" s="119" t="s">
+      <c r="G147" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H147" s="113"/>
-      <c r="I147" s="113"/>
-      <c r="J147" s="107" t="s">
+      <c r="H147" s="152"/>
+      <c r="I147" s="152"/>
+      <c r="J147" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="K147" s="117"/>
-      <c r="L147" s="107" t="s">
+      <c r="K147" s="182"/>
+      <c r="L147" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="M147" s="123" t="s">
+      <c r="M147" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="N147" s="110"/>
+      <c r="N147" s="112"/>
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
       <c r="Q147" s="18"/>
@@ -22412,14 +22421,14 @@
       <c r="D148" s="46"/>
       <c r="E148" s="60"/>
       <c r="F148" s="105"/>
-      <c r="G148" s="120"/>
-      <c r="H148" s="114"/>
-      <c r="I148" s="114"/>
-      <c r="J148" s="108"/>
-      <c r="K148" s="118"/>
-      <c r="L148" s="108"/>
-      <c r="M148" s="118"/>
-      <c r="N148" s="111"/>
+      <c r="G148" s="184"/>
+      <c r="H148" s="153"/>
+      <c r="I148" s="153"/>
+      <c r="J148" s="120"/>
+      <c r="K148" s="117"/>
+      <c r="L148" s="120"/>
+      <c r="M148" s="117"/>
+      <c r="N148" s="113"/>
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
       <c r="Q148" s="18"/>
@@ -22538,19 +22547,19 @@
       <c r="C149" s="2"/>
       <c r="D149" s="46"/>
       <c r="E149" s="61"/>
-      <c r="F149" s="127" t="s">
+      <c r="F149" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="G149" s="128"/>
-      <c r="H149" s="112">
+      <c r="G149" s="168"/>
+      <c r="H149" s="151">
         <v>5</v>
       </c>
-      <c r="I149" s="112"/>
-      <c r="J149" s="107"/>
-      <c r="K149" s="107"/>
-      <c r="L149" s="107"/>
-      <c r="M149" s="107"/>
-      <c r="N149" s="109"/>
+      <c r="I149" s="151"/>
+      <c r="J149" s="119"/>
+      <c r="K149" s="119"/>
+      <c r="L149" s="119"/>
+      <c r="M149" s="119"/>
+      <c r="N149" s="111"/>
       <c r="O149" s="18"/>
       <c r="P149" s="18"/>
       <c r="Q149" s="18"/>
@@ -22669,15 +22678,15 @@
       <c r="C150" s="2"/>
       <c r="D150" s="46"/>
       <c r="E150" s="58"/>
-      <c r="F150" s="129"/>
-      <c r="G150" s="130"/>
-      <c r="H150" s="113"/>
-      <c r="I150" s="113"/>
-      <c r="J150" s="108"/>
-      <c r="K150" s="108"/>
-      <c r="L150" s="108"/>
-      <c r="M150" s="108"/>
-      <c r="N150" s="110"/>
+      <c r="F150" s="169"/>
+      <c r="G150" s="170"/>
+      <c r="H150" s="152"/>
+      <c r="I150" s="152"/>
+      <c r="J150" s="120"/>
+      <c r="K150" s="120"/>
+      <c r="L150" s="120"/>
+      <c r="M150" s="120"/>
+      <c r="N150" s="112"/>
       <c r="O150" s="18"/>
       <c r="P150" s="18"/>
       <c r="Q150" s="18"/>
@@ -22797,22 +22806,22 @@
       <c r="D151" s="46"/>
       <c r="E151" s="60"/>
       <c r="F151" s="105"/>
-      <c r="G151" s="115" t="s">
+      <c r="G151" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H151" s="113"/>
-      <c r="I151" s="113"/>
-      <c r="J151" s="107" t="s">
+      <c r="H151" s="152"/>
+      <c r="I151" s="152"/>
+      <c r="J151" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="K151" s="117"/>
-      <c r="L151" s="107" t="s">
+      <c r="K151" s="182"/>
+      <c r="L151" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="M151" s="123" t="s">
+      <c r="M151" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="N151" s="110"/>
+      <c r="N151" s="112"/>
       <c r="O151" s="18"/>
       <c r="P151" s="18"/>
       <c r="Q151" s="18"/>
@@ -22932,14 +22941,14 @@
       <c r="D152" s="46"/>
       <c r="E152" s="60"/>
       <c r="F152" s="105"/>
-      <c r="G152" s="116"/>
-      <c r="H152" s="113"/>
-      <c r="I152" s="113"/>
-      <c r="J152" s="108"/>
-      <c r="K152" s="118"/>
-      <c r="L152" s="108"/>
-      <c r="M152" s="118"/>
-      <c r="N152" s="110"/>
+      <c r="G152" s="181"/>
+      <c r="H152" s="152"/>
+      <c r="I152" s="152"/>
+      <c r="J152" s="120"/>
+      <c r="K152" s="117"/>
+      <c r="L152" s="120"/>
+      <c r="M152" s="117"/>
+      <c r="N152" s="112"/>
       <c r="O152" s="18"/>
       <c r="P152" s="18"/>
       <c r="Q152" s="18"/>
@@ -23059,22 +23068,22 @@
       <c r="D153" s="46"/>
       <c r="E153" s="60"/>
       <c r="F153" s="105"/>
-      <c r="G153" s="119" t="s">
+      <c r="G153" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H153" s="113"/>
-      <c r="I153" s="113"/>
-      <c r="J153" s="107" t="s">
+      <c r="H153" s="152"/>
+      <c r="I153" s="152"/>
+      <c r="J153" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="K153" s="117"/>
-      <c r="L153" s="107" t="s">
+      <c r="K153" s="182"/>
+      <c r="L153" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="M153" s="123" t="s">
+      <c r="M153" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="N153" s="110"/>
+      <c r="N153" s="112"/>
       <c r="O153" s="18"/>
       <c r="P153" s="18"/>
       <c r="Q153" s="18"/>
@@ -23194,14 +23203,14 @@
       <c r="D154" s="46"/>
       <c r="E154" s="60"/>
       <c r="F154" s="105"/>
-      <c r="G154" s="120"/>
-      <c r="H154" s="114"/>
-      <c r="I154" s="114"/>
-      <c r="J154" s="108"/>
-      <c r="K154" s="118"/>
-      <c r="L154" s="108"/>
-      <c r="M154" s="118"/>
-      <c r="N154" s="111"/>
+      <c r="G154" s="184"/>
+      <c r="H154" s="153"/>
+      <c r="I154" s="153"/>
+      <c r="J154" s="120"/>
+      <c r="K154" s="117"/>
+      <c r="L154" s="120"/>
+      <c r="M154" s="117"/>
+      <c r="N154" s="113"/>
       <c r="O154" s="18"/>
       <c r="P154" s="18"/>
       <c r="Q154" s="18"/>
@@ -23320,19 +23329,19 @@
       <c r="C155" s="2"/>
       <c r="D155" s="46"/>
       <c r="E155" s="58"/>
-      <c r="F155" s="127" t="s">
+      <c r="F155" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G155" s="128"/>
-      <c r="H155" s="131"/>
-      <c r="I155" s="131"/>
-      <c r="J155" s="107"/>
-      <c r="K155" s="107"/>
-      <c r="L155" s="107" t="s">
+      <c r="G155" s="168"/>
+      <c r="H155" s="139"/>
+      <c r="I155" s="139"/>
+      <c r="J155" s="119"/>
+      <c r="K155" s="119"/>
+      <c r="L155" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M155" s="107"/>
-      <c r="N155" s="132"/>
+      <c r="M155" s="119"/>
+      <c r="N155" s="141"/>
       <c r="O155" s="18"/>
       <c r="P155" s="18"/>
       <c r="Q155" s="18"/>
@@ -23451,15 +23460,15 @@
       <c r="C156" s="2"/>
       <c r="D156" s="46"/>
       <c r="E156" s="63"/>
-      <c r="F156" s="129"/>
-      <c r="G156" s="130"/>
-      <c r="H156" s="131"/>
-      <c r="I156" s="131"/>
-      <c r="J156" s="108"/>
-      <c r="K156" s="108"/>
-      <c r="L156" s="108"/>
-      <c r="M156" s="108"/>
-      <c r="N156" s="132"/>
+      <c r="F156" s="169"/>
+      <c r="G156" s="170"/>
+      <c r="H156" s="139"/>
+      <c r="I156" s="139"/>
+      <c r="J156" s="120"/>
+      <c r="K156" s="120"/>
+      <c r="L156" s="120"/>
+      <c r="M156" s="120"/>
+      <c r="N156" s="141"/>
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
       <c r="Q156" s="18"/>
@@ -23577,18 +23586,18 @@
       <c r="B157" s="24"/>
       <c r="C157" s="2"/>
       <c r="D157" s="46"/>
-      <c r="E157" s="133" t="s">
+      <c r="E157" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="F157" s="134"/>
-      <c r="G157" s="135"/>
-      <c r="H157" s="125"/>
-      <c r="I157" s="124"/>
-      <c r="J157" s="124"/>
-      <c r="K157" s="124"/>
-      <c r="L157" s="124"/>
-      <c r="M157" s="124"/>
-      <c r="N157" s="136"/>
+      <c r="F157" s="156"/>
+      <c r="G157" s="166"/>
+      <c r="H157" s="114"/>
+      <c r="I157" s="118"/>
+      <c r="J157" s="118"/>
+      <c r="K157" s="118"/>
+      <c r="L157" s="118"/>
+      <c r="M157" s="118"/>
+      <c r="N157" s="135"/>
       <c r="O157" s="43"/>
       <c r="P157" s="43"/>
       <c r="Q157" s="43"/>
@@ -23706,16 +23715,16 @@
       <c r="B158" s="24"/>
       <c r="C158" s="2"/>
       <c r="D158" s="46"/>
-      <c r="E158" s="133"/>
-      <c r="F158" s="134"/>
-      <c r="G158" s="135"/>
-      <c r="H158" s="126"/>
-      <c r="I158" s="124"/>
-      <c r="J158" s="124"/>
-      <c r="K158" s="124"/>
-      <c r="L158" s="124"/>
-      <c r="M158" s="124"/>
-      <c r="N158" s="136"/>
+      <c r="E158" s="165"/>
+      <c r="F158" s="156"/>
+      <c r="G158" s="166"/>
+      <c r="H158" s="115"/>
+      <c r="I158" s="118"/>
+      <c r="J158" s="118"/>
+      <c r="K158" s="118"/>
+      <c r="L158" s="118"/>
+      <c r="M158" s="118"/>
+      <c r="N158" s="135"/>
       <c r="O158" s="31"/>
       <c r="P158" s="31"/>
       <c r="Q158" s="31"/>
@@ -23834,19 +23843,19 @@
       <c r="C159" s="2"/>
       <c r="D159" s="46"/>
       <c r="E159" s="57"/>
-      <c r="F159" s="127" t="s">
+      <c r="F159" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="G159" s="128"/>
-      <c r="H159" s="112">
+      <c r="G159" s="168"/>
+      <c r="H159" s="151">
         <v>3</v>
       </c>
-      <c r="I159" s="112"/>
-      <c r="J159" s="107"/>
-      <c r="K159" s="107"/>
-      <c r="L159" s="107"/>
-      <c r="M159" s="107"/>
-      <c r="N159" s="181"/>
+      <c r="I159" s="151"/>
+      <c r="J159" s="119"/>
+      <c r="K159" s="119"/>
+      <c r="L159" s="119"/>
+      <c r="M159" s="119"/>
+      <c r="N159" s="108"/>
       <c r="O159" s="18"/>
       <c r="P159" s="18"/>
       <c r="Q159" s="18"/>
@@ -23965,15 +23974,15 @@
       <c r="C160" s="2"/>
       <c r="D160" s="46"/>
       <c r="E160" s="58"/>
-      <c r="F160" s="129"/>
-      <c r="G160" s="130"/>
-      <c r="H160" s="113"/>
-      <c r="I160" s="113"/>
-      <c r="J160" s="108"/>
-      <c r="K160" s="108"/>
-      <c r="L160" s="108"/>
-      <c r="M160" s="108"/>
-      <c r="N160" s="182"/>
+      <c r="F160" s="169"/>
+      <c r="G160" s="170"/>
+      <c r="H160" s="152"/>
+      <c r="I160" s="152"/>
+      <c r="J160" s="120"/>
+      <c r="K160" s="120"/>
+      <c r="L160" s="120"/>
+      <c r="M160" s="120"/>
+      <c r="N160" s="109"/>
       <c r="O160" s="18"/>
       <c r="P160" s="18"/>
       <c r="Q160" s="18"/>
@@ -24093,22 +24102,22 @@
       <c r="D161" s="46"/>
       <c r="E161" s="60"/>
       <c r="F161" s="105"/>
-      <c r="G161" s="115" t="s">
+      <c r="G161" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H161" s="113"/>
-      <c r="I161" s="113"/>
-      <c r="J161" s="107" t="s">
+      <c r="H161" s="152"/>
+      <c r="I161" s="152"/>
+      <c r="J161" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="K161" s="117"/>
-      <c r="L161" s="107" t="s">
+      <c r="K161" s="182"/>
+      <c r="L161" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="M161" s="123" t="s">
+      <c r="M161" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="N161" s="182"/>
+      <c r="N161" s="109"/>
       <c r="O161" s="18"/>
       <c r="P161" s="18"/>
       <c r="Q161" s="18"/>
@@ -24228,14 +24237,14 @@
       <c r="D162" s="46"/>
       <c r="E162" s="60"/>
       <c r="F162" s="105"/>
-      <c r="G162" s="116"/>
-      <c r="H162" s="113"/>
-      <c r="I162" s="113"/>
-      <c r="J162" s="108"/>
-      <c r="K162" s="118"/>
-      <c r="L162" s="108"/>
-      <c r="M162" s="118"/>
-      <c r="N162" s="182"/>
+      <c r="G162" s="181"/>
+      <c r="H162" s="152"/>
+      <c r="I162" s="152"/>
+      <c r="J162" s="120"/>
+      <c r="K162" s="117"/>
+      <c r="L162" s="120"/>
+      <c r="M162" s="117"/>
+      <c r="N162" s="109"/>
       <c r="O162" s="18"/>
       <c r="P162" s="18"/>
       <c r="Q162" s="18"/>
@@ -24355,22 +24364,22 @@
       <c r="D163" s="46"/>
       <c r="E163" s="60"/>
       <c r="F163" s="105"/>
-      <c r="G163" s="119" t="s">
+      <c r="G163" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H163" s="113"/>
-      <c r="I163" s="113"/>
-      <c r="J163" s="123" t="s">
+      <c r="H163" s="152"/>
+      <c r="I163" s="152"/>
+      <c r="J163" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="K163" s="117"/>
-      <c r="L163" s="107" t="s">
+      <c r="K163" s="182"/>
+      <c r="L163" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="M163" s="123" t="s">
+      <c r="M163" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="N163" s="182"/>
+      <c r="N163" s="109"/>
       <c r="O163" s="18"/>
       <c r="P163" s="18"/>
       <c r="Q163" s="18"/>
@@ -24490,14 +24499,14 @@
       <c r="D164" s="46"/>
       <c r="E164" s="60"/>
       <c r="F164" s="105"/>
-      <c r="G164" s="120"/>
-      <c r="H164" s="114"/>
-      <c r="I164" s="114"/>
-      <c r="J164" s="118"/>
-      <c r="K164" s="118"/>
-      <c r="L164" s="108"/>
-      <c r="M164" s="118"/>
-      <c r="N164" s="183"/>
+      <c r="G164" s="184"/>
+      <c r="H164" s="153"/>
+      <c r="I164" s="153"/>
+      <c r="J164" s="117"/>
+      <c r="K164" s="117"/>
+      <c r="L164" s="120"/>
+      <c r="M164" s="117"/>
+      <c r="N164" s="110"/>
       <c r="O164" s="18"/>
       <c r="P164" s="18"/>
       <c r="Q164" s="18"/>
@@ -24616,19 +24625,19 @@
       <c r="C165" s="2"/>
       <c r="D165" s="46"/>
       <c r="E165" s="58"/>
-      <c r="F165" s="127" t="s">
+      <c r="F165" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="G165" s="128"/>
-      <c r="H165" s="112">
+      <c r="G165" s="168"/>
+      <c r="H165" s="151">
         <v>2</v>
       </c>
-      <c r="I165" s="112"/>
-      <c r="J165" s="107"/>
-      <c r="K165" s="107"/>
-      <c r="L165" s="107"/>
-      <c r="M165" s="107"/>
-      <c r="N165" s="181"/>
+      <c r="I165" s="151"/>
+      <c r="J165" s="119"/>
+      <c r="K165" s="119"/>
+      <c r="L165" s="119"/>
+      <c r="M165" s="119"/>
+      <c r="N165" s="108"/>
       <c r="O165" s="18"/>
       <c r="P165" s="18"/>
       <c r="Q165" s="18"/>
@@ -24747,15 +24756,15 @@
       <c r="C166" s="2"/>
       <c r="D166" s="46"/>
       <c r="E166" s="58"/>
-      <c r="F166" s="129"/>
-      <c r="G166" s="130"/>
-      <c r="H166" s="113"/>
-      <c r="I166" s="113"/>
-      <c r="J166" s="108"/>
-      <c r="K166" s="108"/>
-      <c r="L166" s="108"/>
-      <c r="M166" s="108"/>
-      <c r="N166" s="182"/>
+      <c r="F166" s="169"/>
+      <c r="G166" s="170"/>
+      <c r="H166" s="152"/>
+      <c r="I166" s="152"/>
+      <c r="J166" s="120"/>
+      <c r="K166" s="120"/>
+      <c r="L166" s="120"/>
+      <c r="M166" s="120"/>
+      <c r="N166" s="109"/>
       <c r="O166" s="18"/>
       <c r="P166" s="18"/>
       <c r="Q166" s="18"/>
@@ -24875,22 +24884,22 @@
       <c r="D167" s="46"/>
       <c r="E167" s="60"/>
       <c r="F167" s="105"/>
-      <c r="G167" s="115" t="s">
+      <c r="G167" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H167" s="113"/>
-      <c r="I167" s="113"/>
-      <c r="J167" s="123" t="s">
+      <c r="H167" s="152"/>
+      <c r="I167" s="152"/>
+      <c r="J167" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="K167" s="117"/>
-      <c r="L167" s="107" t="s">
+      <c r="K167" s="182"/>
+      <c r="L167" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="M167" s="107" t="s">
+      <c r="M167" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="N167" s="182"/>
+      <c r="N167" s="109"/>
       <c r="O167" s="18"/>
       <c r="P167" s="18"/>
       <c r="Q167" s="18"/>
@@ -25010,14 +25019,14 @@
       <c r="D168" s="46"/>
       <c r="E168" s="60"/>
       <c r="F168" s="105"/>
-      <c r="G168" s="116"/>
-      <c r="H168" s="113"/>
-      <c r="I168" s="113"/>
-      <c r="J168" s="118"/>
-      <c r="K168" s="118"/>
-      <c r="L168" s="108"/>
-      <c r="M168" s="108"/>
-      <c r="N168" s="182"/>
+      <c r="G168" s="181"/>
+      <c r="H168" s="152"/>
+      <c r="I168" s="152"/>
+      <c r="J168" s="117"/>
+      <c r="K168" s="117"/>
+      <c r="L168" s="120"/>
+      <c r="M168" s="120"/>
+      <c r="N168" s="109"/>
       <c r="O168" s="18"/>
       <c r="P168" s="18"/>
       <c r="Q168" s="18"/>
@@ -25137,22 +25146,22 @@
       <c r="D169" s="46"/>
       <c r="E169" s="60"/>
       <c r="F169" s="105"/>
-      <c r="G169" s="119" t="s">
+      <c r="G169" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H169" s="113"/>
-      <c r="I169" s="113"/>
-      <c r="J169" s="123" t="s">
+      <c r="H169" s="152"/>
+      <c r="I169" s="152"/>
+      <c r="J169" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="K169" s="117"/>
-      <c r="L169" s="107" t="s">
+      <c r="K169" s="182"/>
+      <c r="L169" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M169" s="123" t="s">
+      <c r="M169" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="N169" s="182"/>
+      <c r="N169" s="109"/>
       <c r="O169" s="18"/>
       <c r="P169" s="18"/>
       <c r="Q169" s="18"/>
@@ -25272,14 +25281,14 @@
       <c r="D170" s="46"/>
       <c r="E170" s="60"/>
       <c r="F170" s="105"/>
-      <c r="G170" s="120"/>
-      <c r="H170" s="114"/>
-      <c r="I170" s="114"/>
-      <c r="J170" s="118"/>
-      <c r="K170" s="118"/>
-      <c r="L170" s="108"/>
-      <c r="M170" s="118"/>
-      <c r="N170" s="183"/>
+      <c r="G170" s="184"/>
+      <c r="H170" s="153"/>
+      <c r="I170" s="153"/>
+      <c r="J170" s="117"/>
+      <c r="K170" s="117"/>
+      <c r="L170" s="120"/>
+      <c r="M170" s="117"/>
+      <c r="N170" s="110"/>
       <c r="O170" s="18"/>
       <c r="P170" s="18"/>
       <c r="Q170" s="18"/>
@@ -25398,19 +25407,19 @@
       <c r="C171" s="2"/>
       <c r="D171" s="46"/>
       <c r="E171" s="58"/>
-      <c r="F171" s="127" t="s">
+      <c r="F171" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="G171" s="128"/>
-      <c r="H171" s="112">
+      <c r="G171" s="168"/>
+      <c r="H171" s="151">
         <v>8</v>
       </c>
-      <c r="I171" s="112"/>
-      <c r="J171" s="107"/>
-      <c r="K171" s="107"/>
-      <c r="L171" s="107"/>
-      <c r="M171" s="107"/>
-      <c r="N171" s="181"/>
+      <c r="I171" s="151"/>
+      <c r="J171" s="119"/>
+      <c r="K171" s="119"/>
+      <c r="L171" s="119"/>
+      <c r="M171" s="119"/>
+      <c r="N171" s="108"/>
       <c r="O171" s="18"/>
       <c r="P171" s="18"/>
       <c r="Q171" s="18"/>
@@ -25529,15 +25538,15 @@
       <c r="C172" s="2"/>
       <c r="D172" s="46"/>
       <c r="E172" s="58"/>
-      <c r="F172" s="129"/>
-      <c r="G172" s="130"/>
-      <c r="H172" s="113"/>
-      <c r="I172" s="113"/>
-      <c r="J172" s="108"/>
-      <c r="K172" s="108"/>
-      <c r="L172" s="108"/>
-      <c r="M172" s="108"/>
-      <c r="N172" s="182"/>
+      <c r="F172" s="169"/>
+      <c r="G172" s="170"/>
+      <c r="H172" s="152"/>
+      <c r="I172" s="152"/>
+      <c r="J172" s="120"/>
+      <c r="K172" s="120"/>
+      <c r="L172" s="120"/>
+      <c r="M172" s="120"/>
+      <c r="N172" s="109"/>
       <c r="O172" s="18"/>
       <c r="P172" s="18"/>
       <c r="Q172" s="18"/>
@@ -25657,22 +25666,22 @@
       <c r="D173" s="46"/>
       <c r="E173" s="60"/>
       <c r="F173" s="105"/>
-      <c r="G173" s="115" t="s">
+      <c r="G173" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H173" s="113"/>
-      <c r="I173" s="113"/>
-      <c r="J173" s="123" t="s">
+      <c r="H173" s="152"/>
+      <c r="I173" s="152"/>
+      <c r="J173" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="K173" s="117"/>
-      <c r="L173" s="107" t="s">
+      <c r="K173" s="182"/>
+      <c r="L173" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M173" s="107" t="s">
+      <c r="M173" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="N173" s="182"/>
+      <c r="N173" s="109"/>
       <c r="O173" s="18"/>
       <c r="P173" s="18"/>
       <c r="Q173" s="18"/>
@@ -25792,14 +25801,14 @@
       <c r="D174" s="46"/>
       <c r="E174" s="60"/>
       <c r="F174" s="105"/>
-      <c r="G174" s="116"/>
-      <c r="H174" s="113"/>
-      <c r="I174" s="113"/>
-      <c r="J174" s="118"/>
-      <c r="K174" s="118"/>
-      <c r="L174" s="108"/>
-      <c r="M174" s="108"/>
-      <c r="N174" s="182"/>
+      <c r="G174" s="181"/>
+      <c r="H174" s="152"/>
+      <c r="I174" s="152"/>
+      <c r="J174" s="117"/>
+      <c r="K174" s="117"/>
+      <c r="L174" s="120"/>
+      <c r="M174" s="120"/>
+      <c r="N174" s="109"/>
       <c r="O174" s="18"/>
       <c r="P174" s="18"/>
       <c r="Q174" s="18"/>
@@ -25919,22 +25928,22 @@
       <c r="D175" s="46"/>
       <c r="E175" s="60"/>
       <c r="F175" s="105"/>
-      <c r="G175" s="119" t="s">
+      <c r="G175" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H175" s="113"/>
-      <c r="I175" s="113"/>
-      <c r="J175" s="123" t="s">
+      <c r="H175" s="152"/>
+      <c r="I175" s="152"/>
+      <c r="J175" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="K175" s="117"/>
-      <c r="L175" s="107" t="s">
+      <c r="K175" s="182"/>
+      <c r="L175" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M175" s="123" t="s">
+      <c r="M175" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="N175" s="182"/>
+      <c r="N175" s="109"/>
       <c r="O175" s="18"/>
       <c r="P175" s="18"/>
       <c r="Q175" s="18"/>
@@ -26054,14 +26063,14 @@
       <c r="D176" s="46"/>
       <c r="E176" s="60"/>
       <c r="F176" s="105"/>
-      <c r="G176" s="120"/>
-      <c r="H176" s="114"/>
-      <c r="I176" s="114"/>
-      <c r="J176" s="118"/>
-      <c r="K176" s="118"/>
-      <c r="L176" s="108"/>
-      <c r="M176" s="118"/>
-      <c r="N176" s="183"/>
+      <c r="G176" s="184"/>
+      <c r="H176" s="153"/>
+      <c r="I176" s="153"/>
+      <c r="J176" s="117"/>
+      <c r="K176" s="117"/>
+      <c r="L176" s="120"/>
+      <c r="M176" s="117"/>
+      <c r="N176" s="110"/>
       <c r="O176" s="18"/>
       <c r="P176" s="18"/>
       <c r="Q176" s="18"/>
@@ -26180,19 +26189,19 @@
       <c r="C177" s="2"/>
       <c r="D177" s="46"/>
       <c r="E177" s="58"/>
-      <c r="F177" s="127" t="s">
+      <c r="F177" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="G177" s="128"/>
-      <c r="H177" s="112">
+      <c r="G177" s="168"/>
+      <c r="H177" s="151">
         <v>7</v>
       </c>
-      <c r="I177" s="112"/>
-      <c r="J177" s="107"/>
-      <c r="K177" s="107"/>
-      <c r="L177" s="107"/>
-      <c r="M177" s="107"/>
-      <c r="N177" s="181"/>
+      <c r="I177" s="151"/>
+      <c r="J177" s="119"/>
+      <c r="K177" s="119"/>
+      <c r="L177" s="119"/>
+      <c r="M177" s="119"/>
+      <c r="N177" s="108"/>
       <c r="O177" s="18"/>
       <c r="P177" s="18"/>
       <c r="Q177" s="18"/>
@@ -26311,15 +26320,15 @@
       <c r="C178" s="2"/>
       <c r="D178" s="46"/>
       <c r="E178" s="58"/>
-      <c r="F178" s="129"/>
-      <c r="G178" s="130"/>
-      <c r="H178" s="113"/>
-      <c r="I178" s="113"/>
-      <c r="J178" s="108"/>
-      <c r="K178" s="108"/>
-      <c r="L178" s="108"/>
-      <c r="M178" s="108"/>
-      <c r="N178" s="182"/>
+      <c r="F178" s="169"/>
+      <c r="G178" s="170"/>
+      <c r="H178" s="152"/>
+      <c r="I178" s="152"/>
+      <c r="J178" s="120"/>
+      <c r="K178" s="120"/>
+      <c r="L178" s="120"/>
+      <c r="M178" s="120"/>
+      <c r="N178" s="109"/>
       <c r="O178" s="18"/>
       <c r="P178" s="18"/>
       <c r="Q178" s="18"/>
@@ -26439,22 +26448,22 @@
       <c r="D179" s="46"/>
       <c r="E179" s="60"/>
       <c r="F179" s="105"/>
-      <c r="G179" s="115" t="s">
+      <c r="G179" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H179" s="113"/>
-      <c r="I179" s="113"/>
-      <c r="J179" s="123" t="s">
+      <c r="H179" s="152"/>
+      <c r="I179" s="152"/>
+      <c r="J179" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="K179" s="117"/>
-      <c r="L179" s="107" t="s">
+      <c r="K179" s="182"/>
+      <c r="L179" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M179" s="107" t="s">
+      <c r="M179" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="N179" s="182"/>
+      <c r="N179" s="109"/>
       <c r="O179" s="18"/>
       <c r="P179" s="18"/>
       <c r="Q179" s="18"/>
@@ -26574,14 +26583,14 @@
       <c r="D180" s="46"/>
       <c r="E180" s="60"/>
       <c r="F180" s="105"/>
-      <c r="G180" s="116"/>
-      <c r="H180" s="113"/>
-      <c r="I180" s="113"/>
-      <c r="J180" s="118"/>
-      <c r="K180" s="118"/>
-      <c r="L180" s="108"/>
-      <c r="M180" s="108"/>
-      <c r="N180" s="182"/>
+      <c r="G180" s="181"/>
+      <c r="H180" s="152"/>
+      <c r="I180" s="152"/>
+      <c r="J180" s="117"/>
+      <c r="K180" s="117"/>
+      <c r="L180" s="120"/>
+      <c r="M180" s="120"/>
+      <c r="N180" s="109"/>
       <c r="O180" s="18"/>
       <c r="P180" s="18"/>
       <c r="Q180" s="18"/>
@@ -26701,22 +26710,22 @@
       <c r="D181" s="46"/>
       <c r="E181" s="60"/>
       <c r="F181" s="105"/>
-      <c r="G181" s="119" t="s">
+      <c r="G181" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H181" s="113"/>
-      <c r="I181" s="113"/>
-      <c r="J181" s="123" t="s">
+      <c r="H181" s="152"/>
+      <c r="I181" s="152"/>
+      <c r="J181" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="K181" s="117"/>
-      <c r="L181" s="107" t="s">
+      <c r="K181" s="182"/>
+      <c r="L181" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="M181" s="107" t="s">
+      <c r="M181" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="N181" s="182"/>
+      <c r="N181" s="109"/>
       <c r="O181" s="18"/>
       <c r="P181" s="18"/>
       <c r="Q181" s="18"/>
@@ -26836,14 +26845,14 @@
       <c r="D182" s="46"/>
       <c r="E182" s="60"/>
       <c r="F182" s="105"/>
-      <c r="G182" s="120"/>
-      <c r="H182" s="114"/>
-      <c r="I182" s="114"/>
-      <c r="J182" s="118"/>
-      <c r="K182" s="118"/>
-      <c r="L182" s="108"/>
-      <c r="M182" s="108"/>
-      <c r="N182" s="183"/>
+      <c r="G182" s="184"/>
+      <c r="H182" s="153"/>
+      <c r="I182" s="153"/>
+      <c r="J182" s="117"/>
+      <c r="K182" s="117"/>
+      <c r="L182" s="120"/>
+      <c r="M182" s="120"/>
+      <c r="N182" s="110"/>
       <c r="O182" s="18"/>
       <c r="P182" s="18"/>
       <c r="Q182" s="18"/>
@@ -26962,19 +26971,19 @@
       <c r="C183" s="2"/>
       <c r="D183" s="46"/>
       <c r="E183" s="58"/>
-      <c r="F183" s="127" t="s">
+      <c r="F183" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="G183" s="128"/>
-      <c r="H183" s="112">
+      <c r="G183" s="168"/>
+      <c r="H183" s="151">
         <v>5</v>
       </c>
-      <c r="I183" s="112"/>
-      <c r="J183" s="107"/>
-      <c r="K183" s="107"/>
-      <c r="L183" s="107"/>
-      <c r="M183" s="107"/>
-      <c r="N183" s="181"/>
+      <c r="I183" s="151"/>
+      <c r="J183" s="119"/>
+      <c r="K183" s="119"/>
+      <c r="L183" s="119"/>
+      <c r="M183" s="119"/>
+      <c r="N183" s="108"/>
       <c r="O183" s="18"/>
       <c r="P183" s="18"/>
       <c r="Q183" s="18"/>
@@ -27093,15 +27102,15 @@
       <c r="C184" s="2"/>
       <c r="D184" s="46"/>
       <c r="E184" s="58"/>
-      <c r="F184" s="129"/>
-      <c r="G184" s="130"/>
-      <c r="H184" s="113"/>
-      <c r="I184" s="113"/>
-      <c r="J184" s="108"/>
-      <c r="K184" s="108"/>
-      <c r="L184" s="108"/>
-      <c r="M184" s="108"/>
-      <c r="N184" s="182"/>
+      <c r="F184" s="169"/>
+      <c r="G184" s="170"/>
+      <c r="H184" s="152"/>
+      <c r="I184" s="152"/>
+      <c r="J184" s="120"/>
+      <c r="K184" s="120"/>
+      <c r="L184" s="120"/>
+      <c r="M184" s="120"/>
+      <c r="N184" s="109"/>
       <c r="O184" s="18"/>
       <c r="P184" s="18"/>
       <c r="Q184" s="18"/>
@@ -27221,22 +27230,22 @@
       <c r="D185" s="46"/>
       <c r="E185" s="60"/>
       <c r="F185" s="105"/>
-      <c r="G185" s="115" t="s">
+      <c r="G185" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H185" s="113"/>
-      <c r="I185" s="113"/>
-      <c r="J185" s="123" t="s">
+      <c r="H185" s="152"/>
+      <c r="I185" s="152"/>
+      <c r="J185" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="K185" s="117"/>
-      <c r="L185" s="107" t="s">
+      <c r="K185" s="182"/>
+      <c r="L185" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="M185" s="107" t="s">
+      <c r="M185" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="N185" s="182"/>
+      <c r="N185" s="109"/>
       <c r="O185" s="18"/>
       <c r="P185" s="18"/>
       <c r="Q185" s="18"/>
@@ -27356,14 +27365,14 @@
       <c r="D186" s="46"/>
       <c r="E186" s="60"/>
       <c r="F186" s="105"/>
-      <c r="G186" s="116"/>
-      <c r="H186" s="113"/>
-      <c r="I186" s="113"/>
-      <c r="J186" s="118"/>
-      <c r="K186" s="118"/>
-      <c r="L186" s="108"/>
-      <c r="M186" s="108"/>
-      <c r="N186" s="182"/>
+      <c r="G186" s="181"/>
+      <c r="H186" s="152"/>
+      <c r="I186" s="152"/>
+      <c r="J186" s="117"/>
+      <c r="K186" s="117"/>
+      <c r="L186" s="120"/>
+      <c r="M186" s="120"/>
+      <c r="N186" s="109"/>
       <c r="O186" s="18"/>
       <c r="P186" s="18"/>
       <c r="Q186" s="18"/>
@@ -27483,22 +27492,22 @@
       <c r="D187" s="46"/>
       <c r="E187" s="60"/>
       <c r="F187" s="105"/>
-      <c r="G187" s="119" t="s">
+      <c r="G187" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H187" s="113"/>
-      <c r="I187" s="113"/>
-      <c r="J187" s="107" t="s">
+      <c r="H187" s="152"/>
+      <c r="I187" s="152"/>
+      <c r="J187" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="K187" s="117"/>
-      <c r="L187" s="107" t="s">
+      <c r="K187" s="182"/>
+      <c r="L187" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="M187" s="123" t="s">
+      <c r="M187" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="N187" s="182"/>
+      <c r="N187" s="109"/>
       <c r="O187" s="18"/>
       <c r="P187" s="18"/>
       <c r="Q187" s="18"/>
@@ -27618,14 +27627,14 @@
       <c r="D188" s="46"/>
       <c r="E188" s="60"/>
       <c r="F188" s="105"/>
-      <c r="G188" s="120"/>
-      <c r="H188" s="114"/>
-      <c r="I188" s="114"/>
-      <c r="J188" s="108"/>
-      <c r="K188" s="118"/>
-      <c r="L188" s="108"/>
-      <c r="M188" s="118"/>
-      <c r="N188" s="183"/>
+      <c r="G188" s="184"/>
+      <c r="H188" s="153"/>
+      <c r="I188" s="153"/>
+      <c r="J188" s="120"/>
+      <c r="K188" s="117"/>
+      <c r="L188" s="120"/>
+      <c r="M188" s="117"/>
+      <c r="N188" s="110"/>
       <c r="O188" s="18"/>
       <c r="P188" s="18"/>
       <c r="Q188" s="18"/>
@@ -27744,19 +27753,19 @@
       <c r="C189" s="2"/>
       <c r="D189" s="46"/>
       <c r="E189" s="58"/>
-      <c r="F189" s="127" t="s">
+      <c r="F189" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G189" s="128"/>
-      <c r="H189" s="131"/>
-      <c r="I189" s="131"/>
-      <c r="J189" s="107"/>
-      <c r="K189" s="107"/>
-      <c r="L189" s="107" t="s">
+      <c r="G189" s="168"/>
+      <c r="H189" s="139"/>
+      <c r="I189" s="139"/>
+      <c r="J189" s="119"/>
+      <c r="K189" s="119"/>
+      <c r="L189" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="M189" s="107"/>
-      <c r="N189" s="132"/>
+      <c r="M189" s="119"/>
+      <c r="N189" s="141"/>
       <c r="O189" s="18"/>
       <c r="P189" s="18"/>
       <c r="Q189" s="18"/>
@@ -27875,15 +27884,15 @@
       <c r="C190" s="2"/>
       <c r="D190" s="46"/>
       <c r="E190" s="63"/>
-      <c r="F190" s="129"/>
-      <c r="G190" s="130"/>
-      <c r="H190" s="131"/>
-      <c r="I190" s="131"/>
-      <c r="J190" s="108"/>
-      <c r="K190" s="108"/>
-      <c r="L190" s="108"/>
-      <c r="M190" s="108"/>
-      <c r="N190" s="132"/>
+      <c r="F190" s="169"/>
+      <c r="G190" s="170"/>
+      <c r="H190" s="139"/>
+      <c r="I190" s="139"/>
+      <c r="J190" s="120"/>
+      <c r="K190" s="120"/>
+      <c r="L190" s="120"/>
+      <c r="M190" s="120"/>
+      <c r="N190" s="141"/>
       <c r="O190" s="18"/>
       <c r="P190" s="18"/>
       <c r="Q190" s="18"/>
@@ -28000,19 +28009,19 @@
       <c r="A191" s="19"/>
       <c r="B191" s="51"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="153" t="s">
+      <c r="D191" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="E191" s="154"/>
-      <c r="F191" s="154"/>
-      <c r="G191" s="154"/>
-      <c r="H191" s="125"/>
-      <c r="I191" s="124"/>
-      <c r="J191" s="125"/>
-      <c r="K191" s="125"/>
-      <c r="L191" s="125"/>
-      <c r="M191" s="125"/>
-      <c r="N191" s="136"/>
+      <c r="E191" s="128"/>
+      <c r="F191" s="128"/>
+      <c r="G191" s="128"/>
+      <c r="H191" s="114"/>
+      <c r="I191" s="118"/>
+      <c r="J191" s="114"/>
+      <c r="K191" s="114"/>
+      <c r="L191" s="114"/>
+      <c r="M191" s="114"/>
+      <c r="N191" s="135"/>
       <c r="O191" s="42"/>
       <c r="P191" s="43"/>
       <c r="Q191" s="43"/>
@@ -28129,17 +28138,17 @@
       <c r="A192" s="19"/>
       <c r="B192" s="51"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="155"/>
-      <c r="E192" s="156"/>
-      <c r="F192" s="156"/>
-      <c r="G192" s="156"/>
-      <c r="H192" s="126"/>
-      <c r="I192" s="124"/>
-      <c r="J192" s="126"/>
-      <c r="K192" s="126"/>
-      <c r="L192" s="126"/>
-      <c r="M192" s="126"/>
-      <c r="N192" s="136"/>
+      <c r="D192" s="129"/>
+      <c r="E192" s="130"/>
+      <c r="F192" s="130"/>
+      <c r="G192" s="130"/>
+      <c r="H192" s="115"/>
+      <c r="I192" s="118"/>
+      <c r="J192" s="115"/>
+      <c r="K192" s="115"/>
+      <c r="L192" s="115"/>
+      <c r="M192" s="115"/>
+      <c r="N192" s="135"/>
       <c r="O192" s="44"/>
       <c r="P192" s="31"/>
       <c r="Q192" s="31"/>
@@ -28257,18 +28266,18 @@
       <c r="B193" s="24"/>
       <c r="C193" s="2"/>
       <c r="D193" s="55"/>
-      <c r="E193" s="137" t="s">
+      <c r="E193" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="F193" s="137"/>
-      <c r="G193" s="138"/>
-      <c r="H193" s="125"/>
-      <c r="I193" s="124"/>
-      <c r="J193" s="125"/>
-      <c r="K193" s="125"/>
-      <c r="L193" s="125"/>
-      <c r="M193" s="125"/>
-      <c r="N193" s="136"/>
+      <c r="F193" s="154"/>
+      <c r="G193" s="155"/>
+      <c r="H193" s="114"/>
+      <c r="I193" s="118"/>
+      <c r="J193" s="114"/>
+      <c r="K193" s="114"/>
+      <c r="L193" s="114"/>
+      <c r="M193" s="114"/>
+      <c r="N193" s="135"/>
       <c r="O193" s="42"/>
       <c r="P193" s="43"/>
       <c r="Q193" s="43"/>
@@ -28386,16 +28395,16 @@
       <c r="B194" s="24"/>
       <c r="C194" s="2"/>
       <c r="D194" s="56"/>
-      <c r="E194" s="134"/>
-      <c r="F194" s="134"/>
-      <c r="G194" s="135"/>
-      <c r="H194" s="126"/>
-      <c r="I194" s="124"/>
-      <c r="J194" s="126"/>
-      <c r="K194" s="126"/>
-      <c r="L194" s="126"/>
-      <c r="M194" s="126"/>
-      <c r="N194" s="136"/>
+      <c r="E194" s="156"/>
+      <c r="F194" s="156"/>
+      <c r="G194" s="166"/>
+      <c r="H194" s="115"/>
+      <c r="I194" s="118"/>
+      <c r="J194" s="115"/>
+      <c r="K194" s="115"/>
+      <c r="L194" s="115"/>
+      <c r="M194" s="115"/>
+      <c r="N194" s="135"/>
       <c r="O194" s="44"/>
       <c r="P194" s="31"/>
       <c r="Q194" s="31"/>
@@ -28514,19 +28523,19 @@
       <c r="C195" s="2"/>
       <c r="D195" s="46"/>
       <c r="E195" s="59"/>
-      <c r="F195" s="127" t="s">
+      <c r="F195" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="G195" s="128"/>
-      <c r="H195" s="112">
+      <c r="G195" s="168"/>
+      <c r="H195" s="151">
         <v>3</v>
       </c>
-      <c r="I195" s="112"/>
-      <c r="J195" s="107"/>
-      <c r="K195" s="107"/>
-      <c r="L195" s="107"/>
-      <c r="M195" s="107"/>
-      <c r="N195" s="109"/>
+      <c r="I195" s="151"/>
+      <c r="J195" s="119"/>
+      <c r="K195" s="119"/>
+      <c r="L195" s="119"/>
+      <c r="M195" s="119"/>
+      <c r="N195" s="111"/>
       <c r="O195" s="18"/>
       <c r="P195" s="18"/>
       <c r="Q195" s="18"/>
@@ -28645,15 +28654,15 @@
       <c r="C196" s="2"/>
       <c r="D196" s="46"/>
       <c r="E196" s="60"/>
-      <c r="F196" s="129"/>
-      <c r="G196" s="130"/>
-      <c r="H196" s="113"/>
-      <c r="I196" s="113"/>
-      <c r="J196" s="108"/>
-      <c r="K196" s="108"/>
-      <c r="L196" s="108"/>
-      <c r="M196" s="108"/>
-      <c r="N196" s="110"/>
+      <c r="F196" s="169"/>
+      <c r="G196" s="170"/>
+      <c r="H196" s="152"/>
+      <c r="I196" s="152"/>
+      <c r="J196" s="120"/>
+      <c r="K196" s="120"/>
+      <c r="L196" s="120"/>
+      <c r="M196" s="120"/>
+      <c r="N196" s="112"/>
       <c r="O196" s="18"/>
       <c r="P196" s="18"/>
       <c r="Q196" s="18"/>
@@ -28773,20 +28782,20 @@
       <c r="D197" s="46"/>
       <c r="E197" s="60"/>
       <c r="F197" s="105"/>
-      <c r="G197" s="115" t="s">
+      <c r="G197" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H197" s="113"/>
-      <c r="I197" s="113"/>
-      <c r="J197" s="117"/>
-      <c r="K197" s="117"/>
-      <c r="L197" s="123" t="s">
+      <c r="H197" s="152"/>
+      <c r="I197" s="152"/>
+      <c r="J197" s="182"/>
+      <c r="K197" s="182"/>
+      <c r="L197" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="M197" s="123" t="s">
+      <c r="M197" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="N197" s="110"/>
+      <c r="N197" s="112"/>
       <c r="O197" s="18"/>
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
@@ -28906,14 +28915,14 @@
       <c r="D198" s="46"/>
       <c r="E198" s="60"/>
       <c r="F198" s="105"/>
-      <c r="G198" s="116"/>
-      <c r="H198" s="113"/>
-      <c r="I198" s="113"/>
-      <c r="J198" s="118"/>
-      <c r="K198" s="118"/>
-      <c r="L198" s="118"/>
-      <c r="M198" s="118"/>
-      <c r="N198" s="110"/>
+      <c r="G198" s="181"/>
+      <c r="H198" s="152"/>
+      <c r="I198" s="152"/>
+      <c r="J198" s="117"/>
+      <c r="K198" s="117"/>
+      <c r="L198" s="117"/>
+      <c r="M198" s="117"/>
+      <c r="N198" s="112"/>
       <c r="O198" s="18"/>
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
@@ -29033,20 +29042,20 @@
       <c r="D199" s="46"/>
       <c r="E199" s="60"/>
       <c r="F199" s="105"/>
-      <c r="G199" s="119" t="s">
+      <c r="G199" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H199" s="113"/>
-      <c r="I199" s="113"/>
-      <c r="J199" s="117"/>
-      <c r="K199" s="117"/>
-      <c r="L199" s="107" t="s">
+      <c r="H199" s="152"/>
+      <c r="I199" s="152"/>
+      <c r="J199" s="182"/>
+      <c r="K199" s="182"/>
+      <c r="L199" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="M199" s="123" t="s">
+      <c r="M199" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="N199" s="110"/>
+      <c r="N199" s="112"/>
       <c r="O199" s="18"/>
       <c r="P199" s="18"/>
       <c r="Q199" s="18"/>
@@ -29166,14 +29175,14 @@
       <c r="D200" s="46"/>
       <c r="E200" s="60"/>
       <c r="F200" s="105"/>
-      <c r="G200" s="120"/>
-      <c r="H200" s="114"/>
-      <c r="I200" s="114"/>
-      <c r="J200" s="118"/>
-      <c r="K200" s="118"/>
-      <c r="L200" s="108"/>
-      <c r="M200" s="118"/>
-      <c r="N200" s="111"/>
+      <c r="G200" s="184"/>
+      <c r="H200" s="153"/>
+      <c r="I200" s="153"/>
+      <c r="J200" s="117"/>
+      <c r="K200" s="117"/>
+      <c r="L200" s="120"/>
+      <c r="M200" s="117"/>
+      <c r="N200" s="113"/>
       <c r="O200" s="18"/>
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
@@ -29292,19 +29301,19 @@
       <c r="C201" s="2"/>
       <c r="D201" s="46"/>
       <c r="E201" s="61"/>
-      <c r="F201" s="127" t="s">
+      <c r="F201" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="G201" s="128"/>
-      <c r="H201" s="112">
+      <c r="G201" s="168"/>
+      <c r="H201" s="151">
         <v>3</v>
       </c>
-      <c r="I201" s="112"/>
-      <c r="J201" s="107"/>
-      <c r="K201" s="107"/>
-      <c r="L201" s="107"/>
-      <c r="M201" s="107"/>
-      <c r="N201" s="109"/>
+      <c r="I201" s="151"/>
+      <c r="J201" s="119"/>
+      <c r="K201" s="119"/>
+      <c r="L201" s="119"/>
+      <c r="M201" s="119"/>
+      <c r="N201" s="111"/>
       <c r="O201" s="18"/>
       <c r="P201" s="18"/>
       <c r="Q201" s="18"/>
@@ -29423,15 +29432,15 @@
       <c r="C202" s="2"/>
       <c r="D202" s="46"/>
       <c r="E202" s="58"/>
-      <c r="F202" s="129"/>
-      <c r="G202" s="130"/>
-      <c r="H202" s="113"/>
-      <c r="I202" s="113"/>
-      <c r="J202" s="108"/>
-      <c r="K202" s="108"/>
-      <c r="L202" s="108"/>
-      <c r="M202" s="108"/>
-      <c r="N202" s="110"/>
+      <c r="F202" s="169"/>
+      <c r="G202" s="170"/>
+      <c r="H202" s="152"/>
+      <c r="I202" s="152"/>
+      <c r="J202" s="120"/>
+      <c r="K202" s="120"/>
+      <c r="L202" s="120"/>
+      <c r="M202" s="120"/>
+      <c r="N202" s="112"/>
       <c r="O202" s="18"/>
       <c r="P202" s="18"/>
       <c r="Q202" s="18"/>
@@ -29551,22 +29560,22 @@
       <c r="D203" s="46"/>
       <c r="E203" s="60"/>
       <c r="F203" s="105"/>
-      <c r="G203" s="115" t="s">
+      <c r="G203" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H203" s="113"/>
-      <c r="I203" s="113"/>
-      <c r="J203" s="123" t="s">
+      <c r="H203" s="152"/>
+      <c r="I203" s="152"/>
+      <c r="J203" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="K203" s="117"/>
-      <c r="L203" s="123" t="s">
+      <c r="K203" s="182"/>
+      <c r="L203" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="M203" s="107" t="s">
+      <c r="M203" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="N203" s="110"/>
+      <c r="N203" s="112"/>
       <c r="O203" s="18"/>
       <c r="P203" s="18"/>
       <c r="Q203" s="18"/>
@@ -29686,14 +29695,14 @@
       <c r="D204" s="46"/>
       <c r="E204" s="60"/>
       <c r="F204" s="105"/>
-      <c r="G204" s="116"/>
-      <c r="H204" s="113"/>
-      <c r="I204" s="113"/>
-      <c r="J204" s="118"/>
-      <c r="K204" s="118"/>
-      <c r="L204" s="118"/>
-      <c r="M204" s="108"/>
-      <c r="N204" s="110"/>
+      <c r="G204" s="181"/>
+      <c r="H204" s="152"/>
+      <c r="I204" s="152"/>
+      <c r="J204" s="117"/>
+      <c r="K204" s="117"/>
+      <c r="L204" s="117"/>
+      <c r="M204" s="120"/>
+      <c r="N204" s="112"/>
       <c r="O204" s="18"/>
       <c r="P204" s="18"/>
       <c r="Q204" s="18"/>
@@ -29813,22 +29822,22 @@
       <c r="D205" s="46"/>
       <c r="E205" s="60"/>
       <c r="F205" s="105"/>
-      <c r="G205" s="119" t="s">
+      <c r="G205" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H205" s="113"/>
-      <c r="I205" s="113"/>
-      <c r="J205" s="107" t="s">
+      <c r="H205" s="152"/>
+      <c r="I205" s="152"/>
+      <c r="J205" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="K205" s="117"/>
-      <c r="L205" s="107" t="s">
+      <c r="K205" s="182"/>
+      <c r="L205" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="M205" s="107" t="s">
+      <c r="M205" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="N205" s="110"/>
+      <c r="N205" s="112"/>
       <c r="O205" s="18"/>
       <c r="P205" s="18"/>
       <c r="Q205" s="18"/>
@@ -29948,14 +29957,14 @@
       <c r="D206" s="46"/>
       <c r="E206" s="60"/>
       <c r="F206" s="105"/>
-      <c r="G206" s="120"/>
-      <c r="H206" s="114"/>
-      <c r="I206" s="114"/>
-      <c r="J206" s="108"/>
-      <c r="K206" s="118"/>
-      <c r="L206" s="108"/>
-      <c r="M206" s="108"/>
-      <c r="N206" s="111"/>
+      <c r="G206" s="184"/>
+      <c r="H206" s="153"/>
+      <c r="I206" s="153"/>
+      <c r="J206" s="120"/>
+      <c r="K206" s="117"/>
+      <c r="L206" s="120"/>
+      <c r="M206" s="120"/>
+      <c r="N206" s="113"/>
       <c r="O206" s="18"/>
       <c r="P206" s="18"/>
       <c r="Q206" s="18"/>
@@ -30074,19 +30083,19 @@
       <c r="C207" s="2"/>
       <c r="D207" s="46"/>
       <c r="E207" s="58"/>
-      <c r="F207" s="127" t="s">
+      <c r="F207" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="G207" s="128"/>
-      <c r="H207" s="112">
+      <c r="G207" s="168"/>
+      <c r="H207" s="151">
         <v>2</v>
       </c>
-      <c r="I207" s="112"/>
-      <c r="J207" s="107"/>
-      <c r="K207" s="107"/>
-      <c r="L207" s="107"/>
-      <c r="M207" s="107"/>
-      <c r="N207" s="109"/>
+      <c r="I207" s="151"/>
+      <c r="J207" s="119"/>
+      <c r="K207" s="119"/>
+      <c r="L207" s="119"/>
+      <c r="M207" s="119"/>
+      <c r="N207" s="111"/>
       <c r="O207" s="18"/>
       <c r="P207" s="18"/>
       <c r="Q207" s="18"/>
@@ -30205,15 +30214,15 @@
       <c r="C208" s="2"/>
       <c r="D208" s="46"/>
       <c r="E208" s="58"/>
-      <c r="F208" s="129"/>
-      <c r="G208" s="130"/>
-      <c r="H208" s="113"/>
-      <c r="I208" s="113"/>
-      <c r="J208" s="108"/>
-      <c r="K208" s="108"/>
-      <c r="L208" s="108"/>
-      <c r="M208" s="108"/>
-      <c r="N208" s="110"/>
+      <c r="F208" s="169"/>
+      <c r="G208" s="170"/>
+      <c r="H208" s="152"/>
+      <c r="I208" s="152"/>
+      <c r="J208" s="120"/>
+      <c r="K208" s="120"/>
+      <c r="L208" s="120"/>
+      <c r="M208" s="120"/>
+      <c r="N208" s="112"/>
       <c r="O208" s="18"/>
       <c r="P208" s="18"/>
       <c r="Q208" s="18"/>
@@ -30333,20 +30342,20 @@
       <c r="D209" s="46"/>
       <c r="E209" s="60"/>
       <c r="F209" s="105"/>
-      <c r="G209" s="115" t="s">
+      <c r="G209" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H209" s="113"/>
-      <c r="I209" s="113"/>
-      <c r="J209" s="117"/>
-      <c r="K209" s="117"/>
-      <c r="L209" s="123" t="s">
+      <c r="H209" s="152"/>
+      <c r="I209" s="152"/>
+      <c r="J209" s="182"/>
+      <c r="K209" s="182"/>
+      <c r="L209" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="M209" s="123" t="s">
+      <c r="M209" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="N209" s="110"/>
+      <c r="N209" s="112"/>
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
       <c r="Q209" s="18"/>
@@ -30466,14 +30475,14 @@
       <c r="D210" s="46"/>
       <c r="E210" s="60"/>
       <c r="F210" s="105"/>
-      <c r="G210" s="116"/>
-      <c r="H210" s="113"/>
-      <c r="I210" s="113"/>
-      <c r="J210" s="118"/>
-      <c r="K210" s="118"/>
-      <c r="L210" s="118"/>
-      <c r="M210" s="118"/>
-      <c r="N210" s="110"/>
+      <c r="G210" s="181"/>
+      <c r="H210" s="152"/>
+      <c r="I210" s="152"/>
+      <c r="J210" s="117"/>
+      <c r="K210" s="117"/>
+      <c r="L210" s="117"/>
+      <c r="M210" s="117"/>
+      <c r="N210" s="112"/>
       <c r="O210" s="18"/>
       <c r="P210" s="18"/>
       <c r="Q210" s="18"/>
@@ -30593,20 +30602,20 @@
       <c r="D211" s="46"/>
       <c r="E211" s="60"/>
       <c r="F211" s="105"/>
-      <c r="G211" s="119" t="s">
+      <c r="G211" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H211" s="113"/>
-      <c r="I211" s="113"/>
-      <c r="J211" s="117"/>
-      <c r="K211" s="117"/>
-      <c r="L211" s="107" t="s">
+      <c r="H211" s="152"/>
+      <c r="I211" s="152"/>
+      <c r="J211" s="182"/>
+      <c r="K211" s="182"/>
+      <c r="L211" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="M211" s="123" t="s">
+      <c r="M211" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="N211" s="110"/>
+      <c r="N211" s="112"/>
       <c r="O211" s="18"/>
       <c r="P211" s="18"/>
       <c r="Q211" s="18"/>
@@ -30726,14 +30735,14 @@
       <c r="D212" s="46"/>
       <c r="E212" s="60"/>
       <c r="F212" s="105"/>
-      <c r="G212" s="120"/>
-      <c r="H212" s="114"/>
-      <c r="I212" s="114"/>
-      <c r="J212" s="118"/>
-      <c r="K212" s="118"/>
-      <c r="L212" s="108"/>
-      <c r="M212" s="118"/>
-      <c r="N212" s="111"/>
+      <c r="G212" s="184"/>
+      <c r="H212" s="153"/>
+      <c r="I212" s="153"/>
+      <c r="J212" s="117"/>
+      <c r="K212" s="117"/>
+      <c r="L212" s="120"/>
+      <c r="M212" s="117"/>
+      <c r="N212" s="113"/>
       <c r="O212" s="18"/>
       <c r="P212" s="18"/>
       <c r="Q212" s="18"/>
@@ -30852,19 +30861,19 @@
       <c r="C213" s="2"/>
       <c r="D213" s="46"/>
       <c r="E213" s="58"/>
-      <c r="F213" s="127" t="s">
+      <c r="F213" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="G213" s="128"/>
-      <c r="H213" s="112">
+      <c r="G213" s="168"/>
+      <c r="H213" s="151">
         <v>2.5</v>
       </c>
-      <c r="I213" s="112"/>
-      <c r="J213" s="107"/>
-      <c r="K213" s="107"/>
-      <c r="L213" s="107"/>
-      <c r="M213" s="107"/>
-      <c r="N213" s="109"/>
+      <c r="I213" s="151"/>
+      <c r="J213" s="119"/>
+      <c r="K213" s="119"/>
+      <c r="L213" s="119"/>
+      <c r="M213" s="119"/>
+      <c r="N213" s="111"/>
       <c r="O213" s="18"/>
       <c r="P213" s="18"/>
       <c r="Q213" s="18"/>
@@ -30983,15 +30992,15 @@
       <c r="C214" s="2"/>
       <c r="D214" s="46"/>
       <c r="E214" s="58"/>
-      <c r="F214" s="129"/>
-      <c r="G214" s="130"/>
-      <c r="H214" s="113"/>
-      <c r="I214" s="113"/>
-      <c r="J214" s="108"/>
-      <c r="K214" s="108"/>
-      <c r="L214" s="108"/>
-      <c r="M214" s="108"/>
-      <c r="N214" s="110"/>
+      <c r="F214" s="169"/>
+      <c r="G214" s="170"/>
+      <c r="H214" s="152"/>
+      <c r="I214" s="152"/>
+      <c r="J214" s="120"/>
+      <c r="K214" s="120"/>
+      <c r="L214" s="120"/>
+      <c r="M214" s="120"/>
+      <c r="N214" s="112"/>
       <c r="O214" s="18"/>
       <c r="P214" s="18"/>
       <c r="Q214" s="18"/>
@@ -31111,22 +31120,22 @@
       <c r="D215" s="46"/>
       <c r="E215" s="60"/>
       <c r="F215" s="105"/>
-      <c r="G215" s="115" t="s">
+      <c r="G215" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H215" s="113"/>
-      <c r="I215" s="113"/>
-      <c r="J215" s="123" t="s">
+      <c r="H215" s="152"/>
+      <c r="I215" s="152"/>
+      <c r="J215" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="K215" s="117"/>
-      <c r="L215" s="107" t="s">
+      <c r="K215" s="182"/>
+      <c r="L215" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="M215" s="123" t="s">
+      <c r="M215" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="N215" s="110"/>
+      <c r="N215" s="112"/>
       <c r="O215" s="18"/>
       <c r="P215" s="18"/>
       <c r="Q215" s="18"/>
@@ -31246,14 +31255,14 @@
       <c r="D216" s="46"/>
       <c r="E216" s="60"/>
       <c r="F216" s="105"/>
-      <c r="G216" s="116"/>
-      <c r="H216" s="113"/>
-      <c r="I216" s="113"/>
-      <c r="J216" s="118"/>
-      <c r="K216" s="118"/>
-      <c r="L216" s="108"/>
-      <c r="M216" s="118"/>
-      <c r="N216" s="110"/>
+      <c r="G216" s="181"/>
+      <c r="H216" s="152"/>
+      <c r="I216" s="152"/>
+      <c r="J216" s="117"/>
+      <c r="K216" s="117"/>
+      <c r="L216" s="120"/>
+      <c r="M216" s="117"/>
+      <c r="N216" s="112"/>
       <c r="O216" s="18"/>
       <c r="P216" s="18"/>
       <c r="Q216" s="18"/>
@@ -31373,22 +31382,22 @@
       <c r="D217" s="46"/>
       <c r="E217" s="60"/>
       <c r="F217" s="105"/>
-      <c r="G217" s="119" t="s">
+      <c r="G217" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H217" s="113"/>
-      <c r="I217" s="113"/>
-      <c r="J217" s="107" t="s">
+      <c r="H217" s="152"/>
+      <c r="I217" s="152"/>
+      <c r="J217" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="K217" s="117"/>
-      <c r="L217" s="107" t="s">
+      <c r="K217" s="182"/>
+      <c r="L217" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="M217" s="123" t="s">
+      <c r="M217" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="N217" s="110"/>
+      <c r="N217" s="112"/>
       <c r="O217" s="18"/>
       <c r="P217" s="18"/>
       <c r="Q217" s="18"/>
@@ -31508,14 +31517,14 @@
       <c r="D218" s="46"/>
       <c r="E218" s="60"/>
       <c r="F218" s="105"/>
-      <c r="G218" s="120"/>
-      <c r="H218" s="114"/>
-      <c r="I218" s="114"/>
-      <c r="J218" s="108"/>
-      <c r="K218" s="118"/>
-      <c r="L218" s="108"/>
-      <c r="M218" s="118"/>
-      <c r="N218" s="111"/>
+      <c r="G218" s="184"/>
+      <c r="H218" s="153"/>
+      <c r="I218" s="153"/>
+      <c r="J218" s="120"/>
+      <c r="K218" s="117"/>
+      <c r="L218" s="120"/>
+      <c r="M218" s="117"/>
+      <c r="N218" s="113"/>
       <c r="O218" s="18"/>
       <c r="P218" s="18"/>
       <c r="Q218" s="18"/>
@@ -31634,19 +31643,19 @@
       <c r="C219" s="2"/>
       <c r="D219" s="46"/>
       <c r="E219" s="58"/>
-      <c r="F219" s="127" t="s">
+      <c r="F219" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G219" s="128"/>
-      <c r="H219" s="131"/>
-      <c r="I219" s="131"/>
-      <c r="J219" s="107"/>
-      <c r="K219" s="107"/>
-      <c r="L219" s="107" t="s">
+      <c r="G219" s="168"/>
+      <c r="H219" s="139"/>
+      <c r="I219" s="139"/>
+      <c r="J219" s="119"/>
+      <c r="K219" s="119"/>
+      <c r="L219" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M219" s="107"/>
-      <c r="N219" s="132"/>
+      <c r="M219" s="119"/>
+      <c r="N219" s="141"/>
       <c r="O219" s="18"/>
       <c r="P219" s="18"/>
       <c r="Q219" s="18"/>
@@ -31765,15 +31774,15 @@
       <c r="C220" s="2"/>
       <c r="D220" s="46"/>
       <c r="E220" s="63"/>
-      <c r="F220" s="129"/>
-      <c r="G220" s="130"/>
-      <c r="H220" s="131"/>
-      <c r="I220" s="131"/>
-      <c r="J220" s="108"/>
-      <c r="K220" s="108"/>
-      <c r="L220" s="108"/>
-      <c r="M220" s="108"/>
-      <c r="N220" s="132"/>
+      <c r="F220" s="169"/>
+      <c r="G220" s="170"/>
+      <c r="H220" s="139"/>
+      <c r="I220" s="139"/>
+      <c r="J220" s="120"/>
+      <c r="K220" s="120"/>
+      <c r="L220" s="120"/>
+      <c r="M220" s="120"/>
+      <c r="N220" s="141"/>
       <c r="O220" s="18"/>
       <c r="P220" s="18"/>
       <c r="Q220" s="18"/>
@@ -31891,18 +31900,18 @@
       <c r="B221" s="24"/>
       <c r="C221" s="2"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="133" t="s">
+      <c r="E221" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="F221" s="134"/>
-      <c r="G221" s="135"/>
-      <c r="H221" s="125"/>
-      <c r="I221" s="124"/>
-      <c r="J221" s="124"/>
-      <c r="K221" s="124"/>
-      <c r="L221" s="124"/>
-      <c r="M221" s="124"/>
-      <c r="N221" s="136"/>
+      <c r="F221" s="156"/>
+      <c r="G221" s="166"/>
+      <c r="H221" s="114"/>
+      <c r="I221" s="118"/>
+      <c r="J221" s="118"/>
+      <c r="K221" s="118"/>
+      <c r="L221" s="118"/>
+      <c r="M221" s="118"/>
+      <c r="N221" s="135"/>
       <c r="O221" s="43"/>
       <c r="P221" s="43"/>
       <c r="Q221" s="43"/>
@@ -32020,16 +32029,16 @@
       <c r="B222" s="24"/>
       <c r="C222" s="2"/>
       <c r="D222" s="46"/>
-      <c r="E222" s="133"/>
-      <c r="F222" s="134"/>
-      <c r="G222" s="135"/>
-      <c r="H222" s="126"/>
-      <c r="I222" s="124"/>
-      <c r="J222" s="124"/>
-      <c r="K222" s="124"/>
-      <c r="L222" s="124"/>
-      <c r="M222" s="124"/>
-      <c r="N222" s="136"/>
+      <c r="E222" s="165"/>
+      <c r="F222" s="156"/>
+      <c r="G222" s="166"/>
+      <c r="H222" s="115"/>
+      <c r="I222" s="118"/>
+      <c r="J222" s="118"/>
+      <c r="K222" s="118"/>
+      <c r="L222" s="118"/>
+      <c r="M222" s="118"/>
+      <c r="N222" s="135"/>
       <c r="O222" s="31"/>
       <c r="P222" s="31"/>
       <c r="Q222" s="31"/>
@@ -32148,19 +32157,19 @@
       <c r="C223" s="2"/>
       <c r="D223" s="46"/>
       <c r="E223" s="59"/>
-      <c r="F223" s="127" t="s">
+      <c r="F223" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="G223" s="128"/>
-      <c r="H223" s="112">
+      <c r="G223" s="168"/>
+      <c r="H223" s="151">
         <v>4</v>
       </c>
-      <c r="I223" s="112"/>
-      <c r="J223" s="107"/>
-      <c r="K223" s="107"/>
-      <c r="L223" s="107"/>
-      <c r="M223" s="107"/>
-      <c r="N223" s="109"/>
+      <c r="I223" s="151"/>
+      <c r="J223" s="119"/>
+      <c r="K223" s="119"/>
+      <c r="L223" s="119"/>
+      <c r="M223" s="119"/>
+      <c r="N223" s="111"/>
       <c r="O223" s="18"/>
       <c r="P223" s="18"/>
       <c r="Q223" s="18"/>
@@ -32279,15 +32288,15 @@
       <c r="C224" s="2"/>
       <c r="D224" s="46"/>
       <c r="E224" s="60"/>
-      <c r="F224" s="129"/>
-      <c r="G224" s="130"/>
-      <c r="H224" s="113"/>
-      <c r="I224" s="113"/>
-      <c r="J224" s="108"/>
-      <c r="K224" s="108"/>
-      <c r="L224" s="108"/>
-      <c r="M224" s="108"/>
-      <c r="N224" s="110"/>
+      <c r="F224" s="169"/>
+      <c r="G224" s="170"/>
+      <c r="H224" s="152"/>
+      <c r="I224" s="152"/>
+      <c r="J224" s="120"/>
+      <c r="K224" s="120"/>
+      <c r="L224" s="120"/>
+      <c r="M224" s="120"/>
+      <c r="N224" s="112"/>
       <c r="O224" s="18"/>
       <c r="P224" s="18"/>
       <c r="Q224" s="18"/>
@@ -32407,18 +32416,18 @@
       <c r="D225" s="46"/>
       <c r="E225" s="60"/>
       <c r="F225" s="105"/>
-      <c r="G225" s="115" t="s">
+      <c r="G225" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H225" s="113"/>
-      <c r="I225" s="113"/>
-      <c r="J225" s="117"/>
-      <c r="K225" s="117"/>
-      <c r="L225" s="117"/>
-      <c r="M225" s="123" t="s">
+      <c r="H225" s="152"/>
+      <c r="I225" s="152"/>
+      <c r="J225" s="182"/>
+      <c r="K225" s="182"/>
+      <c r="L225" s="182"/>
+      <c r="M225" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="N225" s="110"/>
+      <c r="N225" s="112"/>
       <c r="O225" s="18"/>
       <c r="P225" s="18"/>
       <c r="Q225" s="18"/>
@@ -32538,14 +32547,14 @@
       <c r="D226" s="46"/>
       <c r="E226" s="60"/>
       <c r="F226" s="105"/>
-      <c r="G226" s="116"/>
-      <c r="H226" s="113"/>
-      <c r="I226" s="113"/>
-      <c r="J226" s="118"/>
-      <c r="K226" s="118"/>
-      <c r="L226" s="118"/>
-      <c r="M226" s="118"/>
-      <c r="N226" s="110"/>
+      <c r="G226" s="181"/>
+      <c r="H226" s="152"/>
+      <c r="I226" s="152"/>
+      <c r="J226" s="117"/>
+      <c r="K226" s="117"/>
+      <c r="L226" s="117"/>
+      <c r="M226" s="117"/>
+      <c r="N226" s="112"/>
       <c r="O226" s="18"/>
       <c r="P226" s="18"/>
       <c r="Q226" s="18"/>
@@ -32665,20 +32674,20 @@
       <c r="D227" s="46"/>
       <c r="E227" s="60"/>
       <c r="F227" s="105"/>
-      <c r="G227" s="119" t="s">
+      <c r="G227" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H227" s="113"/>
-      <c r="I227" s="113"/>
-      <c r="J227" s="117"/>
-      <c r="K227" s="117"/>
-      <c r="L227" s="107" t="s">
+      <c r="H227" s="152"/>
+      <c r="I227" s="152"/>
+      <c r="J227" s="182"/>
+      <c r="K227" s="182"/>
+      <c r="L227" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M227" s="123" t="s">
+      <c r="M227" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="N227" s="110"/>
+      <c r="N227" s="112"/>
       <c r="O227" s="18"/>
       <c r="P227" s="18"/>
       <c r="Q227" s="18"/>
@@ -32798,14 +32807,14 @@
       <c r="D228" s="46"/>
       <c r="E228" s="60"/>
       <c r="F228" s="105"/>
-      <c r="G228" s="120"/>
-      <c r="H228" s="114"/>
-      <c r="I228" s="114"/>
-      <c r="J228" s="118"/>
-      <c r="K228" s="118"/>
-      <c r="L228" s="108"/>
-      <c r="M228" s="118"/>
-      <c r="N228" s="111"/>
+      <c r="G228" s="184"/>
+      <c r="H228" s="153"/>
+      <c r="I228" s="153"/>
+      <c r="J228" s="117"/>
+      <c r="K228" s="117"/>
+      <c r="L228" s="120"/>
+      <c r="M228" s="117"/>
+      <c r="N228" s="113"/>
       <c r="O228" s="18"/>
       <c r="P228" s="18"/>
       <c r="Q228" s="18"/>
@@ -32924,19 +32933,19 @@
       <c r="C229" s="2"/>
       <c r="D229" s="46"/>
       <c r="E229" s="61"/>
-      <c r="F229" s="127" t="s">
+      <c r="F229" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="G229" s="128"/>
-      <c r="H229" s="112">
+      <c r="G229" s="168"/>
+      <c r="H229" s="151">
         <v>4</v>
       </c>
-      <c r="I229" s="112"/>
+      <c r="I229" s="151"/>
       <c r="J229" s="121"/>
       <c r="K229" s="121"/>
       <c r="L229" s="121"/>
-      <c r="M229" s="107"/>
-      <c r="N229" s="109"/>
+      <c r="M229" s="119"/>
+      <c r="N229" s="111"/>
       <c r="O229" s="18"/>
       <c r="P229" s="18"/>
       <c r="Q229" s="18"/>
@@ -33055,15 +33064,15 @@
       <c r="C230" s="2"/>
       <c r="D230" s="46"/>
       <c r="E230" s="58"/>
-      <c r="F230" s="129"/>
-      <c r="G230" s="130"/>
-      <c r="H230" s="113"/>
-      <c r="I230" s="113"/>
+      <c r="F230" s="169"/>
+      <c r="G230" s="170"/>
+      <c r="H230" s="152"/>
+      <c r="I230" s="152"/>
       <c r="J230" s="122"/>
       <c r="K230" s="122"/>
       <c r="L230" s="122"/>
-      <c r="M230" s="108"/>
-      <c r="N230" s="110"/>
+      <c r="M230" s="120"/>
+      <c r="N230" s="112"/>
       <c r="O230" s="18"/>
       <c r="P230" s="18"/>
       <c r="Q230" s="18"/>
@@ -33183,22 +33192,22 @@
       <c r="D231" s="46"/>
       <c r="E231" s="60"/>
       <c r="F231" s="105"/>
-      <c r="G231" s="115" t="s">
+      <c r="G231" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H231" s="113"/>
-      <c r="I231" s="113"/>
+      <c r="H231" s="152"/>
+      <c r="I231" s="152"/>
       <c r="J231" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="K231" s="117"/>
+      <c r="K231" s="182"/>
       <c r="L231" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="M231" s="107" t="s">
+      <c r="M231" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="N231" s="110"/>
+      <c r="N231" s="112"/>
       <c r="O231" s="18"/>
       <c r="P231" s="18"/>
       <c r="Q231" s="18"/>
@@ -33318,14 +33327,14 @@
       <c r="D232" s="46"/>
       <c r="E232" s="60"/>
       <c r="F232" s="105"/>
-      <c r="G232" s="116"/>
-      <c r="H232" s="113"/>
-      <c r="I232" s="113"/>
+      <c r="G232" s="181"/>
+      <c r="H232" s="152"/>
+      <c r="I232" s="152"/>
       <c r="J232" s="122"/>
-      <c r="K232" s="118"/>
+      <c r="K232" s="117"/>
       <c r="L232" s="122"/>
-      <c r="M232" s="108"/>
-      <c r="N232" s="110"/>
+      <c r="M232" s="120"/>
+      <c r="N232" s="112"/>
       <c r="O232" s="18"/>
       <c r="P232" s="18"/>
       <c r="Q232" s="18"/>
@@ -33445,22 +33454,22 @@
       <c r="D233" s="46"/>
       <c r="E233" s="60"/>
       <c r="F233" s="105"/>
-      <c r="G233" s="119" t="s">
+      <c r="G233" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H233" s="113"/>
-      <c r="I233" s="113"/>
+      <c r="H233" s="152"/>
+      <c r="I233" s="152"/>
       <c r="J233" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="K233" s="117"/>
+      <c r="K233" s="182"/>
       <c r="L233" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="M233" s="107" t="s">
+      <c r="M233" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="N233" s="110"/>
+      <c r="N233" s="112"/>
       <c r="O233" s="18"/>
       <c r="P233" s="18"/>
       <c r="Q233" s="18"/>
@@ -33580,14 +33589,14 @@
       <c r="D234" s="46"/>
       <c r="E234" s="60"/>
       <c r="F234" s="105"/>
-      <c r="G234" s="120"/>
-      <c r="H234" s="114"/>
-      <c r="I234" s="114"/>
+      <c r="G234" s="184"/>
+      <c r="H234" s="153"/>
+      <c r="I234" s="153"/>
       <c r="J234" s="122"/>
-      <c r="K234" s="118"/>
+      <c r="K234" s="117"/>
       <c r="L234" s="122"/>
-      <c r="M234" s="108"/>
-      <c r="N234" s="111"/>
+      <c r="M234" s="120"/>
+      <c r="N234" s="113"/>
       <c r="O234" s="18"/>
       <c r="P234" s="18"/>
       <c r="Q234" s="18"/>
@@ -33706,19 +33715,19 @@
       <c r="C235" s="2"/>
       <c r="D235" s="46"/>
       <c r="E235" s="58"/>
-      <c r="F235" s="127" t="s">
+      <c r="F235" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="G235" s="128"/>
-      <c r="H235" s="112">
+      <c r="G235" s="168"/>
+      <c r="H235" s="151">
         <v>3</v>
       </c>
-      <c r="I235" s="112"/>
-      <c r="J235" s="107"/>
-      <c r="K235" s="107"/>
-      <c r="L235" s="107"/>
-      <c r="M235" s="107"/>
-      <c r="N235" s="109"/>
+      <c r="I235" s="151"/>
+      <c r="J235" s="119"/>
+      <c r="K235" s="119"/>
+      <c r="L235" s="119"/>
+      <c r="M235" s="119"/>
+      <c r="N235" s="111"/>
       <c r="O235" s="18"/>
       <c r="P235" s="18"/>
       <c r="Q235" s="18"/>
@@ -33836,15 +33845,15 @@
       <c r="C236" s="2"/>
       <c r="D236" s="46"/>
       <c r="E236" s="58"/>
-      <c r="F236" s="129"/>
-      <c r="G236" s="130"/>
-      <c r="H236" s="113"/>
-      <c r="I236" s="113"/>
-      <c r="J236" s="108"/>
-      <c r="K236" s="108"/>
-      <c r="L236" s="108"/>
-      <c r="M236" s="108"/>
-      <c r="N236" s="110"/>
+      <c r="F236" s="169"/>
+      <c r="G236" s="170"/>
+      <c r="H236" s="152"/>
+      <c r="I236" s="152"/>
+      <c r="J236" s="120"/>
+      <c r="K236" s="120"/>
+      <c r="L236" s="120"/>
+      <c r="M236" s="120"/>
+      <c r="N236" s="112"/>
       <c r="O236" s="18"/>
       <c r="P236" s="18"/>
       <c r="Q236" s="18"/>
@@ -33964,20 +33973,20 @@
       <c r="D237" s="46"/>
       <c r="E237" s="60"/>
       <c r="F237" s="105"/>
-      <c r="G237" s="115" t="s">
+      <c r="G237" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H237" s="113"/>
-      <c r="I237" s="113"/>
-      <c r="J237" s="117"/>
-      <c r="K237" s="117"/>
-      <c r="L237" s="123" t="s">
+      <c r="H237" s="152"/>
+      <c r="I237" s="152"/>
+      <c r="J237" s="182"/>
+      <c r="K237" s="182"/>
+      <c r="L237" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="M237" s="123" t="s">
+      <c r="M237" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="N237" s="110"/>
+      <c r="N237" s="112"/>
       <c r="O237" s="18"/>
       <c r="P237" s="18"/>
       <c r="Q237" s="18"/>
@@ -34097,14 +34106,14 @@
       <c r="D238" s="46"/>
       <c r="E238" s="60"/>
       <c r="F238" s="105"/>
-      <c r="G238" s="116"/>
-      <c r="H238" s="113"/>
-      <c r="I238" s="113"/>
-      <c r="J238" s="118"/>
-      <c r="K238" s="118"/>
-      <c r="L238" s="118"/>
-      <c r="M238" s="118"/>
-      <c r="N238" s="110"/>
+      <c r="G238" s="181"/>
+      <c r="H238" s="152"/>
+      <c r="I238" s="152"/>
+      <c r="J238" s="117"/>
+      <c r="K238" s="117"/>
+      <c r="L238" s="117"/>
+      <c r="M238" s="117"/>
+      <c r="N238" s="112"/>
       <c r="O238" s="18"/>
       <c r="P238" s="18"/>
       <c r="Q238" s="18"/>
@@ -34224,20 +34233,20 @@
       <c r="D239" s="46"/>
       <c r="E239" s="60"/>
       <c r="F239" s="105"/>
-      <c r="G239" s="119" t="s">
+      <c r="G239" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H239" s="113"/>
-      <c r="I239" s="113"/>
-      <c r="J239" s="117"/>
-      <c r="K239" s="117"/>
-      <c r="L239" s="107" t="s">
+      <c r="H239" s="152"/>
+      <c r="I239" s="152"/>
+      <c r="J239" s="182"/>
+      <c r="K239" s="182"/>
+      <c r="L239" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="M239" s="123" t="s">
+      <c r="M239" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="N239" s="110"/>
+      <c r="N239" s="112"/>
       <c r="O239" s="18"/>
       <c r="P239" s="18"/>
       <c r="Q239" s="18"/>
@@ -34357,14 +34366,14 @@
       <c r="D240" s="46"/>
       <c r="E240" s="60"/>
       <c r="F240" s="105"/>
-      <c r="G240" s="120"/>
-      <c r="H240" s="114"/>
-      <c r="I240" s="114"/>
-      <c r="J240" s="118"/>
-      <c r="K240" s="118"/>
-      <c r="L240" s="108"/>
-      <c r="M240" s="118"/>
-      <c r="N240" s="111"/>
+      <c r="G240" s="184"/>
+      <c r="H240" s="153"/>
+      <c r="I240" s="153"/>
+      <c r="J240" s="117"/>
+      <c r="K240" s="117"/>
+      <c r="L240" s="120"/>
+      <c r="M240" s="117"/>
+      <c r="N240" s="113"/>
       <c r="O240" s="18"/>
       <c r="P240" s="18"/>
       <c r="Q240" s="18"/>
@@ -34483,19 +34492,19 @@
       <c r="C241" s="2"/>
       <c r="D241" s="46"/>
       <c r="E241" s="58"/>
-      <c r="F241" s="127" t="s">
+      <c r="F241" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="G241" s="128"/>
-      <c r="H241" s="112">
+      <c r="G241" s="168"/>
+      <c r="H241" s="151">
         <v>4</v>
       </c>
-      <c r="I241" s="112"/>
-      <c r="J241" s="107"/>
-      <c r="K241" s="107"/>
-      <c r="L241" s="107"/>
-      <c r="M241" s="107"/>
-      <c r="N241" s="109"/>
+      <c r="I241" s="151"/>
+      <c r="J241" s="119"/>
+      <c r="K241" s="119"/>
+      <c r="L241" s="119"/>
+      <c r="M241" s="119"/>
+      <c r="N241" s="111"/>
       <c r="O241" s="18"/>
       <c r="P241" s="18"/>
       <c r="Q241" s="18"/>
@@ -34613,15 +34622,15 @@
       <c r="C242" s="2"/>
       <c r="D242" s="46"/>
       <c r="E242" s="58"/>
-      <c r="F242" s="129"/>
-      <c r="G242" s="130"/>
-      <c r="H242" s="113"/>
-      <c r="I242" s="113"/>
-      <c r="J242" s="108"/>
-      <c r="K242" s="108"/>
-      <c r="L242" s="108"/>
-      <c r="M242" s="108"/>
-      <c r="N242" s="110"/>
+      <c r="F242" s="169"/>
+      <c r="G242" s="170"/>
+      <c r="H242" s="152"/>
+      <c r="I242" s="152"/>
+      <c r="J242" s="120"/>
+      <c r="K242" s="120"/>
+      <c r="L242" s="120"/>
+      <c r="M242" s="120"/>
+      <c r="N242" s="112"/>
       <c r="O242" s="18"/>
       <c r="P242" s="18"/>
       <c r="Q242" s="18"/>
@@ -34741,22 +34750,22 @@
       <c r="D243" s="46"/>
       <c r="E243" s="60"/>
       <c r="F243" s="105"/>
-      <c r="G243" s="115" t="s">
+      <c r="G243" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H243" s="113"/>
-      <c r="I243" s="113"/>
-      <c r="J243" s="123" t="s">
+      <c r="H243" s="152"/>
+      <c r="I243" s="152"/>
+      <c r="J243" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="K243" s="117"/>
-      <c r="L243" s="123" t="s">
+      <c r="K243" s="182"/>
+      <c r="L243" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="M243" s="123" t="s">
+      <c r="M243" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="N243" s="110"/>
+      <c r="N243" s="112"/>
       <c r="O243" s="18"/>
       <c r="P243" s="18"/>
       <c r="Q243" s="18"/>
@@ -34876,14 +34885,14 @@
       <c r="D244" s="46"/>
       <c r="E244" s="60"/>
       <c r="F244" s="105"/>
-      <c r="G244" s="116"/>
-      <c r="H244" s="113"/>
-      <c r="I244" s="113"/>
-      <c r="J244" s="118"/>
-      <c r="K244" s="118"/>
-      <c r="L244" s="118"/>
-      <c r="M244" s="118"/>
-      <c r="N244" s="110"/>
+      <c r="G244" s="181"/>
+      <c r="H244" s="152"/>
+      <c r="I244" s="152"/>
+      <c r="J244" s="117"/>
+      <c r="K244" s="117"/>
+      <c r="L244" s="117"/>
+      <c r="M244" s="117"/>
+      <c r="N244" s="112"/>
       <c r="O244" s="18"/>
       <c r="P244" s="18"/>
       <c r="Q244" s="18"/>
@@ -35003,22 +35012,22 @@
       <c r="D245" s="46"/>
       <c r="E245" s="60"/>
       <c r="F245" s="105"/>
-      <c r="G245" s="119" t="s">
+      <c r="G245" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="H245" s="113"/>
-      <c r="I245" s="113"/>
-      <c r="J245" s="107" t="s">
+      <c r="H245" s="152"/>
+      <c r="I245" s="152"/>
+      <c r="J245" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="K245" s="117"/>
-      <c r="L245" s="107" t="s">
+      <c r="K245" s="182"/>
+      <c r="L245" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="M245" s="123" t="s">
+      <c r="M245" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="N245" s="110"/>
+      <c r="N245" s="112"/>
       <c r="O245" s="18"/>
       <c r="P245" s="18"/>
       <c r="Q245" s="18"/>
@@ -35138,14 +35147,14 @@
       <c r="D246" s="46"/>
       <c r="E246" s="60"/>
       <c r="F246" s="105"/>
-      <c r="G246" s="120"/>
-      <c r="H246" s="114"/>
-      <c r="I246" s="114"/>
-      <c r="J246" s="108"/>
-      <c r="K246" s="118"/>
-      <c r="L246" s="108"/>
-      <c r="M246" s="118"/>
-      <c r="N246" s="111"/>
+      <c r="G246" s="184"/>
+      <c r="H246" s="153"/>
+      <c r="I246" s="153"/>
+      <c r="J246" s="120"/>
+      <c r="K246" s="117"/>
+      <c r="L246" s="120"/>
+      <c r="M246" s="117"/>
+      <c r="N246" s="113"/>
       <c r="O246" s="18"/>
       <c r="P246" s="18"/>
       <c r="Q246" s="18"/>
@@ -35264,19 +35273,19 @@
       <c r="C247" s="2"/>
       <c r="D247" s="46"/>
       <c r="E247" s="58"/>
-      <c r="F247" s="127" t="s">
+      <c r="F247" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G247" s="128"/>
-      <c r="H247" s="131"/>
-      <c r="I247" s="131"/>
-      <c r="J247" s="107"/>
-      <c r="K247" s="107"/>
-      <c r="L247" s="107" t="s">
+      <c r="G247" s="168"/>
+      <c r="H247" s="139"/>
+      <c r="I247" s="139"/>
+      <c r="J247" s="119"/>
+      <c r="K247" s="119"/>
+      <c r="L247" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M247" s="107"/>
-      <c r="N247" s="132"/>
+      <c r="M247" s="119"/>
+      <c r="N247" s="141"/>
       <c r="O247" s="18"/>
       <c r="P247" s="18"/>
       <c r="Q247" s="18"/>
@@ -35395,15 +35404,15 @@
       <c r="C248" s="2"/>
       <c r="D248" s="46"/>
       <c r="E248" s="63"/>
-      <c r="F248" s="129"/>
-      <c r="G248" s="130"/>
-      <c r="H248" s="131"/>
-      <c r="I248" s="131"/>
-      <c r="J248" s="108"/>
-      <c r="K248" s="108"/>
-      <c r="L248" s="108"/>
-      <c r="M248" s="108"/>
-      <c r="N248" s="132"/>
+      <c r="F248" s="169"/>
+      <c r="G248" s="170"/>
+      <c r="H248" s="139"/>
+      <c r="I248" s="139"/>
+      <c r="J248" s="120"/>
+      <c r="K248" s="120"/>
+      <c r="L248" s="120"/>
+      <c r="M248" s="120"/>
+      <c r="N248" s="141"/>
       <c r="O248" s="18"/>
       <c r="P248" s="18"/>
       <c r="Q248" s="18"/>
@@ -35519,20 +35528,20 @@
     <row r="249" spans="1:125" ht="9.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="24"/>
-      <c r="C249" s="160" t="s">
+      <c r="C249" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="D249" s="154"/>
-      <c r="E249" s="161"/>
-      <c r="F249" s="161"/>
-      <c r="G249" s="161"/>
-      <c r="H249" s="125"/>
-      <c r="I249" s="124"/>
-      <c r="J249" s="124"/>
-      <c r="K249" s="124"/>
-      <c r="L249" s="124"/>
-      <c r="M249" s="124"/>
-      <c r="N249" s="136"/>
+      <c r="D249" s="128"/>
+      <c r="E249" s="134"/>
+      <c r="F249" s="134"/>
+      <c r="G249" s="134"/>
+      <c r="H249" s="114"/>
+      <c r="I249" s="118"/>
+      <c r="J249" s="118"/>
+      <c r="K249" s="118"/>
+      <c r="L249" s="118"/>
+      <c r="M249" s="118"/>
+      <c r="N249" s="135"/>
       <c r="O249" s="43"/>
       <c r="P249" s="43"/>
       <c r="Q249" s="43"/>
@@ -35648,18 +35657,18 @@
     <row r="250" spans="1:125" ht="9.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="24"/>
-      <c r="C250" s="156"/>
-      <c r="D250" s="156"/>
-      <c r="E250" s="156"/>
-      <c r="F250" s="156"/>
-      <c r="G250" s="156"/>
-      <c r="H250" s="126"/>
-      <c r="I250" s="124"/>
-      <c r="J250" s="124"/>
-      <c r="K250" s="124"/>
-      <c r="L250" s="124"/>
-      <c r="M250" s="124"/>
-      <c r="N250" s="136"/>
+      <c r="C250" s="130"/>
+      <c r="D250" s="130"/>
+      <c r="E250" s="130"/>
+      <c r="F250" s="130"/>
+      <c r="G250" s="130"/>
+      <c r="H250" s="115"/>
+      <c r="I250" s="118"/>
+      <c r="J250" s="118"/>
+      <c r="K250" s="118"/>
+      <c r="L250" s="118"/>
+      <c r="M250" s="118"/>
+      <c r="N250" s="135"/>
       <c r="O250" s="31"/>
       <c r="P250" s="31"/>
       <c r="Q250" s="31"/>
@@ -35774,21 +35783,21 @@
     </row>
     <row r="251" spans="1:125" ht="9.75" customHeight="1">
       <c r="A251" s="2"/>
-      <c r="B251" s="162" t="s">
+      <c r="B251" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="C251" s="154"/>
-      <c r="D251" s="154"/>
-      <c r="E251" s="154"/>
-      <c r="F251" s="154"/>
-      <c r="G251" s="163"/>
-      <c r="H251" s="125"/>
-      <c r="I251" s="124"/>
-      <c r="J251" s="124"/>
-      <c r="K251" s="124"/>
-      <c r="L251" s="124"/>
-      <c r="M251" s="124"/>
-      <c r="N251" s="136"/>
+      <c r="C251" s="128"/>
+      <c r="D251" s="128"/>
+      <c r="E251" s="128"/>
+      <c r="F251" s="128"/>
+      <c r="G251" s="142"/>
+      <c r="H251" s="114"/>
+      <c r="I251" s="118"/>
+      <c r="J251" s="118"/>
+      <c r="K251" s="118"/>
+      <c r="L251" s="118"/>
+      <c r="M251" s="118"/>
+      <c r="N251" s="135"/>
       <c r="O251" s="43"/>
       <c r="P251" s="43"/>
       <c r="Q251" s="43"/>
@@ -35903,19 +35912,19 @@
     </row>
     <row r="252" spans="1:125" ht="9.75" customHeight="1">
       <c r="A252" s="2"/>
-      <c r="B252" s="155"/>
-      <c r="C252" s="156"/>
-      <c r="D252" s="156"/>
-      <c r="E252" s="156"/>
-      <c r="F252" s="156"/>
-      <c r="G252" s="164"/>
-      <c r="H252" s="126"/>
-      <c r="I252" s="124"/>
-      <c r="J252" s="124"/>
-      <c r="K252" s="124"/>
-      <c r="L252" s="124"/>
-      <c r="M252" s="124"/>
-      <c r="N252" s="136"/>
+      <c r="B252" s="129"/>
+      <c r="C252" s="130"/>
+      <c r="D252" s="130"/>
+      <c r="E252" s="130"/>
+      <c r="F252" s="130"/>
+      <c r="G252" s="143"/>
+      <c r="H252" s="115"/>
+      <c r="I252" s="118"/>
+      <c r="J252" s="118"/>
+      <c r="K252" s="118"/>
+      <c r="L252" s="118"/>
+      <c r="M252" s="118"/>
+      <c r="N252" s="135"/>
       <c r="O252" s="31"/>
       <c r="P252" s="31"/>
       <c r="Q252" s="31"/>
@@ -36031,20 +36040,20 @@
     <row r="253" spans="1:125" ht="9.75" customHeight="1">
       <c r="A253" s="19"/>
       <c r="B253" s="24"/>
-      <c r="C253" s="157" t="s">
+      <c r="C253" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="D253" s="154"/>
-      <c r="E253" s="154"/>
-      <c r="F253" s="154"/>
-      <c r="G253" s="154"/>
-      <c r="H253" s="125"/>
-      <c r="I253" s="124"/>
-      <c r="J253" s="124"/>
-      <c r="K253" s="124"/>
-      <c r="L253" s="124"/>
-      <c r="M253" s="124"/>
-      <c r="N253" s="136"/>
+      <c r="D253" s="128"/>
+      <c r="E253" s="128"/>
+      <c r="F253" s="128"/>
+      <c r="G253" s="128"/>
+      <c r="H253" s="114"/>
+      <c r="I253" s="118"/>
+      <c r="J253" s="118"/>
+      <c r="K253" s="118"/>
+      <c r="L253" s="118"/>
+      <c r="M253" s="118"/>
+      <c r="N253" s="135"/>
       <c r="O253" s="43"/>
       <c r="P253" s="43"/>
       <c r="Q253" s="43"/>
@@ -36160,18 +36169,18 @@
     <row r="254" spans="1:125" ht="9.75" customHeight="1">
       <c r="A254" s="19"/>
       <c r="B254" s="54"/>
-      <c r="C254" s="156"/>
-      <c r="D254" s="156"/>
-      <c r="E254" s="156"/>
-      <c r="F254" s="156"/>
-      <c r="G254" s="156"/>
-      <c r="H254" s="126"/>
-      <c r="I254" s="124"/>
-      <c r="J254" s="124"/>
-      <c r="K254" s="124"/>
-      <c r="L254" s="124"/>
-      <c r="M254" s="124"/>
-      <c r="N254" s="136"/>
+      <c r="C254" s="130"/>
+      <c r="D254" s="130"/>
+      <c r="E254" s="130"/>
+      <c r="F254" s="130"/>
+      <c r="G254" s="130"/>
+      <c r="H254" s="115"/>
+      <c r="I254" s="118"/>
+      <c r="J254" s="118"/>
+      <c r="K254" s="118"/>
+      <c r="L254" s="118"/>
+      <c r="M254" s="118"/>
+      <c r="N254" s="135"/>
       <c r="O254" s="31"/>
       <c r="P254" s="31"/>
       <c r="Q254" s="31"/>
@@ -49594,46 +49603,802 @@
     </row>
   </sheetData>
   <mergeCells count="866">
-    <mergeCell ref="N159:N164"/>
-    <mergeCell ref="N213:N218"/>
-    <mergeCell ref="N207:N212"/>
-    <mergeCell ref="N201:N206"/>
-    <mergeCell ref="N195:N200"/>
-    <mergeCell ref="N241:N246"/>
-    <mergeCell ref="N235:N240"/>
-    <mergeCell ref="N229:N234"/>
-    <mergeCell ref="N223:N228"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="L249:L250"/>
-    <mergeCell ref="L251:L252"/>
-    <mergeCell ref="L253:L254"/>
-    <mergeCell ref="L191:L192"/>
-    <mergeCell ref="L193:L194"/>
-    <mergeCell ref="L195:L196"/>
-    <mergeCell ref="L201:L202"/>
-    <mergeCell ref="L207:L208"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="L221:L222"/>
-    <mergeCell ref="L223:L224"/>
-    <mergeCell ref="L229:L230"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K249:K250"/>
-    <mergeCell ref="K251:K252"/>
-    <mergeCell ref="K253:K254"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="K195:K196"/>
-    <mergeCell ref="K201:K202"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="K221:K222"/>
-    <mergeCell ref="K223:K224"/>
-    <mergeCell ref="K229:K230"/>
+    <mergeCell ref="H97:H102"/>
+    <mergeCell ref="I97:I102"/>
+    <mergeCell ref="I131:I136"/>
+    <mergeCell ref="H131:H136"/>
+    <mergeCell ref="I125:I130"/>
+    <mergeCell ref="H125:H130"/>
+    <mergeCell ref="I119:I124"/>
+    <mergeCell ref="H119:H124"/>
+    <mergeCell ref="I113:I118"/>
+    <mergeCell ref="H113:H118"/>
+    <mergeCell ref="I107:I112"/>
+    <mergeCell ref="H107:H112"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="J243:J244"/>
+    <mergeCell ref="K243:K244"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="M243:M244"/>
+    <mergeCell ref="G245:G246"/>
+    <mergeCell ref="J245:J246"/>
+    <mergeCell ref="K245:K246"/>
+    <mergeCell ref="L245:L246"/>
+    <mergeCell ref="M245:M246"/>
+    <mergeCell ref="I241:I246"/>
+    <mergeCell ref="H241:H246"/>
+    <mergeCell ref="K241:K242"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="L237:L238"/>
+    <mergeCell ref="M237:M238"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="K239:K240"/>
+    <mergeCell ref="L239:L240"/>
+    <mergeCell ref="M239:M240"/>
+    <mergeCell ref="I235:I240"/>
+    <mergeCell ref="H235:H240"/>
+    <mergeCell ref="M235:M236"/>
+    <mergeCell ref="K235:K236"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="J231:J232"/>
+    <mergeCell ref="K231:K232"/>
+    <mergeCell ref="L231:L232"/>
+    <mergeCell ref="M231:M232"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="J233:J234"/>
+    <mergeCell ref="K233:K234"/>
+    <mergeCell ref="L233:L234"/>
+    <mergeCell ref="M233:M234"/>
+    <mergeCell ref="I229:I234"/>
+    <mergeCell ref="H229:H234"/>
+    <mergeCell ref="M229:M230"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="J225:J226"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="L225:L226"/>
+    <mergeCell ref="M225:M226"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="I223:I228"/>
+    <mergeCell ref="H223:H228"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="K215:K216"/>
+    <mergeCell ref="L215:L216"/>
+    <mergeCell ref="M215:M216"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="J217:J218"/>
+    <mergeCell ref="K217:K218"/>
+    <mergeCell ref="L217:L218"/>
+    <mergeCell ref="M217:M218"/>
+    <mergeCell ref="I213:I218"/>
+    <mergeCell ref="H213:H218"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="K209:K210"/>
+    <mergeCell ref="L209:L210"/>
+    <mergeCell ref="M209:M210"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="I207:I212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="M207:M208"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="J203:J204"/>
+    <mergeCell ref="K203:K204"/>
+    <mergeCell ref="L203:L204"/>
+    <mergeCell ref="M203:M204"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="J205:J206"/>
+    <mergeCell ref="K205:K206"/>
+    <mergeCell ref="L205:L206"/>
+    <mergeCell ref="M205:M206"/>
+    <mergeCell ref="I201:I206"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="M201:M202"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="K197:K198"/>
+    <mergeCell ref="L197:L198"/>
+    <mergeCell ref="M197:M198"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="L199:L200"/>
+    <mergeCell ref="M199:M200"/>
+    <mergeCell ref="I195:I200"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="L181:L182"/>
+    <mergeCell ref="M181:M182"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="I183:I188"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="I177:I182"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="L175:L176"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="L179:L180"/>
+    <mergeCell ref="M179:M180"/>
+    <mergeCell ref="I171:I176"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="F177:G178"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="L177:L178"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="I165:I170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="M163:M164"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="I159:I164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="M159:M160"/>
+    <mergeCell ref="F159:G160"/>
+    <mergeCell ref="F165:G166"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="I149:I154"/>
+    <mergeCell ref="H149:H154"/>
+    <mergeCell ref="I143:I148"/>
+    <mergeCell ref="H143:H148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="N149:N154"/>
+    <mergeCell ref="N143:N148"/>
+    <mergeCell ref="N141:N142"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="E141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="N125:N130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="N131:N136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="M121:M122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="J253:J254"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="J201:J202"/>
+    <mergeCell ref="J207:J208"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="J221:J222"/>
+    <mergeCell ref="J223:J224"/>
+    <mergeCell ref="J229:J230"/>
+    <mergeCell ref="F171:G172"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="J249:J250"/>
+    <mergeCell ref="J251:J252"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="F189:G190"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="F183:G184"/>
+    <mergeCell ref="M183:M184"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="L187:L188"/>
+    <mergeCell ref="M187:M188"/>
+    <mergeCell ref="N183:N188"/>
+    <mergeCell ref="M161:M162"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="F149:G150"/>
+    <mergeCell ref="M149:M150"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="F155:G156"/>
+    <mergeCell ref="E157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="M153:M154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="F247:G248"/>
+    <mergeCell ref="F241:G242"/>
+    <mergeCell ref="F235:G236"/>
+    <mergeCell ref="F229:G230"/>
+    <mergeCell ref="F223:G224"/>
+    <mergeCell ref="F103:G104"/>
+    <mergeCell ref="F97:G98"/>
+    <mergeCell ref="E105:G106"/>
+    <mergeCell ref="F137:G138"/>
+    <mergeCell ref="F131:G132"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="F119:G120"/>
+    <mergeCell ref="F113:G114"/>
+    <mergeCell ref="F107:G108"/>
+    <mergeCell ref="F219:G220"/>
+    <mergeCell ref="F201:G202"/>
+    <mergeCell ref="F207:G208"/>
+    <mergeCell ref="F213:G214"/>
+    <mergeCell ref="F195:G196"/>
+    <mergeCell ref="D139:G140"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="D191:G192"/>
+    <mergeCell ref="E193:G194"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="C253:G254"/>
+    <mergeCell ref="H253:H254"/>
+    <mergeCell ref="I253:I254"/>
+    <mergeCell ref="M253:M254"/>
+    <mergeCell ref="N253:N254"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="C249:G250"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="I249:I250"/>
+    <mergeCell ref="M249:M250"/>
+    <mergeCell ref="N249:N250"/>
+    <mergeCell ref="B251:G252"/>
+    <mergeCell ref="H251:H252"/>
+    <mergeCell ref="I251:I252"/>
+    <mergeCell ref="M251:M252"/>
+    <mergeCell ref="N251:N252"/>
+    <mergeCell ref="M241:M242"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="I247:I248"/>
+    <mergeCell ref="M247:M248"/>
+    <mergeCell ref="N247:N248"/>
+    <mergeCell ref="E221:G222"/>
+    <mergeCell ref="M221:M222"/>
+    <mergeCell ref="N221:N222"/>
+    <mergeCell ref="M223:M224"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="N219:N220"/>
+    <mergeCell ref="K247:K248"/>
+    <mergeCell ref="J235:J236"/>
+    <mergeCell ref="J241:J242"/>
+    <mergeCell ref="J247:J248"/>
+    <mergeCell ref="L235:L236"/>
+    <mergeCell ref="L241:L242"/>
+    <mergeCell ref="L247:L248"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="M193:M194"/>
+    <mergeCell ref="N193:N194"/>
+    <mergeCell ref="M195:M196"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="M137:M138"/>
+    <mergeCell ref="N137:N138"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="M191:M192"/>
+    <mergeCell ref="N191:N192"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="M139:M140"/>
+    <mergeCell ref="N139:N140"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="N119:N124"/>
+    <mergeCell ref="N113:N118"/>
+    <mergeCell ref="N107:N112"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N91:N96"/>
+    <mergeCell ref="N97:N102"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="H91:H96"/>
+    <mergeCell ref="E83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="I91:I96"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="C77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="O3:CO3"/>
     <mergeCell ref="CP3:DT3"/>
     <mergeCell ref="O4:AF4"/>
@@ -49658,808 +50423,52 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="C77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="E81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="H91:H96"/>
-    <mergeCell ref="E83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="N119:N124"/>
-    <mergeCell ref="N113:N118"/>
-    <mergeCell ref="N107:N112"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="M193:M194"/>
-    <mergeCell ref="N193:N194"/>
-    <mergeCell ref="M195:M196"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="M137:M138"/>
-    <mergeCell ref="N137:N138"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="M191:M192"/>
-    <mergeCell ref="N191:N192"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="M139:M140"/>
-    <mergeCell ref="N139:N140"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="M221:M222"/>
-    <mergeCell ref="N221:N222"/>
-    <mergeCell ref="M223:M224"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="N219:N220"/>
-    <mergeCell ref="K247:K248"/>
-    <mergeCell ref="J235:J236"/>
-    <mergeCell ref="J241:J242"/>
-    <mergeCell ref="J247:J248"/>
-    <mergeCell ref="L235:L236"/>
-    <mergeCell ref="L241:L242"/>
-    <mergeCell ref="L247:L248"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="I221:I222"/>
-    <mergeCell ref="C253:G254"/>
-    <mergeCell ref="H253:H254"/>
-    <mergeCell ref="I253:I254"/>
-    <mergeCell ref="M253:M254"/>
-    <mergeCell ref="N253:N254"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="C249:G250"/>
-    <mergeCell ref="H249:H250"/>
-    <mergeCell ref="I249:I250"/>
-    <mergeCell ref="M249:M250"/>
-    <mergeCell ref="N249:N250"/>
-    <mergeCell ref="B251:G252"/>
-    <mergeCell ref="H251:H252"/>
-    <mergeCell ref="I251:I252"/>
-    <mergeCell ref="M251:M252"/>
-    <mergeCell ref="N251:N252"/>
-    <mergeCell ref="M241:M242"/>
-    <mergeCell ref="H247:H248"/>
-    <mergeCell ref="I247:I248"/>
-    <mergeCell ref="M247:M248"/>
-    <mergeCell ref="N247:N248"/>
-    <mergeCell ref="E221:G222"/>
-    <mergeCell ref="F247:G248"/>
-    <mergeCell ref="F241:G242"/>
-    <mergeCell ref="F235:G236"/>
-    <mergeCell ref="F229:G230"/>
-    <mergeCell ref="F223:G224"/>
-    <mergeCell ref="F103:G104"/>
-    <mergeCell ref="F97:G98"/>
-    <mergeCell ref="E105:G106"/>
-    <mergeCell ref="F137:G138"/>
-    <mergeCell ref="F131:G132"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="F119:G120"/>
-    <mergeCell ref="F113:G114"/>
-    <mergeCell ref="F107:G108"/>
-    <mergeCell ref="F219:G220"/>
-    <mergeCell ref="F201:G202"/>
-    <mergeCell ref="F207:G208"/>
-    <mergeCell ref="F213:G214"/>
-    <mergeCell ref="F195:G196"/>
-    <mergeCell ref="D139:G140"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="D191:G192"/>
-    <mergeCell ref="E193:G194"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K249:K250"/>
+    <mergeCell ref="K251:K252"/>
+    <mergeCell ref="K253:K254"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="K201:K202"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="K221:K222"/>
+    <mergeCell ref="K223:K224"/>
+    <mergeCell ref="K229:K230"/>
     <mergeCell ref="K161:K162"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="L249:L250"/>
+    <mergeCell ref="L251:L252"/>
+    <mergeCell ref="L253:L254"/>
+    <mergeCell ref="L191:L192"/>
+    <mergeCell ref="L193:L194"/>
+    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="L201:L202"/>
+    <mergeCell ref="L207:L208"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="L221:L222"/>
+    <mergeCell ref="L223:L224"/>
+    <mergeCell ref="L229:L230"/>
     <mergeCell ref="L161:L162"/>
-    <mergeCell ref="M161:M162"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="F149:G150"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="F155:G156"/>
-    <mergeCell ref="E157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="M153:M154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="F189:G190"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="F183:G184"/>
-    <mergeCell ref="M183:M184"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="J183:J184"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="K187:K188"/>
-    <mergeCell ref="L187:L188"/>
-    <mergeCell ref="M187:M188"/>
-    <mergeCell ref="F171:G172"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="J249:J250"/>
-    <mergeCell ref="J251:J252"/>
-    <mergeCell ref="J253:J254"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="J195:J196"/>
-    <mergeCell ref="J201:J202"/>
-    <mergeCell ref="J207:J208"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="J221:J222"/>
-    <mergeCell ref="J223:J224"/>
-    <mergeCell ref="J229:J230"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="M121:M122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="N125:N130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="N131:N136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="E141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="M141:M142"/>
-    <mergeCell ref="N141:N142"/>
-    <mergeCell ref="M143:M144"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="K151:K152"/>
     <mergeCell ref="L151:L152"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="I149:I154"/>
-    <mergeCell ref="H149:H154"/>
-    <mergeCell ref="I143:I148"/>
-    <mergeCell ref="H143:H148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="N149:N154"/>
-    <mergeCell ref="N143:N148"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="I159:I164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="M159:M160"/>
-    <mergeCell ref="F159:G160"/>
-    <mergeCell ref="F165:G166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="L173:L174"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="I165:I170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="N159:N164"/>
+    <mergeCell ref="N213:N218"/>
+    <mergeCell ref="N207:N212"/>
+    <mergeCell ref="N201:N206"/>
+    <mergeCell ref="N195:N200"/>
+    <mergeCell ref="N241:N246"/>
+    <mergeCell ref="N235:N240"/>
+    <mergeCell ref="N229:N234"/>
+    <mergeCell ref="N223:N228"/>
     <mergeCell ref="N171:N176"/>
     <mergeCell ref="N165:N170"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="J175:J176"/>
-    <mergeCell ref="K175:K176"/>
-    <mergeCell ref="L175:L176"/>
-    <mergeCell ref="M175:M176"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="J179:J180"/>
-    <mergeCell ref="K179:K180"/>
-    <mergeCell ref="L179:L180"/>
-    <mergeCell ref="M179:M180"/>
-    <mergeCell ref="I171:I176"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="F177:G178"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="L177:L178"/>
     <mergeCell ref="N177:N182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="J181:J182"/>
-    <mergeCell ref="K181:K182"/>
-    <mergeCell ref="L181:L182"/>
-    <mergeCell ref="M181:M182"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="L185:L186"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="I183:I188"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="I177:I182"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="N183:N188"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="J197:J198"/>
-    <mergeCell ref="K197:K198"/>
-    <mergeCell ref="L197:L198"/>
-    <mergeCell ref="M197:M198"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="J199:J200"/>
-    <mergeCell ref="K199:K200"/>
-    <mergeCell ref="L199:L200"/>
-    <mergeCell ref="M199:M200"/>
-    <mergeCell ref="I195:I200"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="J203:J204"/>
-    <mergeCell ref="K203:K204"/>
-    <mergeCell ref="L203:L204"/>
-    <mergeCell ref="M203:M204"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="J205:J206"/>
-    <mergeCell ref="K205:K206"/>
-    <mergeCell ref="L205:L206"/>
-    <mergeCell ref="M205:M206"/>
-    <mergeCell ref="I201:I206"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="M201:M202"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="J209:J210"/>
-    <mergeCell ref="K209:K210"/>
-    <mergeCell ref="L209:L210"/>
-    <mergeCell ref="M209:M210"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="I207:I212"/>
-    <mergeCell ref="H207:H212"/>
-    <mergeCell ref="M207:M208"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="J215:J216"/>
-    <mergeCell ref="K215:K216"/>
-    <mergeCell ref="L215:L216"/>
-    <mergeCell ref="M215:M216"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="J217:J218"/>
-    <mergeCell ref="K217:K218"/>
-    <mergeCell ref="L217:L218"/>
-    <mergeCell ref="M217:M218"/>
-    <mergeCell ref="I213:I218"/>
-    <mergeCell ref="H213:H218"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="J225:J226"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="L225:L226"/>
-    <mergeCell ref="M225:M226"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="I223:I228"/>
-    <mergeCell ref="H223:H228"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="J231:J232"/>
-    <mergeCell ref="K231:K232"/>
-    <mergeCell ref="L231:L232"/>
-    <mergeCell ref="M231:M232"/>
-    <mergeCell ref="G233:G234"/>
-    <mergeCell ref="J233:J234"/>
-    <mergeCell ref="K233:K234"/>
-    <mergeCell ref="L233:L234"/>
-    <mergeCell ref="M233:M234"/>
-    <mergeCell ref="I229:I234"/>
-    <mergeCell ref="H229:H234"/>
-    <mergeCell ref="M229:M230"/>
-    <mergeCell ref="G237:G238"/>
-    <mergeCell ref="J237:J238"/>
-    <mergeCell ref="K237:K238"/>
-    <mergeCell ref="L237:L238"/>
-    <mergeCell ref="M237:M238"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="L239:L240"/>
-    <mergeCell ref="M239:M240"/>
-    <mergeCell ref="I235:I240"/>
-    <mergeCell ref="H235:H240"/>
-    <mergeCell ref="M235:M236"/>
-    <mergeCell ref="K235:K236"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="J243:J244"/>
-    <mergeCell ref="K243:K244"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="M243:M244"/>
-    <mergeCell ref="G245:G246"/>
-    <mergeCell ref="J245:J246"/>
-    <mergeCell ref="K245:K246"/>
-    <mergeCell ref="L245:L246"/>
-    <mergeCell ref="M245:M246"/>
-    <mergeCell ref="I241:I246"/>
-    <mergeCell ref="H241:H246"/>
-    <mergeCell ref="K241:K242"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N91:N96"/>
-    <mergeCell ref="N97:N102"/>
-    <mergeCell ref="I91:I96"/>
-    <mergeCell ref="H97:H102"/>
-    <mergeCell ref="I97:I102"/>
-    <mergeCell ref="I131:I136"/>
-    <mergeCell ref="H131:H136"/>
-    <mergeCell ref="I125:I130"/>
-    <mergeCell ref="H125:H130"/>
-    <mergeCell ref="I119:I124"/>
-    <mergeCell ref="H119:H124"/>
-    <mergeCell ref="I113:I118"/>
-    <mergeCell ref="H113:H118"/>
-    <mergeCell ref="I107:I112"/>
-    <mergeCell ref="H107:H112"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="J95:J96"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="O7">
@@ -50487,7 +50496,7 @@
       <formula>OR(O28="土", O28="日")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O75:AD78 O149:BK150 O92:CA98 CB91:DT98 CB103:DT108 O103:CA107 O99:DT102 CB113:DT114 O109:DT112 CB119:DT120 O115:DT118 CB125:DT126 O121:DT124 CB131:DT132 O127:DT130 CB137:DT144 O133:DT136 BP149:DT150 O145:DT148 CB155:DT160 O151:DT154 CB165:DT166 O161:DT164 CB171:DT172 O167:DT170 CB177:DT178 O173:DT176 CB183:DT184 O179:DT182 CB189:CB196 O185:DT188 CB201:CB202 O197:DT200 CB207:CB208 O203:DT206 CB213:CB214 O209:DT212 CB219:CB224 O215:DT218 CB229:CB230 O225:DT228 CB235:CB236 O231:DT234 O237:DT240 CB247:CB248 O243:DT246 CB242 BP236:CA236 BP235:BY235">
+  <conditionalFormatting sqref="O75:AD78 O149:BK150 O92:CA98 CB91:DT98 CB103:DT108 O103:CA107 O99:DT102 CB113:DT114 O109:DT112 CB119:DT120 O115:DT118 CB125:DT126 O121:DT124 CB131:DT132 O127:DT130 CB137:DT144 O133:DT136 BP149:DT150 O145:DT148 CB155:DT160 O151:DT154 CB165:DT166 O161:DT164 CB171:DT172 O167:DT170 CB177:DT178 O173:DT176 CB183:DT184 O179:DT182 CB189:CB196 O185:DT188 CB201:CB202 O197:DT200 CB207:CB208 O203:DT206 CB213:CB214 O209:DT212 CB219:CB224 O215:DT218 CB229:CB230 O225:DT228 CB235:CB236 O231:DT234 O237:DT240 CB247:CB248 O243:DT246 CB242 BP236:CA236 BP235:BY235 O119:BE119 BI119:CA119">
     <cfRule type="expression" dxfId="34" priority="29">
       <formula>OR(O$6="土", O$6="日")</formula>
     </cfRule>
@@ -50502,7 +50511,7 @@
       <formula>OR(O$6="土", O$6="日")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:DT8 O9:AD13 O14 R14:AD14 O15:AD15 O16 R16:AD16 O17:AD17 O18 R18:AD18 O19:AD19 O20 R20:AD20 O21:AD23 O24:P24 S24:AD24 O25:AD29 O30:Q30 T30:AD30 O31:AD41 O42:R42 T42:U42 W42:AD42 O43:AD43 O44:V44 Y44:AD44 O45:AD54 O55:Y55 AA55:AD55 O56:AD64 O65:DT66 AN68 AS69 BA91:CA91 O108:BA108 BC108:CA108 O113:CA114 O137:AD138 O139:CA144 O155:AD156 O157:CA158 O159:BR159 BT159:CA159 O160:CA160 AE165:BS165 BU165:CA166 BU171:BV171 O165:AD166 O191:CA196 O201:BK202 BP201:CA202 O219:AD220 O221:CA224 O229:BK230 BP229:CA230 O247:AD248 O249:DT359 O119:CA120 O125:CA126 O131:CA132 O171:AD172 O177:AD178 O183:AD184 O189:AD190 BP207:CA208 O207:BK208 O213:BK214 BP213:CA214 O235:BK236 O241:BK242 BP241:CA242">
+  <conditionalFormatting sqref="O7:DT8 O9:AD13 O14 R14:AD14 O15:AD15 O16 R16:AD16 O17:AD17 O18 R18:AD18 O19:AD19 O20 R20:AD20 O21:AD23 O24:P24 S24:AD24 O25:AD29 O30:Q30 T30:AD30 O31:AD41 O42:R42 T42:U42 W42:AD42 O43:AD43 O44:V44 Y44:AD44 O45:AD54 O55:Y55 AA55:AD55 O56:AD64 O65:DT66 AN68 AS69 BA91:CA91 O108:BA108 BC108:BD108 O113:CA113 O137:AD138 O139:CA144 O155:AD156 O157:CA158 O159:BR159 BT159:CA159 O160:CA160 AE165:BS165 BU165:CA166 BU171:BV171 O165:AD166 O191:CA196 O201:BK202 BP201:CA202 O219:AD220 O221:CA224 O229:BK230 BP229:CA230 O247:AD248 O249:DT359 O171:AD172 O177:AD178 O183:AD184 O189:AD190 BP207:CA208 O207:BK208 O213:BK214 BP213:CA214 O235:BK236 O241:BK242 BP241:CA242 BG108:CA108 O114:BD114 BG114:CA114 O120:BE120 BG120:CA120 O131:CA132 O125:CA126">
     <cfRule type="expression" dxfId="31" priority="62">
       <formula>OR(O$6="土", O$6="日")</formula>
     </cfRule>
@@ -50592,7 +50601,7 @@
       <formula>OR(AR$6="土", AR$6="日")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ91 BL201:BO202 BM219:BN219 BL149:BO150 BL207:BO208 BL213:BO214 CA241 BZ235">
+  <conditionalFormatting sqref="AZ91 BL201:BO202 BM219:BN219 BL149:BO150 BL207:BO208 BL213:BO214 CA241 BZ235 BF119:BG119">
     <cfRule type="expression" dxfId="13" priority="65">
       <formula>OR(BA$6="土", BA$6="日")</formula>
     </cfRule>

--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\中日本営業第2部(全員)_FY24\20.　個人フォルダ\溝口\研修\DIGITAL-OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\digital-ojt-development-cause-DroneInventorySystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB7DC1-36BD-466F-99AD-81C1AF142B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272613E-9AE3-4136-998F-01A9B177A442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="133">
   <si>
     <t>予定</t>
   </si>
@@ -2008,28 +2008,19 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2038,7 +2029,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2053,116 +2050,6 @@
     <xf numFmtId="56" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2175,7 +2062,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2196,27 +2146,77 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2757,7 +2757,7 @@
   <dimension ref="A1:DU364"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="O110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="O119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight"/>
@@ -3034,120 +3034,120 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="79"/>
-      <c r="O3" s="123">
+      <c r="O3" s="182">
         <v>2024</v>
       </c>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="124"/>
-      <c r="AO3" s="124"/>
-      <c r="AP3" s="124"/>
-      <c r="AQ3" s="124"/>
-      <c r="AR3" s="124"/>
-      <c r="AS3" s="124"/>
-      <c r="AT3" s="124"/>
-      <c r="AU3" s="124"/>
-      <c r="AV3" s="124"/>
-      <c r="AW3" s="124"/>
-      <c r="AX3" s="124"/>
-      <c r="AY3" s="124"/>
-      <c r="AZ3" s="124"/>
-      <c r="BA3" s="124"/>
-      <c r="BB3" s="124"/>
-      <c r="BC3" s="124"/>
-      <c r="BD3" s="124"/>
-      <c r="BE3" s="124"/>
-      <c r="BF3" s="124"/>
-      <c r="BG3" s="124"/>
-      <c r="BH3" s="124"/>
-      <c r="BI3" s="124"/>
-      <c r="BJ3" s="124"/>
-      <c r="BK3" s="124"/>
-      <c r="BL3" s="124"/>
-      <c r="BM3" s="124"/>
-      <c r="BN3" s="124"/>
-      <c r="BO3" s="124"/>
-      <c r="BP3" s="124"/>
-      <c r="BQ3" s="124"/>
-      <c r="BR3" s="124"/>
-      <c r="BS3" s="124"/>
-      <c r="BT3" s="124"/>
-      <c r="BU3" s="124"/>
-      <c r="BV3" s="124"/>
-      <c r="BW3" s="124"/>
-      <c r="BX3" s="124"/>
-      <c r="BY3" s="124"/>
-      <c r="BZ3" s="124"/>
-      <c r="CA3" s="124"/>
-      <c r="CB3" s="124"/>
-      <c r="CC3" s="124"/>
-      <c r="CD3" s="124"/>
-      <c r="CE3" s="124"/>
-      <c r="CF3" s="124"/>
-      <c r="CG3" s="124"/>
-      <c r="CH3" s="124"/>
-      <c r="CI3" s="124"/>
-      <c r="CJ3" s="124"/>
-      <c r="CK3" s="124"/>
-      <c r="CL3" s="124"/>
-      <c r="CM3" s="124"/>
-      <c r="CN3" s="124"/>
-      <c r="CO3" s="125"/>
-      <c r="CP3" s="123">
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="183"/>
+      <c r="AJ3" s="183"/>
+      <c r="AK3" s="183"/>
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="183"/>
+      <c r="AR3" s="183"/>
+      <c r="AS3" s="183"/>
+      <c r="AT3" s="183"/>
+      <c r="AU3" s="183"/>
+      <c r="AV3" s="183"/>
+      <c r="AW3" s="183"/>
+      <c r="AX3" s="183"/>
+      <c r="AY3" s="183"/>
+      <c r="AZ3" s="183"/>
+      <c r="BA3" s="183"/>
+      <c r="BB3" s="183"/>
+      <c r="BC3" s="183"/>
+      <c r="BD3" s="183"/>
+      <c r="BE3" s="183"/>
+      <c r="BF3" s="183"/>
+      <c r="BG3" s="183"/>
+      <c r="BH3" s="183"/>
+      <c r="BI3" s="183"/>
+      <c r="BJ3" s="183"/>
+      <c r="BK3" s="183"/>
+      <c r="BL3" s="183"/>
+      <c r="BM3" s="183"/>
+      <c r="BN3" s="183"/>
+      <c r="BO3" s="183"/>
+      <c r="BP3" s="183"/>
+      <c r="BQ3" s="183"/>
+      <c r="BR3" s="183"/>
+      <c r="BS3" s="183"/>
+      <c r="BT3" s="183"/>
+      <c r="BU3" s="183"/>
+      <c r="BV3" s="183"/>
+      <c r="BW3" s="183"/>
+      <c r="BX3" s="183"/>
+      <c r="BY3" s="183"/>
+      <c r="BZ3" s="183"/>
+      <c r="CA3" s="183"/>
+      <c r="CB3" s="183"/>
+      <c r="CC3" s="183"/>
+      <c r="CD3" s="183"/>
+      <c r="CE3" s="183"/>
+      <c r="CF3" s="183"/>
+      <c r="CG3" s="183"/>
+      <c r="CH3" s="183"/>
+      <c r="CI3" s="183"/>
+      <c r="CJ3" s="183"/>
+      <c r="CK3" s="183"/>
+      <c r="CL3" s="183"/>
+      <c r="CM3" s="183"/>
+      <c r="CN3" s="183"/>
+      <c r="CO3" s="184"/>
+      <c r="CP3" s="182">
         <v>2025</v>
       </c>
-      <c r="CQ3" s="124"/>
-      <c r="CR3" s="124"/>
-      <c r="CS3" s="124"/>
-      <c r="CT3" s="124"/>
-      <c r="CU3" s="124"/>
-      <c r="CV3" s="124"/>
-      <c r="CW3" s="124"/>
-      <c r="CX3" s="124"/>
-      <c r="CY3" s="124"/>
-      <c r="CZ3" s="124"/>
-      <c r="DA3" s="124"/>
-      <c r="DB3" s="124"/>
-      <c r="DC3" s="124"/>
-      <c r="DD3" s="124"/>
-      <c r="DE3" s="124"/>
-      <c r="DF3" s="124"/>
-      <c r="DG3" s="124"/>
-      <c r="DH3" s="124"/>
-      <c r="DI3" s="124"/>
-      <c r="DJ3" s="124"/>
-      <c r="DK3" s="124"/>
-      <c r="DL3" s="124"/>
-      <c r="DM3" s="124"/>
-      <c r="DN3" s="124"/>
-      <c r="DO3" s="124"/>
-      <c r="DP3" s="124"/>
-      <c r="DQ3" s="124"/>
-      <c r="DR3" s="124"/>
-      <c r="DS3" s="124"/>
-      <c r="DT3" s="125"/>
+      <c r="CQ3" s="183"/>
+      <c r="CR3" s="183"/>
+      <c r="CS3" s="183"/>
+      <c r="CT3" s="183"/>
+      <c r="CU3" s="183"/>
+      <c r="CV3" s="183"/>
+      <c r="CW3" s="183"/>
+      <c r="CX3" s="183"/>
+      <c r="CY3" s="183"/>
+      <c r="CZ3" s="183"/>
+      <c r="DA3" s="183"/>
+      <c r="DB3" s="183"/>
+      <c r="DC3" s="183"/>
+      <c r="DD3" s="183"/>
+      <c r="DE3" s="183"/>
+      <c r="DF3" s="183"/>
+      <c r="DG3" s="183"/>
+      <c r="DH3" s="183"/>
+      <c r="DI3" s="183"/>
+      <c r="DJ3" s="183"/>
+      <c r="DK3" s="183"/>
+      <c r="DL3" s="183"/>
+      <c r="DM3" s="183"/>
+      <c r="DN3" s="183"/>
+      <c r="DO3" s="183"/>
+      <c r="DP3" s="183"/>
+      <c r="DQ3" s="183"/>
+      <c r="DR3" s="183"/>
+      <c r="DS3" s="183"/>
+      <c r="DT3" s="184"/>
       <c r="DU3" s="2"/>
     </row>
     <row r="4" spans="1:125" ht="18" customHeight="1">
@@ -3162,124 +3162,124 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="O4" s="123">
+      <c r="O4" s="182">
         <v>10</v>
       </c>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="123">
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="183"/>
+      <c r="AB4" s="183"/>
+      <c r="AC4" s="183"/>
+      <c r="AD4" s="183"/>
+      <c r="AE4" s="183"/>
+      <c r="AF4" s="184"/>
+      <c r="AG4" s="182">
         <v>11</v>
       </c>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="124"/>
-      <c r="BB4" s="124"/>
-      <c r="BC4" s="124"/>
-      <c r="BD4" s="124"/>
-      <c r="BE4" s="124"/>
-      <c r="BF4" s="124"/>
-      <c r="BG4" s="124"/>
-      <c r="BH4" s="124"/>
-      <c r="BI4" s="124"/>
-      <c r="BJ4" s="125"/>
-      <c r="BK4" s="123">
+      <c r="AH4" s="183"/>
+      <c r="AI4" s="183"/>
+      <c r="AJ4" s="183"/>
+      <c r="AK4" s="183"/>
+      <c r="AL4" s="183"/>
+      <c r="AM4" s="183"/>
+      <c r="AN4" s="183"/>
+      <c r="AO4" s="183"/>
+      <c r="AP4" s="183"/>
+      <c r="AQ4" s="183"/>
+      <c r="AR4" s="183"/>
+      <c r="AS4" s="183"/>
+      <c r="AT4" s="183"/>
+      <c r="AU4" s="183"/>
+      <c r="AV4" s="183"/>
+      <c r="AW4" s="183"/>
+      <c r="AX4" s="183"/>
+      <c r="AY4" s="183"/>
+      <c r="AZ4" s="183"/>
+      <c r="BA4" s="183"/>
+      <c r="BB4" s="183"/>
+      <c r="BC4" s="183"/>
+      <c r="BD4" s="183"/>
+      <c r="BE4" s="183"/>
+      <c r="BF4" s="183"/>
+      <c r="BG4" s="183"/>
+      <c r="BH4" s="183"/>
+      <c r="BI4" s="183"/>
+      <c r="BJ4" s="184"/>
+      <c r="BK4" s="182">
         <v>12</v>
       </c>
-      <c r="BL4" s="124"/>
-      <c r="BM4" s="124"/>
-      <c r="BN4" s="124"/>
-      <c r="BO4" s="124"/>
-      <c r="BP4" s="124"/>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="124"/>
-      <c r="BS4" s="124"/>
-      <c r="BT4" s="124"/>
-      <c r="BU4" s="124"/>
-      <c r="BV4" s="124"/>
-      <c r="BW4" s="124"/>
-      <c r="BX4" s="124"/>
-      <c r="BY4" s="124"/>
-      <c r="BZ4" s="124"/>
-      <c r="CA4" s="124"/>
-      <c r="CB4" s="124"/>
-      <c r="CC4" s="124"/>
-      <c r="CD4" s="124"/>
-      <c r="CE4" s="124"/>
-      <c r="CF4" s="124"/>
-      <c r="CG4" s="124"/>
-      <c r="CH4" s="124"/>
-      <c r="CI4" s="124"/>
-      <c r="CJ4" s="124"/>
-      <c r="CK4" s="124"/>
-      <c r="CL4" s="124"/>
-      <c r="CM4" s="124"/>
-      <c r="CN4" s="124"/>
-      <c r="CO4" s="125"/>
-      <c r="CP4" s="123">
+      <c r="BL4" s="183"/>
+      <c r="BM4" s="183"/>
+      <c r="BN4" s="183"/>
+      <c r="BO4" s="183"/>
+      <c r="BP4" s="183"/>
+      <c r="BQ4" s="183"/>
+      <c r="BR4" s="183"/>
+      <c r="BS4" s="183"/>
+      <c r="BT4" s="183"/>
+      <c r="BU4" s="183"/>
+      <c r="BV4" s="183"/>
+      <c r="BW4" s="183"/>
+      <c r="BX4" s="183"/>
+      <c r="BY4" s="183"/>
+      <c r="BZ4" s="183"/>
+      <c r="CA4" s="183"/>
+      <c r="CB4" s="183"/>
+      <c r="CC4" s="183"/>
+      <c r="CD4" s="183"/>
+      <c r="CE4" s="183"/>
+      <c r="CF4" s="183"/>
+      <c r="CG4" s="183"/>
+      <c r="CH4" s="183"/>
+      <c r="CI4" s="183"/>
+      <c r="CJ4" s="183"/>
+      <c r="CK4" s="183"/>
+      <c r="CL4" s="183"/>
+      <c r="CM4" s="183"/>
+      <c r="CN4" s="183"/>
+      <c r="CO4" s="184"/>
+      <c r="CP4" s="182">
         <v>1</v>
       </c>
-      <c r="CQ4" s="124"/>
-      <c r="CR4" s="124"/>
-      <c r="CS4" s="124"/>
-      <c r="CT4" s="124"/>
-      <c r="CU4" s="124"/>
-      <c r="CV4" s="124"/>
-      <c r="CW4" s="124"/>
-      <c r="CX4" s="124"/>
-      <c r="CY4" s="124"/>
-      <c r="CZ4" s="124"/>
-      <c r="DA4" s="124"/>
-      <c r="DB4" s="124"/>
-      <c r="DC4" s="124"/>
-      <c r="DD4" s="124"/>
-      <c r="DE4" s="124"/>
-      <c r="DF4" s="124"/>
-      <c r="DG4" s="124"/>
-      <c r="DH4" s="124"/>
-      <c r="DI4" s="124"/>
-      <c r="DJ4" s="124"/>
-      <c r="DK4" s="124"/>
-      <c r="DL4" s="124"/>
-      <c r="DM4" s="124"/>
-      <c r="DN4" s="124"/>
-      <c r="DO4" s="124"/>
-      <c r="DP4" s="124"/>
-      <c r="DQ4" s="124"/>
-      <c r="DR4" s="124"/>
-      <c r="DS4" s="124"/>
-      <c r="DT4" s="125"/>
+      <c r="CQ4" s="183"/>
+      <c r="CR4" s="183"/>
+      <c r="CS4" s="183"/>
+      <c r="CT4" s="183"/>
+      <c r="CU4" s="183"/>
+      <c r="CV4" s="183"/>
+      <c r="CW4" s="183"/>
+      <c r="CX4" s="183"/>
+      <c r="CY4" s="183"/>
+      <c r="CZ4" s="183"/>
+      <c r="DA4" s="183"/>
+      <c r="DB4" s="183"/>
+      <c r="DC4" s="183"/>
+      <c r="DD4" s="183"/>
+      <c r="DE4" s="183"/>
+      <c r="DF4" s="183"/>
+      <c r="DG4" s="183"/>
+      <c r="DH4" s="183"/>
+      <c r="DI4" s="183"/>
+      <c r="DJ4" s="183"/>
+      <c r="DK4" s="183"/>
+      <c r="DL4" s="183"/>
+      <c r="DM4" s="183"/>
+      <c r="DN4" s="183"/>
+      <c r="DO4" s="183"/>
+      <c r="DP4" s="183"/>
+      <c r="DQ4" s="183"/>
+      <c r="DR4" s="183"/>
+      <c r="DS4" s="183"/>
+      <c r="DT4" s="184"/>
       <c r="DU4" s="8"/>
     </row>
     <row r="5" spans="1:125" ht="18" customHeight="1">
@@ -4077,33 +4077,33 @@
     </row>
     <row r="7" spans="1:125" ht="9.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="131" t="s">
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="131" t="s">
+      <c r="I7" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="126" t="s">
+      <c r="J7" s="179" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="126" t="s">
+      <c r="K7" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="126" t="s">
+      <c r="M7" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="N7" s="132" t="s">
+      <c r="N7" s="180" t="s">
         <v>37</v>
       </c>
       <c r="O7" s="15"/>
@@ -4220,19 +4220,19 @@
     </row>
     <row r="8" spans="1:125" ht="9.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="132"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="180"/>
       <c r="O8" s="17"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -4348,20 +4348,20 @@
     <row r="9" spans="1:125" ht="9.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="135"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="129"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
@@ -4477,18 +4477,18 @@
     <row r="10" spans="1:125" ht="9.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="135"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="129"/>
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
@@ -4604,20 +4604,20 @@
     <row r="11" spans="1:125" ht="9.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="135"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="129"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
@@ -4733,18 +4733,18 @@
     <row r="12" spans="1:125" ht="9.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="135"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="129"/>
       <c r="O12" s="25"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
@@ -4861,22 +4861,22 @@
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="139">
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="140">
         <v>0.5</v>
       </c>
-      <c r="I13" s="140"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119" t="s">
+      <c r="I13" s="169"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="119"/>
+      <c r="M13" s="118"/>
       <c r="N13" s="141">
         <v>100</v>
       </c>
@@ -4996,16 +4996,16 @@
       <c r="A14" s="2"/>
       <c r="B14" s="24"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
       <c r="N14" s="141"/>
       <c r="O14" s="17"/>
       <c r="Q14" s="82"/>
@@ -5122,22 +5122,22 @@
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="139">
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="140">
         <v>0.5</v>
       </c>
-      <c r="I15" s="140"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119" t="s">
+      <c r="I15" s="169"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="119"/>
+      <c r="M15" s="118"/>
       <c r="N15" s="141">
         <v>100</v>
       </c>
@@ -5257,16 +5257,16 @@
       <c r="A16" s="2"/>
       <c r="B16" s="24"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
       <c r="N16" s="141"/>
       <c r="O16" s="32"/>
       <c r="Q16" s="82"/>
@@ -5383,22 +5383,22 @@
       <c r="A17" s="2"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="138" t="s">
+      <c r="D17" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="139">
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="140">
         <v>0.5</v>
       </c>
-      <c r="I17" s="140"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119" t="s">
+      <c r="I17" s="169"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="119"/>
+      <c r="M17" s="118"/>
       <c r="N17" s="141">
         <v>100</v>
       </c>
@@ -5518,16 +5518,16 @@
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
       <c r="N18" s="141"/>
       <c r="O18" s="32"/>
       <c r="Q18" s="82"/>
@@ -5644,22 +5644,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="24"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="139">
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="140">
         <v>0.5</v>
       </c>
-      <c r="I19" s="140"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119" t="s">
+      <c r="I19" s="169"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="119"/>
+      <c r="M19" s="118"/>
       <c r="N19" s="141">
         <v>100</v>
       </c>
@@ -5779,16 +5779,16 @@
       <c r="A20" s="2"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
       <c r="N20" s="141"/>
       <c r="O20" s="34"/>
       <c r="Q20" s="86"/>
@@ -5904,20 +5904,20 @@
     <row r="21" spans="1:125" ht="9.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="135"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="129"/>
       <c r="O21" s="21"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="22"/>
@@ -6033,18 +6033,18 @@
     <row r="22" spans="1:125" ht="9.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="135"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="129"/>
       <c r="O22" s="25"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
@@ -6161,22 +6161,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="144" t="s">
+      <c r="D23" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="139">
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="140">
         <v>2</v>
       </c>
-      <c r="I23" s="140"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119" t="s">
+      <c r="I23" s="169"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="119"/>
+      <c r="M23" s="118"/>
       <c r="N23" s="141">
         <v>100</v>
       </c>
@@ -6296,16 +6296,16 @@
       <c r="A24" s="2"/>
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
       <c r="N24" s="141"/>
       <c r="O24" s="32"/>
       <c r="P24" s="18"/>
@@ -6421,20 +6421,20 @@
     <row r="25" spans="1:125" ht="9.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="135"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="129"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="22"/>
@@ -6550,18 +6550,18 @@
     <row r="26" spans="1:125" ht="9.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="135"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="129"/>
       <c r="O26" s="25"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -6678,22 +6678,22 @@
       <c r="A27" s="2"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="139">
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="140">
         <v>1</v>
       </c>
-      <c r="I27" s="140"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119" t="s">
+      <c r="I27" s="169"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="119"/>
+      <c r="M27" s="118"/>
       <c r="N27" s="141">
         <v>100</v>
       </c>
@@ -6813,16 +6813,16 @@
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
       <c r="N28" s="141"/>
       <c r="O28" s="32"/>
       <c r="P28" s="18"/>
@@ -6940,22 +6940,22 @@
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="145" t="s">
+      <c r="D29" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="139">
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="140">
         <v>1</v>
       </c>
-      <c r="I29" s="140"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119" t="s">
+      <c r="I29" s="169"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="119"/>
+      <c r="M29" s="118"/>
       <c r="N29" s="141">
         <v>100</v>
       </c>
@@ -7075,16 +7075,16 @@
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
       <c r="N30" s="141"/>
       <c r="O30" s="34"/>
       <c r="P30" s="35"/>
@@ -7200,20 +7200,20 @@
     <row r="31" spans="1:125" ht="9.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="136" t="s">
+      <c r="C31" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="135"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="129"/>
       <c r="O31" s="21"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="22"/>
@@ -7329,18 +7329,18 @@
     <row r="32" spans="1:125" ht="9.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="135"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="129"/>
       <c r="O32" s="25"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
@@ -7457,19 +7457,19 @@
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="147" t="s">
+      <c r="D33" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="135"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="129"/>
       <c r="O33" s="42"/>
       <c r="P33" s="43"/>
       <c r="Q33" s="43"/>
@@ -7586,17 +7586,17 @@
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="135"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="136"/>
+      <c r="M34" s="136"/>
+      <c r="N34" s="129"/>
       <c r="O34" s="44"/>
       <c r="P34" s="31"/>
       <c r="Q34" s="31"/>
@@ -7714,21 +7714,21 @@
       <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="148" t="s">
+      <c r="E35" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="128"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="139">
+      <c r="F35" s="158"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="140">
         <v>1</v>
       </c>
-      <c r="I35" s="140"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119" t="s">
+      <c r="I35" s="169"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="119"/>
+      <c r="M35" s="118"/>
       <c r="N35" s="141">
         <v>100</v>
       </c>
@@ -7849,15 +7849,15 @@
       <c r="B36" s="24"/>
       <c r="C36" s="2"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="119"/>
       <c r="N36" s="141"/>
       <c r="O36" s="32"/>
       <c r="P36" s="18"/>
@@ -7976,19 +7976,19 @@
       <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="148" t="s">
+      <c r="E37" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="128"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119" t="s">
+      <c r="F37" s="158"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="119"/>
+      <c r="M37" s="118"/>
       <c r="N37" s="141">
         <v>100</v>
       </c>
@@ -8109,15 +8109,15 @@
       <c r="B38" s="24"/>
       <c r="C38" s="2"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
       <c r="N38" s="141"/>
       <c r="O38" s="34"/>
       <c r="P38" s="35"/>
@@ -8235,19 +8235,19 @@
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="149" t="s">
+      <c r="D39" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="118"/>
-      <c r="N39" s="135"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="129"/>
       <c r="O39" s="42"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
@@ -8364,17 +8364,17 @@
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="135"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="136"/>
+      <c r="N40" s="129"/>
       <c r="O40" s="44"/>
       <c r="P40" s="31"/>
       <c r="Q40" s="31"/>
@@ -8492,21 +8492,21 @@
       <c r="B41" s="24"/>
       <c r="C41" s="2"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="148" t="s">
+      <c r="E41" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="128"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="139">
+      <c r="F41" s="158"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="140">
         <v>1</v>
       </c>
-      <c r="I41" s="140"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119" t="s">
+      <c r="I41" s="169"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="119"/>
+      <c r="M41" s="118"/>
       <c r="N41" s="141">
         <v>100</v>
       </c>
@@ -8627,15 +8627,15 @@
       <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="169"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
       <c r="N42" s="141"/>
       <c r="O42" s="32"/>
       <c r="P42" s="18"/>
@@ -8753,21 +8753,21 @@
       <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="148" t="s">
+      <c r="E43" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="128"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="139">
+      <c r="F43" s="158"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="140">
         <v>4</v>
       </c>
-      <c r="I43" s="140"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119" t="s">
+      <c r="I43" s="169"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="119"/>
+      <c r="M43" s="118"/>
       <c r="N43" s="141">
         <v>100</v>
       </c>
@@ -8888,15 +8888,15 @@
       <c r="B44" s="24"/>
       <c r="C44" s="2"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
       <c r="N44" s="141"/>
       <c r="O44" s="32"/>
       <c r="P44" s="18"/>
@@ -9014,21 +9014,21 @@
       <c r="B45" s="24"/>
       <c r="C45" s="2"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="148" t="s">
+      <c r="E45" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="128"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="139">
+      <c r="F45" s="158"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="140">
         <v>0.5</v>
       </c>
-      <c r="I45" s="140"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119" t="s">
+      <c r="I45" s="169"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="119"/>
+      <c r="M45" s="118"/>
       <c r="N45" s="141">
         <v>100</v>
       </c>
@@ -9149,15 +9149,15 @@
       <c r="B46" s="24"/>
       <c r="C46" s="2"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="120"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="169"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
       <c r="N46" s="141"/>
       <c r="O46" s="32"/>
       <c r="P46" s="18"/>
@@ -9276,21 +9276,21 @@
       <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="148" t="s">
+      <c r="E47" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="128"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="139">
+      <c r="F47" s="158"/>
+      <c r="G47" s="167"/>
+      <c r="H47" s="140">
         <v>4</v>
       </c>
-      <c r="I47" s="140"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119" t="s">
+      <c r="I47" s="169"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="119"/>
+      <c r="M47" s="118"/>
       <c r="N47" s="141">
         <v>100</v>
       </c>
@@ -9411,15 +9411,15 @@
       <c r="B48" s="24"/>
       <c r="C48" s="2"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="119"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
       <c r="N48" s="141"/>
       <c r="O48" s="32"/>
       <c r="P48" s="18"/>
@@ -9538,21 +9538,21 @@
       <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="148" t="s">
+      <c r="E49" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="128"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="139">
+      <c r="F49" s="158"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="140">
         <v>4</v>
       </c>
-      <c r="I49" s="140"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119" t="s">
+      <c r="I49" s="169"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="118"/>
+      <c r="L49" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="119"/>
+      <c r="M49" s="118"/>
       <c r="N49" s="141">
         <v>100</v>
       </c>
@@ -9673,15 +9673,15 @@
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="120"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="169"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
       <c r="N50" s="141"/>
       <c r="O50" s="32"/>
       <c r="P50" s="18"/>
@@ -9800,21 +9800,21 @@
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="148" t="s">
+      <c r="E51" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="128"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="139">
+      <c r="F51" s="158"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="140">
         <v>0.5</v>
       </c>
-      <c r="I51" s="140"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119" t="s">
+      <c r="I51" s="169"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="119"/>
+      <c r="M51" s="118"/>
       <c r="N51" s="141">
         <v>100</v>
       </c>
@@ -9935,15 +9935,15 @@
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="119"/>
       <c r="N52" s="141"/>
       <c r="O52" s="34"/>
       <c r="P52" s="35"/>
@@ -10061,19 +10061,19 @@
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="147" t="s">
+      <c r="D53" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="118"/>
-      <c r="M53" s="118"/>
-      <c r="N53" s="135"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="136"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="129"/>
       <c r="O53" s="42"/>
       <c r="P53" s="43"/>
       <c r="Q53" s="43"/>
@@ -10190,17 +10190,17 @@
       <c r="A54" s="2"/>
       <c r="B54" s="24"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="135"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="136"/>
+      <c r="K54" s="136"/>
+      <c r="L54" s="136"/>
+      <c r="M54" s="136"/>
+      <c r="N54" s="129"/>
       <c r="O54" s="44"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="31"/>
@@ -10318,21 +10318,21 @@
       <c r="B55" s="24"/>
       <c r="C55" s="2"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="148" t="s">
+      <c r="E55" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="128"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="139">
+      <c r="F55" s="158"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="140">
         <v>4</v>
       </c>
-      <c r="I55" s="140"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119" t="s">
+      <c r="I55" s="169"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="M55" s="119"/>
+      <c r="M55" s="118"/>
       <c r="N55" s="141">
         <v>100</v>
       </c>
@@ -10452,15 +10452,15 @@
       <c r="B56" s="24"/>
       <c r="C56" s="2"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="130"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="139"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
       <c r="N56" s="141"/>
       <c r="O56" s="32"/>
       <c r="P56" s="18"/>
@@ -10579,21 +10579,21 @@
       <c r="B57" s="24"/>
       <c r="C57" s="2"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="148" t="s">
+      <c r="E57" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="128"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="139">
+      <c r="F57" s="158"/>
+      <c r="G57" s="167"/>
+      <c r="H57" s="140">
         <v>4</v>
       </c>
-      <c r="I57" s="140"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="119" t="s">
+      <c r="I57" s="169"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="118"/>
+      <c r="L57" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="M57" s="119"/>
+      <c r="M57" s="118"/>
       <c r="N57" s="141">
         <v>100</v>
       </c>
@@ -10714,15 +10714,15 @@
       <c r="B58" s="24"/>
       <c r="C58" s="2"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120"/>
-      <c r="M58" s="120"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="160"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="119"/>
       <c r="N58" s="141"/>
       <c r="O58" s="32"/>
       <c r="P58" s="18"/>
@@ -10841,21 +10841,21 @@
       <c r="B59" s="24"/>
       <c r="C59" s="2"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="148" t="s">
+      <c r="E59" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="128"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="139">
+      <c r="F59" s="158"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="140">
         <v>4</v>
       </c>
-      <c r="I59" s="140"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119" t="s">
+      <c r="I59" s="169"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="M59" s="119"/>
+      <c r="M59" s="118"/>
       <c r="N59" s="141">
         <v>100</v>
       </c>
@@ -10976,15 +10976,15 @@
       <c r="B60" s="24"/>
       <c r="C60" s="2"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="120"/>
-      <c r="K60" s="120"/>
-      <c r="L60" s="120"/>
-      <c r="M60" s="120"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="160"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="169"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="119"/>
+      <c r="L60" s="119"/>
+      <c r="M60" s="119"/>
       <c r="N60" s="141"/>
       <c r="O60" s="32"/>
       <c r="P60" s="18"/>
@@ -11103,21 +11103,21 @@
       <c r="B61" s="24"/>
       <c r="C61" s="2"/>
       <c r="D61" s="46"/>
-      <c r="E61" s="148" t="s">
+      <c r="E61" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="128"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="139">
+      <c r="F61" s="158"/>
+      <c r="G61" s="167"/>
+      <c r="H61" s="140">
         <v>0.5</v>
       </c>
-      <c r="I61" s="140"/>
-      <c r="J61" s="119"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="119" t="s">
+      <c r="I61" s="169"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="118"/>
+      <c r="L61" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="M61" s="119"/>
+      <c r="M61" s="118"/>
       <c r="N61" s="141">
         <v>100</v>
       </c>
@@ -11238,15 +11238,15 @@
       <c r="B62" s="24"/>
       <c r="C62" s="2"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="143"/>
-      <c r="H62" s="139"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="120"/>
-      <c r="K62" s="120"/>
-      <c r="L62" s="120"/>
-      <c r="M62" s="120"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="119"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="119"/>
       <c r="N62" s="141"/>
       <c r="O62" s="34"/>
       <c r="P62" s="35"/>
@@ -11364,19 +11364,19 @@
       <c r="A63" s="2"/>
       <c r="B63" s="24"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="147" t="s">
+      <c r="D63" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="114"/>
-      <c r="L63" s="114"/>
-      <c r="M63" s="114"/>
-      <c r="N63" s="135"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="129"/>
       <c r="O63" s="42"/>
       <c r="P63" s="43"/>
       <c r="Q63" s="43"/>
@@ -11493,17 +11493,17 @@
       <c r="A64" s="2"/>
       <c r="B64" s="24"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
-      <c r="G64" s="130"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="115"/>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115"/>
-      <c r="N64" s="135"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="160"/>
+      <c r="F64" s="160"/>
+      <c r="G64" s="160"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="131"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="129"/>
       <c r="O64" s="44"/>
       <c r="P64" s="31"/>
       <c r="Q64" s="31"/>
@@ -11621,19 +11621,19 @@
       <c r="B65" s="24"/>
       <c r="C65" s="2"/>
       <c r="D65" s="46"/>
-      <c r="E65" s="148" t="s">
+      <c r="E65" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="128"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="139"/>
-      <c r="I65" s="139"/>
-      <c r="J65" s="119"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="119" t="s">
+      <c r="F65" s="158"/>
+      <c r="G65" s="167"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="118"/>
+      <c r="K65" s="118"/>
+      <c r="L65" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="M65" s="119"/>
+      <c r="M65" s="118"/>
       <c r="N65" s="141">
         <v>100</v>
       </c>
@@ -11754,15 +11754,15 @@
       <c r="B66" s="24"/>
       <c r="C66" s="2"/>
       <c r="D66" s="46"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="130"/>
-      <c r="G66" s="143"/>
-      <c r="H66" s="139"/>
-      <c r="I66" s="139"/>
-      <c r="J66" s="120"/>
-      <c r="K66" s="120"/>
-      <c r="L66" s="120"/>
-      <c r="M66" s="120"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="160"/>
+      <c r="G66" s="168"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="119"/>
+      <c r="K66" s="119"/>
+      <c r="L66" s="119"/>
+      <c r="M66" s="119"/>
       <c r="N66" s="141"/>
       <c r="O66" s="32"/>
       <c r="P66" s="18"/>
@@ -11881,19 +11881,19 @@
       <c r="B67" s="24"/>
       <c r="C67" s="2"/>
       <c r="D67" s="46"/>
-      <c r="E67" s="148" t="s">
+      <c r="E67" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="128"/>
-      <c r="G67" s="142"/>
-      <c r="H67" s="139"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="119" t="s">
+      <c r="F67" s="158"/>
+      <c r="G67" s="167"/>
+      <c r="H67" s="140"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="118"/>
+      <c r="K67" s="118"/>
+      <c r="L67" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="M67" s="119"/>
+      <c r="M67" s="118"/>
       <c r="N67" s="141">
         <v>100</v>
       </c>
@@ -12012,15 +12012,15 @@
       <c r="B68" s="24"/>
       <c r="C68" s="2"/>
       <c r="D68" s="46"/>
-      <c r="E68" s="129"/>
-      <c r="F68" s="130"/>
-      <c r="G68" s="143"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="139"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="120"/>
-      <c r="L68" s="120"/>
-      <c r="M68" s="120"/>
+      <c r="E68" s="159"/>
+      <c r="F68" s="160"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="140"/>
+      <c r="J68" s="119"/>
+      <c r="K68" s="119"/>
+      <c r="L68" s="119"/>
+      <c r="M68" s="119"/>
       <c r="N68" s="141"/>
       <c r="O68" s="32"/>
       <c r="P68" s="18"/>
@@ -12139,19 +12139,19 @@
       <c r="B69" s="24"/>
       <c r="C69" s="2"/>
       <c r="D69" s="46"/>
-      <c r="E69" s="148" t="s">
+      <c r="E69" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="F69" s="128"/>
-      <c r="G69" s="142"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="139"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119" t="s">
+      <c r="F69" s="158"/>
+      <c r="G69" s="167"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="140"/>
+      <c r="J69" s="118"/>
+      <c r="K69" s="118"/>
+      <c r="L69" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="M69" s="119"/>
+      <c r="M69" s="118"/>
       <c r="N69" s="141">
         <v>100</v>
       </c>
@@ -12272,15 +12272,15 @@
       <c r="B70" s="24"/>
       <c r="C70" s="2"/>
       <c r="D70" s="46"/>
-      <c r="E70" s="129"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="143"/>
-      <c r="H70" s="139"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="120"/>
-      <c r="K70" s="120"/>
-      <c r="L70" s="120"/>
-      <c r="M70" s="120"/>
+      <c r="E70" s="159"/>
+      <c r="F70" s="160"/>
+      <c r="G70" s="168"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="140"/>
+      <c r="J70" s="119"/>
+      <c r="K70" s="119"/>
+      <c r="L70" s="119"/>
+      <c r="M70" s="119"/>
       <c r="N70" s="141"/>
       <c r="O70" s="32"/>
       <c r="P70" s="18"/>
@@ -12399,19 +12399,19 @@
       <c r="B71" s="24"/>
       <c r="C71" s="2"/>
       <c r="D71" s="46"/>
-      <c r="E71" s="148" t="s">
+      <c r="E71" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="128"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="139"/>
-      <c r="I71" s="139"/>
-      <c r="J71" s="119"/>
-      <c r="K71" s="119"/>
-      <c r="L71" s="119" t="s">
+      <c r="F71" s="158"/>
+      <c r="G71" s="167"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="140"/>
+      <c r="J71" s="118"/>
+      <c r="K71" s="118"/>
+      <c r="L71" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="M71" s="119"/>
+      <c r="M71" s="118"/>
       <c r="N71" s="141">
         <v>100</v>
       </c>
@@ -12532,15 +12532,15 @@
       <c r="B72" s="24"/>
       <c r="C72" s="2"/>
       <c r="D72" s="46"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="130"/>
-      <c r="G72" s="143"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="120"/>
-      <c r="K72" s="120"/>
-      <c r="L72" s="120"/>
-      <c r="M72" s="120"/>
+      <c r="E72" s="159"/>
+      <c r="F72" s="160"/>
+      <c r="G72" s="168"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="119"/>
+      <c r="K72" s="119"/>
+      <c r="L72" s="119"/>
+      <c r="M72" s="119"/>
       <c r="N72" s="141"/>
       <c r="O72" s="32"/>
       <c r="P72" s="18"/>
@@ -12659,19 +12659,19 @@
       <c r="B73" s="24"/>
       <c r="C73" s="2"/>
       <c r="D73" s="46"/>
-      <c r="E73" s="148" t="s">
+      <c r="E73" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="128"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="139"/>
-      <c r="I73" s="139"/>
-      <c r="J73" s="119"/>
-      <c r="K73" s="119"/>
-      <c r="L73" s="119" t="s">
+      <c r="F73" s="158"/>
+      <c r="G73" s="167"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="118"/>
+      <c r="K73" s="118"/>
+      <c r="L73" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="M73" s="119"/>
+      <c r="M73" s="118"/>
       <c r="N73" s="141">
         <v>100</v>
       </c>
@@ -12792,15 +12792,15 @@
       <c r="B74" s="24"/>
       <c r="C74" s="2"/>
       <c r="D74" s="47"/>
-      <c r="E74" s="129"/>
-      <c r="F74" s="130"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="139"/>
-      <c r="I74" s="139"/>
-      <c r="J74" s="120"/>
-      <c r="K74" s="120"/>
-      <c r="L74" s="120"/>
-      <c r="M74" s="120"/>
+      <c r="E74" s="159"/>
+      <c r="F74" s="160"/>
+      <c r="G74" s="168"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="119"/>
+      <c r="K74" s="119"/>
+      <c r="L74" s="119"/>
+      <c r="M74" s="119"/>
       <c r="N74" s="141"/>
       <c r="O74" s="34"/>
       <c r="P74" s="35"/>
@@ -12917,20 +12917,20 @@
     <row r="75" spans="1:125" ht="9.75" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="51"/>
-      <c r="C75" s="150" t="s">
+      <c r="C75" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="128"/>
-      <c r="E75" s="128"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="128"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="114"/>
-      <c r="K75" s="114"/>
-      <c r="L75" s="114"/>
-      <c r="M75" s="114"/>
-      <c r="N75" s="135"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="130"/>
+      <c r="K75" s="130"/>
+      <c r="L75" s="130"/>
+      <c r="M75" s="130"/>
+      <c r="N75" s="129"/>
       <c r="O75" s="42"/>
       <c r="P75" s="43"/>
       <c r="Q75" s="43"/>
@@ -13046,18 +13046,18 @@
     <row r="76" spans="1:125" ht="9.75" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="51"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="130"/>
-      <c r="F76" s="130"/>
-      <c r="G76" s="130"/>
-      <c r="H76" s="115"/>
-      <c r="I76" s="115"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="115"/>
-      <c r="L76" s="115"/>
-      <c r="M76" s="115"/>
-      <c r="N76" s="135"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="131"/>
+      <c r="I76" s="131"/>
+      <c r="J76" s="131"/>
+      <c r="K76" s="131"/>
+      <c r="L76" s="131"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="129"/>
       <c r="O76" s="44"/>
       <c r="P76" s="31"/>
       <c r="Q76" s="31"/>
@@ -13173,20 +13173,20 @@
     <row r="77" spans="1:125" ht="9.75" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="51"/>
-      <c r="C77" s="150" t="s">
+      <c r="C77" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="128"/>
-      <c r="E77" s="128"/>
-      <c r="F77" s="128"/>
-      <c r="G77" s="128"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="114"/>
-      <c r="J77" s="114"/>
-      <c r="K77" s="114"/>
-      <c r="L77" s="114"/>
-      <c r="M77" s="114"/>
-      <c r="N77" s="135"/>
+      <c r="D77" s="158"/>
+      <c r="E77" s="158"/>
+      <c r="F77" s="158"/>
+      <c r="G77" s="158"/>
+      <c r="H77" s="130"/>
+      <c r="I77" s="130"/>
+      <c r="J77" s="130"/>
+      <c r="K77" s="130"/>
+      <c r="L77" s="130"/>
+      <c r="M77" s="130"/>
+      <c r="N77" s="129"/>
       <c r="O77" s="42"/>
       <c r="P77" s="43"/>
       <c r="Q77" s="43"/>
@@ -13302,18 +13302,18 @@
     <row r="78" spans="1:125" ht="9.75" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="130"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="130"/>
-      <c r="F78" s="130"/>
-      <c r="G78" s="130"/>
-      <c r="H78" s="115"/>
-      <c r="I78" s="115"/>
-      <c r="J78" s="115"/>
-      <c r="K78" s="115"/>
-      <c r="L78" s="115"/>
-      <c r="M78" s="115"/>
-      <c r="N78" s="135"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="160"/>
+      <c r="E78" s="160"/>
+      <c r="F78" s="160"/>
+      <c r="G78" s="160"/>
+      <c r="H78" s="131"/>
+      <c r="I78" s="131"/>
+      <c r="J78" s="131"/>
+      <c r="K78" s="131"/>
+      <c r="L78" s="131"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="129"/>
       <c r="O78" s="44"/>
       <c r="P78" s="31"/>
       <c r="Q78" s="31"/>
@@ -13430,19 +13430,19 @@
       <c r="A79" s="2"/>
       <c r="B79" s="24"/>
       <c r="C79" s="41"/>
-      <c r="D79" s="147" t="s">
+      <c r="D79" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="128"/>
-      <c r="F79" s="128"/>
-      <c r="G79" s="128"/>
-      <c r="H79" s="118"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="118"/>
-      <c r="K79" s="118"/>
-      <c r="L79" s="118"/>
-      <c r="M79" s="118"/>
-      <c r="N79" s="135"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="158"/>
+      <c r="G79" s="158"/>
+      <c r="H79" s="136"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="136"/>
+      <c r="K79" s="136"/>
+      <c r="L79" s="136"/>
+      <c r="M79" s="136"/>
+      <c r="N79" s="129"/>
       <c r="O79" s="42"/>
       <c r="P79" s="43"/>
       <c r="Q79" s="43"/>
@@ -13559,17 +13559,17 @@
       <c r="A80" s="2"/>
       <c r="B80" s="24"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="129"/>
-      <c r="E80" s="130"/>
-      <c r="F80" s="130"/>
-      <c r="G80" s="130"/>
-      <c r="H80" s="118"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="118"/>
-      <c r="K80" s="118"/>
-      <c r="L80" s="118"/>
-      <c r="M80" s="118"/>
-      <c r="N80" s="135"/>
+      <c r="D80" s="159"/>
+      <c r="E80" s="160"/>
+      <c r="F80" s="160"/>
+      <c r="G80" s="160"/>
+      <c r="H80" s="136"/>
+      <c r="I80" s="136"/>
+      <c r="J80" s="136"/>
+      <c r="K80" s="136"/>
+      <c r="L80" s="136"/>
+      <c r="M80" s="136"/>
+      <c r="N80" s="129"/>
       <c r="O80" s="44"/>
       <c r="P80" s="31"/>
       <c r="Q80" s="31"/>
@@ -13687,19 +13687,19 @@
       <c r="B81" s="24"/>
       <c r="C81" s="2"/>
       <c r="D81" s="46"/>
-      <c r="E81" s="148" t="s">
+      <c r="E81" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="F81" s="128"/>
-      <c r="G81" s="142"/>
-      <c r="H81" s="139"/>
-      <c r="I81" s="139"/>
-      <c r="J81" s="119"/>
-      <c r="K81" s="119"/>
-      <c r="L81" s="119" t="s">
+      <c r="F81" s="158"/>
+      <c r="G81" s="167"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="140"/>
+      <c r="J81" s="118"/>
+      <c r="K81" s="118"/>
+      <c r="L81" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="M81" s="119"/>
+      <c r="M81" s="118"/>
       <c r="N81" s="141"/>
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
@@ -13818,15 +13818,15 @@
       <c r="B82" s="24"/>
       <c r="C82" s="2"/>
       <c r="D82" s="46"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="130"/>
-      <c r="G82" s="143"/>
-      <c r="H82" s="139"/>
-      <c r="I82" s="139"/>
-      <c r="J82" s="120"/>
-      <c r="K82" s="120"/>
-      <c r="L82" s="120"/>
-      <c r="M82" s="120"/>
+      <c r="E82" s="159"/>
+      <c r="F82" s="160"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="140"/>
+      <c r="J82" s="119"/>
+      <c r="K82" s="119"/>
+      <c r="L82" s="119"/>
+      <c r="M82" s="119"/>
       <c r="N82" s="141"/>
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
@@ -13945,19 +13945,19 @@
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
       <c r="D83" s="46"/>
-      <c r="E83" s="148" t="s">
+      <c r="E83" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="F83" s="128"/>
-      <c r="G83" s="142"/>
-      <c r="H83" s="139"/>
-      <c r="I83" s="139"/>
-      <c r="J83" s="119"/>
-      <c r="K83" s="119"/>
-      <c r="L83" s="119" t="s">
+      <c r="F83" s="158"/>
+      <c r="G83" s="167"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="118"/>
+      <c r="K83" s="118"/>
+      <c r="L83" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="M83" s="119"/>
+      <c r="M83" s="118"/>
       <c r="N83" s="141"/>
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
@@ -14076,15 +14076,15 @@
       <c r="B84" s="24"/>
       <c r="C84" s="2"/>
       <c r="D84" s="46"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="130"/>
-      <c r="G84" s="143"/>
-      <c r="H84" s="139"/>
-      <c r="I84" s="139"/>
-      <c r="J84" s="120"/>
-      <c r="K84" s="120"/>
-      <c r="L84" s="120"/>
-      <c r="M84" s="120"/>
+      <c r="E84" s="159"/>
+      <c r="F84" s="160"/>
+      <c r="G84" s="168"/>
+      <c r="H84" s="140"/>
+      <c r="I84" s="140"/>
+      <c r="J84" s="119"/>
+      <c r="K84" s="119"/>
+      <c r="L84" s="119"/>
+      <c r="M84" s="119"/>
       <c r="N84" s="141"/>
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
@@ -14203,19 +14203,19 @@
       <c r="B85" s="24"/>
       <c r="C85" s="2"/>
       <c r="D85" s="46"/>
-      <c r="E85" s="148" t="s">
+      <c r="E85" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="128"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="139"/>
-      <c r="I85" s="139"/>
-      <c r="J85" s="119"/>
-      <c r="K85" s="119"/>
-      <c r="L85" s="119" t="s">
+      <c r="F85" s="158"/>
+      <c r="G85" s="167"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="140"/>
+      <c r="J85" s="118"/>
+      <c r="K85" s="118"/>
+      <c r="L85" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="M85" s="119"/>
+      <c r="M85" s="118"/>
       <c r="N85" s="141"/>
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
@@ -14334,15 +14334,15 @@
       <c r="B86" s="24"/>
       <c r="C86" s="2"/>
       <c r="D86" s="46"/>
-      <c r="E86" s="129"/>
-      <c r="F86" s="130"/>
-      <c r="G86" s="143"/>
-      <c r="H86" s="139"/>
-      <c r="I86" s="139"/>
-      <c r="J86" s="120"/>
-      <c r="K86" s="120"/>
-      <c r="L86" s="120"/>
-      <c r="M86" s="120"/>
+      <c r="E86" s="159"/>
+      <c r="F86" s="160"/>
+      <c r="G86" s="168"/>
+      <c r="H86" s="140"/>
+      <c r="I86" s="140"/>
+      <c r="J86" s="119"/>
+      <c r="K86" s="119"/>
+      <c r="L86" s="119"/>
+      <c r="M86" s="119"/>
       <c r="N86" s="141"/>
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
@@ -14460,19 +14460,19 @@
       <c r="A87" s="19"/>
       <c r="B87" s="51"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="147" t="s">
+      <c r="D87" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="128"/>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114"/>
-      <c r="K87" s="114"/>
-      <c r="L87" s="114"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="135"/>
+      <c r="E87" s="158"/>
+      <c r="F87" s="158"/>
+      <c r="G87" s="158"/>
+      <c r="H87" s="130"/>
+      <c r="I87" s="130"/>
+      <c r="J87" s="130"/>
+      <c r="K87" s="130"/>
+      <c r="L87" s="130"/>
+      <c r="M87" s="130"/>
+      <c r="N87" s="129"/>
       <c r="O87" s="42"/>
       <c r="P87" s="43"/>
       <c r="Q87" s="43"/>
@@ -14589,17 +14589,17 @@
       <c r="A88" s="19"/>
       <c r="B88" s="51"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="130"/>
-      <c r="F88" s="130"/>
-      <c r="G88" s="130"/>
-      <c r="H88" s="115"/>
-      <c r="I88" s="115"/>
-      <c r="J88" s="115"/>
-      <c r="K88" s="115"/>
-      <c r="L88" s="115"/>
-      <c r="M88" s="115"/>
-      <c r="N88" s="135"/>
+      <c r="D88" s="159"/>
+      <c r="E88" s="160"/>
+      <c r="F88" s="160"/>
+      <c r="G88" s="160"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="131"/>
+      <c r="J88" s="131"/>
+      <c r="K88" s="131"/>
+      <c r="L88" s="131"/>
+      <c r="M88" s="131"/>
+      <c r="N88" s="129"/>
       <c r="O88" s="44"/>
       <c r="P88" s="31"/>
       <c r="Q88" s="31"/>
@@ -14717,18 +14717,18 @@
       <c r="B89" s="24"/>
       <c r="C89" s="2"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="154" t="s">
+      <c r="E89" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="F89" s="154"/>
-      <c r="G89" s="155"/>
-      <c r="H89" s="114"/>
-      <c r="I89" s="114"/>
-      <c r="J89" s="114"/>
-      <c r="K89" s="114"/>
-      <c r="L89" s="114"/>
-      <c r="M89" s="114"/>
-      <c r="N89" s="135"/>
+      <c r="F89" s="132"/>
+      <c r="G89" s="133"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="130"/>
+      <c r="K89" s="130"/>
+      <c r="L89" s="130"/>
+      <c r="M89" s="130"/>
+      <c r="N89" s="129"/>
       <c r="O89" s="42"/>
       <c r="P89" s="43"/>
       <c r="Q89" s="43"/>
@@ -14846,16 +14846,16 @@
       <c r="B90" s="24"/>
       <c r="C90" s="2"/>
       <c r="D90" s="56"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="157"/>
-      <c r="G90" s="158"/>
-      <c r="H90" s="115"/>
-      <c r="I90" s="115"/>
-      <c r="J90" s="115"/>
-      <c r="K90" s="115"/>
-      <c r="L90" s="115"/>
-      <c r="M90" s="115"/>
-      <c r="N90" s="135"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="162"/>
+      <c r="G90" s="163"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="131"/>
+      <c r="J90" s="131"/>
+      <c r="K90" s="131"/>
+      <c r="L90" s="131"/>
+      <c r="M90" s="131"/>
+      <c r="N90" s="129"/>
       <c r="O90" s="44"/>
       <c r="P90" s="31"/>
       <c r="Q90" s="31"/>
@@ -14974,21 +14974,21 @@
       <c r="C91" s="2"/>
       <c r="D91" s="46"/>
       <c r="E91" s="59"/>
-      <c r="F91" s="159" t="s">
+      <c r="F91" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="G91" s="160"/>
-      <c r="H91" s="151">
+      <c r="G91" s="144"/>
+      <c r="H91" s="108">
         <v>4</v>
       </c>
-      <c r="I91" s="151">
+      <c r="I91" s="108">
         <v>5</v>
       </c>
-      <c r="J91" s="119"/>
-      <c r="K91" s="119"/>
-      <c r="L91" s="119"/>
-      <c r="M91" s="119"/>
-      <c r="N91" s="111">
+      <c r="J91" s="118"/>
+      <c r="K91" s="118"/>
+      <c r="L91" s="118"/>
+      <c r="M91" s="118"/>
+      <c r="N91" s="126">
         <v>100</v>
       </c>
       <c r="O91" s="18"/>
@@ -15109,15 +15109,15 @@
       <c r="C92" s="2"/>
       <c r="D92" s="46"/>
       <c r="E92" s="60"/>
-      <c r="F92" s="161"/>
-      <c r="G92" s="162"/>
-      <c r="H92" s="152"/>
-      <c r="I92" s="152"/>
-      <c r="J92" s="120"/>
-      <c r="K92" s="120"/>
-      <c r="L92" s="120"/>
-      <c r="M92" s="120"/>
-      <c r="N92" s="112"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="147"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="109"/>
+      <c r="J92" s="119"/>
+      <c r="K92" s="119"/>
+      <c r="L92" s="119"/>
+      <c r="M92" s="119"/>
+      <c r="N92" s="127"/>
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
       <c r="Q92" s="18"/>
@@ -15237,24 +15237,24 @@
       <c r="D93" s="46"/>
       <c r="E93" s="60"/>
       <c r="F93" s="105"/>
-      <c r="G93" s="180" t="s">
+      <c r="G93" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H93" s="152"/>
-      <c r="I93" s="152"/>
-      <c r="J93" s="116" t="s">
+      <c r="H93" s="109"/>
+      <c r="I93" s="109"/>
+      <c r="J93" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="K93" s="116" t="s">
+      <c r="K93" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="L93" s="116" t="s">
+      <c r="L93" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="M93" s="119" t="s">
+      <c r="M93" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="N93" s="112"/>
+      <c r="N93" s="127"/>
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
       <c r="Q93" s="18"/>
@@ -15374,14 +15374,14 @@
       <c r="D94" s="46"/>
       <c r="E94" s="60"/>
       <c r="F94" s="105"/>
-      <c r="G94" s="181"/>
-      <c r="H94" s="152"/>
-      <c r="I94" s="152"/>
-      <c r="J94" s="117"/>
-      <c r="K94" s="117"/>
-      <c r="L94" s="117"/>
-      <c r="M94" s="120"/>
-      <c r="N94" s="112"/>
+      <c r="G94" s="112"/>
+      <c r="H94" s="109"/>
+      <c r="I94" s="109"/>
+      <c r="J94" s="114"/>
+      <c r="K94" s="114"/>
+      <c r="L94" s="114"/>
+      <c r="M94" s="119"/>
+      <c r="N94" s="127"/>
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
       <c r="Q94" s="18"/>
@@ -15501,24 +15501,24 @@
       <c r="D95" s="46"/>
       <c r="E95" s="60"/>
       <c r="F95" s="105"/>
-      <c r="G95" s="183" t="s">
+      <c r="G95" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H95" s="152"/>
-      <c r="I95" s="152"/>
-      <c r="J95" s="119" t="s">
+      <c r="H95" s="109"/>
+      <c r="I95" s="109"/>
+      <c r="J95" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="K95" s="119" t="s">
+      <c r="K95" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="L95" s="119" t="s">
+      <c r="L95" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="M95" s="119" t="s">
+      <c r="M95" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="112"/>
+      <c r="N95" s="127"/>
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
       <c r="Q95" s="18"/>
@@ -15638,14 +15638,14 @@
       <c r="D96" s="46"/>
       <c r="E96" s="60"/>
       <c r="F96" s="105"/>
-      <c r="G96" s="184"/>
-      <c r="H96" s="153"/>
-      <c r="I96" s="153"/>
-      <c r="J96" s="120"/>
-      <c r="K96" s="120"/>
-      <c r="L96" s="120"/>
-      <c r="M96" s="120"/>
-      <c r="N96" s="113"/>
+      <c r="G96" s="117"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="110"/>
+      <c r="J96" s="119"/>
+      <c r="K96" s="119"/>
+      <c r="L96" s="119"/>
+      <c r="M96" s="119"/>
+      <c r="N96" s="128"/>
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
       <c r="Q96" s="18"/>
@@ -15764,19 +15764,19 @@
       <c r="C97" s="2"/>
       <c r="D97" s="46"/>
       <c r="E97" s="61"/>
-      <c r="F97" s="159" t="s">
+      <c r="F97" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="160"/>
-      <c r="H97" s="151">
+      <c r="G97" s="144"/>
+      <c r="H97" s="108">
         <v>4</v>
       </c>
-      <c r="I97" s="151"/>
-      <c r="J97" s="119"/>
-      <c r="K97" s="119"/>
-      <c r="L97" s="119"/>
-      <c r="M97" s="119"/>
-      <c r="N97" s="111">
+      <c r="I97" s="108"/>
+      <c r="J97" s="118"/>
+      <c r="K97" s="118"/>
+      <c r="L97" s="118"/>
+      <c r="M97" s="118"/>
+      <c r="N97" s="126">
         <v>100</v>
       </c>
       <c r="O97" s="18"/>
@@ -15897,15 +15897,15 @@
       <c r="C98" s="2"/>
       <c r="D98" s="46"/>
       <c r="E98" s="60"/>
-      <c r="F98" s="161"/>
-      <c r="G98" s="162"/>
-      <c r="H98" s="152"/>
-      <c r="I98" s="152"/>
-      <c r="J98" s="120"/>
-      <c r="K98" s="120"/>
-      <c r="L98" s="120"/>
-      <c r="M98" s="120"/>
-      <c r="N98" s="112"/>
+      <c r="F98" s="146"/>
+      <c r="G98" s="147"/>
+      <c r="H98" s="109"/>
+      <c r="I98" s="109"/>
+      <c r="J98" s="119"/>
+      <c r="K98" s="119"/>
+      <c r="L98" s="119"/>
+      <c r="M98" s="119"/>
+      <c r="N98" s="127"/>
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
       <c r="Q98" s="18"/>
@@ -16025,24 +16025,24 @@
       <c r="D99" s="46"/>
       <c r="E99" s="60"/>
       <c r="F99" s="105"/>
-      <c r="G99" s="180" t="s">
+      <c r="G99" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H99" s="152"/>
-      <c r="I99" s="152"/>
-      <c r="J99" s="119" t="s">
+      <c r="H99" s="109"/>
+      <c r="I99" s="109"/>
+      <c r="J99" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="K99" s="119" t="s">
+      <c r="K99" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="L99" s="119" t="s">
+      <c r="L99" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="M99" s="119" t="s">
+      <c r="M99" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="N99" s="112"/>
+      <c r="N99" s="127"/>
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
       <c r="Q99" s="18"/>
@@ -16162,14 +16162,14 @@
       <c r="D100" s="46"/>
       <c r="E100" s="60"/>
       <c r="F100" s="105"/>
-      <c r="G100" s="181"/>
-      <c r="H100" s="152"/>
-      <c r="I100" s="152"/>
-      <c r="J100" s="120"/>
-      <c r="K100" s="120"/>
-      <c r="L100" s="120"/>
-      <c r="M100" s="120"/>
-      <c r="N100" s="112"/>
+      <c r="G100" s="112"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="109"/>
+      <c r="J100" s="119"/>
+      <c r="K100" s="119"/>
+      <c r="L100" s="119"/>
+      <c r="M100" s="119"/>
+      <c r="N100" s="127"/>
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
       <c r="Q100" s="18"/>
@@ -16289,24 +16289,24 @@
       <c r="D101" s="46"/>
       <c r="E101" s="60"/>
       <c r="F101" s="105"/>
-      <c r="G101" s="183" t="s">
+      <c r="G101" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H101" s="152"/>
-      <c r="I101" s="152"/>
-      <c r="J101" s="119" t="s">
+      <c r="H101" s="109"/>
+      <c r="I101" s="109"/>
+      <c r="J101" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="K101" s="119" t="s">
+      <c r="K101" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="L101" s="119" t="s">
+      <c r="L101" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="M101" s="119" t="s">
+      <c r="M101" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="112"/>
+      <c r="N101" s="127"/>
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
@@ -16426,14 +16426,14 @@
       <c r="D102" s="46"/>
       <c r="E102" s="60"/>
       <c r="F102" s="105"/>
-      <c r="G102" s="184"/>
-      <c r="H102" s="153"/>
-      <c r="I102" s="153"/>
-      <c r="J102" s="120"/>
-      <c r="K102" s="120"/>
-      <c r="L102" s="120"/>
-      <c r="M102" s="120"/>
-      <c r="N102" s="113"/>
+      <c r="G102" s="117"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110"/>
+      <c r="J102" s="119"/>
+      <c r="K102" s="119"/>
+      <c r="L102" s="119"/>
+      <c r="M102" s="119"/>
+      <c r="N102" s="128"/>
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
       <c r="Q102" s="18"/>
@@ -16552,18 +16552,18 @@
       <c r="C103" s="2"/>
       <c r="D103" s="46"/>
       <c r="E103" s="61"/>
-      <c r="F103" s="159" t="s">
+      <c r="F103" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="G103" s="160"/>
-      <c r="H103" s="139"/>
-      <c r="I103" s="139"/>
-      <c r="J103" s="119"/>
-      <c r="K103" s="121"/>
-      <c r="L103" s="119" t="s">
+      <c r="G103" s="144"/>
+      <c r="H103" s="140"/>
+      <c r="I103" s="140"/>
+      <c r="J103" s="118"/>
+      <c r="K103" s="120"/>
+      <c r="L103" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="M103" s="119"/>
+      <c r="M103" s="118"/>
       <c r="N103" s="141"/>
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
@@ -16683,14 +16683,14 @@
       <c r="C104" s="2"/>
       <c r="D104" s="46"/>
       <c r="E104" s="62"/>
-      <c r="F104" s="171"/>
-      <c r="G104" s="170"/>
-      <c r="H104" s="139"/>
-      <c r="I104" s="139"/>
-      <c r="J104" s="120"/>
-      <c r="K104" s="122"/>
-      <c r="L104" s="120"/>
-      <c r="M104" s="120"/>
+      <c r="F104" s="145"/>
+      <c r="G104" s="125"/>
+      <c r="H104" s="140"/>
+      <c r="I104" s="140"/>
+      <c r="J104" s="119"/>
+      <c r="K104" s="121"/>
+      <c r="L104" s="119"/>
+      <c r="M104" s="119"/>
       <c r="N104" s="141"/>
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
@@ -16809,18 +16809,18 @@
       <c r="B105" s="24"/>
       <c r="C105" s="2"/>
       <c r="D105" s="46"/>
-      <c r="E105" s="172" t="s">
+      <c r="E105" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="F105" s="173"/>
-      <c r="G105" s="174"/>
-      <c r="H105" s="114"/>
-      <c r="I105" s="118"/>
-      <c r="J105" s="118"/>
-      <c r="K105" s="118"/>
-      <c r="L105" s="118"/>
-      <c r="M105" s="118"/>
-      <c r="N105" s="135"/>
+      <c r="F105" s="149"/>
+      <c r="G105" s="150"/>
+      <c r="H105" s="130"/>
+      <c r="I105" s="136"/>
+      <c r="J105" s="136"/>
+      <c r="K105" s="136"/>
+      <c r="L105" s="136"/>
+      <c r="M105" s="136"/>
+      <c r="N105" s="129"/>
       <c r="O105" s="43"/>
       <c r="P105" s="43"/>
       <c r="Q105" s="43"/>
@@ -16938,16 +16938,16 @@
       <c r="B106" s="24"/>
       <c r="C106" s="2"/>
       <c r="D106" s="46"/>
-      <c r="E106" s="175"/>
-      <c r="F106" s="176"/>
-      <c r="G106" s="177"/>
-      <c r="H106" s="115"/>
-      <c r="I106" s="118"/>
-      <c r="J106" s="118"/>
-      <c r="K106" s="118"/>
-      <c r="L106" s="118"/>
-      <c r="M106" s="118"/>
-      <c r="N106" s="135"/>
+      <c r="E106" s="151"/>
+      <c r="F106" s="152"/>
+      <c r="G106" s="153"/>
+      <c r="H106" s="131"/>
+      <c r="I106" s="136"/>
+      <c r="J106" s="136"/>
+      <c r="K106" s="136"/>
+      <c r="L106" s="136"/>
+      <c r="M106" s="136"/>
+      <c r="N106" s="129"/>
       <c r="O106" s="31"/>
       <c r="P106" s="31"/>
       <c r="Q106" s="31"/>
@@ -17066,21 +17066,21 @@
       <c r="C107" s="2"/>
       <c r="D107" s="46"/>
       <c r="E107" s="61"/>
-      <c r="F107" s="179" t="s">
+      <c r="F107" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="G107" s="168"/>
-      <c r="H107" s="151">
+      <c r="G107" s="123"/>
+      <c r="H107" s="108">
         <v>4</v>
       </c>
-      <c r="I107" s="151"/>
-      <c r="J107" s="119" t="s">
+      <c r="I107" s="108"/>
+      <c r="J107" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="K107" s="119"/>
-      <c r="L107" s="119"/>
-      <c r="M107" s="119"/>
-      <c r="N107" s="108">
+      <c r="K107" s="118"/>
+      <c r="L107" s="118"/>
+      <c r="M107" s="118"/>
+      <c r="N107" s="137">
         <v>100</v>
       </c>
       <c r="O107" s="18"/>
@@ -17201,15 +17201,15 @@
       <c r="C108" s="2"/>
       <c r="D108" s="46"/>
       <c r="E108" s="60"/>
-      <c r="F108" s="178"/>
-      <c r="G108" s="162"/>
-      <c r="H108" s="152"/>
-      <c r="I108" s="152"/>
-      <c r="J108" s="120"/>
-      <c r="K108" s="120"/>
-      <c r="L108" s="120"/>
-      <c r="M108" s="120"/>
-      <c r="N108" s="109"/>
+      <c r="F108" s="155"/>
+      <c r="G108" s="147"/>
+      <c r="H108" s="109"/>
+      <c r="I108" s="109"/>
+      <c r="J108" s="119"/>
+      <c r="K108" s="119"/>
+      <c r="L108" s="119"/>
+      <c r="M108" s="119"/>
+      <c r="N108" s="138"/>
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
       <c r="Q108" s="18"/>
@@ -17329,24 +17329,24 @@
       <c r="D109" s="46"/>
       <c r="E109" s="60"/>
       <c r="F109" s="105"/>
-      <c r="G109" s="180" t="s">
+      <c r="G109" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H109" s="152"/>
-      <c r="I109" s="152"/>
-      <c r="J109" s="119" t="s">
+      <c r="H109" s="109"/>
+      <c r="I109" s="109"/>
+      <c r="J109" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="K109" s="119" t="s">
+      <c r="K109" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="L109" s="119" t="s">
+      <c r="L109" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="M109" s="116" t="s">
+      <c r="M109" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="N109" s="109"/>
+      <c r="N109" s="138"/>
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
       <c r="Q109" s="18"/>
@@ -17466,14 +17466,14 @@
       <c r="D110" s="46"/>
       <c r="E110" s="60"/>
       <c r="F110" s="105"/>
-      <c r="G110" s="181"/>
-      <c r="H110" s="152"/>
-      <c r="I110" s="152"/>
-      <c r="J110" s="120"/>
-      <c r="K110" s="120"/>
-      <c r="L110" s="120"/>
-      <c r="M110" s="117"/>
-      <c r="N110" s="109"/>
+      <c r="G110" s="112"/>
+      <c r="H110" s="109"/>
+      <c r="I110" s="109"/>
+      <c r="J110" s="119"/>
+      <c r="K110" s="119"/>
+      <c r="L110" s="119"/>
+      <c r="M110" s="114"/>
+      <c r="N110" s="138"/>
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
       <c r="Q110" s="18"/>
@@ -17593,24 +17593,24 @@
       <c r="D111" s="46"/>
       <c r="E111" s="60"/>
       <c r="F111" s="105"/>
-      <c r="G111" s="183" t="s">
+      <c r="G111" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H111" s="152"/>
-      <c r="I111" s="152"/>
-      <c r="J111" s="119" t="s">
+      <c r="H111" s="109"/>
+      <c r="I111" s="109"/>
+      <c r="J111" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="K111" s="119" t="s">
+      <c r="K111" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="L111" s="119" t="s">
+      <c r="L111" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="M111" s="116" t="s">
+      <c r="M111" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="N111" s="109"/>
+      <c r="N111" s="138"/>
       <c r="O111" s="18"/>
       <c r="P111" s="18"/>
       <c r="Q111" s="18"/>
@@ -17730,14 +17730,14 @@
       <c r="D112" s="46"/>
       <c r="E112" s="60"/>
       <c r="F112" s="105"/>
-      <c r="G112" s="184"/>
-      <c r="H112" s="153"/>
-      <c r="I112" s="153"/>
-      <c r="J112" s="120"/>
-      <c r="K112" s="120"/>
-      <c r="L112" s="120"/>
-      <c r="M112" s="117"/>
-      <c r="N112" s="110"/>
+      <c r="G112" s="117"/>
+      <c r="H112" s="110"/>
+      <c r="I112" s="110"/>
+      <c r="J112" s="119"/>
+      <c r="K112" s="119"/>
+      <c r="L112" s="119"/>
+      <c r="M112" s="114"/>
+      <c r="N112" s="139"/>
       <c r="O112" s="18"/>
       <c r="P112" s="18"/>
       <c r="Q112" s="18"/>
@@ -17856,19 +17856,19 @@
       <c r="C113" s="2"/>
       <c r="D113" s="46"/>
       <c r="E113" s="61"/>
-      <c r="F113" s="148" t="s">
+      <c r="F113" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="G113" s="160"/>
-      <c r="H113" s="151">
+      <c r="G113" s="144"/>
+      <c r="H113" s="108">
         <v>4</v>
       </c>
-      <c r="I113" s="151"/>
-      <c r="J113" s="119"/>
-      <c r="K113" s="119"/>
-      <c r="L113" s="119"/>
-      <c r="M113" s="121"/>
-      <c r="N113" s="108">
+      <c r="I113" s="108"/>
+      <c r="J113" s="118"/>
+      <c r="K113" s="118"/>
+      <c r="L113" s="118"/>
+      <c r="M113" s="120"/>
+      <c r="N113" s="137">
         <v>100</v>
       </c>
       <c r="O113" s="18"/>
@@ -17989,15 +17989,15 @@
       <c r="C114" s="2"/>
       <c r="D114" s="46"/>
       <c r="E114" s="60"/>
-      <c r="F114" s="178"/>
-      <c r="G114" s="162"/>
-      <c r="H114" s="152"/>
-      <c r="I114" s="152"/>
-      <c r="J114" s="120"/>
-      <c r="K114" s="120"/>
-      <c r="L114" s="120"/>
-      <c r="M114" s="122"/>
-      <c r="N114" s="109"/>
+      <c r="F114" s="155"/>
+      <c r="G114" s="147"/>
+      <c r="H114" s="109"/>
+      <c r="I114" s="109"/>
+      <c r="J114" s="119"/>
+      <c r="K114" s="119"/>
+      <c r="L114" s="119"/>
+      <c r="M114" s="121"/>
+      <c r="N114" s="138"/>
       <c r="O114" s="18"/>
       <c r="P114" s="18"/>
       <c r="Q114" s="18"/>
@@ -18117,24 +18117,24 @@
       <c r="D115" s="46"/>
       <c r="E115" s="60"/>
       <c r="F115" s="105"/>
-      <c r="G115" s="180" t="s">
+      <c r="G115" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H115" s="152"/>
-      <c r="I115" s="152"/>
-      <c r="J115" s="119" t="s">
+      <c r="H115" s="109"/>
+      <c r="I115" s="109"/>
+      <c r="J115" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="K115" s="119" t="s">
+      <c r="K115" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="L115" s="119" t="s">
+      <c r="L115" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="M115" s="116" t="s">
+      <c r="M115" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="N115" s="109"/>
+      <c r="N115" s="138"/>
       <c r="O115" s="18"/>
       <c r="P115" s="18"/>
       <c r="Q115" s="18"/>
@@ -18254,14 +18254,14 @@
       <c r="D116" s="46"/>
       <c r="E116" s="60"/>
       <c r="F116" s="105"/>
-      <c r="G116" s="181"/>
-      <c r="H116" s="152"/>
-      <c r="I116" s="152"/>
-      <c r="J116" s="120"/>
-      <c r="K116" s="120"/>
-      <c r="L116" s="120"/>
-      <c r="M116" s="117"/>
-      <c r="N116" s="109"/>
+      <c r="G116" s="112"/>
+      <c r="H116" s="109"/>
+      <c r="I116" s="109"/>
+      <c r="J116" s="119"/>
+      <c r="K116" s="119"/>
+      <c r="L116" s="119"/>
+      <c r="M116" s="114"/>
+      <c r="N116" s="138"/>
       <c r="O116" s="18"/>
       <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
@@ -18381,24 +18381,24 @@
       <c r="D117" s="46"/>
       <c r="E117" s="60"/>
       <c r="F117" s="105"/>
-      <c r="G117" s="183" t="s">
+      <c r="G117" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H117" s="152"/>
-      <c r="I117" s="152"/>
-      <c r="J117" s="119" t="s">
+      <c r="H117" s="109"/>
+      <c r="I117" s="109"/>
+      <c r="J117" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="K117" s="119" t="s">
+      <c r="K117" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="L117" s="119" t="s">
+      <c r="L117" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="M117" s="116" t="s">
+      <c r="M117" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="N117" s="109"/>
+      <c r="N117" s="138"/>
       <c r="O117" s="18"/>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
@@ -18518,14 +18518,14 @@
       <c r="D118" s="46"/>
       <c r="E118" s="60"/>
       <c r="F118" s="105"/>
-      <c r="G118" s="184"/>
-      <c r="H118" s="153"/>
-      <c r="I118" s="153"/>
-      <c r="J118" s="120"/>
-      <c r="K118" s="120"/>
-      <c r="L118" s="120"/>
-      <c r="M118" s="117"/>
-      <c r="N118" s="110"/>
+      <c r="G118" s="117"/>
+      <c r="H118" s="110"/>
+      <c r="I118" s="110"/>
+      <c r="J118" s="119"/>
+      <c r="K118" s="119"/>
+      <c r="L118" s="119"/>
+      <c r="M118" s="114"/>
+      <c r="N118" s="139"/>
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
@@ -18644,21 +18644,21 @@
       <c r="C119" s="2"/>
       <c r="D119" s="46"/>
       <c r="E119" s="61"/>
-      <c r="F119" s="148" t="s">
+      <c r="F119" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="G119" s="160"/>
-      <c r="H119" s="151">
+      <c r="G119" s="144"/>
+      <c r="H119" s="108">
         <v>5</v>
       </c>
-      <c r="I119" s="151"/>
-      <c r="J119" s="119" t="s">
+      <c r="I119" s="108"/>
+      <c r="J119" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="K119" s="119"/>
-      <c r="L119" s="119"/>
-      <c r="M119" s="119"/>
-      <c r="N119" s="108">
+      <c r="K119" s="118"/>
+      <c r="L119" s="118"/>
+      <c r="M119" s="118"/>
+      <c r="N119" s="137">
         <v>50</v>
       </c>
       <c r="O119" s="18"/>
@@ -18778,15 +18778,15 @@
       <c r="C120" s="2"/>
       <c r="D120" s="46"/>
       <c r="E120" s="60"/>
-      <c r="F120" s="178"/>
-      <c r="G120" s="162"/>
-      <c r="H120" s="152"/>
-      <c r="I120" s="152"/>
-      <c r="J120" s="120"/>
-      <c r="K120" s="120"/>
-      <c r="L120" s="120"/>
-      <c r="M120" s="120"/>
-      <c r="N120" s="109"/>
+      <c r="F120" s="155"/>
+      <c r="G120" s="147"/>
+      <c r="H120" s="109"/>
+      <c r="I120" s="109"/>
+      <c r="J120" s="119"/>
+      <c r="K120" s="119"/>
+      <c r="L120" s="119"/>
+      <c r="M120" s="119"/>
+      <c r="N120" s="138"/>
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
       <c r="Q120" s="18"/>
@@ -18906,24 +18906,24 @@
       <c r="D121" s="46"/>
       <c r="E121" s="60"/>
       <c r="F121" s="105"/>
-      <c r="G121" s="180" t="s">
+      <c r="G121" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H121" s="152"/>
-      <c r="I121" s="152"/>
-      <c r="J121" s="116" t="s">
+      <c r="H121" s="109"/>
+      <c r="I121" s="109"/>
+      <c r="J121" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="K121" s="116" t="s">
+      <c r="K121" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="L121" s="116" t="s">
+      <c r="L121" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="M121" s="116" t="s">
+      <c r="M121" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="N121" s="109"/>
+      <c r="N121" s="138"/>
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
       <c r="Q121" s="18"/>
@@ -19043,14 +19043,14 @@
       <c r="D122" s="46"/>
       <c r="E122" s="60"/>
       <c r="F122" s="105"/>
-      <c r="G122" s="181"/>
-      <c r="H122" s="152"/>
-      <c r="I122" s="152"/>
-      <c r="J122" s="117"/>
-      <c r="K122" s="117"/>
-      <c r="L122" s="117"/>
-      <c r="M122" s="117"/>
-      <c r="N122" s="109"/>
+      <c r="G122" s="112"/>
+      <c r="H122" s="109"/>
+      <c r="I122" s="109"/>
+      <c r="J122" s="114"/>
+      <c r="K122" s="114"/>
+      <c r="L122" s="114"/>
+      <c r="M122" s="114"/>
+      <c r="N122" s="138"/>
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
       <c r="Q122" s="18"/>
@@ -19170,22 +19170,22 @@
       <c r="D123" s="46"/>
       <c r="E123" s="60"/>
       <c r="F123" s="105"/>
-      <c r="G123" s="183" t="s">
+      <c r="G123" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H123" s="152"/>
-      <c r="I123" s="152"/>
-      <c r="J123" s="116" t="s">
+      <c r="H123" s="109"/>
+      <c r="I123" s="109"/>
+      <c r="J123" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="K123" s="182"/>
-      <c r="L123" s="116" t="s">
+      <c r="K123" s="115"/>
+      <c r="L123" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="M123" s="116" t="s">
+      <c r="M123" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="N123" s="109"/>
+      <c r="N123" s="138"/>
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
       <c r="Q123" s="18"/>
@@ -19305,14 +19305,14 @@
       <c r="D124" s="46"/>
       <c r="E124" s="60"/>
       <c r="F124" s="105"/>
-      <c r="G124" s="184"/>
-      <c r="H124" s="153"/>
-      <c r="I124" s="153"/>
-      <c r="J124" s="117"/>
-      <c r="K124" s="117"/>
-      <c r="L124" s="117"/>
-      <c r="M124" s="117"/>
-      <c r="N124" s="110"/>
+      <c r="G124" s="117"/>
+      <c r="H124" s="110"/>
+      <c r="I124" s="110"/>
+      <c r="J124" s="114"/>
+      <c r="K124" s="114"/>
+      <c r="L124" s="114"/>
+      <c r="M124" s="114"/>
+      <c r="N124" s="139"/>
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
       <c r="Q124" s="18"/>
@@ -19431,19 +19431,19 @@
       <c r="C125" s="2"/>
       <c r="D125" s="46"/>
       <c r="E125" s="61"/>
-      <c r="F125" s="148" t="s">
+      <c r="F125" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="G125" s="160"/>
-      <c r="H125" s="151">
+      <c r="G125" s="144"/>
+      <c r="H125" s="108">
         <v>4</v>
       </c>
-      <c r="I125" s="151"/>
-      <c r="J125" s="119"/>
-      <c r="K125" s="119"/>
-      <c r="L125" s="119"/>
-      <c r="M125" s="119"/>
-      <c r="N125" s="108"/>
+      <c r="I125" s="108"/>
+      <c r="J125" s="118"/>
+      <c r="K125" s="118"/>
+      <c r="L125" s="118"/>
+      <c r="M125" s="118"/>
+      <c r="N125" s="137"/>
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
       <c r="Q125" s="18"/>
@@ -19562,15 +19562,15 @@
       <c r="C126" s="2"/>
       <c r="D126" s="46"/>
       <c r="E126" s="60"/>
-      <c r="F126" s="178"/>
-      <c r="G126" s="162"/>
-      <c r="H126" s="152"/>
-      <c r="I126" s="152"/>
-      <c r="J126" s="120"/>
-      <c r="K126" s="120"/>
-      <c r="L126" s="120"/>
-      <c r="M126" s="120"/>
-      <c r="N126" s="109"/>
+      <c r="F126" s="155"/>
+      <c r="G126" s="147"/>
+      <c r="H126" s="109"/>
+      <c r="I126" s="109"/>
+      <c r="J126" s="119"/>
+      <c r="K126" s="119"/>
+      <c r="L126" s="119"/>
+      <c r="M126" s="119"/>
+      <c r="N126" s="138"/>
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
       <c r="Q126" s="18"/>
@@ -19690,22 +19690,24 @@
       <c r="D127" s="46"/>
       <c r="E127" s="60"/>
       <c r="F127" s="105"/>
-      <c r="G127" s="180" t="s">
+      <c r="G127" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H127" s="152"/>
-      <c r="I127" s="152"/>
-      <c r="J127" s="116" t="s">
+      <c r="H127" s="109"/>
+      <c r="I127" s="109"/>
+      <c r="J127" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="K127" s="182"/>
-      <c r="L127" s="116" t="s">
+      <c r="K127" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="M127" s="116" t="s">
+      <c r="L127" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="M127" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="N127" s="109"/>
+      <c r="N127" s="138"/>
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
       <c r="Q127" s="18"/>
@@ -19825,14 +19827,14 @@
       <c r="D128" s="46"/>
       <c r="E128" s="60"/>
       <c r="F128" s="105"/>
-      <c r="G128" s="181"/>
-      <c r="H128" s="152"/>
-      <c r="I128" s="152"/>
-      <c r="J128" s="117"/>
-      <c r="K128" s="117"/>
-      <c r="L128" s="117"/>
-      <c r="M128" s="117"/>
-      <c r="N128" s="109"/>
+      <c r="G128" s="112"/>
+      <c r="H128" s="109"/>
+      <c r="I128" s="109"/>
+      <c r="J128" s="114"/>
+      <c r="K128" s="114"/>
+      <c r="L128" s="114"/>
+      <c r="M128" s="114"/>
+      <c r="N128" s="138"/>
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
       <c r="Q128" s="18"/>
@@ -19952,22 +19954,22 @@
       <c r="D129" s="46"/>
       <c r="E129" s="60"/>
       <c r="F129" s="105"/>
-      <c r="G129" s="183" t="s">
+      <c r="G129" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H129" s="152"/>
-      <c r="I129" s="152"/>
-      <c r="J129" s="116" t="s">
+      <c r="H129" s="109"/>
+      <c r="I129" s="109"/>
+      <c r="J129" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="K129" s="182"/>
-      <c r="L129" s="119" t="s">
+      <c r="K129" s="115"/>
+      <c r="L129" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="M129" s="116" t="s">
+      <c r="M129" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="N129" s="109"/>
+      <c r="N129" s="138"/>
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
       <c r="Q129" s="18"/>
@@ -20087,14 +20089,14 @@
       <c r="D130" s="46"/>
       <c r="E130" s="60"/>
       <c r="F130" s="105"/>
-      <c r="G130" s="184"/>
-      <c r="H130" s="153"/>
-      <c r="I130" s="153"/>
-      <c r="J130" s="117"/>
-      <c r="K130" s="117"/>
-      <c r="L130" s="120"/>
-      <c r="M130" s="117"/>
-      <c r="N130" s="110"/>
+      <c r="G130" s="117"/>
+      <c r="H130" s="110"/>
+      <c r="I130" s="110"/>
+      <c r="J130" s="114"/>
+      <c r="K130" s="114"/>
+      <c r="L130" s="119"/>
+      <c r="M130" s="114"/>
+      <c r="N130" s="139"/>
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
       <c r="Q130" s="18"/>
@@ -20213,19 +20215,19 @@
       <c r="C131" s="2"/>
       <c r="D131" s="46"/>
       <c r="E131" s="61"/>
-      <c r="F131" s="148" t="s">
+      <c r="F131" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="G131" s="160"/>
-      <c r="H131" s="151">
+      <c r="G131" s="144"/>
+      <c r="H131" s="108">
         <v>4</v>
       </c>
-      <c r="I131" s="151"/>
-      <c r="J131" s="119"/>
-      <c r="K131" s="119"/>
-      <c r="L131" s="119"/>
-      <c r="M131" s="121"/>
-      <c r="N131" s="108"/>
+      <c r="I131" s="108"/>
+      <c r="J131" s="118"/>
+      <c r="K131" s="118"/>
+      <c r="L131" s="118"/>
+      <c r="M131" s="120"/>
+      <c r="N131" s="137"/>
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
       <c r="Q131" s="18"/>
@@ -20344,15 +20346,15 @@
       <c r="C132" s="2"/>
       <c r="D132" s="46"/>
       <c r="E132" s="60"/>
-      <c r="F132" s="178"/>
-      <c r="G132" s="162"/>
-      <c r="H132" s="152"/>
-      <c r="I132" s="152"/>
-      <c r="J132" s="120"/>
-      <c r="K132" s="120"/>
-      <c r="L132" s="120"/>
-      <c r="M132" s="122"/>
-      <c r="N132" s="109"/>
+      <c r="F132" s="155"/>
+      <c r="G132" s="147"/>
+      <c r="H132" s="109"/>
+      <c r="I132" s="109"/>
+      <c r="J132" s="119"/>
+      <c r="K132" s="119"/>
+      <c r="L132" s="119"/>
+      <c r="M132" s="121"/>
+      <c r="N132" s="138"/>
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
       <c r="Q132" s="18"/>
@@ -20472,22 +20474,24 @@
       <c r="D133" s="46"/>
       <c r="E133" s="60"/>
       <c r="F133" s="105"/>
-      <c r="G133" s="180" t="s">
+      <c r="G133" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H133" s="152"/>
-      <c r="I133" s="152"/>
-      <c r="J133" s="116" t="s">
+      <c r="H133" s="109"/>
+      <c r="I133" s="109"/>
+      <c r="J133" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="K133" s="182"/>
-      <c r="L133" s="119" t="s">
+      <c r="K133" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="L133" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="M133" s="116" t="s">
+      <c r="M133" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="N133" s="109"/>
+      <c r="N133" s="138"/>
       <c r="O133" s="18"/>
       <c r="P133" s="18"/>
       <c r="Q133" s="18"/>
@@ -20607,14 +20611,14 @@
       <c r="D134" s="46"/>
       <c r="E134" s="60"/>
       <c r="F134" s="105"/>
-      <c r="G134" s="181"/>
-      <c r="H134" s="152"/>
-      <c r="I134" s="152"/>
-      <c r="J134" s="117"/>
-      <c r="K134" s="117"/>
-      <c r="L134" s="120"/>
-      <c r="M134" s="117"/>
-      <c r="N134" s="109"/>
+      <c r="G134" s="112"/>
+      <c r="H134" s="109"/>
+      <c r="I134" s="109"/>
+      <c r="J134" s="114"/>
+      <c r="K134" s="114"/>
+      <c r="L134" s="119"/>
+      <c r="M134" s="114"/>
+      <c r="N134" s="138"/>
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
       <c r="Q134" s="18"/>
@@ -20734,22 +20738,22 @@
       <c r="D135" s="46"/>
       <c r="E135" s="60"/>
       <c r="F135" s="105"/>
-      <c r="G135" s="183" t="s">
+      <c r="G135" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H135" s="152"/>
-      <c r="I135" s="152"/>
-      <c r="J135" s="119" t="s">
+      <c r="H135" s="109"/>
+      <c r="I135" s="109"/>
+      <c r="J135" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="K135" s="182"/>
-      <c r="L135" s="119" t="s">
+      <c r="K135" s="115"/>
+      <c r="L135" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="M135" s="116" t="s">
+      <c r="M135" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="N135" s="109"/>
+      <c r="N135" s="138"/>
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
       <c r="Q135" s="18"/>
@@ -20869,14 +20873,14 @@
       <c r="D136" s="46"/>
       <c r="E136" s="60"/>
       <c r="F136" s="105"/>
-      <c r="G136" s="184"/>
-      <c r="H136" s="153"/>
-      <c r="I136" s="153"/>
-      <c r="J136" s="120"/>
-      <c r="K136" s="117"/>
-      <c r="L136" s="120"/>
-      <c r="M136" s="117"/>
-      <c r="N136" s="110"/>
+      <c r="G136" s="117"/>
+      <c r="H136" s="110"/>
+      <c r="I136" s="110"/>
+      <c r="J136" s="119"/>
+      <c r="K136" s="114"/>
+      <c r="L136" s="119"/>
+      <c r="M136" s="114"/>
+      <c r="N136" s="139"/>
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
       <c r="Q136" s="18"/>
@@ -20995,18 +20999,18 @@
       <c r="C137" s="2"/>
       <c r="D137" s="46"/>
       <c r="E137" s="61"/>
-      <c r="F137" s="148" t="s">
+      <c r="F137" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="G137" s="160"/>
-      <c r="H137" s="139"/>
-      <c r="I137" s="139"/>
-      <c r="J137" s="119"/>
-      <c r="K137" s="119"/>
-      <c r="L137" s="119" t="s">
+      <c r="G137" s="144"/>
+      <c r="H137" s="140"/>
+      <c r="I137" s="140"/>
+      <c r="J137" s="118"/>
+      <c r="K137" s="118"/>
+      <c r="L137" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="M137" s="119"/>
+      <c r="M137" s="118"/>
       <c r="N137" s="141"/>
       <c r="O137" s="18"/>
       <c r="P137" s="18"/>
@@ -21126,14 +21130,14 @@
       <c r="C138" s="2"/>
       <c r="D138" s="46"/>
       <c r="E138" s="60"/>
-      <c r="F138" s="178"/>
-      <c r="G138" s="162"/>
-      <c r="H138" s="139"/>
-      <c r="I138" s="139"/>
-      <c r="J138" s="120"/>
-      <c r="K138" s="120"/>
-      <c r="L138" s="120"/>
-      <c r="M138" s="120"/>
+      <c r="F138" s="155"/>
+      <c r="G138" s="147"/>
+      <c r="H138" s="140"/>
+      <c r="I138" s="140"/>
+      <c r="J138" s="119"/>
+      <c r="K138" s="119"/>
+      <c r="L138" s="119"/>
+      <c r="M138" s="119"/>
       <c r="N138" s="141"/>
       <c r="O138" s="18"/>
       <c r="P138" s="18"/>
@@ -21251,19 +21255,19 @@
       <c r="A139" s="19"/>
       <c r="B139" s="51"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="147" t="s">
+      <c r="D139" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="E139" s="128"/>
-      <c r="F139" s="128"/>
-      <c r="G139" s="128"/>
-      <c r="H139" s="114"/>
-      <c r="I139" s="118"/>
-      <c r="J139" s="114"/>
-      <c r="K139" s="114"/>
-      <c r="L139" s="114"/>
-      <c r="M139" s="114"/>
-      <c r="N139" s="135"/>
+      <c r="E139" s="158"/>
+      <c r="F139" s="158"/>
+      <c r="G139" s="158"/>
+      <c r="H139" s="130"/>
+      <c r="I139" s="136"/>
+      <c r="J139" s="130"/>
+      <c r="K139" s="130"/>
+      <c r="L139" s="130"/>
+      <c r="M139" s="130"/>
+      <c r="N139" s="129"/>
       <c r="O139" s="42"/>
       <c r="P139" s="43"/>
       <c r="Q139" s="43"/>
@@ -21380,17 +21384,17 @@
       <c r="A140" s="19"/>
       <c r="B140" s="51"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="129"/>
-      <c r="E140" s="130"/>
-      <c r="F140" s="130"/>
-      <c r="G140" s="130"/>
-      <c r="H140" s="115"/>
-      <c r="I140" s="118"/>
-      <c r="J140" s="115"/>
-      <c r="K140" s="115"/>
-      <c r="L140" s="115"/>
-      <c r="M140" s="115"/>
-      <c r="N140" s="135"/>
+      <c r="D140" s="159"/>
+      <c r="E140" s="160"/>
+      <c r="F140" s="160"/>
+      <c r="G140" s="160"/>
+      <c r="H140" s="131"/>
+      <c r="I140" s="136"/>
+      <c r="J140" s="131"/>
+      <c r="K140" s="131"/>
+      <c r="L140" s="131"/>
+      <c r="M140" s="131"/>
+      <c r="N140" s="129"/>
       <c r="O140" s="44"/>
       <c r="P140" s="31"/>
       <c r="Q140" s="31"/>
@@ -21508,18 +21512,18 @@
       <c r="B141" s="24"/>
       <c r="C141" s="2"/>
       <c r="D141" s="55"/>
-      <c r="E141" s="154" t="s">
+      <c r="E141" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="F141" s="154"/>
-      <c r="G141" s="155"/>
-      <c r="H141" s="114"/>
-      <c r="I141" s="118"/>
-      <c r="J141" s="114"/>
-      <c r="K141" s="114"/>
-      <c r="L141" s="114"/>
-      <c r="M141" s="114"/>
-      <c r="N141" s="135"/>
+      <c r="F141" s="132"/>
+      <c r="G141" s="133"/>
+      <c r="H141" s="130"/>
+      <c r="I141" s="136"/>
+      <c r="J141" s="130"/>
+      <c r="K141" s="130"/>
+      <c r="L141" s="130"/>
+      <c r="M141" s="130"/>
+      <c r="N141" s="129"/>
       <c r="O141" s="42"/>
       <c r="P141" s="43"/>
       <c r="Q141" s="43"/>
@@ -21637,16 +21641,16 @@
       <c r="B142" s="24"/>
       <c r="C142" s="2"/>
       <c r="D142" s="56"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="166"/>
-      <c r="H142" s="115"/>
-      <c r="I142" s="118"/>
-      <c r="J142" s="115"/>
-      <c r="K142" s="115"/>
-      <c r="L142" s="115"/>
-      <c r="M142" s="115"/>
-      <c r="N142" s="135"/>
+      <c r="E142" s="134"/>
+      <c r="F142" s="134"/>
+      <c r="G142" s="135"/>
+      <c r="H142" s="131"/>
+      <c r="I142" s="136"/>
+      <c r="J142" s="131"/>
+      <c r="K142" s="131"/>
+      <c r="L142" s="131"/>
+      <c r="M142" s="131"/>
+      <c r="N142" s="129"/>
       <c r="O142" s="44"/>
       <c r="P142" s="31"/>
       <c r="Q142" s="31"/>
@@ -21765,19 +21769,19 @@
       <c r="C143" s="2"/>
       <c r="D143" s="46"/>
       <c r="E143" s="59"/>
-      <c r="F143" s="167" t="s">
+      <c r="F143" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="G143" s="168"/>
-      <c r="H143" s="151">
+      <c r="G143" s="123"/>
+      <c r="H143" s="108">
         <v>3</v>
       </c>
-      <c r="I143" s="151"/>
-      <c r="J143" s="119"/>
-      <c r="K143" s="119"/>
-      <c r="L143" s="119"/>
-      <c r="M143" s="119"/>
-      <c r="N143" s="111"/>
+      <c r="I143" s="108"/>
+      <c r="J143" s="118"/>
+      <c r="K143" s="118"/>
+      <c r="L143" s="118"/>
+      <c r="M143" s="118"/>
+      <c r="N143" s="126"/>
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
       <c r="Q143" s="18"/>
@@ -21896,15 +21900,15 @@
       <c r="C144" s="2"/>
       <c r="D144" s="46"/>
       <c r="E144" s="60"/>
-      <c r="F144" s="169"/>
-      <c r="G144" s="170"/>
-      <c r="H144" s="152"/>
-      <c r="I144" s="152"/>
-      <c r="J144" s="120"/>
-      <c r="K144" s="120"/>
-      <c r="L144" s="120"/>
-      <c r="M144" s="120"/>
-      <c r="N144" s="112"/>
+      <c r="F144" s="124"/>
+      <c r="G144" s="125"/>
+      <c r="H144" s="109"/>
+      <c r="I144" s="109"/>
+      <c r="J144" s="119"/>
+      <c r="K144" s="119"/>
+      <c r="L144" s="119"/>
+      <c r="M144" s="119"/>
+      <c r="N144" s="127"/>
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
       <c r="Q144" s="18"/>
@@ -22024,22 +22028,22 @@
       <c r="D145" s="46"/>
       <c r="E145" s="60"/>
       <c r="F145" s="105"/>
-      <c r="G145" s="180" t="s">
+      <c r="G145" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H145" s="152"/>
-      <c r="I145" s="152"/>
-      <c r="J145" s="119" t="s">
+      <c r="H145" s="109"/>
+      <c r="I145" s="109"/>
+      <c r="J145" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="K145" s="182"/>
-      <c r="L145" s="119" t="s">
+      <c r="K145" s="115"/>
+      <c r="L145" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="M145" s="116" t="s">
+      <c r="M145" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="N145" s="112"/>
+      <c r="N145" s="127"/>
       <c r="O145" s="18"/>
       <c r="P145" s="18"/>
       <c r="Q145" s="18"/>
@@ -22159,14 +22163,14 @@
       <c r="D146" s="46"/>
       <c r="E146" s="60"/>
       <c r="F146" s="105"/>
-      <c r="G146" s="181"/>
-      <c r="H146" s="152"/>
-      <c r="I146" s="152"/>
-      <c r="J146" s="120"/>
-      <c r="K146" s="117"/>
-      <c r="L146" s="120"/>
-      <c r="M146" s="117"/>
-      <c r="N146" s="112"/>
+      <c r="G146" s="112"/>
+      <c r="H146" s="109"/>
+      <c r="I146" s="109"/>
+      <c r="J146" s="119"/>
+      <c r="K146" s="114"/>
+      <c r="L146" s="119"/>
+      <c r="M146" s="114"/>
+      <c r="N146" s="127"/>
       <c r="O146" s="18"/>
       <c r="P146" s="18"/>
       <c r="Q146" s="18"/>
@@ -22286,22 +22290,22 @@
       <c r="D147" s="46"/>
       <c r="E147" s="60"/>
       <c r="F147" s="105"/>
-      <c r="G147" s="183" t="s">
+      <c r="G147" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H147" s="152"/>
-      <c r="I147" s="152"/>
-      <c r="J147" s="119" t="s">
+      <c r="H147" s="109"/>
+      <c r="I147" s="109"/>
+      <c r="J147" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="K147" s="182"/>
-      <c r="L147" s="119" t="s">
+      <c r="K147" s="115"/>
+      <c r="L147" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="M147" s="116" t="s">
+      <c r="M147" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="N147" s="112"/>
+      <c r="N147" s="127"/>
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
       <c r="Q147" s="18"/>
@@ -22421,14 +22425,14 @@
       <c r="D148" s="46"/>
       <c r="E148" s="60"/>
       <c r="F148" s="105"/>
-      <c r="G148" s="184"/>
-      <c r="H148" s="153"/>
-      <c r="I148" s="153"/>
-      <c r="J148" s="120"/>
-      <c r="K148" s="117"/>
-      <c r="L148" s="120"/>
-      <c r="M148" s="117"/>
-      <c r="N148" s="113"/>
+      <c r="G148" s="117"/>
+      <c r="H148" s="110"/>
+      <c r="I148" s="110"/>
+      <c r="J148" s="119"/>
+      <c r="K148" s="114"/>
+      <c r="L148" s="119"/>
+      <c r="M148" s="114"/>
+      <c r="N148" s="128"/>
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
       <c r="Q148" s="18"/>
@@ -22547,19 +22551,19 @@
       <c r="C149" s="2"/>
       <c r="D149" s="46"/>
       <c r="E149" s="61"/>
-      <c r="F149" s="167" t="s">
+      <c r="F149" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="G149" s="168"/>
-      <c r="H149" s="151">
+      <c r="G149" s="123"/>
+      <c r="H149" s="108">
         <v>5</v>
       </c>
-      <c r="I149" s="151"/>
-      <c r="J149" s="119"/>
-      <c r="K149" s="119"/>
-      <c r="L149" s="119"/>
-      <c r="M149" s="119"/>
-      <c r="N149" s="111"/>
+      <c r="I149" s="108"/>
+      <c r="J149" s="118"/>
+      <c r="K149" s="118"/>
+      <c r="L149" s="118"/>
+      <c r="M149" s="118"/>
+      <c r="N149" s="126"/>
       <c r="O149" s="18"/>
       <c r="P149" s="18"/>
       <c r="Q149" s="18"/>
@@ -22678,15 +22682,15 @@
       <c r="C150" s="2"/>
       <c r="D150" s="46"/>
       <c r="E150" s="58"/>
-      <c r="F150" s="169"/>
-      <c r="G150" s="170"/>
-      <c r="H150" s="152"/>
-      <c r="I150" s="152"/>
-      <c r="J150" s="120"/>
-      <c r="K150" s="120"/>
-      <c r="L150" s="120"/>
-      <c r="M150" s="120"/>
-      <c r="N150" s="112"/>
+      <c r="F150" s="124"/>
+      <c r="G150" s="125"/>
+      <c r="H150" s="109"/>
+      <c r="I150" s="109"/>
+      <c r="J150" s="119"/>
+      <c r="K150" s="119"/>
+      <c r="L150" s="119"/>
+      <c r="M150" s="119"/>
+      <c r="N150" s="127"/>
       <c r="O150" s="18"/>
       <c r="P150" s="18"/>
       <c r="Q150" s="18"/>
@@ -22806,22 +22810,22 @@
       <c r="D151" s="46"/>
       <c r="E151" s="60"/>
       <c r="F151" s="105"/>
-      <c r="G151" s="180" t="s">
+      <c r="G151" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H151" s="152"/>
-      <c r="I151" s="152"/>
-      <c r="J151" s="119" t="s">
+      <c r="H151" s="109"/>
+      <c r="I151" s="109"/>
+      <c r="J151" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="K151" s="182"/>
-      <c r="L151" s="119" t="s">
+      <c r="K151" s="115"/>
+      <c r="L151" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="M151" s="116" t="s">
+      <c r="M151" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="N151" s="112"/>
+      <c r="N151" s="127"/>
       <c r="O151" s="18"/>
       <c r="P151" s="18"/>
       <c r="Q151" s="18"/>
@@ -22941,14 +22945,14 @@
       <c r="D152" s="46"/>
       <c r="E152" s="60"/>
       <c r="F152" s="105"/>
-      <c r="G152" s="181"/>
-      <c r="H152" s="152"/>
-      <c r="I152" s="152"/>
-      <c r="J152" s="120"/>
-      <c r="K152" s="117"/>
-      <c r="L152" s="120"/>
-      <c r="M152" s="117"/>
-      <c r="N152" s="112"/>
+      <c r="G152" s="112"/>
+      <c r="H152" s="109"/>
+      <c r="I152" s="109"/>
+      <c r="J152" s="119"/>
+      <c r="K152" s="114"/>
+      <c r="L152" s="119"/>
+      <c r="M152" s="114"/>
+      <c r="N152" s="127"/>
       <c r="O152" s="18"/>
       <c r="P152" s="18"/>
       <c r="Q152" s="18"/>
@@ -23068,22 +23072,22 @@
       <c r="D153" s="46"/>
       <c r="E153" s="60"/>
       <c r="F153" s="105"/>
-      <c r="G153" s="183" t="s">
+      <c r="G153" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H153" s="152"/>
-      <c r="I153" s="152"/>
-      <c r="J153" s="119" t="s">
+      <c r="H153" s="109"/>
+      <c r="I153" s="109"/>
+      <c r="J153" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="K153" s="182"/>
-      <c r="L153" s="119" t="s">
+      <c r="K153" s="115"/>
+      <c r="L153" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="M153" s="116" t="s">
+      <c r="M153" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="N153" s="112"/>
+      <c r="N153" s="127"/>
       <c r="O153" s="18"/>
       <c r="P153" s="18"/>
       <c r="Q153" s="18"/>
@@ -23203,14 +23207,14 @@
       <c r="D154" s="46"/>
       <c r="E154" s="60"/>
       <c r="F154" s="105"/>
-      <c r="G154" s="184"/>
-      <c r="H154" s="153"/>
-      <c r="I154" s="153"/>
-      <c r="J154" s="120"/>
-      <c r="K154" s="117"/>
-      <c r="L154" s="120"/>
-      <c r="M154" s="117"/>
-      <c r="N154" s="113"/>
+      <c r="G154" s="117"/>
+      <c r="H154" s="110"/>
+      <c r="I154" s="110"/>
+      <c r="J154" s="119"/>
+      <c r="K154" s="114"/>
+      <c r="L154" s="119"/>
+      <c r="M154" s="114"/>
+      <c r="N154" s="128"/>
       <c r="O154" s="18"/>
       <c r="P154" s="18"/>
       <c r="Q154" s="18"/>
@@ -23329,18 +23333,18 @@
       <c r="C155" s="2"/>
       <c r="D155" s="46"/>
       <c r="E155" s="58"/>
-      <c r="F155" s="167" t="s">
+      <c r="F155" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="G155" s="168"/>
-      <c r="H155" s="139"/>
-      <c r="I155" s="139"/>
-      <c r="J155" s="119"/>
-      <c r="K155" s="119"/>
-      <c r="L155" s="119" t="s">
+      <c r="G155" s="123"/>
+      <c r="H155" s="140"/>
+      <c r="I155" s="140"/>
+      <c r="J155" s="118"/>
+      <c r="K155" s="118"/>
+      <c r="L155" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="M155" s="119"/>
+      <c r="M155" s="118"/>
       <c r="N155" s="141"/>
       <c r="O155" s="18"/>
       <c r="P155" s="18"/>
@@ -23460,14 +23464,14 @@
       <c r="C156" s="2"/>
       <c r="D156" s="46"/>
       <c r="E156" s="63"/>
-      <c r="F156" s="169"/>
-      <c r="G156" s="170"/>
-      <c r="H156" s="139"/>
-      <c r="I156" s="139"/>
-      <c r="J156" s="120"/>
-      <c r="K156" s="120"/>
-      <c r="L156" s="120"/>
-      <c r="M156" s="120"/>
+      <c r="F156" s="124"/>
+      <c r="G156" s="125"/>
+      <c r="H156" s="140"/>
+      <c r="I156" s="140"/>
+      <c r="J156" s="119"/>
+      <c r="K156" s="119"/>
+      <c r="L156" s="119"/>
+      <c r="M156" s="119"/>
       <c r="N156" s="141"/>
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
@@ -23586,18 +23590,18 @@
       <c r="B157" s="24"/>
       <c r="C157" s="2"/>
       <c r="D157" s="46"/>
-      <c r="E157" s="165" t="s">
+      <c r="E157" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="F157" s="156"/>
-      <c r="G157" s="166"/>
-      <c r="H157" s="114"/>
-      <c r="I157" s="118"/>
-      <c r="J157" s="118"/>
-      <c r="K157" s="118"/>
-      <c r="L157" s="118"/>
-      <c r="M157" s="118"/>
-      <c r="N157" s="135"/>
+      <c r="F157" s="134"/>
+      <c r="G157" s="135"/>
+      <c r="H157" s="130"/>
+      <c r="I157" s="136"/>
+      <c r="J157" s="136"/>
+      <c r="K157" s="136"/>
+      <c r="L157" s="136"/>
+      <c r="M157" s="136"/>
+      <c r="N157" s="129"/>
       <c r="O157" s="43"/>
       <c r="P157" s="43"/>
       <c r="Q157" s="43"/>
@@ -23715,16 +23719,16 @@
       <c r="B158" s="24"/>
       <c r="C158" s="2"/>
       <c r="D158" s="46"/>
-      <c r="E158" s="165"/>
-      <c r="F158" s="156"/>
-      <c r="G158" s="166"/>
-      <c r="H158" s="115"/>
-      <c r="I158" s="118"/>
-      <c r="J158" s="118"/>
-      <c r="K158" s="118"/>
-      <c r="L158" s="118"/>
-      <c r="M158" s="118"/>
-      <c r="N158" s="135"/>
+      <c r="E158" s="142"/>
+      <c r="F158" s="134"/>
+      <c r="G158" s="135"/>
+      <c r="H158" s="131"/>
+      <c r="I158" s="136"/>
+      <c r="J158" s="136"/>
+      <c r="K158" s="136"/>
+      <c r="L158" s="136"/>
+      <c r="M158" s="136"/>
+      <c r="N158" s="129"/>
       <c r="O158" s="31"/>
       <c r="P158" s="31"/>
       <c r="Q158" s="31"/>
@@ -23843,19 +23847,19 @@
       <c r="C159" s="2"/>
       <c r="D159" s="46"/>
       <c r="E159" s="57"/>
-      <c r="F159" s="167" t="s">
+      <c r="F159" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="G159" s="168"/>
-      <c r="H159" s="151">
+      <c r="G159" s="123"/>
+      <c r="H159" s="108">
         <v>3</v>
       </c>
-      <c r="I159" s="151"/>
-      <c r="J159" s="119"/>
-      <c r="K159" s="119"/>
-      <c r="L159" s="119"/>
-      <c r="M159" s="119"/>
-      <c r="N159" s="108"/>
+      <c r="I159" s="108"/>
+      <c r="J159" s="118"/>
+      <c r="K159" s="118"/>
+      <c r="L159" s="118"/>
+      <c r="M159" s="118"/>
+      <c r="N159" s="137"/>
       <c r="O159" s="18"/>
       <c r="P159" s="18"/>
       <c r="Q159" s="18"/>
@@ -23974,15 +23978,15 @@
       <c r="C160" s="2"/>
       <c r="D160" s="46"/>
       <c r="E160" s="58"/>
-      <c r="F160" s="169"/>
-      <c r="G160" s="170"/>
-      <c r="H160" s="152"/>
-      <c r="I160" s="152"/>
-      <c r="J160" s="120"/>
-      <c r="K160" s="120"/>
-      <c r="L160" s="120"/>
-      <c r="M160" s="120"/>
-      <c r="N160" s="109"/>
+      <c r="F160" s="124"/>
+      <c r="G160" s="125"/>
+      <c r="H160" s="109"/>
+      <c r="I160" s="109"/>
+      <c r="J160" s="119"/>
+      <c r="K160" s="119"/>
+      <c r="L160" s="119"/>
+      <c r="M160" s="119"/>
+      <c r="N160" s="138"/>
       <c r="O160" s="18"/>
       <c r="P160" s="18"/>
       <c r="Q160" s="18"/>
@@ -24102,22 +24106,22 @@
       <c r="D161" s="46"/>
       <c r="E161" s="60"/>
       <c r="F161" s="105"/>
-      <c r="G161" s="180" t="s">
+      <c r="G161" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H161" s="152"/>
-      <c r="I161" s="152"/>
-      <c r="J161" s="119" t="s">
+      <c r="H161" s="109"/>
+      <c r="I161" s="109"/>
+      <c r="J161" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="K161" s="182"/>
-      <c r="L161" s="119" t="s">
+      <c r="K161" s="115"/>
+      <c r="L161" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="M161" s="116" t="s">
+      <c r="M161" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="N161" s="109"/>
+      <c r="N161" s="138"/>
       <c r="O161" s="18"/>
       <c r="P161" s="18"/>
       <c r="Q161" s="18"/>
@@ -24237,14 +24241,14 @@
       <c r="D162" s="46"/>
       <c r="E162" s="60"/>
       <c r="F162" s="105"/>
-      <c r="G162" s="181"/>
-      <c r="H162" s="152"/>
-      <c r="I162" s="152"/>
-      <c r="J162" s="120"/>
-      <c r="K162" s="117"/>
-      <c r="L162" s="120"/>
-      <c r="M162" s="117"/>
-      <c r="N162" s="109"/>
+      <c r="G162" s="112"/>
+      <c r="H162" s="109"/>
+      <c r="I162" s="109"/>
+      <c r="J162" s="119"/>
+      <c r="K162" s="114"/>
+      <c r="L162" s="119"/>
+      <c r="M162" s="114"/>
+      <c r="N162" s="138"/>
       <c r="O162" s="18"/>
       <c r="P162" s="18"/>
       <c r="Q162" s="18"/>
@@ -24364,22 +24368,22 @@
       <c r="D163" s="46"/>
       <c r="E163" s="60"/>
       <c r="F163" s="105"/>
-      <c r="G163" s="183" t="s">
+      <c r="G163" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H163" s="152"/>
-      <c r="I163" s="152"/>
-      <c r="J163" s="116" t="s">
+      <c r="H163" s="109"/>
+      <c r="I163" s="109"/>
+      <c r="J163" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="K163" s="182"/>
-      <c r="L163" s="119" t="s">
+      <c r="K163" s="115"/>
+      <c r="L163" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="M163" s="116" t="s">
+      <c r="M163" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="N163" s="109"/>
+      <c r="N163" s="138"/>
       <c r="O163" s="18"/>
       <c r="P163" s="18"/>
       <c r="Q163" s="18"/>
@@ -24499,14 +24503,14 @@
       <c r="D164" s="46"/>
       <c r="E164" s="60"/>
       <c r="F164" s="105"/>
-      <c r="G164" s="184"/>
-      <c r="H164" s="153"/>
-      <c r="I164" s="153"/>
-      <c r="J164" s="117"/>
-      <c r="K164" s="117"/>
-      <c r="L164" s="120"/>
-      <c r="M164" s="117"/>
-      <c r="N164" s="110"/>
+      <c r="G164" s="117"/>
+      <c r="H164" s="110"/>
+      <c r="I164" s="110"/>
+      <c r="J164" s="114"/>
+      <c r="K164" s="114"/>
+      <c r="L164" s="119"/>
+      <c r="M164" s="114"/>
+      <c r="N164" s="139"/>
       <c r="O164" s="18"/>
       <c r="P164" s="18"/>
       <c r="Q164" s="18"/>
@@ -24625,19 +24629,19 @@
       <c r="C165" s="2"/>
       <c r="D165" s="46"/>
       <c r="E165" s="58"/>
-      <c r="F165" s="167" t="s">
+      <c r="F165" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="G165" s="168"/>
-      <c r="H165" s="151">
+      <c r="G165" s="123"/>
+      <c r="H165" s="108">
         <v>2</v>
       </c>
-      <c r="I165" s="151"/>
-      <c r="J165" s="119"/>
-      <c r="K165" s="119"/>
-      <c r="L165" s="119"/>
-      <c r="M165" s="119"/>
-      <c r="N165" s="108"/>
+      <c r="I165" s="108"/>
+      <c r="J165" s="118"/>
+      <c r="K165" s="118"/>
+      <c r="L165" s="118"/>
+      <c r="M165" s="118"/>
+      <c r="N165" s="137"/>
       <c r="O165" s="18"/>
       <c r="P165" s="18"/>
       <c r="Q165" s="18"/>
@@ -24756,15 +24760,15 @@
       <c r="C166" s="2"/>
       <c r="D166" s="46"/>
       <c r="E166" s="58"/>
-      <c r="F166" s="169"/>
-      <c r="G166" s="170"/>
-      <c r="H166" s="152"/>
-      <c r="I166" s="152"/>
-      <c r="J166" s="120"/>
-      <c r="K166" s="120"/>
-      <c r="L166" s="120"/>
-      <c r="M166" s="120"/>
-      <c r="N166" s="109"/>
+      <c r="F166" s="124"/>
+      <c r="G166" s="125"/>
+      <c r="H166" s="109"/>
+      <c r="I166" s="109"/>
+      <c r="J166" s="119"/>
+      <c r="K166" s="119"/>
+      <c r="L166" s="119"/>
+      <c r="M166" s="119"/>
+      <c r="N166" s="138"/>
       <c r="O166" s="18"/>
       <c r="P166" s="18"/>
       <c r="Q166" s="18"/>
@@ -24884,22 +24888,22 @@
       <c r="D167" s="46"/>
       <c r="E167" s="60"/>
       <c r="F167" s="105"/>
-      <c r="G167" s="180" t="s">
+      <c r="G167" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H167" s="152"/>
-      <c r="I167" s="152"/>
-      <c r="J167" s="116" t="s">
+      <c r="H167" s="109"/>
+      <c r="I167" s="109"/>
+      <c r="J167" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="K167" s="182"/>
-      <c r="L167" s="119" t="s">
+      <c r="K167" s="115"/>
+      <c r="L167" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="M167" s="119" t="s">
+      <c r="M167" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="N167" s="109"/>
+      <c r="N167" s="138"/>
       <c r="O167" s="18"/>
       <c r="P167" s="18"/>
       <c r="Q167" s="18"/>
@@ -25019,14 +25023,14 @@
       <c r="D168" s="46"/>
       <c r="E168" s="60"/>
       <c r="F168" s="105"/>
-      <c r="G168" s="181"/>
-      <c r="H168" s="152"/>
-      <c r="I168" s="152"/>
-      <c r="J168" s="117"/>
-      <c r="K168" s="117"/>
-      <c r="L168" s="120"/>
-      <c r="M168" s="120"/>
-      <c r="N168" s="109"/>
+      <c r="G168" s="112"/>
+      <c r="H168" s="109"/>
+      <c r="I168" s="109"/>
+      <c r="J168" s="114"/>
+      <c r="K168" s="114"/>
+      <c r="L168" s="119"/>
+      <c r="M168" s="119"/>
+      <c r="N168" s="138"/>
       <c r="O168" s="18"/>
       <c r="P168" s="18"/>
       <c r="Q168" s="18"/>
@@ -25146,22 +25150,22 @@
       <c r="D169" s="46"/>
       <c r="E169" s="60"/>
       <c r="F169" s="105"/>
-      <c r="G169" s="183" t="s">
+      <c r="G169" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H169" s="152"/>
-      <c r="I169" s="152"/>
-      <c r="J169" s="116" t="s">
+      <c r="H169" s="109"/>
+      <c r="I169" s="109"/>
+      <c r="J169" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="K169" s="182"/>
-      <c r="L169" s="119" t="s">
+      <c r="K169" s="115"/>
+      <c r="L169" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="M169" s="116" t="s">
+      <c r="M169" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="N169" s="109"/>
+      <c r="N169" s="138"/>
       <c r="O169" s="18"/>
       <c r="P169" s="18"/>
       <c r="Q169" s="18"/>
@@ -25281,14 +25285,14 @@
       <c r="D170" s="46"/>
       <c r="E170" s="60"/>
       <c r="F170" s="105"/>
-      <c r="G170" s="184"/>
-      <c r="H170" s="153"/>
-      <c r="I170" s="153"/>
-      <c r="J170" s="117"/>
-      <c r="K170" s="117"/>
-      <c r="L170" s="120"/>
-      <c r="M170" s="117"/>
-      <c r="N170" s="110"/>
+      <c r="G170" s="117"/>
+      <c r="H170" s="110"/>
+      <c r="I170" s="110"/>
+      <c r="J170" s="114"/>
+      <c r="K170" s="114"/>
+      <c r="L170" s="119"/>
+      <c r="M170" s="114"/>
+      <c r="N170" s="139"/>
       <c r="O170" s="18"/>
       <c r="P170" s="18"/>
       <c r="Q170" s="18"/>
@@ -25407,19 +25411,19 @@
       <c r="C171" s="2"/>
       <c r="D171" s="46"/>
       <c r="E171" s="58"/>
-      <c r="F171" s="167" t="s">
+      <c r="F171" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="G171" s="168"/>
-      <c r="H171" s="151">
+      <c r="G171" s="123"/>
+      <c r="H171" s="108">
         <v>8</v>
       </c>
-      <c r="I171" s="151"/>
-      <c r="J171" s="119"/>
-      <c r="K171" s="119"/>
-      <c r="L171" s="119"/>
-      <c r="M171" s="119"/>
-      <c r="N171" s="108"/>
+      <c r="I171" s="108"/>
+      <c r="J171" s="118"/>
+      <c r="K171" s="118"/>
+      <c r="L171" s="118"/>
+      <c r="M171" s="118"/>
+      <c r="N171" s="137"/>
       <c r="O171" s="18"/>
       <c r="P171" s="18"/>
       <c r="Q171" s="18"/>
@@ -25538,15 +25542,15 @@
       <c r="C172" s="2"/>
       <c r="D172" s="46"/>
       <c r="E172" s="58"/>
-      <c r="F172" s="169"/>
-      <c r="G172" s="170"/>
-      <c r="H172" s="152"/>
-      <c r="I172" s="152"/>
-      <c r="J172" s="120"/>
-      <c r="K172" s="120"/>
-      <c r="L172" s="120"/>
-      <c r="M172" s="120"/>
-      <c r="N172" s="109"/>
+      <c r="F172" s="124"/>
+      <c r="G172" s="125"/>
+      <c r="H172" s="109"/>
+      <c r="I172" s="109"/>
+      <c r="J172" s="119"/>
+      <c r="K172" s="119"/>
+      <c r="L172" s="119"/>
+      <c r="M172" s="119"/>
+      <c r="N172" s="138"/>
       <c r="O172" s="18"/>
       <c r="P172" s="18"/>
       <c r="Q172" s="18"/>
@@ -25666,22 +25670,22 @@
       <c r="D173" s="46"/>
       <c r="E173" s="60"/>
       <c r="F173" s="105"/>
-      <c r="G173" s="180" t="s">
+      <c r="G173" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H173" s="152"/>
-      <c r="I173" s="152"/>
-      <c r="J173" s="116" t="s">
+      <c r="H173" s="109"/>
+      <c r="I173" s="109"/>
+      <c r="J173" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="K173" s="182"/>
-      <c r="L173" s="119" t="s">
+      <c r="K173" s="115"/>
+      <c r="L173" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="M173" s="119" t="s">
+      <c r="M173" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="N173" s="109"/>
+      <c r="N173" s="138"/>
       <c r="O173" s="18"/>
       <c r="P173" s="18"/>
       <c r="Q173" s="18"/>
@@ -25801,14 +25805,14 @@
       <c r="D174" s="46"/>
       <c r="E174" s="60"/>
       <c r="F174" s="105"/>
-      <c r="G174" s="181"/>
-      <c r="H174" s="152"/>
-      <c r="I174" s="152"/>
-      <c r="J174" s="117"/>
-      <c r="K174" s="117"/>
-      <c r="L174" s="120"/>
-      <c r="M174" s="120"/>
-      <c r="N174" s="109"/>
+      <c r="G174" s="112"/>
+      <c r="H174" s="109"/>
+      <c r="I174" s="109"/>
+      <c r="J174" s="114"/>
+      <c r="K174" s="114"/>
+      <c r="L174" s="119"/>
+      <c r="M174" s="119"/>
+      <c r="N174" s="138"/>
       <c r="O174" s="18"/>
       <c r="P174" s="18"/>
       <c r="Q174" s="18"/>
@@ -25928,22 +25932,22 @@
       <c r="D175" s="46"/>
       <c r="E175" s="60"/>
       <c r="F175" s="105"/>
-      <c r="G175" s="183" t="s">
+      <c r="G175" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H175" s="152"/>
-      <c r="I175" s="152"/>
-      <c r="J175" s="116" t="s">
+      <c r="H175" s="109"/>
+      <c r="I175" s="109"/>
+      <c r="J175" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="K175" s="182"/>
-      <c r="L175" s="119" t="s">
+      <c r="K175" s="115"/>
+      <c r="L175" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="M175" s="116" t="s">
+      <c r="M175" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="N175" s="109"/>
+      <c r="N175" s="138"/>
       <c r="O175" s="18"/>
       <c r="P175" s="18"/>
       <c r="Q175" s="18"/>
@@ -26063,14 +26067,14 @@
       <c r="D176" s="46"/>
       <c r="E176" s="60"/>
       <c r="F176" s="105"/>
-      <c r="G176" s="184"/>
-      <c r="H176" s="153"/>
-      <c r="I176" s="153"/>
-      <c r="J176" s="117"/>
-      <c r="K176" s="117"/>
-      <c r="L176" s="120"/>
-      <c r="M176" s="117"/>
-      <c r="N176" s="110"/>
+      <c r="G176" s="117"/>
+      <c r="H176" s="110"/>
+      <c r="I176" s="110"/>
+      <c r="J176" s="114"/>
+      <c r="K176" s="114"/>
+      <c r="L176" s="119"/>
+      <c r="M176" s="114"/>
+      <c r="N176" s="139"/>
       <c r="O176" s="18"/>
       <c r="P176" s="18"/>
       <c r="Q176" s="18"/>
@@ -26189,19 +26193,19 @@
       <c r="C177" s="2"/>
       <c r="D177" s="46"/>
       <c r="E177" s="58"/>
-      <c r="F177" s="167" t="s">
+      <c r="F177" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="G177" s="168"/>
-      <c r="H177" s="151">
+      <c r="G177" s="123"/>
+      <c r="H177" s="108">
         <v>7</v>
       </c>
-      <c r="I177" s="151"/>
-      <c r="J177" s="119"/>
-      <c r="K177" s="119"/>
-      <c r="L177" s="119"/>
-      <c r="M177" s="119"/>
-      <c r="N177" s="108"/>
+      <c r="I177" s="108"/>
+      <c r="J177" s="118"/>
+      <c r="K177" s="118"/>
+      <c r="L177" s="118"/>
+      <c r="M177" s="118"/>
+      <c r="N177" s="137"/>
       <c r="O177" s="18"/>
       <c r="P177" s="18"/>
       <c r="Q177" s="18"/>
@@ -26320,15 +26324,15 @@
       <c r="C178" s="2"/>
       <c r="D178" s="46"/>
       <c r="E178" s="58"/>
-      <c r="F178" s="169"/>
-      <c r="G178" s="170"/>
-      <c r="H178" s="152"/>
-      <c r="I178" s="152"/>
-      <c r="J178" s="120"/>
-      <c r="K178" s="120"/>
-      <c r="L178" s="120"/>
-      <c r="M178" s="120"/>
-      <c r="N178" s="109"/>
+      <c r="F178" s="124"/>
+      <c r="G178" s="125"/>
+      <c r="H178" s="109"/>
+      <c r="I178" s="109"/>
+      <c r="J178" s="119"/>
+      <c r="K178" s="119"/>
+      <c r="L178" s="119"/>
+      <c r="M178" s="119"/>
+      <c r="N178" s="138"/>
       <c r="O178" s="18"/>
       <c r="P178" s="18"/>
       <c r="Q178" s="18"/>
@@ -26448,22 +26452,22 @@
       <c r="D179" s="46"/>
       <c r="E179" s="60"/>
       <c r="F179" s="105"/>
-      <c r="G179" s="180" t="s">
+      <c r="G179" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H179" s="152"/>
-      <c r="I179" s="152"/>
-      <c r="J179" s="116" t="s">
+      <c r="H179" s="109"/>
+      <c r="I179" s="109"/>
+      <c r="J179" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="K179" s="182"/>
-      <c r="L179" s="119" t="s">
+      <c r="K179" s="115"/>
+      <c r="L179" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="M179" s="119" t="s">
+      <c r="M179" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="N179" s="109"/>
+      <c r="N179" s="138"/>
       <c r="O179" s="18"/>
       <c r="P179" s="18"/>
       <c r="Q179" s="18"/>
@@ -26583,14 +26587,14 @@
       <c r="D180" s="46"/>
       <c r="E180" s="60"/>
       <c r="F180" s="105"/>
-      <c r="G180" s="181"/>
-      <c r="H180" s="152"/>
-      <c r="I180" s="152"/>
-      <c r="J180" s="117"/>
-      <c r="K180" s="117"/>
-      <c r="L180" s="120"/>
-      <c r="M180" s="120"/>
-      <c r="N180" s="109"/>
+      <c r="G180" s="112"/>
+      <c r="H180" s="109"/>
+      <c r="I180" s="109"/>
+      <c r="J180" s="114"/>
+      <c r="K180" s="114"/>
+      <c r="L180" s="119"/>
+      <c r="M180" s="119"/>
+      <c r="N180" s="138"/>
       <c r="O180" s="18"/>
       <c r="P180" s="18"/>
       <c r="Q180" s="18"/>
@@ -26710,22 +26714,22 @@
       <c r="D181" s="46"/>
       <c r="E181" s="60"/>
       <c r="F181" s="105"/>
-      <c r="G181" s="183" t="s">
+      <c r="G181" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H181" s="152"/>
-      <c r="I181" s="152"/>
-      <c r="J181" s="116" t="s">
+      <c r="H181" s="109"/>
+      <c r="I181" s="109"/>
+      <c r="J181" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="K181" s="182"/>
-      <c r="L181" s="119" t="s">
+      <c r="K181" s="115"/>
+      <c r="L181" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="M181" s="119" t="s">
+      <c r="M181" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="N181" s="109"/>
+      <c r="N181" s="138"/>
       <c r="O181" s="18"/>
       <c r="P181" s="18"/>
       <c r="Q181" s="18"/>
@@ -26845,14 +26849,14 @@
       <c r="D182" s="46"/>
       <c r="E182" s="60"/>
       <c r="F182" s="105"/>
-      <c r="G182" s="184"/>
-      <c r="H182" s="153"/>
-      <c r="I182" s="153"/>
-      <c r="J182" s="117"/>
-      <c r="K182" s="117"/>
-      <c r="L182" s="120"/>
-      <c r="M182" s="120"/>
-      <c r="N182" s="110"/>
+      <c r="G182" s="117"/>
+      <c r="H182" s="110"/>
+      <c r="I182" s="110"/>
+      <c r="J182" s="114"/>
+      <c r="K182" s="114"/>
+      <c r="L182" s="119"/>
+      <c r="M182" s="119"/>
+      <c r="N182" s="139"/>
       <c r="O182" s="18"/>
       <c r="P182" s="18"/>
       <c r="Q182" s="18"/>
@@ -26971,19 +26975,19 @@
       <c r="C183" s="2"/>
       <c r="D183" s="46"/>
       <c r="E183" s="58"/>
-      <c r="F183" s="167" t="s">
+      <c r="F183" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="G183" s="168"/>
-      <c r="H183" s="151">
+      <c r="G183" s="123"/>
+      <c r="H183" s="108">
         <v>5</v>
       </c>
-      <c r="I183" s="151"/>
-      <c r="J183" s="119"/>
-      <c r="K183" s="119"/>
-      <c r="L183" s="119"/>
-      <c r="M183" s="119"/>
-      <c r="N183" s="108"/>
+      <c r="I183" s="108"/>
+      <c r="J183" s="118"/>
+      <c r="K183" s="118"/>
+      <c r="L183" s="118"/>
+      <c r="M183" s="118"/>
+      <c r="N183" s="137"/>
       <c r="O183" s="18"/>
       <c r="P183" s="18"/>
       <c r="Q183" s="18"/>
@@ -27102,15 +27106,15 @@
       <c r="C184" s="2"/>
       <c r="D184" s="46"/>
       <c r="E184" s="58"/>
-      <c r="F184" s="169"/>
-      <c r="G184" s="170"/>
-      <c r="H184" s="152"/>
-      <c r="I184" s="152"/>
-      <c r="J184" s="120"/>
-      <c r="K184" s="120"/>
-      <c r="L184" s="120"/>
-      <c r="M184" s="120"/>
-      <c r="N184" s="109"/>
+      <c r="F184" s="124"/>
+      <c r="G184" s="125"/>
+      <c r="H184" s="109"/>
+      <c r="I184" s="109"/>
+      <c r="J184" s="119"/>
+      <c r="K184" s="119"/>
+      <c r="L184" s="119"/>
+      <c r="M184" s="119"/>
+      <c r="N184" s="138"/>
       <c r="O184" s="18"/>
       <c r="P184" s="18"/>
       <c r="Q184" s="18"/>
@@ -27230,22 +27234,22 @@
       <c r="D185" s="46"/>
       <c r="E185" s="60"/>
       <c r="F185" s="105"/>
-      <c r="G185" s="180" t="s">
+      <c r="G185" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H185" s="152"/>
-      <c r="I185" s="152"/>
-      <c r="J185" s="116" t="s">
+      <c r="H185" s="109"/>
+      <c r="I185" s="109"/>
+      <c r="J185" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="K185" s="182"/>
-      <c r="L185" s="119" t="s">
+      <c r="K185" s="115"/>
+      <c r="L185" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="M185" s="119" t="s">
+      <c r="M185" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="N185" s="109"/>
+      <c r="N185" s="138"/>
       <c r="O185" s="18"/>
       <c r="P185" s="18"/>
       <c r="Q185" s="18"/>
@@ -27365,14 +27369,14 @@
       <c r="D186" s="46"/>
       <c r="E186" s="60"/>
       <c r="F186" s="105"/>
-      <c r="G186" s="181"/>
-      <c r="H186" s="152"/>
-      <c r="I186" s="152"/>
-      <c r="J186" s="117"/>
-      <c r="K186" s="117"/>
-      <c r="L186" s="120"/>
-      <c r="M186" s="120"/>
-      <c r="N186" s="109"/>
+      <c r="G186" s="112"/>
+      <c r="H186" s="109"/>
+      <c r="I186" s="109"/>
+      <c r="J186" s="114"/>
+      <c r="K186" s="114"/>
+      <c r="L186" s="119"/>
+      <c r="M186" s="119"/>
+      <c r="N186" s="138"/>
       <c r="O186" s="18"/>
       <c r="P186" s="18"/>
       <c r="Q186" s="18"/>
@@ -27492,22 +27496,22 @@
       <c r="D187" s="46"/>
       <c r="E187" s="60"/>
       <c r="F187" s="105"/>
-      <c r="G187" s="183" t="s">
+      <c r="G187" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H187" s="152"/>
-      <c r="I187" s="152"/>
-      <c r="J187" s="119" t="s">
+      <c r="H187" s="109"/>
+      <c r="I187" s="109"/>
+      <c r="J187" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="K187" s="182"/>
-      <c r="L187" s="119" t="s">
+      <c r="K187" s="115"/>
+      <c r="L187" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="M187" s="116" t="s">
+      <c r="M187" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="N187" s="109"/>
+      <c r="N187" s="138"/>
       <c r="O187" s="18"/>
       <c r="P187" s="18"/>
       <c r="Q187" s="18"/>
@@ -27627,14 +27631,14 @@
       <c r="D188" s="46"/>
       <c r="E188" s="60"/>
       <c r="F188" s="105"/>
-      <c r="G188" s="184"/>
-      <c r="H188" s="153"/>
-      <c r="I188" s="153"/>
-      <c r="J188" s="120"/>
-      <c r="K188" s="117"/>
-      <c r="L188" s="120"/>
-      <c r="M188" s="117"/>
-      <c r="N188" s="110"/>
+      <c r="G188" s="117"/>
+      <c r="H188" s="110"/>
+      <c r="I188" s="110"/>
+      <c r="J188" s="119"/>
+      <c r="K188" s="114"/>
+      <c r="L188" s="119"/>
+      <c r="M188" s="114"/>
+      <c r="N188" s="139"/>
       <c r="O188" s="18"/>
       <c r="P188" s="18"/>
       <c r="Q188" s="18"/>
@@ -27753,18 +27757,18 @@
       <c r="C189" s="2"/>
       <c r="D189" s="46"/>
       <c r="E189" s="58"/>
-      <c r="F189" s="167" t="s">
+      <c r="F189" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="G189" s="168"/>
-      <c r="H189" s="139"/>
-      <c r="I189" s="139"/>
-      <c r="J189" s="119"/>
-      <c r="K189" s="119"/>
-      <c r="L189" s="119" t="s">
+      <c r="G189" s="123"/>
+      <c r="H189" s="140"/>
+      <c r="I189" s="140"/>
+      <c r="J189" s="118"/>
+      <c r="K189" s="118"/>
+      <c r="L189" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="M189" s="119"/>
+      <c r="M189" s="118"/>
       <c r="N189" s="141"/>
       <c r="O189" s="18"/>
       <c r="P189" s="18"/>
@@ -27884,14 +27888,14 @@
       <c r="C190" s="2"/>
       <c r="D190" s="46"/>
       <c r="E190" s="63"/>
-      <c r="F190" s="169"/>
-      <c r="G190" s="170"/>
-      <c r="H190" s="139"/>
-      <c r="I190" s="139"/>
-      <c r="J190" s="120"/>
-      <c r="K190" s="120"/>
-      <c r="L190" s="120"/>
-      <c r="M190" s="120"/>
+      <c r="F190" s="124"/>
+      <c r="G190" s="125"/>
+      <c r="H190" s="140"/>
+      <c r="I190" s="140"/>
+      <c r="J190" s="119"/>
+      <c r="K190" s="119"/>
+      <c r="L190" s="119"/>
+      <c r="M190" s="119"/>
       <c r="N190" s="141"/>
       <c r="O190" s="18"/>
       <c r="P190" s="18"/>
@@ -28009,19 +28013,19 @@
       <c r="A191" s="19"/>
       <c r="B191" s="51"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="147" t="s">
+      <c r="D191" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="E191" s="128"/>
-      <c r="F191" s="128"/>
-      <c r="G191" s="128"/>
-      <c r="H191" s="114"/>
-      <c r="I191" s="118"/>
-      <c r="J191" s="114"/>
-      <c r="K191" s="114"/>
-      <c r="L191" s="114"/>
-      <c r="M191" s="114"/>
-      <c r="N191" s="135"/>
+      <c r="E191" s="158"/>
+      <c r="F191" s="158"/>
+      <c r="G191" s="158"/>
+      <c r="H191" s="130"/>
+      <c r="I191" s="136"/>
+      <c r="J191" s="130"/>
+      <c r="K191" s="130"/>
+      <c r="L191" s="130"/>
+      <c r="M191" s="130"/>
+      <c r="N191" s="129"/>
       <c r="O191" s="42"/>
       <c r="P191" s="43"/>
       <c r="Q191" s="43"/>
@@ -28138,17 +28142,17 @@
       <c r="A192" s="19"/>
       <c r="B192" s="51"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="129"/>
-      <c r="E192" s="130"/>
-      <c r="F192" s="130"/>
-      <c r="G192" s="130"/>
-      <c r="H192" s="115"/>
-      <c r="I192" s="118"/>
-      <c r="J192" s="115"/>
-      <c r="K192" s="115"/>
-      <c r="L192" s="115"/>
-      <c r="M192" s="115"/>
-      <c r="N192" s="135"/>
+      <c r="D192" s="159"/>
+      <c r="E192" s="160"/>
+      <c r="F192" s="160"/>
+      <c r="G192" s="160"/>
+      <c r="H192" s="131"/>
+      <c r="I192" s="136"/>
+      <c r="J192" s="131"/>
+      <c r="K192" s="131"/>
+      <c r="L192" s="131"/>
+      <c r="M192" s="131"/>
+      <c r="N192" s="129"/>
       <c r="O192" s="44"/>
       <c r="P192" s="31"/>
       <c r="Q192" s="31"/>
@@ -28266,18 +28270,18 @@
       <c r="B193" s="24"/>
       <c r="C193" s="2"/>
       <c r="D193" s="55"/>
-      <c r="E193" s="154" t="s">
+      <c r="E193" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="F193" s="154"/>
-      <c r="G193" s="155"/>
-      <c r="H193" s="114"/>
-      <c r="I193" s="118"/>
-      <c r="J193" s="114"/>
-      <c r="K193" s="114"/>
-      <c r="L193" s="114"/>
-      <c r="M193" s="114"/>
-      <c r="N193" s="135"/>
+      <c r="F193" s="132"/>
+      <c r="G193" s="133"/>
+      <c r="H193" s="130"/>
+      <c r="I193" s="136"/>
+      <c r="J193" s="130"/>
+      <c r="K193" s="130"/>
+      <c r="L193" s="130"/>
+      <c r="M193" s="130"/>
+      <c r="N193" s="129"/>
       <c r="O193" s="42"/>
       <c r="P193" s="43"/>
       <c r="Q193" s="43"/>
@@ -28395,16 +28399,16 @@
       <c r="B194" s="24"/>
       <c r="C194" s="2"/>
       <c r="D194" s="56"/>
-      <c r="E194" s="156"/>
-      <c r="F194" s="156"/>
-      <c r="G194" s="166"/>
-      <c r="H194" s="115"/>
-      <c r="I194" s="118"/>
-      <c r="J194" s="115"/>
-      <c r="K194" s="115"/>
-      <c r="L194" s="115"/>
-      <c r="M194" s="115"/>
-      <c r="N194" s="135"/>
+      <c r="E194" s="134"/>
+      <c r="F194" s="134"/>
+      <c r="G194" s="135"/>
+      <c r="H194" s="131"/>
+      <c r="I194" s="136"/>
+      <c r="J194" s="131"/>
+      <c r="K194" s="131"/>
+      <c r="L194" s="131"/>
+      <c r="M194" s="131"/>
+      <c r="N194" s="129"/>
       <c r="O194" s="44"/>
       <c r="P194" s="31"/>
       <c r="Q194" s="31"/>
@@ -28523,19 +28527,19 @@
       <c r="C195" s="2"/>
       <c r="D195" s="46"/>
       <c r="E195" s="59"/>
-      <c r="F195" s="167" t="s">
+      <c r="F195" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="G195" s="168"/>
-      <c r="H195" s="151">
+      <c r="G195" s="123"/>
+      <c r="H195" s="108">
         <v>3</v>
       </c>
-      <c r="I195" s="151"/>
-      <c r="J195" s="119"/>
-      <c r="K195" s="119"/>
-      <c r="L195" s="119"/>
-      <c r="M195" s="119"/>
-      <c r="N195" s="111"/>
+      <c r="I195" s="108"/>
+      <c r="J195" s="118"/>
+      <c r="K195" s="118"/>
+      <c r="L195" s="118"/>
+      <c r="M195" s="118"/>
+      <c r="N195" s="126"/>
       <c r="O195" s="18"/>
       <c r="P195" s="18"/>
       <c r="Q195" s="18"/>
@@ -28654,15 +28658,15 @@
       <c r="C196" s="2"/>
       <c r="D196" s="46"/>
       <c r="E196" s="60"/>
-      <c r="F196" s="169"/>
-      <c r="G196" s="170"/>
-      <c r="H196" s="152"/>
-      <c r="I196" s="152"/>
-      <c r="J196" s="120"/>
-      <c r="K196" s="120"/>
-      <c r="L196" s="120"/>
-      <c r="M196" s="120"/>
-      <c r="N196" s="112"/>
+      <c r="F196" s="124"/>
+      <c r="G196" s="125"/>
+      <c r="H196" s="109"/>
+      <c r="I196" s="109"/>
+      <c r="J196" s="119"/>
+      <c r="K196" s="119"/>
+      <c r="L196" s="119"/>
+      <c r="M196" s="119"/>
+      <c r="N196" s="127"/>
       <c r="O196" s="18"/>
       <c r="P196" s="18"/>
       <c r="Q196" s="18"/>
@@ -28782,20 +28786,20 @@
       <c r="D197" s="46"/>
       <c r="E197" s="60"/>
       <c r="F197" s="105"/>
-      <c r="G197" s="180" t="s">
+      <c r="G197" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H197" s="152"/>
-      <c r="I197" s="152"/>
-      <c r="J197" s="182"/>
-      <c r="K197" s="182"/>
-      <c r="L197" s="116" t="s">
+      <c r="H197" s="109"/>
+      <c r="I197" s="109"/>
+      <c r="J197" s="115"/>
+      <c r="K197" s="115"/>
+      <c r="L197" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="M197" s="116" t="s">
+      <c r="M197" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="N197" s="112"/>
+      <c r="N197" s="127"/>
       <c r="O197" s="18"/>
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
@@ -28915,14 +28919,14 @@
       <c r="D198" s="46"/>
       <c r="E198" s="60"/>
       <c r="F198" s="105"/>
-      <c r="G198" s="181"/>
-      <c r="H198" s="152"/>
-      <c r="I198" s="152"/>
-      <c r="J198" s="117"/>
-      <c r="K198" s="117"/>
-      <c r="L198" s="117"/>
-      <c r="M198" s="117"/>
-      <c r="N198" s="112"/>
+      <c r="G198" s="112"/>
+      <c r="H198" s="109"/>
+      <c r="I198" s="109"/>
+      <c r="J198" s="114"/>
+      <c r="K198" s="114"/>
+      <c r="L198" s="114"/>
+      <c r="M198" s="114"/>
+      <c r="N198" s="127"/>
       <c r="O198" s="18"/>
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
@@ -29042,20 +29046,20 @@
       <c r="D199" s="46"/>
       <c r="E199" s="60"/>
       <c r="F199" s="105"/>
-      <c r="G199" s="183" t="s">
+      <c r="G199" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H199" s="152"/>
-      <c r="I199" s="152"/>
-      <c r="J199" s="182"/>
-      <c r="K199" s="182"/>
-      <c r="L199" s="119" t="s">
+      <c r="H199" s="109"/>
+      <c r="I199" s="109"/>
+      <c r="J199" s="115"/>
+      <c r="K199" s="115"/>
+      <c r="L199" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="M199" s="116" t="s">
+      <c r="M199" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="N199" s="112"/>
+      <c r="N199" s="127"/>
       <c r="O199" s="18"/>
       <c r="P199" s="18"/>
       <c r="Q199" s="18"/>
@@ -29175,14 +29179,14 @@
       <c r="D200" s="46"/>
       <c r="E200" s="60"/>
       <c r="F200" s="105"/>
-      <c r="G200" s="184"/>
-      <c r="H200" s="153"/>
-      <c r="I200" s="153"/>
-      <c r="J200" s="117"/>
-      <c r="K200" s="117"/>
-      <c r="L200" s="120"/>
-      <c r="M200" s="117"/>
-      <c r="N200" s="113"/>
+      <c r="G200" s="117"/>
+      <c r="H200" s="110"/>
+      <c r="I200" s="110"/>
+      <c r="J200" s="114"/>
+      <c r="K200" s="114"/>
+      <c r="L200" s="119"/>
+      <c r="M200" s="114"/>
+      <c r="N200" s="128"/>
       <c r="O200" s="18"/>
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
@@ -29301,19 +29305,19 @@
       <c r="C201" s="2"/>
       <c r="D201" s="46"/>
       <c r="E201" s="61"/>
-      <c r="F201" s="167" t="s">
+      <c r="F201" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="G201" s="168"/>
-      <c r="H201" s="151">
+      <c r="G201" s="123"/>
+      <c r="H201" s="108">
         <v>3</v>
       </c>
-      <c r="I201" s="151"/>
-      <c r="J201" s="119"/>
-      <c r="K201" s="119"/>
-      <c r="L201" s="119"/>
-      <c r="M201" s="119"/>
-      <c r="N201" s="111"/>
+      <c r="I201" s="108"/>
+      <c r="J201" s="118"/>
+      <c r="K201" s="118"/>
+      <c r="L201" s="118"/>
+      <c r="M201" s="118"/>
+      <c r="N201" s="126"/>
       <c r="O201" s="18"/>
       <c r="P201" s="18"/>
       <c r="Q201" s="18"/>
@@ -29432,15 +29436,15 @@
       <c r="C202" s="2"/>
       <c r="D202" s="46"/>
       <c r="E202" s="58"/>
-      <c r="F202" s="169"/>
-      <c r="G202" s="170"/>
-      <c r="H202" s="152"/>
-      <c r="I202" s="152"/>
-      <c r="J202" s="120"/>
-      <c r="K202" s="120"/>
-      <c r="L202" s="120"/>
-      <c r="M202" s="120"/>
-      <c r="N202" s="112"/>
+      <c r="F202" s="124"/>
+      <c r="G202" s="125"/>
+      <c r="H202" s="109"/>
+      <c r="I202" s="109"/>
+      <c r="J202" s="119"/>
+      <c r="K202" s="119"/>
+      <c r="L202" s="119"/>
+      <c r="M202" s="119"/>
+      <c r="N202" s="127"/>
       <c r="O202" s="18"/>
       <c r="P202" s="18"/>
       <c r="Q202" s="18"/>
@@ -29560,22 +29564,22 @@
       <c r="D203" s="46"/>
       <c r="E203" s="60"/>
       <c r="F203" s="105"/>
-      <c r="G203" s="180" t="s">
+      <c r="G203" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H203" s="152"/>
-      <c r="I203" s="152"/>
-      <c r="J203" s="116" t="s">
+      <c r="H203" s="109"/>
+      <c r="I203" s="109"/>
+      <c r="J203" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="K203" s="182"/>
-      <c r="L203" s="116" t="s">
+      <c r="K203" s="115"/>
+      <c r="L203" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="M203" s="119" t="s">
+      <c r="M203" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="N203" s="112"/>
+      <c r="N203" s="127"/>
       <c r="O203" s="18"/>
       <c r="P203" s="18"/>
       <c r="Q203" s="18"/>
@@ -29695,14 +29699,14 @@
       <c r="D204" s="46"/>
       <c r="E204" s="60"/>
       <c r="F204" s="105"/>
-      <c r="G204" s="181"/>
-      <c r="H204" s="152"/>
-      <c r="I204" s="152"/>
-      <c r="J204" s="117"/>
-      <c r="K204" s="117"/>
-      <c r="L204" s="117"/>
-      <c r="M204" s="120"/>
-      <c r="N204" s="112"/>
+      <c r="G204" s="112"/>
+      <c r="H204" s="109"/>
+      <c r="I204" s="109"/>
+      <c r="J204" s="114"/>
+      <c r="K204" s="114"/>
+      <c r="L204" s="114"/>
+      <c r="M204" s="119"/>
+      <c r="N204" s="127"/>
       <c r="O204" s="18"/>
       <c r="P204" s="18"/>
       <c r="Q204" s="18"/>
@@ -29822,22 +29826,22 @@
       <c r="D205" s="46"/>
       <c r="E205" s="60"/>
       <c r="F205" s="105"/>
-      <c r="G205" s="183" t="s">
+      <c r="G205" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H205" s="152"/>
-      <c r="I205" s="152"/>
-      <c r="J205" s="119" t="s">
+      <c r="H205" s="109"/>
+      <c r="I205" s="109"/>
+      <c r="J205" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="K205" s="182"/>
-      <c r="L205" s="119" t="s">
+      <c r="K205" s="115"/>
+      <c r="L205" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="M205" s="119" t="s">
+      <c r="M205" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="N205" s="112"/>
+      <c r="N205" s="127"/>
       <c r="O205" s="18"/>
       <c r="P205" s="18"/>
       <c r="Q205" s="18"/>
@@ -29957,14 +29961,14 @@
       <c r="D206" s="46"/>
       <c r="E206" s="60"/>
       <c r="F206" s="105"/>
-      <c r="G206" s="184"/>
-      <c r="H206" s="153"/>
-      <c r="I206" s="153"/>
-      <c r="J206" s="120"/>
-      <c r="K206" s="117"/>
-      <c r="L206" s="120"/>
-      <c r="M206" s="120"/>
-      <c r="N206" s="113"/>
+      <c r="G206" s="117"/>
+      <c r="H206" s="110"/>
+      <c r="I206" s="110"/>
+      <c r="J206" s="119"/>
+      <c r="K206" s="114"/>
+      <c r="L206" s="119"/>
+      <c r="M206" s="119"/>
+      <c r="N206" s="128"/>
       <c r="O206" s="18"/>
       <c r="P206" s="18"/>
       <c r="Q206" s="18"/>
@@ -30083,19 +30087,19 @@
       <c r="C207" s="2"/>
       <c r="D207" s="46"/>
       <c r="E207" s="58"/>
-      <c r="F207" s="167" t="s">
+      <c r="F207" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="G207" s="168"/>
-      <c r="H207" s="151">
+      <c r="G207" s="123"/>
+      <c r="H207" s="108">
         <v>2</v>
       </c>
-      <c r="I207" s="151"/>
-      <c r="J207" s="119"/>
-      <c r="K207" s="119"/>
-      <c r="L207" s="119"/>
-      <c r="M207" s="119"/>
-      <c r="N207" s="111"/>
+      <c r="I207" s="108"/>
+      <c r="J207" s="118"/>
+      <c r="K207" s="118"/>
+      <c r="L207" s="118"/>
+      <c r="M207" s="118"/>
+      <c r="N207" s="126"/>
       <c r="O207" s="18"/>
       <c r="P207" s="18"/>
       <c r="Q207" s="18"/>
@@ -30214,15 +30218,15 @@
       <c r="C208" s="2"/>
       <c r="D208" s="46"/>
       <c r="E208" s="58"/>
-      <c r="F208" s="169"/>
-      <c r="G208" s="170"/>
-      <c r="H208" s="152"/>
-      <c r="I208" s="152"/>
-      <c r="J208" s="120"/>
-      <c r="K208" s="120"/>
-      <c r="L208" s="120"/>
-      <c r="M208" s="120"/>
-      <c r="N208" s="112"/>
+      <c r="F208" s="124"/>
+      <c r="G208" s="125"/>
+      <c r="H208" s="109"/>
+      <c r="I208" s="109"/>
+      <c r="J208" s="119"/>
+      <c r="K208" s="119"/>
+      <c r="L208" s="119"/>
+      <c r="M208" s="119"/>
+      <c r="N208" s="127"/>
       <c r="O208" s="18"/>
       <c r="P208" s="18"/>
       <c r="Q208" s="18"/>
@@ -30342,20 +30346,20 @@
       <c r="D209" s="46"/>
       <c r="E209" s="60"/>
       <c r="F209" s="105"/>
-      <c r="G209" s="180" t="s">
+      <c r="G209" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H209" s="152"/>
-      <c r="I209" s="152"/>
-      <c r="J209" s="182"/>
-      <c r="K209" s="182"/>
-      <c r="L209" s="116" t="s">
+      <c r="H209" s="109"/>
+      <c r="I209" s="109"/>
+      <c r="J209" s="115"/>
+      <c r="K209" s="115"/>
+      <c r="L209" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="M209" s="116" t="s">
+      <c r="M209" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="N209" s="112"/>
+      <c r="N209" s="127"/>
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
       <c r="Q209" s="18"/>
@@ -30475,14 +30479,14 @@
       <c r="D210" s="46"/>
       <c r="E210" s="60"/>
       <c r="F210" s="105"/>
-      <c r="G210" s="181"/>
-      <c r="H210" s="152"/>
-      <c r="I210" s="152"/>
-      <c r="J210" s="117"/>
-      <c r="K210" s="117"/>
-      <c r="L210" s="117"/>
-      <c r="M210" s="117"/>
-      <c r="N210" s="112"/>
+      <c r="G210" s="112"/>
+      <c r="H210" s="109"/>
+      <c r="I210" s="109"/>
+      <c r="J210" s="114"/>
+      <c r="K210" s="114"/>
+      <c r="L210" s="114"/>
+      <c r="M210" s="114"/>
+      <c r="N210" s="127"/>
       <c r="O210" s="18"/>
       <c r="P210" s="18"/>
       <c r="Q210" s="18"/>
@@ -30602,20 +30606,20 @@
       <c r="D211" s="46"/>
       <c r="E211" s="60"/>
       <c r="F211" s="105"/>
-      <c r="G211" s="183" t="s">
+      <c r="G211" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H211" s="152"/>
-      <c r="I211" s="152"/>
-      <c r="J211" s="182"/>
-      <c r="K211" s="182"/>
-      <c r="L211" s="119" t="s">
+      <c r="H211" s="109"/>
+      <c r="I211" s="109"/>
+      <c r="J211" s="115"/>
+      <c r="K211" s="115"/>
+      <c r="L211" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="M211" s="116" t="s">
+      <c r="M211" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="N211" s="112"/>
+      <c r="N211" s="127"/>
       <c r="O211" s="18"/>
       <c r="P211" s="18"/>
       <c r="Q211" s="18"/>
@@ -30735,14 +30739,14 @@
       <c r="D212" s="46"/>
       <c r="E212" s="60"/>
       <c r="F212" s="105"/>
-      <c r="G212" s="184"/>
-      <c r="H212" s="153"/>
-      <c r="I212" s="153"/>
-      <c r="J212" s="117"/>
-      <c r="K212" s="117"/>
-      <c r="L212" s="120"/>
-      <c r="M212" s="117"/>
-      <c r="N212" s="113"/>
+      <c r="G212" s="117"/>
+      <c r="H212" s="110"/>
+      <c r="I212" s="110"/>
+      <c r="J212" s="114"/>
+      <c r="K212" s="114"/>
+      <c r="L212" s="119"/>
+      <c r="M212" s="114"/>
+      <c r="N212" s="128"/>
       <c r="O212" s="18"/>
       <c r="P212" s="18"/>
       <c r="Q212" s="18"/>
@@ -30861,19 +30865,19 @@
       <c r="C213" s="2"/>
       <c r="D213" s="46"/>
       <c r="E213" s="58"/>
-      <c r="F213" s="167" t="s">
+      <c r="F213" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="G213" s="168"/>
-      <c r="H213" s="151">
+      <c r="G213" s="123"/>
+      <c r="H213" s="108">
         <v>2.5</v>
       </c>
-      <c r="I213" s="151"/>
-      <c r="J213" s="119"/>
-      <c r="K213" s="119"/>
-      <c r="L213" s="119"/>
-      <c r="M213" s="119"/>
-      <c r="N213" s="111"/>
+      <c r="I213" s="108"/>
+      <c r="J213" s="118"/>
+      <c r="K213" s="118"/>
+      <c r="L213" s="118"/>
+      <c r="M213" s="118"/>
+      <c r="N213" s="126"/>
       <c r="O213" s="18"/>
       <c r="P213" s="18"/>
       <c r="Q213" s="18"/>
@@ -30992,15 +30996,15 @@
       <c r="C214" s="2"/>
       <c r="D214" s="46"/>
       <c r="E214" s="58"/>
-      <c r="F214" s="169"/>
-      <c r="G214" s="170"/>
-      <c r="H214" s="152"/>
-      <c r="I214" s="152"/>
-      <c r="J214" s="120"/>
-      <c r="K214" s="120"/>
-      <c r="L214" s="120"/>
-      <c r="M214" s="120"/>
-      <c r="N214" s="112"/>
+      <c r="F214" s="124"/>
+      <c r="G214" s="125"/>
+      <c r="H214" s="109"/>
+      <c r="I214" s="109"/>
+      <c r="J214" s="119"/>
+      <c r="K214" s="119"/>
+      <c r="L214" s="119"/>
+      <c r="M214" s="119"/>
+      <c r="N214" s="127"/>
       <c r="O214" s="18"/>
       <c r="P214" s="18"/>
       <c r="Q214" s="18"/>
@@ -31120,22 +31124,22 @@
       <c r="D215" s="46"/>
       <c r="E215" s="60"/>
       <c r="F215" s="105"/>
-      <c r="G215" s="180" t="s">
+      <c r="G215" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H215" s="152"/>
-      <c r="I215" s="152"/>
-      <c r="J215" s="116" t="s">
+      <c r="H215" s="109"/>
+      <c r="I215" s="109"/>
+      <c r="J215" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="K215" s="182"/>
-      <c r="L215" s="119" t="s">
+      <c r="K215" s="115"/>
+      <c r="L215" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="M215" s="116" t="s">
+      <c r="M215" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="N215" s="112"/>
+      <c r="N215" s="127"/>
       <c r="O215" s="18"/>
       <c r="P215" s="18"/>
       <c r="Q215" s="18"/>
@@ -31255,14 +31259,14 @@
       <c r="D216" s="46"/>
       <c r="E216" s="60"/>
       <c r="F216" s="105"/>
-      <c r="G216" s="181"/>
-      <c r="H216" s="152"/>
-      <c r="I216" s="152"/>
-      <c r="J216" s="117"/>
-      <c r="K216" s="117"/>
-      <c r="L216" s="120"/>
-      <c r="M216" s="117"/>
-      <c r="N216" s="112"/>
+      <c r="G216" s="112"/>
+      <c r="H216" s="109"/>
+      <c r="I216" s="109"/>
+      <c r="J216" s="114"/>
+      <c r="K216" s="114"/>
+      <c r="L216" s="119"/>
+      <c r="M216" s="114"/>
+      <c r="N216" s="127"/>
       <c r="O216" s="18"/>
       <c r="P216" s="18"/>
       <c r="Q216" s="18"/>
@@ -31382,22 +31386,22 @@
       <c r="D217" s="46"/>
       <c r="E217" s="60"/>
       <c r="F217" s="105"/>
-      <c r="G217" s="183" t="s">
+      <c r="G217" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H217" s="152"/>
-      <c r="I217" s="152"/>
-      <c r="J217" s="119" t="s">
+      <c r="H217" s="109"/>
+      <c r="I217" s="109"/>
+      <c r="J217" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="K217" s="182"/>
-      <c r="L217" s="119" t="s">
+      <c r="K217" s="115"/>
+      <c r="L217" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="M217" s="116" t="s">
+      <c r="M217" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="N217" s="112"/>
+      <c r="N217" s="127"/>
       <c r="O217" s="18"/>
       <c r="P217" s="18"/>
       <c r="Q217" s="18"/>
@@ -31517,14 +31521,14 @@
       <c r="D218" s="46"/>
       <c r="E218" s="60"/>
       <c r="F218" s="105"/>
-      <c r="G218" s="184"/>
-      <c r="H218" s="153"/>
-      <c r="I218" s="153"/>
-      <c r="J218" s="120"/>
-      <c r="K218" s="117"/>
-      <c r="L218" s="120"/>
-      <c r="M218" s="117"/>
-      <c r="N218" s="113"/>
+      <c r="G218" s="117"/>
+      <c r="H218" s="110"/>
+      <c r="I218" s="110"/>
+      <c r="J218" s="119"/>
+      <c r="K218" s="114"/>
+      <c r="L218" s="119"/>
+      <c r="M218" s="114"/>
+      <c r="N218" s="128"/>
       <c r="O218" s="18"/>
       <c r="P218" s="18"/>
       <c r="Q218" s="18"/>
@@ -31643,18 +31647,18 @@
       <c r="C219" s="2"/>
       <c r="D219" s="46"/>
       <c r="E219" s="58"/>
-      <c r="F219" s="167" t="s">
+      <c r="F219" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="G219" s="168"/>
-      <c r="H219" s="139"/>
-      <c r="I219" s="139"/>
-      <c r="J219" s="119"/>
-      <c r="K219" s="119"/>
-      <c r="L219" s="119" t="s">
+      <c r="G219" s="123"/>
+      <c r="H219" s="140"/>
+      <c r="I219" s="140"/>
+      <c r="J219" s="118"/>
+      <c r="K219" s="118"/>
+      <c r="L219" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="M219" s="119"/>
+      <c r="M219" s="118"/>
       <c r="N219" s="141"/>
       <c r="O219" s="18"/>
       <c r="P219" s="18"/>
@@ -31774,14 +31778,14 @@
       <c r="C220" s="2"/>
       <c r="D220" s="46"/>
       <c r="E220" s="63"/>
-      <c r="F220" s="169"/>
-      <c r="G220" s="170"/>
-      <c r="H220" s="139"/>
-      <c r="I220" s="139"/>
-      <c r="J220" s="120"/>
-      <c r="K220" s="120"/>
-      <c r="L220" s="120"/>
-      <c r="M220" s="120"/>
+      <c r="F220" s="124"/>
+      <c r="G220" s="125"/>
+      <c r="H220" s="140"/>
+      <c r="I220" s="140"/>
+      <c r="J220" s="119"/>
+      <c r="K220" s="119"/>
+      <c r="L220" s="119"/>
+      <c r="M220" s="119"/>
       <c r="N220" s="141"/>
       <c r="O220" s="18"/>
       <c r="P220" s="18"/>
@@ -31900,18 +31904,18 @@
       <c r="B221" s="24"/>
       <c r="C221" s="2"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="165" t="s">
+      <c r="E221" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="F221" s="156"/>
-      <c r="G221" s="166"/>
-      <c r="H221" s="114"/>
-      <c r="I221" s="118"/>
-      <c r="J221" s="118"/>
-      <c r="K221" s="118"/>
-      <c r="L221" s="118"/>
-      <c r="M221" s="118"/>
-      <c r="N221" s="135"/>
+      <c r="F221" s="134"/>
+      <c r="G221" s="135"/>
+      <c r="H221" s="130"/>
+      <c r="I221" s="136"/>
+      <c r="J221" s="136"/>
+      <c r="K221" s="136"/>
+      <c r="L221" s="136"/>
+      <c r="M221" s="136"/>
+      <c r="N221" s="129"/>
       <c r="O221" s="43"/>
       <c r="P221" s="43"/>
       <c r="Q221" s="43"/>
@@ -32029,16 +32033,16 @@
       <c r="B222" s="24"/>
       <c r="C222" s="2"/>
       <c r="D222" s="46"/>
-      <c r="E222" s="165"/>
-      <c r="F222" s="156"/>
-      <c r="G222" s="166"/>
-      <c r="H222" s="115"/>
-      <c r="I222" s="118"/>
-      <c r="J222" s="118"/>
-      <c r="K222" s="118"/>
-      <c r="L222" s="118"/>
-      <c r="M222" s="118"/>
-      <c r="N222" s="135"/>
+      <c r="E222" s="142"/>
+      <c r="F222" s="134"/>
+      <c r="G222" s="135"/>
+      <c r="H222" s="131"/>
+      <c r="I222" s="136"/>
+      <c r="J222" s="136"/>
+      <c r="K222" s="136"/>
+      <c r="L222" s="136"/>
+      <c r="M222" s="136"/>
+      <c r="N222" s="129"/>
       <c r="O222" s="31"/>
       <c r="P222" s="31"/>
       <c r="Q222" s="31"/>
@@ -32157,19 +32161,19 @@
       <c r="C223" s="2"/>
       <c r="D223" s="46"/>
       <c r="E223" s="59"/>
-      <c r="F223" s="167" t="s">
+      <c r="F223" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="G223" s="168"/>
-      <c r="H223" s="151">
+      <c r="G223" s="123"/>
+      <c r="H223" s="108">
         <v>4</v>
       </c>
-      <c r="I223" s="151"/>
-      <c r="J223" s="119"/>
-      <c r="K223" s="119"/>
-      <c r="L223" s="119"/>
-      <c r="M223" s="119"/>
-      <c r="N223" s="111"/>
+      <c r="I223" s="108"/>
+      <c r="J223" s="118"/>
+      <c r="K223" s="118"/>
+      <c r="L223" s="118"/>
+      <c r="M223" s="118"/>
+      <c r="N223" s="126"/>
       <c r="O223" s="18"/>
       <c r="P223" s="18"/>
       <c r="Q223" s="18"/>
@@ -32288,15 +32292,15 @@
       <c r="C224" s="2"/>
       <c r="D224" s="46"/>
       <c r="E224" s="60"/>
-      <c r="F224" s="169"/>
-      <c r="G224" s="170"/>
-      <c r="H224" s="152"/>
-      <c r="I224" s="152"/>
-      <c r="J224" s="120"/>
-      <c r="K224" s="120"/>
-      <c r="L224" s="120"/>
-      <c r="M224" s="120"/>
-      <c r="N224" s="112"/>
+      <c r="F224" s="124"/>
+      <c r="G224" s="125"/>
+      <c r="H224" s="109"/>
+      <c r="I224" s="109"/>
+      <c r="J224" s="119"/>
+      <c r="K224" s="119"/>
+      <c r="L224" s="119"/>
+      <c r="M224" s="119"/>
+      <c r="N224" s="127"/>
       <c r="O224" s="18"/>
       <c r="P224" s="18"/>
       <c r="Q224" s="18"/>
@@ -32416,18 +32420,18 @@
       <c r="D225" s="46"/>
       <c r="E225" s="60"/>
       <c r="F225" s="105"/>
-      <c r="G225" s="180" t="s">
+      <c r="G225" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H225" s="152"/>
-      <c r="I225" s="152"/>
-      <c r="J225" s="182"/>
-      <c r="K225" s="182"/>
-      <c r="L225" s="182"/>
-      <c r="M225" s="116" t="s">
+      <c r="H225" s="109"/>
+      <c r="I225" s="109"/>
+      <c r="J225" s="115"/>
+      <c r="K225" s="115"/>
+      <c r="L225" s="115"/>
+      <c r="M225" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="N225" s="112"/>
+      <c r="N225" s="127"/>
       <c r="O225" s="18"/>
       <c r="P225" s="18"/>
       <c r="Q225" s="18"/>
@@ -32547,14 +32551,14 @@
       <c r="D226" s="46"/>
       <c r="E226" s="60"/>
       <c r="F226" s="105"/>
-      <c r="G226" s="181"/>
-      <c r="H226" s="152"/>
-      <c r="I226" s="152"/>
-      <c r="J226" s="117"/>
-      <c r="K226" s="117"/>
-      <c r="L226" s="117"/>
-      <c r="M226" s="117"/>
-      <c r="N226" s="112"/>
+      <c r="G226" s="112"/>
+      <c r="H226" s="109"/>
+      <c r="I226" s="109"/>
+      <c r="J226" s="114"/>
+      <c r="K226" s="114"/>
+      <c r="L226" s="114"/>
+      <c r="M226" s="114"/>
+      <c r="N226" s="127"/>
       <c r="O226" s="18"/>
       <c r="P226" s="18"/>
       <c r="Q226" s="18"/>
@@ -32674,20 +32678,20 @@
       <c r="D227" s="46"/>
       <c r="E227" s="60"/>
       <c r="F227" s="105"/>
-      <c r="G227" s="183" t="s">
+      <c r="G227" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H227" s="152"/>
-      <c r="I227" s="152"/>
-      <c r="J227" s="182"/>
-      <c r="K227" s="182"/>
-      <c r="L227" s="119" t="s">
+      <c r="H227" s="109"/>
+      <c r="I227" s="109"/>
+      <c r="J227" s="115"/>
+      <c r="K227" s="115"/>
+      <c r="L227" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="M227" s="116" t="s">
+      <c r="M227" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="N227" s="112"/>
+      <c r="N227" s="127"/>
       <c r="O227" s="18"/>
       <c r="P227" s="18"/>
       <c r="Q227" s="18"/>
@@ -32807,14 +32811,14 @@
       <c r="D228" s="46"/>
       <c r="E228" s="60"/>
       <c r="F228" s="105"/>
-      <c r="G228" s="184"/>
-      <c r="H228" s="153"/>
-      <c r="I228" s="153"/>
-      <c r="J228" s="117"/>
-      <c r="K228" s="117"/>
-      <c r="L228" s="120"/>
-      <c r="M228" s="117"/>
-      <c r="N228" s="113"/>
+      <c r="G228" s="117"/>
+      <c r="H228" s="110"/>
+      <c r="I228" s="110"/>
+      <c r="J228" s="114"/>
+      <c r="K228" s="114"/>
+      <c r="L228" s="119"/>
+      <c r="M228" s="114"/>
+      <c r="N228" s="128"/>
       <c r="O228" s="18"/>
       <c r="P228" s="18"/>
       <c r="Q228" s="18"/>
@@ -32933,19 +32937,19 @@
       <c r="C229" s="2"/>
       <c r="D229" s="46"/>
       <c r="E229" s="61"/>
-      <c r="F229" s="167" t="s">
+      <c r="F229" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="G229" s="168"/>
-      <c r="H229" s="151">
+      <c r="G229" s="123"/>
+      <c r="H229" s="108">
         <v>4</v>
       </c>
-      <c r="I229" s="151"/>
-      <c r="J229" s="121"/>
-      <c r="K229" s="121"/>
-      <c r="L229" s="121"/>
-      <c r="M229" s="119"/>
-      <c r="N229" s="111"/>
+      <c r="I229" s="108"/>
+      <c r="J229" s="120"/>
+      <c r="K229" s="120"/>
+      <c r="L229" s="120"/>
+      <c r="M229" s="118"/>
+      <c r="N229" s="126"/>
       <c r="O229" s="18"/>
       <c r="P229" s="18"/>
       <c r="Q229" s="18"/>
@@ -33064,15 +33068,15 @@
       <c r="C230" s="2"/>
       <c r="D230" s="46"/>
       <c r="E230" s="58"/>
-      <c r="F230" s="169"/>
-      <c r="G230" s="170"/>
-      <c r="H230" s="152"/>
-      <c r="I230" s="152"/>
-      <c r="J230" s="122"/>
-      <c r="K230" s="122"/>
-      <c r="L230" s="122"/>
-      <c r="M230" s="120"/>
-      <c r="N230" s="112"/>
+      <c r="F230" s="124"/>
+      <c r="G230" s="125"/>
+      <c r="H230" s="109"/>
+      <c r="I230" s="109"/>
+      <c r="J230" s="121"/>
+      <c r="K230" s="121"/>
+      <c r="L230" s="121"/>
+      <c r="M230" s="119"/>
+      <c r="N230" s="127"/>
       <c r="O230" s="18"/>
       <c r="P230" s="18"/>
       <c r="Q230" s="18"/>
@@ -33192,22 +33196,22 @@
       <c r="D231" s="46"/>
       <c r="E231" s="60"/>
       <c r="F231" s="105"/>
-      <c r="G231" s="180" t="s">
+      <c r="G231" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H231" s="152"/>
-      <c r="I231" s="152"/>
-      <c r="J231" s="121" t="s">
+      <c r="H231" s="109"/>
+      <c r="I231" s="109"/>
+      <c r="J231" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="K231" s="182"/>
-      <c r="L231" s="121" t="s">
+      <c r="K231" s="115"/>
+      <c r="L231" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="M231" s="119" t="s">
+      <c r="M231" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="N231" s="112"/>
+      <c r="N231" s="127"/>
       <c r="O231" s="18"/>
       <c r="P231" s="18"/>
       <c r="Q231" s="18"/>
@@ -33327,14 +33331,14 @@
       <c r="D232" s="46"/>
       <c r="E232" s="60"/>
       <c r="F232" s="105"/>
-      <c r="G232" s="181"/>
-      <c r="H232" s="152"/>
-      <c r="I232" s="152"/>
-      <c r="J232" s="122"/>
-      <c r="K232" s="117"/>
-      <c r="L232" s="122"/>
-      <c r="M232" s="120"/>
-      <c r="N232" s="112"/>
+      <c r="G232" s="112"/>
+      <c r="H232" s="109"/>
+      <c r="I232" s="109"/>
+      <c r="J232" s="121"/>
+      <c r="K232" s="114"/>
+      <c r="L232" s="121"/>
+      <c r="M232" s="119"/>
+      <c r="N232" s="127"/>
       <c r="O232" s="18"/>
       <c r="P232" s="18"/>
       <c r="Q232" s="18"/>
@@ -33454,22 +33458,22 @@
       <c r="D233" s="46"/>
       <c r="E233" s="60"/>
       <c r="F233" s="105"/>
-      <c r="G233" s="183" t="s">
+      <c r="G233" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H233" s="152"/>
-      <c r="I233" s="152"/>
-      <c r="J233" s="121" t="s">
+      <c r="H233" s="109"/>
+      <c r="I233" s="109"/>
+      <c r="J233" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="K233" s="182"/>
-      <c r="L233" s="121" t="s">
+      <c r="K233" s="115"/>
+      <c r="L233" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="M233" s="119" t="s">
+      <c r="M233" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="N233" s="112"/>
+      <c r="N233" s="127"/>
       <c r="O233" s="18"/>
       <c r="P233" s="18"/>
       <c r="Q233" s="18"/>
@@ -33589,14 +33593,14 @@
       <c r="D234" s="46"/>
       <c r="E234" s="60"/>
       <c r="F234" s="105"/>
-      <c r="G234" s="184"/>
-      <c r="H234" s="153"/>
-      <c r="I234" s="153"/>
-      <c r="J234" s="122"/>
-      <c r="K234" s="117"/>
-      <c r="L234" s="122"/>
-      <c r="M234" s="120"/>
-      <c r="N234" s="113"/>
+      <c r="G234" s="117"/>
+      <c r="H234" s="110"/>
+      <c r="I234" s="110"/>
+      <c r="J234" s="121"/>
+      <c r="K234" s="114"/>
+      <c r="L234" s="121"/>
+      <c r="M234" s="119"/>
+      <c r="N234" s="128"/>
       <c r="O234" s="18"/>
       <c r="P234" s="18"/>
       <c r="Q234" s="18"/>
@@ -33715,19 +33719,19 @@
       <c r="C235" s="2"/>
       <c r="D235" s="46"/>
       <c r="E235" s="58"/>
-      <c r="F235" s="167" t="s">
+      <c r="F235" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="G235" s="168"/>
-      <c r="H235" s="151">
+      <c r="G235" s="123"/>
+      <c r="H235" s="108">
         <v>3</v>
       </c>
-      <c r="I235" s="151"/>
-      <c r="J235" s="119"/>
-      <c r="K235" s="119"/>
-      <c r="L235" s="119"/>
-      <c r="M235" s="119"/>
-      <c r="N235" s="111"/>
+      <c r="I235" s="108"/>
+      <c r="J235" s="118"/>
+      <c r="K235" s="118"/>
+      <c r="L235" s="118"/>
+      <c r="M235" s="118"/>
+      <c r="N235" s="126"/>
       <c r="O235" s="18"/>
       <c r="P235" s="18"/>
       <c r="Q235" s="18"/>
@@ -33845,15 +33849,15 @@
       <c r="C236" s="2"/>
       <c r="D236" s="46"/>
       <c r="E236" s="58"/>
-      <c r="F236" s="169"/>
-      <c r="G236" s="170"/>
-      <c r="H236" s="152"/>
-      <c r="I236" s="152"/>
-      <c r="J236" s="120"/>
-      <c r="K236" s="120"/>
-      <c r="L236" s="120"/>
-      <c r="M236" s="120"/>
-      <c r="N236" s="112"/>
+      <c r="F236" s="124"/>
+      <c r="G236" s="125"/>
+      <c r="H236" s="109"/>
+      <c r="I236" s="109"/>
+      <c r="J236" s="119"/>
+      <c r="K236" s="119"/>
+      <c r="L236" s="119"/>
+      <c r="M236" s="119"/>
+      <c r="N236" s="127"/>
       <c r="O236" s="18"/>
       <c r="P236" s="18"/>
       <c r="Q236" s="18"/>
@@ -33973,20 +33977,20 @@
       <c r="D237" s="46"/>
       <c r="E237" s="60"/>
       <c r="F237" s="105"/>
-      <c r="G237" s="180" t="s">
+      <c r="G237" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H237" s="152"/>
-      <c r="I237" s="152"/>
-      <c r="J237" s="182"/>
-      <c r="K237" s="182"/>
-      <c r="L237" s="116" t="s">
+      <c r="H237" s="109"/>
+      <c r="I237" s="109"/>
+      <c r="J237" s="115"/>
+      <c r="K237" s="115"/>
+      <c r="L237" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="M237" s="116" t="s">
+      <c r="M237" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="N237" s="112"/>
+      <c r="N237" s="127"/>
       <c r="O237" s="18"/>
       <c r="P237" s="18"/>
       <c r="Q237" s="18"/>
@@ -34106,14 +34110,14 @@
       <c r="D238" s="46"/>
       <c r="E238" s="60"/>
       <c r="F238" s="105"/>
-      <c r="G238" s="181"/>
-      <c r="H238" s="152"/>
-      <c r="I238" s="152"/>
-      <c r="J238" s="117"/>
-      <c r="K238" s="117"/>
-      <c r="L238" s="117"/>
-      <c r="M238" s="117"/>
-      <c r="N238" s="112"/>
+      <c r="G238" s="112"/>
+      <c r="H238" s="109"/>
+      <c r="I238" s="109"/>
+      <c r="J238" s="114"/>
+      <c r="K238" s="114"/>
+      <c r="L238" s="114"/>
+      <c r="M238" s="114"/>
+      <c r="N238" s="127"/>
       <c r="O238" s="18"/>
       <c r="P238" s="18"/>
       <c r="Q238" s="18"/>
@@ -34233,20 +34237,20 @@
       <c r="D239" s="46"/>
       <c r="E239" s="60"/>
       <c r="F239" s="105"/>
-      <c r="G239" s="183" t="s">
+      <c r="G239" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H239" s="152"/>
-      <c r="I239" s="152"/>
-      <c r="J239" s="182"/>
-      <c r="K239" s="182"/>
-      <c r="L239" s="119" t="s">
+      <c r="H239" s="109"/>
+      <c r="I239" s="109"/>
+      <c r="J239" s="115"/>
+      <c r="K239" s="115"/>
+      <c r="L239" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="M239" s="116" t="s">
+      <c r="M239" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="N239" s="112"/>
+      <c r="N239" s="127"/>
       <c r="O239" s="18"/>
       <c r="P239" s="18"/>
       <c r="Q239" s="18"/>
@@ -34366,14 +34370,14 @@
       <c r="D240" s="46"/>
       <c r="E240" s="60"/>
       <c r="F240" s="105"/>
-      <c r="G240" s="184"/>
-      <c r="H240" s="153"/>
-      <c r="I240" s="153"/>
-      <c r="J240" s="117"/>
-      <c r="K240" s="117"/>
-      <c r="L240" s="120"/>
-      <c r="M240" s="117"/>
-      <c r="N240" s="113"/>
+      <c r="G240" s="117"/>
+      <c r="H240" s="110"/>
+      <c r="I240" s="110"/>
+      <c r="J240" s="114"/>
+      <c r="K240" s="114"/>
+      <c r="L240" s="119"/>
+      <c r="M240" s="114"/>
+      <c r="N240" s="128"/>
       <c r="O240" s="18"/>
       <c r="P240" s="18"/>
       <c r="Q240" s="18"/>
@@ -34492,19 +34496,19 @@
       <c r="C241" s="2"/>
       <c r="D241" s="46"/>
       <c r="E241" s="58"/>
-      <c r="F241" s="167" t="s">
+      <c r="F241" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="G241" s="168"/>
-      <c r="H241" s="151">
+      <c r="G241" s="123"/>
+      <c r="H241" s="108">
         <v>4</v>
       </c>
-      <c r="I241" s="151"/>
-      <c r="J241" s="119"/>
-      <c r="K241" s="119"/>
-      <c r="L241" s="119"/>
-      <c r="M241" s="119"/>
-      <c r="N241" s="111"/>
+      <c r="I241" s="108"/>
+      <c r="J241" s="118"/>
+      <c r="K241" s="118"/>
+      <c r="L241" s="118"/>
+      <c r="M241" s="118"/>
+      <c r="N241" s="126"/>
       <c r="O241" s="18"/>
       <c r="P241" s="18"/>
       <c r="Q241" s="18"/>
@@ -34622,15 +34626,15 @@
       <c r="C242" s="2"/>
       <c r="D242" s="46"/>
       <c r="E242" s="58"/>
-      <c r="F242" s="169"/>
-      <c r="G242" s="170"/>
-      <c r="H242" s="152"/>
-      <c r="I242" s="152"/>
-      <c r="J242" s="120"/>
-      <c r="K242" s="120"/>
-      <c r="L242" s="120"/>
-      <c r="M242" s="120"/>
-      <c r="N242" s="112"/>
+      <c r="F242" s="124"/>
+      <c r="G242" s="125"/>
+      <c r="H242" s="109"/>
+      <c r="I242" s="109"/>
+      <c r="J242" s="119"/>
+      <c r="K242" s="119"/>
+      <c r="L242" s="119"/>
+      <c r="M242" s="119"/>
+      <c r="N242" s="127"/>
       <c r="O242" s="18"/>
       <c r="P242" s="18"/>
       <c r="Q242" s="18"/>
@@ -34750,22 +34754,22 @@
       <c r="D243" s="46"/>
       <c r="E243" s="60"/>
       <c r="F243" s="105"/>
-      <c r="G243" s="180" t="s">
+      <c r="G243" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="H243" s="152"/>
-      <c r="I243" s="152"/>
-      <c r="J243" s="116" t="s">
+      <c r="H243" s="109"/>
+      <c r="I243" s="109"/>
+      <c r="J243" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="K243" s="182"/>
-      <c r="L243" s="116" t="s">
+      <c r="K243" s="115"/>
+      <c r="L243" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="M243" s="116" t="s">
+      <c r="M243" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="N243" s="112"/>
+      <c r="N243" s="127"/>
       <c r="O243" s="18"/>
       <c r="P243" s="18"/>
       <c r="Q243" s="18"/>
@@ -34885,14 +34889,14 @@
       <c r="D244" s="46"/>
       <c r="E244" s="60"/>
       <c r="F244" s="105"/>
-      <c r="G244" s="181"/>
-      <c r="H244" s="152"/>
-      <c r="I244" s="152"/>
-      <c r="J244" s="117"/>
-      <c r="K244" s="117"/>
-      <c r="L244" s="117"/>
-      <c r="M244" s="117"/>
-      <c r="N244" s="112"/>
+      <c r="G244" s="112"/>
+      <c r="H244" s="109"/>
+      <c r="I244" s="109"/>
+      <c r="J244" s="114"/>
+      <c r="K244" s="114"/>
+      <c r="L244" s="114"/>
+      <c r="M244" s="114"/>
+      <c r="N244" s="127"/>
       <c r="O244" s="18"/>
       <c r="P244" s="18"/>
       <c r="Q244" s="18"/>
@@ -35012,22 +35016,22 @@
       <c r="D245" s="46"/>
       <c r="E245" s="60"/>
       <c r="F245" s="105"/>
-      <c r="G245" s="183" t="s">
+      <c r="G245" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H245" s="152"/>
-      <c r="I245" s="152"/>
-      <c r="J245" s="119" t="s">
+      <c r="H245" s="109"/>
+      <c r="I245" s="109"/>
+      <c r="J245" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="K245" s="182"/>
-      <c r="L245" s="119" t="s">
+      <c r="K245" s="115"/>
+      <c r="L245" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="M245" s="116" t="s">
+      <c r="M245" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="N245" s="112"/>
+      <c r="N245" s="127"/>
       <c r="O245" s="18"/>
       <c r="P245" s="18"/>
       <c r="Q245" s="18"/>
@@ -35147,14 +35151,14 @@
       <c r="D246" s="46"/>
       <c r="E246" s="60"/>
       <c r="F246" s="105"/>
-      <c r="G246" s="184"/>
-      <c r="H246" s="153"/>
-      <c r="I246" s="153"/>
-      <c r="J246" s="120"/>
-      <c r="K246" s="117"/>
-      <c r="L246" s="120"/>
-      <c r="M246" s="117"/>
-      <c r="N246" s="113"/>
+      <c r="G246" s="117"/>
+      <c r="H246" s="110"/>
+      <c r="I246" s="110"/>
+      <c r="J246" s="119"/>
+      <c r="K246" s="114"/>
+      <c r="L246" s="119"/>
+      <c r="M246" s="114"/>
+      <c r="N246" s="128"/>
       <c r="O246" s="18"/>
       <c r="P246" s="18"/>
       <c r="Q246" s="18"/>
@@ -35273,18 +35277,18 @@
       <c r="C247" s="2"/>
       <c r="D247" s="46"/>
       <c r="E247" s="58"/>
-      <c r="F247" s="167" t="s">
+      <c r="F247" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="G247" s="168"/>
-      <c r="H247" s="139"/>
-      <c r="I247" s="139"/>
-      <c r="J247" s="119"/>
-      <c r="K247" s="119"/>
-      <c r="L247" s="119" t="s">
+      <c r="G247" s="123"/>
+      <c r="H247" s="140"/>
+      <c r="I247" s="140"/>
+      <c r="J247" s="118"/>
+      <c r="K247" s="118"/>
+      <c r="L247" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="M247" s="119"/>
+      <c r="M247" s="118"/>
       <c r="N247" s="141"/>
       <c r="O247" s="18"/>
       <c r="P247" s="18"/>
@@ -35404,14 +35408,14 @@
       <c r="C248" s="2"/>
       <c r="D248" s="46"/>
       <c r="E248" s="63"/>
-      <c r="F248" s="169"/>
-      <c r="G248" s="170"/>
-      <c r="H248" s="139"/>
-      <c r="I248" s="139"/>
-      <c r="J248" s="120"/>
-      <c r="K248" s="120"/>
-      <c r="L248" s="120"/>
-      <c r="M248" s="120"/>
+      <c r="F248" s="124"/>
+      <c r="G248" s="125"/>
+      <c r="H248" s="140"/>
+      <c r="I248" s="140"/>
+      <c r="J248" s="119"/>
+      <c r="K248" s="119"/>
+      <c r="L248" s="119"/>
+      <c r="M248" s="119"/>
       <c r="N248" s="141"/>
       <c r="O248" s="18"/>
       <c r="P248" s="18"/>
@@ -35528,20 +35532,20 @@
     <row r="249" spans="1:125" ht="9.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="24"/>
-      <c r="C249" s="163" t="s">
+      <c r="C249" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="D249" s="128"/>
-      <c r="E249" s="134"/>
-      <c r="F249" s="134"/>
-      <c r="G249" s="134"/>
-      <c r="H249" s="114"/>
-      <c r="I249" s="118"/>
-      <c r="J249" s="118"/>
-      <c r="K249" s="118"/>
-      <c r="L249" s="118"/>
-      <c r="M249" s="118"/>
-      <c r="N249" s="135"/>
+      <c r="D249" s="158"/>
+      <c r="E249" s="165"/>
+      <c r="F249" s="165"/>
+      <c r="G249" s="165"/>
+      <c r="H249" s="130"/>
+      <c r="I249" s="136"/>
+      <c r="J249" s="136"/>
+      <c r="K249" s="136"/>
+      <c r="L249" s="136"/>
+      <c r="M249" s="136"/>
+      <c r="N249" s="129"/>
       <c r="O249" s="43"/>
       <c r="P249" s="43"/>
       <c r="Q249" s="43"/>
@@ -35657,18 +35661,18 @@
     <row r="250" spans="1:125" ht="9.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="24"/>
-      <c r="C250" s="130"/>
-      <c r="D250" s="130"/>
-      <c r="E250" s="130"/>
-      <c r="F250" s="130"/>
-      <c r="G250" s="130"/>
-      <c r="H250" s="115"/>
-      <c r="I250" s="118"/>
-      <c r="J250" s="118"/>
-      <c r="K250" s="118"/>
-      <c r="L250" s="118"/>
-      <c r="M250" s="118"/>
-      <c r="N250" s="135"/>
+      <c r="C250" s="160"/>
+      <c r="D250" s="160"/>
+      <c r="E250" s="160"/>
+      <c r="F250" s="160"/>
+      <c r="G250" s="160"/>
+      <c r="H250" s="131"/>
+      <c r="I250" s="136"/>
+      <c r="J250" s="136"/>
+      <c r="K250" s="136"/>
+      <c r="L250" s="136"/>
+      <c r="M250" s="136"/>
+      <c r="N250" s="129"/>
       <c r="O250" s="31"/>
       <c r="P250" s="31"/>
       <c r="Q250" s="31"/>
@@ -35783,21 +35787,21 @@
     </row>
     <row r="251" spans="1:125" ht="9.75" customHeight="1">
       <c r="A251" s="2"/>
-      <c r="B251" s="164" t="s">
+      <c r="B251" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C251" s="128"/>
-      <c r="D251" s="128"/>
-      <c r="E251" s="128"/>
-      <c r="F251" s="128"/>
-      <c r="G251" s="142"/>
-      <c r="H251" s="114"/>
-      <c r="I251" s="118"/>
-      <c r="J251" s="118"/>
-      <c r="K251" s="118"/>
-      <c r="L251" s="118"/>
-      <c r="M251" s="118"/>
-      <c r="N251" s="135"/>
+      <c r="C251" s="158"/>
+      <c r="D251" s="158"/>
+      <c r="E251" s="158"/>
+      <c r="F251" s="158"/>
+      <c r="G251" s="167"/>
+      <c r="H251" s="130"/>
+      <c r="I251" s="136"/>
+      <c r="J251" s="136"/>
+      <c r="K251" s="136"/>
+      <c r="L251" s="136"/>
+      <c r="M251" s="136"/>
+      <c r="N251" s="129"/>
       <c r="O251" s="43"/>
       <c r="P251" s="43"/>
       <c r="Q251" s="43"/>
@@ -35912,19 +35916,19 @@
     </row>
     <row r="252" spans="1:125" ht="9.75" customHeight="1">
       <c r="A252" s="2"/>
-      <c r="B252" s="129"/>
-      <c r="C252" s="130"/>
-      <c r="D252" s="130"/>
-      <c r="E252" s="130"/>
-      <c r="F252" s="130"/>
-      <c r="G252" s="143"/>
-      <c r="H252" s="115"/>
-      <c r="I252" s="118"/>
-      <c r="J252" s="118"/>
-      <c r="K252" s="118"/>
-      <c r="L252" s="118"/>
-      <c r="M252" s="118"/>
-      <c r="N252" s="135"/>
+      <c r="B252" s="159"/>
+      <c r="C252" s="160"/>
+      <c r="D252" s="160"/>
+      <c r="E252" s="160"/>
+      <c r="F252" s="160"/>
+      <c r="G252" s="168"/>
+      <c r="H252" s="131"/>
+      <c r="I252" s="136"/>
+      <c r="J252" s="136"/>
+      <c r="K252" s="136"/>
+      <c r="L252" s="136"/>
+      <c r="M252" s="136"/>
+      <c r="N252" s="129"/>
       <c r="O252" s="31"/>
       <c r="P252" s="31"/>
       <c r="Q252" s="31"/>
@@ -36040,20 +36044,20 @@
     <row r="253" spans="1:125" ht="9.75" customHeight="1">
       <c r="A253" s="19"/>
       <c r="B253" s="24"/>
-      <c r="C253" s="150" t="s">
+      <c r="C253" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="D253" s="128"/>
-      <c r="E253" s="128"/>
-      <c r="F253" s="128"/>
-      <c r="G253" s="128"/>
-      <c r="H253" s="114"/>
-      <c r="I253" s="118"/>
-      <c r="J253" s="118"/>
-      <c r="K253" s="118"/>
-      <c r="L253" s="118"/>
-      <c r="M253" s="118"/>
-      <c r="N253" s="135"/>
+      <c r="D253" s="158"/>
+      <c r="E253" s="158"/>
+      <c r="F253" s="158"/>
+      <c r="G253" s="158"/>
+      <c r="H253" s="130"/>
+      <c r="I253" s="136"/>
+      <c r="J253" s="136"/>
+      <c r="K253" s="136"/>
+      <c r="L253" s="136"/>
+      <c r="M253" s="136"/>
+      <c r="N253" s="129"/>
       <c r="O253" s="43"/>
       <c r="P253" s="43"/>
       <c r="Q253" s="43"/>
@@ -36169,18 +36173,18 @@
     <row r="254" spans="1:125" ht="9.75" customHeight="1">
       <c r="A254" s="19"/>
       <c r="B254" s="54"/>
-      <c r="C254" s="130"/>
-      <c r="D254" s="130"/>
-      <c r="E254" s="130"/>
-      <c r="F254" s="130"/>
-      <c r="G254" s="130"/>
-      <c r="H254" s="115"/>
-      <c r="I254" s="118"/>
-      <c r="J254" s="118"/>
-      <c r="K254" s="118"/>
-      <c r="L254" s="118"/>
-      <c r="M254" s="118"/>
-      <c r="N254" s="135"/>
+      <c r="C254" s="160"/>
+      <c r="D254" s="160"/>
+      <c r="E254" s="160"/>
+      <c r="F254" s="160"/>
+      <c r="G254" s="160"/>
+      <c r="H254" s="131"/>
+      <c r="I254" s="136"/>
+      <c r="J254" s="136"/>
+      <c r="K254" s="136"/>
+      <c r="L254" s="136"/>
+      <c r="M254" s="136"/>
+      <c r="N254" s="129"/>
       <c r="O254" s="31"/>
       <c r="P254" s="31"/>
       <c r="Q254" s="31"/>
@@ -49603,286 +49607,562 @@
     </row>
   </sheetData>
   <mergeCells count="866">
-    <mergeCell ref="H97:H102"/>
-    <mergeCell ref="I97:I102"/>
-    <mergeCell ref="I131:I136"/>
-    <mergeCell ref="H131:H136"/>
-    <mergeCell ref="I125:I130"/>
-    <mergeCell ref="H125:H130"/>
-    <mergeCell ref="I119:I124"/>
-    <mergeCell ref="H119:H124"/>
-    <mergeCell ref="I113:I118"/>
-    <mergeCell ref="H113:H118"/>
-    <mergeCell ref="I107:I112"/>
-    <mergeCell ref="H107:H112"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="J243:J244"/>
-    <mergeCell ref="K243:K244"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="M243:M244"/>
-    <mergeCell ref="G245:G246"/>
-    <mergeCell ref="J245:J246"/>
-    <mergeCell ref="K245:K246"/>
-    <mergeCell ref="L245:L246"/>
-    <mergeCell ref="M245:M246"/>
-    <mergeCell ref="I241:I246"/>
-    <mergeCell ref="H241:H246"/>
-    <mergeCell ref="K241:K242"/>
-    <mergeCell ref="G237:G238"/>
-    <mergeCell ref="J237:J238"/>
-    <mergeCell ref="K237:K238"/>
-    <mergeCell ref="L237:L238"/>
-    <mergeCell ref="M237:M238"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="L239:L240"/>
-    <mergeCell ref="M239:M240"/>
-    <mergeCell ref="I235:I240"/>
-    <mergeCell ref="H235:H240"/>
-    <mergeCell ref="M235:M236"/>
-    <mergeCell ref="K235:K236"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="J231:J232"/>
-    <mergeCell ref="K231:K232"/>
-    <mergeCell ref="L231:L232"/>
-    <mergeCell ref="M231:M232"/>
-    <mergeCell ref="G233:G234"/>
-    <mergeCell ref="J233:J234"/>
-    <mergeCell ref="K233:K234"/>
-    <mergeCell ref="L233:L234"/>
-    <mergeCell ref="M233:M234"/>
-    <mergeCell ref="I229:I234"/>
-    <mergeCell ref="H229:H234"/>
-    <mergeCell ref="M229:M230"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="J225:J226"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="L225:L226"/>
-    <mergeCell ref="M225:M226"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="I223:I228"/>
-    <mergeCell ref="H223:H228"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="J215:J216"/>
-    <mergeCell ref="K215:K216"/>
-    <mergeCell ref="L215:L216"/>
-    <mergeCell ref="M215:M216"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="J217:J218"/>
-    <mergeCell ref="K217:K218"/>
-    <mergeCell ref="L217:L218"/>
-    <mergeCell ref="M217:M218"/>
-    <mergeCell ref="I213:I218"/>
-    <mergeCell ref="H213:H218"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="J209:J210"/>
-    <mergeCell ref="K209:K210"/>
-    <mergeCell ref="L209:L210"/>
-    <mergeCell ref="M209:M210"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="I207:I212"/>
-    <mergeCell ref="H207:H212"/>
-    <mergeCell ref="M207:M208"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="J203:J204"/>
-    <mergeCell ref="K203:K204"/>
-    <mergeCell ref="L203:L204"/>
-    <mergeCell ref="M203:M204"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="J205:J206"/>
-    <mergeCell ref="K205:K206"/>
-    <mergeCell ref="L205:L206"/>
-    <mergeCell ref="M205:M206"/>
-    <mergeCell ref="I201:I206"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="M201:M202"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="J197:J198"/>
-    <mergeCell ref="K197:K198"/>
-    <mergeCell ref="L197:L198"/>
-    <mergeCell ref="M197:M198"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="J199:J200"/>
-    <mergeCell ref="K199:K200"/>
-    <mergeCell ref="L199:L200"/>
-    <mergeCell ref="M199:M200"/>
-    <mergeCell ref="I195:I200"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="J181:J182"/>
-    <mergeCell ref="K181:K182"/>
-    <mergeCell ref="L181:L182"/>
-    <mergeCell ref="M181:M182"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="L185:L186"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="I183:I188"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="I177:I182"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="J175:J176"/>
-    <mergeCell ref="K175:K176"/>
-    <mergeCell ref="L175:L176"/>
-    <mergeCell ref="M175:M176"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="J179:J180"/>
-    <mergeCell ref="K179:K180"/>
-    <mergeCell ref="L179:L180"/>
-    <mergeCell ref="M179:M180"/>
-    <mergeCell ref="I171:I176"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="F177:G178"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="L177:L178"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="L173:L174"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="I165:I170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="I159:I164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="M159:M160"/>
-    <mergeCell ref="F159:G160"/>
-    <mergeCell ref="F165:G166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="I149:I154"/>
-    <mergeCell ref="H149:H154"/>
-    <mergeCell ref="I143:I148"/>
-    <mergeCell ref="H143:H148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="N149:N154"/>
-    <mergeCell ref="N143:N148"/>
-    <mergeCell ref="N141:N142"/>
-    <mergeCell ref="M143:M144"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="E141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="M141:M142"/>
-    <mergeCell ref="N125:N130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="N131:N136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="M121:M122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="J253:J254"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="J195:J196"/>
-    <mergeCell ref="J201:J202"/>
-    <mergeCell ref="J207:J208"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="J221:J222"/>
-    <mergeCell ref="J223:J224"/>
-    <mergeCell ref="J229:J230"/>
-    <mergeCell ref="F171:G172"/>
+    <mergeCell ref="L161:L162"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="N159:N164"/>
+    <mergeCell ref="N213:N218"/>
+    <mergeCell ref="N207:N212"/>
+    <mergeCell ref="N201:N206"/>
+    <mergeCell ref="N195:N200"/>
+    <mergeCell ref="N241:N246"/>
+    <mergeCell ref="N235:N240"/>
+    <mergeCell ref="N229:N234"/>
+    <mergeCell ref="N223:N228"/>
+    <mergeCell ref="N171:N176"/>
+    <mergeCell ref="N165:N170"/>
+    <mergeCell ref="N177:N182"/>
+    <mergeCell ref="L249:L250"/>
+    <mergeCell ref="L251:L252"/>
+    <mergeCell ref="L253:L254"/>
+    <mergeCell ref="L191:L192"/>
+    <mergeCell ref="L193:L194"/>
+    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="L201:L202"/>
+    <mergeCell ref="L207:L208"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="L221:L222"/>
+    <mergeCell ref="L223:L224"/>
+    <mergeCell ref="L229:L230"/>
+    <mergeCell ref="K249:K250"/>
+    <mergeCell ref="K251:K252"/>
+    <mergeCell ref="K253:K254"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="K201:K202"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="K221:K222"/>
+    <mergeCell ref="K223:K224"/>
+    <mergeCell ref="K229:K230"/>
+    <mergeCell ref="O3:CO3"/>
+    <mergeCell ref="CP3:DT3"/>
+    <mergeCell ref="O4:AF4"/>
+    <mergeCell ref="AG4:BJ4"/>
+    <mergeCell ref="BK4:CO4"/>
+    <mergeCell ref="CP4:DT4"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="C77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="H91:H96"/>
+    <mergeCell ref="E83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="I91:I96"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N91:N96"/>
+    <mergeCell ref="N97:N102"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="N119:N124"/>
+    <mergeCell ref="N113:N118"/>
+    <mergeCell ref="N107:N112"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="M193:M194"/>
+    <mergeCell ref="N193:N194"/>
+    <mergeCell ref="M195:M196"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="M137:M138"/>
+    <mergeCell ref="N137:N138"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="M191:M192"/>
+    <mergeCell ref="N191:N192"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="M139:M140"/>
+    <mergeCell ref="N139:N140"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="M221:M222"/>
+    <mergeCell ref="N221:N222"/>
+    <mergeCell ref="M223:M224"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="N219:N220"/>
+    <mergeCell ref="K247:K248"/>
+    <mergeCell ref="J235:J236"/>
+    <mergeCell ref="J241:J242"/>
+    <mergeCell ref="J247:J248"/>
+    <mergeCell ref="L235:L236"/>
+    <mergeCell ref="L241:L242"/>
+    <mergeCell ref="L247:L248"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="C253:G254"/>
+    <mergeCell ref="H253:H254"/>
+    <mergeCell ref="I253:I254"/>
+    <mergeCell ref="M253:M254"/>
+    <mergeCell ref="N253:N254"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="C249:G250"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="I249:I250"/>
+    <mergeCell ref="M249:M250"/>
+    <mergeCell ref="N249:N250"/>
+    <mergeCell ref="B251:G252"/>
+    <mergeCell ref="H251:H252"/>
+    <mergeCell ref="I251:I252"/>
+    <mergeCell ref="M251:M252"/>
+    <mergeCell ref="N251:N252"/>
+    <mergeCell ref="M241:M242"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="I247:I248"/>
+    <mergeCell ref="M247:M248"/>
+    <mergeCell ref="N247:N248"/>
+    <mergeCell ref="E221:G222"/>
+    <mergeCell ref="F247:G248"/>
+    <mergeCell ref="F241:G242"/>
+    <mergeCell ref="F235:G236"/>
+    <mergeCell ref="F229:G230"/>
+    <mergeCell ref="F223:G224"/>
+    <mergeCell ref="F103:G104"/>
+    <mergeCell ref="F97:G98"/>
+    <mergeCell ref="E105:G106"/>
+    <mergeCell ref="F137:G138"/>
+    <mergeCell ref="F131:G132"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="F119:G120"/>
+    <mergeCell ref="F113:G114"/>
+    <mergeCell ref="F107:G108"/>
+    <mergeCell ref="F219:G220"/>
+    <mergeCell ref="F201:G202"/>
+    <mergeCell ref="F207:G208"/>
+    <mergeCell ref="F213:G214"/>
+    <mergeCell ref="F195:G196"/>
+    <mergeCell ref="D139:G140"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="D191:G192"/>
+    <mergeCell ref="E193:G194"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="F149:G150"/>
+    <mergeCell ref="M149:M150"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="F155:G156"/>
+    <mergeCell ref="E157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="M153:M154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="F183:G184"/>
+    <mergeCell ref="M183:M184"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="L187:L188"/>
+    <mergeCell ref="M187:M188"/>
+    <mergeCell ref="N183:N188"/>
     <mergeCell ref="G95:G96"/>
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="G99:G100"/>
@@ -49907,568 +50187,292 @@
     <mergeCell ref="H105:H106"/>
     <mergeCell ref="I105:I106"/>
     <mergeCell ref="F189:G190"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="F183:G184"/>
-    <mergeCell ref="M183:M184"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="J183:J184"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="K187:K188"/>
-    <mergeCell ref="L187:L188"/>
-    <mergeCell ref="M187:M188"/>
-    <mergeCell ref="N183:N188"/>
+    <mergeCell ref="J253:J254"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="J201:J202"/>
+    <mergeCell ref="J207:J208"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="J221:J222"/>
+    <mergeCell ref="J223:J224"/>
+    <mergeCell ref="J229:J230"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="M121:M122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="N125:N130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="N131:N136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="N141:N142"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="E141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="I149:I154"/>
+    <mergeCell ref="H149:H154"/>
+    <mergeCell ref="I143:I148"/>
+    <mergeCell ref="H143:H148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="N149:N154"/>
+    <mergeCell ref="N143:N148"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="M163:M164"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="I159:I164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="M159:M160"/>
+    <mergeCell ref="F159:G160"/>
+    <mergeCell ref="F165:G166"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="L165:L166"/>
     <mergeCell ref="M161:M162"/>
     <mergeCell ref="G163:G164"/>
-    <mergeCell ref="F149:G150"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="F155:G156"/>
-    <mergeCell ref="E157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="M153:M154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="F247:G248"/>
-    <mergeCell ref="F241:G242"/>
-    <mergeCell ref="F235:G236"/>
-    <mergeCell ref="F229:G230"/>
-    <mergeCell ref="F223:G224"/>
-    <mergeCell ref="F103:G104"/>
-    <mergeCell ref="F97:G98"/>
-    <mergeCell ref="E105:G106"/>
-    <mergeCell ref="F137:G138"/>
-    <mergeCell ref="F131:G132"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="F119:G120"/>
-    <mergeCell ref="F113:G114"/>
-    <mergeCell ref="F107:G108"/>
-    <mergeCell ref="F219:G220"/>
-    <mergeCell ref="F201:G202"/>
-    <mergeCell ref="F207:G208"/>
-    <mergeCell ref="F213:G214"/>
-    <mergeCell ref="F195:G196"/>
-    <mergeCell ref="D139:G140"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="D191:G192"/>
-    <mergeCell ref="E193:G194"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="C253:G254"/>
-    <mergeCell ref="H253:H254"/>
-    <mergeCell ref="I253:I254"/>
-    <mergeCell ref="M253:M254"/>
-    <mergeCell ref="N253:N254"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="C249:G250"/>
-    <mergeCell ref="H249:H250"/>
-    <mergeCell ref="I249:I250"/>
-    <mergeCell ref="M249:M250"/>
-    <mergeCell ref="N249:N250"/>
-    <mergeCell ref="B251:G252"/>
-    <mergeCell ref="H251:H252"/>
-    <mergeCell ref="I251:I252"/>
-    <mergeCell ref="M251:M252"/>
-    <mergeCell ref="N251:N252"/>
-    <mergeCell ref="M241:M242"/>
-    <mergeCell ref="H247:H248"/>
-    <mergeCell ref="I247:I248"/>
-    <mergeCell ref="M247:M248"/>
-    <mergeCell ref="N247:N248"/>
-    <mergeCell ref="E221:G222"/>
-    <mergeCell ref="M221:M222"/>
-    <mergeCell ref="N221:N222"/>
-    <mergeCell ref="M223:M224"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="N219:N220"/>
-    <mergeCell ref="K247:K248"/>
-    <mergeCell ref="J235:J236"/>
-    <mergeCell ref="J241:J242"/>
-    <mergeCell ref="J247:J248"/>
-    <mergeCell ref="L235:L236"/>
-    <mergeCell ref="L241:L242"/>
-    <mergeCell ref="L247:L248"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="I221:I222"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="M193:M194"/>
-    <mergeCell ref="N193:N194"/>
-    <mergeCell ref="M195:M196"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="M137:M138"/>
-    <mergeCell ref="N137:N138"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="M191:M192"/>
-    <mergeCell ref="N191:N192"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="M139:M140"/>
-    <mergeCell ref="N139:N140"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="N119:N124"/>
-    <mergeCell ref="N113:N118"/>
-    <mergeCell ref="N107:N112"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N91:N96"/>
-    <mergeCell ref="N97:N102"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="H91:H96"/>
-    <mergeCell ref="E83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="I91:I96"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="E81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="C77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="O3:CO3"/>
-    <mergeCell ref="CP3:DT3"/>
-    <mergeCell ref="O4:AF4"/>
-    <mergeCell ref="AG4:BJ4"/>
-    <mergeCell ref="BK4:CO4"/>
-    <mergeCell ref="CP4:DT4"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K157:K158"/>
     <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K249:K250"/>
-    <mergeCell ref="K251:K252"/>
-    <mergeCell ref="K253:K254"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="K195:K196"/>
-    <mergeCell ref="K201:K202"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="K221:K222"/>
-    <mergeCell ref="K223:K224"/>
-    <mergeCell ref="K229:K230"/>
     <mergeCell ref="K161:K162"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="L249:L250"/>
-    <mergeCell ref="L251:L252"/>
-    <mergeCell ref="L253:L254"/>
-    <mergeCell ref="L191:L192"/>
-    <mergeCell ref="L193:L194"/>
-    <mergeCell ref="L195:L196"/>
-    <mergeCell ref="L201:L202"/>
-    <mergeCell ref="L207:L208"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="L221:L222"/>
-    <mergeCell ref="L223:L224"/>
-    <mergeCell ref="L229:L230"/>
-    <mergeCell ref="L161:L162"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="N159:N164"/>
-    <mergeCell ref="N213:N218"/>
-    <mergeCell ref="N207:N212"/>
-    <mergeCell ref="N201:N206"/>
-    <mergeCell ref="N195:N200"/>
-    <mergeCell ref="N241:N246"/>
-    <mergeCell ref="N235:N240"/>
-    <mergeCell ref="N229:N234"/>
-    <mergeCell ref="N223:N228"/>
-    <mergeCell ref="N171:N176"/>
-    <mergeCell ref="N165:N170"/>
-    <mergeCell ref="N177:N182"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="I165:I170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="F171:G172"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="L175:L176"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="L179:L180"/>
+    <mergeCell ref="M179:M180"/>
+    <mergeCell ref="I171:I176"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="F177:G178"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="L177:L178"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="L181:L182"/>
+    <mergeCell ref="M181:M182"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="I183:I188"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="I177:I182"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="K197:K198"/>
+    <mergeCell ref="L197:L198"/>
+    <mergeCell ref="M197:M198"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="L199:L200"/>
+    <mergeCell ref="M199:M200"/>
+    <mergeCell ref="I195:I200"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="J203:J204"/>
+    <mergeCell ref="K203:K204"/>
+    <mergeCell ref="L203:L204"/>
+    <mergeCell ref="M203:M204"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="J205:J206"/>
+    <mergeCell ref="K205:K206"/>
+    <mergeCell ref="L205:L206"/>
+    <mergeCell ref="M205:M206"/>
+    <mergeCell ref="I201:I206"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="M201:M202"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="K209:K210"/>
+    <mergeCell ref="L209:L210"/>
+    <mergeCell ref="M209:M210"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="I207:I212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="M207:M208"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="K215:K216"/>
+    <mergeCell ref="L215:L216"/>
+    <mergeCell ref="M215:M216"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="J217:J218"/>
+    <mergeCell ref="K217:K218"/>
+    <mergeCell ref="L217:L218"/>
+    <mergeCell ref="M217:M218"/>
+    <mergeCell ref="I213:I218"/>
+    <mergeCell ref="H213:H218"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="J225:J226"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="L225:L226"/>
+    <mergeCell ref="M225:M226"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="I223:I228"/>
+    <mergeCell ref="H223:H228"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="J231:J232"/>
+    <mergeCell ref="K231:K232"/>
+    <mergeCell ref="L231:L232"/>
+    <mergeCell ref="M231:M232"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="J233:J234"/>
+    <mergeCell ref="K233:K234"/>
+    <mergeCell ref="L233:L234"/>
+    <mergeCell ref="M233:M234"/>
+    <mergeCell ref="I229:I234"/>
+    <mergeCell ref="H229:H234"/>
+    <mergeCell ref="M229:M230"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="L237:L238"/>
+    <mergeCell ref="M237:M238"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="K239:K240"/>
+    <mergeCell ref="L239:L240"/>
+    <mergeCell ref="M239:M240"/>
+    <mergeCell ref="I235:I240"/>
+    <mergeCell ref="H235:H240"/>
+    <mergeCell ref="M235:M236"/>
+    <mergeCell ref="K235:K236"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="J243:J244"/>
+    <mergeCell ref="K243:K244"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="M243:M244"/>
+    <mergeCell ref="G245:G246"/>
+    <mergeCell ref="J245:J246"/>
+    <mergeCell ref="K245:K246"/>
+    <mergeCell ref="L245:L246"/>
+    <mergeCell ref="M245:M246"/>
+    <mergeCell ref="I241:I246"/>
+    <mergeCell ref="H241:H246"/>
+    <mergeCell ref="K241:K242"/>
+    <mergeCell ref="H97:H102"/>
+    <mergeCell ref="I97:I102"/>
+    <mergeCell ref="I131:I136"/>
+    <mergeCell ref="H131:H136"/>
+    <mergeCell ref="I125:I130"/>
+    <mergeCell ref="H125:H130"/>
+    <mergeCell ref="I119:I124"/>
+    <mergeCell ref="H119:H124"/>
+    <mergeCell ref="I113:I118"/>
+    <mergeCell ref="H113:H118"/>
+    <mergeCell ref="I107:I112"/>
+    <mergeCell ref="H107:H112"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="O7">

--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\digital-ojt-development-cause-DroneInventorySystem\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\中日本営業第2部(全員)_FY24\20.　個人フォルダ\溝口\研修\DIGITAL-OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272613E-9AE3-4136-998F-01A9B177A442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B95A31-0A0F-4A6B-A1EB-182CC9DEA5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="133">
   <si>
     <t>予定</t>
   </si>
@@ -2008,6 +2008,107 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2017,38 +2118,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2062,70 +2175,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,77 +2196,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2756,11 +2756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306D59FF-0559-3940-B3CE-CEBC92811536}">
   <dimension ref="A1:DU364"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="O119" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="AU117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119:I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3034,120 +3034,120 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="79"/>
-      <c r="O3" s="182">
+      <c r="O3" s="121">
         <v>2024</v>
       </c>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="183"/>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="183"/>
-      <c r="AJ3" s="183"/>
-      <c r="AK3" s="183"/>
-      <c r="AL3" s="183"/>
-      <c r="AM3" s="183"/>
-      <c r="AN3" s="183"/>
-      <c r="AO3" s="183"/>
-      <c r="AP3" s="183"/>
-      <c r="AQ3" s="183"/>
-      <c r="AR3" s="183"/>
-      <c r="AS3" s="183"/>
-      <c r="AT3" s="183"/>
-      <c r="AU3" s="183"/>
-      <c r="AV3" s="183"/>
-      <c r="AW3" s="183"/>
-      <c r="AX3" s="183"/>
-      <c r="AY3" s="183"/>
-      <c r="AZ3" s="183"/>
-      <c r="BA3" s="183"/>
-      <c r="BB3" s="183"/>
-      <c r="BC3" s="183"/>
-      <c r="BD3" s="183"/>
-      <c r="BE3" s="183"/>
-      <c r="BF3" s="183"/>
-      <c r="BG3" s="183"/>
-      <c r="BH3" s="183"/>
-      <c r="BI3" s="183"/>
-      <c r="BJ3" s="183"/>
-      <c r="BK3" s="183"/>
-      <c r="BL3" s="183"/>
-      <c r="BM3" s="183"/>
-      <c r="BN3" s="183"/>
-      <c r="BO3" s="183"/>
-      <c r="BP3" s="183"/>
-      <c r="BQ3" s="183"/>
-      <c r="BR3" s="183"/>
-      <c r="BS3" s="183"/>
-      <c r="BT3" s="183"/>
-      <c r="BU3" s="183"/>
-      <c r="BV3" s="183"/>
-      <c r="BW3" s="183"/>
-      <c r="BX3" s="183"/>
-      <c r="BY3" s="183"/>
-      <c r="BZ3" s="183"/>
-      <c r="CA3" s="183"/>
-      <c r="CB3" s="183"/>
-      <c r="CC3" s="183"/>
-      <c r="CD3" s="183"/>
-      <c r="CE3" s="183"/>
-      <c r="CF3" s="183"/>
-      <c r="CG3" s="183"/>
-      <c r="CH3" s="183"/>
-      <c r="CI3" s="183"/>
-      <c r="CJ3" s="183"/>
-      <c r="CK3" s="183"/>
-      <c r="CL3" s="183"/>
-      <c r="CM3" s="183"/>
-      <c r="CN3" s="183"/>
-      <c r="CO3" s="184"/>
-      <c r="CP3" s="182">
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="122"/>
+      <c r="AY3" s="122"/>
+      <c r="AZ3" s="122"/>
+      <c r="BA3" s="122"/>
+      <c r="BB3" s="122"/>
+      <c r="BC3" s="122"/>
+      <c r="BD3" s="122"/>
+      <c r="BE3" s="122"/>
+      <c r="BF3" s="122"/>
+      <c r="BG3" s="122"/>
+      <c r="BH3" s="122"/>
+      <c r="BI3" s="122"/>
+      <c r="BJ3" s="122"/>
+      <c r="BK3" s="122"/>
+      <c r="BL3" s="122"/>
+      <c r="BM3" s="122"/>
+      <c r="BN3" s="122"/>
+      <c r="BO3" s="122"/>
+      <c r="BP3" s="122"/>
+      <c r="BQ3" s="122"/>
+      <c r="BR3" s="122"/>
+      <c r="BS3" s="122"/>
+      <c r="BT3" s="122"/>
+      <c r="BU3" s="122"/>
+      <c r="BV3" s="122"/>
+      <c r="BW3" s="122"/>
+      <c r="BX3" s="122"/>
+      <c r="BY3" s="122"/>
+      <c r="BZ3" s="122"/>
+      <c r="CA3" s="122"/>
+      <c r="CB3" s="122"/>
+      <c r="CC3" s="122"/>
+      <c r="CD3" s="122"/>
+      <c r="CE3" s="122"/>
+      <c r="CF3" s="122"/>
+      <c r="CG3" s="122"/>
+      <c r="CH3" s="122"/>
+      <c r="CI3" s="122"/>
+      <c r="CJ3" s="122"/>
+      <c r="CK3" s="122"/>
+      <c r="CL3" s="122"/>
+      <c r="CM3" s="122"/>
+      <c r="CN3" s="122"/>
+      <c r="CO3" s="123"/>
+      <c r="CP3" s="121">
         <v>2025</v>
       </c>
-      <c r="CQ3" s="183"/>
-      <c r="CR3" s="183"/>
-      <c r="CS3" s="183"/>
-      <c r="CT3" s="183"/>
-      <c r="CU3" s="183"/>
-      <c r="CV3" s="183"/>
-      <c r="CW3" s="183"/>
-      <c r="CX3" s="183"/>
-      <c r="CY3" s="183"/>
-      <c r="CZ3" s="183"/>
-      <c r="DA3" s="183"/>
-      <c r="DB3" s="183"/>
-      <c r="DC3" s="183"/>
-      <c r="DD3" s="183"/>
-      <c r="DE3" s="183"/>
-      <c r="DF3" s="183"/>
-      <c r="DG3" s="183"/>
-      <c r="DH3" s="183"/>
-      <c r="DI3" s="183"/>
-      <c r="DJ3" s="183"/>
-      <c r="DK3" s="183"/>
-      <c r="DL3" s="183"/>
-      <c r="DM3" s="183"/>
-      <c r="DN3" s="183"/>
-      <c r="DO3" s="183"/>
-      <c r="DP3" s="183"/>
-      <c r="DQ3" s="183"/>
-      <c r="DR3" s="183"/>
-      <c r="DS3" s="183"/>
-      <c r="DT3" s="184"/>
+      <c r="CQ3" s="122"/>
+      <c r="CR3" s="122"/>
+      <c r="CS3" s="122"/>
+      <c r="CT3" s="122"/>
+      <c r="CU3" s="122"/>
+      <c r="CV3" s="122"/>
+      <c r="CW3" s="122"/>
+      <c r="CX3" s="122"/>
+      <c r="CY3" s="122"/>
+      <c r="CZ3" s="122"/>
+      <c r="DA3" s="122"/>
+      <c r="DB3" s="122"/>
+      <c r="DC3" s="122"/>
+      <c r="DD3" s="122"/>
+      <c r="DE3" s="122"/>
+      <c r="DF3" s="122"/>
+      <c r="DG3" s="122"/>
+      <c r="DH3" s="122"/>
+      <c r="DI3" s="122"/>
+      <c r="DJ3" s="122"/>
+      <c r="DK3" s="122"/>
+      <c r="DL3" s="122"/>
+      <c r="DM3" s="122"/>
+      <c r="DN3" s="122"/>
+      <c r="DO3" s="122"/>
+      <c r="DP3" s="122"/>
+      <c r="DQ3" s="122"/>
+      <c r="DR3" s="122"/>
+      <c r="DS3" s="122"/>
+      <c r="DT3" s="123"/>
       <c r="DU3" s="2"/>
     </row>
     <row r="4" spans="1:125" ht="18" customHeight="1">
@@ -3162,124 +3162,124 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="O4" s="182">
+      <c r="O4" s="121">
         <v>10</v>
       </c>
-      <c r="P4" s="183"/>
-      <c r="Q4" s="183"/>
-      <c r="R4" s="183"/>
-      <c r="S4" s="183"/>
-      <c r="T4" s="183"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="183"/>
-      <c r="W4" s="183"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="183"/>
-      <c r="AB4" s="183"/>
-      <c r="AC4" s="183"/>
-      <c r="AD4" s="183"/>
-      <c r="AE4" s="183"/>
-      <c r="AF4" s="184"/>
-      <c r="AG4" s="182">
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="121">
         <v>11</v>
       </c>
-      <c r="AH4" s="183"/>
-      <c r="AI4" s="183"/>
-      <c r="AJ4" s="183"/>
-      <c r="AK4" s="183"/>
-      <c r="AL4" s="183"/>
-      <c r="AM4" s="183"/>
-      <c r="AN4" s="183"/>
-      <c r="AO4" s="183"/>
-      <c r="AP4" s="183"/>
-      <c r="AQ4" s="183"/>
-      <c r="AR4" s="183"/>
-      <c r="AS4" s="183"/>
-      <c r="AT4" s="183"/>
-      <c r="AU4" s="183"/>
-      <c r="AV4" s="183"/>
-      <c r="AW4" s="183"/>
-      <c r="AX4" s="183"/>
-      <c r="AY4" s="183"/>
-      <c r="AZ4" s="183"/>
-      <c r="BA4" s="183"/>
-      <c r="BB4" s="183"/>
-      <c r="BC4" s="183"/>
-      <c r="BD4" s="183"/>
-      <c r="BE4" s="183"/>
-      <c r="BF4" s="183"/>
-      <c r="BG4" s="183"/>
-      <c r="BH4" s="183"/>
-      <c r="BI4" s="183"/>
-      <c r="BJ4" s="184"/>
-      <c r="BK4" s="182">
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="122"/>
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="122"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="121">
         <v>12</v>
       </c>
-      <c r="BL4" s="183"/>
-      <c r="BM4" s="183"/>
-      <c r="BN4" s="183"/>
-      <c r="BO4" s="183"/>
-      <c r="BP4" s="183"/>
-      <c r="BQ4" s="183"/>
-      <c r="BR4" s="183"/>
-      <c r="BS4" s="183"/>
-      <c r="BT4" s="183"/>
-      <c r="BU4" s="183"/>
-      <c r="BV4" s="183"/>
-      <c r="BW4" s="183"/>
-      <c r="BX4" s="183"/>
-      <c r="BY4" s="183"/>
-      <c r="BZ4" s="183"/>
-      <c r="CA4" s="183"/>
-      <c r="CB4" s="183"/>
-      <c r="CC4" s="183"/>
-      <c r="CD4" s="183"/>
-      <c r="CE4" s="183"/>
-      <c r="CF4" s="183"/>
-      <c r="CG4" s="183"/>
-      <c r="CH4" s="183"/>
-      <c r="CI4" s="183"/>
-      <c r="CJ4" s="183"/>
-      <c r="CK4" s="183"/>
-      <c r="CL4" s="183"/>
-      <c r="CM4" s="183"/>
-      <c r="CN4" s="183"/>
-      <c r="CO4" s="184"/>
-      <c r="CP4" s="182">
+      <c r="BL4" s="122"/>
+      <c r="BM4" s="122"/>
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="122"/>
+      <c r="BP4" s="122"/>
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="122"/>
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="122"/>
+      <c r="BU4" s="122"/>
+      <c r="BV4" s="122"/>
+      <c r="BW4" s="122"/>
+      <c r="BX4" s="122"/>
+      <c r="BY4" s="122"/>
+      <c r="BZ4" s="122"/>
+      <c r="CA4" s="122"/>
+      <c r="CB4" s="122"/>
+      <c r="CC4" s="122"/>
+      <c r="CD4" s="122"/>
+      <c r="CE4" s="122"/>
+      <c r="CF4" s="122"/>
+      <c r="CG4" s="122"/>
+      <c r="CH4" s="122"/>
+      <c r="CI4" s="122"/>
+      <c r="CJ4" s="122"/>
+      <c r="CK4" s="122"/>
+      <c r="CL4" s="122"/>
+      <c r="CM4" s="122"/>
+      <c r="CN4" s="122"/>
+      <c r="CO4" s="123"/>
+      <c r="CP4" s="121">
         <v>1</v>
       </c>
-      <c r="CQ4" s="183"/>
-      <c r="CR4" s="183"/>
-      <c r="CS4" s="183"/>
-      <c r="CT4" s="183"/>
-      <c r="CU4" s="183"/>
-      <c r="CV4" s="183"/>
-      <c r="CW4" s="183"/>
-      <c r="CX4" s="183"/>
-      <c r="CY4" s="183"/>
-      <c r="CZ4" s="183"/>
-      <c r="DA4" s="183"/>
-      <c r="DB4" s="183"/>
-      <c r="DC4" s="183"/>
-      <c r="DD4" s="183"/>
-      <c r="DE4" s="183"/>
-      <c r="DF4" s="183"/>
-      <c r="DG4" s="183"/>
-      <c r="DH4" s="183"/>
-      <c r="DI4" s="183"/>
-      <c r="DJ4" s="183"/>
-      <c r="DK4" s="183"/>
-      <c r="DL4" s="183"/>
-      <c r="DM4" s="183"/>
-      <c r="DN4" s="183"/>
-      <c r="DO4" s="183"/>
-      <c r="DP4" s="183"/>
-      <c r="DQ4" s="183"/>
-      <c r="DR4" s="183"/>
-      <c r="DS4" s="183"/>
-      <c r="DT4" s="184"/>
+      <c r="CQ4" s="122"/>
+      <c r="CR4" s="122"/>
+      <c r="CS4" s="122"/>
+      <c r="CT4" s="122"/>
+      <c r="CU4" s="122"/>
+      <c r="CV4" s="122"/>
+      <c r="CW4" s="122"/>
+      <c r="CX4" s="122"/>
+      <c r="CY4" s="122"/>
+      <c r="CZ4" s="122"/>
+      <c r="DA4" s="122"/>
+      <c r="DB4" s="122"/>
+      <c r="DC4" s="122"/>
+      <c r="DD4" s="122"/>
+      <c r="DE4" s="122"/>
+      <c r="DF4" s="122"/>
+      <c r="DG4" s="122"/>
+      <c r="DH4" s="122"/>
+      <c r="DI4" s="122"/>
+      <c r="DJ4" s="122"/>
+      <c r="DK4" s="122"/>
+      <c r="DL4" s="122"/>
+      <c r="DM4" s="122"/>
+      <c r="DN4" s="122"/>
+      <c r="DO4" s="122"/>
+      <c r="DP4" s="122"/>
+      <c r="DQ4" s="122"/>
+      <c r="DR4" s="122"/>
+      <c r="DS4" s="122"/>
+      <c r="DT4" s="123"/>
       <c r="DU4" s="8"/>
     </row>
     <row r="5" spans="1:125" ht="18" customHeight="1">
@@ -4077,33 +4077,33 @@
     </row>
     <row r="7" spans="1:125" ht="9.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="178" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="178" t="s">
+      <c r="I7" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="179" t="s">
+      <c r="J7" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="179" t="s">
+      <c r="K7" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="179" t="s">
+      <c r="L7" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="179" t="s">
+      <c r="M7" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="N7" s="180" t="s">
+      <c r="N7" s="130" t="s">
         <v>37</v>
       </c>
       <c r="O7" s="15"/>
@@ -4220,19 +4220,19 @@
     </row>
     <row r="8" spans="1:125" ht="9.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="180"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="130"/>
       <c r="O8" s="17"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -4348,20 +4348,20 @@
     <row r="9" spans="1:125" ht="9.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="181" t="s">
+      <c r="C9" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="129"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="133"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
@@ -4477,18 +4477,18 @@
     <row r="10" spans="1:125" ht="9.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="129"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="133"/>
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
@@ -4604,20 +4604,20 @@
     <row r="11" spans="1:125" ht="9.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="172" t="s">
+      <c r="C11" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="129"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="133"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
@@ -4733,18 +4733,18 @@
     <row r="12" spans="1:125" ht="9.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="129"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="133"/>
       <c r="O12" s="25"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
@@ -4861,23 +4861,23 @@
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="140">
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="137">
         <v>0.5</v>
       </c>
-      <c r="I13" s="169"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118" t="s">
+      <c r="I13" s="138"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="118"/>
-      <c r="N13" s="141">
+      <c r="M13" s="108"/>
+      <c r="N13" s="139">
         <v>100</v>
       </c>
       <c r="O13" s="17"/>
@@ -4996,17 +4996,17 @@
       <c r="A14" s="2"/>
       <c r="B14" s="24"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="141"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="139"/>
       <c r="O14" s="17"/>
       <c r="Q14" s="82"/>
       <c r="R14" s="18"/>
@@ -5122,23 +5122,23 @@
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="176" t="s">
+      <c r="D15" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="140">
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="137">
         <v>0.5</v>
       </c>
-      <c r="I15" s="169"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118" t="s">
+      <c r="I15" s="138"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="118"/>
-      <c r="N15" s="141">
+      <c r="M15" s="108"/>
+      <c r="N15" s="139">
         <v>100</v>
       </c>
       <c r="O15" s="32"/>
@@ -5257,17 +5257,17 @@
       <c r="A16" s="2"/>
       <c r="B16" s="24"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="141"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="139"/>
       <c r="O16" s="32"/>
       <c r="Q16" s="82"/>
       <c r="R16" s="18"/>
@@ -5383,23 +5383,23 @@
       <c r="A17" s="2"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="176" t="s">
+      <c r="D17" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="140">
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="137">
         <v>0.5</v>
       </c>
-      <c r="I17" s="169"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118" t="s">
+      <c r="I17" s="138"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="118"/>
-      <c r="N17" s="141">
+      <c r="M17" s="108"/>
+      <c r="N17" s="139">
         <v>100</v>
       </c>
       <c r="O17" s="32"/>
@@ -5518,17 +5518,17 @@
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="141"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="139"/>
       <c r="O18" s="32"/>
       <c r="Q18" s="82"/>
       <c r="R18" s="18"/>
@@ -5644,23 +5644,23 @@
       <c r="A19" s="2"/>
       <c r="B19" s="24"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="176" t="s">
+      <c r="D19" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="140">
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="137">
         <v>0.5</v>
       </c>
-      <c r="I19" s="169"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118" t="s">
+      <c r="I19" s="138"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="118"/>
-      <c r="N19" s="141">
+      <c r="M19" s="108"/>
+      <c r="N19" s="139">
         <v>100</v>
       </c>
       <c r="O19" s="32"/>
@@ -5779,17 +5779,17 @@
       <c r="A20" s="2"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="141"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="139"/>
       <c r="O20" s="34"/>
       <c r="Q20" s="86"/>
       <c r="R20" s="35"/>
@@ -5904,20 +5904,20 @@
     <row r="21" spans="1:125" ht="9.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="129"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="133"/>
       <c r="O21" s="21"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="22"/>
@@ -6033,18 +6033,18 @@
     <row r="22" spans="1:125" ht="9.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="129"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="133"/>
       <c r="O22" s="25"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
@@ -6161,23 +6161,23 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="173" t="s">
+      <c r="D23" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="140">
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="137">
         <v>2</v>
       </c>
-      <c r="I23" s="169"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118" t="s">
+      <c r="I23" s="138"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="118"/>
-      <c r="N23" s="141">
+      <c r="M23" s="108"/>
+      <c r="N23" s="139">
         <v>100</v>
       </c>
       <c r="O23" s="32"/>
@@ -6296,17 +6296,17 @@
       <c r="A24" s="2"/>
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="141"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="139"/>
       <c r="O24" s="32"/>
       <c r="P24" s="18"/>
       <c r="R24" s="82"/>
@@ -6421,20 +6421,20 @@
     <row r="25" spans="1:125" ht="9.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="172" t="s">
+      <c r="C25" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="129"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="133"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="22"/>
@@ -6550,18 +6550,18 @@
     <row r="26" spans="1:125" ht="9.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="129"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="133"/>
       <c r="O26" s="25"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -6678,23 +6678,23 @@
       <c r="A27" s="2"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="173" t="s">
+      <c r="D27" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="140">
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="137">
         <v>1</v>
       </c>
-      <c r="I27" s="169"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118" t="s">
+      <c r="I27" s="138"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="118"/>
-      <c r="N27" s="141">
+      <c r="M27" s="108"/>
+      <c r="N27" s="139">
         <v>100</v>
       </c>
       <c r="O27" s="32"/>
@@ -6813,17 +6813,17 @@
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="141"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="139"/>
       <c r="O28" s="32"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -6940,23 +6940,23 @@
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="174" t="s">
+      <c r="D29" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="140">
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="137">
         <v>1</v>
       </c>
-      <c r="I29" s="169"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118" t="s">
+      <c r="I29" s="138"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="118"/>
-      <c r="N29" s="141">
+      <c r="M29" s="108"/>
+      <c r="N29" s="139">
         <v>100</v>
       </c>
       <c r="O29" s="32"/>
@@ -7075,17 +7075,17 @@
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="141"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="139"/>
       <c r="O30" s="34"/>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
@@ -7200,20 +7200,20 @@
     <row r="31" spans="1:125" ht="9.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="172" t="s">
+      <c r="C31" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="129"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="133"/>
       <c r="O31" s="21"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="22"/>
@@ -7329,18 +7329,18 @@
     <row r="32" spans="1:125" ht="9.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="129"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="133"/>
       <c r="O32" s="25"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
@@ -7457,19 +7457,19 @@
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="157" t="s">
+      <c r="D33" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="129"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="133"/>
       <c r="O33" s="42"/>
       <c r="P33" s="43"/>
       <c r="Q33" s="43"/>
@@ -7586,17 +7586,17 @@
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="129"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="133"/>
       <c r="O34" s="44"/>
       <c r="P34" s="31"/>
       <c r="Q34" s="31"/>
@@ -7714,22 +7714,22 @@
       <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="154" t="s">
+      <c r="E35" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="158"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="140">
+      <c r="F35" s="126"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="137">
         <v>1</v>
       </c>
-      <c r="I35" s="169"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118" t="s">
+      <c r="I35" s="138"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="118"/>
-      <c r="N35" s="141">
+      <c r="M35" s="108"/>
+      <c r="N35" s="139">
         <v>100</v>
       </c>
       <c r="O35" s="32"/>
@@ -7849,16 +7849,16 @@
       <c r="B36" s="24"/>
       <c r="C36" s="2"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="119"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="119"/>
-      <c r="N36" s="141"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="139"/>
       <c r="O36" s="32"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -7976,20 +7976,20 @@
       <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="154" t="s">
+      <c r="E37" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="158"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118" t="s">
+      <c r="F37" s="126"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="118"/>
-      <c r="N37" s="141">
+      <c r="M37" s="108"/>
+      <c r="N37" s="139">
         <v>100</v>
       </c>
       <c r="O37" s="32"/>
@@ -8109,16 +8109,16 @@
       <c r="B38" s="24"/>
       <c r="C38" s="2"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="141"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="139"/>
       <c r="O38" s="34"/>
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
@@ -8235,19 +8235,19 @@
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="171" t="s">
+      <c r="D39" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="129"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="133"/>
       <c r="O39" s="42"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
@@ -8364,17 +8364,17 @@
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="129"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="133"/>
       <c r="O40" s="44"/>
       <c r="P40" s="31"/>
       <c r="Q40" s="31"/>
@@ -8492,22 +8492,22 @@
       <c r="B41" s="24"/>
       <c r="C41" s="2"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="154" t="s">
+      <c r="E41" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="158"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="140">
+      <c r="F41" s="126"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="137">
         <v>1</v>
       </c>
-      <c r="I41" s="169"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118" t="s">
+      <c r="I41" s="138"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="118"/>
-      <c r="N41" s="141">
+      <c r="M41" s="108"/>
+      <c r="N41" s="139">
         <v>100</v>
       </c>
       <c r="O41" s="32"/>
@@ -8627,16 +8627,16 @@
       <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="141"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="139"/>
       <c r="O42" s="32"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
@@ -8753,22 +8753,22 @@
       <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="154" t="s">
+      <c r="E43" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="158"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="140">
+      <c r="F43" s="126"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="137">
         <v>4</v>
       </c>
-      <c r="I43" s="169"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118" t="s">
+      <c r="I43" s="138"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="118"/>
-      <c r="N43" s="141">
+      <c r="M43" s="108"/>
+      <c r="N43" s="139">
         <v>100</v>
       </c>
       <c r="O43" s="32"/>
@@ -8888,16 +8888,16 @@
       <c r="B44" s="24"/>
       <c r="C44" s="2"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="159"/>
-      <c r="F44" s="160"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="141"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="139"/>
       <c r="O44" s="32"/>
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
@@ -9014,22 +9014,22 @@
       <c r="B45" s="24"/>
       <c r="C45" s="2"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="154" t="s">
+      <c r="E45" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="158"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="140">
+      <c r="F45" s="126"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="137">
         <v>0.5</v>
       </c>
-      <c r="I45" s="169"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118" t="s">
+      <c r="I45" s="138"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="118"/>
-      <c r="N45" s="141">
+      <c r="M45" s="108"/>
+      <c r="N45" s="139">
         <v>100</v>
       </c>
       <c r="O45" s="32"/>
@@ -9149,16 +9149,16 @@
       <c r="B46" s="24"/>
       <c r="C46" s="2"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="169"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="141"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="109"/>
+      <c r="N46" s="139"/>
       <c r="O46" s="32"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
@@ -9276,22 +9276,22 @@
       <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="154" t="s">
+      <c r="E47" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="158"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="140">
+      <c r="F47" s="126"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="137">
         <v>4</v>
       </c>
-      <c r="I47" s="169"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118" t="s">
+      <c r="I47" s="138"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="118"/>
-      <c r="N47" s="141">
+      <c r="M47" s="108"/>
+      <c r="N47" s="139">
         <v>100</v>
       </c>
       <c r="O47" s="32"/>
@@ -9411,16 +9411,16 @@
       <c r="B48" s="24"/>
       <c r="C48" s="2"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="141"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="139"/>
       <c r="O48" s="32"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
@@ -9538,22 +9538,22 @@
       <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="154" t="s">
+      <c r="E49" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="158"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="140">
+      <c r="F49" s="126"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="137">
         <v>4</v>
       </c>
-      <c r="I49" s="169"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118" t="s">
+      <c r="I49" s="138"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="118"/>
-      <c r="N49" s="141">
+      <c r="M49" s="108"/>
+      <c r="N49" s="139">
         <v>100</v>
       </c>
       <c r="O49" s="32"/>
@@ -9673,16 +9673,16 @@
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="141"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="109"/>
+      <c r="M50" s="109"/>
+      <c r="N50" s="139"/>
       <c r="O50" s="32"/>
       <c r="P50" s="18"/>
       <c r="Q50" s="18"/>
@@ -9800,22 +9800,22 @@
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="154" t="s">
+      <c r="E51" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="158"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="140">
+      <c r="F51" s="126"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="137">
         <v>0.5</v>
       </c>
-      <c r="I51" s="169"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118" t="s">
+      <c r="I51" s="138"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="118"/>
-      <c r="N51" s="141">
+      <c r="M51" s="108"/>
+      <c r="N51" s="139">
         <v>100</v>
       </c>
       <c r="O51" s="32"/>
@@ -9935,16 +9935,16 @@
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="160"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="141"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="109"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="139"/>
       <c r="O52" s="34"/>
       <c r="P52" s="35"/>
       <c r="Q52" s="35"/>
@@ -10061,19 +10061,19 @@
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="157" t="s">
+      <c r="D53" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="158"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="136"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="136"/>
-      <c r="N53" s="129"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="133"/>
       <c r="O53" s="42"/>
       <c r="P53" s="43"/>
       <c r="Q53" s="43"/>
@@ -10190,17 +10190,17 @@
       <c r="A54" s="2"/>
       <c r="B54" s="24"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="160"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="136"/>
-      <c r="K54" s="136"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="136"/>
-      <c r="N54" s="129"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="133"/>
       <c r="O54" s="44"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="31"/>
@@ -10318,22 +10318,22 @@
       <c r="B55" s="24"/>
       <c r="C55" s="2"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="154" t="s">
+      <c r="E55" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="158"/>
-      <c r="G55" s="167"/>
-      <c r="H55" s="140">
+      <c r="F55" s="126"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="137">
         <v>4</v>
       </c>
-      <c r="I55" s="169"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="118" t="s">
+      <c r="I55" s="138"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="M55" s="118"/>
-      <c r="N55" s="141">
+      <c r="M55" s="108"/>
+      <c r="N55" s="139">
         <v>100</v>
       </c>
       <c r="O55" s="32"/>
@@ -10452,16 +10452,16 @@
       <c r="B56" s="24"/>
       <c r="C56" s="2"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="168"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="141"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="138"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="109"/>
+      <c r="M56" s="109"/>
+      <c r="N56" s="139"/>
       <c r="O56" s="32"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
@@ -10579,22 +10579,22 @@
       <c r="B57" s="24"/>
       <c r="C57" s="2"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="154" t="s">
+      <c r="E57" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="158"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="140">
+      <c r="F57" s="126"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="137">
         <v>4</v>
       </c>
-      <c r="I57" s="169"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118" t="s">
+      <c r="I57" s="138"/>
+      <c r="J57" s="108"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="M57" s="118"/>
-      <c r="N57" s="141">
+      <c r="M57" s="108"/>
+      <c r="N57" s="139">
         <v>100</v>
       </c>
       <c r="O57" s="32"/>
@@ -10714,16 +10714,16 @@
       <c r="B58" s="24"/>
       <c r="C58" s="2"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="160"/>
-      <c r="G58" s="168"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="169"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="141"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="128"/>
+      <c r="G58" s="141"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
+      <c r="L58" s="109"/>
+      <c r="M58" s="109"/>
+      <c r="N58" s="139"/>
       <c r="O58" s="32"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="18"/>
@@ -10841,22 +10841,22 @@
       <c r="B59" s="24"/>
       <c r="C59" s="2"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="154" t="s">
+      <c r="E59" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="158"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="140">
+      <c r="F59" s="126"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="137">
         <v>4</v>
       </c>
-      <c r="I59" s="169"/>
-      <c r="J59" s="118"/>
-      <c r="K59" s="118"/>
-      <c r="L59" s="118" t="s">
+      <c r="I59" s="138"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="M59" s="118"/>
-      <c r="N59" s="141">
+      <c r="M59" s="108"/>
+      <c r="N59" s="139">
         <v>100</v>
       </c>
       <c r="O59" s="32"/>
@@ -10976,16 +10976,16 @@
       <c r="B60" s="24"/>
       <c r="C60" s="2"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="159"/>
-      <c r="F60" s="160"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="169"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="141"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="141"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="139"/>
       <c r="O60" s="32"/>
       <c r="P60" s="18"/>
       <c r="Q60" s="18"/>
@@ -11103,22 +11103,22 @@
       <c r="B61" s="24"/>
       <c r="C61" s="2"/>
       <c r="D61" s="46"/>
-      <c r="E61" s="154" t="s">
+      <c r="E61" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="158"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="140">
+      <c r="F61" s="126"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="137">
         <v>0.5</v>
       </c>
-      <c r="I61" s="169"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="118"/>
-      <c r="L61" s="118" t="s">
+      <c r="I61" s="138"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="M61" s="118"/>
-      <c r="N61" s="141">
+      <c r="M61" s="108"/>
+      <c r="N61" s="139">
         <v>100</v>
       </c>
       <c r="O61" s="32"/>
@@ -11238,16 +11238,16 @@
       <c r="B62" s="24"/>
       <c r="C62" s="2"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="160"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="119"/>
-      <c r="K62" s="119"/>
-      <c r="L62" s="119"/>
-      <c r="M62" s="119"/>
-      <c r="N62" s="141"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="109"/>
+      <c r="K62" s="109"/>
+      <c r="L62" s="109"/>
+      <c r="M62" s="109"/>
+      <c r="N62" s="139"/>
       <c r="O62" s="34"/>
       <c r="P62" s="35"/>
       <c r="Q62" s="35"/>
@@ -11364,19 +11364,19 @@
       <c r="A63" s="2"/>
       <c r="B63" s="24"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="157" t="s">
+      <c r="D63" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
-      <c r="K63" s="130"/>
-      <c r="L63" s="130"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="129"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="117"/>
+      <c r="M63" s="117"/>
+      <c r="N63" s="133"/>
       <c r="O63" s="42"/>
       <c r="P63" s="43"/>
       <c r="Q63" s="43"/>
@@ -11493,17 +11493,17 @@
       <c r="A64" s="2"/>
       <c r="B64" s="24"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="160"/>
-      <c r="F64" s="160"/>
-      <c r="G64" s="160"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="131"/>
-      <c r="J64" s="131"/>
-      <c r="K64" s="131"/>
-      <c r="L64" s="131"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="129"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="128"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="118"/>
+      <c r="J64" s="118"/>
+      <c r="K64" s="118"/>
+      <c r="L64" s="118"/>
+      <c r="M64" s="118"/>
+      <c r="N64" s="133"/>
       <c r="O64" s="44"/>
       <c r="P64" s="31"/>
       <c r="Q64" s="31"/>
@@ -11621,20 +11621,20 @@
       <c r="B65" s="24"/>
       <c r="C65" s="2"/>
       <c r="D65" s="46"/>
-      <c r="E65" s="154" t="s">
+      <c r="E65" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="158"/>
-      <c r="G65" s="167"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="118"/>
-      <c r="K65" s="118"/>
-      <c r="L65" s="118" t="s">
+      <c r="F65" s="126"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="137"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="M65" s="118"/>
-      <c r="N65" s="141">
+      <c r="M65" s="108"/>
+      <c r="N65" s="139">
         <v>100</v>
       </c>
       <c r="O65" s="32"/>
@@ -11754,16 +11754,16 @@
       <c r="B66" s="24"/>
       <c r="C66" s="2"/>
       <c r="D66" s="46"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="160"/>
-      <c r="G66" s="168"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="119"/>
-      <c r="K66" s="119"/>
-      <c r="L66" s="119"/>
-      <c r="M66" s="119"/>
-      <c r="N66" s="141"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="109"/>
+      <c r="K66" s="109"/>
+      <c r="L66" s="109"/>
+      <c r="M66" s="109"/>
+      <c r="N66" s="139"/>
       <c r="O66" s="32"/>
       <c r="P66" s="18"/>
       <c r="Q66" s="18"/>
@@ -11881,20 +11881,20 @@
       <c r="B67" s="24"/>
       <c r="C67" s="2"/>
       <c r="D67" s="46"/>
-      <c r="E67" s="154" t="s">
+      <c r="E67" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="158"/>
-      <c r="G67" s="167"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="118"/>
-      <c r="K67" s="118"/>
-      <c r="L67" s="118" t="s">
+      <c r="F67" s="126"/>
+      <c r="G67" s="140"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="108"/>
+      <c r="L67" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="M67" s="118"/>
-      <c r="N67" s="141">
+      <c r="M67" s="108"/>
+      <c r="N67" s="139">
         <v>100</v>
       </c>
       <c r="O67" s="32"/>
@@ -12012,16 +12012,16 @@
       <c r="B68" s="24"/>
       <c r="C68" s="2"/>
       <c r="D68" s="46"/>
-      <c r="E68" s="159"/>
-      <c r="F68" s="160"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="119"/>
-      <c r="K68" s="119"/>
-      <c r="L68" s="119"/>
-      <c r="M68" s="119"/>
-      <c r="N68" s="141"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="141"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="109"/>
+      <c r="L68" s="109"/>
+      <c r="M68" s="109"/>
+      <c r="N68" s="139"/>
       <c r="O68" s="32"/>
       <c r="P68" s="18"/>
       <c r="Q68" s="18"/>
@@ -12139,20 +12139,20 @@
       <c r="B69" s="24"/>
       <c r="C69" s="2"/>
       <c r="D69" s="46"/>
-      <c r="E69" s="154" t="s">
+      <c r="E69" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="F69" s="158"/>
-      <c r="G69" s="167"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
-      <c r="J69" s="118"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118" t="s">
+      <c r="F69" s="126"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="137"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="108"/>
+      <c r="L69" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="M69" s="118"/>
-      <c r="N69" s="141">
+      <c r="M69" s="108"/>
+      <c r="N69" s="139">
         <v>100</v>
       </c>
       <c r="O69" s="32"/>
@@ -12272,16 +12272,16 @@
       <c r="B70" s="24"/>
       <c r="C70" s="2"/>
       <c r="D70" s="46"/>
-      <c r="E70" s="159"/>
-      <c r="F70" s="160"/>
-      <c r="G70" s="168"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140"/>
-      <c r="J70" s="119"/>
-      <c r="K70" s="119"/>
-      <c r="L70" s="119"/>
-      <c r="M70" s="119"/>
-      <c r="N70" s="141"/>
+      <c r="E70" s="127"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="141"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="109"/>
+      <c r="K70" s="109"/>
+      <c r="L70" s="109"/>
+      <c r="M70" s="109"/>
+      <c r="N70" s="139"/>
       <c r="O70" s="32"/>
       <c r="P70" s="18"/>
       <c r="Q70" s="18"/>
@@ -12399,20 +12399,20 @@
       <c r="B71" s="24"/>
       <c r="C71" s="2"/>
       <c r="D71" s="46"/>
-      <c r="E71" s="154" t="s">
+      <c r="E71" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="158"/>
-      <c r="G71" s="167"/>
-      <c r="H71" s="140"/>
-      <c r="I71" s="140"/>
-      <c r="J71" s="118"/>
-      <c r="K71" s="118"/>
-      <c r="L71" s="118" t="s">
+      <c r="F71" s="126"/>
+      <c r="G71" s="140"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="137"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
+      <c r="L71" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="M71" s="118"/>
-      <c r="N71" s="141">
+      <c r="M71" s="108"/>
+      <c r="N71" s="139">
         <v>100</v>
       </c>
       <c r="O71" s="32"/>
@@ -12532,16 +12532,16 @@
       <c r="B72" s="24"/>
       <c r="C72" s="2"/>
       <c r="D72" s="46"/>
-      <c r="E72" s="159"/>
-      <c r="F72" s="160"/>
-      <c r="G72" s="168"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="119"/>
-      <c r="K72" s="119"/>
-      <c r="L72" s="119"/>
-      <c r="M72" s="119"/>
-      <c r="N72" s="141"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="137"/>
+      <c r="J72" s="109"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
+      <c r="N72" s="139"/>
       <c r="O72" s="32"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="18"/>
@@ -12659,20 +12659,20 @@
       <c r="B73" s="24"/>
       <c r="C73" s="2"/>
       <c r="D73" s="46"/>
-      <c r="E73" s="154" t="s">
+      <c r="E73" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="158"/>
-      <c r="G73" s="167"/>
-      <c r="H73" s="140"/>
-      <c r="I73" s="140"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="118"/>
-      <c r="L73" s="118" t="s">
+      <c r="F73" s="126"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="108"/>
+      <c r="L73" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="M73" s="118"/>
-      <c r="N73" s="141">
+      <c r="M73" s="108"/>
+      <c r="N73" s="139">
         <v>100</v>
       </c>
       <c r="O73" s="32"/>
@@ -12792,16 +12792,16 @@
       <c r="B74" s="24"/>
       <c r="C74" s="2"/>
       <c r="D74" s="47"/>
-      <c r="E74" s="159"/>
-      <c r="F74" s="160"/>
-      <c r="G74" s="168"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="119"/>
-      <c r="K74" s="119"/>
-      <c r="L74" s="119"/>
-      <c r="M74" s="119"/>
-      <c r="N74" s="141"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="141"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="109"/>
+      <c r="K74" s="109"/>
+      <c r="L74" s="109"/>
+      <c r="M74" s="109"/>
+      <c r="N74" s="139"/>
       <c r="O74" s="34"/>
       <c r="P74" s="35"/>
       <c r="Q74" s="35"/>
@@ -12917,20 +12917,20 @@
     <row r="75" spans="1:125" ht="9.75" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="51"/>
-      <c r="C75" s="161" t="s">
+      <c r="C75" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="158"/>
-      <c r="E75" s="158"/>
-      <c r="F75" s="158"/>
-      <c r="G75" s="158"/>
-      <c r="H75" s="130"/>
-      <c r="I75" s="130"/>
-      <c r="J75" s="130"/>
-      <c r="K75" s="130"/>
-      <c r="L75" s="130"/>
-      <c r="M75" s="130"/>
-      <c r="N75" s="129"/>
+      <c r="D75" s="126"/>
+      <c r="E75" s="126"/>
+      <c r="F75" s="126"/>
+      <c r="G75" s="126"/>
+      <c r="H75" s="117"/>
+      <c r="I75" s="117"/>
+      <c r="J75" s="117"/>
+      <c r="K75" s="117"/>
+      <c r="L75" s="117"/>
+      <c r="M75" s="117"/>
+      <c r="N75" s="133"/>
       <c r="O75" s="42"/>
       <c r="P75" s="43"/>
       <c r="Q75" s="43"/>
@@ -13046,18 +13046,18 @@
     <row r="76" spans="1:125" ht="9.75" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="51"/>
-      <c r="C76" s="160"/>
-      <c r="D76" s="160"/>
-      <c r="E76" s="160"/>
-      <c r="F76" s="160"/>
-      <c r="G76" s="160"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="131"/>
-      <c r="J76" s="131"/>
-      <c r="K76" s="131"/>
-      <c r="L76" s="131"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="129"/>
+      <c r="C76" s="128"/>
+      <c r="D76" s="128"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
+      <c r="H76" s="118"/>
+      <c r="I76" s="118"/>
+      <c r="J76" s="118"/>
+      <c r="K76" s="118"/>
+      <c r="L76" s="118"/>
+      <c r="M76" s="118"/>
+      <c r="N76" s="133"/>
       <c r="O76" s="44"/>
       <c r="P76" s="31"/>
       <c r="Q76" s="31"/>
@@ -13173,20 +13173,20 @@
     <row r="77" spans="1:125" ht="9.75" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="51"/>
-      <c r="C77" s="161" t="s">
+      <c r="C77" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="158"/>
-      <c r="E77" s="158"/>
-      <c r="F77" s="158"/>
-      <c r="G77" s="158"/>
-      <c r="H77" s="130"/>
-      <c r="I77" s="130"/>
-      <c r="J77" s="130"/>
-      <c r="K77" s="130"/>
-      <c r="L77" s="130"/>
-      <c r="M77" s="130"/>
-      <c r="N77" s="129"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="133"/>
       <c r="O77" s="42"/>
       <c r="P77" s="43"/>
       <c r="Q77" s="43"/>
@@ -13302,18 +13302,18 @@
     <row r="78" spans="1:125" ht="9.75" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="160"/>
-      <c r="E78" s="160"/>
-      <c r="F78" s="160"/>
-      <c r="G78" s="160"/>
-      <c r="H78" s="131"/>
-      <c r="I78" s="131"/>
-      <c r="J78" s="131"/>
-      <c r="K78" s="131"/>
-      <c r="L78" s="131"/>
-      <c r="M78" s="131"/>
-      <c r="N78" s="129"/>
+      <c r="C78" s="128"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="128"/>
+      <c r="G78" s="128"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="118"/>
+      <c r="N78" s="133"/>
       <c r="O78" s="44"/>
       <c r="P78" s="31"/>
       <c r="Q78" s="31"/>
@@ -13430,19 +13430,19 @@
       <c r="A79" s="2"/>
       <c r="B79" s="24"/>
       <c r="C79" s="41"/>
-      <c r="D79" s="157" t="s">
+      <c r="D79" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="158"/>
-      <c r="F79" s="158"/>
-      <c r="G79" s="158"/>
-      <c r="H79" s="136"/>
-      <c r="I79" s="136"/>
-      <c r="J79" s="136"/>
-      <c r="K79" s="136"/>
-      <c r="L79" s="136"/>
-      <c r="M79" s="136"/>
-      <c r="N79" s="129"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="116"/>
+      <c r="N79" s="133"/>
       <c r="O79" s="42"/>
       <c r="P79" s="43"/>
       <c r="Q79" s="43"/>
@@ -13559,17 +13559,17 @@
       <c r="A80" s="2"/>
       <c r="B80" s="24"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="159"/>
-      <c r="E80" s="160"/>
-      <c r="F80" s="160"/>
-      <c r="G80" s="160"/>
-      <c r="H80" s="136"/>
-      <c r="I80" s="136"/>
-      <c r="J80" s="136"/>
-      <c r="K80" s="136"/>
-      <c r="L80" s="136"/>
-      <c r="M80" s="136"/>
-      <c r="N80" s="129"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="128"/>
+      <c r="G80" s="128"/>
+      <c r="H80" s="116"/>
+      <c r="I80" s="116"/>
+      <c r="J80" s="116"/>
+      <c r="K80" s="116"/>
+      <c r="L80" s="116"/>
+      <c r="M80" s="116"/>
+      <c r="N80" s="133"/>
       <c r="O80" s="44"/>
       <c r="P80" s="31"/>
       <c r="Q80" s="31"/>
@@ -13687,20 +13687,20 @@
       <c r="B81" s="24"/>
       <c r="C81" s="2"/>
       <c r="D81" s="46"/>
-      <c r="E81" s="154" t="s">
+      <c r="E81" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="F81" s="158"/>
-      <c r="G81" s="167"/>
-      <c r="H81" s="140"/>
-      <c r="I81" s="140"/>
-      <c r="J81" s="118"/>
-      <c r="K81" s="118"/>
-      <c r="L81" s="118" t="s">
+      <c r="F81" s="126"/>
+      <c r="G81" s="140"/>
+      <c r="H81" s="137"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="108"/>
+      <c r="K81" s="108"/>
+      <c r="L81" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="M81" s="118"/>
-      <c r="N81" s="141"/>
+      <c r="M81" s="108"/>
+      <c r="N81" s="139"/>
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
       <c r="Q81" s="18"/>
@@ -13818,16 +13818,16 @@
       <c r="B82" s="24"/>
       <c r="C82" s="2"/>
       <c r="D82" s="46"/>
-      <c r="E82" s="159"/>
-      <c r="F82" s="160"/>
-      <c r="G82" s="168"/>
-      <c r="H82" s="140"/>
-      <c r="I82" s="140"/>
-      <c r="J82" s="119"/>
-      <c r="K82" s="119"/>
-      <c r="L82" s="119"/>
-      <c r="M82" s="119"/>
-      <c r="N82" s="141"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="128"/>
+      <c r="G82" s="141"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="137"/>
+      <c r="J82" s="109"/>
+      <c r="K82" s="109"/>
+      <c r="L82" s="109"/>
+      <c r="M82" s="109"/>
+      <c r="N82" s="139"/>
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
       <c r="Q82" s="18"/>
@@ -13945,20 +13945,20 @@
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
       <c r="D83" s="46"/>
-      <c r="E83" s="154" t="s">
+      <c r="E83" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="F83" s="158"/>
-      <c r="G83" s="167"/>
-      <c r="H83" s="140"/>
-      <c r="I83" s="140"/>
-      <c r="J83" s="118"/>
-      <c r="K83" s="118"/>
-      <c r="L83" s="118" t="s">
+      <c r="F83" s="126"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="137"/>
+      <c r="I83" s="137"/>
+      <c r="J83" s="108"/>
+      <c r="K83" s="108"/>
+      <c r="L83" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="M83" s="118"/>
-      <c r="N83" s="141"/>
+      <c r="M83" s="108"/>
+      <c r="N83" s="139"/>
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="18"/>
@@ -14076,16 +14076,16 @@
       <c r="B84" s="24"/>
       <c r="C84" s="2"/>
       <c r="D84" s="46"/>
-      <c r="E84" s="159"/>
-      <c r="F84" s="160"/>
-      <c r="G84" s="168"/>
-      <c r="H84" s="140"/>
-      <c r="I84" s="140"/>
-      <c r="J84" s="119"/>
-      <c r="K84" s="119"/>
-      <c r="L84" s="119"/>
-      <c r="M84" s="119"/>
-      <c r="N84" s="141"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="128"/>
+      <c r="G84" s="141"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="137"/>
+      <c r="J84" s="109"/>
+      <c r="K84" s="109"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="109"/>
+      <c r="N84" s="139"/>
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
       <c r="Q84" s="18"/>
@@ -14203,20 +14203,20 @@
       <c r="B85" s="24"/>
       <c r="C85" s="2"/>
       <c r="D85" s="46"/>
-      <c r="E85" s="154" t="s">
+      <c r="E85" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="158"/>
-      <c r="G85" s="167"/>
-      <c r="H85" s="140"/>
-      <c r="I85" s="140"/>
-      <c r="J85" s="118"/>
-      <c r="K85" s="118"/>
-      <c r="L85" s="118" t="s">
+      <c r="F85" s="126"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="108"/>
+      <c r="K85" s="108"/>
+      <c r="L85" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="M85" s="118"/>
-      <c r="N85" s="141"/>
+      <c r="M85" s="108"/>
+      <c r="N85" s="139"/>
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
       <c r="Q85" s="18"/>
@@ -14334,16 +14334,16 @@
       <c r="B86" s="24"/>
       <c r="C86" s="2"/>
       <c r="D86" s="46"/>
-      <c r="E86" s="159"/>
-      <c r="F86" s="160"/>
-      <c r="G86" s="168"/>
-      <c r="H86" s="140"/>
-      <c r="I86" s="140"/>
-      <c r="J86" s="119"/>
-      <c r="K86" s="119"/>
-      <c r="L86" s="119"/>
-      <c r="M86" s="119"/>
-      <c r="N86" s="141"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="141"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="109"/>
+      <c r="K86" s="109"/>
+      <c r="L86" s="109"/>
+      <c r="M86" s="109"/>
+      <c r="N86" s="139"/>
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
       <c r="Q86" s="18"/>
@@ -14460,19 +14460,19 @@
       <c r="A87" s="19"/>
       <c r="B87" s="51"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="157" t="s">
+      <c r="D87" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="158"/>
-      <c r="F87" s="158"/>
-      <c r="G87" s="158"/>
-      <c r="H87" s="130"/>
-      <c r="I87" s="130"/>
-      <c r="J87" s="130"/>
-      <c r="K87" s="130"/>
-      <c r="L87" s="130"/>
-      <c r="M87" s="130"/>
-      <c r="N87" s="129"/>
+      <c r="E87" s="126"/>
+      <c r="F87" s="126"/>
+      <c r="G87" s="126"/>
+      <c r="H87" s="117"/>
+      <c r="I87" s="117"/>
+      <c r="J87" s="117"/>
+      <c r="K87" s="117"/>
+      <c r="L87" s="117"/>
+      <c r="M87" s="117"/>
+      <c r="N87" s="133"/>
       <c r="O87" s="42"/>
       <c r="P87" s="43"/>
       <c r="Q87" s="43"/>
@@ -14589,17 +14589,17 @@
       <c r="A88" s="19"/>
       <c r="B88" s="51"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="159"/>
-      <c r="E88" s="160"/>
-      <c r="F88" s="160"/>
-      <c r="G88" s="160"/>
-      <c r="H88" s="131"/>
-      <c r="I88" s="131"/>
-      <c r="J88" s="131"/>
-      <c r="K88" s="131"/>
-      <c r="L88" s="131"/>
-      <c r="M88" s="131"/>
-      <c r="N88" s="129"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118"/>
+      <c r="J88" s="118"/>
+      <c r="K88" s="118"/>
+      <c r="L88" s="118"/>
+      <c r="M88" s="118"/>
+      <c r="N88" s="133"/>
       <c r="O88" s="44"/>
       <c r="P88" s="31"/>
       <c r="Q88" s="31"/>
@@ -14717,18 +14717,18 @@
       <c r="B89" s="24"/>
       <c r="C89" s="2"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="132" t="s">
+      <c r="E89" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="F89" s="132"/>
-      <c r="G89" s="133"/>
-      <c r="H89" s="130"/>
-      <c r="I89" s="130"/>
-      <c r="J89" s="130"/>
-      <c r="K89" s="130"/>
-      <c r="L89" s="130"/>
-      <c r="M89" s="130"/>
-      <c r="N89" s="129"/>
+      <c r="F89" s="154"/>
+      <c r="G89" s="155"/>
+      <c r="H89" s="117"/>
+      <c r="I89" s="117"/>
+      <c r="J89" s="117"/>
+      <c r="K89" s="117"/>
+      <c r="L89" s="117"/>
+      <c r="M89" s="117"/>
+      <c r="N89" s="133"/>
       <c r="O89" s="42"/>
       <c r="P89" s="43"/>
       <c r="Q89" s="43"/>
@@ -14846,16 +14846,16 @@
       <c r="B90" s="24"/>
       <c r="C90" s="2"/>
       <c r="D90" s="56"/>
-      <c r="E90" s="134"/>
-      <c r="F90" s="162"/>
-      <c r="G90" s="163"/>
-      <c r="H90" s="131"/>
-      <c r="I90" s="131"/>
-      <c r="J90" s="131"/>
-      <c r="K90" s="131"/>
-      <c r="L90" s="131"/>
-      <c r="M90" s="131"/>
-      <c r="N90" s="129"/>
+      <c r="E90" s="156"/>
+      <c r="F90" s="157"/>
+      <c r="G90" s="158"/>
+      <c r="H90" s="118"/>
+      <c r="I90" s="118"/>
+      <c r="J90" s="118"/>
+      <c r="K90" s="118"/>
+      <c r="L90" s="118"/>
+      <c r="M90" s="118"/>
+      <c r="N90" s="133"/>
       <c r="O90" s="44"/>
       <c r="P90" s="31"/>
       <c r="Q90" s="31"/>
@@ -14974,21 +14974,21 @@
       <c r="C91" s="2"/>
       <c r="D91" s="46"/>
       <c r="E91" s="59"/>
-      <c r="F91" s="143" t="s">
+      <c r="F91" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="G91" s="144"/>
-      <c r="H91" s="108">
+      <c r="G91" s="160"/>
+      <c r="H91" s="149">
         <v>4</v>
       </c>
-      <c r="I91" s="108">
+      <c r="I91" s="149">
         <v>5</v>
       </c>
-      <c r="J91" s="118"/>
-      <c r="K91" s="118"/>
-      <c r="L91" s="118"/>
-      <c r="M91" s="118"/>
-      <c r="N91" s="126">
+      <c r="J91" s="108"/>
+      <c r="K91" s="108"/>
+      <c r="L91" s="108"/>
+      <c r="M91" s="108"/>
+      <c r="N91" s="113">
         <v>100</v>
       </c>
       <c r="O91" s="18"/>
@@ -15109,15 +15109,15 @@
       <c r="C92" s="2"/>
       <c r="D92" s="46"/>
       <c r="E92" s="60"/>
-      <c r="F92" s="146"/>
-      <c r="G92" s="147"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="119"/>
-      <c r="K92" s="119"/>
-      <c r="L92" s="119"/>
-      <c r="M92" s="119"/>
-      <c r="N92" s="127"/>
+      <c r="F92" s="161"/>
+      <c r="G92" s="162"/>
+      <c r="H92" s="150"/>
+      <c r="I92" s="150"/>
+      <c r="J92" s="109"/>
+      <c r="K92" s="109"/>
+      <c r="L92" s="109"/>
+      <c r="M92" s="109"/>
+      <c r="N92" s="114"/>
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
       <c r="Q92" s="18"/>
@@ -15237,24 +15237,24 @@
       <c r="D93" s="46"/>
       <c r="E93" s="60"/>
       <c r="F93" s="105"/>
-      <c r="G93" s="111" t="s">
+      <c r="G93" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H93" s="109"/>
-      <c r="I93" s="109"/>
-      <c r="J93" s="113" t="s">
+      <c r="H93" s="150"/>
+      <c r="I93" s="150"/>
+      <c r="J93" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="K93" s="113" t="s">
+      <c r="K93" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="L93" s="113" t="s">
+      <c r="L93" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="M93" s="118" t="s">
+      <c r="M93" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="N93" s="127"/>
+      <c r="N93" s="114"/>
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
       <c r="Q93" s="18"/>
@@ -15374,14 +15374,14 @@
       <c r="D94" s="46"/>
       <c r="E94" s="60"/>
       <c r="F94" s="105"/>
-      <c r="G94" s="112"/>
-      <c r="H94" s="109"/>
-      <c r="I94" s="109"/>
-      <c r="J94" s="114"/>
-      <c r="K94" s="114"/>
-      <c r="L94" s="114"/>
-      <c r="M94" s="119"/>
-      <c r="N94" s="127"/>
+      <c r="G94" s="181"/>
+      <c r="H94" s="150"/>
+      <c r="I94" s="150"/>
+      <c r="J94" s="153"/>
+      <c r="K94" s="153"/>
+      <c r="L94" s="153"/>
+      <c r="M94" s="109"/>
+      <c r="N94" s="114"/>
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
       <c r="Q94" s="18"/>
@@ -15501,24 +15501,24 @@
       <c r="D95" s="46"/>
       <c r="E95" s="60"/>
       <c r="F95" s="105"/>
-      <c r="G95" s="116" t="s">
+      <c r="G95" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H95" s="109"/>
-      <c r="I95" s="109"/>
-      <c r="J95" s="118" t="s">
+      <c r="H95" s="150"/>
+      <c r="I95" s="150"/>
+      <c r="J95" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="K95" s="118" t="s">
+      <c r="K95" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="L95" s="118" t="s">
+      <c r="L95" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="M95" s="118" t="s">
+      <c r="M95" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="127"/>
+      <c r="N95" s="114"/>
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
       <c r="Q95" s="18"/>
@@ -15638,14 +15638,14 @@
       <c r="D96" s="46"/>
       <c r="E96" s="60"/>
       <c r="F96" s="105"/>
-      <c r="G96" s="117"/>
-      <c r="H96" s="110"/>
-      <c r="I96" s="110"/>
-      <c r="J96" s="119"/>
-      <c r="K96" s="119"/>
-      <c r="L96" s="119"/>
-      <c r="M96" s="119"/>
-      <c r="N96" s="128"/>
+      <c r="G96" s="183"/>
+      <c r="H96" s="151"/>
+      <c r="I96" s="151"/>
+      <c r="J96" s="109"/>
+      <c r="K96" s="109"/>
+      <c r="L96" s="109"/>
+      <c r="M96" s="109"/>
+      <c r="N96" s="115"/>
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
       <c r="Q96" s="18"/>
@@ -15764,19 +15764,21 @@
       <c r="C97" s="2"/>
       <c r="D97" s="46"/>
       <c r="E97" s="61"/>
-      <c r="F97" s="143" t="s">
+      <c r="F97" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="144"/>
-      <c r="H97" s="108">
+      <c r="G97" s="160"/>
+      <c r="H97" s="149">
         <v>4</v>
       </c>
-      <c r="I97" s="108"/>
-      <c r="J97" s="118"/>
-      <c r="K97" s="118"/>
-      <c r="L97" s="118"/>
-      <c r="M97" s="118"/>
-      <c r="N97" s="126">
+      <c r="I97" s="149">
+        <v>4</v>
+      </c>
+      <c r="J97" s="108"/>
+      <c r="K97" s="108"/>
+      <c r="L97" s="108"/>
+      <c r="M97" s="108"/>
+      <c r="N97" s="113">
         <v>100</v>
       </c>
       <c r="O97" s="18"/>
@@ -15897,15 +15899,15 @@
       <c r="C98" s="2"/>
       <c r="D98" s="46"/>
       <c r="E98" s="60"/>
-      <c r="F98" s="146"/>
-      <c r="G98" s="147"/>
-      <c r="H98" s="109"/>
-      <c r="I98" s="109"/>
-      <c r="J98" s="119"/>
-      <c r="K98" s="119"/>
-      <c r="L98" s="119"/>
-      <c r="M98" s="119"/>
-      <c r="N98" s="127"/>
+      <c r="F98" s="161"/>
+      <c r="G98" s="162"/>
+      <c r="H98" s="150"/>
+      <c r="I98" s="150"/>
+      <c r="J98" s="109"/>
+      <c r="K98" s="109"/>
+      <c r="L98" s="109"/>
+      <c r="M98" s="109"/>
+      <c r="N98" s="114"/>
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
       <c r="Q98" s="18"/>
@@ -16025,24 +16027,24 @@
       <c r="D99" s="46"/>
       <c r="E99" s="60"/>
       <c r="F99" s="105"/>
-      <c r="G99" s="111" t="s">
+      <c r="G99" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H99" s="109"/>
-      <c r="I99" s="109"/>
-      <c r="J99" s="118" t="s">
+      <c r="H99" s="150"/>
+      <c r="I99" s="150"/>
+      <c r="J99" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="K99" s="118" t="s">
+      <c r="K99" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="L99" s="118" t="s">
+      <c r="L99" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="M99" s="118" t="s">
+      <c r="M99" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="N99" s="127"/>
+      <c r="N99" s="114"/>
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
       <c r="Q99" s="18"/>
@@ -16162,14 +16164,14 @@
       <c r="D100" s="46"/>
       <c r="E100" s="60"/>
       <c r="F100" s="105"/>
-      <c r="G100" s="112"/>
-      <c r="H100" s="109"/>
-      <c r="I100" s="109"/>
-      <c r="J100" s="119"/>
-      <c r="K100" s="119"/>
-      <c r="L100" s="119"/>
-      <c r="M100" s="119"/>
-      <c r="N100" s="127"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="150"/>
+      <c r="I100" s="150"/>
+      <c r="J100" s="109"/>
+      <c r="K100" s="109"/>
+      <c r="L100" s="109"/>
+      <c r="M100" s="109"/>
+      <c r="N100" s="114"/>
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
       <c r="Q100" s="18"/>
@@ -16289,24 +16291,24 @@
       <c r="D101" s="46"/>
       <c r="E101" s="60"/>
       <c r="F101" s="105"/>
-      <c r="G101" s="116" t="s">
+      <c r="G101" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H101" s="109"/>
-      <c r="I101" s="109"/>
-      <c r="J101" s="118" t="s">
+      <c r="H101" s="150"/>
+      <c r="I101" s="150"/>
+      <c r="J101" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="K101" s="118" t="s">
+      <c r="K101" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="L101" s="118" t="s">
+      <c r="L101" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="M101" s="118" t="s">
+      <c r="M101" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="127"/>
+      <c r="N101" s="114"/>
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
@@ -16426,14 +16428,14 @@
       <c r="D102" s="46"/>
       <c r="E102" s="60"/>
       <c r="F102" s="105"/>
-      <c r="G102" s="117"/>
-      <c r="H102" s="110"/>
-      <c r="I102" s="110"/>
-      <c r="J102" s="119"/>
-      <c r="K102" s="119"/>
-      <c r="L102" s="119"/>
-      <c r="M102" s="119"/>
-      <c r="N102" s="128"/>
+      <c r="G102" s="183"/>
+      <c r="H102" s="151"/>
+      <c r="I102" s="151"/>
+      <c r="J102" s="109"/>
+      <c r="K102" s="109"/>
+      <c r="L102" s="109"/>
+      <c r="M102" s="109"/>
+      <c r="N102" s="115"/>
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
       <c r="Q102" s="18"/>
@@ -16552,19 +16554,19 @@
       <c r="C103" s="2"/>
       <c r="D103" s="46"/>
       <c r="E103" s="61"/>
-      <c r="F103" s="143" t="s">
+      <c r="F103" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="G103" s="144"/>
-      <c r="H103" s="140"/>
-      <c r="I103" s="140"/>
-      <c r="J103" s="118"/>
-      <c r="K103" s="120"/>
-      <c r="L103" s="118" t="s">
+      <c r="G103" s="160"/>
+      <c r="H103" s="137"/>
+      <c r="I103" s="137"/>
+      <c r="J103" s="108"/>
+      <c r="K103" s="119"/>
+      <c r="L103" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="M103" s="118"/>
-      <c r="N103" s="141"/>
+      <c r="M103" s="108"/>
+      <c r="N103" s="139"/>
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
       <c r="Q103" s="18"/>
@@ -16683,15 +16685,15 @@
       <c r="C104" s="2"/>
       <c r="D104" s="46"/>
       <c r="E104" s="62"/>
-      <c r="F104" s="145"/>
-      <c r="G104" s="125"/>
-      <c r="H104" s="140"/>
-      <c r="I104" s="140"/>
-      <c r="J104" s="119"/>
-      <c r="K104" s="121"/>
-      <c r="L104" s="119"/>
-      <c r="M104" s="119"/>
-      <c r="N104" s="141"/>
+      <c r="F104" s="171"/>
+      <c r="G104" s="170"/>
+      <c r="H104" s="137"/>
+      <c r="I104" s="137"/>
+      <c r="J104" s="109"/>
+      <c r="K104" s="120"/>
+      <c r="L104" s="109"/>
+      <c r="M104" s="109"/>
+      <c r="N104" s="139"/>
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
       <c r="Q104" s="18"/>
@@ -16809,18 +16811,18 @@
       <c r="B105" s="24"/>
       <c r="C105" s="2"/>
       <c r="D105" s="46"/>
-      <c r="E105" s="148" t="s">
+      <c r="E105" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="F105" s="149"/>
-      <c r="G105" s="150"/>
-      <c r="H105" s="130"/>
-      <c r="I105" s="136"/>
-      <c r="J105" s="136"/>
-      <c r="K105" s="136"/>
-      <c r="L105" s="136"/>
-      <c r="M105" s="136"/>
-      <c r="N105" s="129"/>
+      <c r="F105" s="173"/>
+      <c r="G105" s="174"/>
+      <c r="H105" s="117"/>
+      <c r="I105" s="116"/>
+      <c r="J105" s="116"/>
+      <c r="K105" s="116"/>
+      <c r="L105" s="116"/>
+      <c r="M105" s="116"/>
+      <c r="N105" s="133"/>
       <c r="O105" s="43"/>
       <c r="P105" s="43"/>
       <c r="Q105" s="43"/>
@@ -16938,16 +16940,16 @@
       <c r="B106" s="24"/>
       <c r="C106" s="2"/>
       <c r="D106" s="46"/>
-      <c r="E106" s="151"/>
-      <c r="F106" s="152"/>
-      <c r="G106" s="153"/>
-      <c r="H106" s="131"/>
-      <c r="I106" s="136"/>
-      <c r="J106" s="136"/>
-      <c r="K106" s="136"/>
-      <c r="L106" s="136"/>
-      <c r="M106" s="136"/>
-      <c r="N106" s="129"/>
+      <c r="E106" s="175"/>
+      <c r="F106" s="176"/>
+      <c r="G106" s="177"/>
+      <c r="H106" s="118"/>
+      <c r="I106" s="116"/>
+      <c r="J106" s="116"/>
+      <c r="K106" s="116"/>
+      <c r="L106" s="116"/>
+      <c r="M106" s="116"/>
+      <c r="N106" s="133"/>
       <c r="O106" s="31"/>
       <c r="P106" s="31"/>
       <c r="Q106" s="31"/>
@@ -17066,21 +17068,23 @@
       <c r="C107" s="2"/>
       <c r="D107" s="46"/>
       <c r="E107" s="61"/>
-      <c r="F107" s="156" t="s">
+      <c r="F107" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="G107" s="123"/>
-      <c r="H107" s="108">
+      <c r="G107" s="168"/>
+      <c r="H107" s="149">
         <v>4</v>
       </c>
-      <c r="I107" s="108"/>
-      <c r="J107" s="118" t="s">
+      <c r="I107" s="149">
+        <v>1</v>
+      </c>
+      <c r="J107" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="K107" s="118"/>
-      <c r="L107" s="118"/>
-      <c r="M107" s="118"/>
-      <c r="N107" s="137">
+      <c r="K107" s="108"/>
+      <c r="L107" s="108"/>
+      <c r="M107" s="108"/>
+      <c r="N107" s="110">
         <v>100</v>
       </c>
       <c r="O107" s="18"/>
@@ -17201,15 +17205,15 @@
       <c r="C108" s="2"/>
       <c r="D108" s="46"/>
       <c r="E108" s="60"/>
-      <c r="F108" s="155"/>
-      <c r="G108" s="147"/>
-      <c r="H108" s="109"/>
-      <c r="I108" s="109"/>
-      <c r="J108" s="119"/>
-      <c r="K108" s="119"/>
-      <c r="L108" s="119"/>
-      <c r="M108" s="119"/>
-      <c r="N108" s="138"/>
+      <c r="F108" s="178"/>
+      <c r="G108" s="162"/>
+      <c r="H108" s="150"/>
+      <c r="I108" s="150"/>
+      <c r="J108" s="109"/>
+      <c r="K108" s="109"/>
+      <c r="L108" s="109"/>
+      <c r="M108" s="109"/>
+      <c r="N108" s="111"/>
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
       <c r="Q108" s="18"/>
@@ -17329,24 +17333,24 @@
       <c r="D109" s="46"/>
       <c r="E109" s="60"/>
       <c r="F109" s="105"/>
-      <c r="G109" s="111" t="s">
+      <c r="G109" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H109" s="109"/>
-      <c r="I109" s="109"/>
-      <c r="J109" s="118" t="s">
+      <c r="H109" s="150"/>
+      <c r="I109" s="150"/>
+      <c r="J109" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="K109" s="118" t="s">
+      <c r="K109" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="L109" s="118" t="s">
+      <c r="L109" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="M109" s="113" t="s">
+      <c r="M109" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="N109" s="138"/>
+      <c r="N109" s="111"/>
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
       <c r="Q109" s="18"/>
@@ -17466,14 +17470,14 @@
       <c r="D110" s="46"/>
       <c r="E110" s="60"/>
       <c r="F110" s="105"/>
-      <c r="G110" s="112"/>
-      <c r="H110" s="109"/>
-      <c r="I110" s="109"/>
-      <c r="J110" s="119"/>
-      <c r="K110" s="119"/>
-      <c r="L110" s="119"/>
-      <c r="M110" s="114"/>
-      <c r="N110" s="138"/>
+      <c r="G110" s="181"/>
+      <c r="H110" s="150"/>
+      <c r="I110" s="150"/>
+      <c r="J110" s="109"/>
+      <c r="K110" s="109"/>
+      <c r="L110" s="109"/>
+      <c r="M110" s="153"/>
+      <c r="N110" s="111"/>
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
       <c r="Q110" s="18"/>
@@ -17593,24 +17597,24 @@
       <c r="D111" s="46"/>
       <c r="E111" s="60"/>
       <c r="F111" s="105"/>
-      <c r="G111" s="116" t="s">
+      <c r="G111" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H111" s="109"/>
-      <c r="I111" s="109"/>
-      <c r="J111" s="118" t="s">
+      <c r="H111" s="150"/>
+      <c r="I111" s="150"/>
+      <c r="J111" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="K111" s="118" t="s">
+      <c r="K111" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="L111" s="118" t="s">
+      <c r="L111" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="M111" s="113" t="s">
+      <c r="M111" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="N111" s="138"/>
+      <c r="N111" s="111"/>
       <c r="O111" s="18"/>
       <c r="P111" s="18"/>
       <c r="Q111" s="18"/>
@@ -17730,14 +17734,14 @@
       <c r="D112" s="46"/>
       <c r="E112" s="60"/>
       <c r="F112" s="105"/>
-      <c r="G112" s="117"/>
-      <c r="H112" s="110"/>
-      <c r="I112" s="110"/>
-      <c r="J112" s="119"/>
-      <c r="K112" s="119"/>
-      <c r="L112" s="119"/>
-      <c r="M112" s="114"/>
-      <c r="N112" s="139"/>
+      <c r="G112" s="183"/>
+      <c r="H112" s="151"/>
+      <c r="I112" s="151"/>
+      <c r="J112" s="109"/>
+      <c r="K112" s="109"/>
+      <c r="L112" s="109"/>
+      <c r="M112" s="153"/>
+      <c r="N112" s="112"/>
       <c r="O112" s="18"/>
       <c r="P112" s="18"/>
       <c r="Q112" s="18"/>
@@ -17856,19 +17860,21 @@
       <c r="C113" s="2"/>
       <c r="D113" s="46"/>
       <c r="E113" s="61"/>
-      <c r="F113" s="154" t="s">
+      <c r="F113" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="G113" s="144"/>
-      <c r="H113" s="108">
+      <c r="G113" s="160"/>
+      <c r="H113" s="149">
         <v>4</v>
       </c>
-      <c r="I113" s="108"/>
-      <c r="J113" s="118"/>
-      <c r="K113" s="118"/>
-      <c r="L113" s="118"/>
-      <c r="M113" s="120"/>
-      <c r="N113" s="137">
+      <c r="I113" s="149">
+        <v>3</v>
+      </c>
+      <c r="J113" s="108"/>
+      <c r="K113" s="108"/>
+      <c r="L113" s="108"/>
+      <c r="M113" s="119"/>
+      <c r="N113" s="110">
         <v>100</v>
       </c>
       <c r="O113" s="18"/>
@@ -17989,15 +17995,15 @@
       <c r="C114" s="2"/>
       <c r="D114" s="46"/>
       <c r="E114" s="60"/>
-      <c r="F114" s="155"/>
-      <c r="G114" s="147"/>
-      <c r="H114" s="109"/>
-      <c r="I114" s="109"/>
-      <c r="J114" s="119"/>
-      <c r="K114" s="119"/>
-      <c r="L114" s="119"/>
-      <c r="M114" s="121"/>
-      <c r="N114" s="138"/>
+      <c r="F114" s="178"/>
+      <c r="G114" s="162"/>
+      <c r="H114" s="150"/>
+      <c r="I114" s="150"/>
+      <c r="J114" s="109"/>
+      <c r="K114" s="109"/>
+      <c r="L114" s="109"/>
+      <c r="M114" s="120"/>
+      <c r="N114" s="111"/>
       <c r="O114" s="18"/>
       <c r="P114" s="18"/>
       <c r="Q114" s="18"/>
@@ -18117,24 +18123,24 @@
       <c r="D115" s="46"/>
       <c r="E115" s="60"/>
       <c r="F115" s="105"/>
-      <c r="G115" s="111" t="s">
+      <c r="G115" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H115" s="109"/>
-      <c r="I115" s="109"/>
-      <c r="J115" s="118" t="s">
+      <c r="H115" s="150"/>
+      <c r="I115" s="150"/>
+      <c r="J115" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="K115" s="118" t="s">
+      <c r="K115" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="L115" s="118" t="s">
+      <c r="L115" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="M115" s="113" t="s">
+      <c r="M115" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="N115" s="138"/>
+      <c r="N115" s="111"/>
       <c r="O115" s="18"/>
       <c r="P115" s="18"/>
       <c r="Q115" s="18"/>
@@ -18254,14 +18260,14 @@
       <c r="D116" s="46"/>
       <c r="E116" s="60"/>
       <c r="F116" s="105"/>
-      <c r="G116" s="112"/>
-      <c r="H116" s="109"/>
-      <c r="I116" s="109"/>
-      <c r="J116" s="119"/>
-      <c r="K116" s="119"/>
-      <c r="L116" s="119"/>
-      <c r="M116" s="114"/>
-      <c r="N116" s="138"/>
+      <c r="G116" s="181"/>
+      <c r="H116" s="150"/>
+      <c r="I116" s="150"/>
+      <c r="J116" s="109"/>
+      <c r="K116" s="109"/>
+      <c r="L116" s="109"/>
+      <c r="M116" s="153"/>
+      <c r="N116" s="111"/>
       <c r="O116" s="18"/>
       <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
@@ -18381,24 +18387,24 @@
       <c r="D117" s="46"/>
       <c r="E117" s="60"/>
       <c r="F117" s="105"/>
-      <c r="G117" s="116" t="s">
+      <c r="G117" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H117" s="109"/>
-      <c r="I117" s="109"/>
-      <c r="J117" s="118" t="s">
+      <c r="H117" s="150"/>
+      <c r="I117" s="150"/>
+      <c r="J117" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="K117" s="118" t="s">
+      <c r="K117" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="L117" s="118" t="s">
+      <c r="L117" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="M117" s="113" t="s">
+      <c r="M117" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="N117" s="138"/>
+      <c r="N117" s="111"/>
       <c r="O117" s="18"/>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
@@ -18518,14 +18524,14 @@
       <c r="D118" s="46"/>
       <c r="E118" s="60"/>
       <c r="F118" s="105"/>
-      <c r="G118" s="117"/>
-      <c r="H118" s="110"/>
-      <c r="I118" s="110"/>
-      <c r="J118" s="119"/>
-      <c r="K118" s="119"/>
-      <c r="L118" s="119"/>
-      <c r="M118" s="114"/>
-      <c r="N118" s="139"/>
+      <c r="G118" s="183"/>
+      <c r="H118" s="151"/>
+      <c r="I118" s="151"/>
+      <c r="J118" s="109"/>
+      <c r="K118" s="109"/>
+      <c r="L118" s="109"/>
+      <c r="M118" s="153"/>
+      <c r="N118" s="112"/>
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
@@ -18644,21 +18650,21 @@
       <c r="C119" s="2"/>
       <c r="D119" s="46"/>
       <c r="E119" s="61"/>
-      <c r="F119" s="154" t="s">
+      <c r="F119" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="G119" s="144"/>
-      <c r="H119" s="108">
+      <c r="G119" s="160"/>
+      <c r="H119" s="149">
         <v>5</v>
       </c>
-      <c r="I119" s="108"/>
-      <c r="J119" s="118" t="s">
+      <c r="I119" s="149"/>
+      <c r="J119" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="K119" s="118"/>
-      <c r="L119" s="118"/>
-      <c r="M119" s="118"/>
-      <c r="N119" s="137">
+      <c r="K119" s="108"/>
+      <c r="L119" s="108"/>
+      <c r="M119" s="108"/>
+      <c r="N119" s="110">
         <v>50</v>
       </c>
       <c r="O119" s="18"/>
@@ -18778,15 +18784,15 @@
       <c r="C120" s="2"/>
       <c r="D120" s="46"/>
       <c r="E120" s="60"/>
-      <c r="F120" s="155"/>
-      <c r="G120" s="147"/>
-      <c r="H120" s="109"/>
-      <c r="I120" s="109"/>
-      <c r="J120" s="119"/>
-      <c r="K120" s="119"/>
-      <c r="L120" s="119"/>
-      <c r="M120" s="119"/>
-      <c r="N120" s="138"/>
+      <c r="F120" s="178"/>
+      <c r="G120" s="162"/>
+      <c r="H120" s="150"/>
+      <c r="I120" s="150"/>
+      <c r="J120" s="109"/>
+      <c r="K120" s="109"/>
+      <c r="L120" s="109"/>
+      <c r="M120" s="109"/>
+      <c r="N120" s="111"/>
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
       <c r="Q120" s="18"/>
@@ -18906,24 +18912,24 @@
       <c r="D121" s="46"/>
       <c r="E121" s="60"/>
       <c r="F121" s="105"/>
-      <c r="G121" s="111" t="s">
+      <c r="G121" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H121" s="109"/>
-      <c r="I121" s="109"/>
-      <c r="J121" s="113" t="s">
+      <c r="H121" s="150"/>
+      <c r="I121" s="150"/>
+      <c r="J121" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="K121" s="113" t="s">
+      <c r="K121" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="L121" s="113" t="s">
+      <c r="L121" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="M121" s="113" t="s">
+      <c r="M121" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="N121" s="138"/>
+      <c r="N121" s="111"/>
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
       <c r="Q121" s="18"/>
@@ -19043,14 +19049,14 @@
       <c r="D122" s="46"/>
       <c r="E122" s="60"/>
       <c r="F122" s="105"/>
-      <c r="G122" s="112"/>
-      <c r="H122" s="109"/>
-      <c r="I122" s="109"/>
-      <c r="J122" s="114"/>
-      <c r="K122" s="114"/>
-      <c r="L122" s="114"/>
-      <c r="M122" s="114"/>
-      <c r="N122" s="138"/>
+      <c r="G122" s="181"/>
+      <c r="H122" s="150"/>
+      <c r="I122" s="150"/>
+      <c r="J122" s="153"/>
+      <c r="K122" s="153"/>
+      <c r="L122" s="153"/>
+      <c r="M122" s="153"/>
+      <c r="N122" s="111"/>
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
       <c r="Q122" s="18"/>
@@ -19170,22 +19176,22 @@
       <c r="D123" s="46"/>
       <c r="E123" s="60"/>
       <c r="F123" s="105"/>
-      <c r="G123" s="116" t="s">
+      <c r="G123" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H123" s="109"/>
-      <c r="I123" s="109"/>
-      <c r="J123" s="113" t="s">
+      <c r="H123" s="150"/>
+      <c r="I123" s="150"/>
+      <c r="J123" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="K123" s="115"/>
-      <c r="L123" s="113" t="s">
+      <c r="K123" s="184"/>
+      <c r="L123" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="M123" s="113" t="s">
+      <c r="M123" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="N123" s="138"/>
+      <c r="N123" s="111"/>
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
       <c r="Q123" s="18"/>
@@ -19305,14 +19311,14 @@
       <c r="D124" s="46"/>
       <c r="E124" s="60"/>
       <c r="F124" s="105"/>
-      <c r="G124" s="117"/>
-      <c r="H124" s="110"/>
-      <c r="I124" s="110"/>
-      <c r="J124" s="114"/>
-      <c r="K124" s="114"/>
-      <c r="L124" s="114"/>
-      <c r="M124" s="114"/>
-      <c r="N124" s="139"/>
+      <c r="G124" s="183"/>
+      <c r="H124" s="151"/>
+      <c r="I124" s="151"/>
+      <c r="J124" s="153"/>
+      <c r="K124" s="153"/>
+      <c r="L124" s="153"/>
+      <c r="M124" s="153"/>
+      <c r="N124" s="112"/>
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
       <c r="Q124" s="18"/>
@@ -19431,19 +19437,21 @@
       <c r="C125" s="2"/>
       <c r="D125" s="46"/>
       <c r="E125" s="61"/>
-      <c r="F125" s="154" t="s">
+      <c r="F125" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="G125" s="144"/>
-      <c r="H125" s="108">
+      <c r="G125" s="160"/>
+      <c r="H125" s="149">
         <v>4</v>
       </c>
-      <c r="I125" s="108"/>
-      <c r="J125" s="118"/>
-      <c r="K125" s="118"/>
-      <c r="L125" s="118"/>
-      <c r="M125" s="118"/>
-      <c r="N125" s="137"/>
+      <c r="I125" s="149"/>
+      <c r="J125" s="108"/>
+      <c r="K125" s="108"/>
+      <c r="L125" s="108"/>
+      <c r="M125" s="108"/>
+      <c r="N125" s="110">
+        <v>50</v>
+      </c>
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
       <c r="Q125" s="18"/>
@@ -19562,15 +19570,15 @@
       <c r="C126" s="2"/>
       <c r="D126" s="46"/>
       <c r="E126" s="60"/>
-      <c r="F126" s="155"/>
-      <c r="G126" s="147"/>
-      <c r="H126" s="109"/>
-      <c r="I126" s="109"/>
-      <c r="J126" s="119"/>
-      <c r="K126" s="119"/>
-      <c r="L126" s="119"/>
-      <c r="M126" s="119"/>
-      <c r="N126" s="138"/>
+      <c r="F126" s="178"/>
+      <c r="G126" s="162"/>
+      <c r="H126" s="150"/>
+      <c r="I126" s="150"/>
+      <c r="J126" s="109"/>
+      <c r="K126" s="109"/>
+      <c r="L126" s="109"/>
+      <c r="M126" s="109"/>
+      <c r="N126" s="111"/>
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
       <c r="Q126" s="18"/>
@@ -19615,7 +19623,7 @@
       <c r="BD126" s="18"/>
       <c r="BE126" s="82"/>
       <c r="BF126" s="82"/>
-      <c r="BG126" s="82"/>
+      <c r="BG126" s="97"/>
       <c r="BH126" s="82"/>
       <c r="BI126" s="82"/>
       <c r="BJ126" s="18"/>
@@ -19690,24 +19698,22 @@
       <c r="D127" s="46"/>
       <c r="E127" s="60"/>
       <c r="F127" s="105"/>
-      <c r="G127" s="111" t="s">
+      <c r="G127" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H127" s="109"/>
-      <c r="I127" s="109"/>
-      <c r="J127" s="113" t="s">
+      <c r="H127" s="150"/>
+      <c r="I127" s="150"/>
+      <c r="J127" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="K127" s="113" t="s">
+      <c r="K127" s="184"/>
+      <c r="L127" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="L127" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="M127" s="113" t="s">
+      <c r="M127" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="N127" s="138"/>
+      <c r="N127" s="111"/>
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
       <c r="Q127" s="18"/>
@@ -19827,14 +19833,14 @@
       <c r="D128" s="46"/>
       <c r="E128" s="60"/>
       <c r="F128" s="105"/>
-      <c r="G128" s="112"/>
-      <c r="H128" s="109"/>
-      <c r="I128" s="109"/>
-      <c r="J128" s="114"/>
-      <c r="K128" s="114"/>
-      <c r="L128" s="114"/>
-      <c r="M128" s="114"/>
-      <c r="N128" s="138"/>
+      <c r="G128" s="181"/>
+      <c r="H128" s="150"/>
+      <c r="I128" s="150"/>
+      <c r="J128" s="153"/>
+      <c r="K128" s="153"/>
+      <c r="L128" s="153"/>
+      <c r="M128" s="153"/>
+      <c r="N128" s="111"/>
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
       <c r="Q128" s="18"/>
@@ -19954,22 +19960,22 @@
       <c r="D129" s="46"/>
       <c r="E129" s="60"/>
       <c r="F129" s="105"/>
-      <c r="G129" s="116" t="s">
+      <c r="G129" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H129" s="109"/>
-      <c r="I129" s="109"/>
-      <c r="J129" s="113" t="s">
+      <c r="H129" s="150"/>
+      <c r="I129" s="150"/>
+      <c r="J129" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="K129" s="115"/>
-      <c r="L129" s="118" t="s">
+      <c r="K129" s="184"/>
+      <c r="L129" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="M129" s="113" t="s">
+      <c r="M129" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="N129" s="138"/>
+      <c r="N129" s="111"/>
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
       <c r="Q129" s="18"/>
@@ -20089,14 +20095,14 @@
       <c r="D130" s="46"/>
       <c r="E130" s="60"/>
       <c r="F130" s="105"/>
-      <c r="G130" s="117"/>
-      <c r="H130" s="110"/>
-      <c r="I130" s="110"/>
-      <c r="J130" s="114"/>
-      <c r="K130" s="114"/>
-      <c r="L130" s="119"/>
-      <c r="M130" s="114"/>
-      <c r="N130" s="139"/>
+      <c r="G130" s="183"/>
+      <c r="H130" s="151"/>
+      <c r="I130" s="151"/>
+      <c r="J130" s="153"/>
+      <c r="K130" s="153"/>
+      <c r="L130" s="109"/>
+      <c r="M130" s="153"/>
+      <c r="N130" s="112"/>
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
       <c r="Q130" s="18"/>
@@ -20215,19 +20221,21 @@
       <c r="C131" s="2"/>
       <c r="D131" s="46"/>
       <c r="E131" s="61"/>
-      <c r="F131" s="154" t="s">
+      <c r="F131" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="G131" s="144"/>
-      <c r="H131" s="108">
+      <c r="G131" s="160"/>
+      <c r="H131" s="149">
         <v>4</v>
       </c>
-      <c r="I131" s="108"/>
-      <c r="J131" s="118"/>
-      <c r="K131" s="118"/>
-      <c r="L131" s="118"/>
-      <c r="M131" s="120"/>
-      <c r="N131" s="137"/>
+      <c r="I131" s="149"/>
+      <c r="J131" s="108"/>
+      <c r="K131" s="108"/>
+      <c r="L131" s="108"/>
+      <c r="M131" s="119"/>
+      <c r="N131" s="110">
+        <v>50</v>
+      </c>
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
       <c r="Q131" s="18"/>
@@ -20346,15 +20354,15 @@
       <c r="C132" s="2"/>
       <c r="D132" s="46"/>
       <c r="E132" s="60"/>
-      <c r="F132" s="155"/>
-      <c r="G132" s="147"/>
-      <c r="H132" s="109"/>
-      <c r="I132" s="109"/>
-      <c r="J132" s="119"/>
-      <c r="K132" s="119"/>
-      <c r="L132" s="119"/>
-      <c r="M132" s="121"/>
-      <c r="N132" s="138"/>
+      <c r="F132" s="178"/>
+      <c r="G132" s="162"/>
+      <c r="H132" s="150"/>
+      <c r="I132" s="150"/>
+      <c r="J132" s="109"/>
+      <c r="K132" s="109"/>
+      <c r="L132" s="109"/>
+      <c r="M132" s="120"/>
+      <c r="N132" s="111"/>
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
       <c r="Q132" s="18"/>
@@ -20399,7 +20407,7 @@
       <c r="BD132" s="18"/>
       <c r="BE132" s="18"/>
       <c r="BF132" s="18"/>
-      <c r="BG132" s="18"/>
+      <c r="BG132" s="97"/>
       <c r="BH132" s="18"/>
       <c r="BI132" s="18"/>
       <c r="BJ132" s="18"/>
@@ -20474,24 +20482,22 @@
       <c r="D133" s="46"/>
       <c r="E133" s="60"/>
       <c r="F133" s="105"/>
-      <c r="G133" s="111" t="s">
+      <c r="G133" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H133" s="109"/>
-      <c r="I133" s="109"/>
-      <c r="J133" s="113" t="s">
+      <c r="H133" s="150"/>
+      <c r="I133" s="150"/>
+      <c r="J133" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="K133" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="L133" s="118" t="s">
+      <c r="K133" s="184"/>
+      <c r="L133" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="M133" s="113" t="s">
+      <c r="M133" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="N133" s="138"/>
+      <c r="N133" s="111"/>
       <c r="O133" s="18"/>
       <c r="P133" s="18"/>
       <c r="Q133" s="18"/>
@@ -20611,14 +20617,14 @@
       <c r="D134" s="46"/>
       <c r="E134" s="60"/>
       <c r="F134" s="105"/>
-      <c r="G134" s="112"/>
-      <c r="H134" s="109"/>
-      <c r="I134" s="109"/>
-      <c r="J134" s="114"/>
-      <c r="K134" s="114"/>
-      <c r="L134" s="119"/>
-      <c r="M134" s="114"/>
-      <c r="N134" s="138"/>
+      <c r="G134" s="181"/>
+      <c r="H134" s="150"/>
+      <c r="I134" s="150"/>
+      <c r="J134" s="153"/>
+      <c r="K134" s="153"/>
+      <c r="L134" s="109"/>
+      <c r="M134" s="153"/>
+      <c r="N134" s="111"/>
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
       <c r="Q134" s="18"/>
@@ -20738,22 +20744,22 @@
       <c r="D135" s="46"/>
       <c r="E135" s="60"/>
       <c r="F135" s="105"/>
-      <c r="G135" s="116" t="s">
+      <c r="G135" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H135" s="109"/>
-      <c r="I135" s="109"/>
-      <c r="J135" s="118" t="s">
+      <c r="H135" s="150"/>
+      <c r="I135" s="150"/>
+      <c r="J135" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="K135" s="115"/>
-      <c r="L135" s="118" t="s">
+      <c r="K135" s="184"/>
+      <c r="L135" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="M135" s="113" t="s">
+      <c r="M135" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="N135" s="138"/>
+      <c r="N135" s="111"/>
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
       <c r="Q135" s="18"/>
@@ -20873,14 +20879,14 @@
       <c r="D136" s="46"/>
       <c r="E136" s="60"/>
       <c r="F136" s="105"/>
-      <c r="G136" s="117"/>
-      <c r="H136" s="110"/>
-      <c r="I136" s="110"/>
-      <c r="J136" s="119"/>
-      <c r="K136" s="114"/>
-      <c r="L136" s="119"/>
-      <c r="M136" s="114"/>
-      <c r="N136" s="139"/>
+      <c r="G136" s="183"/>
+      <c r="H136" s="151"/>
+      <c r="I136" s="151"/>
+      <c r="J136" s="109"/>
+      <c r="K136" s="153"/>
+      <c r="L136" s="109"/>
+      <c r="M136" s="153"/>
+      <c r="N136" s="112"/>
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
       <c r="Q136" s="18"/>
@@ -20999,19 +21005,19 @@
       <c r="C137" s="2"/>
       <c r="D137" s="46"/>
       <c r="E137" s="61"/>
-      <c r="F137" s="154" t="s">
+      <c r="F137" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="G137" s="144"/>
-      <c r="H137" s="140"/>
-      <c r="I137" s="140"/>
-      <c r="J137" s="118"/>
-      <c r="K137" s="118"/>
-      <c r="L137" s="118" t="s">
+      <c r="G137" s="160"/>
+      <c r="H137" s="137"/>
+      <c r="I137" s="137"/>
+      <c r="J137" s="108"/>
+      <c r="K137" s="108"/>
+      <c r="L137" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="M137" s="118"/>
-      <c r="N137" s="141"/>
+      <c r="M137" s="108"/>
+      <c r="N137" s="139"/>
       <c r="O137" s="18"/>
       <c r="P137" s="18"/>
       <c r="Q137" s="18"/>
@@ -21130,15 +21136,15 @@
       <c r="C138" s="2"/>
       <c r="D138" s="46"/>
       <c r="E138" s="60"/>
-      <c r="F138" s="155"/>
-      <c r="G138" s="147"/>
-      <c r="H138" s="140"/>
-      <c r="I138" s="140"/>
-      <c r="J138" s="119"/>
-      <c r="K138" s="119"/>
-      <c r="L138" s="119"/>
-      <c r="M138" s="119"/>
-      <c r="N138" s="141"/>
+      <c r="F138" s="178"/>
+      <c r="G138" s="162"/>
+      <c r="H138" s="137"/>
+      <c r="I138" s="137"/>
+      <c r="J138" s="109"/>
+      <c r="K138" s="109"/>
+      <c r="L138" s="109"/>
+      <c r="M138" s="109"/>
+      <c r="N138" s="139"/>
       <c r="O138" s="18"/>
       <c r="P138" s="18"/>
       <c r="Q138" s="18"/>
@@ -21255,19 +21261,19 @@
       <c r="A139" s="19"/>
       <c r="B139" s="51"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="157" t="s">
+      <c r="D139" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="E139" s="158"/>
-      <c r="F139" s="158"/>
-      <c r="G139" s="158"/>
-      <c r="H139" s="130"/>
-      <c r="I139" s="136"/>
-      <c r="J139" s="130"/>
-      <c r="K139" s="130"/>
-      <c r="L139" s="130"/>
-      <c r="M139" s="130"/>
-      <c r="N139" s="129"/>
+      <c r="E139" s="126"/>
+      <c r="F139" s="126"/>
+      <c r="G139" s="126"/>
+      <c r="H139" s="117"/>
+      <c r="I139" s="116"/>
+      <c r="J139" s="117"/>
+      <c r="K139" s="117"/>
+      <c r="L139" s="117"/>
+      <c r="M139" s="117"/>
+      <c r="N139" s="133"/>
       <c r="O139" s="42"/>
       <c r="P139" s="43"/>
       <c r="Q139" s="43"/>
@@ -21384,17 +21390,17 @@
       <c r="A140" s="19"/>
       <c r="B140" s="51"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="159"/>
-      <c r="E140" s="160"/>
-      <c r="F140" s="160"/>
-      <c r="G140" s="160"/>
-      <c r="H140" s="131"/>
-      <c r="I140" s="136"/>
-      <c r="J140" s="131"/>
-      <c r="K140" s="131"/>
-      <c r="L140" s="131"/>
-      <c r="M140" s="131"/>
-      <c r="N140" s="129"/>
+      <c r="D140" s="127"/>
+      <c r="E140" s="128"/>
+      <c r="F140" s="128"/>
+      <c r="G140" s="128"/>
+      <c r="H140" s="118"/>
+      <c r="I140" s="116"/>
+      <c r="J140" s="118"/>
+      <c r="K140" s="118"/>
+      <c r="L140" s="118"/>
+      <c r="M140" s="118"/>
+      <c r="N140" s="133"/>
       <c r="O140" s="44"/>
       <c r="P140" s="31"/>
       <c r="Q140" s="31"/>
@@ -21512,18 +21518,18 @@
       <c r="B141" s="24"/>
       <c r="C141" s="2"/>
       <c r="D141" s="55"/>
-      <c r="E141" s="132" t="s">
+      <c r="E141" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="F141" s="132"/>
-      <c r="G141" s="133"/>
-      <c r="H141" s="130"/>
-      <c r="I141" s="136"/>
-      <c r="J141" s="130"/>
-      <c r="K141" s="130"/>
-      <c r="L141" s="130"/>
-      <c r="M141" s="130"/>
-      <c r="N141" s="129"/>
+      <c r="F141" s="154"/>
+      <c r="G141" s="155"/>
+      <c r="H141" s="117"/>
+      <c r="I141" s="116"/>
+      <c r="J141" s="117"/>
+      <c r="K141" s="117"/>
+      <c r="L141" s="117"/>
+      <c r="M141" s="117"/>
+      <c r="N141" s="133"/>
       <c r="O141" s="42"/>
       <c r="P141" s="43"/>
       <c r="Q141" s="43"/>
@@ -21641,16 +21647,16 @@
       <c r="B142" s="24"/>
       <c r="C142" s="2"/>
       <c r="D142" s="56"/>
-      <c r="E142" s="134"/>
-      <c r="F142" s="134"/>
-      <c r="G142" s="135"/>
-      <c r="H142" s="131"/>
-      <c r="I142" s="136"/>
-      <c r="J142" s="131"/>
-      <c r="K142" s="131"/>
-      <c r="L142" s="131"/>
-      <c r="M142" s="131"/>
-      <c r="N142" s="129"/>
+      <c r="E142" s="156"/>
+      <c r="F142" s="156"/>
+      <c r="G142" s="166"/>
+      <c r="H142" s="118"/>
+      <c r="I142" s="116"/>
+      <c r="J142" s="118"/>
+      <c r="K142" s="118"/>
+      <c r="L142" s="118"/>
+      <c r="M142" s="118"/>
+      <c r="N142" s="133"/>
       <c r="O142" s="44"/>
       <c r="P142" s="31"/>
       <c r="Q142" s="31"/>
@@ -21769,19 +21775,19 @@
       <c r="C143" s="2"/>
       <c r="D143" s="46"/>
       <c r="E143" s="59"/>
-      <c r="F143" s="122" t="s">
+      <c r="F143" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="G143" s="123"/>
-      <c r="H143" s="108">
+      <c r="G143" s="168"/>
+      <c r="H143" s="149">
         <v>3</v>
       </c>
-      <c r="I143" s="108"/>
-      <c r="J143" s="118"/>
-      <c r="K143" s="118"/>
-      <c r="L143" s="118"/>
-      <c r="M143" s="118"/>
-      <c r="N143" s="126"/>
+      <c r="I143" s="149"/>
+      <c r="J143" s="108"/>
+      <c r="K143" s="108"/>
+      <c r="L143" s="108"/>
+      <c r="M143" s="108"/>
+      <c r="N143" s="113"/>
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
       <c r="Q143" s="18"/>
@@ -21900,15 +21906,15 @@
       <c r="C144" s="2"/>
       <c r="D144" s="46"/>
       <c r="E144" s="60"/>
-      <c r="F144" s="124"/>
-      <c r="G144" s="125"/>
-      <c r="H144" s="109"/>
-      <c r="I144" s="109"/>
-      <c r="J144" s="119"/>
-      <c r="K144" s="119"/>
-      <c r="L144" s="119"/>
-      <c r="M144" s="119"/>
-      <c r="N144" s="127"/>
+      <c r="F144" s="169"/>
+      <c r="G144" s="170"/>
+      <c r="H144" s="150"/>
+      <c r="I144" s="150"/>
+      <c r="J144" s="109"/>
+      <c r="K144" s="109"/>
+      <c r="L144" s="109"/>
+      <c r="M144" s="109"/>
+      <c r="N144" s="114"/>
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
       <c r="Q144" s="18"/>
@@ -22028,22 +22034,22 @@
       <c r="D145" s="46"/>
       <c r="E145" s="60"/>
       <c r="F145" s="105"/>
-      <c r="G145" s="111" t="s">
+      <c r="G145" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H145" s="109"/>
-      <c r="I145" s="109"/>
-      <c r="J145" s="118" t="s">
+      <c r="H145" s="150"/>
+      <c r="I145" s="150"/>
+      <c r="J145" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="K145" s="115"/>
-      <c r="L145" s="118" t="s">
+      <c r="K145" s="184"/>
+      <c r="L145" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="M145" s="113" t="s">
+      <c r="M145" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="N145" s="127"/>
+      <c r="N145" s="114"/>
       <c r="O145" s="18"/>
       <c r="P145" s="18"/>
       <c r="Q145" s="18"/>
@@ -22163,14 +22169,14 @@
       <c r="D146" s="46"/>
       <c r="E146" s="60"/>
       <c r="F146" s="105"/>
-      <c r="G146" s="112"/>
-      <c r="H146" s="109"/>
-      <c r="I146" s="109"/>
-      <c r="J146" s="119"/>
-      <c r="K146" s="114"/>
-      <c r="L146" s="119"/>
-      <c r="M146" s="114"/>
-      <c r="N146" s="127"/>
+      <c r="G146" s="181"/>
+      <c r="H146" s="150"/>
+      <c r="I146" s="150"/>
+      <c r="J146" s="109"/>
+      <c r="K146" s="153"/>
+      <c r="L146" s="109"/>
+      <c r="M146" s="153"/>
+      <c r="N146" s="114"/>
       <c r="O146" s="18"/>
       <c r="P146" s="18"/>
       <c r="Q146" s="18"/>
@@ -22290,22 +22296,22 @@
       <c r="D147" s="46"/>
       <c r="E147" s="60"/>
       <c r="F147" s="105"/>
-      <c r="G147" s="116" t="s">
+      <c r="G147" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H147" s="109"/>
-      <c r="I147" s="109"/>
-      <c r="J147" s="118" t="s">
+      <c r="H147" s="150"/>
+      <c r="I147" s="150"/>
+      <c r="J147" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="K147" s="115"/>
-      <c r="L147" s="118" t="s">
+      <c r="K147" s="184"/>
+      <c r="L147" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="M147" s="113" t="s">
+      <c r="M147" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="N147" s="127"/>
+      <c r="N147" s="114"/>
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
       <c r="Q147" s="18"/>
@@ -22425,14 +22431,14 @@
       <c r="D148" s="46"/>
       <c r="E148" s="60"/>
       <c r="F148" s="105"/>
-      <c r="G148" s="117"/>
-      <c r="H148" s="110"/>
-      <c r="I148" s="110"/>
-      <c r="J148" s="119"/>
-      <c r="K148" s="114"/>
-      <c r="L148" s="119"/>
-      <c r="M148" s="114"/>
-      <c r="N148" s="128"/>
+      <c r="G148" s="183"/>
+      <c r="H148" s="151"/>
+      <c r="I148" s="151"/>
+      <c r="J148" s="109"/>
+      <c r="K148" s="153"/>
+      <c r="L148" s="109"/>
+      <c r="M148" s="153"/>
+      <c r="N148" s="115"/>
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
       <c r="Q148" s="18"/>
@@ -22551,19 +22557,19 @@
       <c r="C149" s="2"/>
       <c r="D149" s="46"/>
       <c r="E149" s="61"/>
-      <c r="F149" s="122" t="s">
+      <c r="F149" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="G149" s="123"/>
-      <c r="H149" s="108">
+      <c r="G149" s="168"/>
+      <c r="H149" s="149">
         <v>5</v>
       </c>
-      <c r="I149" s="108"/>
-      <c r="J149" s="118"/>
-      <c r="K149" s="118"/>
-      <c r="L149" s="118"/>
-      <c r="M149" s="118"/>
-      <c r="N149" s="126"/>
+      <c r="I149" s="149"/>
+      <c r="J149" s="108"/>
+      <c r="K149" s="108"/>
+      <c r="L149" s="108"/>
+      <c r="M149" s="108"/>
+      <c r="N149" s="113"/>
       <c r="O149" s="18"/>
       <c r="P149" s="18"/>
       <c r="Q149" s="18"/>
@@ -22682,15 +22688,15 @@
       <c r="C150" s="2"/>
       <c r="D150" s="46"/>
       <c r="E150" s="58"/>
-      <c r="F150" s="124"/>
-      <c r="G150" s="125"/>
-      <c r="H150" s="109"/>
-      <c r="I150" s="109"/>
-      <c r="J150" s="119"/>
-      <c r="K150" s="119"/>
-      <c r="L150" s="119"/>
-      <c r="M150" s="119"/>
-      <c r="N150" s="127"/>
+      <c r="F150" s="169"/>
+      <c r="G150" s="170"/>
+      <c r="H150" s="150"/>
+      <c r="I150" s="150"/>
+      <c r="J150" s="109"/>
+      <c r="K150" s="109"/>
+      <c r="L150" s="109"/>
+      <c r="M150" s="109"/>
+      <c r="N150" s="114"/>
       <c r="O150" s="18"/>
       <c r="P150" s="18"/>
       <c r="Q150" s="18"/>
@@ -22810,22 +22816,22 @@
       <c r="D151" s="46"/>
       <c r="E151" s="60"/>
       <c r="F151" s="105"/>
-      <c r="G151" s="111" t="s">
+      <c r="G151" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H151" s="109"/>
-      <c r="I151" s="109"/>
-      <c r="J151" s="118" t="s">
+      <c r="H151" s="150"/>
+      <c r="I151" s="150"/>
+      <c r="J151" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="K151" s="115"/>
-      <c r="L151" s="118" t="s">
+      <c r="K151" s="184"/>
+      <c r="L151" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="M151" s="113" t="s">
+      <c r="M151" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="N151" s="127"/>
+      <c r="N151" s="114"/>
       <c r="O151" s="18"/>
       <c r="P151" s="18"/>
       <c r="Q151" s="18"/>
@@ -22945,14 +22951,14 @@
       <c r="D152" s="46"/>
       <c r="E152" s="60"/>
       <c r="F152" s="105"/>
-      <c r="G152" s="112"/>
-      <c r="H152" s="109"/>
-      <c r="I152" s="109"/>
-      <c r="J152" s="119"/>
-      <c r="K152" s="114"/>
-      <c r="L152" s="119"/>
-      <c r="M152" s="114"/>
-      <c r="N152" s="127"/>
+      <c r="G152" s="181"/>
+      <c r="H152" s="150"/>
+      <c r="I152" s="150"/>
+      <c r="J152" s="109"/>
+      <c r="K152" s="153"/>
+      <c r="L152" s="109"/>
+      <c r="M152" s="153"/>
+      <c r="N152" s="114"/>
       <c r="O152" s="18"/>
       <c r="P152" s="18"/>
       <c r="Q152" s="18"/>
@@ -23072,22 +23078,22 @@
       <c r="D153" s="46"/>
       <c r="E153" s="60"/>
       <c r="F153" s="105"/>
-      <c r="G153" s="116" t="s">
+      <c r="G153" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H153" s="109"/>
-      <c r="I153" s="109"/>
-      <c r="J153" s="118" t="s">
+      <c r="H153" s="150"/>
+      <c r="I153" s="150"/>
+      <c r="J153" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="K153" s="115"/>
-      <c r="L153" s="118" t="s">
+      <c r="K153" s="184"/>
+      <c r="L153" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="M153" s="113" t="s">
+      <c r="M153" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="N153" s="127"/>
+      <c r="N153" s="114"/>
       <c r="O153" s="18"/>
       <c r="P153" s="18"/>
       <c r="Q153" s="18"/>
@@ -23207,14 +23213,14 @@
       <c r="D154" s="46"/>
       <c r="E154" s="60"/>
       <c r="F154" s="105"/>
-      <c r="G154" s="117"/>
-      <c r="H154" s="110"/>
-      <c r="I154" s="110"/>
-      <c r="J154" s="119"/>
-      <c r="K154" s="114"/>
-      <c r="L154" s="119"/>
-      <c r="M154" s="114"/>
-      <c r="N154" s="128"/>
+      <c r="G154" s="183"/>
+      <c r="H154" s="151"/>
+      <c r="I154" s="151"/>
+      <c r="J154" s="109"/>
+      <c r="K154" s="153"/>
+      <c r="L154" s="109"/>
+      <c r="M154" s="153"/>
+      <c r="N154" s="115"/>
       <c r="O154" s="18"/>
       <c r="P154" s="18"/>
       <c r="Q154" s="18"/>
@@ -23333,19 +23339,19 @@
       <c r="C155" s="2"/>
       <c r="D155" s="46"/>
       <c r="E155" s="58"/>
-      <c r="F155" s="122" t="s">
+      <c r="F155" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G155" s="123"/>
-      <c r="H155" s="140"/>
-      <c r="I155" s="140"/>
-      <c r="J155" s="118"/>
-      <c r="K155" s="118"/>
-      <c r="L155" s="118" t="s">
+      <c r="G155" s="168"/>
+      <c r="H155" s="137"/>
+      <c r="I155" s="137"/>
+      <c r="J155" s="108"/>
+      <c r="K155" s="108"/>
+      <c r="L155" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="M155" s="118"/>
-      <c r="N155" s="141"/>
+      <c r="M155" s="108"/>
+      <c r="N155" s="139"/>
       <c r="O155" s="18"/>
       <c r="P155" s="18"/>
       <c r="Q155" s="18"/>
@@ -23464,15 +23470,15 @@
       <c r="C156" s="2"/>
       <c r="D156" s="46"/>
       <c r="E156" s="63"/>
-      <c r="F156" s="124"/>
-      <c r="G156" s="125"/>
-      <c r="H156" s="140"/>
-      <c r="I156" s="140"/>
-      <c r="J156" s="119"/>
-      <c r="K156" s="119"/>
-      <c r="L156" s="119"/>
-      <c r="M156" s="119"/>
-      <c r="N156" s="141"/>
+      <c r="F156" s="169"/>
+      <c r="G156" s="170"/>
+      <c r="H156" s="137"/>
+      <c r="I156" s="137"/>
+      <c r="J156" s="109"/>
+      <c r="K156" s="109"/>
+      <c r="L156" s="109"/>
+      <c r="M156" s="109"/>
+      <c r="N156" s="139"/>
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
       <c r="Q156" s="18"/>
@@ -23590,18 +23596,18 @@
       <c r="B157" s="24"/>
       <c r="C157" s="2"/>
       <c r="D157" s="46"/>
-      <c r="E157" s="142" t="s">
+      <c r="E157" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="F157" s="134"/>
-      <c r="G157" s="135"/>
-      <c r="H157" s="130"/>
-      <c r="I157" s="136"/>
-      <c r="J157" s="136"/>
-      <c r="K157" s="136"/>
-      <c r="L157" s="136"/>
-      <c r="M157" s="136"/>
-      <c r="N157" s="129"/>
+      <c r="F157" s="156"/>
+      <c r="G157" s="166"/>
+      <c r="H157" s="117"/>
+      <c r="I157" s="116"/>
+      <c r="J157" s="116"/>
+      <c r="K157" s="116"/>
+      <c r="L157" s="116"/>
+      <c r="M157" s="116"/>
+      <c r="N157" s="133"/>
       <c r="O157" s="43"/>
       <c r="P157" s="43"/>
       <c r="Q157" s="43"/>
@@ -23719,16 +23725,16 @@
       <c r="B158" s="24"/>
       <c r="C158" s="2"/>
       <c r="D158" s="46"/>
-      <c r="E158" s="142"/>
-      <c r="F158" s="134"/>
-      <c r="G158" s="135"/>
-      <c r="H158" s="131"/>
-      <c r="I158" s="136"/>
-      <c r="J158" s="136"/>
-      <c r="K158" s="136"/>
-      <c r="L158" s="136"/>
-      <c r="M158" s="136"/>
-      <c r="N158" s="129"/>
+      <c r="E158" s="165"/>
+      <c r="F158" s="156"/>
+      <c r="G158" s="166"/>
+      <c r="H158" s="118"/>
+      <c r="I158" s="116"/>
+      <c r="J158" s="116"/>
+      <c r="K158" s="116"/>
+      <c r="L158" s="116"/>
+      <c r="M158" s="116"/>
+      <c r="N158" s="133"/>
       <c r="O158" s="31"/>
       <c r="P158" s="31"/>
       <c r="Q158" s="31"/>
@@ -23847,19 +23853,19 @@
       <c r="C159" s="2"/>
       <c r="D159" s="46"/>
       <c r="E159" s="57"/>
-      <c r="F159" s="122" t="s">
+      <c r="F159" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="G159" s="123"/>
-      <c r="H159" s="108">
+      <c r="G159" s="168"/>
+      <c r="H159" s="149">
         <v>3</v>
       </c>
-      <c r="I159" s="108"/>
-      <c r="J159" s="118"/>
-      <c r="K159" s="118"/>
-      <c r="L159" s="118"/>
-      <c r="M159" s="118"/>
-      <c r="N159" s="137"/>
+      <c r="I159" s="149"/>
+      <c r="J159" s="108"/>
+      <c r="K159" s="108"/>
+      <c r="L159" s="108"/>
+      <c r="M159" s="108"/>
+      <c r="N159" s="110"/>
       <c r="O159" s="18"/>
       <c r="P159" s="18"/>
       <c r="Q159" s="18"/>
@@ -23978,15 +23984,15 @@
       <c r="C160" s="2"/>
       <c r="D160" s="46"/>
       <c r="E160" s="58"/>
-      <c r="F160" s="124"/>
-      <c r="G160" s="125"/>
-      <c r="H160" s="109"/>
-      <c r="I160" s="109"/>
-      <c r="J160" s="119"/>
-      <c r="K160" s="119"/>
-      <c r="L160" s="119"/>
-      <c r="M160" s="119"/>
-      <c r="N160" s="138"/>
+      <c r="F160" s="169"/>
+      <c r="G160" s="170"/>
+      <c r="H160" s="150"/>
+      <c r="I160" s="150"/>
+      <c r="J160" s="109"/>
+      <c r="K160" s="109"/>
+      <c r="L160" s="109"/>
+      <c r="M160" s="109"/>
+      <c r="N160" s="111"/>
       <c r="O160" s="18"/>
       <c r="P160" s="18"/>
       <c r="Q160" s="18"/>
@@ -24106,22 +24112,22 @@
       <c r="D161" s="46"/>
       <c r="E161" s="60"/>
       <c r="F161" s="105"/>
-      <c r="G161" s="111" t="s">
+      <c r="G161" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H161" s="109"/>
-      <c r="I161" s="109"/>
-      <c r="J161" s="118" t="s">
+      <c r="H161" s="150"/>
+      <c r="I161" s="150"/>
+      <c r="J161" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="K161" s="115"/>
-      <c r="L161" s="118" t="s">
+      <c r="K161" s="184"/>
+      <c r="L161" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="M161" s="113" t="s">
+      <c r="M161" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="N161" s="138"/>
+      <c r="N161" s="111"/>
       <c r="O161" s="18"/>
       <c r="P161" s="18"/>
       <c r="Q161" s="18"/>
@@ -24241,14 +24247,14 @@
       <c r="D162" s="46"/>
       <c r="E162" s="60"/>
       <c r="F162" s="105"/>
-      <c r="G162" s="112"/>
-      <c r="H162" s="109"/>
-      <c r="I162" s="109"/>
-      <c r="J162" s="119"/>
-      <c r="K162" s="114"/>
-      <c r="L162" s="119"/>
-      <c r="M162" s="114"/>
-      <c r="N162" s="138"/>
+      <c r="G162" s="181"/>
+      <c r="H162" s="150"/>
+      <c r="I162" s="150"/>
+      <c r="J162" s="109"/>
+      <c r="K162" s="153"/>
+      <c r="L162" s="109"/>
+      <c r="M162" s="153"/>
+      <c r="N162" s="111"/>
       <c r="O162" s="18"/>
       <c r="P162" s="18"/>
       <c r="Q162" s="18"/>
@@ -24368,22 +24374,22 @@
       <c r="D163" s="46"/>
       <c r="E163" s="60"/>
       <c r="F163" s="105"/>
-      <c r="G163" s="116" t="s">
+      <c r="G163" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H163" s="109"/>
-      <c r="I163" s="109"/>
-      <c r="J163" s="113" t="s">
+      <c r="H163" s="150"/>
+      <c r="I163" s="150"/>
+      <c r="J163" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="K163" s="115"/>
-      <c r="L163" s="118" t="s">
+      <c r="K163" s="184"/>
+      <c r="L163" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="M163" s="113" t="s">
+      <c r="M163" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="N163" s="138"/>
+      <c r="N163" s="111"/>
       <c r="O163" s="18"/>
       <c r="P163" s="18"/>
       <c r="Q163" s="18"/>
@@ -24503,14 +24509,14 @@
       <c r="D164" s="46"/>
       <c r="E164" s="60"/>
       <c r="F164" s="105"/>
-      <c r="G164" s="117"/>
-      <c r="H164" s="110"/>
-      <c r="I164" s="110"/>
-      <c r="J164" s="114"/>
-      <c r="K164" s="114"/>
-      <c r="L164" s="119"/>
-      <c r="M164" s="114"/>
-      <c r="N164" s="139"/>
+      <c r="G164" s="183"/>
+      <c r="H164" s="151"/>
+      <c r="I164" s="151"/>
+      <c r="J164" s="153"/>
+      <c r="K164" s="153"/>
+      <c r="L164" s="109"/>
+      <c r="M164" s="153"/>
+      <c r="N164" s="112"/>
       <c r="O164" s="18"/>
       <c r="P164" s="18"/>
       <c r="Q164" s="18"/>
@@ -24629,19 +24635,19 @@
       <c r="C165" s="2"/>
       <c r="D165" s="46"/>
       <c r="E165" s="58"/>
-      <c r="F165" s="122" t="s">
+      <c r="F165" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="G165" s="123"/>
-      <c r="H165" s="108">
+      <c r="G165" s="168"/>
+      <c r="H165" s="149">
         <v>2</v>
       </c>
-      <c r="I165" s="108"/>
-      <c r="J165" s="118"/>
-      <c r="K165" s="118"/>
-      <c r="L165" s="118"/>
-      <c r="M165" s="118"/>
-      <c r="N165" s="137"/>
+      <c r="I165" s="149"/>
+      <c r="J165" s="108"/>
+      <c r="K165" s="108"/>
+      <c r="L165" s="108"/>
+      <c r="M165" s="108"/>
+      <c r="N165" s="110"/>
       <c r="O165" s="18"/>
       <c r="P165" s="18"/>
       <c r="Q165" s="18"/>
@@ -24760,15 +24766,15 @@
       <c r="C166" s="2"/>
       <c r="D166" s="46"/>
       <c r="E166" s="58"/>
-      <c r="F166" s="124"/>
-      <c r="G166" s="125"/>
-      <c r="H166" s="109"/>
-      <c r="I166" s="109"/>
-      <c r="J166" s="119"/>
-      <c r="K166" s="119"/>
-      <c r="L166" s="119"/>
-      <c r="M166" s="119"/>
-      <c r="N166" s="138"/>
+      <c r="F166" s="169"/>
+      <c r="G166" s="170"/>
+      <c r="H166" s="150"/>
+      <c r="I166" s="150"/>
+      <c r="J166" s="109"/>
+      <c r="K166" s="109"/>
+      <c r="L166" s="109"/>
+      <c r="M166" s="109"/>
+      <c r="N166" s="111"/>
       <c r="O166" s="18"/>
       <c r="P166" s="18"/>
       <c r="Q166" s="18"/>
@@ -24888,22 +24894,22 @@
       <c r="D167" s="46"/>
       <c r="E167" s="60"/>
       <c r="F167" s="105"/>
-      <c r="G167" s="111" t="s">
+      <c r="G167" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H167" s="109"/>
-      <c r="I167" s="109"/>
-      <c r="J167" s="113" t="s">
+      <c r="H167" s="150"/>
+      <c r="I167" s="150"/>
+      <c r="J167" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="K167" s="115"/>
-      <c r="L167" s="118" t="s">
+      <c r="K167" s="184"/>
+      <c r="L167" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="M167" s="118" t="s">
+      <c r="M167" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="N167" s="138"/>
+      <c r="N167" s="111"/>
       <c r="O167" s="18"/>
       <c r="P167" s="18"/>
       <c r="Q167" s="18"/>
@@ -25023,14 +25029,14 @@
       <c r="D168" s="46"/>
       <c r="E168" s="60"/>
       <c r="F168" s="105"/>
-      <c r="G168" s="112"/>
-      <c r="H168" s="109"/>
-      <c r="I168" s="109"/>
-      <c r="J168" s="114"/>
-      <c r="K168" s="114"/>
-      <c r="L168" s="119"/>
-      <c r="M168" s="119"/>
-      <c r="N168" s="138"/>
+      <c r="G168" s="181"/>
+      <c r="H168" s="150"/>
+      <c r="I168" s="150"/>
+      <c r="J168" s="153"/>
+      <c r="K168" s="153"/>
+      <c r="L168" s="109"/>
+      <c r="M168" s="109"/>
+      <c r="N168" s="111"/>
       <c r="O168" s="18"/>
       <c r="P168" s="18"/>
       <c r="Q168" s="18"/>
@@ -25150,22 +25156,22 @@
       <c r="D169" s="46"/>
       <c r="E169" s="60"/>
       <c r="F169" s="105"/>
-      <c r="G169" s="116" t="s">
+      <c r="G169" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H169" s="109"/>
-      <c r="I169" s="109"/>
-      <c r="J169" s="113" t="s">
+      <c r="H169" s="150"/>
+      <c r="I169" s="150"/>
+      <c r="J169" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="K169" s="115"/>
-      <c r="L169" s="118" t="s">
+      <c r="K169" s="184"/>
+      <c r="L169" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="M169" s="113" t="s">
+      <c r="M169" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="N169" s="138"/>
+      <c r="N169" s="111"/>
       <c r="O169" s="18"/>
       <c r="P169" s="18"/>
       <c r="Q169" s="18"/>
@@ -25285,14 +25291,14 @@
       <c r="D170" s="46"/>
       <c r="E170" s="60"/>
       <c r="F170" s="105"/>
-      <c r="G170" s="117"/>
-      <c r="H170" s="110"/>
-      <c r="I170" s="110"/>
-      <c r="J170" s="114"/>
-      <c r="K170" s="114"/>
-      <c r="L170" s="119"/>
-      <c r="M170" s="114"/>
-      <c r="N170" s="139"/>
+      <c r="G170" s="183"/>
+      <c r="H170" s="151"/>
+      <c r="I170" s="151"/>
+      <c r="J170" s="153"/>
+      <c r="K170" s="153"/>
+      <c r="L170" s="109"/>
+      <c r="M170" s="153"/>
+      <c r="N170" s="112"/>
       <c r="O170" s="18"/>
       <c r="P170" s="18"/>
       <c r="Q170" s="18"/>
@@ -25411,19 +25417,19 @@
       <c r="C171" s="2"/>
       <c r="D171" s="46"/>
       <c r="E171" s="58"/>
-      <c r="F171" s="122" t="s">
+      <c r="F171" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="G171" s="123"/>
-      <c r="H171" s="108">
+      <c r="G171" s="168"/>
+      <c r="H171" s="149">
         <v>8</v>
       </c>
-      <c r="I171" s="108"/>
-      <c r="J171" s="118"/>
-      <c r="K171" s="118"/>
-      <c r="L171" s="118"/>
-      <c r="M171" s="118"/>
-      <c r="N171" s="137"/>
+      <c r="I171" s="149"/>
+      <c r="J171" s="108"/>
+      <c r="K171" s="108"/>
+      <c r="L171" s="108"/>
+      <c r="M171" s="108"/>
+      <c r="N171" s="110"/>
       <c r="O171" s="18"/>
       <c r="P171" s="18"/>
       <c r="Q171" s="18"/>
@@ -25542,15 +25548,15 @@
       <c r="C172" s="2"/>
       <c r="D172" s="46"/>
       <c r="E172" s="58"/>
-      <c r="F172" s="124"/>
-      <c r="G172" s="125"/>
-      <c r="H172" s="109"/>
-      <c r="I172" s="109"/>
-      <c r="J172" s="119"/>
-      <c r="K172" s="119"/>
-      <c r="L172" s="119"/>
-      <c r="M172" s="119"/>
-      <c r="N172" s="138"/>
+      <c r="F172" s="169"/>
+      <c r="G172" s="170"/>
+      <c r="H172" s="150"/>
+      <c r="I172" s="150"/>
+      <c r="J172" s="109"/>
+      <c r="K172" s="109"/>
+      <c r="L172" s="109"/>
+      <c r="M172" s="109"/>
+      <c r="N172" s="111"/>
       <c r="O172" s="18"/>
       <c r="P172" s="18"/>
       <c r="Q172" s="18"/>
@@ -25670,22 +25676,22 @@
       <c r="D173" s="46"/>
       <c r="E173" s="60"/>
       <c r="F173" s="105"/>
-      <c r="G173" s="111" t="s">
+      <c r="G173" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H173" s="109"/>
-      <c r="I173" s="109"/>
-      <c r="J173" s="113" t="s">
+      <c r="H173" s="150"/>
+      <c r="I173" s="150"/>
+      <c r="J173" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="K173" s="115"/>
-      <c r="L173" s="118" t="s">
+      <c r="K173" s="184"/>
+      <c r="L173" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="M173" s="118" t="s">
+      <c r="M173" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="N173" s="138"/>
+      <c r="N173" s="111"/>
       <c r="O173" s="18"/>
       <c r="P173" s="18"/>
       <c r="Q173" s="18"/>
@@ -25805,14 +25811,14 @@
       <c r="D174" s="46"/>
       <c r="E174" s="60"/>
       <c r="F174" s="105"/>
-      <c r="G174" s="112"/>
-      <c r="H174" s="109"/>
-      <c r="I174" s="109"/>
-      <c r="J174" s="114"/>
-      <c r="K174" s="114"/>
-      <c r="L174" s="119"/>
-      <c r="M174" s="119"/>
-      <c r="N174" s="138"/>
+      <c r="G174" s="181"/>
+      <c r="H174" s="150"/>
+      <c r="I174" s="150"/>
+      <c r="J174" s="153"/>
+      <c r="K174" s="153"/>
+      <c r="L174" s="109"/>
+      <c r="M174" s="109"/>
+      <c r="N174" s="111"/>
       <c r="O174" s="18"/>
       <c r="P174" s="18"/>
       <c r="Q174" s="18"/>
@@ -25932,22 +25938,22 @@
       <c r="D175" s="46"/>
       <c r="E175" s="60"/>
       <c r="F175" s="105"/>
-      <c r="G175" s="116" t="s">
+      <c r="G175" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H175" s="109"/>
-      <c r="I175" s="109"/>
-      <c r="J175" s="113" t="s">
+      <c r="H175" s="150"/>
+      <c r="I175" s="150"/>
+      <c r="J175" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="K175" s="115"/>
-      <c r="L175" s="118" t="s">
+      <c r="K175" s="184"/>
+      <c r="L175" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="M175" s="113" t="s">
+      <c r="M175" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="N175" s="138"/>
+      <c r="N175" s="111"/>
       <c r="O175" s="18"/>
       <c r="P175" s="18"/>
       <c r="Q175" s="18"/>
@@ -26067,14 +26073,14 @@
       <c r="D176" s="46"/>
       <c r="E176" s="60"/>
       <c r="F176" s="105"/>
-      <c r="G176" s="117"/>
-      <c r="H176" s="110"/>
-      <c r="I176" s="110"/>
-      <c r="J176" s="114"/>
-      <c r="K176" s="114"/>
-      <c r="L176" s="119"/>
-      <c r="M176" s="114"/>
-      <c r="N176" s="139"/>
+      <c r="G176" s="183"/>
+      <c r="H176" s="151"/>
+      <c r="I176" s="151"/>
+      <c r="J176" s="153"/>
+      <c r="K176" s="153"/>
+      <c r="L176" s="109"/>
+      <c r="M176" s="153"/>
+      <c r="N176" s="112"/>
       <c r="O176" s="18"/>
       <c r="P176" s="18"/>
       <c r="Q176" s="18"/>
@@ -26193,19 +26199,19 @@
       <c r="C177" s="2"/>
       <c r="D177" s="46"/>
       <c r="E177" s="58"/>
-      <c r="F177" s="122" t="s">
+      <c r="F177" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="G177" s="123"/>
-      <c r="H177" s="108">
+      <c r="G177" s="168"/>
+      <c r="H177" s="149">
         <v>7</v>
       </c>
-      <c r="I177" s="108"/>
-      <c r="J177" s="118"/>
-      <c r="K177" s="118"/>
-      <c r="L177" s="118"/>
-      <c r="M177" s="118"/>
-      <c r="N177" s="137"/>
+      <c r="I177" s="149"/>
+      <c r="J177" s="108"/>
+      <c r="K177" s="108"/>
+      <c r="L177" s="108"/>
+      <c r="M177" s="108"/>
+      <c r="N177" s="110"/>
       <c r="O177" s="18"/>
       <c r="P177" s="18"/>
       <c r="Q177" s="18"/>
@@ -26324,15 +26330,15 @@
       <c r="C178" s="2"/>
       <c r="D178" s="46"/>
       <c r="E178" s="58"/>
-      <c r="F178" s="124"/>
-      <c r="G178" s="125"/>
-      <c r="H178" s="109"/>
-      <c r="I178" s="109"/>
-      <c r="J178" s="119"/>
-      <c r="K178" s="119"/>
-      <c r="L178" s="119"/>
-      <c r="M178" s="119"/>
-      <c r="N178" s="138"/>
+      <c r="F178" s="169"/>
+      <c r="G178" s="170"/>
+      <c r="H178" s="150"/>
+      <c r="I178" s="150"/>
+      <c r="J178" s="109"/>
+      <c r="K178" s="109"/>
+      <c r="L178" s="109"/>
+      <c r="M178" s="109"/>
+      <c r="N178" s="111"/>
       <c r="O178" s="18"/>
       <c r="P178" s="18"/>
       <c r="Q178" s="18"/>
@@ -26452,22 +26458,22 @@
       <c r="D179" s="46"/>
       <c r="E179" s="60"/>
       <c r="F179" s="105"/>
-      <c r="G179" s="111" t="s">
+      <c r="G179" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H179" s="109"/>
-      <c r="I179" s="109"/>
-      <c r="J179" s="113" t="s">
+      <c r="H179" s="150"/>
+      <c r="I179" s="150"/>
+      <c r="J179" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="K179" s="115"/>
-      <c r="L179" s="118" t="s">
+      <c r="K179" s="184"/>
+      <c r="L179" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="M179" s="118" t="s">
+      <c r="M179" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="N179" s="138"/>
+      <c r="N179" s="111"/>
       <c r="O179" s="18"/>
       <c r="P179" s="18"/>
       <c r="Q179" s="18"/>
@@ -26587,14 +26593,14 @@
       <c r="D180" s="46"/>
       <c r="E180" s="60"/>
       <c r="F180" s="105"/>
-      <c r="G180" s="112"/>
-      <c r="H180" s="109"/>
-      <c r="I180" s="109"/>
-      <c r="J180" s="114"/>
-      <c r="K180" s="114"/>
-      <c r="L180" s="119"/>
-      <c r="M180" s="119"/>
-      <c r="N180" s="138"/>
+      <c r="G180" s="181"/>
+      <c r="H180" s="150"/>
+      <c r="I180" s="150"/>
+      <c r="J180" s="153"/>
+      <c r="K180" s="153"/>
+      <c r="L180" s="109"/>
+      <c r="M180" s="109"/>
+      <c r="N180" s="111"/>
       <c r="O180" s="18"/>
       <c r="P180" s="18"/>
       <c r="Q180" s="18"/>
@@ -26714,22 +26720,22 @@
       <c r="D181" s="46"/>
       <c r="E181" s="60"/>
       <c r="F181" s="105"/>
-      <c r="G181" s="116" t="s">
+      <c r="G181" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H181" s="109"/>
-      <c r="I181" s="109"/>
-      <c r="J181" s="113" t="s">
+      <c r="H181" s="150"/>
+      <c r="I181" s="150"/>
+      <c r="J181" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="K181" s="115"/>
-      <c r="L181" s="118" t="s">
+      <c r="K181" s="184"/>
+      <c r="L181" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="M181" s="118" t="s">
+      <c r="M181" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="N181" s="138"/>
+      <c r="N181" s="111"/>
       <c r="O181" s="18"/>
       <c r="P181" s="18"/>
       <c r="Q181" s="18"/>
@@ -26849,14 +26855,14 @@
       <c r="D182" s="46"/>
       <c r="E182" s="60"/>
       <c r="F182" s="105"/>
-      <c r="G182" s="117"/>
-      <c r="H182" s="110"/>
-      <c r="I182" s="110"/>
-      <c r="J182" s="114"/>
-      <c r="K182" s="114"/>
-      <c r="L182" s="119"/>
-      <c r="M182" s="119"/>
-      <c r="N182" s="139"/>
+      <c r="G182" s="183"/>
+      <c r="H182" s="151"/>
+      <c r="I182" s="151"/>
+      <c r="J182" s="153"/>
+      <c r="K182" s="153"/>
+      <c r="L182" s="109"/>
+      <c r="M182" s="109"/>
+      <c r="N182" s="112"/>
       <c r="O182" s="18"/>
       <c r="P182" s="18"/>
       <c r="Q182" s="18"/>
@@ -26975,19 +26981,19 @@
       <c r="C183" s="2"/>
       <c r="D183" s="46"/>
       <c r="E183" s="58"/>
-      <c r="F183" s="122" t="s">
+      <c r="F183" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="G183" s="123"/>
-      <c r="H183" s="108">
+      <c r="G183" s="168"/>
+      <c r="H183" s="149">
         <v>5</v>
       </c>
-      <c r="I183" s="108"/>
-      <c r="J183" s="118"/>
-      <c r="K183" s="118"/>
-      <c r="L183" s="118"/>
-      <c r="M183" s="118"/>
-      <c r="N183" s="137"/>
+      <c r="I183" s="149"/>
+      <c r="J183" s="108"/>
+      <c r="K183" s="108"/>
+      <c r="L183" s="108"/>
+      <c r="M183" s="108"/>
+      <c r="N183" s="110"/>
       <c r="O183" s="18"/>
       <c r="P183" s="18"/>
       <c r="Q183" s="18"/>
@@ -27106,15 +27112,15 @@
       <c r="C184" s="2"/>
       <c r="D184" s="46"/>
       <c r="E184" s="58"/>
-      <c r="F184" s="124"/>
-      <c r="G184" s="125"/>
-      <c r="H184" s="109"/>
-      <c r="I184" s="109"/>
-      <c r="J184" s="119"/>
-      <c r="K184" s="119"/>
-      <c r="L184" s="119"/>
-      <c r="M184" s="119"/>
-      <c r="N184" s="138"/>
+      <c r="F184" s="169"/>
+      <c r="G184" s="170"/>
+      <c r="H184" s="150"/>
+      <c r="I184" s="150"/>
+      <c r="J184" s="109"/>
+      <c r="K184" s="109"/>
+      <c r="L184" s="109"/>
+      <c r="M184" s="109"/>
+      <c r="N184" s="111"/>
       <c r="O184" s="18"/>
       <c r="P184" s="18"/>
       <c r="Q184" s="18"/>
@@ -27234,22 +27240,22 @@
       <c r="D185" s="46"/>
       <c r="E185" s="60"/>
       <c r="F185" s="105"/>
-      <c r="G185" s="111" t="s">
+      <c r="G185" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H185" s="109"/>
-      <c r="I185" s="109"/>
-      <c r="J185" s="113" t="s">
+      <c r="H185" s="150"/>
+      <c r="I185" s="150"/>
+      <c r="J185" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="K185" s="115"/>
-      <c r="L185" s="118" t="s">
+      <c r="K185" s="184"/>
+      <c r="L185" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="M185" s="118" t="s">
+      <c r="M185" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="N185" s="138"/>
+      <c r="N185" s="111"/>
       <c r="O185" s="18"/>
       <c r="P185" s="18"/>
       <c r="Q185" s="18"/>
@@ -27369,14 +27375,14 @@
       <c r="D186" s="46"/>
       <c r="E186" s="60"/>
       <c r="F186" s="105"/>
-      <c r="G186" s="112"/>
-      <c r="H186" s="109"/>
-      <c r="I186" s="109"/>
-      <c r="J186" s="114"/>
-      <c r="K186" s="114"/>
-      <c r="L186" s="119"/>
-      <c r="M186" s="119"/>
-      <c r="N186" s="138"/>
+      <c r="G186" s="181"/>
+      <c r="H186" s="150"/>
+      <c r="I186" s="150"/>
+      <c r="J186" s="153"/>
+      <c r="K186" s="153"/>
+      <c r="L186" s="109"/>
+      <c r="M186" s="109"/>
+      <c r="N186" s="111"/>
       <c r="O186" s="18"/>
       <c r="P186" s="18"/>
       <c r="Q186" s="18"/>
@@ -27496,22 +27502,22 @@
       <c r="D187" s="46"/>
       <c r="E187" s="60"/>
       <c r="F187" s="105"/>
-      <c r="G187" s="116" t="s">
+      <c r="G187" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H187" s="109"/>
-      <c r="I187" s="109"/>
-      <c r="J187" s="118" t="s">
+      <c r="H187" s="150"/>
+      <c r="I187" s="150"/>
+      <c r="J187" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="K187" s="115"/>
-      <c r="L187" s="118" t="s">
+      <c r="K187" s="184"/>
+      <c r="L187" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="M187" s="113" t="s">
+      <c r="M187" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="N187" s="138"/>
+      <c r="N187" s="111"/>
       <c r="O187" s="18"/>
       <c r="P187" s="18"/>
       <c r="Q187" s="18"/>
@@ -27631,14 +27637,14 @@
       <c r="D188" s="46"/>
       <c r="E188" s="60"/>
       <c r="F188" s="105"/>
-      <c r="G188" s="117"/>
-      <c r="H188" s="110"/>
-      <c r="I188" s="110"/>
-      <c r="J188" s="119"/>
-      <c r="K188" s="114"/>
-      <c r="L188" s="119"/>
-      <c r="M188" s="114"/>
-      <c r="N188" s="139"/>
+      <c r="G188" s="183"/>
+      <c r="H188" s="151"/>
+      <c r="I188" s="151"/>
+      <c r="J188" s="109"/>
+      <c r="K188" s="153"/>
+      <c r="L188" s="109"/>
+      <c r="M188" s="153"/>
+      <c r="N188" s="112"/>
       <c r="O188" s="18"/>
       <c r="P188" s="18"/>
       <c r="Q188" s="18"/>
@@ -27757,19 +27763,19 @@
       <c r="C189" s="2"/>
       <c r="D189" s="46"/>
       <c r="E189" s="58"/>
-      <c r="F189" s="122" t="s">
+      <c r="F189" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G189" s="123"/>
-      <c r="H189" s="140"/>
-      <c r="I189" s="140"/>
-      <c r="J189" s="118"/>
-      <c r="K189" s="118"/>
-      <c r="L189" s="118" t="s">
+      <c r="G189" s="168"/>
+      <c r="H189" s="137"/>
+      <c r="I189" s="137"/>
+      <c r="J189" s="108"/>
+      <c r="K189" s="108"/>
+      <c r="L189" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="M189" s="118"/>
-      <c r="N189" s="141"/>
+      <c r="M189" s="108"/>
+      <c r="N189" s="139"/>
       <c r="O189" s="18"/>
       <c r="P189" s="18"/>
       <c r="Q189" s="18"/>
@@ -27888,15 +27894,15 @@
       <c r="C190" s="2"/>
       <c r="D190" s="46"/>
       <c r="E190" s="63"/>
-      <c r="F190" s="124"/>
-      <c r="G190" s="125"/>
-      <c r="H190" s="140"/>
-      <c r="I190" s="140"/>
-      <c r="J190" s="119"/>
-      <c r="K190" s="119"/>
-      <c r="L190" s="119"/>
-      <c r="M190" s="119"/>
-      <c r="N190" s="141"/>
+      <c r="F190" s="169"/>
+      <c r="G190" s="170"/>
+      <c r="H190" s="137"/>
+      <c r="I190" s="137"/>
+      <c r="J190" s="109"/>
+      <c r="K190" s="109"/>
+      <c r="L190" s="109"/>
+      <c r="M190" s="109"/>
+      <c r="N190" s="139"/>
       <c r="O190" s="18"/>
       <c r="P190" s="18"/>
       <c r="Q190" s="18"/>
@@ -28013,19 +28019,19 @@
       <c r="A191" s="19"/>
       <c r="B191" s="51"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="157" t="s">
+      <c r="D191" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="E191" s="158"/>
-      <c r="F191" s="158"/>
-      <c r="G191" s="158"/>
-      <c r="H191" s="130"/>
-      <c r="I191" s="136"/>
-      <c r="J191" s="130"/>
-      <c r="K191" s="130"/>
-      <c r="L191" s="130"/>
-      <c r="M191" s="130"/>
-      <c r="N191" s="129"/>
+      <c r="E191" s="126"/>
+      <c r="F191" s="126"/>
+      <c r="G191" s="126"/>
+      <c r="H191" s="117"/>
+      <c r="I191" s="116"/>
+      <c r="J191" s="117"/>
+      <c r="K191" s="117"/>
+      <c r="L191" s="117"/>
+      <c r="M191" s="117"/>
+      <c r="N191" s="133"/>
       <c r="O191" s="42"/>
       <c r="P191" s="43"/>
       <c r="Q191" s="43"/>
@@ -28142,17 +28148,17 @@
       <c r="A192" s="19"/>
       <c r="B192" s="51"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="159"/>
-      <c r="E192" s="160"/>
-      <c r="F192" s="160"/>
-      <c r="G192" s="160"/>
-      <c r="H192" s="131"/>
-      <c r="I192" s="136"/>
-      <c r="J192" s="131"/>
-      <c r="K192" s="131"/>
-      <c r="L192" s="131"/>
-      <c r="M192" s="131"/>
-      <c r="N192" s="129"/>
+      <c r="D192" s="127"/>
+      <c r="E192" s="128"/>
+      <c r="F192" s="128"/>
+      <c r="G192" s="128"/>
+      <c r="H192" s="118"/>
+      <c r="I192" s="116"/>
+      <c r="J192" s="118"/>
+      <c r="K192" s="118"/>
+      <c r="L192" s="118"/>
+      <c r="M192" s="118"/>
+      <c r="N192" s="133"/>
       <c r="O192" s="44"/>
       <c r="P192" s="31"/>
       <c r="Q192" s="31"/>
@@ -28270,18 +28276,18 @@
       <c r="B193" s="24"/>
       <c r="C193" s="2"/>
       <c r="D193" s="55"/>
-      <c r="E193" s="132" t="s">
+      <c r="E193" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="F193" s="132"/>
-      <c r="G193" s="133"/>
-      <c r="H193" s="130"/>
-      <c r="I193" s="136"/>
-      <c r="J193" s="130"/>
-      <c r="K193" s="130"/>
-      <c r="L193" s="130"/>
-      <c r="M193" s="130"/>
-      <c r="N193" s="129"/>
+      <c r="F193" s="154"/>
+      <c r="G193" s="155"/>
+      <c r="H193" s="117"/>
+      <c r="I193" s="116"/>
+      <c r="J193" s="117"/>
+      <c r="K193" s="117"/>
+      <c r="L193" s="117"/>
+      <c r="M193" s="117"/>
+      <c r="N193" s="133"/>
       <c r="O193" s="42"/>
       <c r="P193" s="43"/>
       <c r="Q193" s="43"/>
@@ -28399,16 +28405,16 @@
       <c r="B194" s="24"/>
       <c r="C194" s="2"/>
       <c r="D194" s="56"/>
-      <c r="E194" s="134"/>
-      <c r="F194" s="134"/>
-      <c r="G194" s="135"/>
-      <c r="H194" s="131"/>
-      <c r="I194" s="136"/>
-      <c r="J194" s="131"/>
-      <c r="K194" s="131"/>
-      <c r="L194" s="131"/>
-      <c r="M194" s="131"/>
-      <c r="N194" s="129"/>
+      <c r="E194" s="156"/>
+      <c r="F194" s="156"/>
+      <c r="G194" s="166"/>
+      <c r="H194" s="118"/>
+      <c r="I194" s="116"/>
+      <c r="J194" s="118"/>
+      <c r="K194" s="118"/>
+      <c r="L194" s="118"/>
+      <c r="M194" s="118"/>
+      <c r="N194" s="133"/>
       <c r="O194" s="44"/>
       <c r="P194" s="31"/>
       <c r="Q194" s="31"/>
@@ -28527,19 +28533,19 @@
       <c r="C195" s="2"/>
       <c r="D195" s="46"/>
       <c r="E195" s="59"/>
-      <c r="F195" s="122" t="s">
+      <c r="F195" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="G195" s="123"/>
-      <c r="H195" s="108">
+      <c r="G195" s="168"/>
+      <c r="H195" s="149">
         <v>3</v>
       </c>
-      <c r="I195" s="108"/>
-      <c r="J195" s="118"/>
-      <c r="K195" s="118"/>
-      <c r="L195" s="118"/>
-      <c r="M195" s="118"/>
-      <c r="N195" s="126"/>
+      <c r="I195" s="149"/>
+      <c r="J195" s="108"/>
+      <c r="K195" s="108"/>
+      <c r="L195" s="108"/>
+      <c r="M195" s="108"/>
+      <c r="N195" s="113"/>
       <c r="O195" s="18"/>
       <c r="P195" s="18"/>
       <c r="Q195" s="18"/>
@@ -28658,15 +28664,15 @@
       <c r="C196" s="2"/>
       <c r="D196" s="46"/>
       <c r="E196" s="60"/>
-      <c r="F196" s="124"/>
-      <c r="G196" s="125"/>
-      <c r="H196" s="109"/>
-      <c r="I196" s="109"/>
-      <c r="J196" s="119"/>
-      <c r="K196" s="119"/>
-      <c r="L196" s="119"/>
-      <c r="M196" s="119"/>
-      <c r="N196" s="127"/>
+      <c r="F196" s="169"/>
+      <c r="G196" s="170"/>
+      <c r="H196" s="150"/>
+      <c r="I196" s="150"/>
+      <c r="J196" s="109"/>
+      <c r="K196" s="109"/>
+      <c r="L196" s="109"/>
+      <c r="M196" s="109"/>
+      <c r="N196" s="114"/>
       <c r="O196" s="18"/>
       <c r="P196" s="18"/>
       <c r="Q196" s="18"/>
@@ -28786,20 +28792,20 @@
       <c r="D197" s="46"/>
       <c r="E197" s="60"/>
       <c r="F197" s="105"/>
-      <c r="G197" s="111" t="s">
+      <c r="G197" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H197" s="109"/>
-      <c r="I197" s="109"/>
-      <c r="J197" s="115"/>
-      <c r="K197" s="115"/>
-      <c r="L197" s="113" t="s">
+      <c r="H197" s="150"/>
+      <c r="I197" s="150"/>
+      <c r="J197" s="184"/>
+      <c r="K197" s="184"/>
+      <c r="L197" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="M197" s="113" t="s">
+      <c r="M197" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="N197" s="127"/>
+      <c r="N197" s="114"/>
       <c r="O197" s="18"/>
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
@@ -28919,14 +28925,14 @@
       <c r="D198" s="46"/>
       <c r="E198" s="60"/>
       <c r="F198" s="105"/>
-      <c r="G198" s="112"/>
-      <c r="H198" s="109"/>
-      <c r="I198" s="109"/>
-      <c r="J198" s="114"/>
-      <c r="K198" s="114"/>
-      <c r="L198" s="114"/>
-      <c r="M198" s="114"/>
-      <c r="N198" s="127"/>
+      <c r="G198" s="181"/>
+      <c r="H198" s="150"/>
+      <c r="I198" s="150"/>
+      <c r="J198" s="153"/>
+      <c r="K198" s="153"/>
+      <c r="L198" s="153"/>
+      <c r="M198" s="153"/>
+      <c r="N198" s="114"/>
       <c r="O198" s="18"/>
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
@@ -29046,20 +29052,20 @@
       <c r="D199" s="46"/>
       <c r="E199" s="60"/>
       <c r="F199" s="105"/>
-      <c r="G199" s="116" t="s">
+      <c r="G199" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H199" s="109"/>
-      <c r="I199" s="109"/>
-      <c r="J199" s="115"/>
-      <c r="K199" s="115"/>
-      <c r="L199" s="118" t="s">
+      <c r="H199" s="150"/>
+      <c r="I199" s="150"/>
+      <c r="J199" s="184"/>
+      <c r="K199" s="184"/>
+      <c r="L199" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="M199" s="113" t="s">
+      <c r="M199" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="N199" s="127"/>
+      <c r="N199" s="114"/>
       <c r="O199" s="18"/>
       <c r="P199" s="18"/>
       <c r="Q199" s="18"/>
@@ -29179,14 +29185,14 @@
       <c r="D200" s="46"/>
       <c r="E200" s="60"/>
       <c r="F200" s="105"/>
-      <c r="G200" s="117"/>
-      <c r="H200" s="110"/>
-      <c r="I200" s="110"/>
-      <c r="J200" s="114"/>
-      <c r="K200" s="114"/>
-      <c r="L200" s="119"/>
-      <c r="M200" s="114"/>
-      <c r="N200" s="128"/>
+      <c r="G200" s="183"/>
+      <c r="H200" s="151"/>
+      <c r="I200" s="151"/>
+      <c r="J200" s="153"/>
+      <c r="K200" s="153"/>
+      <c r="L200" s="109"/>
+      <c r="M200" s="153"/>
+      <c r="N200" s="115"/>
       <c r="O200" s="18"/>
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
@@ -29305,19 +29311,19 @@
       <c r="C201" s="2"/>
       <c r="D201" s="46"/>
       <c r="E201" s="61"/>
-      <c r="F201" s="122" t="s">
+      <c r="F201" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="G201" s="123"/>
-      <c r="H201" s="108">
+      <c r="G201" s="168"/>
+      <c r="H201" s="149">
         <v>3</v>
       </c>
-      <c r="I201" s="108"/>
-      <c r="J201" s="118"/>
-      <c r="K201" s="118"/>
-      <c r="L201" s="118"/>
-      <c r="M201" s="118"/>
-      <c r="N201" s="126"/>
+      <c r="I201" s="149"/>
+      <c r="J201" s="108"/>
+      <c r="K201" s="108"/>
+      <c r="L201" s="108"/>
+      <c r="M201" s="108"/>
+      <c r="N201" s="113"/>
       <c r="O201" s="18"/>
       <c r="P201" s="18"/>
       <c r="Q201" s="18"/>
@@ -29436,15 +29442,15 @@
       <c r="C202" s="2"/>
       <c r="D202" s="46"/>
       <c r="E202" s="58"/>
-      <c r="F202" s="124"/>
-      <c r="G202" s="125"/>
-      <c r="H202" s="109"/>
-      <c r="I202" s="109"/>
-      <c r="J202" s="119"/>
-      <c r="K202" s="119"/>
-      <c r="L202" s="119"/>
-      <c r="M202" s="119"/>
-      <c r="N202" s="127"/>
+      <c r="F202" s="169"/>
+      <c r="G202" s="170"/>
+      <c r="H202" s="150"/>
+      <c r="I202" s="150"/>
+      <c r="J202" s="109"/>
+      <c r="K202" s="109"/>
+      <c r="L202" s="109"/>
+      <c r="M202" s="109"/>
+      <c r="N202" s="114"/>
       <c r="O202" s="18"/>
       <c r="P202" s="18"/>
       <c r="Q202" s="18"/>
@@ -29564,22 +29570,22 @@
       <c r="D203" s="46"/>
       <c r="E203" s="60"/>
       <c r="F203" s="105"/>
-      <c r="G203" s="111" t="s">
+      <c r="G203" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H203" s="109"/>
-      <c r="I203" s="109"/>
-      <c r="J203" s="113" t="s">
+      <c r="H203" s="150"/>
+      <c r="I203" s="150"/>
+      <c r="J203" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="K203" s="115"/>
-      <c r="L203" s="113" t="s">
+      <c r="K203" s="184"/>
+      <c r="L203" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="M203" s="118" t="s">
+      <c r="M203" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="N203" s="127"/>
+      <c r="N203" s="114"/>
       <c r="O203" s="18"/>
       <c r="P203" s="18"/>
       <c r="Q203" s="18"/>
@@ -29699,14 +29705,14 @@
       <c r="D204" s="46"/>
       <c r="E204" s="60"/>
       <c r="F204" s="105"/>
-      <c r="G204" s="112"/>
-      <c r="H204" s="109"/>
-      <c r="I204" s="109"/>
-      <c r="J204" s="114"/>
-      <c r="K204" s="114"/>
-      <c r="L204" s="114"/>
-      <c r="M204" s="119"/>
-      <c r="N204" s="127"/>
+      <c r="G204" s="181"/>
+      <c r="H204" s="150"/>
+      <c r="I204" s="150"/>
+      <c r="J204" s="153"/>
+      <c r="K204" s="153"/>
+      <c r="L204" s="153"/>
+      <c r="M204" s="109"/>
+      <c r="N204" s="114"/>
       <c r="O204" s="18"/>
       <c r="P204" s="18"/>
       <c r="Q204" s="18"/>
@@ -29826,22 +29832,22 @@
       <c r="D205" s="46"/>
       <c r="E205" s="60"/>
       <c r="F205" s="105"/>
-      <c r="G205" s="116" t="s">
+      <c r="G205" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H205" s="109"/>
-      <c r="I205" s="109"/>
-      <c r="J205" s="118" t="s">
+      <c r="H205" s="150"/>
+      <c r="I205" s="150"/>
+      <c r="J205" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="K205" s="115"/>
-      <c r="L205" s="118" t="s">
+      <c r="K205" s="184"/>
+      <c r="L205" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="M205" s="118" t="s">
+      <c r="M205" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="N205" s="127"/>
+      <c r="N205" s="114"/>
       <c r="O205" s="18"/>
       <c r="P205" s="18"/>
       <c r="Q205" s="18"/>
@@ -29961,14 +29967,14 @@
       <c r="D206" s="46"/>
       <c r="E206" s="60"/>
       <c r="F206" s="105"/>
-      <c r="G206" s="117"/>
-      <c r="H206" s="110"/>
-      <c r="I206" s="110"/>
-      <c r="J206" s="119"/>
-      <c r="K206" s="114"/>
-      <c r="L206" s="119"/>
-      <c r="M206" s="119"/>
-      <c r="N206" s="128"/>
+      <c r="G206" s="183"/>
+      <c r="H206" s="151"/>
+      <c r="I206" s="151"/>
+      <c r="J206" s="109"/>
+      <c r="K206" s="153"/>
+      <c r="L206" s="109"/>
+      <c r="M206" s="109"/>
+      <c r="N206" s="115"/>
       <c r="O206" s="18"/>
       <c r="P206" s="18"/>
       <c r="Q206" s="18"/>
@@ -30087,19 +30093,19 @@
       <c r="C207" s="2"/>
       <c r="D207" s="46"/>
       <c r="E207" s="58"/>
-      <c r="F207" s="122" t="s">
+      <c r="F207" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="G207" s="123"/>
-      <c r="H207" s="108">
+      <c r="G207" s="168"/>
+      <c r="H207" s="149">
         <v>2</v>
       </c>
-      <c r="I207" s="108"/>
-      <c r="J207" s="118"/>
-      <c r="K207" s="118"/>
-      <c r="L207" s="118"/>
-      <c r="M207" s="118"/>
-      <c r="N207" s="126"/>
+      <c r="I207" s="149"/>
+      <c r="J207" s="108"/>
+      <c r="K207" s="108"/>
+      <c r="L207" s="108"/>
+      <c r="M207" s="108"/>
+      <c r="N207" s="113"/>
       <c r="O207" s="18"/>
       <c r="P207" s="18"/>
       <c r="Q207" s="18"/>
@@ -30218,15 +30224,15 @@
       <c r="C208" s="2"/>
       <c r="D208" s="46"/>
       <c r="E208" s="58"/>
-      <c r="F208" s="124"/>
-      <c r="G208" s="125"/>
-      <c r="H208" s="109"/>
-      <c r="I208" s="109"/>
-      <c r="J208" s="119"/>
-      <c r="K208" s="119"/>
-      <c r="L208" s="119"/>
-      <c r="M208" s="119"/>
-      <c r="N208" s="127"/>
+      <c r="F208" s="169"/>
+      <c r="G208" s="170"/>
+      <c r="H208" s="150"/>
+      <c r="I208" s="150"/>
+      <c r="J208" s="109"/>
+      <c r="K208" s="109"/>
+      <c r="L208" s="109"/>
+      <c r="M208" s="109"/>
+      <c r="N208" s="114"/>
       <c r="O208" s="18"/>
       <c r="P208" s="18"/>
       <c r="Q208" s="18"/>
@@ -30346,20 +30352,20 @@
       <c r="D209" s="46"/>
       <c r="E209" s="60"/>
       <c r="F209" s="105"/>
-      <c r="G209" s="111" t="s">
+      <c r="G209" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H209" s="109"/>
-      <c r="I209" s="109"/>
-      <c r="J209" s="115"/>
-      <c r="K209" s="115"/>
-      <c r="L209" s="113" t="s">
+      <c r="H209" s="150"/>
+      <c r="I209" s="150"/>
+      <c r="J209" s="184"/>
+      <c r="K209" s="184"/>
+      <c r="L209" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="M209" s="113" t="s">
+      <c r="M209" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="N209" s="127"/>
+      <c r="N209" s="114"/>
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
       <c r="Q209" s="18"/>
@@ -30479,14 +30485,14 @@
       <c r="D210" s="46"/>
       <c r="E210" s="60"/>
       <c r="F210" s="105"/>
-      <c r="G210" s="112"/>
-      <c r="H210" s="109"/>
-      <c r="I210" s="109"/>
-      <c r="J210" s="114"/>
-      <c r="K210" s="114"/>
-      <c r="L210" s="114"/>
-      <c r="M210" s="114"/>
-      <c r="N210" s="127"/>
+      <c r="G210" s="181"/>
+      <c r="H210" s="150"/>
+      <c r="I210" s="150"/>
+      <c r="J210" s="153"/>
+      <c r="K210" s="153"/>
+      <c r="L210" s="153"/>
+      <c r="M210" s="153"/>
+      <c r="N210" s="114"/>
       <c r="O210" s="18"/>
       <c r="P210" s="18"/>
       <c r="Q210" s="18"/>
@@ -30606,20 +30612,20 @@
       <c r="D211" s="46"/>
       <c r="E211" s="60"/>
       <c r="F211" s="105"/>
-      <c r="G211" s="116" t="s">
+      <c r="G211" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H211" s="109"/>
-      <c r="I211" s="109"/>
-      <c r="J211" s="115"/>
-      <c r="K211" s="115"/>
-      <c r="L211" s="118" t="s">
+      <c r="H211" s="150"/>
+      <c r="I211" s="150"/>
+      <c r="J211" s="184"/>
+      <c r="K211" s="184"/>
+      <c r="L211" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="M211" s="113" t="s">
+      <c r="M211" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="N211" s="127"/>
+      <c r="N211" s="114"/>
       <c r="O211" s="18"/>
       <c r="P211" s="18"/>
       <c r="Q211" s="18"/>
@@ -30739,14 +30745,14 @@
       <c r="D212" s="46"/>
       <c r="E212" s="60"/>
       <c r="F212" s="105"/>
-      <c r="G212" s="117"/>
-      <c r="H212" s="110"/>
-      <c r="I212" s="110"/>
-      <c r="J212" s="114"/>
-      <c r="K212" s="114"/>
-      <c r="L212" s="119"/>
-      <c r="M212" s="114"/>
-      <c r="N212" s="128"/>
+      <c r="G212" s="183"/>
+      <c r="H212" s="151"/>
+      <c r="I212" s="151"/>
+      <c r="J212" s="153"/>
+      <c r="K212" s="153"/>
+      <c r="L212" s="109"/>
+      <c r="M212" s="153"/>
+      <c r="N212" s="115"/>
       <c r="O212" s="18"/>
       <c r="P212" s="18"/>
       <c r="Q212" s="18"/>
@@ -30865,19 +30871,19 @@
       <c r="C213" s="2"/>
       <c r="D213" s="46"/>
       <c r="E213" s="58"/>
-      <c r="F213" s="122" t="s">
+      <c r="F213" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="G213" s="123"/>
-      <c r="H213" s="108">
+      <c r="G213" s="168"/>
+      <c r="H213" s="149">
         <v>2.5</v>
       </c>
-      <c r="I213" s="108"/>
-      <c r="J213" s="118"/>
-      <c r="K213" s="118"/>
-      <c r="L213" s="118"/>
-      <c r="M213" s="118"/>
-      <c r="N213" s="126"/>
+      <c r="I213" s="149"/>
+      <c r="J213" s="108"/>
+      <c r="K213" s="108"/>
+      <c r="L213" s="108"/>
+      <c r="M213" s="108"/>
+      <c r="N213" s="113"/>
       <c r="O213" s="18"/>
       <c r="P213" s="18"/>
       <c r="Q213" s="18"/>
@@ -30996,15 +31002,15 @@
       <c r="C214" s="2"/>
       <c r="D214" s="46"/>
       <c r="E214" s="58"/>
-      <c r="F214" s="124"/>
-      <c r="G214" s="125"/>
-      <c r="H214" s="109"/>
-      <c r="I214" s="109"/>
-      <c r="J214" s="119"/>
-      <c r="K214" s="119"/>
-      <c r="L214" s="119"/>
-      <c r="M214" s="119"/>
-      <c r="N214" s="127"/>
+      <c r="F214" s="169"/>
+      <c r="G214" s="170"/>
+      <c r="H214" s="150"/>
+      <c r="I214" s="150"/>
+      <c r="J214" s="109"/>
+      <c r="K214" s="109"/>
+      <c r="L214" s="109"/>
+      <c r="M214" s="109"/>
+      <c r="N214" s="114"/>
       <c r="O214" s="18"/>
       <c r="P214" s="18"/>
       <c r="Q214" s="18"/>
@@ -31124,22 +31130,22 @@
       <c r="D215" s="46"/>
       <c r="E215" s="60"/>
       <c r="F215" s="105"/>
-      <c r="G215" s="111" t="s">
+      <c r="G215" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H215" s="109"/>
-      <c r="I215" s="109"/>
-      <c r="J215" s="113" t="s">
+      <c r="H215" s="150"/>
+      <c r="I215" s="150"/>
+      <c r="J215" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="K215" s="115"/>
-      <c r="L215" s="118" t="s">
+      <c r="K215" s="184"/>
+      <c r="L215" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="M215" s="113" t="s">
+      <c r="M215" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="N215" s="127"/>
+      <c r="N215" s="114"/>
       <c r="O215" s="18"/>
       <c r="P215" s="18"/>
       <c r="Q215" s="18"/>
@@ -31259,14 +31265,14 @@
       <c r="D216" s="46"/>
       <c r="E216" s="60"/>
       <c r="F216" s="105"/>
-      <c r="G216" s="112"/>
-      <c r="H216" s="109"/>
-      <c r="I216" s="109"/>
-      <c r="J216" s="114"/>
-      <c r="K216" s="114"/>
-      <c r="L216" s="119"/>
-      <c r="M216" s="114"/>
-      <c r="N216" s="127"/>
+      <c r="G216" s="181"/>
+      <c r="H216" s="150"/>
+      <c r="I216" s="150"/>
+      <c r="J216" s="153"/>
+      <c r="K216" s="153"/>
+      <c r="L216" s="109"/>
+      <c r="M216" s="153"/>
+      <c r="N216" s="114"/>
       <c r="O216" s="18"/>
       <c r="P216" s="18"/>
       <c r="Q216" s="18"/>
@@ -31386,22 +31392,22 @@
       <c r="D217" s="46"/>
       <c r="E217" s="60"/>
       <c r="F217" s="105"/>
-      <c r="G217" s="116" t="s">
+      <c r="G217" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H217" s="109"/>
-      <c r="I217" s="109"/>
-      <c r="J217" s="118" t="s">
+      <c r="H217" s="150"/>
+      <c r="I217" s="150"/>
+      <c r="J217" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="K217" s="115"/>
-      <c r="L217" s="118" t="s">
+      <c r="K217" s="184"/>
+      <c r="L217" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="M217" s="113" t="s">
+      <c r="M217" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="N217" s="127"/>
+      <c r="N217" s="114"/>
       <c r="O217" s="18"/>
       <c r="P217" s="18"/>
       <c r="Q217" s="18"/>
@@ -31521,14 +31527,14 @@
       <c r="D218" s="46"/>
       <c r="E218" s="60"/>
       <c r="F218" s="105"/>
-      <c r="G218" s="117"/>
-      <c r="H218" s="110"/>
-      <c r="I218" s="110"/>
-      <c r="J218" s="119"/>
-      <c r="K218" s="114"/>
-      <c r="L218" s="119"/>
-      <c r="M218" s="114"/>
-      <c r="N218" s="128"/>
+      <c r="G218" s="183"/>
+      <c r="H218" s="151"/>
+      <c r="I218" s="151"/>
+      <c r="J218" s="109"/>
+      <c r="K218" s="153"/>
+      <c r="L218" s="109"/>
+      <c r="M218" s="153"/>
+      <c r="N218" s="115"/>
       <c r="O218" s="18"/>
       <c r="P218" s="18"/>
       <c r="Q218" s="18"/>
@@ -31647,19 +31653,19 @@
       <c r="C219" s="2"/>
       <c r="D219" s="46"/>
       <c r="E219" s="58"/>
-      <c r="F219" s="122" t="s">
+      <c r="F219" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G219" s="123"/>
-      <c r="H219" s="140"/>
-      <c r="I219" s="140"/>
-      <c r="J219" s="118"/>
-      <c r="K219" s="118"/>
-      <c r="L219" s="118" t="s">
+      <c r="G219" s="168"/>
+      <c r="H219" s="137"/>
+      <c r="I219" s="137"/>
+      <c r="J219" s="108"/>
+      <c r="K219" s="108"/>
+      <c r="L219" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="M219" s="118"/>
-      <c r="N219" s="141"/>
+      <c r="M219" s="108"/>
+      <c r="N219" s="139"/>
       <c r="O219" s="18"/>
       <c r="P219" s="18"/>
       <c r="Q219" s="18"/>
@@ -31778,15 +31784,15 @@
       <c r="C220" s="2"/>
       <c r="D220" s="46"/>
       <c r="E220" s="63"/>
-      <c r="F220" s="124"/>
-      <c r="G220" s="125"/>
-      <c r="H220" s="140"/>
-      <c r="I220" s="140"/>
-      <c r="J220" s="119"/>
-      <c r="K220" s="119"/>
-      <c r="L220" s="119"/>
-      <c r="M220" s="119"/>
-      <c r="N220" s="141"/>
+      <c r="F220" s="169"/>
+      <c r="G220" s="170"/>
+      <c r="H220" s="137"/>
+      <c r="I220" s="137"/>
+      <c r="J220" s="109"/>
+      <c r="K220" s="109"/>
+      <c r="L220" s="109"/>
+      <c r="M220" s="109"/>
+      <c r="N220" s="139"/>
       <c r="O220" s="18"/>
       <c r="P220" s="18"/>
       <c r="Q220" s="18"/>
@@ -31904,18 +31910,18 @@
       <c r="B221" s="24"/>
       <c r="C221" s="2"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="142" t="s">
+      <c r="E221" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="F221" s="134"/>
-      <c r="G221" s="135"/>
-      <c r="H221" s="130"/>
-      <c r="I221" s="136"/>
-      <c r="J221" s="136"/>
-      <c r="K221" s="136"/>
-      <c r="L221" s="136"/>
-      <c r="M221" s="136"/>
-      <c r="N221" s="129"/>
+      <c r="F221" s="156"/>
+      <c r="G221" s="166"/>
+      <c r="H221" s="117"/>
+      <c r="I221" s="116"/>
+      <c r="J221" s="116"/>
+      <c r="K221" s="116"/>
+      <c r="L221" s="116"/>
+      <c r="M221" s="116"/>
+      <c r="N221" s="133"/>
       <c r="O221" s="43"/>
       <c r="P221" s="43"/>
       <c r="Q221" s="43"/>
@@ -32033,16 +32039,16 @@
       <c r="B222" s="24"/>
       <c r="C222" s="2"/>
       <c r="D222" s="46"/>
-      <c r="E222" s="142"/>
-      <c r="F222" s="134"/>
-      <c r="G222" s="135"/>
-      <c r="H222" s="131"/>
-      <c r="I222" s="136"/>
-      <c r="J222" s="136"/>
-      <c r="K222" s="136"/>
-      <c r="L222" s="136"/>
-      <c r="M222" s="136"/>
-      <c r="N222" s="129"/>
+      <c r="E222" s="165"/>
+      <c r="F222" s="156"/>
+      <c r="G222" s="166"/>
+      <c r="H222" s="118"/>
+      <c r="I222" s="116"/>
+      <c r="J222" s="116"/>
+      <c r="K222" s="116"/>
+      <c r="L222" s="116"/>
+      <c r="M222" s="116"/>
+      <c r="N222" s="133"/>
       <c r="O222" s="31"/>
       <c r="P222" s="31"/>
       <c r="Q222" s="31"/>
@@ -32161,19 +32167,19 @@
       <c r="C223" s="2"/>
       <c r="D223" s="46"/>
       <c r="E223" s="59"/>
-      <c r="F223" s="122" t="s">
+      <c r="F223" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="G223" s="123"/>
-      <c r="H223" s="108">
+      <c r="G223" s="168"/>
+      <c r="H223" s="149">
         <v>4</v>
       </c>
-      <c r="I223" s="108"/>
-      <c r="J223" s="118"/>
-      <c r="K223" s="118"/>
-      <c r="L223" s="118"/>
-      <c r="M223" s="118"/>
-      <c r="N223" s="126"/>
+      <c r="I223" s="149"/>
+      <c r="J223" s="108"/>
+      <c r="K223" s="108"/>
+      <c r="L223" s="108"/>
+      <c r="M223" s="108"/>
+      <c r="N223" s="113"/>
       <c r="O223" s="18"/>
       <c r="P223" s="18"/>
       <c r="Q223" s="18"/>
@@ -32292,15 +32298,15 @@
       <c r="C224" s="2"/>
       <c r="D224" s="46"/>
       <c r="E224" s="60"/>
-      <c r="F224" s="124"/>
-      <c r="G224" s="125"/>
-      <c r="H224" s="109"/>
-      <c r="I224" s="109"/>
-      <c r="J224" s="119"/>
-      <c r="K224" s="119"/>
-      <c r="L224" s="119"/>
-      <c r="M224" s="119"/>
-      <c r="N224" s="127"/>
+      <c r="F224" s="169"/>
+      <c r="G224" s="170"/>
+      <c r="H224" s="150"/>
+      <c r="I224" s="150"/>
+      <c r="J224" s="109"/>
+      <c r="K224" s="109"/>
+      <c r="L224" s="109"/>
+      <c r="M224" s="109"/>
+      <c r="N224" s="114"/>
       <c r="O224" s="18"/>
       <c r="P224" s="18"/>
       <c r="Q224" s="18"/>
@@ -32420,18 +32426,18 @@
       <c r="D225" s="46"/>
       <c r="E225" s="60"/>
       <c r="F225" s="105"/>
-      <c r="G225" s="111" t="s">
+      <c r="G225" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H225" s="109"/>
-      <c r="I225" s="109"/>
-      <c r="J225" s="115"/>
-      <c r="K225" s="115"/>
-      <c r="L225" s="115"/>
-      <c r="M225" s="113" t="s">
+      <c r="H225" s="150"/>
+      <c r="I225" s="150"/>
+      <c r="J225" s="184"/>
+      <c r="K225" s="184"/>
+      <c r="L225" s="184"/>
+      <c r="M225" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="N225" s="127"/>
+      <c r="N225" s="114"/>
       <c r="O225" s="18"/>
       <c r="P225" s="18"/>
       <c r="Q225" s="18"/>
@@ -32551,14 +32557,14 @@
       <c r="D226" s="46"/>
       <c r="E226" s="60"/>
       <c r="F226" s="105"/>
-      <c r="G226" s="112"/>
-      <c r="H226" s="109"/>
-      <c r="I226" s="109"/>
-      <c r="J226" s="114"/>
-      <c r="K226" s="114"/>
-      <c r="L226" s="114"/>
-      <c r="M226" s="114"/>
-      <c r="N226" s="127"/>
+      <c r="G226" s="181"/>
+      <c r="H226" s="150"/>
+      <c r="I226" s="150"/>
+      <c r="J226" s="153"/>
+      <c r="K226" s="153"/>
+      <c r="L226" s="153"/>
+      <c r="M226" s="153"/>
+      <c r="N226" s="114"/>
       <c r="O226" s="18"/>
       <c r="P226" s="18"/>
       <c r="Q226" s="18"/>
@@ -32678,20 +32684,20 @@
       <c r="D227" s="46"/>
       <c r="E227" s="60"/>
       <c r="F227" s="105"/>
-      <c r="G227" s="116" t="s">
+      <c r="G227" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H227" s="109"/>
-      <c r="I227" s="109"/>
-      <c r="J227" s="115"/>
-      <c r="K227" s="115"/>
-      <c r="L227" s="118" t="s">
+      <c r="H227" s="150"/>
+      <c r="I227" s="150"/>
+      <c r="J227" s="184"/>
+      <c r="K227" s="184"/>
+      <c r="L227" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="M227" s="113" t="s">
+      <c r="M227" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="N227" s="127"/>
+      <c r="N227" s="114"/>
       <c r="O227" s="18"/>
       <c r="P227" s="18"/>
       <c r="Q227" s="18"/>
@@ -32811,14 +32817,14 @@
       <c r="D228" s="46"/>
       <c r="E228" s="60"/>
       <c r="F228" s="105"/>
-      <c r="G228" s="117"/>
-      <c r="H228" s="110"/>
-      <c r="I228" s="110"/>
-      <c r="J228" s="114"/>
-      <c r="K228" s="114"/>
-      <c r="L228" s="119"/>
-      <c r="M228" s="114"/>
-      <c r="N228" s="128"/>
+      <c r="G228" s="183"/>
+      <c r="H228" s="151"/>
+      <c r="I228" s="151"/>
+      <c r="J228" s="153"/>
+      <c r="K228" s="153"/>
+      <c r="L228" s="109"/>
+      <c r="M228" s="153"/>
+      <c r="N228" s="115"/>
       <c r="O228" s="18"/>
       <c r="P228" s="18"/>
       <c r="Q228" s="18"/>
@@ -32937,19 +32943,19 @@
       <c r="C229" s="2"/>
       <c r="D229" s="46"/>
       <c r="E229" s="61"/>
-      <c r="F229" s="122" t="s">
+      <c r="F229" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="G229" s="123"/>
-      <c r="H229" s="108">
+      <c r="G229" s="168"/>
+      <c r="H229" s="149">
         <v>4</v>
       </c>
-      <c r="I229" s="108"/>
-      <c r="J229" s="120"/>
-      <c r="K229" s="120"/>
-      <c r="L229" s="120"/>
-      <c r="M229" s="118"/>
-      <c r="N229" s="126"/>
+      <c r="I229" s="149"/>
+      <c r="J229" s="119"/>
+      <c r="K229" s="119"/>
+      <c r="L229" s="119"/>
+      <c r="M229" s="108"/>
+      <c r="N229" s="113"/>
       <c r="O229" s="18"/>
       <c r="P229" s="18"/>
       <c r="Q229" s="18"/>
@@ -33068,15 +33074,15 @@
       <c r="C230" s="2"/>
       <c r="D230" s="46"/>
       <c r="E230" s="58"/>
-      <c r="F230" s="124"/>
-      <c r="G230" s="125"/>
-      <c r="H230" s="109"/>
-      <c r="I230" s="109"/>
-      <c r="J230" s="121"/>
-      <c r="K230" s="121"/>
-      <c r="L230" s="121"/>
-      <c r="M230" s="119"/>
-      <c r="N230" s="127"/>
+      <c r="F230" s="169"/>
+      <c r="G230" s="170"/>
+      <c r="H230" s="150"/>
+      <c r="I230" s="150"/>
+      <c r="J230" s="120"/>
+      <c r="K230" s="120"/>
+      <c r="L230" s="120"/>
+      <c r="M230" s="109"/>
+      <c r="N230" s="114"/>
       <c r="O230" s="18"/>
       <c r="P230" s="18"/>
       <c r="Q230" s="18"/>
@@ -33196,22 +33202,22 @@
       <c r="D231" s="46"/>
       <c r="E231" s="60"/>
       <c r="F231" s="105"/>
-      <c r="G231" s="111" t="s">
+      <c r="G231" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H231" s="109"/>
-      <c r="I231" s="109"/>
-      <c r="J231" s="120" t="s">
+      <c r="H231" s="150"/>
+      <c r="I231" s="150"/>
+      <c r="J231" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="K231" s="115"/>
-      <c r="L231" s="120" t="s">
+      <c r="K231" s="184"/>
+      <c r="L231" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M231" s="118" t="s">
+      <c r="M231" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="N231" s="127"/>
+      <c r="N231" s="114"/>
       <c r="O231" s="18"/>
       <c r="P231" s="18"/>
       <c r="Q231" s="18"/>
@@ -33331,14 +33337,14 @@
       <c r="D232" s="46"/>
       <c r="E232" s="60"/>
       <c r="F232" s="105"/>
-      <c r="G232" s="112"/>
-      <c r="H232" s="109"/>
-      <c r="I232" s="109"/>
-      <c r="J232" s="121"/>
-      <c r="K232" s="114"/>
-      <c r="L232" s="121"/>
-      <c r="M232" s="119"/>
-      <c r="N232" s="127"/>
+      <c r="G232" s="181"/>
+      <c r="H232" s="150"/>
+      <c r="I232" s="150"/>
+      <c r="J232" s="120"/>
+      <c r="K232" s="153"/>
+      <c r="L232" s="120"/>
+      <c r="M232" s="109"/>
+      <c r="N232" s="114"/>
       <c r="O232" s="18"/>
       <c r="P232" s="18"/>
       <c r="Q232" s="18"/>
@@ -33458,22 +33464,22 @@
       <c r="D233" s="46"/>
       <c r="E233" s="60"/>
       <c r="F233" s="105"/>
-      <c r="G233" s="116" t="s">
+      <c r="G233" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H233" s="109"/>
-      <c r="I233" s="109"/>
-      <c r="J233" s="120" t="s">
+      <c r="H233" s="150"/>
+      <c r="I233" s="150"/>
+      <c r="J233" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="K233" s="115"/>
-      <c r="L233" s="120" t="s">
+      <c r="K233" s="184"/>
+      <c r="L233" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="M233" s="118" t="s">
+      <c r="M233" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="N233" s="127"/>
+      <c r="N233" s="114"/>
       <c r="O233" s="18"/>
       <c r="P233" s="18"/>
       <c r="Q233" s="18"/>
@@ -33593,14 +33599,14 @@
       <c r="D234" s="46"/>
       <c r="E234" s="60"/>
       <c r="F234" s="105"/>
-      <c r="G234" s="117"/>
-      <c r="H234" s="110"/>
-      <c r="I234" s="110"/>
-      <c r="J234" s="121"/>
-      <c r="K234" s="114"/>
-      <c r="L234" s="121"/>
-      <c r="M234" s="119"/>
-      <c r="N234" s="128"/>
+      <c r="G234" s="183"/>
+      <c r="H234" s="151"/>
+      <c r="I234" s="151"/>
+      <c r="J234" s="120"/>
+      <c r="K234" s="153"/>
+      <c r="L234" s="120"/>
+      <c r="M234" s="109"/>
+      <c r="N234" s="115"/>
       <c r="O234" s="18"/>
       <c r="P234" s="18"/>
       <c r="Q234" s="18"/>
@@ -33719,19 +33725,19 @@
       <c r="C235" s="2"/>
       <c r="D235" s="46"/>
       <c r="E235" s="58"/>
-      <c r="F235" s="122" t="s">
+      <c r="F235" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="G235" s="123"/>
-      <c r="H235" s="108">
+      <c r="G235" s="168"/>
+      <c r="H235" s="149">
         <v>3</v>
       </c>
-      <c r="I235" s="108"/>
-      <c r="J235" s="118"/>
-      <c r="K235" s="118"/>
-      <c r="L235" s="118"/>
-      <c r="M235" s="118"/>
-      <c r="N235" s="126"/>
+      <c r="I235" s="149"/>
+      <c r="J235" s="108"/>
+      <c r="K235" s="108"/>
+      <c r="L235" s="108"/>
+      <c r="M235" s="108"/>
+      <c r="N235" s="113"/>
       <c r="O235" s="18"/>
       <c r="P235" s="18"/>
       <c r="Q235" s="18"/>
@@ -33849,15 +33855,15 @@
       <c r="C236" s="2"/>
       <c r="D236" s="46"/>
       <c r="E236" s="58"/>
-      <c r="F236" s="124"/>
-      <c r="G236" s="125"/>
-      <c r="H236" s="109"/>
-      <c r="I236" s="109"/>
-      <c r="J236" s="119"/>
-      <c r="K236" s="119"/>
-      <c r="L236" s="119"/>
-      <c r="M236" s="119"/>
-      <c r="N236" s="127"/>
+      <c r="F236" s="169"/>
+      <c r="G236" s="170"/>
+      <c r="H236" s="150"/>
+      <c r="I236" s="150"/>
+      <c r="J236" s="109"/>
+      <c r="K236" s="109"/>
+      <c r="L236" s="109"/>
+      <c r="M236" s="109"/>
+      <c r="N236" s="114"/>
       <c r="O236" s="18"/>
       <c r="P236" s="18"/>
       <c r="Q236" s="18"/>
@@ -33977,20 +33983,20 @@
       <c r="D237" s="46"/>
       <c r="E237" s="60"/>
       <c r="F237" s="105"/>
-      <c r="G237" s="111" t="s">
+      <c r="G237" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H237" s="109"/>
-      <c r="I237" s="109"/>
-      <c r="J237" s="115"/>
-      <c r="K237" s="115"/>
-      <c r="L237" s="113" t="s">
+      <c r="H237" s="150"/>
+      <c r="I237" s="150"/>
+      <c r="J237" s="184"/>
+      <c r="K237" s="184"/>
+      <c r="L237" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="M237" s="113" t="s">
+      <c r="M237" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="N237" s="127"/>
+      <c r="N237" s="114"/>
       <c r="O237" s="18"/>
       <c r="P237" s="18"/>
       <c r="Q237" s="18"/>
@@ -34110,14 +34116,14 @@
       <c r="D238" s="46"/>
       <c r="E238" s="60"/>
       <c r="F238" s="105"/>
-      <c r="G238" s="112"/>
-      <c r="H238" s="109"/>
-      <c r="I238" s="109"/>
-      <c r="J238" s="114"/>
-      <c r="K238" s="114"/>
-      <c r="L238" s="114"/>
-      <c r="M238" s="114"/>
-      <c r="N238" s="127"/>
+      <c r="G238" s="181"/>
+      <c r="H238" s="150"/>
+      <c r="I238" s="150"/>
+      <c r="J238" s="153"/>
+      <c r="K238" s="153"/>
+      <c r="L238" s="153"/>
+      <c r="M238" s="153"/>
+      <c r="N238" s="114"/>
       <c r="O238" s="18"/>
       <c r="P238" s="18"/>
       <c r="Q238" s="18"/>
@@ -34237,20 +34243,20 @@
       <c r="D239" s="46"/>
       <c r="E239" s="60"/>
       <c r="F239" s="105"/>
-      <c r="G239" s="116" t="s">
+      <c r="G239" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H239" s="109"/>
-      <c r="I239" s="109"/>
-      <c r="J239" s="115"/>
-      <c r="K239" s="115"/>
-      <c r="L239" s="118" t="s">
+      <c r="H239" s="150"/>
+      <c r="I239" s="150"/>
+      <c r="J239" s="184"/>
+      <c r="K239" s="184"/>
+      <c r="L239" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="M239" s="113" t="s">
+      <c r="M239" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="N239" s="127"/>
+      <c r="N239" s="114"/>
       <c r="O239" s="18"/>
       <c r="P239" s="18"/>
       <c r="Q239" s="18"/>
@@ -34370,14 +34376,14 @@
       <c r="D240" s="46"/>
       <c r="E240" s="60"/>
       <c r="F240" s="105"/>
-      <c r="G240" s="117"/>
-      <c r="H240" s="110"/>
-      <c r="I240" s="110"/>
-      <c r="J240" s="114"/>
-      <c r="K240" s="114"/>
-      <c r="L240" s="119"/>
-      <c r="M240" s="114"/>
-      <c r="N240" s="128"/>
+      <c r="G240" s="183"/>
+      <c r="H240" s="151"/>
+      <c r="I240" s="151"/>
+      <c r="J240" s="153"/>
+      <c r="K240" s="153"/>
+      <c r="L240" s="109"/>
+      <c r="M240" s="153"/>
+      <c r="N240" s="115"/>
       <c r="O240" s="18"/>
       <c r="P240" s="18"/>
       <c r="Q240" s="18"/>
@@ -34496,19 +34502,19 @@
       <c r="C241" s="2"/>
       <c r="D241" s="46"/>
       <c r="E241" s="58"/>
-      <c r="F241" s="122" t="s">
+      <c r="F241" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="G241" s="123"/>
-      <c r="H241" s="108">
+      <c r="G241" s="168"/>
+      <c r="H241" s="149">
         <v>4</v>
       </c>
-      <c r="I241" s="108"/>
-      <c r="J241" s="118"/>
-      <c r="K241" s="118"/>
-      <c r="L241" s="118"/>
-      <c r="M241" s="118"/>
-      <c r="N241" s="126"/>
+      <c r="I241" s="149"/>
+      <c r="J241" s="108"/>
+      <c r="K241" s="108"/>
+      <c r="L241" s="108"/>
+      <c r="M241" s="108"/>
+      <c r="N241" s="113"/>
       <c r="O241" s="18"/>
       <c r="P241" s="18"/>
       <c r="Q241" s="18"/>
@@ -34626,15 +34632,15 @@
       <c r="C242" s="2"/>
       <c r="D242" s="46"/>
       <c r="E242" s="58"/>
-      <c r="F242" s="124"/>
-      <c r="G242" s="125"/>
-      <c r="H242" s="109"/>
-      <c r="I242" s="109"/>
-      <c r="J242" s="119"/>
-      <c r="K242" s="119"/>
-      <c r="L242" s="119"/>
-      <c r="M242" s="119"/>
-      <c r="N242" s="127"/>
+      <c r="F242" s="169"/>
+      <c r="G242" s="170"/>
+      <c r="H242" s="150"/>
+      <c r="I242" s="150"/>
+      <c r="J242" s="109"/>
+      <c r="K242" s="109"/>
+      <c r="L242" s="109"/>
+      <c r="M242" s="109"/>
+      <c r="N242" s="114"/>
       <c r="O242" s="18"/>
       <c r="P242" s="18"/>
       <c r="Q242" s="18"/>
@@ -34754,22 +34760,22 @@
       <c r="D243" s="46"/>
       <c r="E243" s="60"/>
       <c r="F243" s="105"/>
-      <c r="G243" s="111" t="s">
+      <c r="G243" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="H243" s="109"/>
-      <c r="I243" s="109"/>
-      <c r="J243" s="113" t="s">
+      <c r="H243" s="150"/>
+      <c r="I243" s="150"/>
+      <c r="J243" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="K243" s="115"/>
-      <c r="L243" s="113" t="s">
+      <c r="K243" s="184"/>
+      <c r="L243" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="M243" s="113" t="s">
+      <c r="M243" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="N243" s="127"/>
+      <c r="N243" s="114"/>
       <c r="O243" s="18"/>
       <c r="P243" s="18"/>
       <c r="Q243" s="18"/>
@@ -34889,14 +34895,14 @@
       <c r="D244" s="46"/>
       <c r="E244" s="60"/>
       <c r="F244" s="105"/>
-      <c r="G244" s="112"/>
-      <c r="H244" s="109"/>
-      <c r="I244" s="109"/>
-      <c r="J244" s="114"/>
-      <c r="K244" s="114"/>
-      <c r="L244" s="114"/>
-      <c r="M244" s="114"/>
-      <c r="N244" s="127"/>
+      <c r="G244" s="181"/>
+      <c r="H244" s="150"/>
+      <c r="I244" s="150"/>
+      <c r="J244" s="153"/>
+      <c r="K244" s="153"/>
+      <c r="L244" s="153"/>
+      <c r="M244" s="153"/>
+      <c r="N244" s="114"/>
       <c r="O244" s="18"/>
       <c r="P244" s="18"/>
       <c r="Q244" s="18"/>
@@ -35016,22 +35022,22 @@
       <c r="D245" s="46"/>
       <c r="E245" s="60"/>
       <c r="F245" s="105"/>
-      <c r="G245" s="116" t="s">
+      <c r="G245" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H245" s="109"/>
-      <c r="I245" s="109"/>
-      <c r="J245" s="118" t="s">
+      <c r="H245" s="150"/>
+      <c r="I245" s="150"/>
+      <c r="J245" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="K245" s="115"/>
-      <c r="L245" s="118" t="s">
+      <c r="K245" s="184"/>
+      <c r="L245" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="M245" s="113" t="s">
+      <c r="M245" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="N245" s="127"/>
+      <c r="N245" s="114"/>
       <c r="O245" s="18"/>
       <c r="P245" s="18"/>
       <c r="Q245" s="18"/>
@@ -35151,14 +35157,14 @@
       <c r="D246" s="46"/>
       <c r="E246" s="60"/>
       <c r="F246" s="105"/>
-      <c r="G246" s="117"/>
-      <c r="H246" s="110"/>
-      <c r="I246" s="110"/>
-      <c r="J246" s="119"/>
-      <c r="K246" s="114"/>
-      <c r="L246" s="119"/>
-      <c r="M246" s="114"/>
-      <c r="N246" s="128"/>
+      <c r="G246" s="183"/>
+      <c r="H246" s="151"/>
+      <c r="I246" s="151"/>
+      <c r="J246" s="109"/>
+      <c r="K246" s="153"/>
+      <c r="L246" s="109"/>
+      <c r="M246" s="153"/>
+      <c r="N246" s="115"/>
       <c r="O246" s="18"/>
       <c r="P246" s="18"/>
       <c r="Q246" s="18"/>
@@ -35277,19 +35283,19 @@
       <c r="C247" s="2"/>
       <c r="D247" s="46"/>
       <c r="E247" s="58"/>
-      <c r="F247" s="122" t="s">
+      <c r="F247" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G247" s="123"/>
-      <c r="H247" s="140"/>
-      <c r="I247" s="140"/>
-      <c r="J247" s="118"/>
-      <c r="K247" s="118"/>
-      <c r="L247" s="118" t="s">
+      <c r="G247" s="168"/>
+      <c r="H247" s="137"/>
+      <c r="I247" s="137"/>
+      <c r="J247" s="108"/>
+      <c r="K247" s="108"/>
+      <c r="L247" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="M247" s="118"/>
-      <c r="N247" s="141"/>
+      <c r="M247" s="108"/>
+      <c r="N247" s="139"/>
       <c r="O247" s="18"/>
       <c r="P247" s="18"/>
       <c r="Q247" s="18"/>
@@ -35408,15 +35414,15 @@
       <c r="C248" s="2"/>
       <c r="D248" s="46"/>
       <c r="E248" s="63"/>
-      <c r="F248" s="124"/>
-      <c r="G248" s="125"/>
-      <c r="H248" s="140"/>
-      <c r="I248" s="140"/>
-      <c r="J248" s="119"/>
-      <c r="K248" s="119"/>
-      <c r="L248" s="119"/>
-      <c r="M248" s="119"/>
-      <c r="N248" s="141"/>
+      <c r="F248" s="169"/>
+      <c r="G248" s="170"/>
+      <c r="H248" s="137"/>
+      <c r="I248" s="137"/>
+      <c r="J248" s="109"/>
+      <c r="K248" s="109"/>
+      <c r="L248" s="109"/>
+      <c r="M248" s="109"/>
+      <c r="N248" s="139"/>
       <c r="O248" s="18"/>
       <c r="P248" s="18"/>
       <c r="Q248" s="18"/>
@@ -35532,20 +35538,20 @@
     <row r="249" spans="1:125" ht="9.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="24"/>
-      <c r="C249" s="164" t="s">
+      <c r="C249" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="D249" s="158"/>
-      <c r="E249" s="165"/>
-      <c r="F249" s="165"/>
-      <c r="G249" s="165"/>
-      <c r="H249" s="130"/>
-      <c r="I249" s="136"/>
-      <c r="J249" s="136"/>
-      <c r="K249" s="136"/>
-      <c r="L249" s="136"/>
-      <c r="M249" s="136"/>
-      <c r="N249" s="129"/>
+      <c r="D249" s="126"/>
+      <c r="E249" s="132"/>
+      <c r="F249" s="132"/>
+      <c r="G249" s="132"/>
+      <c r="H249" s="117"/>
+      <c r="I249" s="116"/>
+      <c r="J249" s="116"/>
+      <c r="K249" s="116"/>
+      <c r="L249" s="116"/>
+      <c r="M249" s="116"/>
+      <c r="N249" s="133"/>
       <c r="O249" s="43"/>
       <c r="P249" s="43"/>
       <c r="Q249" s="43"/>
@@ -35661,18 +35667,18 @@
     <row r="250" spans="1:125" ht="9.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="24"/>
-      <c r="C250" s="160"/>
-      <c r="D250" s="160"/>
-      <c r="E250" s="160"/>
-      <c r="F250" s="160"/>
-      <c r="G250" s="160"/>
-      <c r="H250" s="131"/>
-      <c r="I250" s="136"/>
-      <c r="J250" s="136"/>
-      <c r="K250" s="136"/>
-      <c r="L250" s="136"/>
-      <c r="M250" s="136"/>
-      <c r="N250" s="129"/>
+      <c r="C250" s="128"/>
+      <c r="D250" s="128"/>
+      <c r="E250" s="128"/>
+      <c r="F250" s="128"/>
+      <c r="G250" s="128"/>
+      <c r="H250" s="118"/>
+      <c r="I250" s="116"/>
+      <c r="J250" s="116"/>
+      <c r="K250" s="116"/>
+      <c r="L250" s="116"/>
+      <c r="M250" s="116"/>
+      <c r="N250" s="133"/>
       <c r="O250" s="31"/>
       <c r="P250" s="31"/>
       <c r="Q250" s="31"/>
@@ -35787,21 +35793,21 @@
     </row>
     <row r="251" spans="1:125" ht="9.75" customHeight="1">
       <c r="A251" s="2"/>
-      <c r="B251" s="166" t="s">
+      <c r="B251" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="C251" s="158"/>
-      <c r="D251" s="158"/>
-      <c r="E251" s="158"/>
-      <c r="F251" s="158"/>
-      <c r="G251" s="167"/>
-      <c r="H251" s="130"/>
-      <c r="I251" s="136"/>
-      <c r="J251" s="136"/>
-      <c r="K251" s="136"/>
-      <c r="L251" s="136"/>
-      <c r="M251" s="136"/>
-      <c r="N251" s="129"/>
+      <c r="C251" s="126"/>
+      <c r="D251" s="126"/>
+      <c r="E251" s="126"/>
+      <c r="F251" s="126"/>
+      <c r="G251" s="140"/>
+      <c r="H251" s="117"/>
+      <c r="I251" s="116"/>
+      <c r="J251" s="116"/>
+      <c r="K251" s="116"/>
+      <c r="L251" s="116"/>
+      <c r="M251" s="116"/>
+      <c r="N251" s="133"/>
       <c r="O251" s="43"/>
       <c r="P251" s="43"/>
       <c r="Q251" s="43"/>
@@ -35916,19 +35922,19 @@
     </row>
     <row r="252" spans="1:125" ht="9.75" customHeight="1">
       <c r="A252" s="2"/>
-      <c r="B252" s="159"/>
-      <c r="C252" s="160"/>
-      <c r="D252" s="160"/>
-      <c r="E252" s="160"/>
-      <c r="F252" s="160"/>
-      <c r="G252" s="168"/>
-      <c r="H252" s="131"/>
-      <c r="I252" s="136"/>
-      <c r="J252" s="136"/>
-      <c r="K252" s="136"/>
-      <c r="L252" s="136"/>
-      <c r="M252" s="136"/>
-      <c r="N252" s="129"/>
+      <c r="B252" s="127"/>
+      <c r="C252" s="128"/>
+      <c r="D252" s="128"/>
+      <c r="E252" s="128"/>
+      <c r="F252" s="128"/>
+      <c r="G252" s="141"/>
+      <c r="H252" s="118"/>
+      <c r="I252" s="116"/>
+      <c r="J252" s="116"/>
+      <c r="K252" s="116"/>
+      <c r="L252" s="116"/>
+      <c r="M252" s="116"/>
+      <c r="N252" s="133"/>
       <c r="O252" s="31"/>
       <c r="P252" s="31"/>
       <c r="Q252" s="31"/>
@@ -36044,20 +36050,20 @@
     <row r="253" spans="1:125" ht="9.75" customHeight="1">
       <c r="A253" s="19"/>
       <c r="B253" s="24"/>
-      <c r="C253" s="161" t="s">
+      <c r="C253" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D253" s="158"/>
-      <c r="E253" s="158"/>
-      <c r="F253" s="158"/>
-      <c r="G253" s="158"/>
-      <c r="H253" s="130"/>
-      <c r="I253" s="136"/>
-      <c r="J253" s="136"/>
-      <c r="K253" s="136"/>
-      <c r="L253" s="136"/>
-      <c r="M253" s="136"/>
-      <c r="N253" s="129"/>
+      <c r="D253" s="126"/>
+      <c r="E253" s="126"/>
+      <c r="F253" s="126"/>
+      <c r="G253" s="126"/>
+      <c r="H253" s="117"/>
+      <c r="I253" s="116"/>
+      <c r="J253" s="116"/>
+      <c r="K253" s="116"/>
+      <c r="L253" s="116"/>
+      <c r="M253" s="116"/>
+      <c r="N253" s="133"/>
       <c r="O253" s="43"/>
       <c r="P253" s="43"/>
       <c r="Q253" s="43"/>
@@ -36173,18 +36179,18 @@
     <row r="254" spans="1:125" ht="9.75" customHeight="1">
       <c r="A254" s="19"/>
       <c r="B254" s="54"/>
-      <c r="C254" s="160"/>
-      <c r="D254" s="160"/>
-      <c r="E254" s="160"/>
-      <c r="F254" s="160"/>
-      <c r="G254" s="160"/>
-      <c r="H254" s="131"/>
-      <c r="I254" s="136"/>
-      <c r="J254" s="136"/>
-      <c r="K254" s="136"/>
-      <c r="L254" s="136"/>
-      <c r="M254" s="136"/>
-      <c r="N254" s="129"/>
+      <c r="C254" s="128"/>
+      <c r="D254" s="128"/>
+      <c r="E254" s="128"/>
+      <c r="F254" s="128"/>
+      <c r="G254" s="128"/>
+      <c r="H254" s="118"/>
+      <c r="I254" s="116"/>
+      <c r="J254" s="116"/>
+      <c r="K254" s="116"/>
+      <c r="L254" s="116"/>
+      <c r="M254" s="116"/>
+      <c r="N254" s="133"/>
       <c r="O254" s="31"/>
       <c r="P254" s="31"/>
       <c r="Q254" s="31"/>
@@ -49607,46 +49613,803 @@
     </row>
   </sheetData>
   <mergeCells count="866">
-    <mergeCell ref="L161:L162"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="N159:N164"/>
-    <mergeCell ref="N213:N218"/>
-    <mergeCell ref="N207:N212"/>
-    <mergeCell ref="N201:N206"/>
-    <mergeCell ref="N195:N200"/>
-    <mergeCell ref="N241:N246"/>
-    <mergeCell ref="N235:N240"/>
-    <mergeCell ref="N229:N234"/>
-    <mergeCell ref="N223:N228"/>
-    <mergeCell ref="N171:N176"/>
-    <mergeCell ref="N165:N170"/>
-    <mergeCell ref="N177:N182"/>
-    <mergeCell ref="L249:L250"/>
-    <mergeCell ref="L251:L252"/>
-    <mergeCell ref="L253:L254"/>
-    <mergeCell ref="L191:L192"/>
-    <mergeCell ref="L193:L194"/>
-    <mergeCell ref="L195:L196"/>
-    <mergeCell ref="L201:L202"/>
-    <mergeCell ref="L207:L208"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="L221:L222"/>
-    <mergeCell ref="L223:L224"/>
-    <mergeCell ref="L229:L230"/>
-    <mergeCell ref="K249:K250"/>
-    <mergeCell ref="K251:K252"/>
-    <mergeCell ref="K253:K254"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="K195:K196"/>
-    <mergeCell ref="K201:K202"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="K221:K222"/>
-    <mergeCell ref="K223:K224"/>
-    <mergeCell ref="K229:K230"/>
+    <mergeCell ref="H97:H102"/>
+    <mergeCell ref="I97:I102"/>
+    <mergeCell ref="I131:I136"/>
+    <mergeCell ref="H131:H136"/>
+    <mergeCell ref="I125:I130"/>
+    <mergeCell ref="H125:H130"/>
+    <mergeCell ref="I119:I124"/>
+    <mergeCell ref="H119:H124"/>
+    <mergeCell ref="I113:I118"/>
+    <mergeCell ref="H113:H118"/>
+    <mergeCell ref="I107:I112"/>
+    <mergeCell ref="H107:H112"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="J243:J244"/>
+    <mergeCell ref="K243:K244"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="M243:M244"/>
+    <mergeCell ref="G245:G246"/>
+    <mergeCell ref="J245:J246"/>
+    <mergeCell ref="K245:K246"/>
+    <mergeCell ref="L245:L246"/>
+    <mergeCell ref="M245:M246"/>
+    <mergeCell ref="I241:I246"/>
+    <mergeCell ref="H241:H246"/>
+    <mergeCell ref="K241:K242"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="L237:L238"/>
+    <mergeCell ref="M237:M238"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="K239:K240"/>
+    <mergeCell ref="L239:L240"/>
+    <mergeCell ref="M239:M240"/>
+    <mergeCell ref="I235:I240"/>
+    <mergeCell ref="H235:H240"/>
+    <mergeCell ref="M235:M236"/>
+    <mergeCell ref="K235:K236"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="J231:J232"/>
+    <mergeCell ref="K231:K232"/>
+    <mergeCell ref="L231:L232"/>
+    <mergeCell ref="M231:M232"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="J233:J234"/>
+    <mergeCell ref="K233:K234"/>
+    <mergeCell ref="L233:L234"/>
+    <mergeCell ref="M233:M234"/>
+    <mergeCell ref="I229:I234"/>
+    <mergeCell ref="H229:H234"/>
+    <mergeCell ref="M229:M230"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="J225:J226"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="L225:L226"/>
+    <mergeCell ref="M225:M226"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="I223:I228"/>
+    <mergeCell ref="H223:H228"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="K215:K216"/>
+    <mergeCell ref="L215:L216"/>
+    <mergeCell ref="M215:M216"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="J217:J218"/>
+    <mergeCell ref="K217:K218"/>
+    <mergeCell ref="L217:L218"/>
+    <mergeCell ref="M217:M218"/>
+    <mergeCell ref="I213:I218"/>
+    <mergeCell ref="H213:H218"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="K209:K210"/>
+    <mergeCell ref="L209:L210"/>
+    <mergeCell ref="M209:M210"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="I207:I212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="M207:M208"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="J203:J204"/>
+    <mergeCell ref="K203:K204"/>
+    <mergeCell ref="L203:L204"/>
+    <mergeCell ref="M203:M204"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="J205:J206"/>
+    <mergeCell ref="K205:K206"/>
+    <mergeCell ref="L205:L206"/>
+    <mergeCell ref="M205:M206"/>
+    <mergeCell ref="I201:I206"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="M201:M202"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="K197:K198"/>
+    <mergeCell ref="L197:L198"/>
+    <mergeCell ref="M197:M198"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="L199:L200"/>
+    <mergeCell ref="M199:M200"/>
+    <mergeCell ref="I195:I200"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="L181:L182"/>
+    <mergeCell ref="M181:M182"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="I183:I188"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="I177:I182"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="L175:L176"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="L179:L180"/>
+    <mergeCell ref="M179:M180"/>
+    <mergeCell ref="I171:I176"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="F177:G178"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="L177:L178"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="I165:I170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="F171:G172"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="I159:I164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="M159:M160"/>
+    <mergeCell ref="F159:G160"/>
+    <mergeCell ref="F165:G166"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="M161:M162"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="I149:I154"/>
+    <mergeCell ref="H149:H154"/>
+    <mergeCell ref="I143:I148"/>
+    <mergeCell ref="H143:H148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="N149:N154"/>
+    <mergeCell ref="N143:N148"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="M163:M164"/>
+    <mergeCell ref="N141:N142"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="E141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="N125:N130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="N131:N136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="M121:M122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="J253:J254"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="J201:J202"/>
+    <mergeCell ref="J207:J208"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="J221:J222"/>
+    <mergeCell ref="J223:J224"/>
+    <mergeCell ref="J229:J230"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="J249:J250"/>
+    <mergeCell ref="J251:J252"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="F189:G190"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="F183:G184"/>
+    <mergeCell ref="M183:M184"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="L187:L188"/>
+    <mergeCell ref="M187:M188"/>
+    <mergeCell ref="N183:N188"/>
+    <mergeCell ref="F149:G150"/>
+    <mergeCell ref="M149:M150"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="F155:G156"/>
+    <mergeCell ref="E157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="M153:M154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="F247:G248"/>
+    <mergeCell ref="F241:G242"/>
+    <mergeCell ref="F235:G236"/>
+    <mergeCell ref="F229:G230"/>
+    <mergeCell ref="F223:G224"/>
+    <mergeCell ref="F103:G104"/>
+    <mergeCell ref="F97:G98"/>
+    <mergeCell ref="E105:G106"/>
+    <mergeCell ref="F137:G138"/>
+    <mergeCell ref="F131:G132"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="F119:G120"/>
+    <mergeCell ref="F113:G114"/>
+    <mergeCell ref="F107:G108"/>
+    <mergeCell ref="F219:G220"/>
+    <mergeCell ref="F201:G202"/>
+    <mergeCell ref="F207:G208"/>
+    <mergeCell ref="F213:G214"/>
+    <mergeCell ref="F195:G196"/>
+    <mergeCell ref="D139:G140"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="D191:G192"/>
+    <mergeCell ref="E193:G194"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="C253:G254"/>
+    <mergeCell ref="H253:H254"/>
+    <mergeCell ref="I253:I254"/>
+    <mergeCell ref="M253:M254"/>
+    <mergeCell ref="N253:N254"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="C249:G250"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="I249:I250"/>
+    <mergeCell ref="M249:M250"/>
+    <mergeCell ref="N249:N250"/>
+    <mergeCell ref="B251:G252"/>
+    <mergeCell ref="H251:H252"/>
+    <mergeCell ref="I251:I252"/>
+    <mergeCell ref="M251:M252"/>
+    <mergeCell ref="N251:N252"/>
+    <mergeCell ref="M241:M242"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="I247:I248"/>
+    <mergeCell ref="M247:M248"/>
+    <mergeCell ref="N247:N248"/>
+    <mergeCell ref="E221:G222"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="N219:N220"/>
+    <mergeCell ref="K247:K248"/>
+    <mergeCell ref="J235:J236"/>
+    <mergeCell ref="J241:J242"/>
+    <mergeCell ref="J247:J248"/>
+    <mergeCell ref="L235:L236"/>
+    <mergeCell ref="L241:L242"/>
+    <mergeCell ref="L247:L248"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="M193:M194"/>
+    <mergeCell ref="N193:N194"/>
+    <mergeCell ref="M195:M196"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="M137:M138"/>
+    <mergeCell ref="N137:N138"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="M191:M192"/>
+    <mergeCell ref="N191:N192"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="M139:M140"/>
+    <mergeCell ref="N139:N140"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="N119:N124"/>
+    <mergeCell ref="N113:N118"/>
+    <mergeCell ref="N107:N112"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N91:N96"/>
+    <mergeCell ref="N97:N102"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="H91:H96"/>
+    <mergeCell ref="E83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="I91:I96"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="C77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="O3:CO3"/>
     <mergeCell ref="CP3:DT3"/>
     <mergeCell ref="O4:AF4"/>
@@ -49671,808 +50434,51 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="C77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="E81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="H91:H96"/>
-    <mergeCell ref="E83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="I91:I96"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N91:N96"/>
-    <mergeCell ref="N97:N102"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="N119:N124"/>
-    <mergeCell ref="N113:N118"/>
-    <mergeCell ref="N107:N112"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="M193:M194"/>
-    <mergeCell ref="N193:N194"/>
-    <mergeCell ref="M195:M196"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="M137:M138"/>
-    <mergeCell ref="N137:N138"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="M191:M192"/>
-    <mergeCell ref="N191:N192"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="M139:M140"/>
-    <mergeCell ref="N139:N140"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="K249:K250"/>
+    <mergeCell ref="K251:K252"/>
+    <mergeCell ref="K253:K254"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="K201:K202"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="K221:K222"/>
+    <mergeCell ref="K223:K224"/>
+    <mergeCell ref="K229:K230"/>
+    <mergeCell ref="L249:L250"/>
+    <mergeCell ref="L251:L252"/>
+    <mergeCell ref="L253:L254"/>
+    <mergeCell ref="L191:L192"/>
+    <mergeCell ref="L193:L194"/>
+    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="L201:L202"/>
+    <mergeCell ref="L207:L208"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="L221:L222"/>
+    <mergeCell ref="L223:L224"/>
+    <mergeCell ref="L229:L230"/>
+    <mergeCell ref="L161:L162"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="N159:N164"/>
+    <mergeCell ref="N213:N218"/>
+    <mergeCell ref="N207:N212"/>
+    <mergeCell ref="N201:N206"/>
+    <mergeCell ref="N195:N200"/>
+    <mergeCell ref="N241:N246"/>
+    <mergeCell ref="N235:N240"/>
+    <mergeCell ref="N229:N234"/>
+    <mergeCell ref="N223:N228"/>
+    <mergeCell ref="N171:N176"/>
+    <mergeCell ref="N165:N170"/>
+    <mergeCell ref="N177:N182"/>
     <mergeCell ref="M221:M222"/>
     <mergeCell ref="N221:N222"/>
     <mergeCell ref="M223:M224"/>
     <mergeCell ref="M213:M214"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="N219:N220"/>
-    <mergeCell ref="K247:K248"/>
-    <mergeCell ref="J235:J236"/>
-    <mergeCell ref="J241:J242"/>
-    <mergeCell ref="J247:J248"/>
-    <mergeCell ref="L235:L236"/>
-    <mergeCell ref="L241:L242"/>
-    <mergeCell ref="L247:L248"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="I221:I222"/>
-    <mergeCell ref="C253:G254"/>
-    <mergeCell ref="H253:H254"/>
-    <mergeCell ref="I253:I254"/>
-    <mergeCell ref="M253:M254"/>
-    <mergeCell ref="N253:N254"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="C249:G250"/>
-    <mergeCell ref="H249:H250"/>
-    <mergeCell ref="I249:I250"/>
-    <mergeCell ref="M249:M250"/>
-    <mergeCell ref="N249:N250"/>
-    <mergeCell ref="B251:G252"/>
-    <mergeCell ref="H251:H252"/>
-    <mergeCell ref="I251:I252"/>
-    <mergeCell ref="M251:M252"/>
-    <mergeCell ref="N251:N252"/>
-    <mergeCell ref="M241:M242"/>
-    <mergeCell ref="H247:H248"/>
-    <mergeCell ref="I247:I248"/>
-    <mergeCell ref="M247:M248"/>
-    <mergeCell ref="N247:N248"/>
-    <mergeCell ref="E221:G222"/>
-    <mergeCell ref="F247:G248"/>
-    <mergeCell ref="F241:G242"/>
-    <mergeCell ref="F235:G236"/>
-    <mergeCell ref="F229:G230"/>
-    <mergeCell ref="F223:G224"/>
-    <mergeCell ref="F103:G104"/>
-    <mergeCell ref="F97:G98"/>
-    <mergeCell ref="E105:G106"/>
-    <mergeCell ref="F137:G138"/>
-    <mergeCell ref="F131:G132"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="F119:G120"/>
-    <mergeCell ref="F113:G114"/>
-    <mergeCell ref="F107:G108"/>
-    <mergeCell ref="F219:G220"/>
-    <mergeCell ref="F201:G202"/>
-    <mergeCell ref="F207:G208"/>
-    <mergeCell ref="F213:G214"/>
-    <mergeCell ref="F195:G196"/>
-    <mergeCell ref="D139:G140"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="D191:G192"/>
-    <mergeCell ref="E193:G194"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="F149:G150"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="F155:G156"/>
-    <mergeCell ref="E157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="M153:M154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="F183:G184"/>
-    <mergeCell ref="M183:M184"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="J183:J184"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="K187:K188"/>
-    <mergeCell ref="L187:L188"/>
-    <mergeCell ref="M187:M188"/>
-    <mergeCell ref="N183:N188"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="J249:J250"/>
-    <mergeCell ref="J251:J252"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="F189:G190"/>
-    <mergeCell ref="J253:J254"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="J195:J196"/>
-    <mergeCell ref="J201:J202"/>
-    <mergeCell ref="J207:J208"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="J221:J222"/>
-    <mergeCell ref="J223:J224"/>
-    <mergeCell ref="J229:J230"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="M121:M122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="N125:N130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="N131:N136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="N141:N142"/>
-    <mergeCell ref="M143:M144"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="E141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="M141:M142"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="I149:I154"/>
-    <mergeCell ref="H149:H154"/>
-    <mergeCell ref="I143:I148"/>
-    <mergeCell ref="H143:H148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="N149:N154"/>
-    <mergeCell ref="N143:N148"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="I159:I164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="M159:M160"/>
-    <mergeCell ref="F159:G160"/>
-    <mergeCell ref="F165:G166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="M161:M162"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K161:K162"/>
     <mergeCell ref="M169:M170"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="L173:L174"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="I165:I170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="F171:G172"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="J175:J176"/>
-    <mergeCell ref="K175:K176"/>
-    <mergeCell ref="L175:L176"/>
-    <mergeCell ref="M175:M176"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="J179:J180"/>
-    <mergeCell ref="K179:K180"/>
-    <mergeCell ref="L179:L180"/>
-    <mergeCell ref="M179:M180"/>
-    <mergeCell ref="I171:I176"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="F177:G178"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="L177:L178"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="J181:J182"/>
-    <mergeCell ref="K181:K182"/>
-    <mergeCell ref="L181:L182"/>
-    <mergeCell ref="M181:M182"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="L185:L186"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="I183:I188"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="I177:I182"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="J197:J198"/>
-    <mergeCell ref="K197:K198"/>
-    <mergeCell ref="L197:L198"/>
-    <mergeCell ref="M197:M198"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="J199:J200"/>
-    <mergeCell ref="K199:K200"/>
-    <mergeCell ref="L199:L200"/>
-    <mergeCell ref="M199:M200"/>
-    <mergeCell ref="I195:I200"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="J203:J204"/>
-    <mergeCell ref="K203:K204"/>
-    <mergeCell ref="L203:L204"/>
-    <mergeCell ref="M203:M204"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="J205:J206"/>
-    <mergeCell ref="K205:K206"/>
-    <mergeCell ref="L205:L206"/>
-    <mergeCell ref="M205:M206"/>
-    <mergeCell ref="I201:I206"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="M201:M202"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="J209:J210"/>
-    <mergeCell ref="K209:K210"/>
-    <mergeCell ref="L209:L210"/>
-    <mergeCell ref="M209:M210"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="I207:I212"/>
-    <mergeCell ref="H207:H212"/>
-    <mergeCell ref="M207:M208"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="J215:J216"/>
-    <mergeCell ref="K215:K216"/>
-    <mergeCell ref="L215:L216"/>
-    <mergeCell ref="M215:M216"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="J217:J218"/>
-    <mergeCell ref="K217:K218"/>
-    <mergeCell ref="L217:L218"/>
-    <mergeCell ref="M217:M218"/>
-    <mergeCell ref="I213:I218"/>
-    <mergeCell ref="H213:H218"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="J225:J226"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="L225:L226"/>
-    <mergeCell ref="M225:M226"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="I223:I228"/>
-    <mergeCell ref="H223:H228"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="J231:J232"/>
-    <mergeCell ref="K231:K232"/>
-    <mergeCell ref="L231:L232"/>
-    <mergeCell ref="M231:M232"/>
-    <mergeCell ref="G233:G234"/>
-    <mergeCell ref="J233:J234"/>
-    <mergeCell ref="K233:K234"/>
-    <mergeCell ref="L233:L234"/>
-    <mergeCell ref="M233:M234"/>
-    <mergeCell ref="I229:I234"/>
-    <mergeCell ref="H229:H234"/>
-    <mergeCell ref="M229:M230"/>
-    <mergeCell ref="G237:G238"/>
-    <mergeCell ref="J237:J238"/>
-    <mergeCell ref="K237:K238"/>
-    <mergeCell ref="L237:L238"/>
-    <mergeCell ref="M237:M238"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="L239:L240"/>
-    <mergeCell ref="M239:M240"/>
-    <mergeCell ref="I235:I240"/>
-    <mergeCell ref="H235:H240"/>
-    <mergeCell ref="M235:M236"/>
-    <mergeCell ref="K235:K236"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="J243:J244"/>
-    <mergeCell ref="K243:K244"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="M243:M244"/>
-    <mergeCell ref="G245:G246"/>
-    <mergeCell ref="J245:J246"/>
-    <mergeCell ref="K245:K246"/>
-    <mergeCell ref="L245:L246"/>
-    <mergeCell ref="M245:M246"/>
-    <mergeCell ref="I241:I246"/>
-    <mergeCell ref="H241:H246"/>
-    <mergeCell ref="K241:K242"/>
-    <mergeCell ref="H97:H102"/>
-    <mergeCell ref="I97:I102"/>
-    <mergeCell ref="I131:I136"/>
-    <mergeCell ref="H131:H136"/>
-    <mergeCell ref="I125:I130"/>
-    <mergeCell ref="H125:H130"/>
-    <mergeCell ref="I119:I124"/>
-    <mergeCell ref="H119:H124"/>
-    <mergeCell ref="I113:I118"/>
-    <mergeCell ref="H113:H118"/>
-    <mergeCell ref="I107:I112"/>
-    <mergeCell ref="H107:H112"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="O7">
@@ -50684,7 +50690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF168E5-63FB-410C-B984-A34C6357BF57}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -50826,7 +50834,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -50848,7 +50856,9 @@
         <f>E7+F7</f>
         <v>5</v>
       </c>
-      <c r="H7" s="70"/>
+      <c r="H7" s="70">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="91">
@@ -50869,7 +50879,9 @@
         <f>E8+F8</f>
         <v>4</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="70">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="91">
@@ -50892,7 +50904,9 @@
         <f>E9+F9</f>
         <v>4</v>
       </c>
-      <c r="H9" s="70"/>
+      <c r="H9" s="70">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="92"/>
@@ -51296,7 +51310,7 @@
       </c>
       <c r="H29" s="70">
         <f>SUM(H2:H28)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8">

--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\中日本営業第2部(全員)_FY24\20.　個人フォルダ\溝口\研修\DIGITAL-OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B95A31-0A0F-4A6B-A1EB-182CC9DEA5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A9D719-E494-432C-A021-1FD3647D4943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="133">
   <si>
     <t>予定</t>
   </si>
@@ -1857,7 +1857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1"/>
@@ -2008,107 +2008,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2118,50 +2017,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2175,7 +2065,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2196,27 +2149,77 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2756,11 +2759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306D59FF-0559-3940-B3CE-CEBC92811536}">
   <dimension ref="A1:DU364"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AU117" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="AR138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I119" sqref="I119:I124"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3034,120 +3037,120 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="79"/>
-      <c r="O3" s="121">
+      <c r="O3" s="183">
         <v>2024</v>
       </c>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="122"/>
-      <c r="AK3" s="122"/>
-      <c r="AL3" s="122"/>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="122"/>
-      <c r="AO3" s="122"/>
-      <c r="AP3" s="122"/>
-      <c r="AQ3" s="122"/>
-      <c r="AR3" s="122"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="122"/>
-      <c r="AY3" s="122"/>
-      <c r="AZ3" s="122"/>
-      <c r="BA3" s="122"/>
-      <c r="BB3" s="122"/>
-      <c r="BC3" s="122"/>
-      <c r="BD3" s="122"/>
-      <c r="BE3" s="122"/>
-      <c r="BF3" s="122"/>
-      <c r="BG3" s="122"/>
-      <c r="BH3" s="122"/>
-      <c r="BI3" s="122"/>
-      <c r="BJ3" s="122"/>
-      <c r="BK3" s="122"/>
-      <c r="BL3" s="122"/>
-      <c r="BM3" s="122"/>
-      <c r="BN3" s="122"/>
-      <c r="BO3" s="122"/>
-      <c r="BP3" s="122"/>
-      <c r="BQ3" s="122"/>
-      <c r="BR3" s="122"/>
-      <c r="BS3" s="122"/>
-      <c r="BT3" s="122"/>
-      <c r="BU3" s="122"/>
-      <c r="BV3" s="122"/>
-      <c r="BW3" s="122"/>
-      <c r="BX3" s="122"/>
-      <c r="BY3" s="122"/>
-      <c r="BZ3" s="122"/>
-      <c r="CA3" s="122"/>
-      <c r="CB3" s="122"/>
-      <c r="CC3" s="122"/>
-      <c r="CD3" s="122"/>
-      <c r="CE3" s="122"/>
-      <c r="CF3" s="122"/>
-      <c r="CG3" s="122"/>
-      <c r="CH3" s="122"/>
-      <c r="CI3" s="122"/>
-      <c r="CJ3" s="122"/>
-      <c r="CK3" s="122"/>
-      <c r="CL3" s="122"/>
-      <c r="CM3" s="122"/>
-      <c r="CN3" s="122"/>
-      <c r="CO3" s="123"/>
-      <c r="CP3" s="121">
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="184"/>
+      <c r="AE3" s="184"/>
+      <c r="AF3" s="184"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="184"/>
+      <c r="AJ3" s="184"/>
+      <c r="AK3" s="184"/>
+      <c r="AL3" s="184"/>
+      <c r="AM3" s="184"/>
+      <c r="AN3" s="184"/>
+      <c r="AO3" s="184"/>
+      <c r="AP3" s="184"/>
+      <c r="AQ3" s="184"/>
+      <c r="AR3" s="184"/>
+      <c r="AS3" s="184"/>
+      <c r="AT3" s="184"/>
+      <c r="AU3" s="184"/>
+      <c r="AV3" s="184"/>
+      <c r="AW3" s="184"/>
+      <c r="AX3" s="184"/>
+      <c r="AY3" s="184"/>
+      <c r="AZ3" s="184"/>
+      <c r="BA3" s="184"/>
+      <c r="BB3" s="184"/>
+      <c r="BC3" s="184"/>
+      <c r="BD3" s="184"/>
+      <c r="BE3" s="184"/>
+      <c r="BF3" s="184"/>
+      <c r="BG3" s="184"/>
+      <c r="BH3" s="184"/>
+      <c r="BI3" s="184"/>
+      <c r="BJ3" s="184"/>
+      <c r="BK3" s="184"/>
+      <c r="BL3" s="184"/>
+      <c r="BM3" s="184"/>
+      <c r="BN3" s="184"/>
+      <c r="BO3" s="184"/>
+      <c r="BP3" s="184"/>
+      <c r="BQ3" s="184"/>
+      <c r="BR3" s="184"/>
+      <c r="BS3" s="184"/>
+      <c r="BT3" s="184"/>
+      <c r="BU3" s="184"/>
+      <c r="BV3" s="184"/>
+      <c r="BW3" s="184"/>
+      <c r="BX3" s="184"/>
+      <c r="BY3" s="184"/>
+      <c r="BZ3" s="184"/>
+      <c r="CA3" s="184"/>
+      <c r="CB3" s="184"/>
+      <c r="CC3" s="184"/>
+      <c r="CD3" s="184"/>
+      <c r="CE3" s="184"/>
+      <c r="CF3" s="184"/>
+      <c r="CG3" s="184"/>
+      <c r="CH3" s="184"/>
+      <c r="CI3" s="184"/>
+      <c r="CJ3" s="184"/>
+      <c r="CK3" s="184"/>
+      <c r="CL3" s="184"/>
+      <c r="CM3" s="184"/>
+      <c r="CN3" s="184"/>
+      <c r="CO3" s="185"/>
+      <c r="CP3" s="183">
         <v>2025</v>
       </c>
-      <c r="CQ3" s="122"/>
-      <c r="CR3" s="122"/>
-      <c r="CS3" s="122"/>
-      <c r="CT3" s="122"/>
-      <c r="CU3" s="122"/>
-      <c r="CV3" s="122"/>
-      <c r="CW3" s="122"/>
-      <c r="CX3" s="122"/>
-      <c r="CY3" s="122"/>
-      <c r="CZ3" s="122"/>
-      <c r="DA3" s="122"/>
-      <c r="DB3" s="122"/>
-      <c r="DC3" s="122"/>
-      <c r="DD3" s="122"/>
-      <c r="DE3" s="122"/>
-      <c r="DF3" s="122"/>
-      <c r="DG3" s="122"/>
-      <c r="DH3" s="122"/>
-      <c r="DI3" s="122"/>
-      <c r="DJ3" s="122"/>
-      <c r="DK3" s="122"/>
-      <c r="DL3" s="122"/>
-      <c r="DM3" s="122"/>
-      <c r="DN3" s="122"/>
-      <c r="DO3" s="122"/>
-      <c r="DP3" s="122"/>
-      <c r="DQ3" s="122"/>
-      <c r="DR3" s="122"/>
-      <c r="DS3" s="122"/>
-      <c r="DT3" s="123"/>
+      <c r="CQ3" s="184"/>
+      <c r="CR3" s="184"/>
+      <c r="CS3" s="184"/>
+      <c r="CT3" s="184"/>
+      <c r="CU3" s="184"/>
+      <c r="CV3" s="184"/>
+      <c r="CW3" s="184"/>
+      <c r="CX3" s="184"/>
+      <c r="CY3" s="184"/>
+      <c r="CZ3" s="184"/>
+      <c r="DA3" s="184"/>
+      <c r="DB3" s="184"/>
+      <c r="DC3" s="184"/>
+      <c r="DD3" s="184"/>
+      <c r="DE3" s="184"/>
+      <c r="DF3" s="184"/>
+      <c r="DG3" s="184"/>
+      <c r="DH3" s="184"/>
+      <c r="DI3" s="184"/>
+      <c r="DJ3" s="184"/>
+      <c r="DK3" s="184"/>
+      <c r="DL3" s="184"/>
+      <c r="DM3" s="184"/>
+      <c r="DN3" s="184"/>
+      <c r="DO3" s="184"/>
+      <c r="DP3" s="184"/>
+      <c r="DQ3" s="184"/>
+      <c r="DR3" s="184"/>
+      <c r="DS3" s="184"/>
+      <c r="DT3" s="185"/>
       <c r="DU3" s="2"/>
     </row>
     <row r="4" spans="1:125" ht="18" customHeight="1">
@@ -3162,124 +3165,124 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="O4" s="121">
+      <c r="O4" s="183">
         <v>10</v>
       </c>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="121">
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="184"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="184"/>
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="184"/>
+      <c r="AC4" s="184"/>
+      <c r="AD4" s="184"/>
+      <c r="AE4" s="184"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="183">
         <v>11</v>
       </c>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="122"/>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="122"/>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="122"/>
-      <c r="AU4" s="122"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="122"/>
-      <c r="AX4" s="122"/>
-      <c r="AY4" s="122"/>
-      <c r="AZ4" s="122"/>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="122"/>
-      <c r="BD4" s="122"/>
-      <c r="BE4" s="122"/>
-      <c r="BF4" s="122"/>
-      <c r="BG4" s="122"/>
-      <c r="BH4" s="122"/>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="123"/>
-      <c r="BK4" s="121">
+      <c r="AH4" s="184"/>
+      <c r="AI4" s="184"/>
+      <c r="AJ4" s="184"/>
+      <c r="AK4" s="184"/>
+      <c r="AL4" s="184"/>
+      <c r="AM4" s="184"/>
+      <c r="AN4" s="184"/>
+      <c r="AO4" s="184"/>
+      <c r="AP4" s="184"/>
+      <c r="AQ4" s="184"/>
+      <c r="AR4" s="184"/>
+      <c r="AS4" s="184"/>
+      <c r="AT4" s="184"/>
+      <c r="AU4" s="184"/>
+      <c r="AV4" s="184"/>
+      <c r="AW4" s="184"/>
+      <c r="AX4" s="184"/>
+      <c r="AY4" s="184"/>
+      <c r="AZ4" s="184"/>
+      <c r="BA4" s="184"/>
+      <c r="BB4" s="184"/>
+      <c r="BC4" s="184"/>
+      <c r="BD4" s="184"/>
+      <c r="BE4" s="184"/>
+      <c r="BF4" s="184"/>
+      <c r="BG4" s="184"/>
+      <c r="BH4" s="184"/>
+      <c r="BI4" s="184"/>
+      <c r="BJ4" s="185"/>
+      <c r="BK4" s="183">
         <v>12</v>
       </c>
-      <c r="BL4" s="122"/>
-      <c r="BM4" s="122"/>
-      <c r="BN4" s="122"/>
-      <c r="BO4" s="122"/>
-      <c r="BP4" s="122"/>
-      <c r="BQ4" s="122"/>
-      <c r="BR4" s="122"/>
-      <c r="BS4" s="122"/>
-      <c r="BT4" s="122"/>
-      <c r="BU4" s="122"/>
-      <c r="BV4" s="122"/>
-      <c r="BW4" s="122"/>
-      <c r="BX4" s="122"/>
-      <c r="BY4" s="122"/>
-      <c r="BZ4" s="122"/>
-      <c r="CA4" s="122"/>
-      <c r="CB4" s="122"/>
-      <c r="CC4" s="122"/>
-      <c r="CD4" s="122"/>
-      <c r="CE4" s="122"/>
-      <c r="CF4" s="122"/>
-      <c r="CG4" s="122"/>
-      <c r="CH4" s="122"/>
-      <c r="CI4" s="122"/>
-      <c r="CJ4" s="122"/>
-      <c r="CK4" s="122"/>
-      <c r="CL4" s="122"/>
-      <c r="CM4" s="122"/>
-      <c r="CN4" s="122"/>
-      <c r="CO4" s="123"/>
-      <c r="CP4" s="121">
+      <c r="BL4" s="184"/>
+      <c r="BM4" s="184"/>
+      <c r="BN4" s="184"/>
+      <c r="BO4" s="184"/>
+      <c r="BP4" s="184"/>
+      <c r="BQ4" s="184"/>
+      <c r="BR4" s="184"/>
+      <c r="BS4" s="184"/>
+      <c r="BT4" s="184"/>
+      <c r="BU4" s="184"/>
+      <c r="BV4" s="184"/>
+      <c r="BW4" s="184"/>
+      <c r="BX4" s="184"/>
+      <c r="BY4" s="184"/>
+      <c r="BZ4" s="184"/>
+      <c r="CA4" s="184"/>
+      <c r="CB4" s="184"/>
+      <c r="CC4" s="184"/>
+      <c r="CD4" s="184"/>
+      <c r="CE4" s="184"/>
+      <c r="CF4" s="184"/>
+      <c r="CG4" s="184"/>
+      <c r="CH4" s="184"/>
+      <c r="CI4" s="184"/>
+      <c r="CJ4" s="184"/>
+      <c r="CK4" s="184"/>
+      <c r="CL4" s="184"/>
+      <c r="CM4" s="184"/>
+      <c r="CN4" s="184"/>
+      <c r="CO4" s="185"/>
+      <c r="CP4" s="183">
         <v>1</v>
       </c>
-      <c r="CQ4" s="122"/>
-      <c r="CR4" s="122"/>
-      <c r="CS4" s="122"/>
-      <c r="CT4" s="122"/>
-      <c r="CU4" s="122"/>
-      <c r="CV4" s="122"/>
-      <c r="CW4" s="122"/>
-      <c r="CX4" s="122"/>
-      <c r="CY4" s="122"/>
-      <c r="CZ4" s="122"/>
-      <c r="DA4" s="122"/>
-      <c r="DB4" s="122"/>
-      <c r="DC4" s="122"/>
-      <c r="DD4" s="122"/>
-      <c r="DE4" s="122"/>
-      <c r="DF4" s="122"/>
-      <c r="DG4" s="122"/>
-      <c r="DH4" s="122"/>
-      <c r="DI4" s="122"/>
-      <c r="DJ4" s="122"/>
-      <c r="DK4" s="122"/>
-      <c r="DL4" s="122"/>
-      <c r="DM4" s="122"/>
-      <c r="DN4" s="122"/>
-      <c r="DO4" s="122"/>
-      <c r="DP4" s="122"/>
-      <c r="DQ4" s="122"/>
-      <c r="DR4" s="122"/>
-      <c r="DS4" s="122"/>
-      <c r="DT4" s="123"/>
+      <c r="CQ4" s="184"/>
+      <c r="CR4" s="184"/>
+      <c r="CS4" s="184"/>
+      <c r="CT4" s="184"/>
+      <c r="CU4" s="184"/>
+      <c r="CV4" s="184"/>
+      <c r="CW4" s="184"/>
+      <c r="CX4" s="184"/>
+      <c r="CY4" s="184"/>
+      <c r="CZ4" s="184"/>
+      <c r="DA4" s="184"/>
+      <c r="DB4" s="184"/>
+      <c r="DC4" s="184"/>
+      <c r="DD4" s="184"/>
+      <c r="DE4" s="184"/>
+      <c r="DF4" s="184"/>
+      <c r="DG4" s="184"/>
+      <c r="DH4" s="184"/>
+      <c r="DI4" s="184"/>
+      <c r="DJ4" s="184"/>
+      <c r="DK4" s="184"/>
+      <c r="DL4" s="184"/>
+      <c r="DM4" s="184"/>
+      <c r="DN4" s="184"/>
+      <c r="DO4" s="184"/>
+      <c r="DP4" s="184"/>
+      <c r="DQ4" s="184"/>
+      <c r="DR4" s="184"/>
+      <c r="DS4" s="184"/>
+      <c r="DT4" s="185"/>
       <c r="DU4" s="8"/>
     </row>
     <row r="5" spans="1:125" ht="18" customHeight="1">
@@ -4077,33 +4080,33 @@
     </row>
     <row r="7" spans="1:125" ht="9.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="129" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="129" t="s">
+      <c r="I7" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="124" t="s">
+      <c r="J7" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="124" t="s">
+      <c r="K7" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="180" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="124" t="s">
+      <c r="M7" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="N7" s="130" t="s">
+      <c r="N7" s="181" t="s">
         <v>37</v>
       </c>
       <c r="O7" s="15"/>
@@ -4220,19 +4223,19 @@
     </row>
     <row r="8" spans="1:125" ht="9.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="130"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="181"/>
       <c r="O8" s="17"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -4348,19 +4351,19 @@
     <row r="9" spans="1:125" ht="9.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
       <c r="N9" s="133"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
@@ -4477,17 +4480,17 @@
     <row r="10" spans="1:125" ht="9.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
       <c r="N10" s="133"/>
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
@@ -4604,19 +4607,19 @@
     <row r="11" spans="1:125" ht="9.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
       <c r="N11" s="133"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -4733,17 +4736,17 @@
     <row r="12" spans="1:125" ht="9.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
       <c r="N12" s="133"/>
       <c r="O12" s="25"/>
       <c r="P12" s="26"/>
@@ -4861,23 +4864,23 @@
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="137">
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="111">
         <v>0.5</v>
       </c>
-      <c r="I13" s="138"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108" t="s">
+      <c r="I13" s="170"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="108"/>
-      <c r="N13" s="139">
+      <c r="M13" s="119"/>
+      <c r="N13" s="142">
         <v>100</v>
       </c>
       <c r="O13" s="17"/>
@@ -4996,17 +4999,17 @@
       <c r="A14" s="2"/>
       <c r="B14" s="24"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="139"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="142"/>
       <c r="O14" s="17"/>
       <c r="Q14" s="82"/>
       <c r="R14" s="18"/>
@@ -5122,23 +5125,23 @@
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="136" t="s">
+      <c r="D15" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="137">
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="111">
         <v>0.5</v>
       </c>
-      <c r="I15" s="138"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108" t="s">
+      <c r="I15" s="170"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="108"/>
-      <c r="N15" s="139">
+      <c r="M15" s="119"/>
+      <c r="N15" s="142">
         <v>100</v>
       </c>
       <c r="O15" s="32"/>
@@ -5257,17 +5260,17 @@
       <c r="A16" s="2"/>
       <c r="B16" s="24"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="139"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="142"/>
       <c r="O16" s="32"/>
       <c r="Q16" s="82"/>
       <c r="R16" s="18"/>
@@ -5383,23 +5386,23 @@
       <c r="A17" s="2"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="137">
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="111">
         <v>0.5</v>
       </c>
-      <c r="I17" s="138"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108" t="s">
+      <c r="I17" s="170"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="108"/>
-      <c r="N17" s="139">
+      <c r="M17" s="119"/>
+      <c r="N17" s="142">
         <v>100</v>
       </c>
       <c r="O17" s="32"/>
@@ -5518,17 +5521,17 @@
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="139"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="142"/>
       <c r="O18" s="32"/>
       <c r="Q18" s="82"/>
       <c r="R18" s="18"/>
@@ -5644,23 +5647,23 @@
       <c r="A19" s="2"/>
       <c r="B19" s="24"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="137">
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="111">
         <v>0.5</v>
       </c>
-      <c r="I19" s="138"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108" t="s">
+      <c r="I19" s="170"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="108"/>
-      <c r="N19" s="139">
+      <c r="M19" s="119"/>
+      <c r="N19" s="142">
         <v>100</v>
       </c>
       <c r="O19" s="32"/>
@@ -5779,17 +5782,17 @@
       <c r="A20" s="2"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="139"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="142"/>
       <c r="O20" s="34"/>
       <c r="Q20" s="86"/>
       <c r="R20" s="35"/>
@@ -5904,19 +5907,19 @@
     <row r="21" spans="1:125" ht="9.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
       <c r="N21" s="133"/>
       <c r="O21" s="21"/>
       <c r="P21" s="36"/>
@@ -6033,17 +6036,17 @@
     <row r="22" spans="1:125" ht="9.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
       <c r="N22" s="133"/>
       <c r="O22" s="25"/>
       <c r="P22" s="26"/>
@@ -6161,23 +6164,23 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="137">
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="111">
         <v>2</v>
       </c>
-      <c r="I23" s="138"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108" t="s">
+      <c r="I23" s="170"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="108"/>
-      <c r="N23" s="139">
+      <c r="M23" s="119"/>
+      <c r="N23" s="142">
         <v>100</v>
       </c>
       <c r="O23" s="32"/>
@@ -6296,17 +6299,17 @@
       <c r="A24" s="2"/>
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="139"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="142"/>
       <c r="O24" s="32"/>
       <c r="P24" s="18"/>
       <c r="R24" s="82"/>
@@ -6421,19 +6424,19 @@
     <row r="25" spans="1:125" ht="9.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="134" t="s">
+      <c r="C25" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
       <c r="N25" s="133"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
@@ -6550,17 +6553,17 @@
     <row r="26" spans="1:125" ht="9.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
       <c r="N26" s="133"/>
       <c r="O26" s="25"/>
       <c r="P26" s="26"/>
@@ -6678,23 +6681,23 @@
       <c r="A27" s="2"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="142" t="s">
+      <c r="D27" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="137">
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="111">
         <v>1</v>
       </c>
-      <c r="I27" s="138"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108" t="s">
+      <c r="I27" s="170"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="108"/>
-      <c r="N27" s="139">
+      <c r="M27" s="119"/>
+      <c r="N27" s="142">
         <v>100</v>
       </c>
       <c r="O27" s="32"/>
@@ -6813,17 +6816,17 @@
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="139"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="142"/>
       <c r="O28" s="32"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -6940,23 +6943,23 @@
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="143" t="s">
+      <c r="D29" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="137">
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="111">
         <v>1</v>
       </c>
-      <c r="I29" s="138"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108" t="s">
+      <c r="I29" s="170"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="108"/>
-      <c r="N29" s="139">
+      <c r="M29" s="119"/>
+      <c r="N29" s="142">
         <v>100</v>
       </c>
       <c r="O29" s="32"/>
@@ -7075,17 +7078,17 @@
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="139"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="142"/>
       <c r="O30" s="34"/>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
@@ -7200,19 +7203,19 @@
     <row r="31" spans="1:125" ht="9.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="134" t="s">
+      <c r="C31" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="140"/>
       <c r="N31" s="133"/>
       <c r="O31" s="21"/>
       <c r="P31" s="36"/>
@@ -7329,17 +7332,17 @@
     <row r="32" spans="1:125" ht="9.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
       <c r="N32" s="133"/>
       <c r="O32" s="25"/>
       <c r="P32" s="26"/>
@@ -7457,18 +7460,18 @@
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="145" t="s">
+      <c r="D33" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="140"/>
+      <c r="M33" s="140"/>
       <c r="N33" s="133"/>
       <c r="O33" s="42"/>
       <c r="P33" s="43"/>
@@ -7586,16 +7589,16 @@
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="140"/>
       <c r="N34" s="133"/>
       <c r="O34" s="44"/>
       <c r="P34" s="31"/>
@@ -7714,22 +7717,22 @@
       <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="146" t="s">
+      <c r="E35" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="126"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="137">
+      <c r="F35" s="159"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="111">
         <v>1</v>
       </c>
-      <c r="I35" s="138"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108" t="s">
+      <c r="I35" s="170"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="108"/>
-      <c r="N35" s="139">
+      <c r="M35" s="119"/>
+      <c r="N35" s="142">
         <v>100</v>
       </c>
       <c r="O35" s="32"/>
@@ -7849,16 +7852,16 @@
       <c r="B36" s="24"/>
       <c r="C36" s="2"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="139"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="142"/>
       <c r="O36" s="32"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -7976,20 +7979,20 @@
       <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="146" t="s">
+      <c r="E37" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="126"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108" t="s">
+      <c r="F37" s="159"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="108"/>
-      <c r="N37" s="139">
+      <c r="M37" s="119"/>
+      <c r="N37" s="142">
         <v>100</v>
       </c>
       <c r="O37" s="32"/>
@@ -8109,16 +8112,16 @@
       <c r="B38" s="24"/>
       <c r="C38" s="2"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="139"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="142"/>
       <c r="O38" s="34"/>
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
@@ -8235,18 +8238,18 @@
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="147" t="s">
+      <c r="D39" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="140"/>
       <c r="N39" s="133"/>
       <c r="O39" s="42"/>
       <c r="P39" s="43"/>
@@ -8364,16 +8367,16 @@
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="140"/>
       <c r="N40" s="133"/>
       <c r="O40" s="44"/>
       <c r="P40" s="31"/>
@@ -8492,22 +8495,22 @@
       <c r="B41" s="24"/>
       <c r="C41" s="2"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="146" t="s">
+      <c r="E41" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="126"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="137">
+      <c r="F41" s="159"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="111">
         <v>1</v>
       </c>
-      <c r="I41" s="138"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108" t="s">
+      <c r="I41" s="170"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="108"/>
-      <c r="N41" s="139">
+      <c r="M41" s="119"/>
+      <c r="N41" s="142">
         <v>100</v>
       </c>
       <c r="O41" s="32"/>
@@ -8627,16 +8630,16 @@
       <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="139"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="169"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="142"/>
       <c r="O42" s="32"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
@@ -8753,22 +8756,22 @@
       <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="146" t="s">
+      <c r="E43" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="126"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="137">
+      <c r="F43" s="159"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="111">
         <v>4</v>
       </c>
-      <c r="I43" s="138"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108" t="s">
+      <c r="I43" s="170"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="108"/>
-      <c r="N43" s="139">
+      <c r="M43" s="119"/>
+      <c r="N43" s="142">
         <v>100</v>
       </c>
       <c r="O43" s="32"/>
@@ -8888,16 +8891,16 @@
       <c r="B44" s="24"/>
       <c r="C44" s="2"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="109"/>
-      <c r="L44" s="109"/>
-      <c r="M44" s="109"/>
-      <c r="N44" s="139"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="142"/>
       <c r="O44" s="32"/>
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
@@ -9014,22 +9017,22 @@
       <c r="B45" s="24"/>
       <c r="C45" s="2"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="146" t="s">
+      <c r="E45" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="126"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="137">
+      <c r="F45" s="159"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="111">
         <v>0.5</v>
       </c>
-      <c r="I45" s="138"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108" t="s">
+      <c r="I45" s="170"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="108"/>
-      <c r="N45" s="139">
+      <c r="M45" s="119"/>
+      <c r="N45" s="142">
         <v>100</v>
       </c>
       <c r="O45" s="32"/>
@@ -9149,16 +9152,16 @@
       <c r="B46" s="24"/>
       <c r="C46" s="2"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="139"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="169"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="142"/>
       <c r="O46" s="32"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
@@ -9276,22 +9279,22 @@
       <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="146" t="s">
+      <c r="E47" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="126"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="137">
+      <c r="F47" s="159"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="111">
         <v>4</v>
       </c>
-      <c r="I47" s="138"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108" t="s">
+      <c r="I47" s="170"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="108"/>
-      <c r="N47" s="139">
+      <c r="M47" s="119"/>
+      <c r="N47" s="142">
         <v>100</v>
       </c>
       <c r="O47" s="32"/>
@@ -9411,16 +9414,16 @@
       <c r="B48" s="24"/>
       <c r="C48" s="2"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="139"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="169"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="142"/>
       <c r="O48" s="32"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
@@ -9538,22 +9541,22 @@
       <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="146" t="s">
+      <c r="E49" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="126"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="137">
+      <c r="F49" s="159"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="111">
         <v>4</v>
       </c>
-      <c r="I49" s="138"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108" t="s">
+      <c r="I49" s="170"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="108"/>
-      <c r="N49" s="139">
+      <c r="M49" s="119"/>
+      <c r="N49" s="142">
         <v>100</v>
       </c>
       <c r="O49" s="32"/>
@@ -9673,16 +9676,16 @@
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="139"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="169"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="142"/>
       <c r="O50" s="32"/>
       <c r="P50" s="18"/>
       <c r="Q50" s="18"/>
@@ -9800,22 +9803,22 @@
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="146" t="s">
+      <c r="E51" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="126"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="137">
+      <c r="F51" s="159"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="111">
         <v>0.5</v>
       </c>
-      <c r="I51" s="138"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="108" t="s">
+      <c r="I51" s="170"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="108"/>
-      <c r="N51" s="139">
+      <c r="M51" s="119"/>
+      <c r="N51" s="142">
         <v>100</v>
       </c>
       <c r="O51" s="32"/>
@@ -9935,16 +9938,16 @@
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="109"/>
-      <c r="N52" s="139"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="120"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="142"/>
       <c r="O52" s="34"/>
       <c r="P52" s="35"/>
       <c r="Q52" s="35"/>
@@ -10061,18 +10064,18 @@
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="145" t="s">
+      <c r="D53" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="116"/>
-      <c r="M53" s="116"/>
+      <c r="E53" s="159"/>
+      <c r="F53" s="159"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="140"/>
       <c r="N53" s="133"/>
       <c r="O53" s="42"/>
       <c r="P53" s="43"/>
@@ -10190,16 +10193,16 @@
       <c r="A54" s="2"/>
       <c r="B54" s="24"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="116"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="171"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="140"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="140"/>
       <c r="N54" s="133"/>
       <c r="O54" s="44"/>
       <c r="P54" s="31"/>
@@ -10318,22 +10321,22 @@
       <c r="B55" s="24"/>
       <c r="C55" s="2"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="146" t="s">
+      <c r="E55" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="126"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="137">
+      <c r="F55" s="159"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="111">
         <v>4</v>
       </c>
-      <c r="I55" s="138"/>
-      <c r="J55" s="108"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108" t="s">
+      <c r="I55" s="170"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="M55" s="108"/>
-      <c r="N55" s="139">
+      <c r="M55" s="119"/>
+      <c r="N55" s="142">
         <v>100</v>
       </c>
       <c r="O55" s="32"/>
@@ -10452,16 +10455,16 @@
       <c r="B56" s="24"/>
       <c r="C56" s="2"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="109"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="109"/>
-      <c r="N56" s="139"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="120"/>
+      <c r="L56" s="120"/>
+      <c r="M56" s="120"/>
+      <c r="N56" s="142"/>
       <c r="O56" s="32"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
@@ -10579,22 +10582,22 @@
       <c r="B57" s="24"/>
       <c r="C57" s="2"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="146" t="s">
+      <c r="E57" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="126"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="137">
+      <c r="F57" s="159"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="111">
         <v>4</v>
       </c>
-      <c r="I57" s="138"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108" t="s">
+      <c r="I57" s="170"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="119"/>
+      <c r="L57" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="M57" s="108"/>
-      <c r="N57" s="139">
+      <c r="M57" s="119"/>
+      <c r="N57" s="142">
         <v>100</v>
       </c>
       <c r="O57" s="32"/>
@@ -10714,16 +10717,16 @@
       <c r="B58" s="24"/>
       <c r="C58" s="2"/>
       <c r="D58" s="46"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="138"/>
-      <c r="J58" s="109"/>
-      <c r="K58" s="109"/>
-      <c r="L58" s="109"/>
-      <c r="M58" s="109"/>
-      <c r="N58" s="139"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="169"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="170"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="142"/>
       <c r="O58" s="32"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="18"/>
@@ -10841,22 +10844,22 @@
       <c r="B59" s="24"/>
       <c r="C59" s="2"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="146" t="s">
+      <c r="E59" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="126"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="137">
+      <c r="F59" s="159"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="111">
         <v>4</v>
       </c>
-      <c r="I59" s="138"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="108"/>
-      <c r="L59" s="108" t="s">
+      <c r="I59" s="170"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="M59" s="108"/>
-      <c r="N59" s="139">
+      <c r="M59" s="119"/>
+      <c r="N59" s="142">
         <v>100</v>
       </c>
       <c r="O59" s="32"/>
@@ -10976,16 +10979,16 @@
       <c r="B60" s="24"/>
       <c r="C60" s="2"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="138"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="109"/>
-      <c r="L60" s="109"/>
-      <c r="M60" s="109"/>
-      <c r="N60" s="139"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="169"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="120"/>
+      <c r="L60" s="120"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="142"/>
       <c r="O60" s="32"/>
       <c r="P60" s="18"/>
       <c r="Q60" s="18"/>
@@ -11103,22 +11106,22 @@
       <c r="B61" s="24"/>
       <c r="C61" s="2"/>
       <c r="D61" s="46"/>
-      <c r="E61" s="146" t="s">
+      <c r="E61" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="126"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="137">
+      <c r="F61" s="159"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="111">
         <v>0.5</v>
       </c>
-      <c r="I61" s="138"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="108" t="s">
+      <c r="I61" s="170"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="119"/>
+      <c r="L61" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="M61" s="108"/>
-      <c r="N61" s="139">
+      <c r="M61" s="119"/>
+      <c r="N61" s="142">
         <v>100</v>
       </c>
       <c r="O61" s="32"/>
@@ -11238,16 +11241,16 @@
       <c r="B62" s="24"/>
       <c r="C62" s="2"/>
       <c r="D62" s="46"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="138"/>
-      <c r="J62" s="109"/>
-      <c r="K62" s="109"/>
-      <c r="L62" s="109"/>
-      <c r="M62" s="109"/>
-      <c r="N62" s="139"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="170"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="142"/>
       <c r="O62" s="34"/>
       <c r="P62" s="35"/>
       <c r="Q62" s="35"/>
@@ -11364,18 +11367,18 @@
       <c r="A63" s="2"/>
       <c r="B63" s="24"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="145" t="s">
+      <c r="D63" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117"/>
-      <c r="J63" s="117"/>
-      <c r="K63" s="117"/>
-      <c r="L63" s="117"/>
-      <c r="M63" s="117"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="159"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
       <c r="N63" s="133"/>
       <c r="O63" s="42"/>
       <c r="P63" s="43"/>
@@ -11493,16 +11496,16 @@
       <c r="A64" s="2"/>
       <c r="B64" s="24"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="128"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="118"/>
-      <c r="K64" s="118"/>
-      <c r="L64" s="118"/>
-      <c r="M64" s="118"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="161"/>
+      <c r="F64" s="161"/>
+      <c r="G64" s="161"/>
+      <c r="H64" s="135"/>
+      <c r="I64" s="135"/>
+      <c r="J64" s="135"/>
+      <c r="K64" s="135"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="135"/>
       <c r="N64" s="133"/>
       <c r="O64" s="44"/>
       <c r="P64" s="31"/>
@@ -11621,20 +11624,20 @@
       <c r="B65" s="24"/>
       <c r="C65" s="2"/>
       <c r="D65" s="46"/>
-      <c r="E65" s="146" t="s">
+      <c r="E65" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="126"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="137"/>
-      <c r="J65" s="108"/>
-      <c r="K65" s="108"/>
-      <c r="L65" s="108" t="s">
+      <c r="F65" s="159"/>
+      <c r="G65" s="168"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="119"/>
+      <c r="K65" s="119"/>
+      <c r="L65" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="M65" s="108"/>
-      <c r="N65" s="139">
+      <c r="M65" s="119"/>
+      <c r="N65" s="142">
         <v>100</v>
       </c>
       <c r="O65" s="32"/>
@@ -11754,16 +11757,16 @@
       <c r="B66" s="24"/>
       <c r="C66" s="2"/>
       <c r="D66" s="46"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="137"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
-      <c r="L66" s="109"/>
-      <c r="M66" s="109"/>
-      <c r="N66" s="139"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="169"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="120"/>
+      <c r="L66" s="120"/>
+      <c r="M66" s="120"/>
+      <c r="N66" s="142"/>
       <c r="O66" s="32"/>
       <c r="P66" s="18"/>
       <c r="Q66" s="18"/>
@@ -11881,20 +11884,20 @@
       <c r="B67" s="24"/>
       <c r="C67" s="2"/>
       <c r="D67" s="46"/>
-      <c r="E67" s="146" t="s">
+      <c r="E67" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="126"/>
-      <c r="G67" s="140"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="108"/>
-      <c r="L67" s="108" t="s">
+      <c r="F67" s="159"/>
+      <c r="G67" s="168"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="119"/>
+      <c r="L67" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="M67" s="108"/>
-      <c r="N67" s="139">
+      <c r="M67" s="119"/>
+      <c r="N67" s="142">
         <v>100</v>
       </c>
       <c r="O67" s="32"/>
@@ -12012,16 +12015,16 @@
       <c r="B68" s="24"/>
       <c r="C68" s="2"/>
       <c r="D68" s="46"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="141"/>
-      <c r="H68" s="137"/>
-      <c r="I68" s="137"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="109"/>
-      <c r="L68" s="109"/>
-      <c r="M68" s="109"/>
-      <c r="N68" s="139"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="161"/>
+      <c r="G68" s="169"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="142"/>
       <c r="O68" s="32"/>
       <c r="P68" s="18"/>
       <c r="Q68" s="18"/>
@@ -12139,20 +12142,20 @@
       <c r="B69" s="24"/>
       <c r="C69" s="2"/>
       <c r="D69" s="46"/>
-      <c r="E69" s="146" t="s">
+      <c r="E69" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="F69" s="126"/>
-      <c r="G69" s="140"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="137"/>
-      <c r="J69" s="108"/>
-      <c r="K69" s="108"/>
-      <c r="L69" s="108" t="s">
+      <c r="F69" s="159"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="111"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="M69" s="108"/>
-      <c r="N69" s="139">
+      <c r="M69" s="119"/>
+      <c r="N69" s="142">
         <v>100</v>
       </c>
       <c r="O69" s="32"/>
@@ -12272,16 +12275,16 @@
       <c r="B70" s="24"/>
       <c r="C70" s="2"/>
       <c r="D70" s="46"/>
-      <c r="E70" s="127"/>
-      <c r="F70" s="128"/>
-      <c r="G70" s="141"/>
-      <c r="H70" s="137"/>
-      <c r="I70" s="137"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="109"/>
-      <c r="L70" s="109"/>
-      <c r="M70" s="109"/>
-      <c r="N70" s="139"/>
+      <c r="E70" s="160"/>
+      <c r="F70" s="161"/>
+      <c r="G70" s="169"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="120"/>
+      <c r="K70" s="120"/>
+      <c r="L70" s="120"/>
+      <c r="M70" s="120"/>
+      <c r="N70" s="142"/>
       <c r="O70" s="32"/>
       <c r="P70" s="18"/>
       <c r="Q70" s="18"/>
@@ -12399,20 +12402,20 @@
       <c r="B71" s="24"/>
       <c r="C71" s="2"/>
       <c r="D71" s="46"/>
-      <c r="E71" s="146" t="s">
+      <c r="E71" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="126"/>
-      <c r="G71" s="140"/>
-      <c r="H71" s="137"/>
-      <c r="I71" s="137"/>
-      <c r="J71" s="108"/>
-      <c r="K71" s="108"/>
-      <c r="L71" s="108" t="s">
+      <c r="F71" s="159"/>
+      <c r="G71" s="168"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="119"/>
+      <c r="K71" s="119"/>
+      <c r="L71" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="M71" s="108"/>
-      <c r="N71" s="139">
+      <c r="M71" s="119"/>
+      <c r="N71" s="142">
         <v>100</v>
       </c>
       <c r="O71" s="32"/>
@@ -12532,16 +12535,16 @@
       <c r="B72" s="24"/>
       <c r="C72" s="2"/>
       <c r="D72" s="46"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="137"/>
-      <c r="I72" s="137"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="109"/>
-      <c r="L72" s="109"/>
-      <c r="M72" s="109"/>
-      <c r="N72" s="139"/>
+      <c r="E72" s="160"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="169"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="111"/>
+      <c r="J72" s="120"/>
+      <c r="K72" s="120"/>
+      <c r="L72" s="120"/>
+      <c r="M72" s="120"/>
+      <c r="N72" s="142"/>
       <c r="O72" s="32"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="18"/>
@@ -12659,20 +12662,20 @@
       <c r="B73" s="24"/>
       <c r="C73" s="2"/>
       <c r="D73" s="46"/>
-      <c r="E73" s="146" t="s">
+      <c r="E73" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="126"/>
-      <c r="G73" s="140"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="137"/>
-      <c r="J73" s="108"/>
-      <c r="K73" s="108"/>
-      <c r="L73" s="108" t="s">
+      <c r="F73" s="159"/>
+      <c r="G73" s="168"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="119"/>
+      <c r="K73" s="119"/>
+      <c r="L73" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="M73" s="108"/>
-      <c r="N73" s="139">
+      <c r="M73" s="119"/>
+      <c r="N73" s="142">
         <v>100</v>
       </c>
       <c r="O73" s="32"/>
@@ -12792,16 +12795,16 @@
       <c r="B74" s="24"/>
       <c r="C74" s="2"/>
       <c r="D74" s="47"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="137"/>
-      <c r="I74" s="137"/>
-      <c r="J74" s="109"/>
-      <c r="K74" s="109"/>
-      <c r="L74" s="109"/>
-      <c r="M74" s="109"/>
-      <c r="N74" s="139"/>
+      <c r="E74" s="160"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="169"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="120"/>
+      <c r="K74" s="120"/>
+      <c r="L74" s="120"/>
+      <c r="M74" s="120"/>
+      <c r="N74" s="142"/>
       <c r="O74" s="34"/>
       <c r="P74" s="35"/>
       <c r="Q74" s="35"/>
@@ -12917,19 +12920,19 @@
     <row r="75" spans="1:125" ht="9.75" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="51"/>
-      <c r="C75" s="148" t="s">
+      <c r="C75" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="126"/>
-      <c r="E75" s="126"/>
-      <c r="F75" s="126"/>
-      <c r="G75" s="126"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="117"/>
-      <c r="J75" s="117"/>
-      <c r="K75" s="117"/>
-      <c r="L75" s="117"/>
-      <c r="M75" s="117"/>
+      <c r="D75" s="159"/>
+      <c r="E75" s="159"/>
+      <c r="F75" s="159"/>
+      <c r="G75" s="159"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
+      <c r="J75" s="134"/>
+      <c r="K75" s="134"/>
+      <c r="L75" s="134"/>
+      <c r="M75" s="134"/>
       <c r="N75" s="133"/>
       <c r="O75" s="42"/>
       <c r="P75" s="43"/>
@@ -13046,17 +13049,17 @@
     <row r="76" spans="1:125" ht="9.75" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="51"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="128"/>
-      <c r="E76" s="128"/>
-      <c r="F76" s="128"/>
-      <c r="G76" s="128"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="118"/>
-      <c r="J76" s="118"/>
-      <c r="K76" s="118"/>
-      <c r="L76" s="118"/>
-      <c r="M76" s="118"/>
+      <c r="C76" s="161"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="161"/>
+      <c r="F76" s="161"/>
+      <c r="G76" s="161"/>
+      <c r="H76" s="135"/>
+      <c r="I76" s="135"/>
+      <c r="J76" s="135"/>
+      <c r="K76" s="135"/>
+      <c r="L76" s="135"/>
+      <c r="M76" s="135"/>
       <c r="N76" s="133"/>
       <c r="O76" s="44"/>
       <c r="P76" s="31"/>
@@ -13173,19 +13176,19 @@
     <row r="77" spans="1:125" ht="9.75" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="51"/>
-      <c r="C77" s="148" t="s">
+      <c r="C77" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="126"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
+      <c r="D77" s="159"/>
+      <c r="E77" s="159"/>
+      <c r="F77" s="159"/>
+      <c r="G77" s="159"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="134"/>
+      <c r="J77" s="134"/>
+      <c r="K77" s="134"/>
+      <c r="L77" s="134"/>
+      <c r="M77" s="134"/>
       <c r="N77" s="133"/>
       <c r="O77" s="42"/>
       <c r="P77" s="43"/>
@@ -13302,17 +13305,17 @@
     <row r="78" spans="1:125" ht="9.75" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="128"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="128"/>
-      <c r="F78" s="128"/>
-      <c r="G78" s="128"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
-      <c r="K78" s="118"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="118"/>
+      <c r="C78" s="161"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="161"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="161"/>
+      <c r="H78" s="135"/>
+      <c r="I78" s="135"/>
+      <c r="J78" s="135"/>
+      <c r="K78" s="135"/>
+      <c r="L78" s="135"/>
+      <c r="M78" s="135"/>
       <c r="N78" s="133"/>
       <c r="O78" s="44"/>
       <c r="P78" s="31"/>
@@ -13430,18 +13433,18 @@
       <c r="A79" s="2"/>
       <c r="B79" s="24"/>
       <c r="C79" s="41"/>
-      <c r="D79" s="145" t="s">
+      <c r="D79" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
-      <c r="K79" s="116"/>
-      <c r="L79" s="116"/>
-      <c r="M79" s="116"/>
+      <c r="E79" s="159"/>
+      <c r="F79" s="159"/>
+      <c r="G79" s="159"/>
+      <c r="H79" s="140"/>
+      <c r="I79" s="140"/>
+      <c r="J79" s="140"/>
+      <c r="K79" s="140"/>
+      <c r="L79" s="140"/>
+      <c r="M79" s="140"/>
       <c r="N79" s="133"/>
       <c r="O79" s="42"/>
       <c r="P79" s="43"/>
@@ -13559,16 +13562,16 @@
       <c r="A80" s="2"/>
       <c r="B80" s="24"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="127"/>
-      <c r="E80" s="128"/>
-      <c r="F80" s="128"/>
-      <c r="G80" s="128"/>
-      <c r="H80" s="116"/>
-      <c r="I80" s="116"/>
-      <c r="J80" s="116"/>
-      <c r="K80" s="116"/>
-      <c r="L80" s="116"/>
-      <c r="M80" s="116"/>
+      <c r="D80" s="160"/>
+      <c r="E80" s="161"/>
+      <c r="F80" s="161"/>
+      <c r="G80" s="161"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="140"/>
       <c r="N80" s="133"/>
       <c r="O80" s="44"/>
       <c r="P80" s="31"/>
@@ -13687,20 +13690,20 @@
       <c r="B81" s="24"/>
       <c r="C81" s="2"/>
       <c r="D81" s="46"/>
-      <c r="E81" s="146" t="s">
+      <c r="E81" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="F81" s="126"/>
-      <c r="G81" s="140"/>
-      <c r="H81" s="137"/>
-      <c r="I81" s="137"/>
-      <c r="J81" s="108"/>
-      <c r="K81" s="108"/>
-      <c r="L81" s="108" t="s">
+      <c r="F81" s="159"/>
+      <c r="G81" s="168"/>
+      <c r="H81" s="111"/>
+      <c r="I81" s="111"/>
+      <c r="J81" s="119"/>
+      <c r="K81" s="119"/>
+      <c r="L81" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="M81" s="108"/>
-      <c r="N81" s="139"/>
+      <c r="M81" s="119"/>
+      <c r="N81" s="142"/>
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
       <c r="Q81" s="18"/>
@@ -13818,16 +13821,16 @@
       <c r="B82" s="24"/>
       <c r="C82" s="2"/>
       <c r="D82" s="46"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="128"/>
-      <c r="G82" s="141"/>
-      <c r="H82" s="137"/>
-      <c r="I82" s="137"/>
-      <c r="J82" s="109"/>
-      <c r="K82" s="109"/>
-      <c r="L82" s="109"/>
-      <c r="M82" s="109"/>
-      <c r="N82" s="139"/>
+      <c r="E82" s="160"/>
+      <c r="F82" s="161"/>
+      <c r="G82" s="169"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="120"/>
+      <c r="K82" s="120"/>
+      <c r="L82" s="120"/>
+      <c r="M82" s="120"/>
+      <c r="N82" s="142"/>
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
       <c r="Q82" s="18"/>
@@ -13945,20 +13948,20 @@
       <c r="B83" s="24"/>
       <c r="C83" s="2"/>
       <c r="D83" s="46"/>
-      <c r="E83" s="146" t="s">
+      <c r="E83" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="F83" s="126"/>
-      <c r="G83" s="140"/>
-      <c r="H83" s="137"/>
-      <c r="I83" s="137"/>
-      <c r="J83" s="108"/>
-      <c r="K83" s="108"/>
-      <c r="L83" s="108" t="s">
+      <c r="F83" s="159"/>
+      <c r="G83" s="168"/>
+      <c r="H83" s="111"/>
+      <c r="I83" s="111"/>
+      <c r="J83" s="119"/>
+      <c r="K83" s="119"/>
+      <c r="L83" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="M83" s="108"/>
-      <c r="N83" s="139"/>
+      <c r="M83" s="119"/>
+      <c r="N83" s="142"/>
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="18"/>
@@ -14076,16 +14079,16 @@
       <c r="B84" s="24"/>
       <c r="C84" s="2"/>
       <c r="D84" s="46"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="128"/>
-      <c r="G84" s="141"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="137"/>
-      <c r="J84" s="109"/>
-      <c r="K84" s="109"/>
-      <c r="L84" s="109"/>
-      <c r="M84" s="109"/>
-      <c r="N84" s="139"/>
+      <c r="E84" s="160"/>
+      <c r="F84" s="161"/>
+      <c r="G84" s="169"/>
+      <c r="H84" s="111"/>
+      <c r="I84" s="111"/>
+      <c r="J84" s="120"/>
+      <c r="K84" s="120"/>
+      <c r="L84" s="120"/>
+      <c r="M84" s="120"/>
+      <c r="N84" s="142"/>
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
       <c r="Q84" s="18"/>
@@ -14203,20 +14206,20 @@
       <c r="B85" s="24"/>
       <c r="C85" s="2"/>
       <c r="D85" s="46"/>
-      <c r="E85" s="146" t="s">
+      <c r="E85" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="126"/>
-      <c r="G85" s="140"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
-      <c r="J85" s="108"/>
-      <c r="K85" s="108"/>
-      <c r="L85" s="108" t="s">
+      <c r="F85" s="159"/>
+      <c r="G85" s="168"/>
+      <c r="H85" s="111"/>
+      <c r="I85" s="111"/>
+      <c r="J85" s="119"/>
+      <c r="K85" s="119"/>
+      <c r="L85" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="M85" s="108"/>
-      <c r="N85" s="139"/>
+      <c r="M85" s="119"/>
+      <c r="N85" s="142"/>
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
       <c r="Q85" s="18"/>
@@ -14334,16 +14337,16 @@
       <c r="B86" s="24"/>
       <c r="C86" s="2"/>
       <c r="D86" s="46"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="128"/>
-      <c r="G86" s="141"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
-      <c r="J86" s="109"/>
-      <c r="K86" s="109"/>
-      <c r="L86" s="109"/>
-      <c r="M86" s="109"/>
-      <c r="N86" s="139"/>
+      <c r="E86" s="160"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="169"/>
+      <c r="H86" s="111"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="120"/>
+      <c r="K86" s="120"/>
+      <c r="L86" s="120"/>
+      <c r="M86" s="120"/>
+      <c r="N86" s="142"/>
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
       <c r="Q86" s="18"/>
@@ -14460,18 +14463,18 @@
       <c r="A87" s="19"/>
       <c r="B87" s="51"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="145" t="s">
+      <c r="D87" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="126"/>
-      <c r="F87" s="126"/>
-      <c r="G87" s="126"/>
-      <c r="H87" s="117"/>
-      <c r="I87" s="117"/>
-      <c r="J87" s="117"/>
-      <c r="K87" s="117"/>
-      <c r="L87" s="117"/>
-      <c r="M87" s="117"/>
+      <c r="E87" s="159"/>
+      <c r="F87" s="159"/>
+      <c r="G87" s="159"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
+      <c r="J87" s="134"/>
+      <c r="K87" s="134"/>
+      <c r="L87" s="134"/>
+      <c r="M87" s="134"/>
       <c r="N87" s="133"/>
       <c r="O87" s="42"/>
       <c r="P87" s="43"/>
@@ -14589,16 +14592,16 @@
       <c r="A88" s="19"/>
       <c r="B88" s="51"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="128"/>
-      <c r="F88" s="128"/>
-      <c r="G88" s="128"/>
-      <c r="H88" s="118"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="118"/>
-      <c r="K88" s="118"/>
-      <c r="L88" s="118"/>
-      <c r="M88" s="118"/>
+      <c r="D88" s="160"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
+      <c r="G88" s="161"/>
+      <c r="H88" s="135"/>
+      <c r="I88" s="135"/>
+      <c r="J88" s="135"/>
+      <c r="K88" s="135"/>
+      <c r="L88" s="135"/>
+      <c r="M88" s="135"/>
       <c r="N88" s="133"/>
       <c r="O88" s="44"/>
       <c r="P88" s="31"/>
@@ -14717,17 +14720,17 @@
       <c r="B89" s="24"/>
       <c r="C89" s="2"/>
       <c r="D89" s="55"/>
-      <c r="E89" s="154" t="s">
+      <c r="E89" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="F89" s="154"/>
-      <c r="G89" s="155"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
-      <c r="J89" s="117"/>
-      <c r="K89" s="117"/>
-      <c r="L89" s="117"/>
-      <c r="M89" s="117"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="137"/>
+      <c r="H89" s="134"/>
+      <c r="I89" s="134"/>
+      <c r="J89" s="134"/>
+      <c r="K89" s="134"/>
+      <c r="L89" s="134"/>
+      <c r="M89" s="134"/>
       <c r="N89" s="133"/>
       <c r="O89" s="42"/>
       <c r="P89" s="43"/>
@@ -14846,15 +14849,15 @@
       <c r="B90" s="24"/>
       <c r="C90" s="2"/>
       <c r="D90" s="56"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="157"/>
-      <c r="G90" s="158"/>
-      <c r="H90" s="118"/>
-      <c r="I90" s="118"/>
-      <c r="J90" s="118"/>
-      <c r="K90" s="118"/>
-      <c r="L90" s="118"/>
-      <c r="M90" s="118"/>
+      <c r="E90" s="138"/>
+      <c r="F90" s="163"/>
+      <c r="G90" s="164"/>
+      <c r="H90" s="135"/>
+      <c r="I90" s="135"/>
+      <c r="J90" s="135"/>
+      <c r="K90" s="135"/>
+      <c r="L90" s="135"/>
+      <c r="M90" s="135"/>
       <c r="N90" s="133"/>
       <c r="O90" s="44"/>
       <c r="P90" s="31"/>
@@ -14974,21 +14977,21 @@
       <c r="C91" s="2"/>
       <c r="D91" s="46"/>
       <c r="E91" s="59"/>
-      <c r="F91" s="159" t="s">
+      <c r="F91" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="G91" s="160"/>
-      <c r="H91" s="149">
+      <c r="G91" s="145"/>
+      <c r="H91" s="108">
         <v>4</v>
       </c>
-      <c r="I91" s="149">
+      <c r="I91" s="108">
         <v>5</v>
       </c>
-      <c r="J91" s="108"/>
-      <c r="K91" s="108"/>
-      <c r="L91" s="108"/>
-      <c r="M91" s="108"/>
-      <c r="N91" s="113">
+      <c r="J91" s="119"/>
+      <c r="K91" s="119"/>
+      <c r="L91" s="119"/>
+      <c r="M91" s="119"/>
+      <c r="N91" s="127">
         <v>100</v>
       </c>
       <c r="O91" s="18"/>
@@ -15109,15 +15112,15 @@
       <c r="C92" s="2"/>
       <c r="D92" s="46"/>
       <c r="E92" s="60"/>
-      <c r="F92" s="161"/>
-      <c r="G92" s="162"/>
-      <c r="H92" s="150"/>
-      <c r="I92" s="150"/>
-      <c r="J92" s="109"/>
-      <c r="K92" s="109"/>
-      <c r="L92" s="109"/>
-      <c r="M92" s="109"/>
-      <c r="N92" s="114"/>
+      <c r="F92" s="147"/>
+      <c r="G92" s="148"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="109"/>
+      <c r="J92" s="120"/>
+      <c r="K92" s="120"/>
+      <c r="L92" s="120"/>
+      <c r="M92" s="120"/>
+      <c r="N92" s="128"/>
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
       <c r="Q92" s="18"/>
@@ -15237,24 +15240,24 @@
       <c r="D93" s="46"/>
       <c r="E93" s="60"/>
       <c r="F93" s="105"/>
-      <c r="G93" s="180" t="s">
+      <c r="G93" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H93" s="150"/>
-      <c r="I93" s="150"/>
-      <c r="J93" s="152" t="s">
+      <c r="H93" s="109"/>
+      <c r="I93" s="109"/>
+      <c r="J93" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="K93" s="152" t="s">
+      <c r="K93" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="L93" s="152" t="s">
+      <c r="L93" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="M93" s="108" t="s">
+      <c r="M93" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="N93" s="114"/>
+      <c r="N93" s="128"/>
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
       <c r="Q93" s="18"/>
@@ -15374,14 +15377,14 @@
       <c r="D94" s="46"/>
       <c r="E94" s="60"/>
       <c r="F94" s="105"/>
-      <c r="G94" s="181"/>
-      <c r="H94" s="150"/>
-      <c r="I94" s="150"/>
-      <c r="J94" s="153"/>
-      <c r="K94" s="153"/>
-      <c r="L94" s="153"/>
-      <c r="M94" s="109"/>
-      <c r="N94" s="114"/>
+      <c r="G94" s="113"/>
+      <c r="H94" s="109"/>
+      <c r="I94" s="109"/>
+      <c r="J94" s="115"/>
+      <c r="K94" s="115"/>
+      <c r="L94" s="115"/>
+      <c r="M94" s="120"/>
+      <c r="N94" s="128"/>
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
       <c r="Q94" s="18"/>
@@ -15501,24 +15504,24 @@
       <c r="D95" s="46"/>
       <c r="E95" s="60"/>
       <c r="F95" s="105"/>
-      <c r="G95" s="182" t="s">
+      <c r="G95" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H95" s="150"/>
-      <c r="I95" s="150"/>
-      <c r="J95" s="108" t="s">
+      <c r="H95" s="109"/>
+      <c r="I95" s="109"/>
+      <c r="J95" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="K95" s="108" t="s">
+      <c r="K95" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="L95" s="108" t="s">
+      <c r="L95" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="M95" s="108" t="s">
+      <c r="M95" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="114"/>
+      <c r="N95" s="128"/>
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
       <c r="Q95" s="18"/>
@@ -15638,14 +15641,14 @@
       <c r="D96" s="46"/>
       <c r="E96" s="60"/>
       <c r="F96" s="105"/>
-      <c r="G96" s="183"/>
-      <c r="H96" s="151"/>
-      <c r="I96" s="151"/>
-      <c r="J96" s="109"/>
-      <c r="K96" s="109"/>
-      <c r="L96" s="109"/>
-      <c r="M96" s="109"/>
-      <c r="N96" s="115"/>
+      <c r="G96" s="118"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="110"/>
+      <c r="J96" s="120"/>
+      <c r="K96" s="120"/>
+      <c r="L96" s="120"/>
+      <c r="M96" s="120"/>
+      <c r="N96" s="129"/>
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
       <c r="Q96" s="18"/>
@@ -15764,21 +15767,21 @@
       <c r="C97" s="2"/>
       <c r="D97" s="46"/>
       <c r="E97" s="61"/>
-      <c r="F97" s="159" t="s">
+      <c r="F97" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="160"/>
-      <c r="H97" s="149">
+      <c r="G97" s="145"/>
+      <c r="H97" s="108">
         <v>4</v>
       </c>
-      <c r="I97" s="149">
+      <c r="I97" s="108">
         <v>4</v>
       </c>
-      <c r="J97" s="108"/>
-      <c r="K97" s="108"/>
-      <c r="L97" s="108"/>
-      <c r="M97" s="108"/>
-      <c r="N97" s="113">
+      <c r="J97" s="119"/>
+      <c r="K97" s="119"/>
+      <c r="L97" s="119"/>
+      <c r="M97" s="119"/>
+      <c r="N97" s="127">
         <v>100</v>
       </c>
       <c r="O97" s="18"/>
@@ -15899,15 +15902,15 @@
       <c r="C98" s="2"/>
       <c r="D98" s="46"/>
       <c r="E98" s="60"/>
-      <c r="F98" s="161"/>
-      <c r="G98" s="162"/>
-      <c r="H98" s="150"/>
-      <c r="I98" s="150"/>
-      <c r="J98" s="109"/>
-      <c r="K98" s="109"/>
-      <c r="L98" s="109"/>
-      <c r="M98" s="109"/>
-      <c r="N98" s="114"/>
+      <c r="F98" s="147"/>
+      <c r="G98" s="148"/>
+      <c r="H98" s="109"/>
+      <c r="I98" s="109"/>
+      <c r="J98" s="120"/>
+      <c r="K98" s="120"/>
+      <c r="L98" s="120"/>
+      <c r="M98" s="120"/>
+      <c r="N98" s="128"/>
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
       <c r="Q98" s="18"/>
@@ -16027,24 +16030,24 @@
       <c r="D99" s="46"/>
       <c r="E99" s="60"/>
       <c r="F99" s="105"/>
-      <c r="G99" s="180" t="s">
+      <c r="G99" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H99" s="150"/>
-      <c r="I99" s="150"/>
-      <c r="J99" s="108" t="s">
+      <c r="H99" s="109"/>
+      <c r="I99" s="109"/>
+      <c r="J99" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="K99" s="108" t="s">
+      <c r="K99" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="L99" s="108" t="s">
+      <c r="L99" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="M99" s="108" t="s">
+      <c r="M99" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="N99" s="114"/>
+      <c r="N99" s="128"/>
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
       <c r="Q99" s="18"/>
@@ -16164,14 +16167,14 @@
       <c r="D100" s="46"/>
       <c r="E100" s="60"/>
       <c r="F100" s="105"/>
-      <c r="G100" s="181"/>
-      <c r="H100" s="150"/>
-      <c r="I100" s="150"/>
-      <c r="J100" s="109"/>
-      <c r="K100" s="109"/>
-      <c r="L100" s="109"/>
-      <c r="M100" s="109"/>
-      <c r="N100" s="114"/>
+      <c r="G100" s="113"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="109"/>
+      <c r="J100" s="120"/>
+      <c r="K100" s="120"/>
+      <c r="L100" s="120"/>
+      <c r="M100" s="120"/>
+      <c r="N100" s="128"/>
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
       <c r="Q100" s="18"/>
@@ -16291,24 +16294,24 @@
       <c r="D101" s="46"/>
       <c r="E101" s="60"/>
       <c r="F101" s="105"/>
-      <c r="G101" s="182" t="s">
+      <c r="G101" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H101" s="150"/>
-      <c r="I101" s="150"/>
-      <c r="J101" s="108" t="s">
+      <c r="H101" s="109"/>
+      <c r="I101" s="109"/>
+      <c r="J101" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="K101" s="108" t="s">
+      <c r="K101" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="L101" s="108" t="s">
+      <c r="L101" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="M101" s="108" t="s">
+      <c r="M101" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="114"/>
+      <c r="N101" s="128"/>
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
@@ -16428,14 +16431,14 @@
       <c r="D102" s="46"/>
       <c r="E102" s="60"/>
       <c r="F102" s="105"/>
-      <c r="G102" s="183"/>
-      <c r="H102" s="151"/>
-      <c r="I102" s="151"/>
-      <c r="J102" s="109"/>
-      <c r="K102" s="109"/>
-      <c r="L102" s="109"/>
-      <c r="M102" s="109"/>
-      <c r="N102" s="115"/>
+      <c r="G102" s="118"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110"/>
+      <c r="J102" s="120"/>
+      <c r="K102" s="120"/>
+      <c r="L102" s="120"/>
+      <c r="M102" s="120"/>
+      <c r="N102" s="129"/>
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
       <c r="Q102" s="18"/>
@@ -16554,19 +16557,19 @@
       <c r="C103" s="2"/>
       <c r="D103" s="46"/>
       <c r="E103" s="61"/>
-      <c r="F103" s="159" t="s">
+      <c r="F103" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="G103" s="160"/>
-      <c r="H103" s="137"/>
-      <c r="I103" s="137"/>
-      <c r="J103" s="108"/>
-      <c r="K103" s="119"/>
-      <c r="L103" s="108" t="s">
+      <c r="G103" s="145"/>
+      <c r="H103" s="111"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="119"/>
+      <c r="K103" s="121"/>
+      <c r="L103" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="M103" s="108"/>
-      <c r="N103" s="139"/>
+      <c r="M103" s="119"/>
+      <c r="N103" s="142"/>
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
       <c r="Q103" s="18"/>
@@ -16685,15 +16688,15 @@
       <c r="C104" s="2"/>
       <c r="D104" s="46"/>
       <c r="E104" s="62"/>
-      <c r="F104" s="171"/>
-      <c r="G104" s="170"/>
-      <c r="H104" s="137"/>
-      <c r="I104" s="137"/>
-      <c r="J104" s="109"/>
-      <c r="K104" s="120"/>
-      <c r="L104" s="109"/>
-      <c r="M104" s="109"/>
-      <c r="N104" s="139"/>
+      <c r="F104" s="146"/>
+      <c r="G104" s="126"/>
+      <c r="H104" s="111"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="120"/>
+      <c r="K104" s="122"/>
+      <c r="L104" s="120"/>
+      <c r="M104" s="120"/>
+      <c r="N104" s="142"/>
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
       <c r="Q104" s="18"/>
@@ -16811,17 +16814,17 @@
       <c r="B105" s="24"/>
       <c r="C105" s="2"/>
       <c r="D105" s="46"/>
-      <c r="E105" s="172" t="s">
+      <c r="E105" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="F105" s="173"/>
-      <c r="G105" s="174"/>
-      <c r="H105" s="117"/>
-      <c r="I105" s="116"/>
-      <c r="J105" s="116"/>
-      <c r="K105" s="116"/>
-      <c r="L105" s="116"/>
-      <c r="M105" s="116"/>
+      <c r="F105" s="150"/>
+      <c r="G105" s="151"/>
+      <c r="H105" s="134"/>
+      <c r="I105" s="140"/>
+      <c r="J105" s="140"/>
+      <c r="K105" s="140"/>
+      <c r="L105" s="140"/>
+      <c r="M105" s="140"/>
       <c r="N105" s="133"/>
       <c r="O105" s="43"/>
       <c r="P105" s="43"/>
@@ -16940,15 +16943,15 @@
       <c r="B106" s="24"/>
       <c r="C106" s="2"/>
       <c r="D106" s="46"/>
-      <c r="E106" s="175"/>
-      <c r="F106" s="176"/>
-      <c r="G106" s="177"/>
-      <c r="H106" s="118"/>
-      <c r="I106" s="116"/>
-      <c r="J106" s="116"/>
-      <c r="K106" s="116"/>
-      <c r="L106" s="116"/>
-      <c r="M106" s="116"/>
+      <c r="E106" s="152"/>
+      <c r="F106" s="153"/>
+      <c r="G106" s="154"/>
+      <c r="H106" s="135"/>
+      <c r="I106" s="140"/>
+      <c r="J106" s="140"/>
+      <c r="K106" s="140"/>
+      <c r="L106" s="140"/>
+      <c r="M106" s="140"/>
       <c r="N106" s="133"/>
       <c r="O106" s="31"/>
       <c r="P106" s="31"/>
@@ -17068,23 +17071,23 @@
       <c r="C107" s="2"/>
       <c r="D107" s="46"/>
       <c r="E107" s="61"/>
-      <c r="F107" s="179" t="s">
+      <c r="F107" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="G107" s="168"/>
-      <c r="H107" s="149">
+      <c r="G107" s="124"/>
+      <c r="H107" s="108">
         <v>4</v>
       </c>
-      <c r="I107" s="149">
+      <c r="I107" s="108">
         <v>1</v>
       </c>
-      <c r="J107" s="108" t="s">
+      <c r="J107" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="K107" s="108"/>
-      <c r="L107" s="108"/>
-      <c r="M107" s="108"/>
-      <c r="N107" s="110">
+      <c r="K107" s="119"/>
+      <c r="L107" s="119"/>
+      <c r="M107" s="119"/>
+      <c r="N107" s="130">
         <v>100</v>
       </c>
       <c r="O107" s="18"/>
@@ -17205,15 +17208,15 @@
       <c r="C108" s="2"/>
       <c r="D108" s="46"/>
       <c r="E108" s="60"/>
-      <c r="F108" s="178"/>
-      <c r="G108" s="162"/>
-      <c r="H108" s="150"/>
-      <c r="I108" s="150"/>
-      <c r="J108" s="109"/>
-      <c r="K108" s="109"/>
-      <c r="L108" s="109"/>
-      <c r="M108" s="109"/>
-      <c r="N108" s="111"/>
+      <c r="F108" s="156"/>
+      <c r="G108" s="148"/>
+      <c r="H108" s="109"/>
+      <c r="I108" s="109"/>
+      <c r="J108" s="120"/>
+      <c r="K108" s="120"/>
+      <c r="L108" s="120"/>
+      <c r="M108" s="120"/>
+      <c r="N108" s="131"/>
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
       <c r="Q108" s="18"/>
@@ -17333,24 +17336,24 @@
       <c r="D109" s="46"/>
       <c r="E109" s="60"/>
       <c r="F109" s="105"/>
-      <c r="G109" s="180" t="s">
+      <c r="G109" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H109" s="150"/>
-      <c r="I109" s="150"/>
-      <c r="J109" s="108" t="s">
+      <c r="H109" s="109"/>
+      <c r="I109" s="109"/>
+      <c r="J109" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="K109" s="108" t="s">
+      <c r="K109" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="L109" s="108" t="s">
+      <c r="L109" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="M109" s="152" t="s">
+      <c r="M109" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="N109" s="111"/>
+      <c r="N109" s="131"/>
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
       <c r="Q109" s="18"/>
@@ -17470,14 +17473,14 @@
       <c r="D110" s="46"/>
       <c r="E110" s="60"/>
       <c r="F110" s="105"/>
-      <c r="G110" s="181"/>
-      <c r="H110" s="150"/>
-      <c r="I110" s="150"/>
-      <c r="J110" s="109"/>
-      <c r="K110" s="109"/>
-      <c r="L110" s="109"/>
-      <c r="M110" s="153"/>
-      <c r="N110" s="111"/>
+      <c r="G110" s="113"/>
+      <c r="H110" s="109"/>
+      <c r="I110" s="109"/>
+      <c r="J110" s="120"/>
+      <c r="K110" s="120"/>
+      <c r="L110" s="120"/>
+      <c r="M110" s="115"/>
+      <c r="N110" s="131"/>
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
       <c r="Q110" s="18"/>
@@ -17597,24 +17600,24 @@
       <c r="D111" s="46"/>
       <c r="E111" s="60"/>
       <c r="F111" s="105"/>
-      <c r="G111" s="182" t="s">
+      <c r="G111" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H111" s="150"/>
-      <c r="I111" s="150"/>
-      <c r="J111" s="108" t="s">
+      <c r="H111" s="109"/>
+      <c r="I111" s="109"/>
+      <c r="J111" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="K111" s="108" t="s">
+      <c r="K111" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="L111" s="108" t="s">
+      <c r="L111" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="M111" s="152" t="s">
+      <c r="M111" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="N111" s="111"/>
+      <c r="N111" s="131"/>
       <c r="O111" s="18"/>
       <c r="P111" s="18"/>
       <c r="Q111" s="18"/>
@@ -17734,14 +17737,14 @@
       <c r="D112" s="46"/>
       <c r="E112" s="60"/>
       <c r="F112" s="105"/>
-      <c r="G112" s="183"/>
-      <c r="H112" s="151"/>
-      <c r="I112" s="151"/>
-      <c r="J112" s="109"/>
-      <c r="K112" s="109"/>
-      <c r="L112" s="109"/>
-      <c r="M112" s="153"/>
-      <c r="N112" s="112"/>
+      <c r="G112" s="118"/>
+      <c r="H112" s="110"/>
+      <c r="I112" s="110"/>
+      <c r="J112" s="120"/>
+      <c r="K112" s="120"/>
+      <c r="L112" s="120"/>
+      <c r="M112" s="115"/>
+      <c r="N112" s="132"/>
       <c r="O112" s="18"/>
       <c r="P112" s="18"/>
       <c r="Q112" s="18"/>
@@ -17860,21 +17863,21 @@
       <c r="C113" s="2"/>
       <c r="D113" s="46"/>
       <c r="E113" s="61"/>
-      <c r="F113" s="146" t="s">
+      <c r="F113" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="G113" s="160"/>
-      <c r="H113" s="149">
+      <c r="G113" s="145"/>
+      <c r="H113" s="108">
         <v>4</v>
       </c>
-      <c r="I113" s="149">
+      <c r="I113" s="108">
         <v>3</v>
       </c>
-      <c r="J113" s="108"/>
-      <c r="K113" s="108"/>
-      <c r="L113" s="108"/>
-      <c r="M113" s="119"/>
-      <c r="N113" s="110">
+      <c r="J113" s="119"/>
+      <c r="K113" s="119"/>
+      <c r="L113" s="119"/>
+      <c r="M113" s="121"/>
+      <c r="N113" s="130">
         <v>100</v>
       </c>
       <c r="O113" s="18"/>
@@ -17995,15 +17998,15 @@
       <c r="C114" s="2"/>
       <c r="D114" s="46"/>
       <c r="E114" s="60"/>
-      <c r="F114" s="178"/>
-      <c r="G114" s="162"/>
-      <c r="H114" s="150"/>
-      <c r="I114" s="150"/>
-      <c r="J114" s="109"/>
-      <c r="K114" s="109"/>
-      <c r="L114" s="109"/>
-      <c r="M114" s="120"/>
-      <c r="N114" s="111"/>
+      <c r="F114" s="156"/>
+      <c r="G114" s="148"/>
+      <c r="H114" s="109"/>
+      <c r="I114" s="109"/>
+      <c r="J114" s="120"/>
+      <c r="K114" s="120"/>
+      <c r="L114" s="120"/>
+      <c r="M114" s="122"/>
+      <c r="N114" s="131"/>
       <c r="O114" s="18"/>
       <c r="P114" s="18"/>
       <c r="Q114" s="18"/>
@@ -18048,7 +18051,7 @@
       <c r="BD114" s="18"/>
       <c r="BE114" s="103"/>
       <c r="BF114" s="103"/>
-      <c r="BG114" s="18"/>
+      <c r="BG114" s="97"/>
       <c r="BH114" s="18"/>
       <c r="BI114" s="18"/>
       <c r="BJ114" s="18"/>
@@ -18123,24 +18126,24 @@
       <c r="D115" s="46"/>
       <c r="E115" s="60"/>
       <c r="F115" s="105"/>
-      <c r="G115" s="180" t="s">
+      <c r="G115" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H115" s="150"/>
-      <c r="I115" s="150"/>
-      <c r="J115" s="108" t="s">
+      <c r="H115" s="109"/>
+      <c r="I115" s="109"/>
+      <c r="J115" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="K115" s="108" t="s">
+      <c r="K115" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="L115" s="108" t="s">
+      <c r="L115" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="M115" s="152" t="s">
+      <c r="M115" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="N115" s="111"/>
+      <c r="N115" s="131"/>
       <c r="O115" s="18"/>
       <c r="P115" s="18"/>
       <c r="Q115" s="18"/>
@@ -18260,14 +18263,14 @@
       <c r="D116" s="46"/>
       <c r="E116" s="60"/>
       <c r="F116" s="105"/>
-      <c r="G116" s="181"/>
-      <c r="H116" s="150"/>
-      <c r="I116" s="150"/>
-      <c r="J116" s="109"/>
-      <c r="K116" s="109"/>
-      <c r="L116" s="109"/>
-      <c r="M116" s="153"/>
-      <c r="N116" s="111"/>
+      <c r="G116" s="113"/>
+      <c r="H116" s="109"/>
+      <c r="I116" s="109"/>
+      <c r="J116" s="120"/>
+      <c r="K116" s="120"/>
+      <c r="L116" s="120"/>
+      <c r="M116" s="115"/>
+      <c r="N116" s="131"/>
       <c r="O116" s="18"/>
       <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
@@ -18387,24 +18390,24 @@
       <c r="D117" s="46"/>
       <c r="E117" s="60"/>
       <c r="F117" s="105"/>
-      <c r="G117" s="182" t="s">
+      <c r="G117" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H117" s="150"/>
-      <c r="I117" s="150"/>
-      <c r="J117" s="108" t="s">
+      <c r="H117" s="109"/>
+      <c r="I117" s="109"/>
+      <c r="J117" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="K117" s="108" t="s">
+      <c r="K117" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="L117" s="108" t="s">
+      <c r="L117" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="M117" s="152" t="s">
+      <c r="M117" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="N117" s="111"/>
+      <c r="N117" s="131"/>
       <c r="O117" s="18"/>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
@@ -18524,14 +18527,14 @@
       <c r="D118" s="46"/>
       <c r="E118" s="60"/>
       <c r="F118" s="105"/>
-      <c r="G118" s="183"/>
-      <c r="H118" s="151"/>
-      <c r="I118" s="151"/>
-      <c r="J118" s="109"/>
-      <c r="K118" s="109"/>
-      <c r="L118" s="109"/>
-      <c r="M118" s="153"/>
-      <c r="N118" s="112"/>
+      <c r="G118" s="118"/>
+      <c r="H118" s="110"/>
+      <c r="I118" s="110"/>
+      <c r="J118" s="120"/>
+      <c r="K118" s="120"/>
+      <c r="L118" s="120"/>
+      <c r="M118" s="115"/>
+      <c r="N118" s="132"/>
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
       <c r="Q118" s="18"/>
@@ -18650,22 +18653,24 @@
       <c r="C119" s="2"/>
       <c r="D119" s="46"/>
       <c r="E119" s="61"/>
-      <c r="F119" s="146" t="s">
+      <c r="F119" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="G119" s="160"/>
-      <c r="H119" s="149">
+      <c r="G119" s="145"/>
+      <c r="H119" s="108">
         <v>5</v>
       </c>
-      <c r="I119" s="149"/>
-      <c r="J119" s="108" t="s">
+      <c r="I119" s="108">
+        <v>4</v>
+      </c>
+      <c r="J119" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="K119" s="108"/>
-      <c r="L119" s="108"/>
-      <c r="M119" s="108"/>
-      <c r="N119" s="110">
-        <v>50</v>
+      <c r="K119" s="119"/>
+      <c r="L119" s="119"/>
+      <c r="M119" s="119"/>
+      <c r="N119" s="130">
+        <v>100</v>
       </c>
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
@@ -18784,15 +18789,15 @@
       <c r="C120" s="2"/>
       <c r="D120" s="46"/>
       <c r="E120" s="60"/>
-      <c r="F120" s="178"/>
-      <c r="G120" s="162"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="150"/>
-      <c r="J120" s="109"/>
-      <c r="K120" s="109"/>
-      <c r="L120" s="109"/>
-      <c r="M120" s="109"/>
-      <c r="N120" s="111"/>
+      <c r="F120" s="156"/>
+      <c r="G120" s="148"/>
+      <c r="H120" s="109"/>
+      <c r="I120" s="109"/>
+      <c r="J120" s="120"/>
+      <c r="K120" s="120"/>
+      <c r="L120" s="120"/>
+      <c r="M120" s="120"/>
+      <c r="N120" s="131"/>
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
       <c r="Q120" s="18"/>
@@ -18837,8 +18842,8 @@
       <c r="BD120" s="18"/>
       <c r="BE120" s="82"/>
       <c r="BF120" s="103"/>
-      <c r="BG120" s="82"/>
-      <c r="BH120" s="82"/>
+      <c r="BG120" s="97"/>
+      <c r="BH120" s="97"/>
       <c r="BI120" s="82"/>
       <c r="BJ120" s="18"/>
       <c r="BK120" s="18"/>
@@ -18912,24 +18917,24 @@
       <c r="D121" s="46"/>
       <c r="E121" s="60"/>
       <c r="F121" s="105"/>
-      <c r="G121" s="180" t="s">
+      <c r="G121" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H121" s="150"/>
-      <c r="I121" s="150"/>
-      <c r="J121" s="152" t="s">
+      <c r="H121" s="109"/>
+      <c r="I121" s="109"/>
+      <c r="J121" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="K121" s="152" t="s">
+      <c r="K121" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="L121" s="152" t="s">
+      <c r="L121" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="M121" s="152" t="s">
+      <c r="M121" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="N121" s="111"/>
+      <c r="N121" s="131"/>
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
       <c r="Q121" s="18"/>
@@ -19049,14 +19054,14 @@
       <c r="D122" s="46"/>
       <c r="E122" s="60"/>
       <c r="F122" s="105"/>
-      <c r="G122" s="181"/>
-      <c r="H122" s="150"/>
-      <c r="I122" s="150"/>
-      <c r="J122" s="153"/>
-      <c r="K122" s="153"/>
-      <c r="L122" s="153"/>
-      <c r="M122" s="153"/>
-      <c r="N122" s="111"/>
+      <c r="G122" s="113"/>
+      <c r="H122" s="109"/>
+      <c r="I122" s="109"/>
+      <c r="J122" s="115"/>
+      <c r="K122" s="115"/>
+      <c r="L122" s="115"/>
+      <c r="M122" s="115"/>
+      <c r="N122" s="131"/>
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
       <c r="Q122" s="18"/>
@@ -19176,22 +19181,24 @@
       <c r="D123" s="46"/>
       <c r="E123" s="60"/>
       <c r="F123" s="105"/>
-      <c r="G123" s="182" t="s">
+      <c r="G123" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H123" s="150"/>
-      <c r="I123" s="150"/>
-      <c r="J123" s="152" t="s">
+      <c r="H123" s="109"/>
+      <c r="I123" s="109"/>
+      <c r="J123" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="K123" s="184"/>
-      <c r="L123" s="152" t="s">
+      <c r="K123" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="L123" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="M123" s="152" t="s">
+      <c r="M123" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="N123" s="111"/>
+      <c r="N123" s="131"/>
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
       <c r="Q123" s="18"/>
@@ -19311,14 +19318,14 @@
       <c r="D124" s="46"/>
       <c r="E124" s="60"/>
       <c r="F124" s="105"/>
-      <c r="G124" s="183"/>
-      <c r="H124" s="151"/>
-      <c r="I124" s="151"/>
-      <c r="J124" s="153"/>
-      <c r="K124" s="153"/>
-      <c r="L124" s="153"/>
-      <c r="M124" s="153"/>
-      <c r="N124" s="112"/>
+      <c r="G124" s="118"/>
+      <c r="H124" s="110"/>
+      <c r="I124" s="110"/>
+      <c r="J124" s="115"/>
+      <c r="K124" s="115"/>
+      <c r="L124" s="115"/>
+      <c r="M124" s="115"/>
+      <c r="N124" s="132"/>
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
       <c r="Q124" s="18"/>
@@ -19437,20 +19444,22 @@
       <c r="C125" s="2"/>
       <c r="D125" s="46"/>
       <c r="E125" s="61"/>
-      <c r="F125" s="146" t="s">
+      <c r="F125" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="G125" s="160"/>
-      <c r="H125" s="149">
+      <c r="G125" s="145"/>
+      <c r="H125" s="108">
         <v>4</v>
       </c>
-      <c r="I125" s="149"/>
-      <c r="J125" s="108"/>
-      <c r="K125" s="108"/>
-      <c r="L125" s="108"/>
-      <c r="M125" s="108"/>
-      <c r="N125" s="110">
-        <v>50</v>
+      <c r="I125" s="108">
+        <v>3</v>
+      </c>
+      <c r="J125" s="119"/>
+      <c r="K125" s="119"/>
+      <c r="L125" s="119"/>
+      <c r="M125" s="119"/>
+      <c r="N125" s="130">
+        <v>100</v>
       </c>
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
@@ -19570,15 +19579,15 @@
       <c r="C126" s="2"/>
       <c r="D126" s="46"/>
       <c r="E126" s="60"/>
-      <c r="F126" s="178"/>
-      <c r="G126" s="162"/>
-      <c r="H126" s="150"/>
-      <c r="I126" s="150"/>
-      <c r="J126" s="109"/>
-      <c r="K126" s="109"/>
-      <c r="L126" s="109"/>
-      <c r="M126" s="109"/>
-      <c r="N126" s="111"/>
+      <c r="F126" s="156"/>
+      <c r="G126" s="148"/>
+      <c r="H126" s="109"/>
+      <c r="I126" s="109"/>
+      <c r="J126" s="120"/>
+      <c r="K126" s="120"/>
+      <c r="L126" s="120"/>
+      <c r="M126" s="120"/>
+      <c r="N126" s="131"/>
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
       <c r="Q126" s="18"/>
@@ -19624,7 +19633,7 @@
       <c r="BE126" s="82"/>
       <c r="BF126" s="82"/>
       <c r="BG126" s="97"/>
-      <c r="BH126" s="82"/>
+      <c r="BH126" s="97"/>
       <c r="BI126" s="82"/>
       <c r="BJ126" s="18"/>
       <c r="BK126" s="18"/>
@@ -19698,22 +19707,24 @@
       <c r="D127" s="46"/>
       <c r="E127" s="60"/>
       <c r="F127" s="105"/>
-      <c r="G127" s="180" t="s">
+      <c r="G127" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H127" s="150"/>
-      <c r="I127" s="150"/>
-      <c r="J127" s="152" t="s">
+      <c r="H127" s="109"/>
+      <c r="I127" s="109"/>
+      <c r="J127" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="K127" s="184"/>
-      <c r="L127" s="152" t="s">
+      <c r="K127" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="M127" s="152" t="s">
+      <c r="L127" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="M127" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="N127" s="111"/>
+      <c r="N127" s="131"/>
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
       <c r="Q127" s="18"/>
@@ -19833,14 +19844,14 @@
       <c r="D128" s="46"/>
       <c r="E128" s="60"/>
       <c r="F128" s="105"/>
-      <c r="G128" s="181"/>
-      <c r="H128" s="150"/>
-      <c r="I128" s="150"/>
-      <c r="J128" s="153"/>
-      <c r="K128" s="153"/>
-      <c r="L128" s="153"/>
-      <c r="M128" s="153"/>
-      <c r="N128" s="111"/>
+      <c r="G128" s="113"/>
+      <c r="H128" s="109"/>
+      <c r="I128" s="109"/>
+      <c r="J128" s="115"/>
+      <c r="K128" s="115"/>
+      <c r="L128" s="115"/>
+      <c r="M128" s="115"/>
+      <c r="N128" s="131"/>
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
       <c r="Q128" s="18"/>
@@ -19960,22 +19971,24 @@
       <c r="D129" s="46"/>
       <c r="E129" s="60"/>
       <c r="F129" s="105"/>
-      <c r="G129" s="182" t="s">
+      <c r="G129" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H129" s="150"/>
-      <c r="I129" s="150"/>
-      <c r="J129" s="152" t="s">
+      <c r="H129" s="109"/>
+      <c r="I129" s="109"/>
+      <c r="J129" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="K129" s="184"/>
-      <c r="L129" s="108" t="s">
+      <c r="K129" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="L129" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="M129" s="152" t="s">
+      <c r="M129" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="N129" s="111"/>
+      <c r="N129" s="131"/>
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
       <c r="Q129" s="18"/>
@@ -20095,14 +20108,14 @@
       <c r="D130" s="46"/>
       <c r="E130" s="60"/>
       <c r="F130" s="105"/>
-      <c r="G130" s="183"/>
-      <c r="H130" s="151"/>
-      <c r="I130" s="151"/>
-      <c r="J130" s="153"/>
-      <c r="K130" s="153"/>
-      <c r="L130" s="109"/>
-      <c r="M130" s="153"/>
-      <c r="N130" s="112"/>
+      <c r="G130" s="118"/>
+      <c r="H130" s="110"/>
+      <c r="I130" s="110"/>
+      <c r="J130" s="115"/>
+      <c r="K130" s="115"/>
+      <c r="L130" s="120"/>
+      <c r="M130" s="115"/>
+      <c r="N130" s="132"/>
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
       <c r="Q130" s="18"/>
@@ -20221,20 +20234,22 @@
       <c r="C131" s="2"/>
       <c r="D131" s="46"/>
       <c r="E131" s="61"/>
-      <c r="F131" s="146" t="s">
+      <c r="F131" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="G131" s="160"/>
-      <c r="H131" s="149">
+      <c r="G131" s="145"/>
+      <c r="H131" s="108">
         <v>4</v>
       </c>
-      <c r="I131" s="149"/>
-      <c r="J131" s="108"/>
-      <c r="K131" s="108"/>
-      <c r="L131" s="108"/>
-      <c r="M131" s="119"/>
-      <c r="N131" s="110">
-        <v>50</v>
+      <c r="I131" s="108">
+        <v>2</v>
+      </c>
+      <c r="J131" s="119"/>
+      <c r="K131" s="119"/>
+      <c r="L131" s="119"/>
+      <c r="M131" s="121"/>
+      <c r="N131" s="130">
+        <v>100</v>
       </c>
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
@@ -20354,15 +20369,15 @@
       <c r="C132" s="2"/>
       <c r="D132" s="46"/>
       <c r="E132" s="60"/>
-      <c r="F132" s="178"/>
-      <c r="G132" s="162"/>
-      <c r="H132" s="150"/>
-      <c r="I132" s="150"/>
-      <c r="J132" s="109"/>
-      <c r="K132" s="109"/>
-      <c r="L132" s="109"/>
-      <c r="M132" s="120"/>
-      <c r="N132" s="111"/>
+      <c r="F132" s="156"/>
+      <c r="G132" s="148"/>
+      <c r="H132" s="109"/>
+      <c r="I132" s="109"/>
+      <c r="J132" s="120"/>
+      <c r="K132" s="120"/>
+      <c r="L132" s="120"/>
+      <c r="M132" s="122"/>
+      <c r="N132" s="131"/>
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
       <c r="Q132" s="18"/>
@@ -20408,7 +20423,7 @@
       <c r="BE132" s="18"/>
       <c r="BF132" s="18"/>
       <c r="BG132" s="97"/>
-      <c r="BH132" s="18"/>
+      <c r="BH132" s="97"/>
       <c r="BI132" s="18"/>
       <c r="BJ132" s="18"/>
       <c r="BK132" s="18"/>
@@ -20482,22 +20497,24 @@
       <c r="D133" s="46"/>
       <c r="E133" s="60"/>
       <c r="F133" s="105"/>
-      <c r="G133" s="180" t="s">
+      <c r="G133" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H133" s="150"/>
-      <c r="I133" s="150"/>
-      <c r="J133" s="152" t="s">
+      <c r="H133" s="109"/>
+      <c r="I133" s="109"/>
+      <c r="J133" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="K133" s="184"/>
-      <c r="L133" s="108" t="s">
+      <c r="K133" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="L133" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="M133" s="152" t="s">
+      <c r="M133" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="N133" s="111"/>
+      <c r="N133" s="131"/>
       <c r="O133" s="18"/>
       <c r="P133" s="18"/>
       <c r="Q133" s="18"/>
@@ -20617,14 +20634,14 @@
       <c r="D134" s="46"/>
       <c r="E134" s="60"/>
       <c r="F134" s="105"/>
-      <c r="G134" s="181"/>
-      <c r="H134" s="150"/>
-      <c r="I134" s="150"/>
-      <c r="J134" s="153"/>
-      <c r="K134" s="153"/>
-      <c r="L134" s="109"/>
-      <c r="M134" s="153"/>
-      <c r="N134" s="111"/>
+      <c r="G134" s="113"/>
+      <c r="H134" s="109"/>
+      <c r="I134" s="109"/>
+      <c r="J134" s="115"/>
+      <c r="K134" s="115"/>
+      <c r="L134" s="120"/>
+      <c r="M134" s="115"/>
+      <c r="N134" s="131"/>
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
       <c r="Q134" s="18"/>
@@ -20744,22 +20761,24 @@
       <c r="D135" s="46"/>
       <c r="E135" s="60"/>
       <c r="F135" s="105"/>
-      <c r="G135" s="182" t="s">
+      <c r="G135" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H135" s="150"/>
-      <c r="I135" s="150"/>
-      <c r="J135" s="108" t="s">
+      <c r="H135" s="109"/>
+      <c r="I135" s="109"/>
+      <c r="J135" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="K135" s="184"/>
-      <c r="L135" s="108" t="s">
+      <c r="K135" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="L135" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="M135" s="152" t="s">
+      <c r="M135" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="N135" s="111"/>
+      <c r="N135" s="131"/>
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
       <c r="Q135" s="18"/>
@@ -20879,14 +20898,14 @@
       <c r="D136" s="46"/>
       <c r="E136" s="60"/>
       <c r="F136" s="105"/>
-      <c r="G136" s="183"/>
-      <c r="H136" s="151"/>
-      <c r="I136" s="151"/>
-      <c r="J136" s="109"/>
-      <c r="K136" s="153"/>
-      <c r="L136" s="109"/>
-      <c r="M136" s="153"/>
-      <c r="N136" s="112"/>
+      <c r="G136" s="118"/>
+      <c r="H136" s="110"/>
+      <c r="I136" s="110"/>
+      <c r="J136" s="120"/>
+      <c r="K136" s="115"/>
+      <c r="L136" s="120"/>
+      <c r="M136" s="115"/>
+      <c r="N136" s="132"/>
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
       <c r="Q136" s="18"/>
@@ -21005,19 +21024,19 @@
       <c r="C137" s="2"/>
       <c r="D137" s="46"/>
       <c r="E137" s="61"/>
-      <c r="F137" s="146" t="s">
+      <c r="F137" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="G137" s="160"/>
-      <c r="H137" s="137"/>
-      <c r="I137" s="137"/>
-      <c r="J137" s="108"/>
-      <c r="K137" s="108"/>
-      <c r="L137" s="108" t="s">
+      <c r="G137" s="145"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="111"/>
+      <c r="J137" s="119"/>
+      <c r="K137" s="119"/>
+      <c r="L137" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="M137" s="108"/>
-      <c r="N137" s="139"/>
+      <c r="M137" s="119"/>
+      <c r="N137" s="142"/>
       <c r="O137" s="18"/>
       <c r="P137" s="18"/>
       <c r="Q137" s="18"/>
@@ -21136,15 +21155,15 @@
       <c r="C138" s="2"/>
       <c r="D138" s="46"/>
       <c r="E138" s="60"/>
-      <c r="F138" s="178"/>
-      <c r="G138" s="162"/>
-      <c r="H138" s="137"/>
-      <c r="I138" s="137"/>
-      <c r="J138" s="109"/>
-      <c r="K138" s="109"/>
-      <c r="L138" s="109"/>
-      <c r="M138" s="109"/>
-      <c r="N138" s="139"/>
+      <c r="F138" s="156"/>
+      <c r="G138" s="148"/>
+      <c r="H138" s="111"/>
+      <c r="I138" s="111"/>
+      <c r="J138" s="120"/>
+      <c r="K138" s="120"/>
+      <c r="L138" s="120"/>
+      <c r="M138" s="120"/>
+      <c r="N138" s="142"/>
       <c r="O138" s="18"/>
       <c r="P138" s="18"/>
       <c r="Q138" s="18"/>
@@ -21261,18 +21280,18 @@
       <c r="A139" s="19"/>
       <c r="B139" s="51"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="145" t="s">
+      <c r="D139" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="E139" s="126"/>
-      <c r="F139" s="126"/>
-      <c r="G139" s="126"/>
-      <c r="H139" s="117"/>
-      <c r="I139" s="116"/>
-      <c r="J139" s="117"/>
-      <c r="K139" s="117"/>
-      <c r="L139" s="117"/>
-      <c r="M139" s="117"/>
+      <c r="E139" s="159"/>
+      <c r="F139" s="159"/>
+      <c r="G139" s="159"/>
+      <c r="H139" s="134"/>
+      <c r="I139" s="140"/>
+      <c r="J139" s="134"/>
+      <c r="K139" s="134"/>
+      <c r="L139" s="134"/>
+      <c r="M139" s="134"/>
       <c r="N139" s="133"/>
       <c r="O139" s="42"/>
       <c r="P139" s="43"/>
@@ -21390,16 +21409,16 @@
       <c r="A140" s="19"/>
       <c r="B140" s="51"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="127"/>
-      <c r="E140" s="128"/>
-      <c r="F140" s="128"/>
-      <c r="G140" s="128"/>
-      <c r="H140" s="118"/>
-      <c r="I140" s="116"/>
-      <c r="J140" s="118"/>
-      <c r="K140" s="118"/>
-      <c r="L140" s="118"/>
-      <c r="M140" s="118"/>
+      <c r="D140" s="160"/>
+      <c r="E140" s="161"/>
+      <c r="F140" s="161"/>
+      <c r="G140" s="161"/>
+      <c r="H140" s="135"/>
+      <c r="I140" s="140"/>
+      <c r="J140" s="135"/>
+      <c r="K140" s="135"/>
+      <c r="L140" s="135"/>
+      <c r="M140" s="135"/>
       <c r="N140" s="133"/>
       <c r="O140" s="44"/>
       <c r="P140" s="31"/>
@@ -21518,17 +21537,17 @@
       <c r="B141" s="24"/>
       <c r="C141" s="2"/>
       <c r="D141" s="55"/>
-      <c r="E141" s="154" t="s">
+      <c r="E141" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="F141" s="154"/>
-      <c r="G141" s="155"/>
-      <c r="H141" s="117"/>
-      <c r="I141" s="116"/>
-      <c r="J141" s="117"/>
-      <c r="K141" s="117"/>
-      <c r="L141" s="117"/>
-      <c r="M141" s="117"/>
+      <c r="F141" s="136"/>
+      <c r="G141" s="137"/>
+      <c r="H141" s="134"/>
+      <c r="I141" s="140"/>
+      <c r="J141" s="134"/>
+      <c r="K141" s="134"/>
+      <c r="L141" s="134"/>
+      <c r="M141" s="134"/>
       <c r="N141" s="133"/>
       <c r="O141" s="42"/>
       <c r="P141" s="43"/>
@@ -21647,15 +21666,15 @@
       <c r="B142" s="24"/>
       <c r="C142" s="2"/>
       <c r="D142" s="56"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="166"/>
-      <c r="H142" s="118"/>
-      <c r="I142" s="116"/>
-      <c r="J142" s="118"/>
-      <c r="K142" s="118"/>
-      <c r="L142" s="118"/>
-      <c r="M142" s="118"/>
+      <c r="E142" s="138"/>
+      <c r="F142" s="138"/>
+      <c r="G142" s="139"/>
+      <c r="H142" s="135"/>
+      <c r="I142" s="140"/>
+      <c r="J142" s="135"/>
+      <c r="K142" s="135"/>
+      <c r="L142" s="135"/>
+      <c r="M142" s="135"/>
       <c r="N142" s="133"/>
       <c r="O142" s="44"/>
       <c r="P142" s="31"/>
@@ -21775,19 +21794,23 @@
       <c r="C143" s="2"/>
       <c r="D143" s="46"/>
       <c r="E143" s="59"/>
-      <c r="F143" s="167" t="s">
+      <c r="F143" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="G143" s="168"/>
-      <c r="H143" s="149">
+      <c r="G143" s="124"/>
+      <c r="H143" s="108">
         <v>3</v>
       </c>
-      <c r="I143" s="149"/>
-      <c r="J143" s="108"/>
-      <c r="K143" s="108"/>
-      <c r="L143" s="108"/>
-      <c r="M143" s="108"/>
-      <c r="N143" s="113"/>
+      <c r="I143" s="108">
+        <v>3</v>
+      </c>
+      <c r="J143" s="119"/>
+      <c r="K143" s="119"/>
+      <c r="L143" s="119"/>
+      <c r="M143" s="119"/>
+      <c r="N143" s="127">
+        <v>90</v>
+      </c>
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
       <c r="Q143" s="18"/>
@@ -21906,15 +21929,15 @@
       <c r="C144" s="2"/>
       <c r="D144" s="46"/>
       <c r="E144" s="60"/>
-      <c r="F144" s="169"/>
-      <c r="G144" s="170"/>
-      <c r="H144" s="150"/>
-      <c r="I144" s="150"/>
-      <c r="J144" s="109"/>
-      <c r="K144" s="109"/>
-      <c r="L144" s="109"/>
-      <c r="M144" s="109"/>
-      <c r="N144" s="114"/>
+      <c r="F144" s="125"/>
+      <c r="G144" s="126"/>
+      <c r="H144" s="109"/>
+      <c r="I144" s="109"/>
+      <c r="J144" s="120"/>
+      <c r="K144" s="120"/>
+      <c r="L144" s="120"/>
+      <c r="M144" s="120"/>
+      <c r="N144" s="128"/>
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
       <c r="Q144" s="18"/>
@@ -21960,8 +21983,8 @@
       <c r="BE144" s="18"/>
       <c r="BF144" s="18"/>
       <c r="BG144" s="18"/>
-      <c r="BH144" s="18"/>
-      <c r="BI144" s="18"/>
+      <c r="BH144" s="97"/>
+      <c r="BI144" s="97"/>
       <c r="BJ144" s="18"/>
       <c r="BK144" s="18"/>
       <c r="BL144" s="18"/>
@@ -22034,22 +22057,24 @@
       <c r="D145" s="46"/>
       <c r="E145" s="60"/>
       <c r="F145" s="105"/>
-      <c r="G145" s="180" t="s">
+      <c r="G145" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H145" s="150"/>
-      <c r="I145" s="150"/>
-      <c r="J145" s="108" t="s">
+      <c r="H145" s="109"/>
+      <c r="I145" s="109"/>
+      <c r="J145" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="K145" s="184"/>
-      <c r="L145" s="108" t="s">
+      <c r="K145" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="L145" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="M145" s="152" t="s">
+      <c r="M145" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="N145" s="114"/>
+      <c r="N145" s="128"/>
       <c r="O145" s="18"/>
       <c r="P145" s="18"/>
       <c r="Q145" s="18"/>
@@ -22169,14 +22194,14 @@
       <c r="D146" s="46"/>
       <c r="E146" s="60"/>
       <c r="F146" s="105"/>
-      <c r="G146" s="181"/>
-      <c r="H146" s="150"/>
-      <c r="I146" s="150"/>
-      <c r="J146" s="109"/>
-      <c r="K146" s="153"/>
-      <c r="L146" s="109"/>
-      <c r="M146" s="153"/>
-      <c r="N146" s="114"/>
+      <c r="G146" s="113"/>
+      <c r="H146" s="109"/>
+      <c r="I146" s="109"/>
+      <c r="J146" s="120"/>
+      <c r="K146" s="115"/>
+      <c r="L146" s="120"/>
+      <c r="M146" s="115"/>
+      <c r="N146" s="128"/>
       <c r="O146" s="18"/>
       <c r="P146" s="18"/>
       <c r="Q146" s="18"/>
@@ -22296,22 +22321,22 @@
       <c r="D147" s="46"/>
       <c r="E147" s="60"/>
       <c r="F147" s="105"/>
-      <c r="G147" s="182" t="s">
+      <c r="G147" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H147" s="150"/>
-      <c r="I147" s="150"/>
-      <c r="J147" s="108" t="s">
+      <c r="H147" s="109"/>
+      <c r="I147" s="109"/>
+      <c r="J147" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="K147" s="184"/>
-      <c r="L147" s="108" t="s">
+      <c r="K147" s="116"/>
+      <c r="L147" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="M147" s="152" t="s">
+      <c r="M147" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="N147" s="114"/>
+      <c r="N147" s="128"/>
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
       <c r="Q147" s="18"/>
@@ -22431,14 +22456,14 @@
       <c r="D148" s="46"/>
       <c r="E148" s="60"/>
       <c r="F148" s="105"/>
-      <c r="G148" s="183"/>
-      <c r="H148" s="151"/>
-      <c r="I148" s="151"/>
-      <c r="J148" s="109"/>
-      <c r="K148" s="153"/>
-      <c r="L148" s="109"/>
-      <c r="M148" s="153"/>
-      <c r="N148" s="115"/>
+      <c r="G148" s="118"/>
+      <c r="H148" s="110"/>
+      <c r="I148" s="110"/>
+      <c r="J148" s="120"/>
+      <c r="K148" s="115"/>
+      <c r="L148" s="120"/>
+      <c r="M148" s="115"/>
+      <c r="N148" s="129"/>
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
       <c r="Q148" s="18"/>
@@ -22557,19 +22582,23 @@
       <c r="C149" s="2"/>
       <c r="D149" s="46"/>
       <c r="E149" s="61"/>
-      <c r="F149" s="167" t="s">
+      <c r="F149" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="G149" s="168"/>
-      <c r="H149" s="149">
+      <c r="G149" s="124"/>
+      <c r="H149" s="108">
         <v>5</v>
       </c>
-      <c r="I149" s="149"/>
-      <c r="J149" s="108"/>
-      <c r="K149" s="108"/>
-      <c r="L149" s="108"/>
-      <c r="M149" s="108"/>
-      <c r="N149" s="113"/>
+      <c r="I149" s="108">
+        <v>6</v>
+      </c>
+      <c r="J149" s="119"/>
+      <c r="K149" s="119"/>
+      <c r="L149" s="119"/>
+      <c r="M149" s="119"/>
+      <c r="N149" s="127">
+        <v>90</v>
+      </c>
       <c r="O149" s="18"/>
       <c r="P149" s="18"/>
       <c r="Q149" s="18"/>
@@ -22688,15 +22717,15 @@
       <c r="C150" s="2"/>
       <c r="D150" s="46"/>
       <c r="E150" s="58"/>
-      <c r="F150" s="169"/>
-      <c r="G150" s="170"/>
-      <c r="H150" s="150"/>
-      <c r="I150" s="150"/>
-      <c r="J150" s="109"/>
-      <c r="K150" s="109"/>
-      <c r="L150" s="109"/>
-      <c r="M150" s="109"/>
-      <c r="N150" s="114"/>
+      <c r="F150" s="125"/>
+      <c r="G150" s="126"/>
+      <c r="H150" s="109"/>
+      <c r="I150" s="109"/>
+      <c r="J150" s="120"/>
+      <c r="K150" s="120"/>
+      <c r="L150" s="120"/>
+      <c r="M150" s="120"/>
+      <c r="N150" s="128"/>
       <c r="O150" s="18"/>
       <c r="P150" s="18"/>
       <c r="Q150" s="18"/>
@@ -22743,10 +22772,10 @@
       <c r="BF150" s="18"/>
       <c r="BG150" s="18"/>
       <c r="BH150" s="18"/>
-      <c r="BI150" s="18"/>
+      <c r="BI150" s="97"/>
       <c r="BJ150" s="18"/>
       <c r="BK150" s="18"/>
-      <c r="BL150" s="18"/>
+      <c r="BL150" s="97"/>
       <c r="BM150" s="18"/>
       <c r="BN150" s="18"/>
       <c r="BO150" s="18"/>
@@ -22816,22 +22845,24 @@
       <c r="D151" s="46"/>
       <c r="E151" s="60"/>
       <c r="F151" s="105"/>
-      <c r="G151" s="180" t="s">
+      <c r="G151" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H151" s="150"/>
-      <c r="I151" s="150"/>
-      <c r="J151" s="108" t="s">
+      <c r="H151" s="109"/>
+      <c r="I151" s="109"/>
+      <c r="J151" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="K151" s="184"/>
-      <c r="L151" s="108" t="s">
+      <c r="K151" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="L151" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="M151" s="152" t="s">
+      <c r="M151" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="N151" s="114"/>
+      <c r="N151" s="128"/>
       <c r="O151" s="18"/>
       <c r="P151" s="18"/>
       <c r="Q151" s="18"/>
@@ -22951,14 +22982,14 @@
       <c r="D152" s="46"/>
       <c r="E152" s="60"/>
       <c r="F152" s="105"/>
-      <c r="G152" s="181"/>
-      <c r="H152" s="150"/>
-      <c r="I152" s="150"/>
-      <c r="J152" s="109"/>
-      <c r="K152" s="153"/>
-      <c r="L152" s="109"/>
-      <c r="M152" s="153"/>
-      <c r="N152" s="114"/>
+      <c r="G152" s="113"/>
+      <c r="H152" s="109"/>
+      <c r="I152" s="109"/>
+      <c r="J152" s="120"/>
+      <c r="K152" s="115"/>
+      <c r="L152" s="120"/>
+      <c r="M152" s="115"/>
+      <c r="N152" s="128"/>
       <c r="O152" s="18"/>
       <c r="P152" s="18"/>
       <c r="Q152" s="18"/>
@@ -23078,22 +23109,22 @@
       <c r="D153" s="46"/>
       <c r="E153" s="60"/>
       <c r="F153" s="105"/>
-      <c r="G153" s="182" t="s">
+      <c r="G153" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H153" s="150"/>
-      <c r="I153" s="150"/>
-      <c r="J153" s="108" t="s">
+      <c r="H153" s="109"/>
+      <c r="I153" s="109"/>
+      <c r="J153" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="K153" s="184"/>
-      <c r="L153" s="108" t="s">
+      <c r="K153" s="116"/>
+      <c r="L153" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="M153" s="152" t="s">
+      <c r="M153" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="N153" s="114"/>
+      <c r="N153" s="128"/>
       <c r="O153" s="18"/>
       <c r="P153" s="18"/>
       <c r="Q153" s="18"/>
@@ -23213,14 +23244,14 @@
       <c r="D154" s="46"/>
       <c r="E154" s="60"/>
       <c r="F154" s="105"/>
-      <c r="G154" s="183"/>
-      <c r="H154" s="151"/>
-      <c r="I154" s="151"/>
-      <c r="J154" s="109"/>
-      <c r="K154" s="153"/>
-      <c r="L154" s="109"/>
-      <c r="M154" s="153"/>
-      <c r="N154" s="115"/>
+      <c r="G154" s="118"/>
+      <c r="H154" s="110"/>
+      <c r="I154" s="110"/>
+      <c r="J154" s="120"/>
+      <c r="K154" s="115"/>
+      <c r="L154" s="120"/>
+      <c r="M154" s="115"/>
+      <c r="N154" s="129"/>
       <c r="O154" s="18"/>
       <c r="P154" s="18"/>
       <c r="Q154" s="18"/>
@@ -23339,19 +23370,19 @@
       <c r="C155" s="2"/>
       <c r="D155" s="46"/>
       <c r="E155" s="58"/>
-      <c r="F155" s="167" t="s">
+      <c r="F155" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="G155" s="168"/>
-      <c r="H155" s="137"/>
-      <c r="I155" s="137"/>
-      <c r="J155" s="108"/>
-      <c r="K155" s="108"/>
-      <c r="L155" s="108" t="s">
+      <c r="G155" s="124"/>
+      <c r="H155" s="111"/>
+      <c r="I155" s="111"/>
+      <c r="J155" s="119"/>
+      <c r="K155" s="119"/>
+      <c r="L155" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M155" s="108"/>
-      <c r="N155" s="139"/>
+      <c r="M155" s="119"/>
+      <c r="N155" s="142"/>
       <c r="O155" s="18"/>
       <c r="P155" s="18"/>
       <c r="Q155" s="18"/>
@@ -23470,15 +23501,15 @@
       <c r="C156" s="2"/>
       <c r="D156" s="46"/>
       <c r="E156" s="63"/>
-      <c r="F156" s="169"/>
-      <c r="G156" s="170"/>
-      <c r="H156" s="137"/>
-      <c r="I156" s="137"/>
-      <c r="J156" s="109"/>
-      <c r="K156" s="109"/>
-      <c r="L156" s="109"/>
-      <c r="M156" s="109"/>
-      <c r="N156" s="139"/>
+      <c r="F156" s="125"/>
+      <c r="G156" s="126"/>
+      <c r="H156" s="111"/>
+      <c r="I156" s="111"/>
+      <c r="J156" s="120"/>
+      <c r="K156" s="120"/>
+      <c r="L156" s="120"/>
+      <c r="M156" s="120"/>
+      <c r="N156" s="142"/>
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
       <c r="Q156" s="18"/>
@@ -23596,17 +23627,17 @@
       <c r="B157" s="24"/>
       <c r="C157" s="2"/>
       <c r="D157" s="46"/>
-      <c r="E157" s="165" t="s">
+      <c r="E157" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="F157" s="156"/>
-      <c r="G157" s="166"/>
-      <c r="H157" s="117"/>
-      <c r="I157" s="116"/>
-      <c r="J157" s="116"/>
-      <c r="K157" s="116"/>
-      <c r="L157" s="116"/>
-      <c r="M157" s="116"/>
+      <c r="F157" s="138"/>
+      <c r="G157" s="139"/>
+      <c r="H157" s="134"/>
+      <c r="I157" s="140"/>
+      <c r="J157" s="140"/>
+      <c r="K157" s="140"/>
+      <c r="L157" s="140"/>
+      <c r="M157" s="140"/>
       <c r="N157" s="133"/>
       <c r="O157" s="43"/>
       <c r="P157" s="43"/>
@@ -23725,15 +23756,15 @@
       <c r="B158" s="24"/>
       <c r="C158" s="2"/>
       <c r="D158" s="46"/>
-      <c r="E158" s="165"/>
-      <c r="F158" s="156"/>
-      <c r="G158" s="166"/>
-      <c r="H158" s="118"/>
-      <c r="I158" s="116"/>
-      <c r="J158" s="116"/>
-      <c r="K158" s="116"/>
-      <c r="L158" s="116"/>
-      <c r="M158" s="116"/>
+      <c r="E158" s="143"/>
+      <c r="F158" s="138"/>
+      <c r="G158" s="139"/>
+      <c r="H158" s="135"/>
+      <c r="I158" s="140"/>
+      <c r="J158" s="140"/>
+      <c r="K158" s="140"/>
+      <c r="L158" s="140"/>
+      <c r="M158" s="140"/>
       <c r="N158" s="133"/>
       <c r="O158" s="31"/>
       <c r="P158" s="31"/>
@@ -23853,19 +23884,19 @@
       <c r="C159" s="2"/>
       <c r="D159" s="46"/>
       <c r="E159" s="57"/>
-      <c r="F159" s="167" t="s">
+      <c r="F159" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="G159" s="168"/>
-      <c r="H159" s="149">
+      <c r="G159" s="124"/>
+      <c r="H159" s="108">
         <v>3</v>
       </c>
-      <c r="I159" s="149"/>
-      <c r="J159" s="108"/>
-      <c r="K159" s="108"/>
-      <c r="L159" s="108"/>
-      <c r="M159" s="108"/>
-      <c r="N159" s="110"/>
+      <c r="I159" s="108"/>
+      <c r="J159" s="119"/>
+      <c r="K159" s="119"/>
+      <c r="L159" s="119"/>
+      <c r="M159" s="119"/>
+      <c r="N159" s="130"/>
       <c r="O159" s="18"/>
       <c r="P159" s="18"/>
       <c r="Q159" s="18"/>
@@ -23984,15 +24015,15 @@
       <c r="C160" s="2"/>
       <c r="D160" s="46"/>
       <c r="E160" s="58"/>
-      <c r="F160" s="169"/>
-      <c r="G160" s="170"/>
-      <c r="H160" s="150"/>
-      <c r="I160" s="150"/>
-      <c r="J160" s="109"/>
-      <c r="K160" s="109"/>
-      <c r="L160" s="109"/>
-      <c r="M160" s="109"/>
-      <c r="N160" s="111"/>
+      <c r="F160" s="125"/>
+      <c r="G160" s="126"/>
+      <c r="H160" s="109"/>
+      <c r="I160" s="109"/>
+      <c r="J160" s="120"/>
+      <c r="K160" s="120"/>
+      <c r="L160" s="120"/>
+      <c r="M160" s="120"/>
+      <c r="N160" s="131"/>
       <c r="O160" s="18"/>
       <c r="P160" s="18"/>
       <c r="Q160" s="18"/>
@@ -24112,22 +24143,22 @@
       <c r="D161" s="46"/>
       <c r="E161" s="60"/>
       <c r="F161" s="105"/>
-      <c r="G161" s="180" t="s">
+      <c r="G161" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H161" s="150"/>
-      <c r="I161" s="150"/>
-      <c r="J161" s="108" t="s">
+      <c r="H161" s="109"/>
+      <c r="I161" s="109"/>
+      <c r="J161" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="K161" s="184"/>
-      <c r="L161" s="108" t="s">
+      <c r="K161" s="116"/>
+      <c r="L161" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="M161" s="152" t="s">
+      <c r="M161" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="N161" s="111"/>
+      <c r="N161" s="131"/>
       <c r="O161" s="18"/>
       <c r="P161" s="18"/>
       <c r="Q161" s="18"/>
@@ -24247,14 +24278,14 @@
       <c r="D162" s="46"/>
       <c r="E162" s="60"/>
       <c r="F162" s="105"/>
-      <c r="G162" s="181"/>
-      <c r="H162" s="150"/>
-      <c r="I162" s="150"/>
-      <c r="J162" s="109"/>
-      <c r="K162" s="153"/>
-      <c r="L162" s="109"/>
-      <c r="M162" s="153"/>
-      <c r="N162" s="111"/>
+      <c r="G162" s="113"/>
+      <c r="H162" s="109"/>
+      <c r="I162" s="109"/>
+      <c r="J162" s="120"/>
+      <c r="K162" s="115"/>
+      <c r="L162" s="120"/>
+      <c r="M162" s="115"/>
+      <c r="N162" s="131"/>
       <c r="O162" s="18"/>
       <c r="P162" s="18"/>
       <c r="Q162" s="18"/>
@@ -24374,22 +24405,22 @@
       <c r="D163" s="46"/>
       <c r="E163" s="60"/>
       <c r="F163" s="105"/>
-      <c r="G163" s="182" t="s">
+      <c r="G163" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H163" s="150"/>
-      <c r="I163" s="150"/>
-      <c r="J163" s="152" t="s">
+      <c r="H163" s="109"/>
+      <c r="I163" s="109"/>
+      <c r="J163" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="K163" s="184"/>
-      <c r="L163" s="108" t="s">
+      <c r="K163" s="116"/>
+      <c r="L163" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="M163" s="152" t="s">
+      <c r="M163" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="N163" s="111"/>
+      <c r="N163" s="131"/>
       <c r="O163" s="18"/>
       <c r="P163" s="18"/>
       <c r="Q163" s="18"/>
@@ -24509,14 +24540,14 @@
       <c r="D164" s="46"/>
       <c r="E164" s="60"/>
       <c r="F164" s="105"/>
-      <c r="G164" s="183"/>
-      <c r="H164" s="151"/>
-      <c r="I164" s="151"/>
-      <c r="J164" s="153"/>
-      <c r="K164" s="153"/>
-      <c r="L164" s="109"/>
-      <c r="M164" s="153"/>
-      <c r="N164" s="112"/>
+      <c r="G164" s="118"/>
+      <c r="H164" s="110"/>
+      <c r="I164" s="110"/>
+      <c r="J164" s="115"/>
+      <c r="K164" s="115"/>
+      <c r="L164" s="120"/>
+      <c r="M164" s="115"/>
+      <c r="N164" s="132"/>
       <c r="O164" s="18"/>
       <c r="P164" s="18"/>
       <c r="Q164" s="18"/>
@@ -24635,19 +24666,19 @@
       <c r="C165" s="2"/>
       <c r="D165" s="46"/>
       <c r="E165" s="58"/>
-      <c r="F165" s="167" t="s">
+      <c r="F165" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="G165" s="168"/>
-      <c r="H165" s="149">
+      <c r="G165" s="124"/>
+      <c r="H165" s="108">
         <v>2</v>
       </c>
-      <c r="I165" s="149"/>
-      <c r="J165" s="108"/>
-      <c r="K165" s="108"/>
-      <c r="L165" s="108"/>
-      <c r="M165" s="108"/>
-      <c r="N165" s="110"/>
+      <c r="I165" s="108"/>
+      <c r="J165" s="119"/>
+      <c r="K165" s="119"/>
+      <c r="L165" s="119"/>
+      <c r="M165" s="119"/>
+      <c r="N165" s="130"/>
       <c r="O165" s="18"/>
       <c r="P165" s="18"/>
       <c r="Q165" s="18"/>
@@ -24766,15 +24797,15 @@
       <c r="C166" s="2"/>
       <c r="D166" s="46"/>
       <c r="E166" s="58"/>
-      <c r="F166" s="169"/>
-      <c r="G166" s="170"/>
-      <c r="H166" s="150"/>
-      <c r="I166" s="150"/>
-      <c r="J166" s="109"/>
-      <c r="K166" s="109"/>
-      <c r="L166" s="109"/>
-      <c r="M166" s="109"/>
-      <c r="N166" s="111"/>
+      <c r="F166" s="125"/>
+      <c r="G166" s="126"/>
+      <c r="H166" s="109"/>
+      <c r="I166" s="109"/>
+      <c r="J166" s="120"/>
+      <c r="K166" s="120"/>
+      <c r="L166" s="120"/>
+      <c r="M166" s="120"/>
+      <c r="N166" s="131"/>
       <c r="O166" s="18"/>
       <c r="P166" s="18"/>
       <c r="Q166" s="18"/>
@@ -24894,22 +24925,22 @@
       <c r="D167" s="46"/>
       <c r="E167" s="60"/>
       <c r="F167" s="105"/>
-      <c r="G167" s="180" t="s">
+      <c r="G167" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H167" s="150"/>
-      <c r="I167" s="150"/>
-      <c r="J167" s="152" t="s">
+      <c r="H167" s="109"/>
+      <c r="I167" s="109"/>
+      <c r="J167" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="K167" s="184"/>
-      <c r="L167" s="108" t="s">
+      <c r="K167" s="116"/>
+      <c r="L167" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="M167" s="108" t="s">
+      <c r="M167" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="N167" s="111"/>
+      <c r="N167" s="131"/>
       <c r="O167" s="18"/>
       <c r="P167" s="18"/>
       <c r="Q167" s="18"/>
@@ -25029,14 +25060,14 @@
       <c r="D168" s="46"/>
       <c r="E168" s="60"/>
       <c r="F168" s="105"/>
-      <c r="G168" s="181"/>
-      <c r="H168" s="150"/>
-      <c r="I168" s="150"/>
-      <c r="J168" s="153"/>
-      <c r="K168" s="153"/>
-      <c r="L168" s="109"/>
-      <c r="M168" s="109"/>
-      <c r="N168" s="111"/>
+      <c r="G168" s="113"/>
+      <c r="H168" s="109"/>
+      <c r="I168" s="109"/>
+      <c r="J168" s="115"/>
+      <c r="K168" s="115"/>
+      <c r="L168" s="120"/>
+      <c r="M168" s="120"/>
+      <c r="N168" s="131"/>
       <c r="O168" s="18"/>
       <c r="P168" s="18"/>
       <c r="Q168" s="18"/>
@@ -25156,22 +25187,22 @@
       <c r="D169" s="46"/>
       <c r="E169" s="60"/>
       <c r="F169" s="105"/>
-      <c r="G169" s="182" t="s">
+      <c r="G169" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H169" s="150"/>
-      <c r="I169" s="150"/>
-      <c r="J169" s="152" t="s">
+      <c r="H169" s="109"/>
+      <c r="I169" s="109"/>
+      <c r="J169" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="K169" s="184"/>
-      <c r="L169" s="108" t="s">
+      <c r="K169" s="116"/>
+      <c r="L169" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M169" s="152" t="s">
+      <c r="M169" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="N169" s="111"/>
+      <c r="N169" s="131"/>
       <c r="O169" s="18"/>
       <c r="P169" s="18"/>
       <c r="Q169" s="18"/>
@@ -25291,14 +25322,14 @@
       <c r="D170" s="46"/>
       <c r="E170" s="60"/>
       <c r="F170" s="105"/>
-      <c r="G170" s="183"/>
-      <c r="H170" s="151"/>
-      <c r="I170" s="151"/>
-      <c r="J170" s="153"/>
-      <c r="K170" s="153"/>
-      <c r="L170" s="109"/>
-      <c r="M170" s="153"/>
-      <c r="N170" s="112"/>
+      <c r="G170" s="118"/>
+      <c r="H170" s="110"/>
+      <c r="I170" s="110"/>
+      <c r="J170" s="115"/>
+      <c r="K170" s="115"/>
+      <c r="L170" s="120"/>
+      <c r="M170" s="115"/>
+      <c r="N170" s="132"/>
       <c r="O170" s="18"/>
       <c r="P170" s="18"/>
       <c r="Q170" s="18"/>
@@ -25417,19 +25448,19 @@
       <c r="C171" s="2"/>
       <c r="D171" s="46"/>
       <c r="E171" s="58"/>
-      <c r="F171" s="167" t="s">
+      <c r="F171" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="G171" s="168"/>
-      <c r="H171" s="149">
+      <c r="G171" s="124"/>
+      <c r="H171" s="108">
         <v>8</v>
       </c>
-      <c r="I171" s="149"/>
-      <c r="J171" s="108"/>
-      <c r="K171" s="108"/>
-      <c r="L171" s="108"/>
-      <c r="M171" s="108"/>
-      <c r="N171" s="110"/>
+      <c r="I171" s="108"/>
+      <c r="J171" s="119"/>
+      <c r="K171" s="119"/>
+      <c r="L171" s="119"/>
+      <c r="M171" s="119"/>
+      <c r="N171" s="130"/>
       <c r="O171" s="18"/>
       <c r="P171" s="18"/>
       <c r="Q171" s="18"/>
@@ -25548,15 +25579,15 @@
       <c r="C172" s="2"/>
       <c r="D172" s="46"/>
       <c r="E172" s="58"/>
-      <c r="F172" s="169"/>
-      <c r="G172" s="170"/>
-      <c r="H172" s="150"/>
-      <c r="I172" s="150"/>
-      <c r="J172" s="109"/>
-      <c r="K172" s="109"/>
-      <c r="L172" s="109"/>
-      <c r="M172" s="109"/>
-      <c r="N172" s="111"/>
+      <c r="F172" s="125"/>
+      <c r="G172" s="126"/>
+      <c r="H172" s="109"/>
+      <c r="I172" s="109"/>
+      <c r="J172" s="120"/>
+      <c r="K172" s="120"/>
+      <c r="L172" s="120"/>
+      <c r="M172" s="120"/>
+      <c r="N172" s="131"/>
       <c r="O172" s="18"/>
       <c r="P172" s="18"/>
       <c r="Q172" s="18"/>
@@ -25676,22 +25707,22 @@
       <c r="D173" s="46"/>
       <c r="E173" s="60"/>
       <c r="F173" s="105"/>
-      <c r="G173" s="180" t="s">
+      <c r="G173" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H173" s="150"/>
-      <c r="I173" s="150"/>
-      <c r="J173" s="152" t="s">
+      <c r="H173" s="109"/>
+      <c r="I173" s="109"/>
+      <c r="J173" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="K173" s="184"/>
-      <c r="L173" s="108" t="s">
+      <c r="K173" s="116"/>
+      <c r="L173" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M173" s="108" t="s">
+      <c r="M173" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="N173" s="111"/>
+      <c r="N173" s="131"/>
       <c r="O173" s="18"/>
       <c r="P173" s="18"/>
       <c r="Q173" s="18"/>
@@ -25811,14 +25842,14 @@
       <c r="D174" s="46"/>
       <c r="E174" s="60"/>
       <c r="F174" s="105"/>
-      <c r="G174" s="181"/>
-      <c r="H174" s="150"/>
-      <c r="I174" s="150"/>
-      <c r="J174" s="153"/>
-      <c r="K174" s="153"/>
-      <c r="L174" s="109"/>
-      <c r="M174" s="109"/>
-      <c r="N174" s="111"/>
+      <c r="G174" s="113"/>
+      <c r="H174" s="109"/>
+      <c r="I174" s="109"/>
+      <c r="J174" s="115"/>
+      <c r="K174" s="115"/>
+      <c r="L174" s="120"/>
+      <c r="M174" s="120"/>
+      <c r="N174" s="131"/>
       <c r="O174" s="18"/>
       <c r="P174" s="18"/>
       <c r="Q174" s="18"/>
@@ -25938,22 +25969,22 @@
       <c r="D175" s="46"/>
       <c r="E175" s="60"/>
       <c r="F175" s="105"/>
-      <c r="G175" s="182" t="s">
+      <c r="G175" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H175" s="150"/>
-      <c r="I175" s="150"/>
-      <c r="J175" s="152" t="s">
+      <c r="H175" s="109"/>
+      <c r="I175" s="109"/>
+      <c r="J175" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="K175" s="184"/>
-      <c r="L175" s="108" t="s">
+      <c r="K175" s="116"/>
+      <c r="L175" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M175" s="152" t="s">
+      <c r="M175" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="N175" s="111"/>
+      <c r="N175" s="131"/>
       <c r="O175" s="18"/>
       <c r="P175" s="18"/>
       <c r="Q175" s="18"/>
@@ -26073,14 +26104,14 @@
       <c r="D176" s="46"/>
       <c r="E176" s="60"/>
       <c r="F176" s="105"/>
-      <c r="G176" s="183"/>
-      <c r="H176" s="151"/>
-      <c r="I176" s="151"/>
-      <c r="J176" s="153"/>
-      <c r="K176" s="153"/>
-      <c r="L176" s="109"/>
-      <c r="M176" s="153"/>
-      <c r="N176" s="112"/>
+      <c r="G176" s="118"/>
+      <c r="H176" s="110"/>
+      <c r="I176" s="110"/>
+      <c r="J176" s="115"/>
+      <c r="K176" s="115"/>
+      <c r="L176" s="120"/>
+      <c r="M176" s="115"/>
+      <c r="N176" s="132"/>
       <c r="O176" s="18"/>
       <c r="P176" s="18"/>
       <c r="Q176" s="18"/>
@@ -26199,19 +26230,19 @@
       <c r="C177" s="2"/>
       <c r="D177" s="46"/>
       <c r="E177" s="58"/>
-      <c r="F177" s="167" t="s">
+      <c r="F177" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="G177" s="168"/>
-      <c r="H177" s="149">
+      <c r="G177" s="124"/>
+      <c r="H177" s="108">
         <v>7</v>
       </c>
-      <c r="I177" s="149"/>
-      <c r="J177" s="108"/>
-      <c r="K177" s="108"/>
-      <c r="L177" s="108"/>
-      <c r="M177" s="108"/>
-      <c r="N177" s="110"/>
+      <c r="I177" s="108"/>
+      <c r="J177" s="119"/>
+      <c r="K177" s="119"/>
+      <c r="L177" s="119"/>
+      <c r="M177" s="119"/>
+      <c r="N177" s="130"/>
       <c r="O177" s="18"/>
       <c r="P177" s="18"/>
       <c r="Q177" s="18"/>
@@ -26330,15 +26361,15 @@
       <c r="C178" s="2"/>
       <c r="D178" s="46"/>
       <c r="E178" s="58"/>
-      <c r="F178" s="169"/>
-      <c r="G178" s="170"/>
-      <c r="H178" s="150"/>
-      <c r="I178" s="150"/>
-      <c r="J178" s="109"/>
-      <c r="K178" s="109"/>
-      <c r="L178" s="109"/>
-      <c r="M178" s="109"/>
-      <c r="N178" s="111"/>
+      <c r="F178" s="125"/>
+      <c r="G178" s="126"/>
+      <c r="H178" s="109"/>
+      <c r="I178" s="109"/>
+      <c r="J178" s="120"/>
+      <c r="K178" s="120"/>
+      <c r="L178" s="120"/>
+      <c r="M178" s="120"/>
+      <c r="N178" s="131"/>
       <c r="O178" s="18"/>
       <c r="P178" s="18"/>
       <c r="Q178" s="18"/>
@@ -26458,22 +26489,22 @@
       <c r="D179" s="46"/>
       <c r="E179" s="60"/>
       <c r="F179" s="105"/>
-      <c r="G179" s="180" t="s">
+      <c r="G179" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H179" s="150"/>
-      <c r="I179" s="150"/>
-      <c r="J179" s="152" t="s">
+      <c r="H179" s="109"/>
+      <c r="I179" s="109"/>
+      <c r="J179" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="K179" s="184"/>
-      <c r="L179" s="108" t="s">
+      <c r="K179" s="116"/>
+      <c r="L179" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M179" s="108" t="s">
+      <c r="M179" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="N179" s="111"/>
+      <c r="N179" s="131"/>
       <c r="O179" s="18"/>
       <c r="P179" s="18"/>
       <c r="Q179" s="18"/>
@@ -26593,14 +26624,14 @@
       <c r="D180" s="46"/>
       <c r="E180" s="60"/>
       <c r="F180" s="105"/>
-      <c r="G180" s="181"/>
-      <c r="H180" s="150"/>
-      <c r="I180" s="150"/>
-      <c r="J180" s="153"/>
-      <c r="K180" s="153"/>
-      <c r="L180" s="109"/>
-      <c r="M180" s="109"/>
-      <c r="N180" s="111"/>
+      <c r="G180" s="113"/>
+      <c r="H180" s="109"/>
+      <c r="I180" s="109"/>
+      <c r="J180" s="115"/>
+      <c r="K180" s="115"/>
+      <c r="L180" s="120"/>
+      <c r="M180" s="120"/>
+      <c r="N180" s="131"/>
       <c r="O180" s="18"/>
       <c r="P180" s="18"/>
       <c r="Q180" s="18"/>
@@ -26720,22 +26751,22 @@
       <c r="D181" s="46"/>
       <c r="E181" s="60"/>
       <c r="F181" s="105"/>
-      <c r="G181" s="182" t="s">
+      <c r="G181" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H181" s="150"/>
-      <c r="I181" s="150"/>
-      <c r="J181" s="152" t="s">
+      <c r="H181" s="109"/>
+      <c r="I181" s="109"/>
+      <c r="J181" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="K181" s="184"/>
-      <c r="L181" s="108" t="s">
+      <c r="K181" s="116"/>
+      <c r="L181" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="M181" s="108" t="s">
+      <c r="M181" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="N181" s="111"/>
+      <c r="N181" s="131"/>
       <c r="O181" s="18"/>
       <c r="P181" s="18"/>
       <c r="Q181" s="18"/>
@@ -26855,14 +26886,14 @@
       <c r="D182" s="46"/>
       <c r="E182" s="60"/>
       <c r="F182" s="105"/>
-      <c r="G182" s="183"/>
-      <c r="H182" s="151"/>
-      <c r="I182" s="151"/>
-      <c r="J182" s="153"/>
-      <c r="K182" s="153"/>
-      <c r="L182" s="109"/>
-      <c r="M182" s="109"/>
-      <c r="N182" s="112"/>
+      <c r="G182" s="118"/>
+      <c r="H182" s="110"/>
+      <c r="I182" s="110"/>
+      <c r="J182" s="115"/>
+      <c r="K182" s="115"/>
+      <c r="L182" s="120"/>
+      <c r="M182" s="120"/>
+      <c r="N182" s="132"/>
       <c r="O182" s="18"/>
       <c r="P182" s="18"/>
       <c r="Q182" s="18"/>
@@ -26981,19 +27012,19 @@
       <c r="C183" s="2"/>
       <c r="D183" s="46"/>
       <c r="E183" s="58"/>
-      <c r="F183" s="167" t="s">
+      <c r="F183" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="G183" s="168"/>
-      <c r="H183" s="149">
+      <c r="G183" s="124"/>
+      <c r="H183" s="108">
         <v>5</v>
       </c>
-      <c r="I183" s="149"/>
-      <c r="J183" s="108"/>
-      <c r="K183" s="108"/>
-      <c r="L183" s="108"/>
-      <c r="M183" s="108"/>
-      <c r="N183" s="110"/>
+      <c r="I183" s="108"/>
+      <c r="J183" s="119"/>
+      <c r="K183" s="119"/>
+      <c r="L183" s="119"/>
+      <c r="M183" s="119"/>
+      <c r="N183" s="130"/>
       <c r="O183" s="18"/>
       <c r="P183" s="18"/>
       <c r="Q183" s="18"/>
@@ -27112,15 +27143,15 @@
       <c r="C184" s="2"/>
       <c r="D184" s="46"/>
       <c r="E184" s="58"/>
-      <c r="F184" s="169"/>
-      <c r="G184" s="170"/>
-      <c r="H184" s="150"/>
-      <c r="I184" s="150"/>
-      <c r="J184" s="109"/>
-      <c r="K184" s="109"/>
-      <c r="L184" s="109"/>
-      <c r="M184" s="109"/>
-      <c r="N184" s="111"/>
+      <c r="F184" s="125"/>
+      <c r="G184" s="126"/>
+      <c r="H184" s="109"/>
+      <c r="I184" s="109"/>
+      <c r="J184" s="120"/>
+      <c r="K184" s="120"/>
+      <c r="L184" s="120"/>
+      <c r="M184" s="120"/>
+      <c r="N184" s="131"/>
       <c r="O184" s="18"/>
       <c r="P184" s="18"/>
       <c r="Q184" s="18"/>
@@ -27240,22 +27271,22 @@
       <c r="D185" s="46"/>
       <c r="E185" s="60"/>
       <c r="F185" s="105"/>
-      <c r="G185" s="180" t="s">
+      <c r="G185" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H185" s="150"/>
-      <c r="I185" s="150"/>
-      <c r="J185" s="152" t="s">
+      <c r="H185" s="109"/>
+      <c r="I185" s="109"/>
+      <c r="J185" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="K185" s="184"/>
-      <c r="L185" s="108" t="s">
+      <c r="K185" s="116"/>
+      <c r="L185" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="M185" s="108" t="s">
+      <c r="M185" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="N185" s="111"/>
+      <c r="N185" s="131"/>
       <c r="O185" s="18"/>
       <c r="P185" s="18"/>
       <c r="Q185" s="18"/>
@@ -27375,14 +27406,14 @@
       <c r="D186" s="46"/>
       <c r="E186" s="60"/>
       <c r="F186" s="105"/>
-      <c r="G186" s="181"/>
-      <c r="H186" s="150"/>
-      <c r="I186" s="150"/>
-      <c r="J186" s="153"/>
-      <c r="K186" s="153"/>
-      <c r="L186" s="109"/>
-      <c r="M186" s="109"/>
-      <c r="N186" s="111"/>
+      <c r="G186" s="113"/>
+      <c r="H186" s="109"/>
+      <c r="I186" s="109"/>
+      <c r="J186" s="115"/>
+      <c r="K186" s="115"/>
+      <c r="L186" s="120"/>
+      <c r="M186" s="120"/>
+      <c r="N186" s="131"/>
       <c r="O186" s="18"/>
       <c r="P186" s="18"/>
       <c r="Q186" s="18"/>
@@ -27502,22 +27533,22 @@
       <c r="D187" s="46"/>
       <c r="E187" s="60"/>
       <c r="F187" s="105"/>
-      <c r="G187" s="182" t="s">
+      <c r="G187" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H187" s="150"/>
-      <c r="I187" s="150"/>
-      <c r="J187" s="108" t="s">
+      <c r="H187" s="109"/>
+      <c r="I187" s="109"/>
+      <c r="J187" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="K187" s="184"/>
-      <c r="L187" s="108" t="s">
+      <c r="K187" s="116"/>
+      <c r="L187" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="M187" s="152" t="s">
+      <c r="M187" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="N187" s="111"/>
+      <c r="N187" s="131"/>
       <c r="O187" s="18"/>
       <c r="P187" s="18"/>
       <c r="Q187" s="18"/>
@@ -27637,14 +27668,14 @@
       <c r="D188" s="46"/>
       <c r="E188" s="60"/>
       <c r="F188" s="105"/>
-      <c r="G188" s="183"/>
-      <c r="H188" s="151"/>
-      <c r="I188" s="151"/>
-      <c r="J188" s="109"/>
-      <c r="K188" s="153"/>
-      <c r="L188" s="109"/>
-      <c r="M188" s="153"/>
-      <c r="N188" s="112"/>
+      <c r="G188" s="118"/>
+      <c r="H188" s="110"/>
+      <c r="I188" s="110"/>
+      <c r="J188" s="120"/>
+      <c r="K188" s="115"/>
+      <c r="L188" s="120"/>
+      <c r="M188" s="115"/>
+      <c r="N188" s="132"/>
       <c r="O188" s="18"/>
       <c r="P188" s="18"/>
       <c r="Q188" s="18"/>
@@ -27763,19 +27794,19 @@
       <c r="C189" s="2"/>
       <c r="D189" s="46"/>
       <c r="E189" s="58"/>
-      <c r="F189" s="167" t="s">
+      <c r="F189" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="G189" s="168"/>
-      <c r="H189" s="137"/>
-      <c r="I189" s="137"/>
-      <c r="J189" s="108"/>
-      <c r="K189" s="108"/>
-      <c r="L189" s="108" t="s">
+      <c r="G189" s="124"/>
+      <c r="H189" s="111"/>
+      <c r="I189" s="111"/>
+      <c r="J189" s="119"/>
+      <c r="K189" s="119"/>
+      <c r="L189" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="M189" s="108"/>
-      <c r="N189" s="139"/>
+      <c r="M189" s="119"/>
+      <c r="N189" s="142"/>
       <c r="O189" s="18"/>
       <c r="P189" s="18"/>
       <c r="Q189" s="18"/>
@@ -27894,15 +27925,15 @@
       <c r="C190" s="2"/>
       <c r="D190" s="46"/>
       <c r="E190" s="63"/>
-      <c r="F190" s="169"/>
-      <c r="G190" s="170"/>
-      <c r="H190" s="137"/>
-      <c r="I190" s="137"/>
-      <c r="J190" s="109"/>
-      <c r="K190" s="109"/>
-      <c r="L190" s="109"/>
-      <c r="M190" s="109"/>
-      <c r="N190" s="139"/>
+      <c r="F190" s="125"/>
+      <c r="G190" s="126"/>
+      <c r="H190" s="111"/>
+      <c r="I190" s="111"/>
+      <c r="J190" s="120"/>
+      <c r="K190" s="120"/>
+      <c r="L190" s="120"/>
+      <c r="M190" s="120"/>
+      <c r="N190" s="142"/>
       <c r="O190" s="18"/>
       <c r="P190" s="18"/>
       <c r="Q190" s="18"/>
@@ -28019,18 +28050,18 @@
       <c r="A191" s="19"/>
       <c r="B191" s="51"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="145" t="s">
+      <c r="D191" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="E191" s="126"/>
-      <c r="F191" s="126"/>
-      <c r="G191" s="126"/>
-      <c r="H191" s="117"/>
-      <c r="I191" s="116"/>
-      <c r="J191" s="117"/>
-      <c r="K191" s="117"/>
-      <c r="L191" s="117"/>
-      <c r="M191" s="117"/>
+      <c r="E191" s="159"/>
+      <c r="F191" s="159"/>
+      <c r="G191" s="159"/>
+      <c r="H191" s="134"/>
+      <c r="I191" s="140"/>
+      <c r="J191" s="134"/>
+      <c r="K191" s="134"/>
+      <c r="L191" s="134"/>
+      <c r="M191" s="134"/>
       <c r="N191" s="133"/>
       <c r="O191" s="42"/>
       <c r="P191" s="43"/>
@@ -28148,16 +28179,16 @@
       <c r="A192" s="19"/>
       <c r="B192" s="51"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="127"/>
-      <c r="E192" s="128"/>
-      <c r="F192" s="128"/>
-      <c r="G192" s="128"/>
-      <c r="H192" s="118"/>
-      <c r="I192" s="116"/>
-      <c r="J192" s="118"/>
-      <c r="K192" s="118"/>
-      <c r="L192" s="118"/>
-      <c r="M192" s="118"/>
+      <c r="D192" s="160"/>
+      <c r="E192" s="161"/>
+      <c r="F192" s="161"/>
+      <c r="G192" s="161"/>
+      <c r="H192" s="135"/>
+      <c r="I192" s="140"/>
+      <c r="J192" s="135"/>
+      <c r="K192" s="135"/>
+      <c r="L192" s="135"/>
+      <c r="M192" s="135"/>
       <c r="N192" s="133"/>
       <c r="O192" s="44"/>
       <c r="P192" s="31"/>
@@ -28276,17 +28307,17 @@
       <c r="B193" s="24"/>
       <c r="C193" s="2"/>
       <c r="D193" s="55"/>
-      <c r="E193" s="154" t="s">
+      <c r="E193" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="F193" s="154"/>
-      <c r="G193" s="155"/>
-      <c r="H193" s="117"/>
-      <c r="I193" s="116"/>
-      <c r="J193" s="117"/>
-      <c r="K193" s="117"/>
-      <c r="L193" s="117"/>
-      <c r="M193" s="117"/>
+      <c r="F193" s="136"/>
+      <c r="G193" s="137"/>
+      <c r="H193" s="134"/>
+      <c r="I193" s="140"/>
+      <c r="J193" s="134"/>
+      <c r="K193" s="134"/>
+      <c r="L193" s="134"/>
+      <c r="M193" s="134"/>
       <c r="N193" s="133"/>
       <c r="O193" s="42"/>
       <c r="P193" s="43"/>
@@ -28405,15 +28436,15 @@
       <c r="B194" s="24"/>
       <c r="C194" s="2"/>
       <c r="D194" s="56"/>
-      <c r="E194" s="156"/>
-      <c r="F194" s="156"/>
-      <c r="G194" s="166"/>
-      <c r="H194" s="118"/>
-      <c r="I194" s="116"/>
-      <c r="J194" s="118"/>
-      <c r="K194" s="118"/>
-      <c r="L194" s="118"/>
-      <c r="M194" s="118"/>
+      <c r="E194" s="138"/>
+      <c r="F194" s="138"/>
+      <c r="G194" s="139"/>
+      <c r="H194" s="135"/>
+      <c r="I194" s="140"/>
+      <c r="J194" s="135"/>
+      <c r="K194" s="135"/>
+      <c r="L194" s="135"/>
+      <c r="M194" s="135"/>
       <c r="N194" s="133"/>
       <c r="O194" s="44"/>
       <c r="P194" s="31"/>
@@ -28533,19 +28564,19 @@
       <c r="C195" s="2"/>
       <c r="D195" s="46"/>
       <c r="E195" s="59"/>
-      <c r="F195" s="167" t="s">
+      <c r="F195" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G195" s="168"/>
-      <c r="H195" s="149">
+      <c r="G195" s="124"/>
+      <c r="H195" s="108">
         <v>3</v>
       </c>
-      <c r="I195" s="149"/>
-      <c r="J195" s="108"/>
-      <c r="K195" s="108"/>
-      <c r="L195" s="108"/>
-      <c r="M195" s="108"/>
-      <c r="N195" s="113"/>
+      <c r="I195" s="108"/>
+      <c r="J195" s="119"/>
+      <c r="K195" s="119"/>
+      <c r="L195" s="119"/>
+      <c r="M195" s="119"/>
+      <c r="N195" s="127"/>
       <c r="O195" s="18"/>
       <c r="P195" s="18"/>
       <c r="Q195" s="18"/>
@@ -28664,15 +28695,15 @@
       <c r="C196" s="2"/>
       <c r="D196" s="46"/>
       <c r="E196" s="60"/>
-      <c r="F196" s="169"/>
-      <c r="G196" s="170"/>
-      <c r="H196" s="150"/>
-      <c r="I196" s="150"/>
-      <c r="J196" s="109"/>
-      <c r="K196" s="109"/>
-      <c r="L196" s="109"/>
-      <c r="M196" s="109"/>
-      <c r="N196" s="114"/>
+      <c r="F196" s="125"/>
+      <c r="G196" s="126"/>
+      <c r="H196" s="109"/>
+      <c r="I196" s="109"/>
+      <c r="J196" s="120"/>
+      <c r="K196" s="120"/>
+      <c r="L196" s="120"/>
+      <c r="M196" s="120"/>
+      <c r="N196" s="128"/>
       <c r="O196" s="18"/>
       <c r="P196" s="18"/>
       <c r="Q196" s="18"/>
@@ -28792,20 +28823,20 @@
       <c r="D197" s="46"/>
       <c r="E197" s="60"/>
       <c r="F197" s="105"/>
-      <c r="G197" s="180" t="s">
+      <c r="G197" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H197" s="150"/>
-      <c r="I197" s="150"/>
-      <c r="J197" s="184"/>
-      <c r="K197" s="184"/>
-      <c r="L197" s="152" t="s">
+      <c r="H197" s="109"/>
+      <c r="I197" s="109"/>
+      <c r="J197" s="116"/>
+      <c r="K197" s="116"/>
+      <c r="L197" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="M197" s="152" t="s">
+      <c r="M197" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="N197" s="114"/>
+      <c r="N197" s="128"/>
       <c r="O197" s="18"/>
       <c r="P197" s="18"/>
       <c r="Q197" s="18"/>
@@ -28925,14 +28956,14 @@
       <c r="D198" s="46"/>
       <c r="E198" s="60"/>
       <c r="F198" s="105"/>
-      <c r="G198" s="181"/>
-      <c r="H198" s="150"/>
-      <c r="I198" s="150"/>
-      <c r="J198" s="153"/>
-      <c r="K198" s="153"/>
-      <c r="L198" s="153"/>
-      <c r="M198" s="153"/>
-      <c r="N198" s="114"/>
+      <c r="G198" s="113"/>
+      <c r="H198" s="109"/>
+      <c r="I198" s="109"/>
+      <c r="J198" s="115"/>
+      <c r="K198" s="115"/>
+      <c r="L198" s="115"/>
+      <c r="M198" s="115"/>
+      <c r="N198" s="128"/>
       <c r="O198" s="18"/>
       <c r="P198" s="18"/>
       <c r="Q198" s="18"/>
@@ -29052,20 +29083,20 @@
       <c r="D199" s="46"/>
       <c r="E199" s="60"/>
       <c r="F199" s="105"/>
-      <c r="G199" s="182" t="s">
+      <c r="G199" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H199" s="150"/>
-      <c r="I199" s="150"/>
-      <c r="J199" s="184"/>
-      <c r="K199" s="184"/>
-      <c r="L199" s="108" t="s">
+      <c r="H199" s="109"/>
+      <c r="I199" s="109"/>
+      <c r="J199" s="116"/>
+      <c r="K199" s="116"/>
+      <c r="L199" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="M199" s="152" t="s">
+      <c r="M199" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="N199" s="114"/>
+      <c r="N199" s="128"/>
       <c r="O199" s="18"/>
       <c r="P199" s="18"/>
       <c r="Q199" s="18"/>
@@ -29185,14 +29216,14 @@
       <c r="D200" s="46"/>
       <c r="E200" s="60"/>
       <c r="F200" s="105"/>
-      <c r="G200" s="183"/>
-      <c r="H200" s="151"/>
-      <c r="I200" s="151"/>
-      <c r="J200" s="153"/>
-      <c r="K200" s="153"/>
-      <c r="L200" s="109"/>
-      <c r="M200" s="153"/>
-      <c r="N200" s="115"/>
+      <c r="G200" s="118"/>
+      <c r="H200" s="110"/>
+      <c r="I200" s="110"/>
+      <c r="J200" s="115"/>
+      <c r="K200" s="115"/>
+      <c r="L200" s="120"/>
+      <c r="M200" s="115"/>
+      <c r="N200" s="129"/>
       <c r="O200" s="18"/>
       <c r="P200" s="18"/>
       <c r="Q200" s="18"/>
@@ -29311,19 +29342,19 @@
       <c r="C201" s="2"/>
       <c r="D201" s="46"/>
       <c r="E201" s="61"/>
-      <c r="F201" s="167" t="s">
+      <c r="F201" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="G201" s="168"/>
-      <c r="H201" s="149">
+      <c r="G201" s="124"/>
+      <c r="H201" s="108">
         <v>3</v>
       </c>
-      <c r="I201" s="149"/>
-      <c r="J201" s="108"/>
-      <c r="K201" s="108"/>
-      <c r="L201" s="108"/>
-      <c r="M201" s="108"/>
-      <c r="N201" s="113"/>
+      <c r="I201" s="108"/>
+      <c r="J201" s="119"/>
+      <c r="K201" s="119"/>
+      <c r="L201" s="119"/>
+      <c r="M201" s="119"/>
+      <c r="N201" s="127"/>
       <c r="O201" s="18"/>
       <c r="P201" s="18"/>
       <c r="Q201" s="18"/>
@@ -29442,15 +29473,15 @@
       <c r="C202" s="2"/>
       <c r="D202" s="46"/>
       <c r="E202" s="58"/>
-      <c r="F202" s="169"/>
-      <c r="G202" s="170"/>
-      <c r="H202" s="150"/>
-      <c r="I202" s="150"/>
-      <c r="J202" s="109"/>
-      <c r="K202" s="109"/>
-      <c r="L202" s="109"/>
-      <c r="M202" s="109"/>
-      <c r="N202" s="114"/>
+      <c r="F202" s="125"/>
+      <c r="G202" s="126"/>
+      <c r="H202" s="109"/>
+      <c r="I202" s="109"/>
+      <c r="J202" s="120"/>
+      <c r="K202" s="120"/>
+      <c r="L202" s="120"/>
+      <c r="M202" s="120"/>
+      <c r="N202" s="128"/>
       <c r="O202" s="18"/>
       <c r="P202" s="18"/>
       <c r="Q202" s="18"/>
@@ -29570,22 +29601,22 @@
       <c r="D203" s="46"/>
       <c r="E203" s="60"/>
       <c r="F203" s="105"/>
-      <c r="G203" s="180" t="s">
+      <c r="G203" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H203" s="150"/>
-      <c r="I203" s="150"/>
-      <c r="J203" s="152" t="s">
+      <c r="H203" s="109"/>
+      <c r="I203" s="109"/>
+      <c r="J203" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="K203" s="184"/>
-      <c r="L203" s="152" t="s">
+      <c r="K203" s="116"/>
+      <c r="L203" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="M203" s="108" t="s">
+      <c r="M203" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="N203" s="114"/>
+      <c r="N203" s="128"/>
       <c r="O203" s="18"/>
       <c r="P203" s="18"/>
       <c r="Q203" s="18"/>
@@ -29705,14 +29736,14 @@
       <c r="D204" s="46"/>
       <c r="E204" s="60"/>
       <c r="F204" s="105"/>
-      <c r="G204" s="181"/>
-      <c r="H204" s="150"/>
-      <c r="I204" s="150"/>
-      <c r="J204" s="153"/>
-      <c r="K204" s="153"/>
-      <c r="L204" s="153"/>
-      <c r="M204" s="109"/>
-      <c r="N204" s="114"/>
+      <c r="G204" s="113"/>
+      <c r="H204" s="109"/>
+      <c r="I204" s="109"/>
+      <c r="J204" s="115"/>
+      <c r="K204" s="115"/>
+      <c r="L204" s="115"/>
+      <c r="M204" s="120"/>
+      <c r="N204" s="128"/>
       <c r="O204" s="18"/>
       <c r="P204" s="18"/>
       <c r="Q204" s="18"/>
@@ -29832,22 +29863,22 @@
       <c r="D205" s="46"/>
       <c r="E205" s="60"/>
       <c r="F205" s="105"/>
-      <c r="G205" s="182" t="s">
+      <c r="G205" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H205" s="150"/>
-      <c r="I205" s="150"/>
-      <c r="J205" s="108" t="s">
+      <c r="H205" s="109"/>
+      <c r="I205" s="109"/>
+      <c r="J205" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="K205" s="184"/>
-      <c r="L205" s="108" t="s">
+      <c r="K205" s="116"/>
+      <c r="L205" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="M205" s="108" t="s">
+      <c r="M205" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="N205" s="114"/>
+      <c r="N205" s="128"/>
       <c r="O205" s="18"/>
       <c r="P205" s="18"/>
       <c r="Q205" s="18"/>
@@ -29967,14 +29998,14 @@
       <c r="D206" s="46"/>
       <c r="E206" s="60"/>
       <c r="F206" s="105"/>
-      <c r="G206" s="183"/>
-      <c r="H206" s="151"/>
-      <c r="I206" s="151"/>
-      <c r="J206" s="109"/>
-      <c r="K206" s="153"/>
-      <c r="L206" s="109"/>
-      <c r="M206" s="109"/>
-      <c r="N206" s="115"/>
+      <c r="G206" s="118"/>
+      <c r="H206" s="110"/>
+      <c r="I206" s="110"/>
+      <c r="J206" s="120"/>
+      <c r="K206" s="115"/>
+      <c r="L206" s="120"/>
+      <c r="M206" s="120"/>
+      <c r="N206" s="129"/>
       <c r="O206" s="18"/>
       <c r="P206" s="18"/>
       <c r="Q206" s="18"/>
@@ -30093,19 +30124,19 @@
       <c r="C207" s="2"/>
       <c r="D207" s="46"/>
       <c r="E207" s="58"/>
-      <c r="F207" s="167" t="s">
+      <c r="F207" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="G207" s="168"/>
-      <c r="H207" s="149">
+      <c r="G207" s="124"/>
+      <c r="H207" s="108">
         <v>2</v>
       </c>
-      <c r="I207" s="149"/>
-      <c r="J207" s="108"/>
-      <c r="K207" s="108"/>
-      <c r="L207" s="108"/>
-      <c r="M207" s="108"/>
-      <c r="N207" s="113"/>
+      <c r="I207" s="108"/>
+      <c r="J207" s="119"/>
+      <c r="K207" s="119"/>
+      <c r="L207" s="119"/>
+      <c r="M207" s="119"/>
+      <c r="N207" s="127"/>
       <c r="O207" s="18"/>
       <c r="P207" s="18"/>
       <c r="Q207" s="18"/>
@@ -30224,15 +30255,15 @@
       <c r="C208" s="2"/>
       <c r="D208" s="46"/>
       <c r="E208" s="58"/>
-      <c r="F208" s="169"/>
-      <c r="G208" s="170"/>
-      <c r="H208" s="150"/>
-      <c r="I208" s="150"/>
-      <c r="J208" s="109"/>
-      <c r="K208" s="109"/>
-      <c r="L208" s="109"/>
-      <c r="M208" s="109"/>
-      <c r="N208" s="114"/>
+      <c r="F208" s="125"/>
+      <c r="G208" s="126"/>
+      <c r="H208" s="109"/>
+      <c r="I208" s="109"/>
+      <c r="J208" s="120"/>
+      <c r="K208" s="120"/>
+      <c r="L208" s="120"/>
+      <c r="M208" s="120"/>
+      <c r="N208" s="128"/>
       <c r="O208" s="18"/>
       <c r="P208" s="18"/>
       <c r="Q208" s="18"/>
@@ -30352,20 +30383,20 @@
       <c r="D209" s="46"/>
       <c r="E209" s="60"/>
       <c r="F209" s="105"/>
-      <c r="G209" s="180" t="s">
+      <c r="G209" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H209" s="150"/>
-      <c r="I209" s="150"/>
-      <c r="J209" s="184"/>
-      <c r="K209" s="184"/>
-      <c r="L209" s="152" t="s">
+      <c r="H209" s="109"/>
+      <c r="I209" s="109"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="M209" s="152" t="s">
+      <c r="M209" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="N209" s="114"/>
+      <c r="N209" s="128"/>
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
       <c r="Q209" s="18"/>
@@ -30485,14 +30516,14 @@
       <c r="D210" s="46"/>
       <c r="E210" s="60"/>
       <c r="F210" s="105"/>
-      <c r="G210" s="181"/>
-      <c r="H210" s="150"/>
-      <c r="I210" s="150"/>
-      <c r="J210" s="153"/>
-      <c r="K210" s="153"/>
-      <c r="L210" s="153"/>
-      <c r="M210" s="153"/>
-      <c r="N210" s="114"/>
+      <c r="G210" s="113"/>
+      <c r="H210" s="109"/>
+      <c r="I210" s="109"/>
+      <c r="J210" s="115"/>
+      <c r="K210" s="115"/>
+      <c r="L210" s="115"/>
+      <c r="M210" s="115"/>
+      <c r="N210" s="128"/>
       <c r="O210" s="18"/>
       <c r="P210" s="18"/>
       <c r="Q210" s="18"/>
@@ -30612,20 +30643,20 @@
       <c r="D211" s="46"/>
       <c r="E211" s="60"/>
       <c r="F211" s="105"/>
-      <c r="G211" s="182" t="s">
+      <c r="G211" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H211" s="150"/>
-      <c r="I211" s="150"/>
-      <c r="J211" s="184"/>
-      <c r="K211" s="184"/>
-      <c r="L211" s="108" t="s">
+      <c r="H211" s="109"/>
+      <c r="I211" s="109"/>
+      <c r="J211" s="116"/>
+      <c r="K211" s="116"/>
+      <c r="L211" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="M211" s="152" t="s">
+      <c r="M211" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="N211" s="114"/>
+      <c r="N211" s="128"/>
       <c r="O211" s="18"/>
       <c r="P211" s="18"/>
       <c r="Q211" s="18"/>
@@ -30745,14 +30776,14 @@
       <c r="D212" s="46"/>
       <c r="E212" s="60"/>
       <c r="F212" s="105"/>
-      <c r="G212" s="183"/>
-      <c r="H212" s="151"/>
-      <c r="I212" s="151"/>
-      <c r="J212" s="153"/>
-      <c r="K212" s="153"/>
-      <c r="L212" s="109"/>
-      <c r="M212" s="153"/>
-      <c r="N212" s="115"/>
+      <c r="G212" s="118"/>
+      <c r="H212" s="110"/>
+      <c r="I212" s="110"/>
+      <c r="J212" s="115"/>
+      <c r="K212" s="115"/>
+      <c r="L212" s="120"/>
+      <c r="M212" s="115"/>
+      <c r="N212" s="129"/>
       <c r="O212" s="18"/>
       <c r="P212" s="18"/>
       <c r="Q212" s="18"/>
@@ -30871,19 +30902,19 @@
       <c r="C213" s="2"/>
       <c r="D213" s="46"/>
       <c r="E213" s="58"/>
-      <c r="F213" s="167" t="s">
+      <c r="F213" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G213" s="168"/>
-      <c r="H213" s="149">
+      <c r="G213" s="124"/>
+      <c r="H213" s="108">
         <v>2.5</v>
       </c>
-      <c r="I213" s="149"/>
-      <c r="J213" s="108"/>
-      <c r="K213" s="108"/>
-      <c r="L213" s="108"/>
-      <c r="M213" s="108"/>
-      <c r="N213" s="113"/>
+      <c r="I213" s="108"/>
+      <c r="J213" s="119"/>
+      <c r="K213" s="119"/>
+      <c r="L213" s="119"/>
+      <c r="M213" s="119"/>
+      <c r="N213" s="127"/>
       <c r="O213" s="18"/>
       <c r="P213" s="18"/>
       <c r="Q213" s="18"/>
@@ -31002,15 +31033,15 @@
       <c r="C214" s="2"/>
       <c r="D214" s="46"/>
       <c r="E214" s="58"/>
-      <c r="F214" s="169"/>
-      <c r="G214" s="170"/>
-      <c r="H214" s="150"/>
-      <c r="I214" s="150"/>
-      <c r="J214" s="109"/>
-      <c r="K214" s="109"/>
-      <c r="L214" s="109"/>
-      <c r="M214" s="109"/>
-      <c r="N214" s="114"/>
+      <c r="F214" s="125"/>
+      <c r="G214" s="126"/>
+      <c r="H214" s="109"/>
+      <c r="I214" s="109"/>
+      <c r="J214" s="120"/>
+      <c r="K214" s="120"/>
+      <c r="L214" s="120"/>
+      <c r="M214" s="120"/>
+      <c r="N214" s="128"/>
       <c r="O214" s="18"/>
       <c r="P214" s="18"/>
       <c r="Q214" s="18"/>
@@ -31130,22 +31161,22 @@
       <c r="D215" s="46"/>
       <c r="E215" s="60"/>
       <c r="F215" s="105"/>
-      <c r="G215" s="180" t="s">
+      <c r="G215" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H215" s="150"/>
-      <c r="I215" s="150"/>
-      <c r="J215" s="152" t="s">
+      <c r="H215" s="109"/>
+      <c r="I215" s="109"/>
+      <c r="J215" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="K215" s="184"/>
-      <c r="L215" s="108" t="s">
+      <c r="K215" s="116"/>
+      <c r="L215" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="M215" s="152" t="s">
+      <c r="M215" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="N215" s="114"/>
+      <c r="N215" s="128"/>
       <c r="O215" s="18"/>
       <c r="P215" s="18"/>
       <c r="Q215" s="18"/>
@@ -31265,14 +31296,14 @@
       <c r="D216" s="46"/>
       <c r="E216" s="60"/>
       <c r="F216" s="105"/>
-      <c r="G216" s="181"/>
-      <c r="H216" s="150"/>
-      <c r="I216" s="150"/>
-      <c r="J216" s="153"/>
-      <c r="K216" s="153"/>
-      <c r="L216" s="109"/>
-      <c r="M216" s="153"/>
-      <c r="N216" s="114"/>
+      <c r="G216" s="113"/>
+      <c r="H216" s="109"/>
+      <c r="I216" s="109"/>
+      <c r="J216" s="115"/>
+      <c r="K216" s="115"/>
+      <c r="L216" s="120"/>
+      <c r="M216" s="115"/>
+      <c r="N216" s="128"/>
       <c r="O216" s="18"/>
       <c r="P216" s="18"/>
       <c r="Q216" s="18"/>
@@ -31392,22 +31423,22 @@
       <c r="D217" s="46"/>
       <c r="E217" s="60"/>
       <c r="F217" s="105"/>
-      <c r="G217" s="182" t="s">
+      <c r="G217" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H217" s="150"/>
-      <c r="I217" s="150"/>
-      <c r="J217" s="108" t="s">
+      <c r="H217" s="109"/>
+      <c r="I217" s="109"/>
+      <c r="J217" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="K217" s="184"/>
-      <c r="L217" s="108" t="s">
+      <c r="K217" s="116"/>
+      <c r="L217" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="M217" s="152" t="s">
+      <c r="M217" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="N217" s="114"/>
+      <c r="N217" s="128"/>
       <c r="O217" s="18"/>
       <c r="P217" s="18"/>
       <c r="Q217" s="18"/>
@@ -31527,14 +31558,14 @@
       <c r="D218" s="46"/>
       <c r="E218" s="60"/>
       <c r="F218" s="105"/>
-      <c r="G218" s="183"/>
-      <c r="H218" s="151"/>
-      <c r="I218" s="151"/>
-      <c r="J218" s="109"/>
-      <c r="K218" s="153"/>
-      <c r="L218" s="109"/>
-      <c r="M218" s="153"/>
-      <c r="N218" s="115"/>
+      <c r="G218" s="118"/>
+      <c r="H218" s="110"/>
+      <c r="I218" s="110"/>
+      <c r="J218" s="120"/>
+      <c r="K218" s="115"/>
+      <c r="L218" s="120"/>
+      <c r="M218" s="115"/>
+      <c r="N218" s="129"/>
       <c r="O218" s="18"/>
       <c r="P218" s="18"/>
       <c r="Q218" s="18"/>
@@ -31653,19 +31684,19 @@
       <c r="C219" s="2"/>
       <c r="D219" s="46"/>
       <c r="E219" s="58"/>
-      <c r="F219" s="167" t="s">
+      <c r="F219" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="G219" s="168"/>
-      <c r="H219" s="137"/>
-      <c r="I219" s="137"/>
-      <c r="J219" s="108"/>
-      <c r="K219" s="108"/>
-      <c r="L219" s="108" t="s">
+      <c r="G219" s="124"/>
+      <c r="H219" s="111"/>
+      <c r="I219" s="111"/>
+      <c r="J219" s="119"/>
+      <c r="K219" s="119"/>
+      <c r="L219" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M219" s="108"/>
-      <c r="N219" s="139"/>
+      <c r="M219" s="119"/>
+      <c r="N219" s="142"/>
       <c r="O219" s="18"/>
       <c r="P219" s="18"/>
       <c r="Q219" s="18"/>
@@ -31784,15 +31815,15 @@
       <c r="C220" s="2"/>
       <c r="D220" s="46"/>
       <c r="E220" s="63"/>
-      <c r="F220" s="169"/>
-      <c r="G220" s="170"/>
-      <c r="H220" s="137"/>
-      <c r="I220" s="137"/>
-      <c r="J220" s="109"/>
-      <c r="K220" s="109"/>
-      <c r="L220" s="109"/>
-      <c r="M220" s="109"/>
-      <c r="N220" s="139"/>
+      <c r="F220" s="125"/>
+      <c r="G220" s="126"/>
+      <c r="H220" s="111"/>
+      <c r="I220" s="111"/>
+      <c r="J220" s="120"/>
+      <c r="K220" s="120"/>
+      <c r="L220" s="120"/>
+      <c r="M220" s="120"/>
+      <c r="N220" s="142"/>
       <c r="O220" s="18"/>
       <c r="P220" s="18"/>
       <c r="Q220" s="18"/>
@@ -31910,17 +31941,17 @@
       <c r="B221" s="24"/>
       <c r="C221" s="2"/>
       <c r="D221" s="46"/>
-      <c r="E221" s="165" t="s">
+      <c r="E221" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="F221" s="156"/>
-      <c r="G221" s="166"/>
-      <c r="H221" s="117"/>
-      <c r="I221" s="116"/>
-      <c r="J221" s="116"/>
-      <c r="K221" s="116"/>
-      <c r="L221" s="116"/>
-      <c r="M221" s="116"/>
+      <c r="F221" s="138"/>
+      <c r="G221" s="139"/>
+      <c r="H221" s="134"/>
+      <c r="I221" s="140"/>
+      <c r="J221" s="140"/>
+      <c r="K221" s="140"/>
+      <c r="L221" s="140"/>
+      <c r="M221" s="140"/>
       <c r="N221" s="133"/>
       <c r="O221" s="43"/>
       <c r="P221" s="43"/>
@@ -32039,15 +32070,15 @@
       <c r="B222" s="24"/>
       <c r="C222" s="2"/>
       <c r="D222" s="46"/>
-      <c r="E222" s="165"/>
-      <c r="F222" s="156"/>
-      <c r="G222" s="166"/>
-      <c r="H222" s="118"/>
-      <c r="I222" s="116"/>
-      <c r="J222" s="116"/>
-      <c r="K222" s="116"/>
-      <c r="L222" s="116"/>
-      <c r="M222" s="116"/>
+      <c r="E222" s="143"/>
+      <c r="F222" s="138"/>
+      <c r="G222" s="139"/>
+      <c r="H222" s="135"/>
+      <c r="I222" s="140"/>
+      <c r="J222" s="140"/>
+      <c r="K222" s="140"/>
+      <c r="L222" s="140"/>
+      <c r="M222" s="140"/>
       <c r="N222" s="133"/>
       <c r="O222" s="31"/>
       <c r="P222" s="31"/>
@@ -32167,19 +32198,19 @@
       <c r="C223" s="2"/>
       <c r="D223" s="46"/>
       <c r="E223" s="59"/>
-      <c r="F223" s="167" t="s">
+      <c r="F223" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G223" s="168"/>
-      <c r="H223" s="149">
+      <c r="G223" s="124"/>
+      <c r="H223" s="108">
         <v>4</v>
       </c>
-      <c r="I223" s="149"/>
-      <c r="J223" s="108"/>
-      <c r="K223" s="108"/>
-      <c r="L223" s="108"/>
-      <c r="M223" s="108"/>
-      <c r="N223" s="113"/>
+      <c r="I223" s="108"/>
+      <c r="J223" s="119"/>
+      <c r="K223" s="119"/>
+      <c r="L223" s="119"/>
+      <c r="M223" s="119"/>
+      <c r="N223" s="127"/>
       <c r="O223" s="18"/>
       <c r="P223" s="18"/>
       <c r="Q223" s="18"/>
@@ -32298,15 +32329,15 @@
       <c r="C224" s="2"/>
       <c r="D224" s="46"/>
       <c r="E224" s="60"/>
-      <c r="F224" s="169"/>
-      <c r="G224" s="170"/>
-      <c r="H224" s="150"/>
-      <c r="I224" s="150"/>
-      <c r="J224" s="109"/>
-      <c r="K224" s="109"/>
-      <c r="L224" s="109"/>
-      <c r="M224" s="109"/>
-      <c r="N224" s="114"/>
+      <c r="F224" s="125"/>
+      <c r="G224" s="126"/>
+      <c r="H224" s="109"/>
+      <c r="I224" s="109"/>
+      <c r="J224" s="120"/>
+      <c r="K224" s="120"/>
+      <c r="L224" s="120"/>
+      <c r="M224" s="120"/>
+      <c r="N224" s="128"/>
       <c r="O224" s="18"/>
       <c r="P224" s="18"/>
       <c r="Q224" s="18"/>
@@ -32426,18 +32457,18 @@
       <c r="D225" s="46"/>
       <c r="E225" s="60"/>
       <c r="F225" s="105"/>
-      <c r="G225" s="180" t="s">
+      <c r="G225" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H225" s="150"/>
-      <c r="I225" s="150"/>
-      <c r="J225" s="184"/>
-      <c r="K225" s="184"/>
-      <c r="L225" s="184"/>
-      <c r="M225" s="152" t="s">
+      <c r="H225" s="109"/>
+      <c r="I225" s="109"/>
+      <c r="J225" s="116"/>
+      <c r="K225" s="116"/>
+      <c r="L225" s="116"/>
+      <c r="M225" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="N225" s="114"/>
+      <c r="N225" s="128"/>
       <c r="O225" s="18"/>
       <c r="P225" s="18"/>
       <c r="Q225" s="18"/>
@@ -32557,14 +32588,14 @@
       <c r="D226" s="46"/>
       <c r="E226" s="60"/>
       <c r="F226" s="105"/>
-      <c r="G226" s="181"/>
-      <c r="H226" s="150"/>
-      <c r="I226" s="150"/>
-      <c r="J226" s="153"/>
-      <c r="K226" s="153"/>
-      <c r="L226" s="153"/>
-      <c r="M226" s="153"/>
-      <c r="N226" s="114"/>
+      <c r="G226" s="113"/>
+      <c r="H226" s="109"/>
+      <c r="I226" s="109"/>
+      <c r="J226" s="115"/>
+      <c r="K226" s="115"/>
+      <c r="L226" s="115"/>
+      <c r="M226" s="115"/>
+      <c r="N226" s="128"/>
       <c r="O226" s="18"/>
       <c r="P226" s="18"/>
       <c r="Q226" s="18"/>
@@ -32684,20 +32715,20 @@
       <c r="D227" s="46"/>
       <c r="E227" s="60"/>
       <c r="F227" s="105"/>
-      <c r="G227" s="182" t="s">
+      <c r="G227" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H227" s="150"/>
-      <c r="I227" s="150"/>
-      <c r="J227" s="184"/>
-      <c r="K227" s="184"/>
-      <c r="L227" s="108" t="s">
+      <c r="H227" s="109"/>
+      <c r="I227" s="109"/>
+      <c r="J227" s="116"/>
+      <c r="K227" s="116"/>
+      <c r="L227" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M227" s="152" t="s">
+      <c r="M227" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="N227" s="114"/>
+      <c r="N227" s="128"/>
       <c r="O227" s="18"/>
       <c r="P227" s="18"/>
       <c r="Q227" s="18"/>
@@ -32817,14 +32848,14 @@
       <c r="D228" s="46"/>
       <c r="E228" s="60"/>
       <c r="F228" s="105"/>
-      <c r="G228" s="183"/>
-      <c r="H228" s="151"/>
-      <c r="I228" s="151"/>
-      <c r="J228" s="153"/>
-      <c r="K228" s="153"/>
-      <c r="L228" s="109"/>
-      <c r="M228" s="153"/>
-      <c r="N228" s="115"/>
+      <c r="G228" s="118"/>
+      <c r="H228" s="110"/>
+      <c r="I228" s="110"/>
+      <c r="J228" s="115"/>
+      <c r="K228" s="115"/>
+      <c r="L228" s="120"/>
+      <c r="M228" s="115"/>
+      <c r="N228" s="129"/>
       <c r="O228" s="18"/>
       <c r="P228" s="18"/>
       <c r="Q228" s="18"/>
@@ -32943,19 +32974,19 @@
       <c r="C229" s="2"/>
       <c r="D229" s="46"/>
       <c r="E229" s="61"/>
-      <c r="F229" s="167" t="s">
+      <c r="F229" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="G229" s="168"/>
-      <c r="H229" s="149">
+      <c r="G229" s="124"/>
+      <c r="H229" s="108">
         <v>4</v>
       </c>
-      <c r="I229" s="149"/>
-      <c r="J229" s="119"/>
-      <c r="K229" s="119"/>
-      <c r="L229" s="119"/>
-      <c r="M229" s="108"/>
-      <c r="N229" s="113"/>
+      <c r="I229" s="108"/>
+      <c r="J229" s="121"/>
+      <c r="K229" s="121"/>
+      <c r="L229" s="121"/>
+      <c r="M229" s="119"/>
+      <c r="N229" s="127"/>
       <c r="O229" s="18"/>
       <c r="P229" s="18"/>
       <c r="Q229" s="18"/>
@@ -33074,15 +33105,15 @@
       <c r="C230" s="2"/>
       <c r="D230" s="46"/>
       <c r="E230" s="58"/>
-      <c r="F230" s="169"/>
-      <c r="G230" s="170"/>
-      <c r="H230" s="150"/>
-      <c r="I230" s="150"/>
-      <c r="J230" s="120"/>
-      <c r="K230" s="120"/>
-      <c r="L230" s="120"/>
-      <c r="M230" s="109"/>
-      <c r="N230" s="114"/>
+      <c r="F230" s="125"/>
+      <c r="G230" s="126"/>
+      <c r="H230" s="109"/>
+      <c r="I230" s="109"/>
+      <c r="J230" s="122"/>
+      <c r="K230" s="122"/>
+      <c r="L230" s="122"/>
+      <c r="M230" s="120"/>
+      <c r="N230" s="128"/>
       <c r="O230" s="18"/>
       <c r="P230" s="18"/>
       <c r="Q230" s="18"/>
@@ -33202,22 +33233,22 @@
       <c r="D231" s="46"/>
       <c r="E231" s="60"/>
       <c r="F231" s="105"/>
-      <c r="G231" s="180" t="s">
+      <c r="G231" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H231" s="150"/>
-      <c r="I231" s="150"/>
-      <c r="J231" s="119" t="s">
+      <c r="H231" s="109"/>
+      <c r="I231" s="109"/>
+      <c r="J231" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="K231" s="184"/>
-      <c r="L231" s="119" t="s">
+      <c r="K231" s="116"/>
+      <c r="L231" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="M231" s="108" t="s">
+      <c r="M231" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="N231" s="114"/>
+      <c r="N231" s="128"/>
       <c r="O231" s="18"/>
       <c r="P231" s="18"/>
       <c r="Q231" s="18"/>
@@ -33337,14 +33368,14 @@
       <c r="D232" s="46"/>
       <c r="E232" s="60"/>
       <c r="F232" s="105"/>
-      <c r="G232" s="181"/>
-      <c r="H232" s="150"/>
-      <c r="I232" s="150"/>
-      <c r="J232" s="120"/>
-      <c r="K232" s="153"/>
-      <c r="L232" s="120"/>
-      <c r="M232" s="109"/>
-      <c r="N232" s="114"/>
+      <c r="G232" s="113"/>
+      <c r="H232" s="109"/>
+      <c r="I232" s="109"/>
+      <c r="J232" s="122"/>
+      <c r="K232" s="115"/>
+      <c r="L232" s="122"/>
+      <c r="M232" s="120"/>
+      <c r="N232" s="128"/>
       <c r="O232" s="18"/>
       <c r="P232" s="18"/>
       <c r="Q232" s="18"/>
@@ -33464,22 +33495,22 @@
       <c r="D233" s="46"/>
       <c r="E233" s="60"/>
       <c r="F233" s="105"/>
-      <c r="G233" s="182" t="s">
+      <c r="G233" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H233" s="150"/>
-      <c r="I233" s="150"/>
-      <c r="J233" s="119" t="s">
+      <c r="H233" s="109"/>
+      <c r="I233" s="109"/>
+      <c r="J233" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="K233" s="184"/>
-      <c r="L233" s="119" t="s">
+      <c r="K233" s="116"/>
+      <c r="L233" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="M233" s="108" t="s">
+      <c r="M233" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="N233" s="114"/>
+      <c r="N233" s="128"/>
       <c r="O233" s="18"/>
       <c r="P233" s="18"/>
       <c r="Q233" s="18"/>
@@ -33599,14 +33630,14 @@
       <c r="D234" s="46"/>
       <c r="E234" s="60"/>
       <c r="F234" s="105"/>
-      <c r="G234" s="183"/>
-      <c r="H234" s="151"/>
-      <c r="I234" s="151"/>
-      <c r="J234" s="120"/>
-      <c r="K234" s="153"/>
-      <c r="L234" s="120"/>
-      <c r="M234" s="109"/>
-      <c r="N234" s="115"/>
+      <c r="G234" s="118"/>
+      <c r="H234" s="110"/>
+      <c r="I234" s="110"/>
+      <c r="J234" s="122"/>
+      <c r="K234" s="115"/>
+      <c r="L234" s="122"/>
+      <c r="M234" s="120"/>
+      <c r="N234" s="129"/>
       <c r="O234" s="18"/>
       <c r="P234" s="18"/>
       <c r="Q234" s="18"/>
@@ -33725,19 +33756,19 @@
       <c r="C235" s="2"/>
       <c r="D235" s="46"/>
       <c r="E235" s="58"/>
-      <c r="F235" s="167" t="s">
+      <c r="F235" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="G235" s="168"/>
-      <c r="H235" s="149">
+      <c r="G235" s="124"/>
+      <c r="H235" s="108">
         <v>3</v>
       </c>
-      <c r="I235" s="149"/>
-      <c r="J235" s="108"/>
-      <c r="K235" s="108"/>
-      <c r="L235" s="108"/>
-      <c r="M235" s="108"/>
-      <c r="N235" s="113"/>
+      <c r="I235" s="108"/>
+      <c r="J235" s="119"/>
+      <c r="K235" s="119"/>
+      <c r="L235" s="119"/>
+      <c r="M235" s="119"/>
+      <c r="N235" s="127"/>
       <c r="O235" s="18"/>
       <c r="P235" s="18"/>
       <c r="Q235" s="18"/>
@@ -33855,15 +33886,15 @@
       <c r="C236" s="2"/>
       <c r="D236" s="46"/>
       <c r="E236" s="58"/>
-      <c r="F236" s="169"/>
-      <c r="G236" s="170"/>
-      <c r="H236" s="150"/>
-      <c r="I236" s="150"/>
-      <c r="J236" s="109"/>
-      <c r="K236" s="109"/>
-      <c r="L236" s="109"/>
-      <c r="M236" s="109"/>
-      <c r="N236" s="114"/>
+      <c r="F236" s="125"/>
+      <c r="G236" s="126"/>
+      <c r="H236" s="109"/>
+      <c r="I236" s="109"/>
+      <c r="J236" s="120"/>
+      <c r="K236" s="120"/>
+      <c r="L236" s="120"/>
+      <c r="M236" s="120"/>
+      <c r="N236" s="128"/>
       <c r="O236" s="18"/>
       <c r="P236" s="18"/>
       <c r="Q236" s="18"/>
@@ -33983,20 +34014,20 @@
       <c r="D237" s="46"/>
       <c r="E237" s="60"/>
       <c r="F237" s="105"/>
-      <c r="G237" s="180" t="s">
+      <c r="G237" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H237" s="150"/>
-      <c r="I237" s="150"/>
-      <c r="J237" s="184"/>
-      <c r="K237" s="184"/>
-      <c r="L237" s="152" t="s">
+      <c r="H237" s="109"/>
+      <c r="I237" s="109"/>
+      <c r="J237" s="116"/>
+      <c r="K237" s="116"/>
+      <c r="L237" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="M237" s="152" t="s">
+      <c r="M237" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="N237" s="114"/>
+      <c r="N237" s="128"/>
       <c r="O237" s="18"/>
       <c r="P237" s="18"/>
       <c r="Q237" s="18"/>
@@ -34116,14 +34147,14 @@
       <c r="D238" s="46"/>
       <c r="E238" s="60"/>
       <c r="F238" s="105"/>
-      <c r="G238" s="181"/>
-      <c r="H238" s="150"/>
-      <c r="I238" s="150"/>
-      <c r="J238" s="153"/>
-      <c r="K238" s="153"/>
-      <c r="L238" s="153"/>
-      <c r="M238" s="153"/>
-      <c r="N238" s="114"/>
+      <c r="G238" s="113"/>
+      <c r="H238" s="109"/>
+      <c r="I238" s="109"/>
+      <c r="J238" s="115"/>
+      <c r="K238" s="115"/>
+      <c r="L238" s="115"/>
+      <c r="M238" s="115"/>
+      <c r="N238" s="128"/>
       <c r="O238" s="18"/>
       <c r="P238" s="18"/>
       <c r="Q238" s="18"/>
@@ -34243,20 +34274,20 @@
       <c r="D239" s="46"/>
       <c r="E239" s="60"/>
       <c r="F239" s="105"/>
-      <c r="G239" s="182" t="s">
+      <c r="G239" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H239" s="150"/>
-      <c r="I239" s="150"/>
-      <c r="J239" s="184"/>
-      <c r="K239" s="184"/>
-      <c r="L239" s="108" t="s">
+      <c r="H239" s="109"/>
+      <c r="I239" s="109"/>
+      <c r="J239" s="116"/>
+      <c r="K239" s="116"/>
+      <c r="L239" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="M239" s="152" t="s">
+      <c r="M239" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="N239" s="114"/>
+      <c r="N239" s="128"/>
       <c r="O239" s="18"/>
       <c r="P239" s="18"/>
       <c r="Q239" s="18"/>
@@ -34376,14 +34407,14 @@
       <c r="D240" s="46"/>
       <c r="E240" s="60"/>
       <c r="F240" s="105"/>
-      <c r="G240" s="183"/>
-      <c r="H240" s="151"/>
-      <c r="I240" s="151"/>
-      <c r="J240" s="153"/>
-      <c r="K240" s="153"/>
-      <c r="L240" s="109"/>
-      <c r="M240" s="153"/>
-      <c r="N240" s="115"/>
+      <c r="G240" s="118"/>
+      <c r="H240" s="110"/>
+      <c r="I240" s="110"/>
+      <c r="J240" s="115"/>
+      <c r="K240" s="115"/>
+      <c r="L240" s="120"/>
+      <c r="M240" s="115"/>
+      <c r="N240" s="129"/>
       <c r="O240" s="18"/>
       <c r="P240" s="18"/>
       <c r="Q240" s="18"/>
@@ -34502,19 +34533,19 @@
       <c r="C241" s="2"/>
       <c r="D241" s="46"/>
       <c r="E241" s="58"/>
-      <c r="F241" s="167" t="s">
+      <c r="F241" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G241" s="168"/>
-      <c r="H241" s="149">
+      <c r="G241" s="124"/>
+      <c r="H241" s="108">
         <v>4</v>
       </c>
-      <c r="I241" s="149"/>
-      <c r="J241" s="108"/>
-      <c r="K241" s="108"/>
-      <c r="L241" s="108"/>
-      <c r="M241" s="108"/>
-      <c r="N241" s="113"/>
+      <c r="I241" s="108"/>
+      <c r="J241" s="119"/>
+      <c r="K241" s="119"/>
+      <c r="L241" s="119"/>
+      <c r="M241" s="119"/>
+      <c r="N241" s="127"/>
       <c r="O241" s="18"/>
       <c r="P241" s="18"/>
       <c r="Q241" s="18"/>
@@ -34632,15 +34663,15 @@
       <c r="C242" s="2"/>
       <c r="D242" s="46"/>
       <c r="E242" s="58"/>
-      <c r="F242" s="169"/>
-      <c r="G242" s="170"/>
-      <c r="H242" s="150"/>
-      <c r="I242" s="150"/>
-      <c r="J242" s="109"/>
-      <c r="K242" s="109"/>
-      <c r="L242" s="109"/>
-      <c r="M242" s="109"/>
-      <c r="N242" s="114"/>
+      <c r="F242" s="125"/>
+      <c r="G242" s="126"/>
+      <c r="H242" s="109"/>
+      <c r="I242" s="109"/>
+      <c r="J242" s="120"/>
+      <c r="K242" s="120"/>
+      <c r="L242" s="120"/>
+      <c r="M242" s="120"/>
+      <c r="N242" s="128"/>
       <c r="O242" s="18"/>
       <c r="P242" s="18"/>
       <c r="Q242" s="18"/>
@@ -34760,22 +34791,22 @@
       <c r="D243" s="46"/>
       <c r="E243" s="60"/>
       <c r="F243" s="105"/>
-      <c r="G243" s="180" t="s">
+      <c r="G243" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H243" s="150"/>
-      <c r="I243" s="150"/>
-      <c r="J243" s="152" t="s">
+      <c r="H243" s="109"/>
+      <c r="I243" s="109"/>
+      <c r="J243" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="K243" s="184"/>
-      <c r="L243" s="152" t="s">
+      <c r="K243" s="116"/>
+      <c r="L243" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="M243" s="152" t="s">
+      <c r="M243" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="N243" s="114"/>
+      <c r="N243" s="128"/>
       <c r="O243" s="18"/>
       <c r="P243" s="18"/>
       <c r="Q243" s="18"/>
@@ -34895,14 +34926,14 @@
       <c r="D244" s="46"/>
       <c r="E244" s="60"/>
       <c r="F244" s="105"/>
-      <c r="G244" s="181"/>
-      <c r="H244" s="150"/>
-      <c r="I244" s="150"/>
-      <c r="J244" s="153"/>
-      <c r="K244" s="153"/>
-      <c r="L244" s="153"/>
-      <c r="M244" s="153"/>
-      <c r="N244" s="114"/>
+      <c r="G244" s="113"/>
+      <c r="H244" s="109"/>
+      <c r="I244" s="109"/>
+      <c r="J244" s="115"/>
+      <c r="K244" s="115"/>
+      <c r="L244" s="115"/>
+      <c r="M244" s="115"/>
+      <c r="N244" s="128"/>
       <c r="O244" s="18"/>
       <c r="P244" s="18"/>
       <c r="Q244" s="18"/>
@@ -35022,22 +35053,22 @@
       <c r="D245" s="46"/>
       <c r="E245" s="60"/>
       <c r="F245" s="105"/>
-      <c r="G245" s="182" t="s">
+      <c r="G245" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H245" s="150"/>
-      <c r="I245" s="150"/>
-      <c r="J245" s="108" t="s">
+      <c r="H245" s="109"/>
+      <c r="I245" s="109"/>
+      <c r="J245" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="K245" s="184"/>
-      <c r="L245" s="108" t="s">
+      <c r="K245" s="116"/>
+      <c r="L245" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="M245" s="152" t="s">
+      <c r="M245" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="N245" s="114"/>
+      <c r="N245" s="128"/>
       <c r="O245" s="18"/>
       <c r="P245" s="18"/>
       <c r="Q245" s="18"/>
@@ -35157,14 +35188,14 @@
       <c r="D246" s="46"/>
       <c r="E246" s="60"/>
       <c r="F246" s="105"/>
-      <c r="G246" s="183"/>
-      <c r="H246" s="151"/>
-      <c r="I246" s="151"/>
-      <c r="J246" s="109"/>
-      <c r="K246" s="153"/>
-      <c r="L246" s="109"/>
-      <c r="M246" s="153"/>
-      <c r="N246" s="115"/>
+      <c r="G246" s="118"/>
+      <c r="H246" s="110"/>
+      <c r="I246" s="110"/>
+      <c r="J246" s="120"/>
+      <c r="K246" s="115"/>
+      <c r="L246" s="120"/>
+      <c r="M246" s="115"/>
+      <c r="N246" s="129"/>
       <c r="O246" s="18"/>
       <c r="P246" s="18"/>
       <c r="Q246" s="18"/>
@@ -35283,19 +35314,19 @@
       <c r="C247" s="2"/>
       <c r="D247" s="46"/>
       <c r="E247" s="58"/>
-      <c r="F247" s="167" t="s">
+      <c r="F247" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="G247" s="168"/>
-      <c r="H247" s="137"/>
-      <c r="I247" s="137"/>
-      <c r="J247" s="108"/>
-      <c r="K247" s="108"/>
-      <c r="L247" s="108" t="s">
+      <c r="G247" s="124"/>
+      <c r="H247" s="111"/>
+      <c r="I247" s="111"/>
+      <c r="J247" s="119"/>
+      <c r="K247" s="119"/>
+      <c r="L247" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="M247" s="108"/>
-      <c r="N247" s="139"/>
+      <c r="M247" s="119"/>
+      <c r="N247" s="142"/>
       <c r="O247" s="18"/>
       <c r="P247" s="18"/>
       <c r="Q247" s="18"/>
@@ -35414,15 +35445,15 @@
       <c r="C248" s="2"/>
       <c r="D248" s="46"/>
       <c r="E248" s="63"/>
-      <c r="F248" s="169"/>
-      <c r="G248" s="170"/>
-      <c r="H248" s="137"/>
-      <c r="I248" s="137"/>
-      <c r="J248" s="109"/>
-      <c r="K248" s="109"/>
-      <c r="L248" s="109"/>
-      <c r="M248" s="109"/>
-      <c r="N248" s="139"/>
+      <c r="F248" s="125"/>
+      <c r="G248" s="126"/>
+      <c r="H248" s="111"/>
+      <c r="I248" s="111"/>
+      <c r="J248" s="120"/>
+      <c r="K248" s="120"/>
+      <c r="L248" s="120"/>
+      <c r="M248" s="120"/>
+      <c r="N248" s="142"/>
       <c r="O248" s="18"/>
       <c r="P248" s="18"/>
       <c r="Q248" s="18"/>
@@ -35538,19 +35569,19 @@
     <row r="249" spans="1:125" ht="9.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="24"/>
-      <c r="C249" s="163" t="s">
+      <c r="C249" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="D249" s="126"/>
-      <c r="E249" s="132"/>
-      <c r="F249" s="132"/>
-      <c r="G249" s="132"/>
-      <c r="H249" s="117"/>
-      <c r="I249" s="116"/>
-      <c r="J249" s="116"/>
-      <c r="K249" s="116"/>
-      <c r="L249" s="116"/>
-      <c r="M249" s="116"/>
+      <c r="D249" s="159"/>
+      <c r="E249" s="166"/>
+      <c r="F249" s="166"/>
+      <c r="G249" s="166"/>
+      <c r="H249" s="134"/>
+      <c r="I249" s="140"/>
+      <c r="J249" s="140"/>
+      <c r="K249" s="140"/>
+      <c r="L249" s="140"/>
+      <c r="M249" s="140"/>
       <c r="N249" s="133"/>
       <c r="O249" s="43"/>
       <c r="P249" s="43"/>
@@ -35667,17 +35698,17 @@
     <row r="250" spans="1:125" ht="9.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="24"/>
-      <c r="C250" s="128"/>
-      <c r="D250" s="128"/>
-      <c r="E250" s="128"/>
-      <c r="F250" s="128"/>
-      <c r="G250" s="128"/>
-      <c r="H250" s="118"/>
-      <c r="I250" s="116"/>
-      <c r="J250" s="116"/>
-      <c r="K250" s="116"/>
-      <c r="L250" s="116"/>
-      <c r="M250" s="116"/>
+      <c r="C250" s="161"/>
+      <c r="D250" s="161"/>
+      <c r="E250" s="161"/>
+      <c r="F250" s="161"/>
+      <c r="G250" s="161"/>
+      <c r="H250" s="135"/>
+      <c r="I250" s="140"/>
+      <c r="J250" s="140"/>
+      <c r="K250" s="140"/>
+      <c r="L250" s="140"/>
+      <c r="M250" s="140"/>
       <c r="N250" s="133"/>
       <c r="O250" s="31"/>
       <c r="P250" s="31"/>
@@ -35793,20 +35824,20 @@
     </row>
     <row r="251" spans="1:125" ht="9.75" customHeight="1">
       <c r="A251" s="2"/>
-      <c r="B251" s="164" t="s">
+      <c r="B251" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="C251" s="126"/>
-      <c r="D251" s="126"/>
-      <c r="E251" s="126"/>
-      <c r="F251" s="126"/>
-      <c r="G251" s="140"/>
-      <c r="H251" s="117"/>
-      <c r="I251" s="116"/>
-      <c r="J251" s="116"/>
-      <c r="K251" s="116"/>
-      <c r="L251" s="116"/>
-      <c r="M251" s="116"/>
+      <c r="C251" s="159"/>
+      <c r="D251" s="159"/>
+      <c r="E251" s="159"/>
+      <c r="F251" s="159"/>
+      <c r="G251" s="168"/>
+      <c r="H251" s="134"/>
+      <c r="I251" s="140"/>
+      <c r="J251" s="140"/>
+      <c r="K251" s="140"/>
+      <c r="L251" s="140"/>
+      <c r="M251" s="140"/>
       <c r="N251" s="133"/>
       <c r="O251" s="43"/>
       <c r="P251" s="43"/>
@@ -35922,18 +35953,18 @@
     </row>
     <row r="252" spans="1:125" ht="9.75" customHeight="1">
       <c r="A252" s="2"/>
-      <c r="B252" s="127"/>
-      <c r="C252" s="128"/>
-      <c r="D252" s="128"/>
-      <c r="E252" s="128"/>
-      <c r="F252" s="128"/>
-      <c r="G252" s="141"/>
-      <c r="H252" s="118"/>
-      <c r="I252" s="116"/>
-      <c r="J252" s="116"/>
-      <c r="K252" s="116"/>
-      <c r="L252" s="116"/>
-      <c r="M252" s="116"/>
+      <c r="B252" s="160"/>
+      <c r="C252" s="161"/>
+      <c r="D252" s="161"/>
+      <c r="E252" s="161"/>
+      <c r="F252" s="161"/>
+      <c r="G252" s="169"/>
+      <c r="H252" s="135"/>
+      <c r="I252" s="140"/>
+      <c r="J252" s="140"/>
+      <c r="K252" s="140"/>
+      <c r="L252" s="140"/>
+      <c r="M252" s="140"/>
       <c r="N252" s="133"/>
       <c r="O252" s="31"/>
       <c r="P252" s="31"/>
@@ -36050,19 +36081,19 @@
     <row r="253" spans="1:125" ht="9.75" customHeight="1">
       <c r="A253" s="19"/>
       <c r="B253" s="24"/>
-      <c r="C253" s="148" t="s">
+      <c r="C253" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="D253" s="126"/>
-      <c r="E253" s="126"/>
-      <c r="F253" s="126"/>
-      <c r="G253" s="126"/>
-      <c r="H253" s="117"/>
-      <c r="I253" s="116"/>
-      <c r="J253" s="116"/>
-      <c r="K253" s="116"/>
-      <c r="L253" s="116"/>
-      <c r="M253" s="116"/>
+      <c r="D253" s="159"/>
+      <c r="E253" s="159"/>
+      <c r="F253" s="159"/>
+      <c r="G253" s="159"/>
+      <c r="H253" s="134"/>
+      <c r="I253" s="140"/>
+      <c r="J253" s="140"/>
+      <c r="K253" s="140"/>
+      <c r="L253" s="140"/>
+      <c r="M253" s="140"/>
       <c r="N253" s="133"/>
       <c r="O253" s="43"/>
       <c r="P253" s="43"/>
@@ -36179,17 +36210,17 @@
     <row r="254" spans="1:125" ht="9.75" customHeight="1">
       <c r="A254" s="19"/>
       <c r="B254" s="54"/>
-      <c r="C254" s="128"/>
-      <c r="D254" s="128"/>
-      <c r="E254" s="128"/>
-      <c r="F254" s="128"/>
-      <c r="G254" s="128"/>
-      <c r="H254" s="118"/>
-      <c r="I254" s="116"/>
-      <c r="J254" s="116"/>
-      <c r="K254" s="116"/>
-      <c r="L254" s="116"/>
-      <c r="M254" s="116"/>
+      <c r="C254" s="161"/>
+      <c r="D254" s="161"/>
+      <c r="E254" s="161"/>
+      <c r="F254" s="161"/>
+      <c r="G254" s="161"/>
+      <c r="H254" s="135"/>
+      <c r="I254" s="140"/>
+      <c r="J254" s="140"/>
+      <c r="K254" s="140"/>
+      <c r="L254" s="140"/>
+      <c r="M254" s="140"/>
       <c r="N254" s="133"/>
       <c r="O254" s="31"/>
       <c r="P254" s="31"/>
@@ -49613,290 +49644,562 @@
     </row>
   </sheetData>
   <mergeCells count="866">
-    <mergeCell ref="H97:H102"/>
-    <mergeCell ref="I97:I102"/>
-    <mergeCell ref="I131:I136"/>
-    <mergeCell ref="H131:H136"/>
-    <mergeCell ref="I125:I130"/>
-    <mergeCell ref="H125:H130"/>
-    <mergeCell ref="I119:I124"/>
-    <mergeCell ref="H119:H124"/>
-    <mergeCell ref="I113:I118"/>
-    <mergeCell ref="H113:H118"/>
-    <mergeCell ref="I107:I112"/>
-    <mergeCell ref="H107:H112"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="J243:J244"/>
-    <mergeCell ref="K243:K244"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="M243:M244"/>
-    <mergeCell ref="G245:G246"/>
-    <mergeCell ref="J245:J246"/>
-    <mergeCell ref="K245:K246"/>
-    <mergeCell ref="L245:L246"/>
-    <mergeCell ref="M245:M246"/>
-    <mergeCell ref="I241:I246"/>
-    <mergeCell ref="H241:H246"/>
-    <mergeCell ref="K241:K242"/>
-    <mergeCell ref="G237:G238"/>
-    <mergeCell ref="J237:J238"/>
-    <mergeCell ref="K237:K238"/>
-    <mergeCell ref="L237:L238"/>
-    <mergeCell ref="M237:M238"/>
-    <mergeCell ref="G239:G240"/>
-    <mergeCell ref="J239:J240"/>
-    <mergeCell ref="K239:K240"/>
-    <mergeCell ref="L239:L240"/>
-    <mergeCell ref="M239:M240"/>
-    <mergeCell ref="I235:I240"/>
-    <mergeCell ref="H235:H240"/>
-    <mergeCell ref="M235:M236"/>
-    <mergeCell ref="K235:K236"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="J231:J232"/>
-    <mergeCell ref="K231:K232"/>
-    <mergeCell ref="L231:L232"/>
-    <mergeCell ref="M231:M232"/>
-    <mergeCell ref="G233:G234"/>
-    <mergeCell ref="J233:J234"/>
-    <mergeCell ref="K233:K234"/>
-    <mergeCell ref="L233:L234"/>
-    <mergeCell ref="M233:M234"/>
-    <mergeCell ref="I229:I234"/>
-    <mergeCell ref="H229:H234"/>
-    <mergeCell ref="M229:M230"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="J225:J226"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="L225:L226"/>
-    <mergeCell ref="M225:M226"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="I223:I228"/>
-    <mergeCell ref="H223:H228"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="J215:J216"/>
-    <mergeCell ref="K215:K216"/>
-    <mergeCell ref="L215:L216"/>
-    <mergeCell ref="M215:M216"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="J217:J218"/>
-    <mergeCell ref="K217:K218"/>
-    <mergeCell ref="L217:L218"/>
-    <mergeCell ref="M217:M218"/>
-    <mergeCell ref="I213:I218"/>
-    <mergeCell ref="H213:H218"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="J209:J210"/>
-    <mergeCell ref="K209:K210"/>
-    <mergeCell ref="L209:L210"/>
-    <mergeCell ref="M209:M210"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="I207:I212"/>
-    <mergeCell ref="H207:H212"/>
-    <mergeCell ref="M207:M208"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="J203:J204"/>
-    <mergeCell ref="K203:K204"/>
-    <mergeCell ref="L203:L204"/>
-    <mergeCell ref="M203:M204"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="J205:J206"/>
-    <mergeCell ref="K205:K206"/>
-    <mergeCell ref="L205:L206"/>
-    <mergeCell ref="M205:M206"/>
-    <mergeCell ref="I201:I206"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="M201:M202"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="J197:J198"/>
-    <mergeCell ref="K197:K198"/>
-    <mergeCell ref="L197:L198"/>
-    <mergeCell ref="M197:M198"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="J199:J200"/>
-    <mergeCell ref="K199:K200"/>
-    <mergeCell ref="L199:L200"/>
-    <mergeCell ref="M199:M200"/>
-    <mergeCell ref="I195:I200"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="J181:J182"/>
-    <mergeCell ref="K181:K182"/>
-    <mergeCell ref="L181:L182"/>
-    <mergeCell ref="M181:M182"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="L185:L186"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="I183:I188"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="I177:I182"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="J175:J176"/>
-    <mergeCell ref="K175:K176"/>
-    <mergeCell ref="L175:L176"/>
-    <mergeCell ref="M175:M176"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="J179:J180"/>
-    <mergeCell ref="K179:K180"/>
-    <mergeCell ref="L179:L180"/>
-    <mergeCell ref="M179:M180"/>
-    <mergeCell ref="I171:I176"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="F177:G178"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="L177:L178"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="L173:L174"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="I165:I170"/>
-    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="N165:N170"/>
+    <mergeCell ref="N177:N182"/>
+    <mergeCell ref="M221:M222"/>
+    <mergeCell ref="N221:N222"/>
+    <mergeCell ref="M223:M224"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="N213:N218"/>
+    <mergeCell ref="N207:N212"/>
+    <mergeCell ref="N201:N206"/>
+    <mergeCell ref="N195:N200"/>
+    <mergeCell ref="N171:N176"/>
+    <mergeCell ref="L249:L250"/>
+    <mergeCell ref="L251:L252"/>
+    <mergeCell ref="L253:L254"/>
+    <mergeCell ref="L191:L192"/>
+    <mergeCell ref="L193:L194"/>
+    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="L201:L202"/>
+    <mergeCell ref="L207:L208"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="L221:L222"/>
+    <mergeCell ref="L223:L224"/>
+    <mergeCell ref="L229:L230"/>
     <mergeCell ref="M171:M172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="F171:G172"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="I159:I164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="M159:M160"/>
-    <mergeCell ref="F159:G160"/>
-    <mergeCell ref="F165:G166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="M161:M162"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="I149:I154"/>
-    <mergeCell ref="H149:H154"/>
-    <mergeCell ref="I143:I148"/>
-    <mergeCell ref="H143:H148"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="N149:N154"/>
-    <mergeCell ref="N143:N148"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="N141:N142"/>
-    <mergeCell ref="M143:M144"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="E141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="M141:M142"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="N125:N130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="N131:N136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="M121:M122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="J253:J254"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="J195:J196"/>
-    <mergeCell ref="J201:J202"/>
-    <mergeCell ref="J207:J208"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="J221:J222"/>
-    <mergeCell ref="J223:J224"/>
-    <mergeCell ref="J229:J230"/>
+    <mergeCell ref="K249:K250"/>
+    <mergeCell ref="K251:K252"/>
+    <mergeCell ref="K253:K254"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="K201:K202"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="K221:K222"/>
+    <mergeCell ref="K223:K224"/>
+    <mergeCell ref="K229:K230"/>
+    <mergeCell ref="O3:CO3"/>
+    <mergeCell ref="CP3:DT3"/>
+    <mergeCell ref="O4:AF4"/>
+    <mergeCell ref="AG4:BJ4"/>
+    <mergeCell ref="BK4:CO4"/>
+    <mergeCell ref="CP4:DT4"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="D15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="D17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="E67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="C77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="E81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="H91:H96"/>
+    <mergeCell ref="E83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="I91:I96"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N91:N96"/>
+    <mergeCell ref="N97:N102"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="N119:N124"/>
+    <mergeCell ref="N113:N118"/>
+    <mergeCell ref="N107:N112"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="M193:M194"/>
+    <mergeCell ref="N193:N194"/>
+    <mergeCell ref="M195:M196"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="M137:M138"/>
+    <mergeCell ref="N137:N138"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="M191:M192"/>
+    <mergeCell ref="N191:N192"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="M139:M140"/>
+    <mergeCell ref="N139:N140"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="N219:N220"/>
+    <mergeCell ref="K247:K248"/>
+    <mergeCell ref="J235:J236"/>
+    <mergeCell ref="J241:J242"/>
+    <mergeCell ref="J247:J248"/>
+    <mergeCell ref="L235:L236"/>
+    <mergeCell ref="L241:L242"/>
+    <mergeCell ref="L247:L248"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="N241:N246"/>
+    <mergeCell ref="N235:N240"/>
+    <mergeCell ref="N229:N234"/>
+    <mergeCell ref="N223:N228"/>
+    <mergeCell ref="C253:G254"/>
+    <mergeCell ref="H253:H254"/>
+    <mergeCell ref="I253:I254"/>
+    <mergeCell ref="M253:M254"/>
+    <mergeCell ref="N253:N254"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="C249:G250"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="I249:I250"/>
+    <mergeCell ref="M249:M250"/>
+    <mergeCell ref="N249:N250"/>
+    <mergeCell ref="B251:G252"/>
+    <mergeCell ref="H251:H252"/>
+    <mergeCell ref="I251:I252"/>
+    <mergeCell ref="M251:M252"/>
+    <mergeCell ref="N251:N252"/>
+    <mergeCell ref="M241:M242"/>
+    <mergeCell ref="H247:H248"/>
+    <mergeCell ref="I247:I248"/>
+    <mergeCell ref="M247:M248"/>
+    <mergeCell ref="N247:N248"/>
+    <mergeCell ref="E221:G222"/>
+    <mergeCell ref="F247:G248"/>
+    <mergeCell ref="F241:G242"/>
+    <mergeCell ref="F235:G236"/>
+    <mergeCell ref="F229:G230"/>
+    <mergeCell ref="F223:G224"/>
+    <mergeCell ref="F103:G104"/>
+    <mergeCell ref="F97:G98"/>
+    <mergeCell ref="E105:G106"/>
+    <mergeCell ref="F137:G138"/>
+    <mergeCell ref="F131:G132"/>
+    <mergeCell ref="F125:G126"/>
+    <mergeCell ref="F119:G120"/>
+    <mergeCell ref="F113:G114"/>
+    <mergeCell ref="F107:G108"/>
+    <mergeCell ref="F219:G220"/>
+    <mergeCell ref="F201:G202"/>
+    <mergeCell ref="F207:G208"/>
+    <mergeCell ref="F213:G214"/>
+    <mergeCell ref="F195:G196"/>
+    <mergeCell ref="D139:G140"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="D191:G192"/>
+    <mergeCell ref="E193:G194"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="F149:G150"/>
+    <mergeCell ref="M149:M150"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="F155:G156"/>
+    <mergeCell ref="E157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="M153:M154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="F183:G184"/>
+    <mergeCell ref="M183:M184"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="L187:L188"/>
+    <mergeCell ref="M187:M188"/>
+    <mergeCell ref="N183:N188"/>
     <mergeCell ref="G95:G96"/>
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="G99:G100"/>
@@ -49921,564 +50224,292 @@
     <mergeCell ref="H105:H106"/>
     <mergeCell ref="I105:I106"/>
     <mergeCell ref="F189:G190"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="F183:G184"/>
-    <mergeCell ref="M183:M184"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="J183:J184"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="K187:K188"/>
-    <mergeCell ref="L187:L188"/>
-    <mergeCell ref="M187:M188"/>
-    <mergeCell ref="N183:N188"/>
-    <mergeCell ref="F149:G150"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="F155:G156"/>
-    <mergeCell ref="E157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="M153:M154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="F247:G248"/>
-    <mergeCell ref="F241:G242"/>
-    <mergeCell ref="F235:G236"/>
-    <mergeCell ref="F229:G230"/>
-    <mergeCell ref="F223:G224"/>
-    <mergeCell ref="F103:G104"/>
-    <mergeCell ref="F97:G98"/>
-    <mergeCell ref="E105:G106"/>
-    <mergeCell ref="F137:G138"/>
-    <mergeCell ref="F131:G132"/>
-    <mergeCell ref="F125:G126"/>
-    <mergeCell ref="F119:G120"/>
-    <mergeCell ref="F113:G114"/>
-    <mergeCell ref="F107:G108"/>
-    <mergeCell ref="F219:G220"/>
-    <mergeCell ref="F201:G202"/>
-    <mergeCell ref="F207:G208"/>
-    <mergeCell ref="F213:G214"/>
-    <mergeCell ref="F195:G196"/>
-    <mergeCell ref="D139:G140"/>
-    <mergeCell ref="F143:G144"/>
-    <mergeCell ref="D191:G192"/>
-    <mergeCell ref="E193:G194"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="C253:G254"/>
-    <mergeCell ref="H253:H254"/>
-    <mergeCell ref="I253:I254"/>
-    <mergeCell ref="M253:M254"/>
-    <mergeCell ref="N253:N254"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="C249:G250"/>
-    <mergeCell ref="H249:H250"/>
-    <mergeCell ref="I249:I250"/>
-    <mergeCell ref="M249:M250"/>
-    <mergeCell ref="N249:N250"/>
-    <mergeCell ref="B251:G252"/>
-    <mergeCell ref="H251:H252"/>
-    <mergeCell ref="I251:I252"/>
-    <mergeCell ref="M251:M252"/>
-    <mergeCell ref="N251:N252"/>
-    <mergeCell ref="M241:M242"/>
-    <mergeCell ref="H247:H248"/>
-    <mergeCell ref="I247:I248"/>
-    <mergeCell ref="M247:M248"/>
-    <mergeCell ref="N247:N248"/>
-    <mergeCell ref="E221:G222"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="N219:N220"/>
-    <mergeCell ref="K247:K248"/>
-    <mergeCell ref="J235:J236"/>
-    <mergeCell ref="J241:J242"/>
-    <mergeCell ref="J247:J248"/>
-    <mergeCell ref="L235:L236"/>
-    <mergeCell ref="L241:L242"/>
-    <mergeCell ref="L247:L248"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="I221:I222"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="M193:M194"/>
-    <mergeCell ref="N193:N194"/>
-    <mergeCell ref="M195:M196"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="M137:M138"/>
-    <mergeCell ref="N137:N138"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="M191:M192"/>
-    <mergeCell ref="N191:N192"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="M139:M140"/>
-    <mergeCell ref="N139:N140"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="N119:N124"/>
-    <mergeCell ref="N113:N118"/>
-    <mergeCell ref="N107:N112"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N91:N96"/>
-    <mergeCell ref="N97:N102"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="H91:H96"/>
-    <mergeCell ref="E83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="I91:I96"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="E81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="C77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="D17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="O3:CO3"/>
-    <mergeCell ref="CP3:DT3"/>
-    <mergeCell ref="O4:AF4"/>
-    <mergeCell ref="AG4:BJ4"/>
-    <mergeCell ref="BK4:CO4"/>
-    <mergeCell ref="CP4:DT4"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K249:K250"/>
-    <mergeCell ref="K251:K252"/>
-    <mergeCell ref="K253:K254"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="K195:K196"/>
-    <mergeCell ref="K201:K202"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="K221:K222"/>
-    <mergeCell ref="K223:K224"/>
-    <mergeCell ref="K229:K230"/>
-    <mergeCell ref="L249:L250"/>
-    <mergeCell ref="L251:L252"/>
-    <mergeCell ref="L253:L254"/>
-    <mergeCell ref="L191:L192"/>
-    <mergeCell ref="L193:L194"/>
-    <mergeCell ref="L195:L196"/>
-    <mergeCell ref="L201:L202"/>
-    <mergeCell ref="L207:L208"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="L221:L222"/>
-    <mergeCell ref="L223:L224"/>
-    <mergeCell ref="L229:L230"/>
+    <mergeCell ref="J253:J254"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="J201:J202"/>
+    <mergeCell ref="J207:J208"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="J221:J222"/>
+    <mergeCell ref="J223:J224"/>
+    <mergeCell ref="J229:J230"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="M121:M122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="N125:N130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="N131:N136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="N141:N142"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="E141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="I149:I154"/>
+    <mergeCell ref="H149:H154"/>
+    <mergeCell ref="I143:I148"/>
+    <mergeCell ref="H143:H148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="N149:N154"/>
+    <mergeCell ref="N143:N148"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="M163:M164"/>
     <mergeCell ref="L161:L162"/>
     <mergeCell ref="L151:L152"/>
     <mergeCell ref="N159:N164"/>
-    <mergeCell ref="N213:N218"/>
-    <mergeCell ref="N207:N212"/>
-    <mergeCell ref="N201:N206"/>
-    <mergeCell ref="N195:N200"/>
-    <mergeCell ref="N241:N246"/>
-    <mergeCell ref="N235:N240"/>
-    <mergeCell ref="N229:N234"/>
-    <mergeCell ref="N223:N228"/>
-    <mergeCell ref="N171:N176"/>
-    <mergeCell ref="N165:N170"/>
-    <mergeCell ref="N177:N182"/>
-    <mergeCell ref="M221:M222"/>
-    <mergeCell ref="N221:N222"/>
-    <mergeCell ref="M223:M224"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="I159:I164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="M159:M160"/>
+    <mergeCell ref="F159:G160"/>
+    <mergeCell ref="F165:G166"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="M161:M162"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="I165:I170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="F171:G172"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="L175:L176"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="L179:L180"/>
+    <mergeCell ref="M179:M180"/>
+    <mergeCell ref="I171:I176"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="F177:G178"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="L177:L178"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="L181:L182"/>
+    <mergeCell ref="M181:M182"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="I183:I188"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="I177:I182"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="K197:K198"/>
+    <mergeCell ref="L197:L198"/>
+    <mergeCell ref="M197:M198"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="L199:L200"/>
+    <mergeCell ref="M199:M200"/>
+    <mergeCell ref="I195:I200"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="J203:J204"/>
+    <mergeCell ref="K203:K204"/>
+    <mergeCell ref="L203:L204"/>
+    <mergeCell ref="M203:M204"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="J205:J206"/>
+    <mergeCell ref="K205:K206"/>
+    <mergeCell ref="L205:L206"/>
+    <mergeCell ref="M205:M206"/>
+    <mergeCell ref="I201:I206"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="M201:M202"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="K209:K210"/>
+    <mergeCell ref="L209:L210"/>
+    <mergeCell ref="M209:M210"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="I207:I212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="M207:M208"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="K215:K216"/>
+    <mergeCell ref="L215:L216"/>
+    <mergeCell ref="M215:M216"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="J217:J218"/>
+    <mergeCell ref="K217:K218"/>
+    <mergeCell ref="L217:L218"/>
+    <mergeCell ref="M217:M218"/>
+    <mergeCell ref="I213:I218"/>
+    <mergeCell ref="H213:H218"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="J225:J226"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="L225:L226"/>
+    <mergeCell ref="M225:M226"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="I223:I228"/>
+    <mergeCell ref="H223:H228"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="J231:J232"/>
+    <mergeCell ref="K231:K232"/>
+    <mergeCell ref="L231:L232"/>
+    <mergeCell ref="M231:M232"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="J233:J234"/>
+    <mergeCell ref="K233:K234"/>
+    <mergeCell ref="L233:L234"/>
+    <mergeCell ref="M233:M234"/>
+    <mergeCell ref="I229:I234"/>
+    <mergeCell ref="H229:H234"/>
+    <mergeCell ref="M229:M230"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="L237:L238"/>
+    <mergeCell ref="M237:M238"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="J239:J240"/>
+    <mergeCell ref="K239:K240"/>
+    <mergeCell ref="L239:L240"/>
+    <mergeCell ref="M239:M240"/>
+    <mergeCell ref="I235:I240"/>
+    <mergeCell ref="H235:H240"/>
+    <mergeCell ref="M235:M236"/>
+    <mergeCell ref="K235:K236"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="J243:J244"/>
+    <mergeCell ref="K243:K244"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="M243:M244"/>
+    <mergeCell ref="G245:G246"/>
+    <mergeCell ref="J245:J246"/>
+    <mergeCell ref="K245:K246"/>
+    <mergeCell ref="L245:L246"/>
+    <mergeCell ref="M245:M246"/>
+    <mergeCell ref="I241:I246"/>
+    <mergeCell ref="H241:H246"/>
+    <mergeCell ref="K241:K242"/>
+    <mergeCell ref="H97:H102"/>
+    <mergeCell ref="I97:I102"/>
+    <mergeCell ref="I131:I136"/>
+    <mergeCell ref="H131:H136"/>
+    <mergeCell ref="I125:I130"/>
+    <mergeCell ref="H125:H130"/>
+    <mergeCell ref="I119:I124"/>
+    <mergeCell ref="H119:H124"/>
+    <mergeCell ref="I113:I118"/>
+    <mergeCell ref="H113:H118"/>
+    <mergeCell ref="I107:I112"/>
+    <mergeCell ref="H107:H112"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="O7">
@@ -50690,9 +50721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF168E5-63FB-410C-B984-A34C6357BF57}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -50880,7 +50909,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -50905,7 +50934,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -50949,7 +50978,9 @@
         <f t="shared" ref="G12:G17" si="0">E12+F12</f>
         <v>3</v>
       </c>
-      <c r="H12" s="69"/>
+      <c r="H12" s="69">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="91">
@@ -50972,7 +51003,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H13" s="70"/>
+      <c r="H13" s="70">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="91">
@@ -51310,7 +51343,7 @@
       </c>
       <c r="H29" s="70">
         <f>SUM(H2:H28)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8">

--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\中日本営業第2部(全員)_FY24\20.　個人フォルダ\溝口\研修\DIGITAL-OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A9D719-E494-432C-A021-1FD3647D4943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A84A73-2F79-49E8-9A45-8F4207BDBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="133">
   <si>
     <t>予定</t>
   </si>
@@ -2008,6 +2008,113 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2017,41 +2124,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2065,70 +2175,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2149,77 +2196,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="27" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2760,10 +2760,10 @@
   <dimension ref="A1:DU364"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="AR138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="BG140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I195" sqref="I195:I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3037,120 +3037,120 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="79"/>
-      <c r="O3" s="183">
+      <c r="O3" s="124">
         <v>2024</v>
       </c>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="184"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="184"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="184"/>
-      <c r="AF3" s="184"/>
-      <c r="AG3" s="184"/>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="184"/>
-      <c r="AJ3" s="184"/>
-      <c r="AK3" s="184"/>
-      <c r="AL3" s="184"/>
-      <c r="AM3" s="184"/>
-      <c r="AN3" s="184"/>
-      <c r="AO3" s="184"/>
-      <c r="AP3" s="184"/>
-      <c r="AQ3" s="184"/>
-      <c r="AR3" s="184"/>
-      <c r="AS3" s="184"/>
-      <c r="AT3" s="184"/>
-      <c r="AU3" s="184"/>
-      <c r="AV3" s="184"/>
-      <c r="AW3" s="184"/>
-      <c r="AX3" s="184"/>
-      <c r="AY3" s="184"/>
-      <c r="AZ3" s="184"/>
-      <c r="BA3" s="184"/>
-      <c r="BB3" s="184"/>
-      <c r="BC3" s="184"/>
-      <c r="BD3" s="184"/>
-      <c r="BE3" s="184"/>
-      <c r="BF3" s="184"/>
-      <c r="BG3" s="184"/>
-      <c r="BH3" s="184"/>
-      <c r="BI3" s="184"/>
-      <c r="BJ3" s="184"/>
-      <c r="BK3" s="184"/>
-      <c r="BL3" s="184"/>
-      <c r="BM3" s="184"/>
-      <c r="BN3" s="184"/>
-      <c r="BO3" s="184"/>
-      <c r="BP3" s="184"/>
-      <c r="BQ3" s="184"/>
-      <c r="BR3" s="184"/>
-      <c r="BS3" s="184"/>
-      <c r="BT3" s="184"/>
-      <c r="BU3" s="184"/>
-      <c r="BV3" s="184"/>
-      <c r="BW3" s="184"/>
-      <c r="BX3" s="184"/>
-      <c r="BY3" s="184"/>
-      <c r="BZ3" s="184"/>
-      <c r="CA3" s="184"/>
-      <c r="CB3" s="184"/>
-      <c r="CC3" s="184"/>
-      <c r="CD3" s="184"/>
-      <c r="CE3" s="184"/>
-      <c r="CF3" s="184"/>
-      <c r="CG3" s="184"/>
-      <c r="CH3" s="184"/>
-      <c r="CI3" s="184"/>
-      <c r="CJ3" s="184"/>
-      <c r="CK3" s="184"/>
-      <c r="CL3" s="184"/>
-      <c r="CM3" s="184"/>
-      <c r="CN3" s="184"/>
-      <c r="CO3" s="185"/>
-      <c r="CP3" s="183">
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="125"/>
+      <c r="AR3" s="125"/>
+      <c r="AS3" s="125"/>
+      <c r="AT3" s="125"/>
+      <c r="AU3" s="125"/>
+      <c r="AV3" s="125"/>
+      <c r="AW3" s="125"/>
+      <c r="AX3" s="125"/>
+      <c r="AY3" s="125"/>
+      <c r="AZ3" s="125"/>
+      <c r="BA3" s="125"/>
+      <c r="BB3" s="125"/>
+      <c r="BC3" s="125"/>
+      <c r="BD3" s="125"/>
+      <c r="BE3" s="125"/>
+      <c r="BF3" s="125"/>
+      <c r="BG3" s="125"/>
+      <c r="BH3" s="125"/>
+      <c r="BI3" s="125"/>
+      <c r="BJ3" s="125"/>
+      <c r="BK3" s="125"/>
+      <c r="BL3" s="125"/>
+      <c r="BM3" s="125"/>
+      <c r="BN3" s="125"/>
+      <c r="BO3" s="125"/>
+      <c r="BP3" s="125"/>
+      <c r="BQ3" s="125"/>
+      <c r="BR3" s="125"/>
+      <c r="BS3" s="125"/>
+      <c r="BT3" s="125"/>
+      <c r="BU3" s="125"/>
+      <c r="BV3" s="125"/>
+      <c r="BW3" s="125"/>
+      <c r="BX3" s="125"/>
+      <c r="BY3" s="125"/>
+      <c r="BZ3" s="125"/>
+      <c r="CA3" s="125"/>
+      <c r="CB3" s="125"/>
+      <c r="CC3" s="125"/>
+      <c r="CD3" s="125"/>
+      <c r="CE3" s="125"/>
+      <c r="CF3" s="125"/>
+      <c r="CG3" s="125"/>
+      <c r="CH3" s="125"/>
+      <c r="CI3" s="125"/>
+      <c r="CJ3" s="125"/>
+      <c r="CK3" s="125"/>
+      <c r="CL3" s="125"/>
+      <c r="CM3" s="125"/>
+      <c r="CN3" s="125"/>
+      <c r="CO3" s="126"/>
+      <c r="CP3" s="124">
         <v>2025</v>
       </c>
-      <c r="CQ3" s="184"/>
-      <c r="CR3" s="184"/>
-      <c r="CS3" s="184"/>
-      <c r="CT3" s="184"/>
-      <c r="CU3" s="184"/>
-      <c r="CV3" s="184"/>
-      <c r="CW3" s="184"/>
-      <c r="CX3" s="184"/>
-      <c r="CY3" s="184"/>
-      <c r="CZ3" s="184"/>
-      <c r="DA3" s="184"/>
-      <c r="DB3" s="184"/>
-      <c r="DC3" s="184"/>
-      <c r="DD3" s="184"/>
-      <c r="DE3" s="184"/>
-      <c r="DF3" s="184"/>
-      <c r="DG3" s="184"/>
-      <c r="DH3" s="184"/>
-      <c r="DI3" s="184"/>
-      <c r="DJ3" s="184"/>
-      <c r="DK3" s="184"/>
-      <c r="DL3" s="184"/>
-      <c r="DM3" s="184"/>
-      <c r="DN3" s="184"/>
-      <c r="DO3" s="184"/>
-      <c r="DP3" s="184"/>
-      <c r="DQ3" s="184"/>
-      <c r="DR3" s="184"/>
-      <c r="DS3" s="184"/>
-      <c r="DT3" s="185"/>
+      <c r="CQ3" s="125"/>
+      <c r="CR3" s="125"/>
+      <c r="CS3" s="125"/>
+      <c r="CT3" s="125"/>
+      <c r="CU3" s="125"/>
+      <c r="CV3" s="125"/>
+      <c r="CW3" s="125"/>
+      <c r="CX3" s="125"/>
+      <c r="CY3" s="125"/>
+      <c r="CZ3" s="125"/>
+      <c r="DA3" s="125"/>
+      <c r="DB3" s="125"/>
+      <c r="DC3" s="125"/>
+      <c r="DD3" s="125"/>
+      <c r="DE3" s="125"/>
+      <c r="DF3" s="125"/>
+      <c r="DG3" s="125"/>
+      <c r="DH3" s="125"/>
+      <c r="DI3" s="125"/>
+      <c r="DJ3" s="125"/>
+      <c r="DK3" s="125"/>
+      <c r="DL3" s="125"/>
+      <c r="DM3" s="125"/>
+      <c r="DN3" s="125"/>
+      <c r="DO3" s="125"/>
+      <c r="DP3" s="125"/>
+      <c r="DQ3" s="125"/>
+      <c r="DR3" s="125"/>
+      <c r="DS3" s="125"/>
+      <c r="DT3" s="126"/>
       <c r="DU3" s="2"/>
     </row>
     <row r="4" spans="1:125" ht="18" customHeight="1">
@@ -3165,124 +3165,124 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="O4" s="183">
+      <c r="O4" s="124">
         <v>10</v>
       </c>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="184"/>
-      <c r="S4" s="184"/>
-      <c r="T4" s="184"/>
-      <c r="U4" s="184"/>
-      <c r="V4" s="184"/>
-      <c r="W4" s="184"/>
-      <c r="X4" s="184"/>
-      <c r="Y4" s="184"/>
-      <c r="Z4" s="184"/>
-      <c r="AA4" s="184"/>
-      <c r="AB4" s="184"/>
-      <c r="AC4" s="184"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="184"/>
-      <c r="AF4" s="185"/>
-      <c r="AG4" s="183">
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="124">
         <v>11</v>
       </c>
-      <c r="AH4" s="184"/>
-      <c r="AI4" s="184"/>
-      <c r="AJ4" s="184"/>
-      <c r="AK4" s="184"/>
-      <c r="AL4" s="184"/>
-      <c r="AM4" s="184"/>
-      <c r="AN4" s="184"/>
-      <c r="AO4" s="184"/>
-      <c r="AP4" s="184"/>
-      <c r="AQ4" s="184"/>
-      <c r="AR4" s="184"/>
-      <c r="AS4" s="184"/>
-      <c r="AT4" s="184"/>
-      <c r="AU4" s="184"/>
-      <c r="AV4" s="184"/>
-      <c r="AW4" s="184"/>
-      <c r="AX4" s="184"/>
-      <c r="AY4" s="184"/>
-      <c r="AZ4" s="184"/>
-      <c r="BA4" s="184"/>
-      <c r="BB4" s="184"/>
-      <c r="BC4" s="184"/>
-      <c r="BD4" s="184"/>
-      <c r="BE4" s="184"/>
-      <c r="BF4" s="184"/>
-      <c r="BG4" s="184"/>
-      <c r="BH4" s="184"/>
-      <c r="BI4" s="184"/>
-      <c r="BJ4" s="185"/>
-      <c r="BK4" s="183">
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="125"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="125"/>
+      <c r="AM4" s="125"/>
+      <c r="AN4" s="125"/>
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="125"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="125"/>
+      <c r="AS4" s="125"/>
+      <c r="AT4" s="125"/>
+      <c r="AU4" s="125"/>
+      <c r="AV4" s="125"/>
+      <c r="AW4" s="125"/>
+      <c r="AX4" s="125"/>
+      <c r="AY4" s="125"/>
+      <c r="AZ4" s="125"/>
+      <c r="BA4" s="125"/>
+      <c r="BB4" s="125"/>
+      <c r="BC4" s="125"/>
+      <c r="BD4" s="125"/>
+      <c r="BE4" s="125"/>
+      <c r="BF4" s="125"/>
+      <c r="BG4" s="125"/>
+      <c r="BH4" s="125"/>
+      <c r="BI4" s="125"/>
+      <c r="BJ4" s="126"/>
+      <c r="BK4" s="124">
         <v>12</v>
       </c>
-      <c r="BL4" s="184"/>
-      <c r="BM4" s="184"/>
-      <c r="BN4" s="184"/>
-      <c r="BO4" s="184"/>
-      <c r="BP4" s="184"/>
-      <c r="BQ4" s="184"/>
-      <c r="BR4" s="184"/>
-      <c r="BS4" s="184"/>
-      <c r="BT4" s="184"/>
-      <c r="BU4" s="184"/>
-      <c r="BV4" s="184"/>
-      <c r="BW4" s="184"/>
-      <c r="BX4" s="184"/>
-      <c r="BY4" s="184"/>
-      <c r="BZ4" s="184"/>
-      <c r="CA4" s="184"/>
-      <c r="CB4" s="184"/>
-      <c r="CC4" s="184"/>
-      <c r="CD4" s="184"/>
-      <c r="CE4" s="184"/>
-      <c r="CF4" s="184"/>
-      <c r="CG4" s="184"/>
-      <c r="CH4" s="184"/>
-      <c r="CI4" s="184"/>
-      <c r="CJ4" s="184"/>
-      <c r="CK4" s="184"/>
-      <c r="CL4" s="184"/>
-      <c r="CM4" s="184"/>
-      <c r="CN4" s="184"/>
-      <c r="CO4" s="185"/>
-      <c r="CP4" s="183">
+      <c r="BL4" s="125"/>
+      <c r="BM4" s="125"/>
+      <c r="BN4" s="125"/>
+      <c r="BO4" s="125"/>
+      <c r="BP4" s="125"/>
+      <c r="BQ4" s="125"/>
+      <c r="BR4" s="125"/>
+      <c r="BS4" s="125"/>
+      <c r="BT4" s="125"/>
+      <c r="BU4" s="125"/>
+      <c r="BV4" s="125"/>
+      <c r="BW4" s="125"/>
+      <c r="BX4" s="125"/>
+      <c r="BY4" s="125"/>
+      <c r="BZ4" s="125"/>
+      <c r="CA4" s="125"/>
+      <c r="CB4" s="125"/>
+      <c r="CC4" s="125"/>
+      <c r="CD4" s="125"/>
+      <c r="CE4" s="125"/>
+      <c r="CF4" s="125"/>
+      <c r="CG4" s="125"/>
+      <c r="CH4" s="125"/>
+      <c r="CI4" s="125"/>
+      <c r="CJ4" s="125"/>
+      <c r="CK4" s="125"/>
+      <c r="CL4" s="125"/>
+      <c r="CM4" s="125"/>
+      <c r="CN4" s="125"/>
+      <c r="CO4" s="126"/>
+      <c r="CP4" s="124">
         <v>1</v>
       </c>
-      <c r="CQ4" s="184"/>
-      <c r="CR4" s="184"/>
-      <c r="CS4" s="184"/>
-      <c r="CT4" s="184"/>
-      <c r="CU4" s="184"/>
-      <c r="CV4" s="184"/>
-      <c r="CW4" s="184"/>
-      <c r="CX4" s="184"/>
-      <c r="CY4" s="184"/>
-      <c r="CZ4" s="184"/>
-      <c r="DA4" s="184"/>
-      <c r="DB4" s="184"/>
-      <c r="DC4" s="184"/>
-      <c r="DD4" s="184"/>
-      <c r="DE4" s="184"/>
-      <c r="DF4" s="184"/>
-      <c r="DG4" s="184"/>
-      <c r="DH4" s="184"/>
-      <c r="DI4" s="184"/>
-      <c r="DJ4" s="184"/>
-      <c r="DK4" s="184"/>
-      <c r="DL4" s="184"/>
-      <c r="DM4" s="184"/>
-      <c r="DN4" s="184"/>
-      <c r="DO4" s="184"/>
-      <c r="DP4" s="184"/>
-      <c r="DQ4" s="184"/>
-      <c r="DR4" s="184"/>
-      <c r="DS4" s="184"/>
-      <c r="DT4" s="185"/>
+      <c r="CQ4" s="125"/>
+      <c r="CR4" s="125"/>
+      <c r="CS4" s="125"/>
+      <c r="CT4" s="125"/>
+      <c r="CU4" s="125"/>
+      <c r="CV4" s="125"/>
+      <c r="CW4" s="125"/>
+      <c r="CX4" s="125"/>
+      <c r="CY4" s="125"/>
+      <c r="CZ4" s="125"/>
+      <c r="DA4" s="125"/>
+      <c r="DB4" s="125"/>
+      <c r="DC4" s="125"/>
+      <c r="DD4" s="125"/>
+      <c r="DE4" s="125"/>
+      <c r="DF4" s="125"/>
+      <c r="DG4" s="125"/>
+      <c r="DH4" s="125"/>
+      <c r="DI4" s="125"/>
+      <c r="DJ4" s="125"/>
+      <c r="DK4" s="125"/>
+      <c r="DL4" s="125"/>
+      <c r="DM4" s="125"/>
+      <c r="DN4" s="125"/>
+      <c r="DO4" s="125"/>
+      <c r="DP4" s="125"/>
+      <c r="DQ4" s="125"/>
+      <c r="DR4" s="125"/>
+      <c r="DS4" s="125"/>
+      <c r="DT4" s="126"/>
       <c r="DU4" s="8"/>
     </row>
     <row r="5" spans="1:125" ht="18" customHeight="1">
@@ -4080,33 +4080,33 @@
     </row>
     <row r="7" spans="1:125" ht="9.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="179" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="179" t="s">
+      <c r="I7" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="180" t="s">
+      <c r="J7" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="180" t="s">
+      <c r="K7" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="180" t="s">
+      <c r="L7" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="180" t="s">
+      <c r="M7" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="N7" s="181" t="s">
+      <c r="N7" s="133" t="s">
         <v>37</v>
       </c>
       <c r="O7" s="15"/>
@@ -4223,19 +4223,19 @@
     </row>
     <row r="8" spans="1:125" ht="9.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="181"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="133"/>
       <c r="O8" s="17"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -4351,20 +4351,20 @@
     <row r="9" spans="1:125" ht="9.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="182" t="s">
+      <c r="C9" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="133"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
@@ -4480,18 +4480,18 @@
     <row r="10" spans="1:125" ht="9.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="133"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
@@ -4607,20 +4607,20 @@
     <row r="11" spans="1:125" ht="9.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="133"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="112"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
@@ -4736,18 +4736,18 @@
     <row r="12" spans="1:125" ht="9.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="133"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="112"/>
       <c r="O12" s="25"/>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
@@ -4864,23 +4864,23 @@
       <c r="A13" s="2"/>
       <c r="B13" s="24"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="177" t="s">
+      <c r="D13" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="111">
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="139">
         <v>0.5</v>
       </c>
-      <c r="I13" s="170"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119" t="s">
+      <c r="I13" s="140"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="119"/>
-      <c r="N13" s="142">
+      <c r="M13" s="113"/>
+      <c r="N13" s="141">
         <v>100</v>
       </c>
       <c r="O13" s="17"/>
@@ -4999,17 +4999,17 @@
       <c r="A14" s="2"/>
       <c r="B14" s="24"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="142"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="141"/>
       <c r="O14" s="17"/>
       <c r="Q14" s="82"/>
       <c r="R14" s="18"/>
@@ -5125,23 +5125,23 @@
       <c r="A15" s="2"/>
       <c r="B15" s="24"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="177" t="s">
+      <c r="D15" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="111">
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="139">
         <v>0.5</v>
       </c>
-      <c r="I15" s="170"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119" t="s">
+      <c r="I15" s="140"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="119"/>
-      <c r="N15" s="142">
+      <c r="M15" s="113"/>
+      <c r="N15" s="141">
         <v>100</v>
       </c>
       <c r="O15" s="32"/>
@@ -5260,17 +5260,17 @@
       <c r="A16" s="2"/>
       <c r="B16" s="24"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="142"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="141"/>
       <c r="O16" s="32"/>
       <c r="Q16" s="82"/>
       <c r="R16" s="18"/>
@@ -5386,23 +5386,23 @@
       <c r="A17" s="2"/>
       <c r="B17" s="24"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="111">
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="139">
         <v>0.5</v>
       </c>
-      <c r="I17" s="170"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119" t="s">
+      <c r="I17" s="140"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="119"/>
-      <c r="N17" s="142">
+      <c r="M17" s="113"/>
+      <c r="N17" s="141">
         <v>100</v>
       </c>
       <c r="O17" s="32"/>
@@ -5521,17 +5521,17 @@
       <c r="A18" s="2"/>
       <c r="B18" s="24"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="142"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="141"/>
       <c r="O18" s="32"/>
       <c r="Q18" s="82"/>
       <c r="R18" s="18"/>
@@ -5647,23 +5647,23 @@
       <c r="A19" s="2"/>
       <c r="B19" s="24"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="177" t="s">
+      <c r="D19" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="111">
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="139">
         <v>0.5</v>
       </c>
-      <c r="I19" s="170"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119" t="s">
+      <c r="I19" s="140"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="119"/>
-      <c r="N19" s="142">
+      <c r="M19" s="113"/>
+      <c r="N19" s="141">
         <v>100</v>
       </c>
       <c r="O19" s="32"/>
@@ -5782,17 +5782,17 @@
       <c r="A20" s="2"/>
       <c r="B20" s="24"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="142"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="141"/>
       <c r="O20" s="34"/>
       <c r="Q20" s="86"/>
       <c r="R20" s="35"/>
@@ -5907,20 +5907,20 @@
     <row r="21" spans="1:125" ht="9.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="133"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="112"/>
       <c r="O21" s="21"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="22"/>
@@ -6036,18 +6036,18 @@
     <row r="22" spans="1:125" ht="9.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="133"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="112"/>
       <c r="O22" s="25"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
@@ -6164,23 +6164,23 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="174" t="s">
+      <c r="D23" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="111">
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="139">
         <v>2</v>
       </c>
-      <c r="I23" s="170"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119" t="s">
+      <c r="I23" s="140"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="119"/>
-      <c r="N23" s="142">
+      <c r="M23" s="113"/>
+      <c r="N23" s="141">
         <v>100</v>
       </c>
       <c r="O23" s="32"/>
@@ -6299,17 +6299,17 @@
       <c r="A24" s="2"/>
       <c r="B24" s="24"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="142"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="141"/>
       <c r="O24" s="32"/>
       <c r="P24" s="18"/>
       <c r="R24" s="82"/>
@@ -6424,20 +6424,20 @@
     <row r="25" spans="1:125" ht="9.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="173" t="s">
+      <c r="C25" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="133"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="112"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="22"/>
@@ -6553,18 +6553,18 @@
     <row r="26" spans="1:125" ht="9.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="133"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="112"/>
       <c r="O26" s="25"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -6681,23 +6681,23 @@
       <c r="A27" s="2"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="174" t="s">
+      <c r="D27" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="111">
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="139">
         <v>1</v>
       </c>
-      <c r="I27" s="170"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119" t="s">
+      <c r="I27" s="140"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="119"/>
-      <c r="N27" s="142">
+      <c r="M27" s="113"/>
+      <c r="N27" s="141">
         <v>100</v>
       </c>
       <c r="O27" s="32"/>
@@ -6816,17 +6816,17 @@
       <c r="A28" s="2"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="142"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="141"/>
       <c r="O28" s="32"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -6943,23 +6943,23 @@
       <c r="A29" s="2"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="175" t="s">
+      <c r="D29" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="111">
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="139">
         <v>1</v>
       </c>
-      <c r="I29" s="170"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119" t="s">
+      <c r="I29" s="140"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="119"/>
-      <c r="N29" s="142">
+      <c r="M29" s="113"/>
+      <c r="N29" s="141">
         <v>100</v>
       </c>
       <c r="O29" s="32"/>
@@ -7078,17 +7078,17 @@
       <c r="A30" s="2"/>
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="142"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="141"/>
       <c r="O30" s="34"/>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
@@ -7203,20 +7203,20 @@
     <row r="31" spans="1:125" ht="9.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="173" t="s">
+      <c r="C31" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="133"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="112"/>
       <c r="O31" s="21"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="22"/>
@@ -7332,18 +7332,18 @@
     <row r="32" spans="1:125" ht="9.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="133"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="112"/>
       <c r="O32" s="25"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
@@ -7460,19 +7460,19 @@
       <c r="A33" s="2"/>
       <c r="B33" s="24"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="158" t="s">
+      <c r="D33" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="133"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="112"/>
       <c r="O33" s="42"/>
       <c r="P33" s="43"/>
       <c r="Q33" s="43"/>
@@ -7589,17 +7589,17 @@
       <c r="A34" s="2"/>
       <c r="B34" s="24"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="140"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="133"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="112"/>
       <c r="O34" s="44"/>
       <c r="P34" s="31"/>
       <c r="Q34" s="31"/>
@@ -7717,22 +7717,22 @@
       <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="155" t="s">
+      <c r="E35" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="159"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="111">
+      <c r="F35" s="129"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="139">
         <v>1</v>
       </c>
-      <c r="I35" s="170"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119" t="s">
+      <c r="I35" s="140"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="119"/>
-      <c r="N35" s="142">
+      <c r="M35" s="113"/>
+      <c r="N35" s="141">
         <v>100</v>
       </c>
       <c r="O35" s="32"/>
@@ -7852,16 +7852,16 @@
       <c r="B36" s="24"/>
       <c r="C36" s="2"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="142"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="141"/>
       <c r="O36" s="32"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -7979,20 +7979,20 @@
       <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="155" t="s">
+      <c r="E37" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="159"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119" t="s">
+      <c r="F37" s="129"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="119"/>
-      <c r="N37" s="142">
+      <c r="M37" s="113"/>
+      <c r="N37" s="141">
         <v>100</v>
       </c>
       <c r="O37" s="32"/>
@@ -8112,16 +8112,16 @@
       <c r="B38" s="24"/>
       <c r="C38" s="2"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="142"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="141"/>
       <c r="O38" s="34"/>
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
@@ -8238,19 +8238,19 @@
       <c r="A39" s="2"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="172" t="s">
+      <c r="D39" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="140"/>
-      <c r="M39" s="140"/>
-      <c r="N39" s="133"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="112"/>
       <c r="O39" s="42"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
@@ -8367,17 +8367,17 @@
       <c r="A40" s="2"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="133"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
       <c r="O40" s="44"/>
       <c r="P40" s="31"/>
       <c r="Q40" s="31"/>
@@ -8495,22 +8495,22 @@
       <c r="B41" s="24"/>
       <c r="C41" s="2"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="155" t="s">
+      <c r="E41" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="159"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="111">
+      <c r="F41" s="129"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="139">
         <v>1</v>
       </c>
-      <c r="I41" s="170"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119" t="s">
+      <c r="I41" s="140"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="119"/>
-      <c r="N41" s="142">
+      <c r="M41" s="113"/>
+      <c r="N41" s="141">
         <v>100</v>
       </c>
       <c r="O41" s="32"/>
@@ -8630,16 +8630,16 @@
       <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="142"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="141"/>
       <c r="O42" s="32"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
@@ -8756,22 +8756,22 @@
       <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="155" t="s">
+      <c r="E43" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="159"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="111">
+      <c r="F43" s="129"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="139">
         <v>4</v>
       </c>
-      <c r="I43" s="170"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119" t="s">
+      <c r="I43" s="140"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="119"/>
-      <c r="N43" s="142">
+      <c r="M43" s="113"/>
+      <c r="N43" s="141">
         <v>100</v>
       </c>
       <c r="O43" s="32"/>
@@ -8891,16 +8891,16 @@
       <c r="B44" s="24"/>
       <c r="C44" s="2"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="160"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="142"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="141"/>
       <c r="O44" s="32"/>
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
@@ -9017,22 +9017,22 @@
       <c r="B45" s="24"/>
       <c r="C45" s="2"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="155" t="s">
+      <c r="E45" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="159"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="111">
+      <c r="F45" s="129"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="139">
         <v>0.5</v>
       </c>
-      <c r="I45" s="170"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119" t="s">
+      <c r="I45" s="140"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="119"/>
-      <c r="N45" s="142">
+      <c r="M45" s="113"/>
+      <c r="N45" s="141">
         <v>100</v>
       </c>
       <c r="O45" s="32"/>
@@ -9152,16 +9152,16 @@
       <c r="B46" s="24"/>
       <c r="C46" s="2"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="142"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="141"/>
       <c r="O46" s="32"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
@@ -9279,22 +9279,22 @@
       <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="155" t="s">
+      <c r="E47" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="159"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="111">
+      <c r="F47" s="129"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="139">
         <v>4</v>
       </c>
-      <c r="I47" s="170"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119" t="s">
+      <c r="I47" s="140"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="119"/>
-      <c r="N47" s="142">
+      <c r="M47" s="113"/>
+      <c r="N47" s="141">
         <v>100</v>
       </c>
       <c r="O47" s="32"/>
@@ -9414,16 +9414,16 @@
       <c r="B48" s="24"/>
       <c r="C48" s="2"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="142"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="141"/>
       <c r="O48" s="32"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
@@ -9541,22 +9541,22 @@
       <c r="B49" s="24"/>
       <c r="C49" s="2"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="155" t="s">
+      <c r="E49" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="159"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="111">
+      <c r="F49" s="129"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="139">
         <v>4</v>
       </c>
-      <c r="I49" s="170"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119" t="s">
+      <c r="I49" s="140"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="119"/>
-      <c r="N49" s="142">
+      <c r="M49" s="113"/>
+      <c r="N49" s="141">
         <v>100</v>
       </c>
       <c r="O49" s="32"/>
@@ -9676,16 +9676,16 @@
       <c r="B50" s="24"/>
       <c r="C50" s="2"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="170"/>
-      <c r="J50" s="120"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="142"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="141"/>
       <c r="O50" s="32"/>
       <c r="P50" s="18"/>
       <c r="Q50" s="18"/>
@@ -9803,22 +9803,22 @@
       <c r="B51" s="24"/>
       <c r="C51" s="2"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="155" t="s">
+      <c r="E51" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="159"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="111">
+      <c r="F51" s="129"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="139">
         <v>0.5</v>
       </c>
-      <c r="I51" s="170"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119" t="s">
+      <c r="I51" s="140"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="119"/>
-      <c r="N51" s="142">
+      <c r="M51" s="113"/>
+      <c r="N51" s="141">
         <v>100</v>
       </c>
       <c r="O51" s="32"/>
@@ -9938,16 +9938,16 @@
       <c r="B52" s="24"/>
       <c r="C52" s="2"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="142"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="141"/>
       <c r="O52" s="34"/>
       <c r="P52" s="35"/>
       <c r="Q52" s="35"/>
@@ -10064,19 +10064,19 @@
       <c r="A53" s="2"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="158" t="s">
+      <c r="D53" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="159"/>
-      <c r="F53" s="159"/